--- a/Egypt Division 1/Egypt Division 1.xlsx
+++ b/Egypt Division 1/Egypt Division 1.xlsx
@@ -16574,7 +16574,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>3488117</v>
+        <v>3486805</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16586,56 +16586,56 @@
         <v>44362.58333333334</v>
       </c>
       <c r="F181" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G181" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J181" t="s">
         <v>56</v>
       </c>
       <c r="K181">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="L181">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M181">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="N181">
-        <v>3.3</v>
+        <v>1.65</v>
       </c>
       <c r="O181">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P181">
-        <v>2.2</v>
+        <v>5.75</v>
       </c>
       <c r="Q181">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R181">
+        <v>1.9</v>
+      </c>
+      <c r="S181">
+        <v>1.9</v>
+      </c>
+      <c r="T181">
+        <v>2.5</v>
+      </c>
+      <c r="U181">
         <v>1.85</v>
       </c>
-      <c r="S181">
+      <c r="V181">
         <v>1.95</v>
       </c>
-      <c r="T181">
-        <v>2</v>
-      </c>
-      <c r="U181">
-        <v>1.95</v>
-      </c>
-      <c r="V181">
-        <v>1.85</v>
-      </c>
       <c r="W181">
         <v>-1</v>
       </c>
@@ -16643,16 +16643,16 @@
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>1.2</v>
+        <v>4.75</v>
       </c>
       <c r="Z181">
         <v>-1</v>
       </c>
       <c r="AA181">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB181">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC181">
         <v>-1</v>
@@ -16663,7 +16663,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>3486805</v>
+        <v>3488117</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16675,56 +16675,56 @@
         <v>44362.58333333334</v>
       </c>
       <c r="F182" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G182" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I182">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J182" t="s">
         <v>56</v>
       </c>
       <c r="K182">
-        <v>1.727</v>
+        <v>3</v>
       </c>
       <c r="L182">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M182">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="N182">
-        <v>1.65</v>
+        <v>3.3</v>
       </c>
       <c r="O182">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P182">
-        <v>5.75</v>
+        <v>2.2</v>
       </c>
       <c r="Q182">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R182">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S182">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T182">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U182">
+        <v>1.95</v>
+      </c>
+      <c r="V182">
         <v>1.85</v>
       </c>
-      <c r="V182">
-        <v>1.95</v>
-      </c>
       <c r="W182">
         <v>-1</v>
       </c>
@@ -16732,16 +16732,16 @@
         <v>-1</v>
       </c>
       <c r="Y182">
-        <v>4.75</v>
+        <v>1.2</v>
       </c>
       <c r="Z182">
         <v>-1</v>
       </c>
       <c r="AA182">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB182">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC182">
         <v>-1</v>
@@ -17375,7 +17375,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>3680104</v>
+        <v>3680106</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17387,76 +17387,76 @@
         <v>44372.58333333334</v>
       </c>
       <c r="F190" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G190" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H190">
         <v>1</v>
       </c>
       <c r="I190">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J190" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K190">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="L190">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M190">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="N190">
         <v>3.1</v>
       </c>
       <c r="O190">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="P190">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="Q190">
         <v>0.25</v>
       </c>
       <c r="R190">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="S190">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T190">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U190">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V190">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W190">
         <v>-1</v>
       </c>
       <c r="X190">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y190">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z190">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA190">
-        <v>-0.5</v>
+        <v>1.1</v>
       </c>
       <c r="AB190">
-        <v>0.4</v>
+        <v>0.875</v>
       </c>
       <c r="AC190">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17464,7 +17464,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>3680106</v>
+        <v>3680104</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17476,76 +17476,76 @@
         <v>44372.58333333334</v>
       </c>
       <c r="F191" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G191" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H191">
         <v>1</v>
       </c>
       <c r="I191">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J191" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K191">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="L191">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M191">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="N191">
         <v>3.1</v>
       </c>
       <c r="O191">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="P191">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q191">
         <v>0.25</v>
       </c>
       <c r="R191">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="S191">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T191">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U191">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V191">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W191">
         <v>-1</v>
       </c>
       <c r="X191">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y191">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z191">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA191">
-        <v>1.1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB191">
-        <v>0.875</v>
+        <v>0.4</v>
       </c>
       <c r="AC191">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17820,7 +17820,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>3486926</v>
+        <v>3486927</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17832,64 +17832,64 @@
         <v>44375.58333333334</v>
       </c>
       <c r="F195" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G195" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I195">
         <v>1</v>
       </c>
       <c r="J195" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K195">
-        <v>2.7</v>
+        <v>5.5</v>
       </c>
       <c r="L195">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M195">
-        <v>2.5</v>
+        <v>1.571</v>
       </c>
       <c r="N195">
-        <v>2.75</v>
+        <v>7.5</v>
       </c>
       <c r="O195">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="P195">
-        <v>2.625</v>
+        <v>1.45</v>
       </c>
       <c r="Q195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R195">
+        <v>1.9</v>
+      </c>
+      <c r="S195">
+        <v>1.9</v>
+      </c>
+      <c r="T195">
+        <v>2.25</v>
+      </c>
+      <c r="U195">
         <v>1.95</v>
       </c>
-      <c r="S195">
+      <c r="V195">
         <v>1.85</v>
       </c>
-      <c r="T195">
-        <v>2</v>
-      </c>
-      <c r="U195">
-        <v>1.875</v>
-      </c>
-      <c r="V195">
-        <v>1.925</v>
-      </c>
       <c r="W195">
         <v>-1</v>
       </c>
       <c r="X195">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y195">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z195">
         <v>0</v>
@@ -17898,10 +17898,10 @@
         <v>-0</v>
       </c>
       <c r="AB195">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC195">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17909,7 +17909,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>3486927</v>
+        <v>3486926</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17921,64 +17921,64 @@
         <v>44375.58333333334</v>
       </c>
       <c r="F196" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G196" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I196">
         <v>1</v>
       </c>
       <c r="J196" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K196">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
       <c r="L196">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M196">
-        <v>1.571</v>
+        <v>2.5</v>
       </c>
       <c r="N196">
-        <v>7.5</v>
+        <v>2.75</v>
       </c>
       <c r="O196">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="P196">
-        <v>1.45</v>
+        <v>2.625</v>
       </c>
       <c r="Q196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R196">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S196">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T196">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U196">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V196">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W196">
         <v>-1</v>
       </c>
       <c r="X196">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y196">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z196">
         <v>0</v>
@@ -17987,10 +17987,10 @@
         <v>-0</v>
       </c>
       <c r="AB196">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC196">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -20045,7 +20045,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>3854452</v>
+        <v>3854453</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20057,76 +20057,76 @@
         <v>44416.66666666666</v>
       </c>
       <c r="F220" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G220" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H220">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I220">
         <v>1</v>
       </c>
       <c r="J220" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K220">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="L220">
         <v>3.2</v>
       </c>
       <c r="M220">
+        <v>2.4</v>
+      </c>
+      <c r="N220">
         <v>3.1</v>
       </c>
-      <c r="N220">
-        <v>2.375</v>
-      </c>
       <c r="O220">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P220">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="Q220">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R220">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S220">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T220">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U220">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V220">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W220">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X220">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y220">
         <v>-1</v>
       </c>
       <c r="Z220">
-        <v>1.05</v>
+        <v>0.4125</v>
       </c>
       <c r="AA220">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB220">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC220">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20134,7 +20134,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>3854453</v>
+        <v>3854452</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20146,76 +20146,76 @@
         <v>44416.66666666666</v>
       </c>
       <c r="F221" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G221" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I221">
         <v>1</v>
       </c>
       <c r="J221" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K221">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="L221">
         <v>3.2</v>
       </c>
       <c r="M221">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="N221">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="O221">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P221">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="Q221">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R221">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S221">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T221">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U221">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V221">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W221">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X221">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y221">
         <v>-1</v>
       </c>
       <c r="Z221">
-        <v>0.4125</v>
+        <v>1.05</v>
       </c>
       <c r="AA221">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB221">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC221">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -21113,7 +21113,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>3854916</v>
+        <v>3854917</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21125,76 +21125,76 @@
         <v>44422.58333333334</v>
       </c>
       <c r="F232" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G232" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I232">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J232" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K232">
-        <v>2.1</v>
+        <v>4.75</v>
       </c>
       <c r="L232">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M232">
-        <v>3.4</v>
+        <v>1.666</v>
       </c>
       <c r="N232">
-        <v>2.1</v>
+        <v>4.75</v>
       </c>
       <c r="O232">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P232">
-        <v>3.4</v>
+        <v>1.666</v>
       </c>
       <c r="Q232">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R232">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S232">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T232">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U232">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V232">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W232">
         <v>-1</v>
       </c>
       <c r="X232">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y232">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z232">
+        <v>-1</v>
+      </c>
+      <c r="AA232">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB232">
         <v>-0.5</v>
       </c>
-      <c r="AA232">
-        <v>0.5</v>
-      </c>
-      <c r="AB232">
-        <v>0</v>
-      </c>
       <c r="AC232">
-        <v>-0</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21202,7 +21202,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>3854917</v>
+        <v>3854916</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21214,76 +21214,76 @@
         <v>44422.58333333334</v>
       </c>
       <c r="F233" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G233" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I233">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J233" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K233">
-        <v>4.75</v>
+        <v>2.1</v>
       </c>
       <c r="L233">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M233">
-        <v>1.666</v>
+        <v>3.4</v>
       </c>
       <c r="N233">
-        <v>4.75</v>
+        <v>2.1</v>
       </c>
       <c r="O233">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P233">
-        <v>1.666</v>
+        <v>3.4</v>
       </c>
       <c r="Q233">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R233">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S233">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T233">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U233">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V233">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W233">
         <v>-1</v>
       </c>
       <c r="X233">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y233">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z233">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA233">
-        <v>0.8500000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AB233">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC233">
-        <v>0.425</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21914,7 +21914,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>3854473</v>
+        <v>3854474</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21926,76 +21926,76 @@
         <v>44425.66666666666</v>
       </c>
       <c r="F241" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G241" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I241">
         <v>0</v>
       </c>
       <c r="J241" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K241">
-        <v>7</v>
+        <v>1.333</v>
       </c>
       <c r="L241">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M241">
+        <v>9</v>
+      </c>
+      <c r="N241">
         <v>1.333</v>
       </c>
-      <c r="N241">
-        <v>7.5</v>
-      </c>
       <c r="O241">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P241">
-        <v>1.3</v>
+        <v>9</v>
       </c>
       <c r="Q241">
-        <v>1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R241">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S241">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T241">
         <v>2.75</v>
       </c>
       <c r="U241">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V241">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W241">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X241">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y241">
         <v>-1</v>
       </c>
       <c r="Z241">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA241">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB241">
         <v>-1</v>
       </c>
       <c r="AC241">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="242" spans="1:29">
@@ -22003,7 +22003,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>3854474</v>
+        <v>3854473</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
@@ -22015,76 +22015,76 @@
         <v>44425.66666666666</v>
       </c>
       <c r="F242" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G242" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H242">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I242">
         <v>0</v>
       </c>
       <c r="J242" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K242">
+        <v>7</v>
+      </c>
+      <c r="L242">
+        <v>4.5</v>
+      </c>
+      <c r="M242">
         <v>1.333</v>
       </c>
-      <c r="L242">
-        <v>4</v>
-      </c>
-      <c r="M242">
-        <v>9</v>
-      </c>
       <c r="N242">
-        <v>1.333</v>
+        <v>7.5</v>
       </c>
       <c r="O242">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P242">
-        <v>9</v>
+        <v>1.3</v>
       </c>
       <c r="Q242">
-        <v>-1.25</v>
+        <v>1.5</v>
       </c>
       <c r="R242">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S242">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T242">
         <v>2.75</v>
       </c>
       <c r="U242">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V242">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W242">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X242">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y242">
         <v>-1</v>
       </c>
       <c r="Z242">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA242">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB242">
         <v>-1</v>
       </c>
       <c r="AC242">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:29">
@@ -29568,7 +29568,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>4239384</v>
+        <v>4226784</v>
       </c>
       <c r="C327" t="s">
         <v>28</v>
@@ -29580,76 +29580,76 @@
         <v>44550.625</v>
       </c>
       <c r="F327" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G327" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I327">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J327" t="s">
         <v>55</v>
       </c>
       <c r="K327">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="L327">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M327">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="N327">
-        <v>1.727</v>
+        <v>2.7</v>
       </c>
       <c r="O327">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="P327">
-        <v>4.333</v>
+        <v>2.6</v>
       </c>
       <c r="Q327">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R327">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S327">
+        <v>1.875</v>
+      </c>
+      <c r="T327">
+        <v>2.25</v>
+      </c>
+      <c r="U327">
+        <v>2.025</v>
+      </c>
+      <c r="V327">
+        <v>1.775</v>
+      </c>
+      <c r="W327">
+        <v>-1</v>
+      </c>
+      <c r="X327">
         <v>1.8</v>
       </c>
-      <c r="T327">
-        <v>2.5</v>
-      </c>
-      <c r="U327">
-        <v>1.9</v>
-      </c>
-      <c r="V327">
-        <v>1.9</v>
-      </c>
-      <c r="W327">
-        <v>-1</v>
-      </c>
-      <c r="X327">
-        <v>2.2</v>
-      </c>
       <c r="Y327">
         <v>-1</v>
       </c>
       <c r="Z327">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA327">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB327">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC327">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="328" spans="1:29">
@@ -29657,7 +29657,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>4226784</v>
+        <v>4239384</v>
       </c>
       <c r="C328" t="s">
         <v>28</v>
@@ -29669,76 +29669,76 @@
         <v>44550.625</v>
       </c>
       <c r="F328" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G328" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="H328">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I328">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J328" t="s">
         <v>55</v>
       </c>
       <c r="K328">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="L328">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M328">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="N328">
-        <v>2.7</v>
+        <v>1.727</v>
       </c>
       <c r="O328">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="P328">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="Q328">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R328">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S328">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T328">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U328">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V328">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W328">
         <v>-1</v>
       </c>
       <c r="X328">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="Y328">
         <v>-1</v>
       </c>
       <c r="Z328">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA328">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB328">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC328">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="329" spans="1:29">
@@ -35086,7 +35086,7 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>4656664</v>
+        <v>4656665</v>
       </c>
       <c r="C389" t="s">
         <v>28</v>
@@ -35098,10 +35098,10 @@
         <v>44665.6875</v>
       </c>
       <c r="F389" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G389" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H389">
         <v>1</v>
@@ -35113,61 +35113,61 @@
         <v>55</v>
       </c>
       <c r="K389">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="L389">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M389">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="N389">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="O389">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="P389">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="Q389">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R389">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="S389">
-        <v>2.075</v>
+        <v>1.875</v>
       </c>
       <c r="T389">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U389">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V389">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W389">
         <v>-1</v>
       </c>
       <c r="X389">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Y389">
         <v>-1</v>
       </c>
       <c r="Z389">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA389">
+        <v>0.4375</v>
+      </c>
+      <c r="AB389">
+        <v>0</v>
+      </c>
+      <c r="AC389">
         <v>-0</v>
-      </c>
-      <c r="AB389">
-        <v>0.3875</v>
-      </c>
-      <c r="AC389">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="390" spans="1:29">
@@ -35175,7 +35175,7 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>4656665</v>
+        <v>4656666</v>
       </c>
       <c r="C390" t="s">
         <v>28</v>
@@ -35187,10 +35187,10 @@
         <v>44665.6875</v>
       </c>
       <c r="F390" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G390" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H390">
         <v>1</v>
@@ -35202,46 +35202,46 @@
         <v>55</v>
       </c>
       <c r="K390">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L390">
+        <v>2.875</v>
+      </c>
+      <c r="M390">
+        <v>3.25</v>
+      </c>
+      <c r="N390">
+        <v>2.4</v>
+      </c>
+      <c r="O390">
+        <v>2.75</v>
+      </c>
+      <c r="P390">
         <v>3</v>
-      </c>
-      <c r="M390">
-        <v>3.6</v>
-      </c>
-      <c r="N390">
-        <v>2.2</v>
-      </c>
-      <c r="O390">
-        <v>2.8</v>
-      </c>
-      <c r="P390">
-        <v>3.4</v>
       </c>
       <c r="Q390">
         <v>-0.25</v>
       </c>
       <c r="R390">
+        <v>2.075</v>
+      </c>
+      <c r="S390">
+        <v>1.725</v>
+      </c>
+      <c r="T390">
+        <v>2</v>
+      </c>
+      <c r="U390">
         <v>1.925</v>
       </c>
-      <c r="S390">
+      <c r="V390">
         <v>1.875</v>
       </c>
-      <c r="T390">
-        <v>2</v>
-      </c>
-      <c r="U390">
-        <v>1.95</v>
-      </c>
-      <c r="V390">
-        <v>1.85</v>
-      </c>
       <c r="W390">
         <v>-1</v>
       </c>
       <c r="X390">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Y390">
         <v>-1</v>
@@ -35250,7 +35250,7 @@
         <v>-0.5</v>
       </c>
       <c r="AA390">
-        <v>0.4375</v>
+        <v>0.3625</v>
       </c>
       <c r="AB390">
         <v>0</v>
@@ -35264,7 +35264,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>4656666</v>
+        <v>4656664</v>
       </c>
       <c r="C391" t="s">
         <v>28</v>
@@ -35276,10 +35276,10 @@
         <v>44665.6875</v>
       </c>
       <c r="F391" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G391" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H391">
         <v>1</v>
@@ -35291,40 +35291,40 @@
         <v>55</v>
       </c>
       <c r="K391">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="L391">
         <v>2.875</v>
       </c>
       <c r="M391">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="N391">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="O391">
         <v>2.75</v>
       </c>
       <c r="P391">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Q391">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R391">
+        <v>1.725</v>
+      </c>
+      <c r="S391">
         <v>2.075</v>
       </c>
-      <c r="S391">
-        <v>1.725</v>
-      </c>
       <c r="T391">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U391">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V391">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W391">
         <v>-1</v>
@@ -35336,16 +35336,16 @@
         <v>-1</v>
       </c>
       <c r="Z391">
+        <v>0</v>
+      </c>
+      <c r="AA391">
+        <v>-0</v>
+      </c>
+      <c r="AB391">
+        <v>0.3875</v>
+      </c>
+      <c r="AC391">
         <v>-0.5</v>
-      </c>
-      <c r="AA391">
-        <v>0.3625</v>
-      </c>
-      <c r="AB391">
-        <v>0</v>
-      </c>
-      <c r="AC391">
-        <v>-0</v>
       </c>
     </row>
     <row r="392" spans="1:29">
@@ -35531,7 +35531,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>4656671</v>
+        <v>4656670</v>
       </c>
       <c r="C394" t="s">
         <v>28</v>
@@ -35543,76 +35543,76 @@
         <v>44669.6875</v>
       </c>
       <c r="F394" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G394" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I394">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J394" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K394">
+        <v>2.1</v>
+      </c>
+      <c r="L394">
+        <v>2.875</v>
+      </c>
+      <c r="M394">
+        <v>3.5</v>
+      </c>
+      <c r="N394">
+        <v>2.55</v>
+      </c>
+      <c r="O394">
         <v>2.8</v>
       </c>
-      <c r="L394">
+      <c r="P394">
         <v>2.8</v>
       </c>
-      <c r="M394">
-        <v>2.5</v>
-      </c>
-      <c r="N394">
-        <v>3.25</v>
-      </c>
-      <c r="O394">
-        <v>2.75</v>
-      </c>
-      <c r="P394">
-        <v>2.3</v>
-      </c>
       <c r="Q394">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R394">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S394">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T394">
         <v>1.75</v>
       </c>
       <c r="U394">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="V394">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="W394">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X394">
         <v>-1</v>
       </c>
       <c r="Y394">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z394">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA394">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB394">
         <v>-1</v>
       </c>
       <c r="AC394">
-        <v>0.7749999999999999</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="395" spans="1:29">
@@ -35709,7 +35709,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>4656670</v>
+        <v>4656671</v>
       </c>
       <c r="C396" t="s">
         <v>28</v>
@@ -35721,76 +35721,76 @@
         <v>44669.6875</v>
       </c>
       <c r="F396" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="G396" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H396">
+        <v>0</v>
+      </c>
+      <c r="I396">
         <v>1</v>
       </c>
-      <c r="I396">
-        <v>0</v>
-      </c>
       <c r="J396" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K396">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="L396">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="M396">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="N396">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="O396">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="P396">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="Q396">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R396">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S396">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T396">
         <v>1.75</v>
       </c>
       <c r="U396">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="V396">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="W396">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X396">
         <v>-1</v>
       </c>
       <c r="Y396">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z396">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA396">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB396">
         <v>-1</v>
       </c>
       <c r="AC396">
-        <v>1.05</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="397" spans="1:29">
@@ -36599,7 +36599,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>4656685</v>
+        <v>4656684</v>
       </c>
       <c r="C406" t="s">
         <v>28</v>
@@ -36611,76 +36611,76 @@
         <v>44678.6875</v>
       </c>
       <c r="F406" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G406" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H406">
         <v>0</v>
       </c>
       <c r="I406">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J406" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K406">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="L406">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="M406">
+        <v>9</v>
+      </c>
+      <c r="N406">
+        <v>1.4</v>
+      </c>
+      <c r="O406">
         <v>3.8</v>
       </c>
-      <c r="N406">
-        <v>1.666</v>
-      </c>
-      <c r="O406">
-        <v>3.3</v>
-      </c>
       <c r="P406">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="Q406">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R406">
+        <v>2.025</v>
+      </c>
+      <c r="S406">
+        <v>1.775</v>
+      </c>
+      <c r="T406">
+        <v>2</v>
+      </c>
+      <c r="U406">
+        <v>1.825</v>
+      </c>
+      <c r="V406">
         <v>1.975</v>
       </c>
-      <c r="S406">
-        <v>1.825</v>
-      </c>
-      <c r="T406">
-        <v>2.25</v>
-      </c>
-      <c r="U406">
-        <v>1.775</v>
-      </c>
-      <c r="V406">
-        <v>2.025</v>
-      </c>
       <c r="W406">
         <v>-1</v>
       </c>
       <c r="X406">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y406">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z406">
         <v>-1</v>
       </c>
       <c r="AA406">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB406">
         <v>-1</v>
       </c>
       <c r="AC406">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="407" spans="1:29">
@@ -36688,7 +36688,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>4656684</v>
+        <v>4656685</v>
       </c>
       <c r="C407" t="s">
         <v>28</v>
@@ -36700,76 +36700,76 @@
         <v>44678.6875</v>
       </c>
       <c r="F407" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G407" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H407">
         <v>0</v>
       </c>
       <c r="I407">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J407" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K407">
-        <v>1.333</v>
+        <v>2</v>
       </c>
       <c r="L407">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="M407">
-        <v>9</v>
+        <v>3.8</v>
       </c>
       <c r="N407">
-        <v>1.4</v>
+        <v>1.666</v>
       </c>
       <c r="O407">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P407">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="Q407">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R407">
+        <v>1.975</v>
+      </c>
+      <c r="S407">
+        <v>1.825</v>
+      </c>
+      <c r="T407">
+        <v>2.25</v>
+      </c>
+      <c r="U407">
+        <v>1.775</v>
+      </c>
+      <c r="V407">
         <v>2.025</v>
       </c>
-      <c r="S407">
-        <v>1.775</v>
-      </c>
-      <c r="T407">
-        <v>2</v>
-      </c>
-      <c r="U407">
-        <v>1.825</v>
-      </c>
-      <c r="V407">
-        <v>1.975</v>
-      </c>
       <c r="W407">
         <v>-1</v>
       </c>
       <c r="X407">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y407">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z407">
         <v>-1</v>
       </c>
       <c r="AA407">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB407">
         <v>-1</v>
       </c>
       <c r="AC407">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="408" spans="1:29">
@@ -36866,7 +36866,7 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>4656686</v>
+        <v>4656687</v>
       </c>
       <c r="C409" t="s">
         <v>28</v>
@@ -36878,76 +36878,76 @@
         <v>44680.6875</v>
       </c>
       <c r="F409" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G409" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="H409">
         <v>0</v>
       </c>
       <c r="I409">
+        <v>0</v>
+      </c>
+      <c r="J409" t="s">
+        <v>55</v>
+      </c>
+      <c r="K409">
+        <v>2.9</v>
+      </c>
+      <c r="L409">
+        <v>2.8</v>
+      </c>
+      <c r="M409">
+        <v>2.6</v>
+      </c>
+      <c r="N409">
         <v>3</v>
       </c>
-      <c r="J409" t="s">
-        <v>56</v>
-      </c>
-      <c r="K409">
-        <v>6.5</v>
-      </c>
-      <c r="L409">
-        <v>3.4</v>
-      </c>
-      <c r="M409">
-        <v>1.571</v>
-      </c>
-      <c r="N409">
-        <v>5.5</v>
-      </c>
       <c r="O409">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="P409">
-        <v>1.615</v>
+        <v>2.6</v>
       </c>
       <c r="Q409">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R409">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S409">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="T409">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U409">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V409">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W409">
         <v>-1</v>
       </c>
       <c r="X409">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Y409">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Z409">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA409">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB409">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC409">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="410" spans="1:29">
@@ -37044,7 +37044,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>4656687</v>
+        <v>4656686</v>
       </c>
       <c r="C411" t="s">
         <v>28</v>
@@ -37056,76 +37056,76 @@
         <v>44680.6875</v>
       </c>
       <c r="F411" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="G411" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="H411">
         <v>0</v>
       </c>
       <c r="I411">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J411" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K411">
-        <v>2.9</v>
+        <v>6.5</v>
       </c>
       <c r="L411">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="M411">
-        <v>2.6</v>
+        <v>1.571</v>
       </c>
       <c r="N411">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="O411">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="P411">
-        <v>2.6</v>
+        <v>1.615</v>
       </c>
       <c r="Q411">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R411">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S411">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="T411">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U411">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V411">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W411">
         <v>-1</v>
       </c>
       <c r="X411">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Y411">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z411">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA411">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB411">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC411">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="412" spans="1:29">
@@ -42117,7 +42117,7 @@
         <v>466</v>
       </c>
       <c r="B468">
-        <v>4997347</v>
+        <v>4997348</v>
       </c>
       <c r="C468" t="s">
         <v>28</v>
@@ -42129,49 +42129,49 @@
         <v>44739.58333333334</v>
       </c>
       <c r="F468" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G468" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="H468">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J468" t="s">
         <v>56</v>
       </c>
       <c r="K468">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="L468">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="M468">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="N468">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="O468">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="P468">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="Q468">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R468">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S468">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T468">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U468">
         <v>2.025</v>
@@ -42186,19 +42186,19 @@
         <v>-1</v>
       </c>
       <c r="Y468">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="Z468">
         <v>-1</v>
       </c>
       <c r="AA468">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AB468">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC468">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="469" spans="1:29">
@@ -42206,7 +42206,7 @@
         <v>467</v>
       </c>
       <c r="B469">
-        <v>4997348</v>
+        <v>4997347</v>
       </c>
       <c r="C469" t="s">
         <v>28</v>
@@ -42218,49 +42218,49 @@
         <v>44739.58333333334</v>
       </c>
       <c r="F469" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G469" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J469" t="s">
         <v>56</v>
       </c>
       <c r="K469">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="L469">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="M469">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="N469">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="O469">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="P469">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q469">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R469">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S469">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T469">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U469">
         <v>2.025</v>
@@ -42275,19 +42275,19 @@
         <v>-1</v>
       </c>
       <c r="Y469">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="Z469">
         <v>-1</v>
       </c>
       <c r="AA469">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AB469">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC469">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="470" spans="1:29">
@@ -42384,7 +42384,7 @@
         <v>469</v>
       </c>
       <c r="B471">
-        <v>5200766</v>
+        <v>4997351</v>
       </c>
       <c r="C471" t="s">
         <v>28</v>
@@ -42396,76 +42396,76 @@
         <v>44740.58333333334</v>
       </c>
       <c r="F471" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G471" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I471">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J471" t="s">
         <v>55</v>
       </c>
       <c r="K471">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="L471">
-        <v>2.625</v>
+        <v>2.9</v>
       </c>
       <c r="M471">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="N471">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="O471">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="P471">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q471">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R471">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="S471">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T471">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U471">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V471">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W471">
         <v>-1</v>
       </c>
       <c r="X471">
-        <v>1.625</v>
+        <v>1.8</v>
       </c>
       <c r="Y471">
         <v>-1</v>
       </c>
       <c r="Z471">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="AA471">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB471">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC471">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="472" spans="1:29">
@@ -42473,7 +42473,7 @@
         <v>470</v>
       </c>
       <c r="B472">
-        <v>4997351</v>
+        <v>5200766</v>
       </c>
       <c r="C472" t="s">
         <v>28</v>
@@ -42485,76 +42485,76 @@
         <v>44740.58333333334</v>
       </c>
       <c r="F472" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G472" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H472">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I472">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J472" t="s">
         <v>55</v>
       </c>
       <c r="K472">
+        <v>3.1</v>
+      </c>
+      <c r="L472">
         <v>2.625</v>
       </c>
-      <c r="L472">
-        <v>2.9</v>
-      </c>
       <c r="M472">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="N472">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="O472">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="P472">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="Q472">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R472">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="S472">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T472">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U472">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V472">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W472">
         <v>-1</v>
       </c>
       <c r="X472">
-        <v>1.8</v>
+        <v>1.625</v>
       </c>
       <c r="Y472">
         <v>-1</v>
       </c>
       <c r="Z472">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="AA472">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB472">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC472">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="473" spans="1:29">
@@ -43274,7 +43274,7 @@
         <v>479</v>
       </c>
       <c r="B481">
-        <v>5035637</v>
+        <v>5035636</v>
       </c>
       <c r="C481" t="s">
         <v>28</v>
@@ -43286,76 +43286,76 @@
         <v>44755.5625</v>
       </c>
       <c r="F481" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G481" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="H481">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I481">
         <v>0</v>
       </c>
       <c r="J481" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K481">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="L481">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M481">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="N481">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="O481">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="P481">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="Q481">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R481">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="S481">
-        <v>2.075</v>
+        <v>1.925</v>
       </c>
       <c r="T481">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U481">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V481">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W481">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X481">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y481">
         <v>-1</v>
       </c>
       <c r="Z481">
-        <v>0.7250000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA481">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB481">
         <v>-1</v>
       </c>
       <c r="AC481">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="482" spans="1:29">
@@ -43363,7 +43363,7 @@
         <v>480</v>
       </c>
       <c r="B482">
-        <v>5035636</v>
+        <v>5035637</v>
       </c>
       <c r="C482" t="s">
         <v>28</v>
@@ -43375,76 +43375,76 @@
         <v>44755.5625</v>
       </c>
       <c r="F482" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G482" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I482">
         <v>0</v>
       </c>
       <c r="J482" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K482">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="L482">
+        <v>3.1</v>
+      </c>
+      <c r="M482">
+        <v>2.8</v>
+      </c>
+      <c r="N482">
+        <v>2.4</v>
+      </c>
+      <c r="O482">
         <v>3</v>
       </c>
-      <c r="M482">
-        <v>3.4</v>
-      </c>
-      <c r="N482">
-        <v>2.15</v>
-      </c>
-      <c r="O482">
-        <v>2.7</v>
-      </c>
       <c r="P482">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="Q482">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R482">
-        <v>1.875</v>
+        <v>1.725</v>
       </c>
       <c r="S482">
-        <v>1.925</v>
+        <v>2.075</v>
       </c>
       <c r="T482">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U482">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V482">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W482">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X482">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y482">
         <v>-1</v>
       </c>
       <c r="Z482">
-        <v>-0.5</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA482">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB482">
         <v>-1</v>
       </c>
       <c r="AC482">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="483" spans="1:29">
@@ -43719,7 +43719,7 @@
         <v>484</v>
       </c>
       <c r="B486">
-        <v>5036484</v>
+        <v>5036708</v>
       </c>
       <c r="C486" t="s">
         <v>28</v>
@@ -43731,13 +43731,13 @@
         <v>44758.5625</v>
       </c>
       <c r="F486" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G486" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I486">
         <v>2</v>
@@ -43746,40 +43746,40 @@
         <v>56</v>
       </c>
       <c r="K486">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="L486">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M486">
-        <v>1.8</v>
+        <v>4.333</v>
       </c>
       <c r="N486">
-        <v>5.5</v>
+        <v>2.05</v>
       </c>
       <c r="O486">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P486">
-        <v>1.666</v>
+        <v>3.5</v>
       </c>
       <c r="Q486">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R486">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S486">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T486">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U486">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V486">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W486">
         <v>-1</v>
@@ -43788,19 +43788,19 @@
         <v>-1</v>
       </c>
       <c r="Y486">
-        <v>0.6659999999999999</v>
+        <v>2.5</v>
       </c>
       <c r="Z486">
         <v>-1</v>
       </c>
       <c r="AA486">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
       <c r="AB486">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AC486">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="487" spans="1:29">
@@ -43808,7 +43808,7 @@
         <v>485</v>
       </c>
       <c r="B487">
-        <v>5036708</v>
+        <v>5036484</v>
       </c>
       <c r="C487" t="s">
         <v>28</v>
@@ -43820,13 +43820,13 @@
         <v>44758.5625</v>
       </c>
       <c r="F487" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G487" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H487">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I487">
         <v>2</v>
@@ -43835,40 +43835,40 @@
         <v>56</v>
       </c>
       <c r="K487">
+        <v>4.2</v>
+      </c>
+      <c r="L487">
+        <v>3.1</v>
+      </c>
+      <c r="M487">
         <v>1.8</v>
       </c>
-      <c r="L487">
+      <c r="N487">
+        <v>5.5</v>
+      </c>
+      <c r="O487">
         <v>3</v>
       </c>
-      <c r="M487">
-        <v>4.333</v>
-      </c>
-      <c r="N487">
-        <v>2.05</v>
-      </c>
-      <c r="O487">
-        <v>2.875</v>
-      </c>
       <c r="P487">
-        <v>3.5</v>
+        <v>1.666</v>
       </c>
       <c r="Q487">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R487">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S487">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T487">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U487">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V487">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W487">
         <v>-1</v>
@@ -43877,19 +43877,19 @@
         <v>-1</v>
       </c>
       <c r="Y487">
-        <v>2.5</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z487">
         <v>-1</v>
       </c>
       <c r="AA487">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
       <c r="AB487">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AC487">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="488" spans="1:29">
@@ -43986,7 +43986,7 @@
         <v>487</v>
       </c>
       <c r="B489">
-        <v>5036709</v>
+        <v>5035638</v>
       </c>
       <c r="C489" t="s">
         <v>28</v>
@@ -43998,76 +43998,76 @@
         <v>44759.5625</v>
       </c>
       <c r="F489" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G489" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H489">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489">
         <v>1</v>
       </c>
       <c r="J489" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K489">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L489">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="M489">
+        <v>3.4</v>
+      </c>
+      <c r="N489">
+        <v>2.3</v>
+      </c>
+      <c r="O489">
+        <v>3.1</v>
+      </c>
+      <c r="P489">
+        <v>2.75</v>
+      </c>
+      <c r="Q489">
+        <v>-0.25</v>
+      </c>
+      <c r="R489">
+        <v>2.025</v>
+      </c>
+      <c r="S489">
+        <v>1.775</v>
+      </c>
+      <c r="T489">
         <v>2.5</v>
       </c>
-      <c r="N489">
-        <v>3.1</v>
-      </c>
-      <c r="O489">
-        <v>2.5</v>
-      </c>
-      <c r="P489">
-        <v>2.55</v>
-      </c>
-      <c r="Q489">
-        <v>0</v>
-      </c>
-      <c r="R489">
-        <v>2.1</v>
-      </c>
-      <c r="S489">
-        <v>1.7</v>
-      </c>
-      <c r="T489">
+      <c r="U489">
+        <v>2</v>
+      </c>
+      <c r="V489">
+        <v>1.8</v>
+      </c>
+      <c r="W489">
+        <v>-1</v>
+      </c>
+      <c r="X489">
+        <v>-1</v>
+      </c>
+      <c r="Y489">
         <v>1.75</v>
       </c>
-      <c r="U489">
-        <v>1.9</v>
-      </c>
-      <c r="V489">
-        <v>1.9</v>
-      </c>
-      <c r="W489">
-        <v>2.1</v>
-      </c>
-      <c r="X489">
-        <v>-1</v>
-      </c>
-      <c r="Y489">
-        <v>-1</v>
-      </c>
       <c r="Z489">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA489">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB489">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC489">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="490" spans="1:29">
@@ -44075,7 +44075,7 @@
         <v>488</v>
       </c>
       <c r="B490">
-        <v>5035638</v>
+        <v>5036709</v>
       </c>
       <c r="C490" t="s">
         <v>28</v>
@@ -44087,76 +44087,76 @@
         <v>44759.5625</v>
       </c>
       <c r="F490" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G490" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490">
         <v>1</v>
       </c>
       <c r="J490" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K490">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L490">
+        <v>2.625</v>
+      </c>
+      <c r="M490">
+        <v>2.5</v>
+      </c>
+      <c r="N490">
         <v>3.1</v>
       </c>
-      <c r="M490">
-        <v>3.4</v>
-      </c>
-      <c r="N490">
-        <v>2.3</v>
-      </c>
       <c r="O490">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="P490">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="Q490">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R490">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="S490">
-        <v>1.775</v>
+        <v>1.7</v>
       </c>
       <c r="T490">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U490">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V490">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W490">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X490">
         <v>-1</v>
       </c>
       <c r="Y490">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z490">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA490">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB490">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC490">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="491" spans="1:29">
@@ -44342,7 +44342,7 @@
         <v>491</v>
       </c>
       <c r="B493">
-        <v>5035639</v>
+        <v>5036712</v>
       </c>
       <c r="C493" t="s">
         <v>28</v>
@@ -44354,76 +44354,76 @@
         <v>44760.66666666666</v>
       </c>
       <c r="F493" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G493" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H493">
         <v>0</v>
       </c>
       <c r="I493">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J493" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K493">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="L493">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="M493">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="N493">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="O493">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P493">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="Q493">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R493">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S493">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T493">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U493">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V493">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W493">
         <v>-1</v>
       </c>
       <c r="X493">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y493">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z493">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA493">
+        <v>0.95</v>
+      </c>
+      <c r="AB493">
+        <v>0</v>
+      </c>
+      <c r="AC493">
         <v>-0</v>
-      </c>
-      <c r="AB493">
-        <v>-1</v>
-      </c>
-      <c r="AC493">
-        <v>0.925</v>
       </c>
     </row>
     <row r="494" spans="1:29">
@@ -44431,7 +44431,7 @@
         <v>492</v>
       </c>
       <c r="B494">
-        <v>5036712</v>
+        <v>5035639</v>
       </c>
       <c r="C494" t="s">
         <v>28</v>
@@ -44443,76 +44443,76 @@
         <v>44760.66666666666</v>
       </c>
       <c r="F494" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G494" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H494">
         <v>0</v>
       </c>
       <c r="I494">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J494" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K494">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="L494">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="M494">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="N494">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="O494">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P494">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="Q494">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R494">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S494">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T494">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U494">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V494">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W494">
         <v>-1</v>
       </c>
       <c r="X494">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y494">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z494">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA494">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB494">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC494">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="495" spans="1:29">
@@ -45588,7 +45588,7 @@
         <v>505</v>
       </c>
       <c r="B507">
-        <v>5036089</v>
+        <v>5035643</v>
       </c>
       <c r="C507" t="s">
         <v>28</v>
@@ -45600,76 +45600,76 @@
         <v>44769.5625</v>
       </c>
       <c r="F507" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G507" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H507">
         <v>1</v>
       </c>
       <c r="I507">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J507" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K507">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="L507">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="M507">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="N507">
-        <v>1.363</v>
+        <v>2.4</v>
       </c>
       <c r="O507">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="P507">
-        <v>6.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q507">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R507">
+        <v>1.775</v>
+      </c>
+      <c r="S507">
+        <v>2.025</v>
+      </c>
+      <c r="T507">
+        <v>2.5</v>
+      </c>
+      <c r="U507">
         <v>1.875</v>
       </c>
-      <c r="S507">
+      <c r="V507">
         <v>1.925</v>
       </c>
-      <c r="T507">
-        <v>2.75</v>
-      </c>
-      <c r="U507">
-        <v>1.95</v>
-      </c>
-      <c r="V507">
-        <v>1.85</v>
-      </c>
       <c r="W507">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X507">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y507">
         <v>-1</v>
       </c>
       <c r="Z507">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA507">
-        <v>0.4625</v>
+        <v>-0</v>
       </c>
       <c r="AB507">
         <v>-1</v>
       </c>
       <c r="AC507">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="508" spans="1:29">
@@ -45677,7 +45677,7 @@
         <v>506</v>
       </c>
       <c r="B508">
-        <v>5035643</v>
+        <v>5036089</v>
       </c>
       <c r="C508" t="s">
         <v>28</v>
@@ -45689,76 +45689,76 @@
         <v>44769.5625</v>
       </c>
       <c r="F508" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G508" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H508">
         <v>1</v>
       </c>
       <c r="I508">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J508" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K508">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="L508">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="M508">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="N508">
-        <v>2.4</v>
+        <v>1.363</v>
       </c>
       <c r="O508">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="P508">
-        <v>2.7</v>
+        <v>6.5</v>
       </c>
       <c r="Q508">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R508">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S508">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T508">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U508">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V508">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W508">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X508">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y508">
         <v>-1</v>
       </c>
       <c r="Z508">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA508">
-        <v>-0</v>
+        <v>0.4625</v>
       </c>
       <c r="AB508">
         <v>-1</v>
       </c>
       <c r="AC508">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="509" spans="1:29">
@@ -46567,7 +46567,7 @@
         <v>516</v>
       </c>
       <c r="B518">
-        <v>5036725</v>
+        <v>5036724</v>
       </c>
       <c r="C518" t="s">
         <v>28</v>
@@ -46579,40 +46579,40 @@
         <v>44774.5625</v>
       </c>
       <c r="F518" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G518" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H518">
         <v>1</v>
       </c>
       <c r="I518">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J518" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K518">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L518">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M518">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="N518">
-        <v>2.05</v>
+        <v>1.3</v>
       </c>
       <c r="O518">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="P518">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="Q518">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R518">
         <v>1.775</v>
@@ -46621,19 +46621,19 @@
         <v>2.025</v>
       </c>
       <c r="T518">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U518">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V518">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W518">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X518">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y518">
         <v>-1</v>
@@ -46645,10 +46645,10 @@
         <v>0.5125</v>
       </c>
       <c r="AB518">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC518">
-        <v>0.3875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="519" spans="1:29">
@@ -46656,7 +46656,7 @@
         <v>517</v>
       </c>
       <c r="B519">
-        <v>5036724</v>
+        <v>5036725</v>
       </c>
       <c r="C519" t="s">
         <v>28</v>
@@ -46668,40 +46668,40 @@
         <v>44774.5625</v>
       </c>
       <c r="F519" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G519" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H519">
         <v>1</v>
       </c>
       <c r="I519">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J519" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K519">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="L519">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M519">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="N519">
-        <v>1.3</v>
+        <v>2.05</v>
       </c>
       <c r="O519">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="P519">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="Q519">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R519">
         <v>1.775</v>
@@ -46710,19 +46710,19 @@
         <v>2.025</v>
       </c>
       <c r="T519">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U519">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V519">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W519">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X519">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y519">
         <v>-1</v>
@@ -46734,10 +46734,10 @@
         <v>0.5125</v>
       </c>
       <c r="AB519">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC519">
-        <v>0.8500000000000001</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="520" spans="1:29">
@@ -50394,7 +50394,7 @@
         <v>559</v>
       </c>
       <c r="B561">
-        <v>5372566</v>
+        <v>5372565</v>
       </c>
       <c r="C561" t="s">
         <v>28</v>
@@ -50406,49 +50406,49 @@
         <v>44799.5625</v>
       </c>
       <c r="F561" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G561" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H561">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561">
         <v>1</v>
       </c>
       <c r="J561" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K561">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="L561">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="M561">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="N561">
+        <v>1.95</v>
+      </c>
+      <c r="O561">
+        <v>3.2</v>
+      </c>
+      <c r="P561">
         <v>3.5</v>
       </c>
-      <c r="O561">
-        <v>2.8</v>
-      </c>
-      <c r="P561">
-        <v>2.15</v>
-      </c>
       <c r="Q561">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R561">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S561">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T561">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U561">
         <v>1.8</v>
@@ -50457,25 +50457,25 @@
         <v>2</v>
       </c>
       <c r="W561">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X561">
         <v>-1</v>
       </c>
       <c r="Y561">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z561">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA561">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB561">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC561">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="562" spans="1:29">
@@ -50483,7 +50483,7 @@
         <v>560</v>
       </c>
       <c r="B562">
-        <v>5372565</v>
+        <v>5372566</v>
       </c>
       <c r="C562" t="s">
         <v>28</v>
@@ -50495,49 +50495,49 @@
         <v>44799.5625</v>
       </c>
       <c r="F562" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G562" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H562">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I562">
         <v>1</v>
       </c>
       <c r="J562" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K562">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="L562">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="M562">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="N562">
+        <v>3.5</v>
+      </c>
+      <c r="O562">
+        <v>2.8</v>
+      </c>
+      <c r="P562">
+        <v>2.15</v>
+      </c>
+      <c r="Q562">
+        <v>0.25</v>
+      </c>
+      <c r="R562">
         <v>1.95</v>
       </c>
-      <c r="O562">
-        <v>3.2</v>
-      </c>
-      <c r="P562">
-        <v>3.5</v>
-      </c>
-      <c r="Q562">
-        <v>-0.5</v>
-      </c>
-      <c r="R562">
-        <v>2.025</v>
-      </c>
       <c r="S562">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T562">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U562">
         <v>1.8</v>
@@ -50546,25 +50546,25 @@
         <v>2</v>
       </c>
       <c r="W562">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X562">
         <v>-1</v>
       </c>
       <c r="Y562">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z562">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA562">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB562">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC562">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563" spans="1:29">
@@ -51284,7 +51284,7 @@
         <v>569</v>
       </c>
       <c r="B571">
-        <v>5372584</v>
+        <v>5372571</v>
       </c>
       <c r="C571" t="s">
         <v>28</v>
@@ -51296,76 +51296,76 @@
         <v>44803.47916666666</v>
       </c>
       <c r="F571" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G571" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H571">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I571">
         <v>0</v>
       </c>
       <c r="J571" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K571">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="L571">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="M571">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="N571">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O571">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P571">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q571">
         <v>-0.25</v>
       </c>
       <c r="R571">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S571">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T571">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U571">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V571">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W571">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X571">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y571">
         <v>-1</v>
       </c>
       <c r="Z571">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AA571">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB571">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC571">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="572" spans="1:29">
@@ -51373,7 +51373,7 @@
         <v>570</v>
       </c>
       <c r="B572">
-        <v>5372571</v>
+        <v>5372584</v>
       </c>
       <c r="C572" t="s">
         <v>28</v>
@@ -51385,76 +51385,76 @@
         <v>44803.47916666666</v>
       </c>
       <c r="F572" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G572" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H572">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I572">
         <v>0</v>
       </c>
       <c r="J572" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K572">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="L572">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="M572">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="N572">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O572">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="P572">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q572">
         <v>-0.25</v>
       </c>
       <c r="R572">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S572">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T572">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U572">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V572">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W572">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X572">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y572">
         <v>-1</v>
       </c>
       <c r="Z572">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AA572">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB572">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC572">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="573" spans="1:29">
@@ -54488,7 +54488,7 @@
         <v>605</v>
       </c>
       <c r="B607">
-        <v>5774017</v>
+        <v>5774016</v>
       </c>
       <c r="C607" t="s">
         <v>28</v>
@@ -54500,46 +54500,46 @@
         <v>44895.40625</v>
       </c>
       <c r="F607" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="G607" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H607">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I607">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J607" t="s">
         <v>56</v>
       </c>
       <c r="K607">
-        <v>2.15</v>
+        <v>5.5</v>
       </c>
       <c r="L607">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="M607">
-        <v>3.5</v>
+        <v>1.55</v>
       </c>
       <c r="N607">
-        <v>1.833</v>
+        <v>7.5</v>
       </c>
       <c r="O607">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P607">
-        <v>4.333</v>
+        <v>1.444</v>
       </c>
       <c r="Q607">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R607">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S607">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T607">
         <v>2.25</v>
@@ -54557,19 +54557,19 @@
         <v>-1</v>
       </c>
       <c r="Y607">
-        <v>3.333</v>
+        <v>0.444</v>
       </c>
       <c r="Z607">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA607">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB607">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC607">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="608" spans="1:29">
@@ -54577,7 +54577,7 @@
         <v>606</v>
       </c>
       <c r="B608">
-        <v>5774016</v>
+        <v>5774017</v>
       </c>
       <c r="C608" t="s">
         <v>28</v>
@@ -54589,46 +54589,46 @@
         <v>44895.40625</v>
       </c>
       <c r="F608" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G608" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H608">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I608">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J608" t="s">
         <v>56</v>
       </c>
       <c r="K608">
-        <v>5.5</v>
+        <v>2.15</v>
       </c>
       <c r="L608">
+        <v>2.75</v>
+      </c>
+      <c r="M608">
         <v>3.5</v>
       </c>
-      <c r="M608">
-        <v>1.55</v>
-      </c>
       <c r="N608">
-        <v>7.5</v>
+        <v>1.833</v>
       </c>
       <c r="O608">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P608">
-        <v>1.444</v>
+        <v>4.333</v>
       </c>
       <c r="Q608">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R608">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S608">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T608">
         <v>2.25</v>
@@ -54646,19 +54646,19 @@
         <v>-1</v>
       </c>
       <c r="Y608">
-        <v>0.444</v>
+        <v>3.333</v>
       </c>
       <c r="Z608">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA608">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB608">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC608">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="609" spans="1:29">
@@ -55022,7 +55022,7 @@
         <v>611</v>
       </c>
       <c r="B613">
-        <v>5774019</v>
+        <v>5774660</v>
       </c>
       <c r="C613" t="s">
         <v>28</v>
@@ -55034,34 +55034,34 @@
         <v>44897.40625</v>
       </c>
       <c r="F613" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G613" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H613">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I613">
         <v>1</v>
       </c>
       <c r="J613" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K613">
         <v>2.5</v>
       </c>
       <c r="L613">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="M613">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="N613">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O613">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="P613">
         <v>3</v>
@@ -55070,40 +55070,40 @@
         <v>0</v>
       </c>
       <c r="R613">
-        <v>1.725</v>
+        <v>1.75</v>
       </c>
       <c r="S613">
-        <v>2.075</v>
+        <v>2.05</v>
       </c>
       <c r="T613">
         <v>2</v>
       </c>
       <c r="U613">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V613">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W613">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X613">
         <v>-1</v>
       </c>
       <c r="Y613">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z613">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA613">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="AB613">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC613">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="614" spans="1:29">
@@ -55111,7 +55111,7 @@
         <v>612</v>
       </c>
       <c r="B614">
-        <v>5774660</v>
+        <v>5774019</v>
       </c>
       <c r="C614" t="s">
         <v>28</v>
@@ -55123,34 +55123,34 @@
         <v>44897.40625</v>
       </c>
       <c r="F614" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G614" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H614">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I614">
         <v>1</v>
       </c>
       <c r="J614" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K614">
         <v>2.5</v>
       </c>
       <c r="L614">
+        <v>2.875</v>
+      </c>
+      <c r="M614">
+        <v>2.9</v>
+      </c>
+      <c r="N614">
+        <v>2.5</v>
+      </c>
+      <c r="O614">
         <v>2.8</v>
-      </c>
-      <c r="M614">
-        <v>3</v>
-      </c>
-      <c r="N614">
-        <v>2.6</v>
-      </c>
-      <c r="O614">
-        <v>2.7</v>
       </c>
       <c r="P614">
         <v>3</v>
@@ -55159,40 +55159,40 @@
         <v>0</v>
       </c>
       <c r="R614">
-        <v>1.75</v>
+        <v>1.725</v>
       </c>
       <c r="S614">
-        <v>2.05</v>
+        <v>2.075</v>
       </c>
       <c r="T614">
         <v>2</v>
       </c>
       <c r="U614">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V614">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W614">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X614">
         <v>-1</v>
       </c>
       <c r="Y614">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z614">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA614">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AB614">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC614">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="615" spans="1:29">
@@ -56891,7 +56891,7 @@
         <v>632</v>
       </c>
       <c r="B634">
-        <v>5774664</v>
+        <v>5774028</v>
       </c>
       <c r="C634" t="s">
         <v>28</v>
@@ -56903,49 +56903,49 @@
         <v>44910.5</v>
       </c>
       <c r="F634" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="G634" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="H634">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I634">
         <v>0</v>
       </c>
       <c r="J634" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K634">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="L634">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="M634">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="N634">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="O634">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="P634">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="Q634">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R634">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S634">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T634">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U634">
         <v>1.75</v>
@@ -56954,16 +56954,16 @@
         <v>2.05</v>
       </c>
       <c r="W634">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X634">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y634">
         <v>-1</v>
       </c>
       <c r="Z634">
-        <v>0.4875</v>
+        <v>0.375</v>
       </c>
       <c r="AA634">
         <v>-0.5</v>
@@ -56980,7 +56980,7 @@
         <v>633</v>
       </c>
       <c r="B635">
-        <v>5774028</v>
+        <v>5774664</v>
       </c>
       <c r="C635" t="s">
         <v>28</v>
@@ -56992,49 +56992,49 @@
         <v>44910.5</v>
       </c>
       <c r="F635" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="G635" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I635">
         <v>0</v>
       </c>
       <c r="J635" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K635">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="L635">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="M635">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="N635">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="O635">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="P635">
-        <v>2.375</v>
+        <v>5</v>
       </c>
       <c r="Q635">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R635">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S635">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T635">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U635">
         <v>1.75</v>
@@ -57043,16 +57043,16 @@
         <v>2.05</v>
       </c>
       <c r="W635">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X635">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y635">
         <v>-1</v>
       </c>
       <c r="Z635">
-        <v>0.375</v>
+        <v>0.4875</v>
       </c>
       <c r="AA635">
         <v>-0.5</v>
@@ -57959,7 +57959,7 @@
         <v>644</v>
       </c>
       <c r="B646">
-        <v>5774035</v>
+        <v>5774036</v>
       </c>
       <c r="C646" t="s">
         <v>28</v>
@@ -57971,76 +57971,76 @@
         <v>44915.5</v>
       </c>
       <c r="F646" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="G646" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H646">
         <v>1</v>
       </c>
       <c r="I646">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J646" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K646">
-        <v>2.8</v>
+        <v>7</v>
       </c>
       <c r="L646">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="M646">
-        <v>2.75</v>
+        <v>1.444</v>
       </c>
       <c r="N646">
-        <v>3.4</v>
+        <v>9</v>
       </c>
       <c r="O646">
-        <v>2.625</v>
+        <v>4.2</v>
       </c>
       <c r="P646">
-        <v>2.375</v>
+        <v>1.363</v>
       </c>
       <c r="Q646">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R646">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S646">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T646">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U646">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V646">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W646">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X646">
         <v>-1</v>
       </c>
       <c r="Y646">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z646">
-        <v>0.7749999999999999</v>
+        <v>0.4625</v>
       </c>
       <c r="AA646">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB646">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC646">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="647" spans="1:29">
@@ -58048,7 +58048,7 @@
         <v>645</v>
       </c>
       <c r="B647">
-        <v>5774036</v>
+        <v>5774035</v>
       </c>
       <c r="C647" t="s">
         <v>28</v>
@@ -58060,76 +58060,76 @@
         <v>44915.5</v>
       </c>
       <c r="F647" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G647" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H647">
         <v>1</v>
       </c>
       <c r="I647">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J647" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K647">
-        <v>7</v>
+        <v>2.8</v>
       </c>
       <c r="L647">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="M647">
-        <v>1.444</v>
+        <v>2.75</v>
       </c>
       <c r="N647">
-        <v>9</v>
+        <v>3.4</v>
       </c>
       <c r="O647">
-        <v>4.2</v>
+        <v>2.625</v>
       </c>
       <c r="P647">
-        <v>1.363</v>
+        <v>2.375</v>
       </c>
       <c r="Q647">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R647">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S647">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T647">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U647">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V647">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W647">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X647">
         <v>-1</v>
       </c>
       <c r="Y647">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z647">
-        <v>0.4625</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA647">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB647">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC647">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="648" spans="1:29">
@@ -59294,7 +59294,7 @@
         <v>659</v>
       </c>
       <c r="B661">
-        <v>5774674</v>
+        <v>5774044</v>
       </c>
       <c r="C661" t="s">
         <v>28</v>
@@ -59306,40 +59306,40 @@
         <v>44923.5</v>
       </c>
       <c r="F661" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G661" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H661">
         <v>2</v>
       </c>
       <c r="I661">
+        <v>2</v>
+      </c>
+      <c r="J661" t="s">
+        <v>55</v>
+      </c>
+      <c r="K661">
+        <v>1.727</v>
+      </c>
+      <c r="L661">
         <v>3</v>
       </c>
-      <c r="J661" t="s">
-        <v>56</v>
-      </c>
-      <c r="K661">
-        <v>4.2</v>
-      </c>
-      <c r="L661">
-        <v>2.75</v>
-      </c>
       <c r="M661">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N661">
-        <v>5.5</v>
+        <v>1.75</v>
       </c>
       <c r="O661">
         <v>3</v>
       </c>
       <c r="P661">
-        <v>1.727</v>
+        <v>5</v>
       </c>
       <c r="Q661">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R661">
         <v>1.775</v>
@@ -59351,28 +59351,28 @@
         <v>2</v>
       </c>
       <c r="U661">
+        <v>1.975</v>
+      </c>
+      <c r="V661">
         <v>1.825</v>
       </c>
-      <c r="V661">
-        <v>1.975</v>
-      </c>
       <c r="W661">
         <v>-1</v>
       </c>
       <c r="X661">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y661">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z661">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA661">
-        <v>0.5125</v>
+        <v>1.025</v>
       </c>
       <c r="AB661">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC661">
         <v>-1</v>
@@ -59383,7 +59383,7 @@
         <v>660</v>
       </c>
       <c r="B662">
-        <v>5774044</v>
+        <v>5774674</v>
       </c>
       <c r="C662" t="s">
         <v>28</v>
@@ -59395,40 +59395,40 @@
         <v>44923.5</v>
       </c>
       <c r="F662" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="G662" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H662">
         <v>2</v>
       </c>
       <c r="I662">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J662" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K662">
-        <v>1.727</v>
+        <v>4.2</v>
       </c>
       <c r="L662">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="M662">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N662">
-        <v>1.75</v>
+        <v>5.5</v>
       </c>
       <c r="O662">
         <v>3</v>
       </c>
       <c r="P662">
-        <v>5</v>
+        <v>1.727</v>
       </c>
       <c r="Q662">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R662">
         <v>1.775</v>
@@ -59440,28 +59440,28 @@
         <v>2</v>
       </c>
       <c r="U662">
+        <v>1.825</v>
+      </c>
+      <c r="V662">
         <v>1.975</v>
       </c>
-      <c r="V662">
-        <v>1.825</v>
-      </c>
       <c r="W662">
         <v>-1</v>
       </c>
       <c r="X662">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y662">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z662">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA662">
-        <v>1.025</v>
+        <v>0.5125</v>
       </c>
       <c r="AB662">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC662">
         <v>-1</v>
@@ -61519,7 +61519,7 @@
         <v>684</v>
       </c>
       <c r="B686">
-        <v>5774058</v>
+        <v>5774059</v>
       </c>
       <c r="C686" t="s">
         <v>28</v>
@@ -61531,73 +61531,73 @@
         <v>44937.40625</v>
       </c>
       <c r="F686" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="G686" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H686">
+        <v>2</v>
+      </c>
+      <c r="I686">
+        <v>1</v>
+      </c>
+      <c r="J686" t="s">
+        <v>54</v>
+      </c>
+      <c r="K686">
+        <v>2.375</v>
+      </c>
+      <c r="L686">
+        <v>2.625</v>
+      </c>
+      <c r="M686">
+        <v>3.2</v>
+      </c>
+      <c r="N686">
+        <v>2.55</v>
+      </c>
+      <c r="O686">
+        <v>2.55</v>
+      </c>
+      <c r="P686">
         <v>3</v>
       </c>
-      <c r="I686">
-        <v>3</v>
-      </c>
-      <c r="J686" t="s">
-        <v>55</v>
-      </c>
-      <c r="K686">
-        <v>4</v>
-      </c>
-      <c r="L686">
-        <v>2.8</v>
-      </c>
-      <c r="M686">
-        <v>2</v>
-      </c>
-      <c r="N686">
-        <v>4.2</v>
-      </c>
-      <c r="O686">
-        <v>2.8</v>
-      </c>
-      <c r="P686">
-        <v>1.909</v>
-      </c>
       <c r="Q686">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R686">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="S686">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T686">
         <v>2</v>
       </c>
       <c r="U686">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V686">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="W686">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X686">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y686">
         <v>-1</v>
       </c>
       <c r="Z686">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="AA686">
         <v>-1</v>
       </c>
       <c r="AB686">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AC686">
         <v>-1</v>
@@ -61608,7 +61608,7 @@
         <v>685</v>
       </c>
       <c r="B687">
-        <v>5774059</v>
+        <v>5774058</v>
       </c>
       <c r="C687" t="s">
         <v>28</v>
@@ -61620,73 +61620,73 @@
         <v>44937.40625</v>
       </c>
       <c r="F687" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="G687" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H687">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I687">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J687" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K687">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="L687">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="M687">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="N687">
-        <v>2.55</v>
+        <v>4.2</v>
       </c>
       <c r="O687">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="P687">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="Q687">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R687">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="S687">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T687">
         <v>2</v>
       </c>
       <c r="U687">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V687">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="W687">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X687">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y687">
         <v>-1</v>
       </c>
       <c r="Z687">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="AA687">
         <v>-1</v>
       </c>
       <c r="AB687">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AC687">
         <v>-1</v>
@@ -64812,7 +64812,7 @@
         <v>721</v>
       </c>
       <c r="B723">
-        <v>5774078</v>
+        <v>5774703</v>
       </c>
       <c r="C723" t="s">
         <v>28</v>
@@ -64824,76 +64824,76 @@
         <v>44962.58333333334</v>
       </c>
       <c r="F723" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G723" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H723">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I723">
         <v>1</v>
       </c>
       <c r="J723" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K723">
-        <v>1.909</v>
+        <v>1.833</v>
       </c>
       <c r="L723">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M723">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="N723">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="O723">
         <v>3</v>
       </c>
       <c r="P723">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q723">
         <v>-0.25</v>
       </c>
       <c r="R723">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S723">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T723">
         <v>2.25</v>
       </c>
       <c r="U723">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V723">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W723">
         <v>-1</v>
       </c>
       <c r="X723">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y723">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z723">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA723">
-        <v>0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB723">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC723">
-        <v>0.3875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="724" spans="1:29">
@@ -64901,7 +64901,7 @@
         <v>722</v>
       </c>
       <c r="B724">
-        <v>5774703</v>
+        <v>5774078</v>
       </c>
       <c r="C724" t="s">
         <v>28</v>
@@ -64913,76 +64913,76 @@
         <v>44962.58333333334</v>
       </c>
       <c r="F724" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G724" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H724">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I724">
         <v>1</v>
       </c>
       <c r="J724" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K724">
-        <v>1.833</v>
+        <v>1.909</v>
       </c>
       <c r="L724">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M724">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="N724">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O724">
         <v>3</v>
       </c>
       <c r="P724">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q724">
         <v>-0.25</v>
       </c>
       <c r="R724">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S724">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T724">
         <v>2.25</v>
       </c>
       <c r="U724">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V724">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W724">
         <v>-1</v>
       </c>
       <c r="X724">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y724">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z724">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA724">
-        <v>1.05</v>
+        <v>0.5</v>
       </c>
       <c r="AB724">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC724">
-        <v>0.9750000000000001</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="725" spans="1:29">
@@ -69084,7 +69084,7 @@
         <v>769</v>
       </c>
       <c r="B771">
-        <v>6471793</v>
+        <v>6467349</v>
       </c>
       <c r="C771" t="s">
         <v>28</v>
@@ -69096,61 +69096,61 @@
         <v>45020.67708333334</v>
       </c>
       <c r="F771" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G771" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="H771">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I771">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J771" t="s">
         <v>55</v>
       </c>
       <c r="K771">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="L771">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="M771">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="N771">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="O771">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="P771">
-        <v>2.625</v>
+        <v>2.9</v>
       </c>
       <c r="Q771">
         <v>0</v>
       </c>
       <c r="R771">
-        <v>2.025</v>
+        <v>1.725</v>
       </c>
       <c r="S771">
-        <v>1.775</v>
+        <v>2.075</v>
       </c>
       <c r="T771">
+        <v>2</v>
+      </c>
+      <c r="U771">
+        <v>1.85</v>
+      </c>
+      <c r="V771">
+        <v>1.95</v>
+      </c>
+      <c r="W771">
+        <v>-1</v>
+      </c>
+      <c r="X771">
         <v>1.75</v>
-      </c>
-      <c r="U771">
-        <v>1.875</v>
-      </c>
-      <c r="V771">
-        <v>1.925</v>
-      </c>
-      <c r="W771">
-        <v>-1</v>
-      </c>
-      <c r="X771">
-        <v>1.625</v>
       </c>
       <c r="Y771">
         <v>-1</v>
@@ -69162,10 +69162,10 @@
         <v>-0</v>
       </c>
       <c r="AB771">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC771">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="772" spans="1:29">
@@ -69173,7 +69173,7 @@
         <v>770</v>
       </c>
       <c r="B772">
-        <v>6467349</v>
+        <v>6471793</v>
       </c>
       <c r="C772" t="s">
         <v>28</v>
@@ -69185,61 +69185,61 @@
         <v>45020.67708333334</v>
       </c>
       <c r="F772" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G772" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="H772">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I772">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J772" t="s">
         <v>55</v>
       </c>
       <c r="K772">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="L772">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="M772">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="N772">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="O772">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="P772">
-        <v>2.9</v>
+        <v>2.625</v>
       </c>
       <c r="Q772">
         <v>0</v>
       </c>
       <c r="R772">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="S772">
-        <v>2.075</v>
+        <v>1.775</v>
       </c>
       <c r="T772">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U772">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V772">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W772">
         <v>-1</v>
       </c>
       <c r="X772">
-        <v>1.75</v>
+        <v>1.625</v>
       </c>
       <c r="Y772">
         <v>-1</v>
@@ -69251,10 +69251,10 @@
         <v>-0</v>
       </c>
       <c r="AB772">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC772">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="773" spans="1:29">
@@ -69707,7 +69707,7 @@
         <v>776</v>
       </c>
       <c r="B778">
-        <v>6471698</v>
+        <v>6488022</v>
       </c>
       <c r="C778" t="s">
         <v>28</v>
@@ -69719,25 +69719,25 @@
         <v>45025.67708333334</v>
       </c>
       <c r="F778" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G778" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="H778">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I778">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J778" t="s">
         <v>54</v>
       </c>
       <c r="K778">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="L778">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M778">
         <v>4</v>
@@ -69746,28 +69746,28 @@
         <v>2.2</v>
       </c>
       <c r="O778">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P778">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="Q778">
         <v>-0.25</v>
       </c>
       <c r="R778">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S778">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T778">
         <v>2</v>
       </c>
       <c r="U778">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V778">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W778">
         <v>1.2</v>
@@ -69779,16 +69779,16 @@
         <v>-1</v>
       </c>
       <c r="Z778">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA778">
         <v>-1</v>
       </c>
       <c r="AB778">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC778">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="779" spans="1:29">
@@ -69796,7 +69796,7 @@
         <v>777</v>
       </c>
       <c r="B779">
-        <v>6488022</v>
+        <v>6484232</v>
       </c>
       <c r="C779" t="s">
         <v>28</v>
@@ -69808,46 +69808,46 @@
         <v>45025.67708333334</v>
       </c>
       <c r="F779" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G779" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H779">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I779">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J779" t="s">
         <v>54</v>
       </c>
       <c r="K779">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="L779">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M779">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="N779">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="O779">
         <v>2.875</v>
       </c>
       <c r="P779">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="Q779">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R779">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S779">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T779">
         <v>2</v>
@@ -69859,7 +69859,7 @@
         <v>1.9</v>
       </c>
       <c r="W779">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="X779">
         <v>-1</v>
@@ -69868,7 +69868,7 @@
         <v>-1</v>
       </c>
       <c r="Z779">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA779">
         <v>-1</v>
@@ -69885,7 +69885,7 @@
         <v>778</v>
       </c>
       <c r="B780">
-        <v>6484232</v>
+        <v>6471698</v>
       </c>
       <c r="C780" t="s">
         <v>28</v>
@@ -69897,58 +69897,58 @@
         <v>45025.67708333334</v>
       </c>
       <c r="F780" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G780" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H780">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I780">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J780" t="s">
         <v>54</v>
       </c>
       <c r="K780">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="L780">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="M780">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="N780">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="O780">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="P780">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="Q780">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R780">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S780">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T780">
         <v>2</v>
       </c>
       <c r="U780">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V780">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W780">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="X780">
         <v>-1</v>
@@ -69957,16 +69957,16 @@
         <v>-1</v>
       </c>
       <c r="Z780">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA780">
         <v>-1</v>
       </c>
       <c r="AB780">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC780">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="781" spans="1:29">
@@ -70864,7 +70864,7 @@
         <v>789</v>
       </c>
       <c r="B791">
-        <v>6488032</v>
+        <v>6488028</v>
       </c>
       <c r="C791" t="s">
         <v>28</v>
@@ -70876,49 +70876,49 @@
         <v>45033.67708333334</v>
       </c>
       <c r="F791" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G791" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H791">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I791">
         <v>2</v>
       </c>
       <c r="J791" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K791">
-        <v>6.5</v>
+        <v>1.8</v>
       </c>
       <c r="L791">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M791">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="N791">
-        <v>6.5</v>
+        <v>2.25</v>
       </c>
       <c r="O791">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="P791">
-        <v>1.45</v>
+        <v>3.1</v>
       </c>
       <c r="Q791">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R791">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S791">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T791">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U791">
         <v>1.875</v>
@@ -70930,22 +70930,22 @@
         <v>-1</v>
       </c>
       <c r="X791">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y791">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z791">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA791">
-        <v>0.825</v>
+        <v>0.375</v>
       </c>
       <c r="AB791">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC791">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="792" spans="1:29">
@@ -70953,7 +70953,7 @@
         <v>790</v>
       </c>
       <c r="B792">
-        <v>6488028</v>
+        <v>6488032</v>
       </c>
       <c r="C792" t="s">
         <v>28</v>
@@ -70965,49 +70965,49 @@
         <v>45033.67708333334</v>
       </c>
       <c r="F792" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G792" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H792">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I792">
         <v>2</v>
       </c>
       <c r="J792" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K792">
-        <v>1.8</v>
+        <v>6.5</v>
       </c>
       <c r="L792">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M792">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="N792">
-        <v>2.25</v>
+        <v>6.5</v>
       </c>
       <c r="O792">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="P792">
-        <v>3.1</v>
+        <v>1.45</v>
       </c>
       <c r="Q792">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R792">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S792">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T792">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U792">
         <v>1.875</v>
@@ -71019,22 +71019,22 @@
         <v>-1</v>
       </c>
       <c r="X792">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y792">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z792">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA792">
-        <v>0.375</v>
+        <v>0.825</v>
       </c>
       <c r="AB792">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC792">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="793" spans="1:29">
@@ -71220,7 +71220,7 @@
         <v>793</v>
       </c>
       <c r="B795">
-        <v>6488030</v>
+        <v>6499805</v>
       </c>
       <c r="C795" t="s">
         <v>28</v>
@@ -71232,40 +71232,40 @@
         <v>45035.67708333334</v>
       </c>
       <c r="F795" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G795" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H795">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I795">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J795" t="s">
         <v>54</v>
       </c>
       <c r="K795">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L795">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="M795">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="N795">
-        <v>2.05</v>
+        <v>1.727</v>
       </c>
       <c r="O795">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="P795">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="Q795">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R795">
         <v>1.775</v>
@@ -71277,13 +71277,13 @@
         <v>2</v>
       </c>
       <c r="U795">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V795">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W795">
-        <v>1.05</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X795">
         <v>-1</v>
@@ -71298,10 +71298,10 @@
         <v>-1</v>
       </c>
       <c r="AB795">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC795">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="796" spans="1:29">
@@ -71309,7 +71309,7 @@
         <v>794</v>
       </c>
       <c r="B796">
-        <v>6495713</v>
+        <v>6488030</v>
       </c>
       <c r="C796" t="s">
         <v>28</v>
@@ -71321,76 +71321,76 @@
         <v>45035.67708333334</v>
       </c>
       <c r="F796" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="G796" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H796">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I796">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J796" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K796">
-        <v>3.9</v>
+        <v>2</v>
       </c>
       <c r="L796">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="M796">
+        <v>4</v>
+      </c>
+      <c r="N796">
         <v>2.05</v>
       </c>
-      <c r="N796">
-        <v>4.2</v>
-      </c>
       <c r="O796">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="P796">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="Q796">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R796">
+        <v>1.775</v>
+      </c>
+      <c r="S796">
         <v>2.025</v>
       </c>
-      <c r="S796">
-        <v>1.775</v>
-      </c>
       <c r="T796">
         <v>2</v>
       </c>
       <c r="U796">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V796">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W796">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X796">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y796">
         <v>-1</v>
       </c>
       <c r="Z796">
-        <v>0.5125</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA796">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB796">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC796">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="797" spans="1:29">
@@ -71398,7 +71398,7 @@
         <v>795</v>
       </c>
       <c r="B797">
-        <v>6499805</v>
+        <v>6495713</v>
       </c>
       <c r="C797" t="s">
         <v>28</v>
@@ -71410,76 +71410,76 @@
         <v>45035.67708333334</v>
       </c>
       <c r="F797" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G797" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H797">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I797">
         <v>0</v>
       </c>
       <c r="J797" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K797">
-        <v>2.1</v>
+        <v>3.9</v>
       </c>
       <c r="L797">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="M797">
-        <v>3.3</v>
+        <v>2.05</v>
       </c>
       <c r="N797">
-        <v>1.727</v>
+        <v>4.2</v>
       </c>
       <c r="O797">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="P797">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="Q797">
+        <v>0.25</v>
+      </c>
+      <c r="R797">
+        <v>2.025</v>
+      </c>
+      <c r="S797">
+        <v>1.775</v>
+      </c>
+      <c r="T797">
+        <v>2</v>
+      </c>
+      <c r="U797">
+        <v>1.95</v>
+      </c>
+      <c r="V797">
+        <v>1.85</v>
+      </c>
+      <c r="W797">
+        <v>-1</v>
+      </c>
+      <c r="X797">
+        <v>1.75</v>
+      </c>
+      <c r="Y797">
+        <v>-1</v>
+      </c>
+      <c r="Z797">
+        <v>0.5125</v>
+      </c>
+      <c r="AA797">
         <v>-0.5</v>
       </c>
-      <c r="R797">
-        <v>1.775</v>
-      </c>
-      <c r="S797">
-        <v>2.025</v>
-      </c>
-      <c r="T797">
-        <v>2</v>
-      </c>
-      <c r="U797">
-        <v>1.9</v>
-      </c>
-      <c r="V797">
-        <v>1.9</v>
-      </c>
-      <c r="W797">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="X797">
-        <v>-1</v>
-      </c>
-      <c r="Y797">
-        <v>-1</v>
-      </c>
-      <c r="Z797">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AA797">
-        <v>-1</v>
-      </c>
       <c r="AB797">
         <v>-1</v>
       </c>
       <c r="AC797">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="798" spans="1:29">
@@ -71487,7 +71487,7 @@
         <v>796</v>
       </c>
       <c r="B798">
-        <v>6488031</v>
+        <v>6495714</v>
       </c>
       <c r="C798" t="s">
         <v>28</v>
@@ -71499,76 +71499,76 @@
         <v>45036.67708333334</v>
       </c>
       <c r="F798" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G798" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H798">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I798">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J798" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K798">
         <v>2.3</v>
       </c>
       <c r="L798">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="M798">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N798">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O798">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="P798">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q798">
         <v>-0.25</v>
       </c>
       <c r="R798">
+        <v>1.9</v>
+      </c>
+      <c r="S798">
+        <v>1.9</v>
+      </c>
+      <c r="T798">
+        <v>2.25</v>
+      </c>
+      <c r="U798">
+        <v>1.95</v>
+      </c>
+      <c r="V798">
         <v>1.85</v>
       </c>
-      <c r="S798">
-        <v>1.95</v>
-      </c>
-      <c r="T798">
-        <v>2</v>
-      </c>
-      <c r="U798">
-        <v>2</v>
-      </c>
-      <c r="V798">
+      <c r="W798">
+        <v>-1</v>
+      </c>
+      <c r="X798">
         <v>1.8</v>
       </c>
-      <c r="W798">
-        <v>-1</v>
-      </c>
-      <c r="X798">
-        <v>-1</v>
-      </c>
       <c r="Y798">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z798">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA798">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="AB798">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC798">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="799" spans="1:29">
@@ -71576,7 +71576,7 @@
         <v>797</v>
       </c>
       <c r="B799">
-        <v>6495714</v>
+        <v>6488031</v>
       </c>
       <c r="C799" t="s">
         <v>28</v>
@@ -71588,76 +71588,76 @@
         <v>45036.67708333334</v>
       </c>
       <c r="F799" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G799" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H799">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I799">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J799" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K799">
         <v>2.3</v>
       </c>
       <c r="L799">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="M799">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N799">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O799">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="P799">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q799">
         <v>-0.25</v>
       </c>
       <c r="R799">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S799">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T799">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U799">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V799">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W799">
         <v>-1</v>
       </c>
       <c r="X799">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y799">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z799">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA799">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
       <c r="AB799">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC799">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="800" spans="1:29">
@@ -72288,7 +72288,7 @@
         <v>805</v>
       </c>
       <c r="B807">
-        <v>6574064</v>
+        <v>6576763</v>
       </c>
       <c r="C807" t="s">
         <v>28</v>
@@ -72300,76 +72300,76 @@
         <v>45050.54166666666</v>
       </c>
       <c r="F807" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G807" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H807">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I807">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J807" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K807">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="L807">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="M807">
-        <v>2.2</v>
+        <v>4.25</v>
       </c>
       <c r="N807">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="O807">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="P807">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q807">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R807">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S807">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T807">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U807">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V807">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W807">
         <v>-1</v>
       </c>
       <c r="X807">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Y807">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z807">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA807">
-        <v>0.8</v>
+        <v>0.3875</v>
       </c>
       <c r="AB807">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC807">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="808" spans="1:29">
@@ -72377,7 +72377,7 @@
         <v>806</v>
       </c>
       <c r="B808">
-        <v>6576763</v>
+        <v>6574064</v>
       </c>
       <c r="C808" t="s">
         <v>28</v>
@@ -72389,76 +72389,76 @@
         <v>45050.54166666666</v>
       </c>
       <c r="F808" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G808" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H808">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I808">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J808" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K808">
+        <v>3.4</v>
+      </c>
+      <c r="L808">
+        <v>2.75</v>
+      </c>
+      <c r="M808">
+        <v>2.2</v>
+      </c>
+      <c r="N808">
+        <v>4</v>
+      </c>
+      <c r="O808">
+        <v>2.7</v>
+      </c>
+      <c r="P808">
         <v>2.1</v>
       </c>
-      <c r="L808">
-        <v>2.5</v>
-      </c>
-      <c r="M808">
-        <v>4.25</v>
-      </c>
-      <c r="N808">
-        <v>2.3</v>
-      </c>
-      <c r="O808">
-        <v>2.55</v>
-      </c>
-      <c r="P808">
-        <v>3.5</v>
-      </c>
       <c r="Q808">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R808">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S808">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T808">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U808">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V808">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W808">
         <v>-1</v>
       </c>
       <c r="X808">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Y808">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z808">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA808">
-        <v>0.3875</v>
+        <v>0.8</v>
       </c>
       <c r="AB808">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC808">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="809" spans="1:29">
@@ -76738,7 +76738,7 @@
         <v>855</v>
       </c>
       <c r="B857">
-        <v>6682722</v>
+        <v>6682721</v>
       </c>
       <c r="C857" t="s">
         <v>28</v>
@@ -76750,76 +76750,76 @@
         <v>45107.64583333334</v>
       </c>
       <c r="F857" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G857" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="H857">
         <v>0</v>
       </c>
       <c r="I857">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J857" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K857">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="L857">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="M857">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="N857">
+        <v>2.3</v>
+      </c>
+      <c r="O857">
+        <v>2.8</v>
+      </c>
+      <c r="P857">
         <v>3.1</v>
       </c>
-      <c r="O857">
-        <v>2.6</v>
-      </c>
-      <c r="P857">
-        <v>2.5</v>
-      </c>
       <c r="Q857">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R857">
-        <v>1.7</v>
+        <v>1.975</v>
       </c>
       <c r="S857">
+        <v>1.825</v>
+      </c>
+      <c r="T857">
+        <v>2.25</v>
+      </c>
+      <c r="U857">
+        <v>2</v>
+      </c>
+      <c r="V857">
+        <v>1.8</v>
+      </c>
+      <c r="W857">
+        <v>-1</v>
+      </c>
+      <c r="X857">
+        <v>-1</v>
+      </c>
+      <c r="Y857">
         <v>2.1</v>
       </c>
-      <c r="T857">
-        <v>1.75</v>
-      </c>
-      <c r="U857">
-        <v>1.75</v>
-      </c>
-      <c r="V857">
-        <v>2.05</v>
-      </c>
-      <c r="W857">
-        <v>-1</v>
-      </c>
-      <c r="X857">
-        <v>1.6</v>
-      </c>
-      <c r="Y857">
-        <v>-1</v>
-      </c>
       <c r="Z857">
-        <v>0.35</v>
+        <v>-1</v>
       </c>
       <c r="AA857">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB857">
         <v>-1</v>
       </c>
       <c r="AC857">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="858" spans="1:29">
@@ -76827,7 +76827,7 @@
         <v>856</v>
       </c>
       <c r="B858">
-        <v>6682721</v>
+        <v>6682722</v>
       </c>
       <c r="C858" t="s">
         <v>28</v>
@@ -76839,76 +76839,76 @@
         <v>45107.64583333334</v>
       </c>
       <c r="F858" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G858" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H858">
         <v>0</v>
       </c>
       <c r="I858">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J858" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K858">
+        <v>2.5</v>
+      </c>
+      <c r="L858">
+        <v>2.7</v>
+      </c>
+      <c r="M858">
+        <v>2.9</v>
+      </c>
+      <c r="N858">
+        <v>3.1</v>
+      </c>
+      <c r="O858">
+        <v>2.6</v>
+      </c>
+      <c r="P858">
+        <v>2.5</v>
+      </c>
+      <c r="Q858">
+        <v>0.25</v>
+      </c>
+      <c r="R858">
+        <v>1.7</v>
+      </c>
+      <c r="S858">
+        <v>2.1</v>
+      </c>
+      <c r="T858">
+        <v>1.75</v>
+      </c>
+      <c r="U858">
+        <v>1.75</v>
+      </c>
+      <c r="V858">
         <v>2.05</v>
       </c>
-      <c r="L858">
-        <v>2.9</v>
-      </c>
-      <c r="M858">
-        <v>3.5</v>
-      </c>
-      <c r="N858">
-        <v>2.3</v>
-      </c>
-      <c r="O858">
-        <v>2.8</v>
-      </c>
-      <c r="P858">
-        <v>3.1</v>
-      </c>
-      <c r="Q858">
-        <v>-0.25</v>
-      </c>
-      <c r="R858">
-        <v>1.975</v>
-      </c>
-      <c r="S858">
-        <v>1.825</v>
-      </c>
-      <c r="T858">
-        <v>2.25</v>
-      </c>
-      <c r="U858">
-        <v>2</v>
-      </c>
-      <c r="V858">
-        <v>1.8</v>
-      </c>
       <c r="W858">
         <v>-1</v>
       </c>
       <c r="X858">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Y858">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z858">
-        <v>-1</v>
+        <v>0.35</v>
       </c>
       <c r="AA858">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB858">
         <v>-1</v>
       </c>
       <c r="AC858">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="859" spans="1:29">
@@ -78073,7 +78073,7 @@
         <v>870</v>
       </c>
       <c r="B872">
-        <v>6853132</v>
+        <v>6853133</v>
       </c>
       <c r="C872" t="s">
         <v>28</v>
@@ -78085,58 +78085,58 @@
         <v>45121.60416666666</v>
       </c>
       <c r="F872" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="G872" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H872">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I872">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J872" t="s">
         <v>54</v>
       </c>
       <c r="K872">
-        <v>5.5</v>
+        <v>1.727</v>
       </c>
       <c r="L872">
         <v>3.25</v>
       </c>
       <c r="M872">
+        <v>4.5</v>
+      </c>
+      <c r="N872">
         <v>1.6</v>
       </c>
-      <c r="N872">
-        <v>4.5</v>
-      </c>
       <c r="O872">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P872">
-        <v>1.666</v>
+        <v>5.5</v>
       </c>
       <c r="Q872">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R872">
+        <v>1.975</v>
+      </c>
+      <c r="S872">
         <v>1.825</v>
       </c>
-      <c r="S872">
-        <v>1.975</v>
-      </c>
       <c r="T872">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U872">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V872">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W872">
-        <v>3.5</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X872">
         <v>-1</v>
@@ -78145,13 +78145,13 @@
         <v>-1</v>
       </c>
       <c r="Z872">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA872">
         <v>-1</v>
       </c>
       <c r="AB872">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC872">
         <v>-1</v>
@@ -78340,7 +78340,7 @@
         <v>873</v>
       </c>
       <c r="B875">
-        <v>6853133</v>
+        <v>6853132</v>
       </c>
       <c r="C875" t="s">
         <v>28</v>
@@ -78352,58 +78352,58 @@
         <v>45121.60416666666</v>
       </c>
       <c r="F875" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="G875" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H875">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I875">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J875" t="s">
         <v>54</v>
       </c>
       <c r="K875">
-        <v>1.727</v>
+        <v>5.5</v>
       </c>
       <c r="L875">
         <v>3.25</v>
       </c>
       <c r="M875">
+        <v>1.6</v>
+      </c>
+      <c r="N875">
         <v>4.5</v>
       </c>
-      <c r="N875">
-        <v>1.6</v>
-      </c>
       <c r="O875">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P875">
-        <v>5.5</v>
+        <v>1.666</v>
       </c>
       <c r="Q875">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R875">
+        <v>1.825</v>
+      </c>
+      <c r="S875">
         <v>1.975</v>
       </c>
-      <c r="S875">
-        <v>1.825</v>
-      </c>
       <c r="T875">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U875">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V875">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W875">
-        <v>0.6000000000000001</v>
+        <v>3.5</v>
       </c>
       <c r="X875">
         <v>-1</v>
@@ -78412,13 +78412,13 @@
         <v>-1</v>
       </c>
       <c r="Z875">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA875">
         <v>-1</v>
       </c>
       <c r="AB875">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC875">
         <v>-1</v>
@@ -81722,7 +81722,7 @@
         <v>911</v>
       </c>
       <c r="B913">
-        <v>7217629</v>
+        <v>7217630</v>
       </c>
       <c r="C913" t="s">
         <v>28</v>
@@ -81734,13 +81734,13 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F913" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G913" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H913">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I913">
         <v>1</v>
@@ -81749,43 +81749,43 @@
         <v>54</v>
       </c>
       <c r="K913">
-        <v>2.4</v>
+        <v>1.65</v>
       </c>
       <c r="L913">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="M913">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="N913">
+        <v>1.909</v>
+      </c>
+      <c r="O913">
+        <v>3.25</v>
+      </c>
+      <c r="P913">
+        <v>3.6</v>
+      </c>
+      <c r="Q913">
+        <v>-0.5</v>
+      </c>
+      <c r="R913">
+        <v>1.925</v>
+      </c>
+      <c r="S913">
+        <v>1.875</v>
+      </c>
+      <c r="T913">
         <v>2.5</v>
       </c>
-      <c r="O913">
-        <v>2.8</v>
-      </c>
-      <c r="P913">
-        <v>2.9</v>
-      </c>
-      <c r="Q913">
-        <v>0</v>
-      </c>
-      <c r="R913">
-        <v>1.8</v>
-      </c>
-      <c r="S913">
-        <v>2</v>
-      </c>
-      <c r="T913">
-        <v>2</v>
-      </c>
       <c r="U913">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V913">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W913">
-        <v>1.5</v>
+        <v>0.909</v>
       </c>
       <c r="X913">
         <v>-1</v>
@@ -81794,13 +81794,13 @@
         <v>-1</v>
       </c>
       <c r="Z913">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA913">
         <v>-1</v>
       </c>
       <c r="AB913">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC913">
         <v>-1</v>
@@ -81811,7 +81811,7 @@
         <v>912</v>
       </c>
       <c r="B914">
-        <v>7217630</v>
+        <v>7217629</v>
       </c>
       <c r="C914" t="s">
         <v>28</v>
@@ -81823,13 +81823,13 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F914" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G914" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H914">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I914">
         <v>1</v>
@@ -81838,43 +81838,43 @@
         <v>54</v>
       </c>
       <c r="K914">
-        <v>1.65</v>
+        <v>2.4</v>
       </c>
       <c r="L914">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="M914">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="N914">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="O914">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="P914">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="Q914">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R914">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S914">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T914">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U914">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V914">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W914">
-        <v>0.909</v>
+        <v>1.5</v>
       </c>
       <c r="X914">
         <v>-1</v>
@@ -81883,13 +81883,13 @@
         <v>-1</v>
       </c>
       <c r="Z914">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA914">
         <v>-1</v>
       </c>
       <c r="AB914">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC914">
         <v>-1</v>
@@ -84392,7 +84392,7 @@
         <v>941</v>
       </c>
       <c r="B943">
-        <v>7217661</v>
+        <v>7217660</v>
       </c>
       <c r="C943" t="s">
         <v>28</v>
@@ -84404,34 +84404,34 @@
         <v>45261.45833333334</v>
       </c>
       <c r="F943" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G943" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="H943">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I943">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J943" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K943">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="L943">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M943">
         <v>2.5</v>
       </c>
       <c r="N943">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="O943">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P943">
         <v>2.6</v>
@@ -84440,10 +84440,10 @@
         <v>0</v>
       </c>
       <c r="R943">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S943">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T943">
         <v>2.25</v>
@@ -84455,25 +84455,25 @@
         <v>1.775</v>
       </c>
       <c r="W943">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X943">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y943">
         <v>-1</v>
       </c>
       <c r="Z943">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA943">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB943">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC943">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="944" spans="1:29">
@@ -84481,7 +84481,7 @@
         <v>942</v>
       </c>
       <c r="B944">
-        <v>7217660</v>
+        <v>7217661</v>
       </c>
       <c r="C944" t="s">
         <v>28</v>
@@ -84493,34 +84493,34 @@
         <v>45261.45833333334</v>
       </c>
       <c r="F944" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G944" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="H944">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I944">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J944" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K944">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="L944">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M944">
         <v>2.5</v>
       </c>
       <c r="N944">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="O944">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="P944">
         <v>2.6</v>
@@ -84529,10 +84529,10 @@
         <v>0</v>
       </c>
       <c r="R944">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S944">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T944">
         <v>2.25</v>
@@ -84544,25 +84544,25 @@
         <v>1.775</v>
       </c>
       <c r="W944">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X944">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y944">
         <v>-1</v>
       </c>
       <c r="Z944">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA944">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB944">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC944">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="945" spans="1:29">
@@ -84837,7 +84837,7 @@
         <v>946</v>
       </c>
       <c r="B948">
-        <v>7217665</v>
+        <v>7217666</v>
       </c>
       <c r="C948" t="s">
         <v>28</v>
@@ -84849,58 +84849,58 @@
         <v>45265.58333333334</v>
       </c>
       <c r="F948" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G948" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H948">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I948">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J948" t="s">
         <v>54</v>
       </c>
       <c r="K948">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="L948">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M948">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="N948">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="O948">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="P948">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="Q948">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R948">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S948">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T948">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U948">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="V948">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W948">
-        <v>1.375</v>
+        <v>0.909</v>
       </c>
       <c r="X948">
         <v>-1</v>
@@ -84909,13 +84909,13 @@
         <v>-1</v>
       </c>
       <c r="Z948">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AA948">
         <v>-1</v>
       </c>
       <c r="AB948">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AC948">
         <v>-1</v>
@@ -84926,7 +84926,7 @@
         <v>947</v>
       </c>
       <c r="B949">
-        <v>7217666</v>
+        <v>7217665</v>
       </c>
       <c r="C949" t="s">
         <v>28</v>
@@ -84938,58 +84938,58 @@
         <v>45265.58333333334</v>
       </c>
       <c r="F949" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G949" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H949">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I949">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J949" t="s">
         <v>54</v>
       </c>
       <c r="K949">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="L949">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M949">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="N949">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O949">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="P949">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="Q949">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R949">
+        <v>2.025</v>
+      </c>
+      <c r="S949">
+        <v>1.775</v>
+      </c>
+      <c r="T949">
+        <v>2.25</v>
+      </c>
+      <c r="U949">
         <v>1.95</v>
       </c>
-      <c r="S949">
+      <c r="V949">
         <v>1.85</v>
       </c>
-      <c r="T949">
-        <v>2</v>
-      </c>
-      <c r="U949">
-        <v>1.75</v>
-      </c>
-      <c r="V949">
-        <v>2.05</v>
-      </c>
       <c r="W949">
-        <v>0.909</v>
+        <v>1.375</v>
       </c>
       <c r="X949">
         <v>-1</v>
@@ -84998,13 +84998,13 @@
         <v>-1</v>
       </c>
       <c r="Z949">
+        <v>1.025</v>
+      </c>
+      <c r="AA949">
+        <v>-1</v>
+      </c>
+      <c r="AB949">
         <v>0.95</v>
-      </c>
-      <c r="AA949">
-        <v>-1</v>
-      </c>
-      <c r="AB949">
-        <v>0.75</v>
       </c>
       <c r="AC949">
         <v>-1</v>
@@ -85104,7 +85104,7 @@
         <v>949</v>
       </c>
       <c r="B951">
-        <v>7217675</v>
+        <v>7217678</v>
       </c>
       <c r="C951" t="s">
         <v>28</v>
@@ -85116,76 +85116,76 @@
         <v>45274.45833333334</v>
       </c>
       <c r="F951" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G951" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H951">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I951">
+        <v>1</v>
+      </c>
+      <c r="J951" t="s">
+        <v>55</v>
+      </c>
+      <c r="K951">
+        <v>2.875</v>
+      </c>
+      <c r="L951">
         <v>3</v>
       </c>
-      <c r="J951" t="s">
-        <v>56</v>
-      </c>
-      <c r="K951">
-        <v>2.5</v>
-      </c>
-      <c r="L951">
-        <v>2.8</v>
-      </c>
       <c r="M951">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="N951">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="O951">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P951">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="Q951">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R951">
+        <v>1.75</v>
+      </c>
+      <c r="S951">
         <v>2.05</v>
       </c>
-      <c r="S951">
-        <v>1.75</v>
-      </c>
       <c r="T951">
         <v>2</v>
       </c>
       <c r="U951">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V951">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W951">
         <v>-1</v>
       </c>
       <c r="X951">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y951">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z951">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AA951">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AB951">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC951">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="952" spans="1:29">
@@ -85193,7 +85193,7 @@
         <v>950</v>
       </c>
       <c r="B952">
-        <v>7217678</v>
+        <v>7217675</v>
       </c>
       <c r="C952" t="s">
         <v>28</v>
@@ -85205,76 +85205,76 @@
         <v>45274.45833333334</v>
       </c>
       <c r="F952" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G952" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H952">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I952">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J952" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K952">
+        <v>2.5</v>
+      </c>
+      <c r="L952">
+        <v>2.8</v>
+      </c>
+      <c r="M952">
+        <v>2.8</v>
+      </c>
+      <c r="N952">
+        <v>2.4</v>
+      </c>
+      <c r="O952">
         <v>2.875</v>
       </c>
-      <c r="L952">
+      <c r="P952">
         <v>3</v>
       </c>
-      <c r="M952">
-        <v>2.4</v>
-      </c>
-      <c r="N952">
-        <v>3</v>
-      </c>
-      <c r="O952">
-        <v>3</v>
-      </c>
-      <c r="P952">
-        <v>2.25</v>
-      </c>
       <c r="Q952">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R952">
+        <v>2.05</v>
+      </c>
+      <c r="S952">
         <v>1.75</v>
       </c>
-      <c r="S952">
-        <v>2.05</v>
-      </c>
       <c r="T952">
         <v>2</v>
       </c>
       <c r="U952">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V952">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W952">
         <v>-1</v>
       </c>
       <c r="X952">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y952">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z952">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AA952">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AB952">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC952">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="953" spans="1:29">
@@ -85282,7 +85282,7 @@
         <v>951</v>
       </c>
       <c r="B953">
-        <v>7217680</v>
+        <v>7217677</v>
       </c>
       <c r="C953" t="s">
         <v>28</v>
@@ -85294,76 +85294,76 @@
         <v>45274.58333333334</v>
       </c>
       <c r="F953" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G953" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="H953">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I953">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J953" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K953">
-        <v>2.3</v>
+        <v>1.25</v>
       </c>
       <c r="L953">
+        <v>5</v>
+      </c>
+      <c r="M953">
+        <v>9</v>
+      </c>
+      <c r="N953">
+        <v>1.166</v>
+      </c>
+      <c r="O953">
+        <v>7</v>
+      </c>
+      <c r="P953">
+        <v>11</v>
+      </c>
+      <c r="Q953">
+        <v>-2</v>
+      </c>
+      <c r="R953">
+        <v>1.95</v>
+      </c>
+      <c r="S953">
+        <v>1.85</v>
+      </c>
+      <c r="T953">
         <v>3</v>
       </c>
-      <c r="M953">
-        <v>2.875</v>
-      </c>
-      <c r="N953">
-        <v>2.875</v>
-      </c>
-      <c r="O953">
-        <v>3.2</v>
-      </c>
-      <c r="P953">
-        <v>2.375</v>
-      </c>
-      <c r="Q953">
-        <v>0.25</v>
-      </c>
-      <c r="R953">
-        <v>1.75</v>
-      </c>
-      <c r="S953">
-        <v>2.05</v>
-      </c>
-      <c r="T953">
-        <v>2.5</v>
-      </c>
       <c r="U953">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V953">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W953">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X953">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y953">
         <v>-1</v>
       </c>
       <c r="Z953">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA953">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB953">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC953">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="954" spans="1:29">
@@ -85371,7 +85371,7 @@
         <v>952</v>
       </c>
       <c r="B954">
-        <v>7217677</v>
+        <v>7217680</v>
       </c>
       <c r="C954" t="s">
         <v>28</v>
@@ -85383,76 +85383,76 @@
         <v>45274.58333333334</v>
       </c>
       <c r="F954" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G954" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="H954">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I954">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J954" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K954">
-        <v>1.25</v>
+        <v>2.3</v>
       </c>
       <c r="L954">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M954">
-        <v>9</v>
+        <v>2.875</v>
       </c>
       <c r="N954">
-        <v>1.166</v>
+        <v>2.875</v>
       </c>
       <c r="O954">
-        <v>7</v>
+        <v>3.2</v>
       </c>
       <c r="P954">
-        <v>11</v>
+        <v>2.375</v>
       </c>
       <c r="Q954">
-        <v>-2</v>
+        <v>0.25</v>
       </c>
       <c r="R954">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S954">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T954">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U954">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V954">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W954">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X954">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Y954">
         <v>-1</v>
       </c>
       <c r="Z954">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA954">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB954">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC954">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="955" spans="1:29">

--- a/Egypt Division 1/Egypt Division 1.xlsx
+++ b/Egypt Division 1/Egypt Division 1.xlsx
@@ -43274,7 +43274,7 @@
         <v>479</v>
       </c>
       <c r="B481">
-        <v>5035636</v>
+        <v>5035637</v>
       </c>
       <c r="C481" t="s">
         <v>28</v>
@@ -43286,76 +43286,76 @@
         <v>44755.5625</v>
       </c>
       <c r="F481" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G481" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I481">
         <v>0</v>
       </c>
       <c r="J481" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K481">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="L481">
+        <v>3.1</v>
+      </c>
+      <c r="M481">
+        <v>2.8</v>
+      </c>
+      <c r="N481">
+        <v>2.4</v>
+      </c>
+      <c r="O481">
         <v>3</v>
       </c>
-      <c r="M481">
-        <v>3.4</v>
-      </c>
-      <c r="N481">
-        <v>2.15</v>
-      </c>
-      <c r="O481">
-        <v>2.7</v>
-      </c>
       <c r="P481">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="Q481">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R481">
-        <v>1.875</v>
+        <v>1.725</v>
       </c>
       <c r="S481">
-        <v>1.925</v>
+        <v>2.075</v>
       </c>
       <c r="T481">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U481">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V481">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W481">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X481">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y481">
         <v>-1</v>
       </c>
       <c r="Z481">
-        <v>-0.5</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA481">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB481">
         <v>-1</v>
       </c>
       <c r="AC481">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="482" spans="1:29">
@@ -43363,7 +43363,7 @@
         <v>480</v>
       </c>
       <c r="B482">
-        <v>5035637</v>
+        <v>5035636</v>
       </c>
       <c r="C482" t="s">
         <v>28</v>
@@ -43375,76 +43375,76 @@
         <v>44755.5625</v>
       </c>
       <c r="F482" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G482" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="H482">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I482">
         <v>0</v>
       </c>
       <c r="J482" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K482">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="L482">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M482">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="N482">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="O482">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="P482">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="Q482">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R482">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="S482">
-        <v>2.075</v>
+        <v>1.925</v>
       </c>
       <c r="T482">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U482">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V482">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W482">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X482">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y482">
         <v>-1</v>
       </c>
       <c r="Z482">
-        <v>0.7250000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA482">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB482">
         <v>-1</v>
       </c>
       <c r="AC482">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="483" spans="1:29">
@@ -44342,7 +44342,7 @@
         <v>491</v>
       </c>
       <c r="B493">
-        <v>5036712</v>
+        <v>5035639</v>
       </c>
       <c r="C493" t="s">
         <v>28</v>
@@ -44354,76 +44354,76 @@
         <v>44760.66666666666</v>
       </c>
       <c r="F493" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G493" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H493">
         <v>0</v>
       </c>
       <c r="I493">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J493" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K493">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="L493">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="M493">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="N493">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="O493">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P493">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="Q493">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R493">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S493">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T493">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U493">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V493">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W493">
         <v>-1</v>
       </c>
       <c r="X493">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y493">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z493">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA493">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB493">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC493">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="494" spans="1:29">
@@ -44431,7 +44431,7 @@
         <v>492</v>
       </c>
       <c r="B494">
-        <v>5035639</v>
+        <v>5036712</v>
       </c>
       <c r="C494" t="s">
         <v>28</v>
@@ -44443,76 +44443,76 @@
         <v>44760.66666666666</v>
       </c>
       <c r="F494" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G494" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H494">
         <v>0</v>
       </c>
       <c r="I494">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J494" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K494">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="L494">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="M494">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="N494">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="O494">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P494">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="Q494">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R494">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S494">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T494">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U494">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V494">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W494">
         <v>-1</v>
       </c>
       <c r="X494">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y494">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z494">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA494">
+        <v>0.95</v>
+      </c>
+      <c r="AB494">
+        <v>0</v>
+      </c>
+      <c r="AC494">
         <v>-0</v>
-      </c>
-      <c r="AB494">
-        <v>-1</v>
-      </c>
-      <c r="AC494">
-        <v>0.925</v>
       </c>
     </row>
     <row r="495" spans="1:29">
@@ -47457,7 +47457,7 @@
         <v>526</v>
       </c>
       <c r="B528">
-        <v>5036730</v>
+        <v>5036729</v>
       </c>
       <c r="C528" t="s">
         <v>28</v>
@@ -47469,76 +47469,76 @@
         <v>44779.5625</v>
       </c>
       <c r="F528" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G528" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H528">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J528" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K528">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="L528">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="M528">
-        <v>4.5</v>
+        <v>2.375</v>
       </c>
       <c r="N528">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="O528">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P528">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="Q528">
+        <v>0.25</v>
+      </c>
+      <c r="R528">
+        <v>1.875</v>
+      </c>
+      <c r="S528">
+        <v>1.925</v>
+      </c>
+      <c r="T528">
+        <v>1.75</v>
+      </c>
+      <c r="U528">
+        <v>1.775</v>
+      </c>
+      <c r="V528">
+        <v>2.025</v>
+      </c>
+      <c r="W528">
+        <v>-1</v>
+      </c>
+      <c r="X528">
+        <v>2</v>
+      </c>
+      <c r="Y528">
+        <v>-1</v>
+      </c>
+      <c r="Z528">
+        <v>0.4375</v>
+      </c>
+      <c r="AA528">
         <v>-0.5</v>
       </c>
-      <c r="R528">
-        <v>1.85</v>
-      </c>
-      <c r="S528">
-        <v>1.95</v>
-      </c>
-      <c r="T528">
-        <v>2.25</v>
-      </c>
-      <c r="U528">
-        <v>2.025</v>
-      </c>
-      <c r="V528">
-        <v>1.775</v>
-      </c>
-      <c r="W528">
-        <v>0.8</v>
-      </c>
-      <c r="X528">
-        <v>-1</v>
-      </c>
-      <c r="Y528">
-        <v>-1</v>
-      </c>
-      <c r="Z528">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA528">
-        <v>-1</v>
-      </c>
       <c r="AB528">
+        <v>-1</v>
+      </c>
+      <c r="AC528">
         <v>1.025</v>
-      </c>
-      <c r="AC528">
-        <v>-1</v>
       </c>
     </row>
     <row r="529" spans="1:29">
@@ -47546,7 +47546,7 @@
         <v>527</v>
       </c>
       <c r="B529">
-        <v>5036729</v>
+        <v>5036730</v>
       </c>
       <c r="C529" t="s">
         <v>28</v>
@@ -47558,76 +47558,76 @@
         <v>44779.5625</v>
       </c>
       <c r="F529" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G529" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J529" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K529">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="L529">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="M529">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="N529">
+        <v>1.8</v>
+      </c>
+      <c r="O529">
         <v>3.1</v>
       </c>
-      <c r="O529">
-        <v>3</v>
-      </c>
       <c r="P529">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="Q529">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R529">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S529">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T529">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U529">
+        <v>2.025</v>
+      </c>
+      <c r="V529">
         <v>1.775</v>
       </c>
-      <c r="V529">
-        <v>2.025</v>
-      </c>
       <c r="W529">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X529">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y529">
         <v>-1</v>
       </c>
       <c r="Z529">
-        <v>0.4375</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA529">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB529">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC529">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="530" spans="1:29">
@@ -54221,7 +54221,7 @@
         <v>602</v>
       </c>
       <c r="B604">
-        <v>5774014</v>
+        <v>5774015</v>
       </c>
       <c r="C604" t="s">
         <v>28</v>
@@ -54233,76 +54233,76 @@
         <v>44888.5</v>
       </c>
       <c r="F604" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="G604" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H604">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I604">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J604" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K604">
-        <v>2.875</v>
+        <v>1.444</v>
       </c>
       <c r="L604">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="M604">
-        <v>2.7</v>
+        <v>6.5</v>
       </c>
       <c r="N604">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="O604">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="P604">
-        <v>2.625</v>
+        <v>5.25</v>
       </c>
       <c r="Q604">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R604">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="S604">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="T604">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U604">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V604">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W604">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X604">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y604">
         <v>-1</v>
       </c>
       <c r="Z604">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA604">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB604">
-        <v>0.4125</v>
+        <v>-0.5</v>
       </c>
       <c r="AC604">
-        <v>-0.5</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="605" spans="1:29">
@@ -54399,7 +54399,7 @@
         <v>604</v>
       </c>
       <c r="B606">
-        <v>5774015</v>
+        <v>5774014</v>
       </c>
       <c r="C606" t="s">
         <v>28</v>
@@ -54411,76 +54411,76 @@
         <v>44888.5</v>
       </c>
       <c r="F606" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="G606" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H606">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I606">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J606" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K606">
-        <v>1.444</v>
+        <v>2.875</v>
       </c>
       <c r="L606">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="M606">
-        <v>6.5</v>
+        <v>2.7</v>
       </c>
       <c r="N606">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="O606">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="P606">
-        <v>5.25</v>
+        <v>2.625</v>
       </c>
       <c r="Q606">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R606">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="S606">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="T606">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U606">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V606">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W606">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X606">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y606">
         <v>-1</v>
       </c>
       <c r="Z606">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA606">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB606">
+        <v>0.4125</v>
+      </c>
+      <c r="AC606">
         <v>-0.5</v>
-      </c>
-      <c r="AC606">
-        <v>0.4375</v>
       </c>
     </row>
     <row r="607" spans="1:29">
@@ -54755,7 +54755,7 @@
         <v>608</v>
       </c>
       <c r="B610">
-        <v>5774659</v>
+        <v>5774018</v>
       </c>
       <c r="C610" t="s">
         <v>28</v>
@@ -54767,76 +54767,76 @@
         <v>44896.40625</v>
       </c>
       <c r="F610" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G610" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H610">
+        <v>0</v>
+      </c>
+      <c r="I610">
         <v>1</v>
       </c>
-      <c r="I610">
-        <v>0</v>
-      </c>
       <c r="J610" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K610">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="L610">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="M610">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="N610">
-        <v>2.8</v>
+        <v>5.75</v>
       </c>
       <c r="O610">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="P610">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="Q610">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R610">
+        <v>1.85</v>
+      </c>
+      <c r="S610">
         <v>1.95</v>
       </c>
-      <c r="S610">
-        <v>1.85</v>
-      </c>
       <c r="T610">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U610">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V610">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W610">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X610">
         <v>-1</v>
       </c>
       <c r="Y610">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z610">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA610">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB610">
         <v>-1</v>
       </c>
       <c r="AC610">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="611" spans="1:29">
@@ -54844,7 +54844,7 @@
         <v>609</v>
       </c>
       <c r="B611">
-        <v>5774018</v>
+        <v>5774659</v>
       </c>
       <c r="C611" t="s">
         <v>28</v>
@@ -54856,76 +54856,76 @@
         <v>44896.40625</v>
       </c>
       <c r="F611" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G611" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H611">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I611">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J611" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K611">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="L611">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="M611">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="N611">
-        <v>5.75</v>
+        <v>2.8</v>
       </c>
       <c r="O611">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="P611">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q611">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R611">
+        <v>1.95</v>
+      </c>
+      <c r="S611">
         <v>1.85</v>
       </c>
-      <c r="S611">
-        <v>1.95</v>
-      </c>
       <c r="T611">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U611">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V611">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W611">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X611">
         <v>-1</v>
       </c>
       <c r="Y611">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z611">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA611">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB611">
         <v>-1</v>
       </c>
       <c r="AC611">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="612" spans="1:29">
@@ -55022,7 +55022,7 @@
         <v>611</v>
       </c>
       <c r="B613">
-        <v>5774660</v>
+        <v>5774019</v>
       </c>
       <c r="C613" t="s">
         <v>28</v>
@@ -55034,34 +55034,34 @@
         <v>44897.40625</v>
       </c>
       <c r="F613" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G613" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H613">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I613">
         <v>1</v>
       </c>
       <c r="J613" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K613">
         <v>2.5</v>
       </c>
       <c r="L613">
+        <v>2.875</v>
+      </c>
+      <c r="M613">
+        <v>2.9</v>
+      </c>
+      <c r="N613">
+        <v>2.5</v>
+      </c>
+      <c r="O613">
         <v>2.8</v>
-      </c>
-      <c r="M613">
-        <v>3</v>
-      </c>
-      <c r="N613">
-        <v>2.6</v>
-      </c>
-      <c r="O613">
-        <v>2.7</v>
       </c>
       <c r="P613">
         <v>3</v>
@@ -55070,40 +55070,40 @@
         <v>0</v>
       </c>
       <c r="R613">
-        <v>1.75</v>
+        <v>1.725</v>
       </c>
       <c r="S613">
-        <v>2.05</v>
+        <v>2.075</v>
       </c>
       <c r="T613">
         <v>2</v>
       </c>
       <c r="U613">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V613">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W613">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X613">
         <v>-1</v>
       </c>
       <c r="Y613">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z613">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA613">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AB613">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC613">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="614" spans="1:29">
@@ -55111,7 +55111,7 @@
         <v>612</v>
       </c>
       <c r="B614">
-        <v>5774019</v>
+        <v>5774660</v>
       </c>
       <c r="C614" t="s">
         <v>28</v>
@@ -55123,34 +55123,34 @@
         <v>44897.40625</v>
       </c>
       <c r="F614" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G614" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I614">
         <v>1</v>
       </c>
       <c r="J614" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K614">
         <v>2.5</v>
       </c>
       <c r="L614">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="M614">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="N614">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O614">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="P614">
         <v>3</v>
@@ -55159,40 +55159,40 @@
         <v>0</v>
       </c>
       <c r="R614">
-        <v>1.725</v>
+        <v>1.75</v>
       </c>
       <c r="S614">
-        <v>2.075</v>
+        <v>2.05</v>
       </c>
       <c r="T614">
         <v>2</v>
       </c>
       <c r="U614">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V614">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W614">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X614">
         <v>-1</v>
       </c>
       <c r="Y614">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z614">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA614">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="AB614">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC614">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="615" spans="1:29">
@@ -56891,7 +56891,7 @@
         <v>632</v>
       </c>
       <c r="B634">
-        <v>5774028</v>
+        <v>5774664</v>
       </c>
       <c r="C634" t="s">
         <v>28</v>
@@ -56903,49 +56903,49 @@
         <v>44910.5</v>
       </c>
       <c r="F634" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="G634" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I634">
         <v>0</v>
       </c>
       <c r="J634" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K634">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="L634">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="M634">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="N634">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="O634">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="P634">
-        <v>2.375</v>
+        <v>5</v>
       </c>
       <c r="Q634">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R634">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S634">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T634">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U634">
         <v>1.75</v>
@@ -56954,16 +56954,16 @@
         <v>2.05</v>
       </c>
       <c r="W634">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X634">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y634">
         <v>-1</v>
       </c>
       <c r="Z634">
-        <v>0.375</v>
+        <v>0.4875</v>
       </c>
       <c r="AA634">
         <v>-0.5</v>
@@ -56980,7 +56980,7 @@
         <v>633</v>
       </c>
       <c r="B635">
-        <v>5774664</v>
+        <v>5774028</v>
       </c>
       <c r="C635" t="s">
         <v>28</v>
@@ -56992,49 +56992,49 @@
         <v>44910.5</v>
       </c>
       <c r="F635" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="G635" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="H635">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I635">
         <v>0</v>
       </c>
       <c r="J635" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K635">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="L635">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="M635">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="N635">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="O635">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="P635">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="Q635">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R635">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S635">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T635">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U635">
         <v>1.75</v>
@@ -57043,16 +57043,16 @@
         <v>2.05</v>
       </c>
       <c r="W635">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X635">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y635">
         <v>-1</v>
       </c>
       <c r="Z635">
-        <v>0.4875</v>
+        <v>0.375</v>
       </c>
       <c r="AA635">
         <v>-0.5</v>
@@ -57603,7 +57603,7 @@
         <v>640</v>
       </c>
       <c r="B642">
-        <v>5774666</v>
+        <v>5774665</v>
       </c>
       <c r="C642" t="s">
         <v>28</v>
@@ -57615,76 +57615,76 @@
         <v>44914.5</v>
       </c>
       <c r="F642" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G642" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H642">
+        <v>0</v>
+      </c>
+      <c r="I642">
+        <v>2</v>
+      </c>
+      <c r="J642" t="s">
+        <v>56</v>
+      </c>
+      <c r="K642">
+        <v>3.1</v>
+      </c>
+      <c r="L642">
+        <v>2.8</v>
+      </c>
+      <c r="M642">
+        <v>2.45</v>
+      </c>
+      <c r="N642">
+        <v>3.3</v>
+      </c>
+      <c r="O642">
+        <v>2.8</v>
+      </c>
+      <c r="P642">
+        <v>2.3</v>
+      </c>
+      <c r="Q642">
+        <v>0.25</v>
+      </c>
+      <c r="R642">
+        <v>1.8</v>
+      </c>
+      <c r="S642">
+        <v>2</v>
+      </c>
+      <c r="T642">
+        <v>2</v>
+      </c>
+      <c r="U642">
+        <v>1.875</v>
+      </c>
+      <c r="V642">
+        <v>1.925</v>
+      </c>
+      <c r="W642">
+        <v>-1</v>
+      </c>
+      <c r="X642">
+        <v>-1</v>
+      </c>
+      <c r="Y642">
+        <v>1.3</v>
+      </c>
+      <c r="Z642">
+        <v>-1</v>
+      </c>
+      <c r="AA642">
         <v>1</v>
       </c>
-      <c r="I642">
-        <v>0</v>
-      </c>
-      <c r="J642" t="s">
-        <v>54</v>
-      </c>
-      <c r="K642">
-        <v>1.65</v>
-      </c>
-      <c r="L642">
-        <v>3.4</v>
-      </c>
-      <c r="M642">
-        <v>5.5</v>
-      </c>
-      <c r="N642">
-        <v>1.7</v>
-      </c>
-      <c r="O642">
-        <v>3.4</v>
-      </c>
-      <c r="P642">
-        <v>5</v>
-      </c>
-      <c r="Q642">
-        <v>-0.5</v>
-      </c>
-      <c r="R642">
-        <v>1.775</v>
-      </c>
-      <c r="S642">
-        <v>2.025</v>
-      </c>
-      <c r="T642">
-        <v>2.25</v>
-      </c>
-      <c r="U642">
-        <v>2.025</v>
-      </c>
-      <c r="V642">
-        <v>1.775</v>
-      </c>
-      <c r="W642">
-        <v>0.7</v>
-      </c>
-      <c r="X642">
-        <v>-1</v>
-      </c>
-      <c r="Y642">
-        <v>-1</v>
-      </c>
-      <c r="Z642">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AA642">
-        <v>-1</v>
-      </c>
       <c r="AB642">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC642">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="643" spans="1:29">
@@ -57692,7 +57692,7 @@
         <v>641</v>
       </c>
       <c r="B643">
-        <v>5774665</v>
+        <v>5774666</v>
       </c>
       <c r="C643" t="s">
         <v>28</v>
@@ -57704,76 +57704,76 @@
         <v>44914.5</v>
       </c>
       <c r="F643" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G643" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H643">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I643">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J643" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K643">
-        <v>3.1</v>
+        <v>1.65</v>
       </c>
       <c r="L643">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="M643">
-        <v>2.45</v>
+        <v>5.5</v>
       </c>
       <c r="N643">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="O643">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="P643">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="Q643">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R643">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S643">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T643">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U643">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V643">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W643">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X643">
         <v>-1</v>
       </c>
       <c r="Y643">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z643">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA643">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB643">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC643">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="644" spans="1:29">
@@ -60273,7 +60273,7 @@
         <v>670</v>
       </c>
       <c r="B672">
-        <v>5774051</v>
+        <v>5774679</v>
       </c>
       <c r="C672" t="s">
         <v>28</v>
@@ -60285,73 +60285,73 @@
         <v>44929.40625</v>
       </c>
       <c r="F672" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G672" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="H672">
+        <v>0</v>
+      </c>
+      <c r="I672">
         <v>3</v>
       </c>
-      <c r="I672">
-        <v>2</v>
-      </c>
       <c r="J672" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K672">
-        <v>1.727</v>
+        <v>2.625</v>
       </c>
       <c r="L672">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M672">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="N672">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="O672">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P672">
-        <v>5.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q672">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R672">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S672">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T672">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U672">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V672">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W672">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X672">
         <v>-1</v>
       </c>
       <c r="Y672">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z672">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA672">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB672">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC672">
         <v>-1</v>
@@ -60362,7 +60362,7 @@
         <v>671</v>
       </c>
       <c r="B673">
-        <v>5774679</v>
+        <v>5774051</v>
       </c>
       <c r="C673" t="s">
         <v>28</v>
@@ -60374,73 +60374,73 @@
         <v>44929.40625</v>
       </c>
       <c r="F673" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G673" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="H673">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I673">
+        <v>2</v>
+      </c>
+      <c r="J673" t="s">
+        <v>54</v>
+      </c>
+      <c r="K673">
+        <v>1.727</v>
+      </c>
+      <c r="L673">
         <v>3</v>
       </c>
-      <c r="J673" t="s">
-        <v>56</v>
-      </c>
-      <c r="K673">
-        <v>2.625</v>
-      </c>
-      <c r="L673">
-        <v>2.875</v>
-      </c>
       <c r="M673">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="N673">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="O673">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P673">
-        <v>2.1</v>
+        <v>5.25</v>
       </c>
       <c r="Q673">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R673">
+        <v>1.8</v>
+      </c>
+      <c r="S673">
+        <v>2</v>
+      </c>
+      <c r="T673">
+        <v>1.75</v>
+      </c>
+      <c r="U673">
         <v>1.775</v>
       </c>
-      <c r="S673">
+      <c r="V673">
         <v>2.025</v>
       </c>
-      <c r="T673">
-        <v>2.25</v>
-      </c>
-      <c r="U673">
-        <v>1.825</v>
-      </c>
-      <c r="V673">
-        <v>1.975</v>
-      </c>
       <c r="W673">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X673">
         <v>-1</v>
       </c>
       <c r="Y673">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z673">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA673">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB673">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC673">
         <v>-1</v>
@@ -61697,7 +61697,7 @@
         <v>686</v>
       </c>
       <c r="B688">
-        <v>6117225</v>
+        <v>5774686</v>
       </c>
       <c r="C688" t="s">
         <v>28</v>
@@ -61709,76 +61709,76 @@
         <v>44937.58333333334</v>
       </c>
       <c r="F688" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G688" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H688">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I688">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J688" t="s">
         <v>55</v>
       </c>
       <c r="K688">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="L688">
+        <v>3.2</v>
+      </c>
+      <c r="M688">
+        <v>1.95</v>
+      </c>
+      <c r="N688">
+        <v>3.4</v>
+      </c>
+      <c r="O688">
         <v>3</v>
       </c>
-      <c r="M688">
-        <v>1.909</v>
-      </c>
-      <c r="N688">
-        <v>3.8</v>
-      </c>
-      <c r="O688">
-        <v>2.875</v>
-      </c>
       <c r="P688">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="Q688">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R688">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S688">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T688">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U688">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V688">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W688">
         <v>-1</v>
       </c>
       <c r="X688">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="Y688">
         <v>-1</v>
       </c>
       <c r="Z688">
-        <v>0.75</v>
+        <v>0.45</v>
       </c>
       <c r="AA688">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB688">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC688">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="689" spans="1:29">
@@ -61786,7 +61786,7 @@
         <v>687</v>
       </c>
       <c r="B689">
-        <v>5774686</v>
+        <v>6117225</v>
       </c>
       <c r="C689" t="s">
         <v>28</v>
@@ -61798,76 +61798,76 @@
         <v>44937.58333333334</v>
       </c>
       <c r="F689" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G689" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H689">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I689">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J689" t="s">
         <v>55</v>
       </c>
       <c r="K689">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="L689">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M689">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="N689">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="O689">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P689">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="Q689">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R689">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S689">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T689">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U689">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V689">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W689">
         <v>-1</v>
       </c>
       <c r="X689">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="Y689">
         <v>-1</v>
       </c>
       <c r="Z689">
-        <v>0.45</v>
+        <v>0.75</v>
       </c>
       <c r="AA689">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB689">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC689">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="690" spans="1:29">
@@ -64367,7 +64367,7 @@
         <v>716</v>
       </c>
       <c r="B718">
-        <v>5774702</v>
+        <v>5774701</v>
       </c>
       <c r="C718" t="s">
         <v>28</v>
@@ -64379,73 +64379,73 @@
         <v>44955.58333333334</v>
       </c>
       <c r="F718" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G718" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H718">
         <v>2</v>
       </c>
       <c r="I718">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J718" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K718">
+        <v>1.55</v>
+      </c>
+      <c r="L718">
+        <v>3.8</v>
+      </c>
+      <c r="M718">
+        <v>5.25</v>
+      </c>
+      <c r="N718">
+        <v>1.6</v>
+      </c>
+      <c r="O718">
+        <v>3.8</v>
+      </c>
+      <c r="P718">
+        <v>4.75</v>
+      </c>
+      <c r="Q718">
+        <v>-1</v>
+      </c>
+      <c r="R718">
         <v>2.05</v>
       </c>
-      <c r="L718">
-        <v>3.1</v>
-      </c>
-      <c r="M718">
-        <v>3.4</v>
-      </c>
-      <c r="N718">
-        <v>2.4</v>
-      </c>
-      <c r="O718">
-        <v>2.875</v>
-      </c>
-      <c r="P718">
+      <c r="S718">
+        <v>1.75</v>
+      </c>
+      <c r="T718">
+        <v>2.5</v>
+      </c>
+      <c r="U718">
+        <v>1.925</v>
+      </c>
+      <c r="V718">
+        <v>1.875</v>
+      </c>
+      <c r="W718">
+        <v>-1</v>
+      </c>
+      <c r="X718">
         <v>2.8</v>
       </c>
-      <c r="Q718">
-        <v>0</v>
-      </c>
-      <c r="R718">
-        <v>1.8</v>
-      </c>
-      <c r="S718">
-        <v>2</v>
-      </c>
-      <c r="T718">
-        <v>2</v>
-      </c>
-      <c r="U718">
-        <v>1.75</v>
-      </c>
-      <c r="V718">
-        <v>2.05</v>
-      </c>
-      <c r="W718">
-        <v>1.4</v>
-      </c>
-      <c r="X718">
-        <v>-1</v>
-      </c>
       <c r="Y718">
         <v>-1</v>
       </c>
       <c r="Z718">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA718">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB718">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AC718">
         <v>-1</v>
@@ -64456,7 +64456,7 @@
         <v>717</v>
       </c>
       <c r="B719">
-        <v>5774701</v>
+        <v>5774702</v>
       </c>
       <c r="C719" t="s">
         <v>28</v>
@@ -64468,73 +64468,73 @@
         <v>44955.58333333334</v>
       </c>
       <c r="F719" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G719" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H719">
         <v>2</v>
       </c>
       <c r="I719">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J719" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K719">
-        <v>1.55</v>
+        <v>2.05</v>
       </c>
       <c r="L719">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="M719">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="N719">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="O719">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="P719">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q719">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R719">
+        <v>1.8</v>
+      </c>
+      <c r="S719">
+        <v>2</v>
+      </c>
+      <c r="T719">
+        <v>2</v>
+      </c>
+      <c r="U719">
+        <v>1.75</v>
+      </c>
+      <c r="V719">
         <v>2.05</v>
       </c>
-      <c r="S719">
-        <v>1.75</v>
-      </c>
-      <c r="T719">
-        <v>2.5</v>
-      </c>
-      <c r="U719">
-        <v>1.925</v>
-      </c>
-      <c r="V719">
-        <v>1.875</v>
-      </c>
       <c r="W719">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X719">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y719">
         <v>-1</v>
       </c>
       <c r="Z719">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA719">
+        <v>-1</v>
+      </c>
+      <c r="AB719">
         <v>0.75</v>
-      </c>
-      <c r="AB719">
-        <v>0.925</v>
       </c>
       <c r="AC719">
         <v>-1</v>
@@ -68995,7 +68995,7 @@
         <v>768</v>
       </c>
       <c r="B770">
-        <v>6445815</v>
+        <v>6467349</v>
       </c>
       <c r="C770" t="s">
         <v>28</v>
@@ -69007,19 +69007,19 @@
         <v>45020.67708333334</v>
       </c>
       <c r="F770" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G770" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H770">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I770">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J770" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K770">
         <v>2.7</v>
@@ -69028,25 +69028,25 @@
         <v>2.75</v>
       </c>
       <c r="M770">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="N770">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="O770">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="P770">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="Q770">
         <v>0</v>
       </c>
       <c r="R770">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="S770">
-        <v>2</v>
+        <v>2.075</v>
       </c>
       <c r="T770">
         <v>2</v>
@@ -69058,25 +69058,25 @@
         <v>1.95</v>
       </c>
       <c r="W770">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X770">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y770">
         <v>-1</v>
       </c>
       <c r="Z770">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA770">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB770">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC770">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="771" spans="1:29">
@@ -69084,7 +69084,7 @@
         <v>769</v>
       </c>
       <c r="B771">
-        <v>6467349</v>
+        <v>6471793</v>
       </c>
       <c r="C771" t="s">
         <v>28</v>
@@ -69096,61 +69096,61 @@
         <v>45020.67708333334</v>
       </c>
       <c r="F771" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G771" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="H771">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I771">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J771" t="s">
         <v>55</v>
       </c>
       <c r="K771">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="L771">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="M771">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="N771">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="O771">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="P771">
-        <v>2.9</v>
+        <v>2.625</v>
       </c>
       <c r="Q771">
         <v>0</v>
       </c>
       <c r="R771">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="S771">
-        <v>2.075</v>
+        <v>1.775</v>
       </c>
       <c r="T771">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U771">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V771">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W771">
         <v>-1</v>
       </c>
       <c r="X771">
-        <v>1.75</v>
+        <v>1.625</v>
       </c>
       <c r="Y771">
         <v>-1</v>
@@ -69162,10 +69162,10 @@
         <v>-0</v>
       </c>
       <c r="AB771">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC771">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="772" spans="1:29">
@@ -69173,7 +69173,7 @@
         <v>770</v>
       </c>
       <c r="B772">
-        <v>6471793</v>
+        <v>6445815</v>
       </c>
       <c r="C772" t="s">
         <v>28</v>
@@ -69185,76 +69185,76 @@
         <v>45020.67708333334</v>
       </c>
       <c r="F772" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G772" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H772">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I772">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J772" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K772">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="L772">
+        <v>2.75</v>
+      </c>
+      <c r="M772">
         <v>2.625</v>
       </c>
-      <c r="M772">
-        <v>3</v>
-      </c>
       <c r="N772">
+        <v>2.6</v>
+      </c>
+      <c r="O772">
+        <v>2.8</v>
+      </c>
+      <c r="P772">
         <v>2.875</v>
       </c>
-      <c r="O772">
-        <v>2.625</v>
-      </c>
-      <c r="P772">
-        <v>2.625</v>
-      </c>
       <c r="Q772">
         <v>0</v>
       </c>
       <c r="R772">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S772">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T772">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U772">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V772">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W772">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X772">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Y772">
         <v>-1</v>
       </c>
       <c r="Z772">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA772">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB772">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC772">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="773" spans="1:29">
@@ -69262,7 +69262,7 @@
         <v>771</v>
       </c>
       <c r="B773">
-        <v>6451733</v>
+        <v>6471794</v>
       </c>
       <c r="C773" t="s">
         <v>28</v>
@@ -69274,76 +69274,76 @@
         <v>45021.67708333334</v>
       </c>
       <c r="F773" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G773" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H773">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I773">
         <v>0</v>
       </c>
       <c r="J773" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K773">
-        <v>4.2</v>
+        <v>1.222</v>
       </c>
       <c r="L773">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="M773">
-        <v>1.85</v>
+        <v>10</v>
       </c>
       <c r="N773">
-        <v>3.4</v>
+        <v>1.222</v>
       </c>
       <c r="O773">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="P773">
-        <v>2.15</v>
+        <v>10</v>
       </c>
       <c r="Q773">
-        <v>0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R773">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S773">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T773">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U773">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V773">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W773">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X773">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y773">
         <v>-1</v>
       </c>
       <c r="Z773">
-        <v>0.4375</v>
+        <v>1</v>
       </c>
       <c r="AA773">
+        <v>-1</v>
+      </c>
+      <c r="AB773">
+        <v>0.4875</v>
+      </c>
+      <c r="AC773">
         <v>-0.5</v>
-      </c>
-      <c r="AB773">
-        <v>-1</v>
-      </c>
-      <c r="AC773">
-        <v>0.925</v>
       </c>
     </row>
     <row r="774" spans="1:29">
@@ -69351,7 +69351,7 @@
         <v>772</v>
       </c>
       <c r="B774">
-        <v>6471794</v>
+        <v>6451733</v>
       </c>
       <c r="C774" t="s">
         <v>28</v>
@@ -69363,76 +69363,76 @@
         <v>45021.67708333334</v>
       </c>
       <c r="F774" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G774" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H774">
+        <v>0</v>
+      </c>
+      <c r="I774">
+        <v>0</v>
+      </c>
+      <c r="J774" t="s">
+        <v>55</v>
+      </c>
+      <c r="K774">
+        <v>4.2</v>
+      </c>
+      <c r="L774">
         <v>3</v>
       </c>
-      <c r="I774">
-        <v>0</v>
-      </c>
-      <c r="J774" t="s">
-        <v>54</v>
-      </c>
-      <c r="K774">
-        <v>1.222</v>
-      </c>
-      <c r="L774">
-        <v>5.25</v>
-      </c>
       <c r="M774">
-        <v>10</v>
+        <v>1.85</v>
       </c>
       <c r="N774">
-        <v>1.222</v>
+        <v>3.4</v>
       </c>
       <c r="O774">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="P774">
-        <v>10</v>
+        <v>2.15</v>
       </c>
       <c r="Q774">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R774">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S774">
+        <v>1.925</v>
+      </c>
+      <c r="T774">
+        <v>2</v>
+      </c>
+      <c r="U774">
+        <v>1.875</v>
+      </c>
+      <c r="V774">
+        <v>1.925</v>
+      </c>
+      <c r="W774">
+        <v>-1</v>
+      </c>
+      <c r="X774">
         <v>1.8</v>
       </c>
-      <c r="T774">
-        <v>2.75</v>
-      </c>
-      <c r="U774">
-        <v>1.975</v>
-      </c>
-      <c r="V774">
-        <v>1.825</v>
-      </c>
-      <c r="W774">
-        <v>0.222</v>
-      </c>
-      <c r="X774">
-        <v>-1</v>
-      </c>
       <c r="Y774">
         <v>-1</v>
       </c>
       <c r="Z774">
-        <v>1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA774">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB774">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC774">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="775" spans="1:29">
@@ -70063,7 +70063,7 @@
         <v>780</v>
       </c>
       <c r="B782">
-        <v>6471800</v>
+        <v>6484222</v>
       </c>
       <c r="C782" t="s">
         <v>28</v>
@@ -70075,76 +70075,76 @@
         <v>45028.67708333334</v>
       </c>
       <c r="F782" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="G782" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H782">
         <v>0</v>
       </c>
       <c r="I782">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J782" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K782">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="L782">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M782">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="N782">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="O782">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="P782">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="Q782">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R782">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S782">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T782">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U782">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V782">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W782">
         <v>-1</v>
       </c>
       <c r="X782">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y782">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z782">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA782">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB782">
         <v>-1</v>
       </c>
       <c r="AC782">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="783" spans="1:29">
@@ -70152,7 +70152,7 @@
         <v>781</v>
       </c>
       <c r="B783">
-        <v>6484222</v>
+        <v>6471800</v>
       </c>
       <c r="C783" t="s">
         <v>28</v>
@@ -70164,76 +70164,76 @@
         <v>45028.67708333334</v>
       </c>
       <c r="F783" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="G783" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H783">
         <v>0</v>
       </c>
       <c r="I783">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J783" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K783">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="L783">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M783">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="N783">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="O783">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="P783">
-        <v>1.95</v>
+        <v>1.6</v>
       </c>
       <c r="Q783">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R783">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S783">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T783">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U783">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V783">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W783">
         <v>-1</v>
       </c>
       <c r="X783">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y783">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z783">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA783">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB783">
         <v>-1</v>
       </c>
       <c r="AC783">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="784" spans="1:29">
@@ -70241,7 +70241,7 @@
         <v>782</v>
       </c>
       <c r="B784">
-        <v>6488023</v>
+        <v>6471699</v>
       </c>
       <c r="C784" t="s">
         <v>28</v>
@@ -70253,76 +70253,76 @@
         <v>45029.67708333334</v>
       </c>
       <c r="F784" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G784" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H784">
         <v>0</v>
       </c>
       <c r="I784">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J784" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K784">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="L784">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="M784">
-        <v>3.25</v>
+        <v>1.833</v>
       </c>
       <c r="N784">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="O784">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P784">
-        <v>2.55</v>
+        <v>1.7</v>
       </c>
       <c r="Q784">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R784">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S784">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T784">
         <v>2</v>
       </c>
       <c r="U784">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V784">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W784">
         <v>-1</v>
       </c>
       <c r="X784">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y784">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z784">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA784">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB784">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC784">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="785" spans="1:29">
@@ -70419,7 +70419,7 @@
         <v>784</v>
       </c>
       <c r="B786">
-        <v>6471699</v>
+        <v>6488023</v>
       </c>
       <c r="C786" t="s">
         <v>28</v>
@@ -70431,76 +70431,76 @@
         <v>45029.67708333334</v>
       </c>
       <c r="F786" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G786" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H786">
         <v>0</v>
       </c>
       <c r="I786">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J786" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K786">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="L786">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="M786">
-        <v>1.833</v>
+        <v>3.25</v>
       </c>
       <c r="N786">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="O786">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P786">
-        <v>1.7</v>
+        <v>2.55</v>
       </c>
       <c r="Q786">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R786">
+        <v>1.9</v>
+      </c>
+      <c r="S786">
+        <v>1.9</v>
+      </c>
+      <c r="T786">
+        <v>2</v>
+      </c>
+      <c r="U786">
         <v>1.8</v>
       </c>
-      <c r="S786">
-        <v>2</v>
-      </c>
-      <c r="T786">
-        <v>2</v>
-      </c>
-      <c r="U786">
-        <v>1.825</v>
-      </c>
       <c r="V786">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W786">
         <v>-1</v>
       </c>
       <c r="X786">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y786">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z786">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA786">
+        <v>-0</v>
+      </c>
+      <c r="AB786">
+        <v>-1</v>
+      </c>
+      <c r="AC786">
         <v>1</v>
-      </c>
-      <c r="AB786">
-        <v>0.825</v>
-      </c>
-      <c r="AC786">
-        <v>-1</v>
       </c>
     </row>
     <row r="787" spans="1:29">
@@ -71309,7 +71309,7 @@
         <v>794</v>
       </c>
       <c r="B796">
-        <v>6488030</v>
+        <v>6495713</v>
       </c>
       <c r="C796" t="s">
         <v>28</v>
@@ -71321,76 +71321,76 @@
         <v>45035.67708333334</v>
       </c>
       <c r="F796" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G796" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H796">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I796">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J796" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K796">
-        <v>2</v>
+        <v>3.9</v>
       </c>
       <c r="L796">
+        <v>2.7</v>
+      </c>
+      <c r="M796">
+        <v>2.05</v>
+      </c>
+      <c r="N796">
+        <v>4.2</v>
+      </c>
+      <c r="O796">
         <v>2.75</v>
       </c>
-      <c r="M796">
-        <v>4</v>
-      </c>
-      <c r="N796">
-        <v>2.05</v>
-      </c>
-      <c r="O796">
-        <v>2.9</v>
-      </c>
       <c r="P796">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="Q796">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R796">
+        <v>2.025</v>
+      </c>
+      <c r="S796">
         <v>1.775</v>
       </c>
-      <c r="S796">
-        <v>2.025</v>
-      </c>
       <c r="T796">
         <v>2</v>
       </c>
       <c r="U796">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V796">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W796">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X796">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y796">
         <v>-1</v>
       </c>
       <c r="Z796">
-        <v>0.7749999999999999</v>
+        <v>0.5125</v>
       </c>
       <c r="AA796">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB796">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC796">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="797" spans="1:29">
@@ -71398,7 +71398,7 @@
         <v>795</v>
       </c>
       <c r="B797">
-        <v>6495713</v>
+        <v>6488030</v>
       </c>
       <c r="C797" t="s">
         <v>28</v>
@@ -71410,76 +71410,76 @@
         <v>45035.67708333334</v>
       </c>
       <c r="F797" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="G797" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H797">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I797">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J797" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K797">
-        <v>3.9</v>
+        <v>2</v>
       </c>
       <c r="L797">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="M797">
+        <v>4</v>
+      </c>
+      <c r="N797">
         <v>2.05</v>
       </c>
-      <c r="N797">
-        <v>4.2</v>
-      </c>
       <c r="O797">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="P797">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="Q797">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R797">
+        <v>1.775</v>
+      </c>
+      <c r="S797">
         <v>2.025</v>
       </c>
-      <c r="S797">
-        <v>1.775</v>
-      </c>
       <c r="T797">
         <v>2</v>
       </c>
       <c r="U797">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V797">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W797">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X797">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y797">
         <v>-1</v>
       </c>
       <c r="Z797">
-        <v>0.5125</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA797">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB797">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC797">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="798" spans="1:29">
@@ -71487,7 +71487,7 @@
         <v>796</v>
       </c>
       <c r="B798">
-        <v>6495714</v>
+        <v>6488031</v>
       </c>
       <c r="C798" t="s">
         <v>28</v>
@@ -71499,76 +71499,76 @@
         <v>45036.67708333334</v>
       </c>
       <c r="F798" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G798" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H798">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I798">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J798" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K798">
         <v>2.3</v>
       </c>
       <c r="L798">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="M798">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N798">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O798">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="P798">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q798">
         <v>-0.25</v>
       </c>
       <c r="R798">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S798">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T798">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U798">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V798">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W798">
         <v>-1</v>
       </c>
       <c r="X798">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y798">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z798">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA798">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
       <c r="AB798">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC798">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="799" spans="1:29">
@@ -71576,7 +71576,7 @@
         <v>797</v>
       </c>
       <c r="B799">
-        <v>6488031</v>
+        <v>6495714</v>
       </c>
       <c r="C799" t="s">
         <v>28</v>
@@ -71588,76 +71588,76 @@
         <v>45036.67708333334</v>
       </c>
       <c r="F799" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G799" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H799">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I799">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J799" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K799">
         <v>2.3</v>
       </c>
       <c r="L799">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="M799">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N799">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O799">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="P799">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q799">
         <v>-0.25</v>
       </c>
       <c r="R799">
+        <v>1.9</v>
+      </c>
+      <c r="S799">
+        <v>1.9</v>
+      </c>
+      <c r="T799">
+        <v>2.25</v>
+      </c>
+      <c r="U799">
+        <v>1.95</v>
+      </c>
+      <c r="V799">
         <v>1.85</v>
       </c>
-      <c r="S799">
-        <v>1.95</v>
-      </c>
-      <c r="T799">
-        <v>2</v>
-      </c>
-      <c r="U799">
-        <v>2</v>
-      </c>
-      <c r="V799">
+      <c r="W799">
+        <v>-1</v>
+      </c>
+      <c r="X799">
         <v>1.8</v>
       </c>
-      <c r="W799">
-        <v>-1</v>
-      </c>
-      <c r="X799">
-        <v>-1</v>
-      </c>
       <c r="Y799">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z799">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA799">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="AB799">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC799">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="800" spans="1:29">
@@ -72288,7 +72288,7 @@
         <v>805</v>
       </c>
       <c r="B807">
-        <v>6576763</v>
+        <v>6574064</v>
       </c>
       <c r="C807" t="s">
         <v>28</v>
@@ -72300,76 +72300,76 @@
         <v>45050.54166666666</v>
       </c>
       <c r="F807" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G807" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H807">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I807">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J807" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K807">
+        <v>3.4</v>
+      </c>
+      <c r="L807">
+        <v>2.75</v>
+      </c>
+      <c r="M807">
+        <v>2.2</v>
+      </c>
+      <c r="N807">
+        <v>4</v>
+      </c>
+      <c r="O807">
+        <v>2.7</v>
+      </c>
+      <c r="P807">
         <v>2.1</v>
       </c>
-      <c r="L807">
-        <v>2.5</v>
-      </c>
-      <c r="M807">
-        <v>4.25</v>
-      </c>
-      <c r="N807">
-        <v>2.3</v>
-      </c>
-      <c r="O807">
-        <v>2.55</v>
-      </c>
-      <c r="P807">
-        <v>3.5</v>
-      </c>
       <c r="Q807">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R807">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S807">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T807">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U807">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V807">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W807">
         <v>-1</v>
       </c>
       <c r="X807">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Y807">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z807">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA807">
-        <v>0.3875</v>
+        <v>0.8</v>
       </c>
       <c r="AB807">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC807">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="808" spans="1:29">
@@ -72377,7 +72377,7 @@
         <v>806</v>
       </c>
       <c r="B808">
-        <v>6574064</v>
+        <v>6576763</v>
       </c>
       <c r="C808" t="s">
         <v>28</v>
@@ -72389,76 +72389,76 @@
         <v>45050.54166666666</v>
       </c>
       <c r="F808" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G808" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H808">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I808">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J808" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K808">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="L808">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="M808">
-        <v>2.2</v>
+        <v>4.25</v>
       </c>
       <c r="N808">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="O808">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="P808">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q808">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R808">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S808">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T808">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U808">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V808">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W808">
         <v>-1</v>
       </c>
       <c r="X808">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Y808">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z808">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA808">
-        <v>0.8</v>
+        <v>0.3875</v>
       </c>
       <c r="AB808">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC808">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="809" spans="1:29">
@@ -78073,7 +78073,7 @@
         <v>870</v>
       </c>
       <c r="B872">
-        <v>6853133</v>
+        <v>6853132</v>
       </c>
       <c r="C872" t="s">
         <v>28</v>
@@ -78085,58 +78085,58 @@
         <v>45121.60416666666</v>
       </c>
       <c r="F872" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="G872" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H872">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I872">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J872" t="s">
         <v>54</v>
       </c>
       <c r="K872">
-        <v>1.727</v>
+        <v>5.5</v>
       </c>
       <c r="L872">
         <v>3.25</v>
       </c>
       <c r="M872">
+        <v>1.6</v>
+      </c>
+      <c r="N872">
         <v>4.5</v>
       </c>
-      <c r="N872">
-        <v>1.6</v>
-      </c>
       <c r="O872">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P872">
-        <v>5.5</v>
+        <v>1.666</v>
       </c>
       <c r="Q872">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R872">
+        <v>1.825</v>
+      </c>
+      <c r="S872">
         <v>1.975</v>
       </c>
-      <c r="S872">
-        <v>1.825</v>
-      </c>
       <c r="T872">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U872">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V872">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W872">
-        <v>0.6000000000000001</v>
+        <v>3.5</v>
       </c>
       <c r="X872">
         <v>-1</v>
@@ -78145,13 +78145,13 @@
         <v>-1</v>
       </c>
       <c r="Z872">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA872">
         <v>-1</v>
       </c>
       <c r="AB872">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC872">
         <v>-1</v>
@@ -78340,7 +78340,7 @@
         <v>873</v>
       </c>
       <c r="B875">
-        <v>6853132</v>
+        <v>6853133</v>
       </c>
       <c r="C875" t="s">
         <v>28</v>
@@ -78352,58 +78352,58 @@
         <v>45121.60416666666</v>
       </c>
       <c r="F875" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="G875" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H875">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I875">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J875" t="s">
         <v>54</v>
       </c>
       <c r="K875">
-        <v>5.5</v>
+        <v>1.727</v>
       </c>
       <c r="L875">
         <v>3.25</v>
       </c>
       <c r="M875">
+        <v>4.5</v>
+      </c>
+      <c r="N875">
         <v>1.6</v>
       </c>
-      <c r="N875">
-        <v>4.5</v>
-      </c>
       <c r="O875">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P875">
-        <v>1.666</v>
+        <v>5.5</v>
       </c>
       <c r="Q875">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R875">
+        <v>1.975</v>
+      </c>
+      <c r="S875">
         <v>1.825</v>
       </c>
-      <c r="S875">
-        <v>1.975</v>
-      </c>
       <c r="T875">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U875">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V875">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W875">
-        <v>3.5</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X875">
         <v>-1</v>
@@ -78412,13 +78412,13 @@
         <v>-1</v>
       </c>
       <c r="Z875">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA875">
         <v>-1</v>
       </c>
       <c r="AB875">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC875">
         <v>-1</v>
@@ -81277,7 +81277,7 @@
         <v>906</v>
       </c>
       <c r="B908">
-        <v>7217625</v>
+        <v>7217624</v>
       </c>
       <c r="C908" t="s">
         <v>28</v>
@@ -81289,58 +81289,58 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F908" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G908" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H908">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I908">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J908" t="s">
         <v>54</v>
       </c>
       <c r="K908">
-        <v>1.25</v>
+        <v>1.444</v>
       </c>
       <c r="L908">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M908">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="N908">
-        <v>1.333</v>
+        <v>1.5</v>
       </c>
       <c r="O908">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P908">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q908">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R908">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S908">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T908">
         <v>2.5</v>
       </c>
       <c r="U908">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V908">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W908">
-        <v>0.333</v>
+        <v>0.5</v>
       </c>
       <c r="X908">
         <v>-1</v>
@@ -81349,16 +81349,16 @@
         <v>-1</v>
       </c>
       <c r="Z908">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA908">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB908">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC908">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="909" spans="1:29">
@@ -81366,7 +81366,7 @@
         <v>907</v>
       </c>
       <c r="B909">
-        <v>7217624</v>
+        <v>7217625</v>
       </c>
       <c r="C909" t="s">
         <v>28</v>
@@ -81378,58 +81378,58 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F909" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G909" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H909">
+        <v>3</v>
+      </c>
+      <c r="I909">
         <v>1</v>
-      </c>
-      <c r="I909">
-        <v>0</v>
       </c>
       <c r="J909" t="s">
         <v>54</v>
       </c>
       <c r="K909">
-        <v>1.444</v>
+        <v>1.25</v>
       </c>
       <c r="L909">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M909">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="N909">
-        <v>1.5</v>
+        <v>1.333</v>
       </c>
       <c r="O909">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P909">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q909">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R909">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S909">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T909">
         <v>2.5</v>
       </c>
       <c r="U909">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V909">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W909">
-        <v>0.5</v>
+        <v>0.333</v>
       </c>
       <c r="X909">
         <v>-1</v>
@@ -81438,16 +81438,16 @@
         <v>-1</v>
       </c>
       <c r="Z909">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA909">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB909">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC909">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="910" spans="1:29">
@@ -84214,7 +84214,7 @@
         <v>939</v>
       </c>
       <c r="B941">
-        <v>7217658</v>
+        <v>7217659</v>
       </c>
       <c r="C941" t="s">
         <v>28</v>
@@ -84226,10 +84226,10 @@
         <v>45260.58333333334</v>
       </c>
       <c r="F941" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="G941" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H941">
         <v>1</v>
@@ -84241,55 +84241,55 @@
         <v>55</v>
       </c>
       <c r="K941">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L941">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="M941">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="N941">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="O941">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="P941">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q941">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R941">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S941">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T941">
         <v>2</v>
       </c>
       <c r="U941">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V941">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W941">
         <v>-1</v>
       </c>
       <c r="X941">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="Y941">
         <v>-1</v>
       </c>
       <c r="Z941">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA941">
-        <v>0.475</v>
+        <v>-0</v>
       </c>
       <c r="AB941">
         <v>0</v>
@@ -84303,7 +84303,7 @@
         <v>940</v>
       </c>
       <c r="B942">
-        <v>7217659</v>
+        <v>7217658</v>
       </c>
       <c r="C942" t="s">
         <v>28</v>
@@ -84315,10 +84315,10 @@
         <v>45260.58333333334</v>
       </c>
       <c r="F942" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G942" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H942">
         <v>1</v>
@@ -84330,55 +84330,55 @@
         <v>55</v>
       </c>
       <c r="K942">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L942">
+        <v>2.875</v>
+      </c>
+      <c r="M942">
+        <v>3.5</v>
+      </c>
+      <c r="N942">
+        <v>2.15</v>
+      </c>
+      <c r="O942">
         <v>2.8</v>
       </c>
-      <c r="M942">
-        <v>2.8</v>
-      </c>
-      <c r="N942">
-        <v>2.6</v>
-      </c>
-      <c r="O942">
-        <v>2.7</v>
-      </c>
       <c r="P942">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q942">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R942">
+        <v>1.85</v>
+      </c>
+      <c r="S942">
+        <v>1.95</v>
+      </c>
+      <c r="T942">
+        <v>2</v>
+      </c>
+      <c r="U942">
         <v>1.825</v>
       </c>
-      <c r="S942">
+      <c r="V942">
         <v>1.975</v>
       </c>
-      <c r="T942">
-        <v>2</v>
-      </c>
-      <c r="U942">
-        <v>2</v>
-      </c>
-      <c r="V942">
+      <c r="W942">
+        <v>-1</v>
+      </c>
+      <c r="X942">
         <v>1.8</v>
       </c>
-      <c r="W942">
-        <v>-1</v>
-      </c>
-      <c r="X942">
-        <v>1.7</v>
-      </c>
       <c r="Y942">
         <v>-1</v>
       </c>
       <c r="Z942">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA942">
-        <v>-0</v>
+        <v>0.475</v>
       </c>
       <c r="AB942">
         <v>0</v>

--- a/Egypt Division 1/Egypt Division 1.xlsx
+++ b/Egypt Division 1/Egypt Division 1.xlsx
@@ -42117,7 +42117,7 @@
         <v>466</v>
       </c>
       <c r="B468">
-        <v>4997348</v>
+        <v>4997347</v>
       </c>
       <c r="C468" t="s">
         <v>28</v>
@@ -42129,49 +42129,49 @@
         <v>44739.58333333334</v>
       </c>
       <c r="F468" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G468" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J468" t="s">
         <v>56</v>
       </c>
       <c r="K468">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="L468">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="M468">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="N468">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="O468">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="P468">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q468">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R468">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S468">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T468">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U468">
         <v>2.025</v>
@@ -42186,19 +42186,19 @@
         <v>-1</v>
       </c>
       <c r="Y468">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="Z468">
         <v>-1</v>
       </c>
       <c r="AA468">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AB468">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC468">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="469" spans="1:29">
@@ -42206,7 +42206,7 @@
         <v>467</v>
       </c>
       <c r="B469">
-        <v>4997347</v>
+        <v>4997348</v>
       </c>
       <c r="C469" t="s">
         <v>28</v>
@@ -42218,49 +42218,49 @@
         <v>44739.58333333334</v>
       </c>
       <c r="F469" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G469" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="H469">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J469" t="s">
         <v>56</v>
       </c>
       <c r="K469">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="L469">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="M469">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="N469">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="O469">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="P469">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="Q469">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R469">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S469">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T469">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U469">
         <v>2.025</v>
@@ -42275,19 +42275,19 @@
         <v>-1</v>
       </c>
       <c r="Y469">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="Z469">
         <v>-1</v>
       </c>
       <c r="AA469">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AB469">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC469">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="470" spans="1:29">
@@ -42384,7 +42384,7 @@
         <v>469</v>
       </c>
       <c r="B471">
-        <v>4997351</v>
+        <v>5200766</v>
       </c>
       <c r="C471" t="s">
         <v>28</v>
@@ -42396,76 +42396,76 @@
         <v>44740.58333333334</v>
       </c>
       <c r="F471" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G471" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H471">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I471">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J471" t="s">
         <v>55</v>
       </c>
       <c r="K471">
+        <v>3.1</v>
+      </c>
+      <c r="L471">
         <v>2.625</v>
       </c>
-      <c r="L471">
-        <v>2.9</v>
-      </c>
       <c r="M471">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="N471">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="O471">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="P471">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="Q471">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R471">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="S471">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T471">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U471">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V471">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W471">
         <v>-1</v>
       </c>
       <c r="X471">
-        <v>1.8</v>
+        <v>1.625</v>
       </c>
       <c r="Y471">
         <v>-1</v>
       </c>
       <c r="Z471">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="AA471">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB471">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC471">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="472" spans="1:29">
@@ -42473,7 +42473,7 @@
         <v>470</v>
       </c>
       <c r="B472">
-        <v>5200766</v>
+        <v>4997351</v>
       </c>
       <c r="C472" t="s">
         <v>28</v>
@@ -42485,76 +42485,76 @@
         <v>44740.58333333334</v>
       </c>
       <c r="F472" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G472" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I472">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J472" t="s">
         <v>55</v>
       </c>
       <c r="K472">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="L472">
-        <v>2.625</v>
+        <v>2.9</v>
       </c>
       <c r="M472">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="N472">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="O472">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="P472">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q472">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R472">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="S472">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T472">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U472">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V472">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W472">
         <v>-1</v>
       </c>
       <c r="X472">
-        <v>1.625</v>
+        <v>1.8</v>
       </c>
       <c r="Y472">
         <v>-1</v>
       </c>
       <c r="Z472">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="AA472">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB472">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC472">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="473" spans="1:29">
@@ -43986,7 +43986,7 @@
         <v>487</v>
       </c>
       <c r="B489">
-        <v>5035638</v>
+        <v>5036709</v>
       </c>
       <c r="C489" t="s">
         <v>28</v>
@@ -43998,76 +43998,76 @@
         <v>44759.5625</v>
       </c>
       <c r="F489" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G489" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489">
         <v>1</v>
       </c>
       <c r="J489" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K489">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L489">
+        <v>2.625</v>
+      </c>
+      <c r="M489">
+        <v>2.5</v>
+      </c>
+      <c r="N489">
         <v>3.1</v>
       </c>
-      <c r="M489">
-        <v>3.4</v>
-      </c>
-      <c r="N489">
-        <v>2.3</v>
-      </c>
       <c r="O489">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="P489">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="Q489">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R489">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="S489">
-        <v>1.775</v>
+        <v>1.7</v>
       </c>
       <c r="T489">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U489">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V489">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W489">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X489">
         <v>-1</v>
       </c>
       <c r="Y489">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z489">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA489">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB489">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC489">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="490" spans="1:29">
@@ -44075,7 +44075,7 @@
         <v>488</v>
       </c>
       <c r="B490">
-        <v>5036709</v>
+        <v>5035638</v>
       </c>
       <c r="C490" t="s">
         <v>28</v>
@@ -44087,76 +44087,76 @@
         <v>44759.5625</v>
       </c>
       <c r="F490" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G490" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H490">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490">
         <v>1</v>
       </c>
       <c r="J490" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K490">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L490">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="M490">
+        <v>3.4</v>
+      </c>
+      <c r="N490">
+        <v>2.3</v>
+      </c>
+      <c r="O490">
+        <v>3.1</v>
+      </c>
+      <c r="P490">
+        <v>2.75</v>
+      </c>
+      <c r="Q490">
+        <v>-0.25</v>
+      </c>
+      <c r="R490">
+        <v>2.025</v>
+      </c>
+      <c r="S490">
+        <v>1.775</v>
+      </c>
+      <c r="T490">
         <v>2.5</v>
       </c>
-      <c r="N490">
-        <v>3.1</v>
-      </c>
-      <c r="O490">
-        <v>2.5</v>
-      </c>
-      <c r="P490">
-        <v>2.55</v>
-      </c>
-      <c r="Q490">
-        <v>0</v>
-      </c>
-      <c r="R490">
-        <v>2.1</v>
-      </c>
-      <c r="S490">
-        <v>1.7</v>
-      </c>
-      <c r="T490">
+      <c r="U490">
+        <v>2</v>
+      </c>
+      <c r="V490">
+        <v>1.8</v>
+      </c>
+      <c r="W490">
+        <v>-1</v>
+      </c>
+      <c r="X490">
+        <v>-1</v>
+      </c>
+      <c r="Y490">
         <v>1.75</v>
       </c>
-      <c r="U490">
-        <v>1.9</v>
-      </c>
-      <c r="V490">
-        <v>1.9</v>
-      </c>
-      <c r="W490">
-        <v>2.1</v>
-      </c>
-      <c r="X490">
-        <v>-1</v>
-      </c>
-      <c r="Y490">
-        <v>-1</v>
-      </c>
       <c r="Z490">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA490">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB490">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC490">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="491" spans="1:29">
@@ -47457,7 +47457,7 @@
         <v>526</v>
       </c>
       <c r="B528">
-        <v>5036729</v>
+        <v>5036730</v>
       </c>
       <c r="C528" t="s">
         <v>28</v>
@@ -47469,76 +47469,76 @@
         <v>44779.5625</v>
       </c>
       <c r="F528" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G528" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J528" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K528">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="L528">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="M528">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="N528">
+        <v>1.8</v>
+      </c>
+      <c r="O528">
         <v>3.1</v>
       </c>
-      <c r="O528">
-        <v>3</v>
-      </c>
       <c r="P528">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="Q528">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R528">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S528">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T528">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U528">
+        <v>2.025</v>
+      </c>
+      <c r="V528">
         <v>1.775</v>
       </c>
-      <c r="V528">
-        <v>2.025</v>
-      </c>
       <c r="W528">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X528">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y528">
         <v>-1</v>
       </c>
       <c r="Z528">
-        <v>0.4375</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA528">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB528">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC528">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="529" spans="1:29">
@@ -47546,7 +47546,7 @@
         <v>527</v>
       </c>
       <c r="B529">
-        <v>5036730</v>
+        <v>5036729</v>
       </c>
       <c r="C529" t="s">
         <v>28</v>
@@ -47558,76 +47558,76 @@
         <v>44779.5625</v>
       </c>
       <c r="F529" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G529" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H529">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J529" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K529">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="L529">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="M529">
-        <v>4.5</v>
+        <v>2.375</v>
       </c>
       <c r="N529">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="O529">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P529">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="Q529">
+        <v>0.25</v>
+      </c>
+      <c r="R529">
+        <v>1.875</v>
+      </c>
+      <c r="S529">
+        <v>1.925</v>
+      </c>
+      <c r="T529">
+        <v>1.75</v>
+      </c>
+      <c r="U529">
+        <v>1.775</v>
+      </c>
+      <c r="V529">
+        <v>2.025</v>
+      </c>
+      <c r="W529">
+        <v>-1</v>
+      </c>
+      <c r="X529">
+        <v>2</v>
+      </c>
+      <c r="Y529">
+        <v>-1</v>
+      </c>
+      <c r="Z529">
+        <v>0.4375</v>
+      </c>
+      <c r="AA529">
         <v>-0.5</v>
       </c>
-      <c r="R529">
-        <v>1.85</v>
-      </c>
-      <c r="S529">
-        <v>1.95</v>
-      </c>
-      <c r="T529">
-        <v>2.25</v>
-      </c>
-      <c r="U529">
-        <v>2.025</v>
-      </c>
-      <c r="V529">
-        <v>1.775</v>
-      </c>
-      <c r="W529">
-        <v>0.8</v>
-      </c>
-      <c r="X529">
-        <v>-1</v>
-      </c>
-      <c r="Y529">
-        <v>-1</v>
-      </c>
-      <c r="Z529">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA529">
-        <v>-1</v>
-      </c>
       <c r="AB529">
+        <v>-1</v>
+      </c>
+      <c r="AC529">
         <v>1.025</v>
-      </c>
-      <c r="AC529">
-        <v>-1</v>
       </c>
     </row>
     <row r="530" spans="1:29">
@@ -50572,7 +50572,7 @@
         <v>561</v>
       </c>
       <c r="B563">
-        <v>5372845</v>
+        <v>5372583</v>
       </c>
       <c r="C563" t="s">
         <v>28</v>
@@ -50584,76 +50584,76 @@
         <v>44799.66666666666</v>
       </c>
       <c r="F563" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G563" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H563">
         <v>0</v>
       </c>
       <c r="I563">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J563" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K563">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="L563">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M563">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="N563">
-        <v>1.95</v>
+        <v>5.25</v>
       </c>
       <c r="O563">
         <v>3.4</v>
       </c>
       <c r="P563">
-        <v>3.6</v>
+        <v>1.65</v>
       </c>
       <c r="Q563">
+        <v>0.75</v>
+      </c>
+      <c r="R563">
+        <v>1.95</v>
+      </c>
+      <c r="S563">
+        <v>1.85</v>
+      </c>
+      <c r="T563">
+        <v>2.25</v>
+      </c>
+      <c r="U563">
+        <v>1.825</v>
+      </c>
+      <c r="V563">
+        <v>1.975</v>
+      </c>
+      <c r="W563">
+        <v>-1</v>
+      </c>
+      <c r="X563">
+        <v>-1</v>
+      </c>
+      <c r="Y563">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="Z563">
+        <v>-1</v>
+      </c>
+      <c r="AA563">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB563">
         <v>-0.5</v>
       </c>
-      <c r="R563">
-        <v>2.025</v>
-      </c>
-      <c r="S563">
-        <v>1.775</v>
-      </c>
-      <c r="T563">
-        <v>2.5</v>
-      </c>
-      <c r="U563">
-        <v>1.95</v>
-      </c>
-      <c r="V563">
-        <v>1.85</v>
-      </c>
-      <c r="W563">
-        <v>-1</v>
-      </c>
-      <c r="X563">
-        <v>2.4</v>
-      </c>
-      <c r="Y563">
-        <v>-1</v>
-      </c>
-      <c r="Z563">
-        <v>-1</v>
-      </c>
-      <c r="AA563">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AB563">
-        <v>-1</v>
-      </c>
       <c r="AC563">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="564" spans="1:29">
@@ -50661,7 +50661,7 @@
         <v>562</v>
       </c>
       <c r="B564">
-        <v>5372583</v>
+        <v>5372845</v>
       </c>
       <c r="C564" t="s">
         <v>28</v>
@@ -50673,76 +50673,76 @@
         <v>44799.66666666666</v>
       </c>
       <c r="F564" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G564" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H564">
         <v>0</v>
       </c>
       <c r="I564">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J564" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K564">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="L564">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M564">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="N564">
-        <v>5.25</v>
+        <v>1.95</v>
       </c>
       <c r="O564">
         <v>3.4</v>
       </c>
       <c r="P564">
-        <v>1.65</v>
+        <v>3.6</v>
       </c>
       <c r="Q564">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R564">
+        <v>2.025</v>
+      </c>
+      <c r="S564">
+        <v>1.775</v>
+      </c>
+      <c r="T564">
+        <v>2.5</v>
+      </c>
+      <c r="U564">
         <v>1.95</v>
       </c>
-      <c r="S564">
+      <c r="V564">
         <v>1.85</v>
       </c>
-      <c r="T564">
-        <v>2.25</v>
-      </c>
-      <c r="U564">
-        <v>1.825</v>
-      </c>
-      <c r="V564">
-        <v>1.975</v>
-      </c>
       <c r="W564">
         <v>-1</v>
       </c>
       <c r="X564">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y564">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z564">
         <v>-1</v>
       </c>
       <c r="AA564">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB564">
+        <v>-1</v>
+      </c>
+      <c r="AC564">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB564">
-        <v>-0.5</v>
-      </c>
-      <c r="AC564">
-        <v>0.4875</v>
       </c>
     </row>
     <row r="565" spans="1:29">
@@ -51195,7 +51195,7 @@
         <v>568</v>
       </c>
       <c r="B570">
-        <v>5372570</v>
+        <v>5372584</v>
       </c>
       <c r="C570" t="s">
         <v>28</v>
@@ -51207,76 +51207,76 @@
         <v>44803.47916666666</v>
       </c>
       <c r="F570" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G570" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H570">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I570">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J570" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K570">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="L570">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="M570">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="N570">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="O570">
         <v>3</v>
       </c>
       <c r="P570">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="Q570">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R570">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S570">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T570">
         <v>2.5</v>
       </c>
       <c r="U570">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V570">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W570">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X570">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y570">
         <v>-1</v>
       </c>
       <c r="Z570">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA570">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB570">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC570">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="571" spans="1:29">
@@ -51373,7 +51373,7 @@
         <v>570</v>
       </c>
       <c r="B572">
-        <v>5372584</v>
+        <v>5372570</v>
       </c>
       <c r="C572" t="s">
         <v>28</v>
@@ -51385,76 +51385,76 @@
         <v>44803.47916666666</v>
       </c>
       <c r="F572" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G572" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H572">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I572">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J572" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K572">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="L572">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="M572">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="N572">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="O572">
         <v>3</v>
       </c>
       <c r="P572">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="Q572">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R572">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S572">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T572">
         <v>2.5</v>
       </c>
       <c r="U572">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V572">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W572">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X572">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y572">
         <v>-1</v>
       </c>
       <c r="Z572">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AA572">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB572">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC572">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="573" spans="1:29">
@@ -54221,7 +54221,7 @@
         <v>602</v>
       </c>
       <c r="B604">
-        <v>5774015</v>
+        <v>5774014</v>
       </c>
       <c r="C604" t="s">
         <v>28</v>
@@ -54233,76 +54233,76 @@
         <v>44888.5</v>
       </c>
       <c r="F604" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="G604" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H604">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I604">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J604" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K604">
-        <v>1.444</v>
+        <v>2.875</v>
       </c>
       <c r="L604">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="M604">
-        <v>6.5</v>
+        <v>2.7</v>
       </c>
       <c r="N604">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="O604">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="P604">
-        <v>5.25</v>
+        <v>2.625</v>
       </c>
       <c r="Q604">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R604">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="S604">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="T604">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U604">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V604">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W604">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X604">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y604">
         <v>-1</v>
       </c>
       <c r="Z604">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA604">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB604">
+        <v>0.4125</v>
+      </c>
+      <c r="AC604">
         <v>-0.5</v>
-      </c>
-      <c r="AC604">
-        <v>0.4375</v>
       </c>
     </row>
     <row r="605" spans="1:29">
@@ -54399,7 +54399,7 @@
         <v>604</v>
       </c>
       <c r="B606">
-        <v>5774014</v>
+        <v>5774015</v>
       </c>
       <c r="C606" t="s">
         <v>28</v>
@@ -54411,76 +54411,76 @@
         <v>44888.5</v>
       </c>
       <c r="F606" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="G606" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H606">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I606">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J606" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K606">
-        <v>2.875</v>
+        <v>1.444</v>
       </c>
       <c r="L606">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="M606">
-        <v>2.7</v>
+        <v>6.5</v>
       </c>
       <c r="N606">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="O606">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="P606">
-        <v>2.625</v>
+        <v>5.25</v>
       </c>
       <c r="Q606">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R606">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="S606">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="T606">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U606">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V606">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W606">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X606">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y606">
         <v>-1</v>
       </c>
       <c r="Z606">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA606">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB606">
-        <v>0.4125</v>
+        <v>-0.5</v>
       </c>
       <c r="AC606">
-        <v>-0.5</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="607" spans="1:29">
@@ -57603,7 +57603,7 @@
         <v>640</v>
       </c>
       <c r="B642">
-        <v>5774665</v>
+        <v>5774666</v>
       </c>
       <c r="C642" t="s">
         <v>28</v>
@@ -57615,76 +57615,76 @@
         <v>44914.5</v>
       </c>
       <c r="F642" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G642" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H642">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I642">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J642" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K642">
-        <v>3.1</v>
+        <v>1.65</v>
       </c>
       <c r="L642">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="M642">
-        <v>2.45</v>
+        <v>5.5</v>
       </c>
       <c r="N642">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="O642">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="P642">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="Q642">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R642">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S642">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T642">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U642">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V642">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W642">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X642">
         <v>-1</v>
       </c>
       <c r="Y642">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z642">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA642">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB642">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC642">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="643" spans="1:29">
@@ -57692,7 +57692,7 @@
         <v>641</v>
       </c>
       <c r="B643">
-        <v>5774666</v>
+        <v>5774665</v>
       </c>
       <c r="C643" t="s">
         <v>28</v>
@@ -57704,76 +57704,76 @@
         <v>44914.5</v>
       </c>
       <c r="F643" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G643" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H643">
+        <v>0</v>
+      </c>
+      <c r="I643">
+        <v>2</v>
+      </c>
+      <c r="J643" t="s">
+        <v>56</v>
+      </c>
+      <c r="K643">
+        <v>3.1</v>
+      </c>
+      <c r="L643">
+        <v>2.8</v>
+      </c>
+      <c r="M643">
+        <v>2.45</v>
+      </c>
+      <c r="N643">
+        <v>3.3</v>
+      </c>
+      <c r="O643">
+        <v>2.8</v>
+      </c>
+      <c r="P643">
+        <v>2.3</v>
+      </c>
+      <c r="Q643">
+        <v>0.25</v>
+      </c>
+      <c r="R643">
+        <v>1.8</v>
+      </c>
+      <c r="S643">
+        <v>2</v>
+      </c>
+      <c r="T643">
+        <v>2</v>
+      </c>
+      <c r="U643">
+        <v>1.875</v>
+      </c>
+      <c r="V643">
+        <v>1.925</v>
+      </c>
+      <c r="W643">
+        <v>-1</v>
+      </c>
+      <c r="X643">
+        <v>-1</v>
+      </c>
+      <c r="Y643">
+        <v>1.3</v>
+      </c>
+      <c r="Z643">
+        <v>-1</v>
+      </c>
+      <c r="AA643">
         <v>1</v>
       </c>
-      <c r="I643">
-        <v>0</v>
-      </c>
-      <c r="J643" t="s">
-        <v>54</v>
-      </c>
-      <c r="K643">
-        <v>1.65</v>
-      </c>
-      <c r="L643">
-        <v>3.4</v>
-      </c>
-      <c r="M643">
-        <v>5.5</v>
-      </c>
-      <c r="N643">
-        <v>1.7</v>
-      </c>
-      <c r="O643">
-        <v>3.4</v>
-      </c>
-      <c r="P643">
-        <v>5</v>
-      </c>
-      <c r="Q643">
-        <v>-0.5</v>
-      </c>
-      <c r="R643">
-        <v>1.775</v>
-      </c>
-      <c r="S643">
-        <v>2.025</v>
-      </c>
-      <c r="T643">
-        <v>2.25</v>
-      </c>
-      <c r="U643">
-        <v>2.025</v>
-      </c>
-      <c r="V643">
-        <v>1.775</v>
-      </c>
-      <c r="W643">
-        <v>0.7</v>
-      </c>
-      <c r="X643">
-        <v>-1</v>
-      </c>
-      <c r="Y643">
-        <v>-1</v>
-      </c>
-      <c r="Z643">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AA643">
-        <v>-1</v>
-      </c>
       <c r="AB643">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC643">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="644" spans="1:29">
@@ -59294,7 +59294,7 @@
         <v>659</v>
       </c>
       <c r="B661">
-        <v>5774044</v>
+        <v>5774674</v>
       </c>
       <c r="C661" t="s">
         <v>28</v>
@@ -59306,40 +59306,40 @@
         <v>44923.5</v>
       </c>
       <c r="F661" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="G661" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H661">
         <v>2</v>
       </c>
       <c r="I661">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J661" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K661">
-        <v>1.727</v>
+        <v>4.2</v>
       </c>
       <c r="L661">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="M661">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N661">
-        <v>1.75</v>
+        <v>5.5</v>
       </c>
       <c r="O661">
         <v>3</v>
       </c>
       <c r="P661">
-        <v>5</v>
+        <v>1.727</v>
       </c>
       <c r="Q661">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R661">
         <v>1.775</v>
@@ -59351,28 +59351,28 @@
         <v>2</v>
       </c>
       <c r="U661">
+        <v>1.825</v>
+      </c>
+      <c r="V661">
         <v>1.975</v>
       </c>
-      <c r="V661">
-        <v>1.825</v>
-      </c>
       <c r="W661">
         <v>-1</v>
       </c>
       <c r="X661">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y661">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z661">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA661">
-        <v>1.025</v>
+        <v>0.5125</v>
       </c>
       <c r="AB661">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC661">
         <v>-1</v>
@@ -59383,7 +59383,7 @@
         <v>660</v>
       </c>
       <c r="B662">
-        <v>5774674</v>
+        <v>5774044</v>
       </c>
       <c r="C662" t="s">
         <v>28</v>
@@ -59395,40 +59395,40 @@
         <v>44923.5</v>
       </c>
       <c r="F662" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G662" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H662">
         <v>2</v>
       </c>
       <c r="I662">
+        <v>2</v>
+      </c>
+      <c r="J662" t="s">
+        <v>55</v>
+      </c>
+      <c r="K662">
+        <v>1.727</v>
+      </c>
+      <c r="L662">
         <v>3</v>
       </c>
-      <c r="J662" t="s">
-        <v>56</v>
-      </c>
-      <c r="K662">
-        <v>4.2</v>
-      </c>
-      <c r="L662">
-        <v>2.75</v>
-      </c>
       <c r="M662">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N662">
-        <v>5.5</v>
+        <v>1.75</v>
       </c>
       <c r="O662">
         <v>3</v>
       </c>
       <c r="P662">
-        <v>1.727</v>
+        <v>5</v>
       </c>
       <c r="Q662">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R662">
         <v>1.775</v>
@@ -59440,28 +59440,28 @@
         <v>2</v>
       </c>
       <c r="U662">
+        <v>1.975</v>
+      </c>
+      <c r="V662">
         <v>1.825</v>
       </c>
-      <c r="V662">
-        <v>1.975</v>
-      </c>
       <c r="W662">
         <v>-1</v>
       </c>
       <c r="X662">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y662">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z662">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA662">
-        <v>0.5125</v>
+        <v>1.025</v>
       </c>
       <c r="AB662">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC662">
         <v>-1</v>
@@ -61163,7 +61163,7 @@
         <v>680</v>
       </c>
       <c r="B682">
-        <v>5774055</v>
+        <v>5774056</v>
       </c>
       <c r="C682" t="s">
         <v>28</v>
@@ -61175,76 +61175,76 @@
         <v>44934.40625</v>
       </c>
       <c r="F682" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G682" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H682">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I682">
         <v>0</v>
       </c>
       <c r="J682" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K682">
-        <v>3.4</v>
+        <v>1.833</v>
       </c>
       <c r="L682">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M682">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="N682">
-        <v>3.8</v>
+        <v>1.833</v>
       </c>
       <c r="O682">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P682">
-        <v>2.05</v>
+        <v>4.2</v>
       </c>
       <c r="Q682">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R682">
+        <v>1.875</v>
+      </c>
+      <c r="S682">
+        <v>1.925</v>
+      </c>
+      <c r="T682">
+        <v>2.25</v>
+      </c>
+      <c r="U682">
         <v>2.025</v>
       </c>
-      <c r="S682">
+      <c r="V682">
         <v>1.775</v>
       </c>
-      <c r="T682">
-        <v>1.75</v>
-      </c>
-      <c r="U682">
-        <v>1.8</v>
-      </c>
-      <c r="V682">
-        <v>2</v>
-      </c>
       <c r="W682">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X682">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y682">
         <v>-1</v>
       </c>
       <c r="Z682">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA682">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB682">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC682">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="683" spans="1:29">
@@ -61252,7 +61252,7 @@
         <v>681</v>
       </c>
       <c r="B683">
-        <v>5774056</v>
+        <v>5774055</v>
       </c>
       <c r="C683" t="s">
         <v>28</v>
@@ -61264,76 +61264,76 @@
         <v>44934.40625</v>
       </c>
       <c r="F683" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="G683" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H683">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I683">
         <v>0</v>
       </c>
       <c r="J683" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K683">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="L683">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M683">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="N683">
-        <v>1.833</v>
+        <v>3.8</v>
       </c>
       <c r="O683">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P683">
-        <v>4.2</v>
+        <v>2.05</v>
       </c>
       <c r="Q683">
+        <v>0.25</v>
+      </c>
+      <c r="R683">
+        <v>2.025</v>
+      </c>
+      <c r="S683">
+        <v>1.775</v>
+      </c>
+      <c r="T683">
+        <v>1.75</v>
+      </c>
+      <c r="U683">
+        <v>1.8</v>
+      </c>
+      <c r="V683">
+        <v>2</v>
+      </c>
+      <c r="W683">
+        <v>2.8</v>
+      </c>
+      <c r="X683">
+        <v>-1</v>
+      </c>
+      <c r="Y683">
+        <v>-1</v>
+      </c>
+      <c r="Z683">
+        <v>1.025</v>
+      </c>
+      <c r="AA683">
+        <v>-1</v>
+      </c>
+      <c r="AB683">
+        <v>0.4</v>
+      </c>
+      <c r="AC683">
         <v>-0.5</v>
-      </c>
-      <c r="R683">
-        <v>1.875</v>
-      </c>
-      <c r="S683">
-        <v>1.925</v>
-      </c>
-      <c r="T683">
-        <v>2.25</v>
-      </c>
-      <c r="U683">
-        <v>2.025</v>
-      </c>
-      <c r="V683">
-        <v>1.775</v>
-      </c>
-      <c r="W683">
-        <v>-1</v>
-      </c>
-      <c r="X683">
-        <v>2.1</v>
-      </c>
-      <c r="Y683">
-        <v>-1</v>
-      </c>
-      <c r="Z683">
-        <v>-1</v>
-      </c>
-      <c r="AA683">
-        <v>0.925</v>
-      </c>
-      <c r="AB683">
-        <v>-1</v>
-      </c>
-      <c r="AC683">
-        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="684" spans="1:29">
@@ -61697,7 +61697,7 @@
         <v>686</v>
       </c>
       <c r="B688">
-        <v>5774686</v>
+        <v>6117225</v>
       </c>
       <c r="C688" t="s">
         <v>28</v>
@@ -61709,76 +61709,76 @@
         <v>44937.58333333334</v>
       </c>
       <c r="F688" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G688" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H688">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I688">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J688" t="s">
         <v>55</v>
       </c>
       <c r="K688">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="L688">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M688">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="N688">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="O688">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P688">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="Q688">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R688">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S688">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T688">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U688">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V688">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W688">
         <v>-1</v>
       </c>
       <c r="X688">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="Y688">
         <v>-1</v>
       </c>
       <c r="Z688">
-        <v>0.45</v>
+        <v>0.75</v>
       </c>
       <c r="AA688">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB688">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC688">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="689" spans="1:29">
@@ -61786,7 +61786,7 @@
         <v>687</v>
       </c>
       <c r="B689">
-        <v>6117225</v>
+        <v>5774686</v>
       </c>
       <c r="C689" t="s">
         <v>28</v>
@@ -61798,76 +61798,76 @@
         <v>44937.58333333334</v>
       </c>
       <c r="F689" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G689" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H689">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I689">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J689" t="s">
         <v>55</v>
       </c>
       <c r="K689">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="L689">
+        <v>3.2</v>
+      </c>
+      <c r="M689">
+        <v>1.95</v>
+      </c>
+      <c r="N689">
+        <v>3.4</v>
+      </c>
+      <c r="O689">
         <v>3</v>
       </c>
-      <c r="M689">
-        <v>1.909</v>
-      </c>
-      <c r="N689">
-        <v>3.8</v>
-      </c>
-      <c r="O689">
-        <v>2.875</v>
-      </c>
       <c r="P689">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="Q689">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R689">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S689">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T689">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U689">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V689">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W689">
         <v>-1</v>
       </c>
       <c r="X689">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="Y689">
         <v>-1</v>
       </c>
       <c r="Z689">
-        <v>0.75</v>
+        <v>0.45</v>
       </c>
       <c r="AA689">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB689">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC689">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="690" spans="1:29">
@@ -64367,7 +64367,7 @@
         <v>716</v>
       </c>
       <c r="B718">
-        <v>5774701</v>
+        <v>5774702</v>
       </c>
       <c r="C718" t="s">
         <v>28</v>
@@ -64379,73 +64379,73 @@
         <v>44955.58333333334</v>
       </c>
       <c r="F718" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G718" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H718">
         <v>2</v>
       </c>
       <c r="I718">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J718" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K718">
-        <v>1.55</v>
+        <v>2.05</v>
       </c>
       <c r="L718">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="M718">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="N718">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="O718">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="P718">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q718">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R718">
+        <v>1.8</v>
+      </c>
+      <c r="S718">
+        <v>2</v>
+      </c>
+      <c r="T718">
+        <v>2</v>
+      </c>
+      <c r="U718">
+        <v>1.75</v>
+      </c>
+      <c r="V718">
         <v>2.05</v>
       </c>
-      <c r="S718">
-        <v>1.75</v>
-      </c>
-      <c r="T718">
-        <v>2.5</v>
-      </c>
-      <c r="U718">
-        <v>1.925</v>
-      </c>
-      <c r="V718">
-        <v>1.875</v>
-      </c>
       <c r="W718">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X718">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y718">
         <v>-1</v>
       </c>
       <c r="Z718">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA718">
+        <v>-1</v>
+      </c>
+      <c r="AB718">
         <v>0.75</v>
-      </c>
-      <c r="AB718">
-        <v>0.925</v>
       </c>
       <c r="AC718">
         <v>-1</v>
@@ -64456,7 +64456,7 @@
         <v>717</v>
       </c>
       <c r="B719">
-        <v>5774702</v>
+        <v>5774701</v>
       </c>
       <c r="C719" t="s">
         <v>28</v>
@@ -64468,73 +64468,73 @@
         <v>44955.58333333334</v>
       </c>
       <c r="F719" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G719" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H719">
         <v>2</v>
       </c>
       <c r="I719">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J719" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K719">
+        <v>1.55</v>
+      </c>
+      <c r="L719">
+        <v>3.8</v>
+      </c>
+      <c r="M719">
+        <v>5.25</v>
+      </c>
+      <c r="N719">
+        <v>1.6</v>
+      </c>
+      <c r="O719">
+        <v>3.8</v>
+      </c>
+      <c r="P719">
+        <v>4.75</v>
+      </c>
+      <c r="Q719">
+        <v>-1</v>
+      </c>
+      <c r="R719">
         <v>2.05</v>
       </c>
-      <c r="L719">
-        <v>3.1</v>
-      </c>
-      <c r="M719">
-        <v>3.4</v>
-      </c>
-      <c r="N719">
-        <v>2.4</v>
-      </c>
-      <c r="O719">
-        <v>2.875</v>
-      </c>
-      <c r="P719">
+      <c r="S719">
+        <v>1.75</v>
+      </c>
+      <c r="T719">
+        <v>2.5</v>
+      </c>
+      <c r="U719">
+        <v>1.925</v>
+      </c>
+      <c r="V719">
+        <v>1.875</v>
+      </c>
+      <c r="W719">
+        <v>-1</v>
+      </c>
+      <c r="X719">
         <v>2.8</v>
       </c>
-      <c r="Q719">
-        <v>0</v>
-      </c>
-      <c r="R719">
-        <v>1.8</v>
-      </c>
-      <c r="S719">
-        <v>2</v>
-      </c>
-      <c r="T719">
-        <v>2</v>
-      </c>
-      <c r="U719">
-        <v>1.75</v>
-      </c>
-      <c r="V719">
-        <v>2.05</v>
-      </c>
-      <c r="W719">
-        <v>1.4</v>
-      </c>
-      <c r="X719">
-        <v>-1</v>
-      </c>
       <c r="Y719">
         <v>-1</v>
       </c>
       <c r="Z719">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA719">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB719">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AC719">
         <v>-1</v>
@@ -68817,7 +68817,7 @@
         <v>766</v>
       </c>
       <c r="B768">
-        <v>6451732</v>
+        <v>6467348</v>
       </c>
       <c r="C768" t="s">
         <v>28</v>
@@ -68829,76 +68829,76 @@
         <v>45019.67708333334</v>
       </c>
       <c r="F768" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G768" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H768">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I768">
         <v>1</v>
       </c>
       <c r="J768" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K768">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="L768">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="M768">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="N768">
+        <v>3.2</v>
+      </c>
+      <c r="O768">
         <v>2.9</v>
       </c>
-      <c r="O768">
-        <v>2.75</v>
-      </c>
       <c r="P768">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="Q768">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R768">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S768">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T768">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U768">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V768">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W768">
         <v>-1</v>
       </c>
       <c r="X768">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y768">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z768">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA768">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AB768">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC768">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="769" spans="1:29">
@@ -68906,7 +68906,7 @@
         <v>767</v>
       </c>
       <c r="B769">
-        <v>6467348</v>
+        <v>6451732</v>
       </c>
       <c r="C769" t="s">
         <v>28</v>
@@ -68918,76 +68918,76 @@
         <v>45019.67708333334</v>
       </c>
       <c r="F769" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G769" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H769">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I769">
         <v>1</v>
       </c>
       <c r="J769" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K769">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="L769">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="M769">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="N769">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="O769">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="P769">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="Q769">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R769">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S769">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T769">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U769">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V769">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W769">
         <v>-1</v>
       </c>
       <c r="X769">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y769">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z769">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA769">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AB769">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC769">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="770" spans="1:29">
@@ -69262,7 +69262,7 @@
         <v>771</v>
       </c>
       <c r="B773">
-        <v>6471794</v>
+        <v>6451733</v>
       </c>
       <c r="C773" t="s">
         <v>28</v>
@@ -69274,76 +69274,76 @@
         <v>45021.67708333334</v>
       </c>
       <c r="F773" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G773" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H773">
+        <v>0</v>
+      </c>
+      <c r="I773">
+        <v>0</v>
+      </c>
+      <c r="J773" t="s">
+        <v>55</v>
+      </c>
+      <c r="K773">
+        <v>4.2</v>
+      </c>
+      <c r="L773">
         <v>3</v>
       </c>
-      <c r="I773">
-        <v>0</v>
-      </c>
-      <c r="J773" t="s">
-        <v>54</v>
-      </c>
-      <c r="K773">
-        <v>1.222</v>
-      </c>
-      <c r="L773">
-        <v>5.25</v>
-      </c>
       <c r="M773">
-        <v>10</v>
+        <v>1.85</v>
       </c>
       <c r="N773">
-        <v>1.222</v>
+        <v>3.4</v>
       </c>
       <c r="O773">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="P773">
-        <v>10</v>
+        <v>2.15</v>
       </c>
       <c r="Q773">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R773">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S773">
+        <v>1.925</v>
+      </c>
+      <c r="T773">
+        <v>2</v>
+      </c>
+      <c r="U773">
+        <v>1.875</v>
+      </c>
+      <c r="V773">
+        <v>1.925</v>
+      </c>
+      <c r="W773">
+        <v>-1</v>
+      </c>
+      <c r="X773">
         <v>1.8</v>
       </c>
-      <c r="T773">
-        <v>2.75</v>
-      </c>
-      <c r="U773">
-        <v>1.975</v>
-      </c>
-      <c r="V773">
-        <v>1.825</v>
-      </c>
-      <c r="W773">
-        <v>0.222</v>
-      </c>
-      <c r="X773">
-        <v>-1</v>
-      </c>
       <c r="Y773">
         <v>-1</v>
       </c>
       <c r="Z773">
-        <v>1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA773">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB773">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC773">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="774" spans="1:29">
@@ -69351,7 +69351,7 @@
         <v>772</v>
       </c>
       <c r="B774">
-        <v>6451733</v>
+        <v>6471794</v>
       </c>
       <c r="C774" t="s">
         <v>28</v>
@@ -69363,76 +69363,76 @@
         <v>45021.67708333334</v>
       </c>
       <c r="F774" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G774" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H774">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I774">
         <v>0</v>
       </c>
       <c r="J774" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K774">
-        <v>4.2</v>
+        <v>1.222</v>
       </c>
       <c r="L774">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="M774">
-        <v>1.85</v>
+        <v>10</v>
       </c>
       <c r="N774">
-        <v>3.4</v>
+        <v>1.222</v>
       </c>
       <c r="O774">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="P774">
-        <v>2.15</v>
+        <v>10</v>
       </c>
       <c r="Q774">
-        <v>0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R774">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S774">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T774">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U774">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V774">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W774">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X774">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y774">
         <v>-1</v>
       </c>
       <c r="Z774">
-        <v>0.4375</v>
+        <v>1</v>
       </c>
       <c r="AA774">
+        <v>-1</v>
+      </c>
+      <c r="AB774">
+        <v>0.4875</v>
+      </c>
+      <c r="AC774">
         <v>-0.5</v>
-      </c>
-      <c r="AB774">
-        <v>-1</v>
-      </c>
-      <c r="AC774">
-        <v>0.925</v>
       </c>
     </row>
     <row r="775" spans="1:29">
@@ -70063,7 +70063,7 @@
         <v>780</v>
       </c>
       <c r="B782">
-        <v>6484222</v>
+        <v>6471800</v>
       </c>
       <c r="C782" t="s">
         <v>28</v>
@@ -70075,76 +70075,76 @@
         <v>45028.67708333334</v>
       </c>
       <c r="F782" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="G782" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H782">
         <v>0</v>
       </c>
       <c r="I782">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J782" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K782">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="L782">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M782">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="N782">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="O782">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="P782">
-        <v>1.95</v>
+        <v>1.6</v>
       </c>
       <c r="Q782">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R782">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S782">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T782">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U782">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V782">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W782">
         <v>-1</v>
       </c>
       <c r="X782">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y782">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z782">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA782">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB782">
         <v>-1</v>
       </c>
       <c r="AC782">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="783" spans="1:29">
@@ -70152,7 +70152,7 @@
         <v>781</v>
       </c>
       <c r="B783">
-        <v>6471800</v>
+        <v>6484222</v>
       </c>
       <c r="C783" t="s">
         <v>28</v>
@@ -70164,76 +70164,76 @@
         <v>45028.67708333334</v>
       </c>
       <c r="F783" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="G783" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H783">
         <v>0</v>
       </c>
       <c r="I783">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J783" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K783">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="L783">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M783">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="N783">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="O783">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="P783">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="Q783">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R783">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S783">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T783">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U783">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V783">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W783">
         <v>-1</v>
       </c>
       <c r="X783">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y783">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z783">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA783">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB783">
         <v>-1</v>
       </c>
       <c r="AC783">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="784" spans="1:29">
@@ -70241,7 +70241,7 @@
         <v>782</v>
       </c>
       <c r="B784">
-        <v>6471699</v>
+        <v>6488023</v>
       </c>
       <c r="C784" t="s">
         <v>28</v>
@@ -70253,76 +70253,76 @@
         <v>45029.67708333334</v>
       </c>
       <c r="F784" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G784" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H784">
         <v>0</v>
       </c>
       <c r="I784">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J784" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K784">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="L784">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="M784">
-        <v>1.833</v>
+        <v>3.25</v>
       </c>
       <c r="N784">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="O784">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P784">
-        <v>1.7</v>
+        <v>2.55</v>
       </c>
       <c r="Q784">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R784">
+        <v>1.9</v>
+      </c>
+      <c r="S784">
+        <v>1.9</v>
+      </c>
+      <c r="T784">
+        <v>2</v>
+      </c>
+      <c r="U784">
         <v>1.8</v>
       </c>
-      <c r="S784">
-        <v>2</v>
-      </c>
-      <c r="T784">
-        <v>2</v>
-      </c>
-      <c r="U784">
-        <v>1.825</v>
-      </c>
       <c r="V784">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W784">
         <v>-1</v>
       </c>
       <c r="X784">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y784">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z784">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA784">
+        <v>-0</v>
+      </c>
+      <c r="AB784">
+        <v>-1</v>
+      </c>
+      <c r="AC784">
         <v>1</v>
-      </c>
-      <c r="AB784">
-        <v>0.825</v>
-      </c>
-      <c r="AC784">
-        <v>-1</v>
       </c>
     </row>
     <row r="785" spans="1:29">
@@ -70419,7 +70419,7 @@
         <v>784</v>
       </c>
       <c r="B786">
-        <v>6488023</v>
+        <v>6471699</v>
       </c>
       <c r="C786" t="s">
         <v>28</v>
@@ -70431,76 +70431,76 @@
         <v>45029.67708333334</v>
       </c>
       <c r="F786" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G786" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H786">
         <v>0</v>
       </c>
       <c r="I786">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J786" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K786">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="L786">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="M786">
-        <v>3.25</v>
+        <v>1.833</v>
       </c>
       <c r="N786">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="O786">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P786">
-        <v>2.55</v>
+        <v>1.7</v>
       </c>
       <c r="Q786">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R786">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S786">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T786">
         <v>2</v>
       </c>
       <c r="U786">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V786">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W786">
         <v>-1</v>
       </c>
       <c r="X786">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y786">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z786">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA786">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB786">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC786">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="787" spans="1:29">
@@ -71309,7 +71309,7 @@
         <v>794</v>
       </c>
       <c r="B796">
-        <v>6495713</v>
+        <v>6488030</v>
       </c>
       <c r="C796" t="s">
         <v>28</v>
@@ -71321,76 +71321,76 @@
         <v>45035.67708333334</v>
       </c>
       <c r="F796" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="G796" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H796">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I796">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J796" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K796">
-        <v>3.9</v>
+        <v>2</v>
       </c>
       <c r="L796">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="M796">
+        <v>4</v>
+      </c>
+      <c r="N796">
         <v>2.05</v>
       </c>
-      <c r="N796">
-        <v>4.2</v>
-      </c>
       <c r="O796">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="P796">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="Q796">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R796">
+        <v>1.775</v>
+      </c>
+      <c r="S796">
         <v>2.025</v>
       </c>
-      <c r="S796">
-        <v>1.775</v>
-      </c>
       <c r="T796">
         <v>2</v>
       </c>
       <c r="U796">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V796">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W796">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X796">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y796">
         <v>-1</v>
       </c>
       <c r="Z796">
-        <v>0.5125</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA796">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB796">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC796">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="797" spans="1:29">
@@ -71398,7 +71398,7 @@
         <v>795</v>
       </c>
       <c r="B797">
-        <v>6488030</v>
+        <v>6495713</v>
       </c>
       <c r="C797" t="s">
         <v>28</v>
@@ -71410,76 +71410,76 @@
         <v>45035.67708333334</v>
       </c>
       <c r="F797" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G797" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H797">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I797">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J797" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K797">
-        <v>2</v>
+        <v>3.9</v>
       </c>
       <c r="L797">
+        <v>2.7</v>
+      </c>
+      <c r="M797">
+        <v>2.05</v>
+      </c>
+      <c r="N797">
+        <v>4.2</v>
+      </c>
+      <c r="O797">
         <v>2.75</v>
       </c>
-      <c r="M797">
-        <v>4</v>
-      </c>
-      <c r="N797">
-        <v>2.05</v>
-      </c>
-      <c r="O797">
-        <v>2.9</v>
-      </c>
       <c r="P797">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="Q797">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R797">
+        <v>2.025</v>
+      </c>
+      <c r="S797">
         <v>1.775</v>
       </c>
-      <c r="S797">
-        <v>2.025</v>
-      </c>
       <c r="T797">
         <v>2</v>
       </c>
       <c r="U797">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V797">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W797">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X797">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y797">
         <v>-1</v>
       </c>
       <c r="Z797">
-        <v>0.7749999999999999</v>
+        <v>0.5125</v>
       </c>
       <c r="AA797">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB797">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC797">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="798" spans="1:29">
@@ -71487,7 +71487,7 @@
         <v>796</v>
       </c>
       <c r="B798">
-        <v>6488031</v>
+        <v>6495714</v>
       </c>
       <c r="C798" t="s">
         <v>28</v>
@@ -71499,76 +71499,76 @@
         <v>45036.67708333334</v>
       </c>
       <c r="F798" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G798" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H798">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I798">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J798" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K798">
         <v>2.3</v>
       </c>
       <c r="L798">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="M798">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N798">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O798">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="P798">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q798">
         <v>-0.25</v>
       </c>
       <c r="R798">
+        <v>1.9</v>
+      </c>
+      <c r="S798">
+        <v>1.9</v>
+      </c>
+      <c r="T798">
+        <v>2.25</v>
+      </c>
+      <c r="U798">
+        <v>1.95</v>
+      </c>
+      <c r="V798">
         <v>1.85</v>
       </c>
-      <c r="S798">
-        <v>1.95</v>
-      </c>
-      <c r="T798">
-        <v>2</v>
-      </c>
-      <c r="U798">
-        <v>2</v>
-      </c>
-      <c r="V798">
+      <c r="W798">
+        <v>-1</v>
+      </c>
+      <c r="X798">
         <v>1.8</v>
       </c>
-      <c r="W798">
-        <v>-1</v>
-      </c>
-      <c r="X798">
-        <v>-1</v>
-      </c>
       <c r="Y798">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z798">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA798">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="AB798">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC798">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="799" spans="1:29">
@@ -71576,7 +71576,7 @@
         <v>797</v>
       </c>
       <c r="B799">
-        <v>6495714</v>
+        <v>6488031</v>
       </c>
       <c r="C799" t="s">
         <v>28</v>
@@ -71588,76 +71588,76 @@
         <v>45036.67708333334</v>
       </c>
       <c r="F799" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G799" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H799">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I799">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J799" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K799">
         <v>2.3</v>
       </c>
       <c r="L799">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="M799">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N799">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O799">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="P799">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q799">
         <v>-0.25</v>
       </c>
       <c r="R799">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S799">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T799">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U799">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V799">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W799">
         <v>-1</v>
       </c>
       <c r="X799">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y799">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z799">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA799">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
       <c r="AB799">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC799">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="800" spans="1:29">
@@ -72288,7 +72288,7 @@
         <v>805</v>
       </c>
       <c r="B807">
-        <v>6574064</v>
+        <v>6576763</v>
       </c>
       <c r="C807" t="s">
         <v>28</v>
@@ -72300,76 +72300,76 @@
         <v>45050.54166666666</v>
       </c>
       <c r="F807" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G807" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H807">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I807">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J807" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K807">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="L807">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="M807">
-        <v>2.2</v>
+        <v>4.25</v>
       </c>
       <c r="N807">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="O807">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="P807">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q807">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R807">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S807">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T807">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U807">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V807">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W807">
         <v>-1</v>
       </c>
       <c r="X807">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Y807">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z807">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA807">
-        <v>0.8</v>
+        <v>0.3875</v>
       </c>
       <c r="AB807">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC807">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="808" spans="1:29">
@@ -72377,7 +72377,7 @@
         <v>806</v>
       </c>
       <c r="B808">
-        <v>6576763</v>
+        <v>6574064</v>
       </c>
       <c r="C808" t="s">
         <v>28</v>
@@ -72389,76 +72389,76 @@
         <v>45050.54166666666</v>
       </c>
       <c r="F808" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G808" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H808">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I808">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J808" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K808">
+        <v>3.4</v>
+      </c>
+      <c r="L808">
+        <v>2.75</v>
+      </c>
+      <c r="M808">
+        <v>2.2</v>
+      </c>
+      <c r="N808">
+        <v>4</v>
+      </c>
+      <c r="O808">
+        <v>2.7</v>
+      </c>
+      <c r="P808">
         <v>2.1</v>
       </c>
-      <c r="L808">
-        <v>2.5</v>
-      </c>
-      <c r="M808">
-        <v>4.25</v>
-      </c>
-      <c r="N808">
-        <v>2.3</v>
-      </c>
-      <c r="O808">
-        <v>2.55</v>
-      </c>
-      <c r="P808">
-        <v>3.5</v>
-      </c>
       <c r="Q808">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R808">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S808">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T808">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U808">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V808">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W808">
         <v>-1</v>
       </c>
       <c r="X808">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Y808">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z808">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA808">
-        <v>0.3875</v>
+        <v>0.8</v>
       </c>
       <c r="AB808">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC808">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="809" spans="1:29">
@@ -78073,7 +78073,7 @@
         <v>870</v>
       </c>
       <c r="B872">
-        <v>6853132</v>
+        <v>6853133</v>
       </c>
       <c r="C872" t="s">
         <v>28</v>
@@ -78085,58 +78085,58 @@
         <v>45121.60416666666</v>
       </c>
       <c r="F872" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="G872" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H872">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I872">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J872" t="s">
         <v>54</v>
       </c>
       <c r="K872">
-        <v>5.5</v>
+        <v>1.727</v>
       </c>
       <c r="L872">
         <v>3.25</v>
       </c>
       <c r="M872">
+        <v>4.5</v>
+      </c>
+      <c r="N872">
         <v>1.6</v>
       </c>
-      <c r="N872">
-        <v>4.5</v>
-      </c>
       <c r="O872">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P872">
-        <v>1.666</v>
+        <v>5.5</v>
       </c>
       <c r="Q872">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R872">
+        <v>1.975</v>
+      </c>
+      <c r="S872">
         <v>1.825</v>
       </c>
-      <c r="S872">
-        <v>1.975</v>
-      </c>
       <c r="T872">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U872">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V872">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W872">
-        <v>3.5</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X872">
         <v>-1</v>
@@ -78145,13 +78145,13 @@
         <v>-1</v>
       </c>
       <c r="Z872">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA872">
         <v>-1</v>
       </c>
       <c r="AB872">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC872">
         <v>-1</v>
@@ -78340,7 +78340,7 @@
         <v>873</v>
       </c>
       <c r="B875">
-        <v>6853133</v>
+        <v>6853132</v>
       </c>
       <c r="C875" t="s">
         <v>28</v>
@@ -78352,58 +78352,58 @@
         <v>45121.60416666666</v>
       </c>
       <c r="F875" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="G875" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H875">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I875">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J875" t="s">
         <v>54</v>
       </c>
       <c r="K875">
-        <v>1.727</v>
+        <v>5.5</v>
       </c>
       <c r="L875">
         <v>3.25</v>
       </c>
       <c r="M875">
+        <v>1.6</v>
+      </c>
+      <c r="N875">
         <v>4.5</v>
       </c>
-      <c r="N875">
-        <v>1.6</v>
-      </c>
       <c r="O875">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P875">
-        <v>5.5</v>
+        <v>1.666</v>
       </c>
       <c r="Q875">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R875">
+        <v>1.825</v>
+      </c>
+      <c r="S875">
         <v>1.975</v>
       </c>
-      <c r="S875">
-        <v>1.825</v>
-      </c>
       <c r="T875">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U875">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V875">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W875">
-        <v>0.6000000000000001</v>
+        <v>3.5</v>
       </c>
       <c r="X875">
         <v>-1</v>
@@ -78412,13 +78412,13 @@
         <v>-1</v>
       </c>
       <c r="Z875">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA875">
         <v>-1</v>
       </c>
       <c r="AB875">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC875">
         <v>-1</v>
@@ -81277,7 +81277,7 @@
         <v>906</v>
       </c>
       <c r="B908">
-        <v>7217624</v>
+        <v>7217625</v>
       </c>
       <c r="C908" t="s">
         <v>28</v>
@@ -81289,58 +81289,58 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F908" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G908" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H908">
+        <v>3</v>
+      </c>
+      <c r="I908">
         <v>1</v>
-      </c>
-      <c r="I908">
-        <v>0</v>
       </c>
       <c r="J908" t="s">
         <v>54</v>
       </c>
       <c r="K908">
-        <v>1.444</v>
+        <v>1.25</v>
       </c>
       <c r="L908">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M908">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="N908">
-        <v>1.5</v>
+        <v>1.333</v>
       </c>
       <c r="O908">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P908">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q908">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R908">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S908">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T908">
         <v>2.5</v>
       </c>
       <c r="U908">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V908">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W908">
-        <v>0.5</v>
+        <v>0.333</v>
       </c>
       <c r="X908">
         <v>-1</v>
@@ -81349,16 +81349,16 @@
         <v>-1</v>
       </c>
       <c r="Z908">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA908">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB908">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC908">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="909" spans="1:29">
@@ -81366,7 +81366,7 @@
         <v>907</v>
       </c>
       <c r="B909">
-        <v>7217625</v>
+        <v>7217624</v>
       </c>
       <c r="C909" t="s">
         <v>28</v>
@@ -81378,58 +81378,58 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F909" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G909" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H909">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I909">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J909" t="s">
         <v>54</v>
       </c>
       <c r="K909">
-        <v>1.25</v>
+        <v>1.444</v>
       </c>
       <c r="L909">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M909">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="N909">
-        <v>1.333</v>
+        <v>1.5</v>
       </c>
       <c r="O909">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P909">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q909">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R909">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S909">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T909">
         <v>2.5</v>
       </c>
       <c r="U909">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V909">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W909">
-        <v>0.333</v>
+        <v>0.5</v>
       </c>
       <c r="X909">
         <v>-1</v>
@@ -81438,16 +81438,16 @@
         <v>-1</v>
       </c>
       <c r="Z909">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA909">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB909">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC909">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="910" spans="1:29">
@@ -84214,7 +84214,7 @@
         <v>939</v>
       </c>
       <c r="B941">
-        <v>7217659</v>
+        <v>7217658</v>
       </c>
       <c r="C941" t="s">
         <v>28</v>
@@ -84226,10 +84226,10 @@
         <v>45260.58333333334</v>
       </c>
       <c r="F941" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G941" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H941">
         <v>1</v>
@@ -84241,55 +84241,55 @@
         <v>55</v>
       </c>
       <c r="K941">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L941">
+        <v>2.875</v>
+      </c>
+      <c r="M941">
+        <v>3.5</v>
+      </c>
+      <c r="N941">
+        <v>2.15</v>
+      </c>
+      <c r="O941">
         <v>2.8</v>
       </c>
-      <c r="M941">
-        <v>2.8</v>
-      </c>
-      <c r="N941">
-        <v>2.6</v>
-      </c>
-      <c r="O941">
-        <v>2.7</v>
-      </c>
       <c r="P941">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q941">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R941">
+        <v>1.85</v>
+      </c>
+      <c r="S941">
+        <v>1.95</v>
+      </c>
+      <c r="T941">
+        <v>2</v>
+      </c>
+      <c r="U941">
         <v>1.825</v>
       </c>
-      <c r="S941">
+      <c r="V941">
         <v>1.975</v>
       </c>
-      <c r="T941">
-        <v>2</v>
-      </c>
-      <c r="U941">
-        <v>2</v>
-      </c>
-      <c r="V941">
+      <c r="W941">
+        <v>-1</v>
+      </c>
+      <c r="X941">
         <v>1.8</v>
       </c>
-      <c r="W941">
-        <v>-1</v>
-      </c>
-      <c r="X941">
-        <v>1.7</v>
-      </c>
       <c r="Y941">
         <v>-1</v>
       </c>
       <c r="Z941">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA941">
-        <v>-0</v>
+        <v>0.475</v>
       </c>
       <c r="AB941">
         <v>0</v>
@@ -84303,7 +84303,7 @@
         <v>940</v>
       </c>
       <c r="B942">
-        <v>7217658</v>
+        <v>7217659</v>
       </c>
       <c r="C942" t="s">
         <v>28</v>
@@ -84315,10 +84315,10 @@
         <v>45260.58333333334</v>
       </c>
       <c r="F942" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="G942" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H942">
         <v>1</v>
@@ -84330,55 +84330,55 @@
         <v>55</v>
       </c>
       <c r="K942">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L942">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="M942">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="N942">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="O942">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="P942">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q942">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R942">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S942">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T942">
         <v>2</v>
       </c>
       <c r="U942">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V942">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W942">
         <v>-1</v>
       </c>
       <c r="X942">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="Y942">
         <v>-1</v>
       </c>
       <c r="Z942">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA942">
-        <v>0.475</v>
+        <v>-0</v>
       </c>
       <c r="AB942">
         <v>0</v>
@@ -84837,7 +84837,7 @@
         <v>946</v>
       </c>
       <c r="B948">
-        <v>7217666</v>
+        <v>7217665</v>
       </c>
       <c r="C948" t="s">
         <v>28</v>
@@ -84849,58 +84849,58 @@
         <v>45265.58333333334</v>
       </c>
       <c r="F948" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G948" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H948">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I948">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J948" t="s">
         <v>54</v>
       </c>
       <c r="K948">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="L948">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M948">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="N948">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O948">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="P948">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="Q948">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R948">
+        <v>2.025</v>
+      </c>
+      <c r="S948">
+        <v>1.775</v>
+      </c>
+      <c r="T948">
+        <v>2.25</v>
+      </c>
+      <c r="U948">
         <v>1.95</v>
       </c>
-      <c r="S948">
+      <c r="V948">
         <v>1.85</v>
       </c>
-      <c r="T948">
-        <v>2</v>
-      </c>
-      <c r="U948">
-        <v>1.75</v>
-      </c>
-      <c r="V948">
-        <v>2.05</v>
-      </c>
       <c r="W948">
-        <v>0.909</v>
+        <v>1.375</v>
       </c>
       <c r="X948">
         <v>-1</v>
@@ -84909,13 +84909,13 @@
         <v>-1</v>
       </c>
       <c r="Z948">
+        <v>1.025</v>
+      </c>
+      <c r="AA948">
+        <v>-1</v>
+      </c>
+      <c r="AB948">
         <v>0.95</v>
-      </c>
-      <c r="AA948">
-        <v>-1</v>
-      </c>
-      <c r="AB948">
-        <v>0.75</v>
       </c>
       <c r="AC948">
         <v>-1</v>
@@ -84926,7 +84926,7 @@
         <v>947</v>
       </c>
       <c r="B949">
-        <v>7217665</v>
+        <v>7217666</v>
       </c>
       <c r="C949" t="s">
         <v>28</v>
@@ -84938,58 +84938,58 @@
         <v>45265.58333333334</v>
       </c>
       <c r="F949" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G949" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H949">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I949">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J949" t="s">
         <v>54</v>
       </c>
       <c r="K949">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="L949">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M949">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="N949">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="O949">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="P949">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="Q949">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R949">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S949">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T949">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U949">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="V949">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W949">
-        <v>1.375</v>
+        <v>0.909</v>
       </c>
       <c r="X949">
         <v>-1</v>
@@ -84998,13 +84998,13 @@
         <v>-1</v>
       </c>
       <c r="Z949">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AA949">
         <v>-1</v>
       </c>
       <c r="AB949">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AC949">
         <v>-1</v>
@@ -85282,7 +85282,7 @@
         <v>951</v>
       </c>
       <c r="B953">
-        <v>7217677</v>
+        <v>7217680</v>
       </c>
       <c r="C953" t="s">
         <v>28</v>
@@ -85294,76 +85294,76 @@
         <v>45274.58333333334</v>
       </c>
       <c r="F953" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G953" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="H953">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I953">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J953" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K953">
-        <v>1.25</v>
+        <v>2.3</v>
       </c>
       <c r="L953">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M953">
-        <v>9</v>
+        <v>2.875</v>
       </c>
       <c r="N953">
-        <v>1.166</v>
+        <v>2.875</v>
       </c>
       <c r="O953">
-        <v>7</v>
+        <v>3.2</v>
       </c>
       <c r="P953">
-        <v>11</v>
+        <v>2.375</v>
       </c>
       <c r="Q953">
-        <v>-2</v>
+        <v>0.25</v>
       </c>
       <c r="R953">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S953">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T953">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U953">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V953">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W953">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X953">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Y953">
         <v>-1</v>
       </c>
       <c r="Z953">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA953">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB953">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC953">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="954" spans="1:29">
@@ -85371,7 +85371,7 @@
         <v>952</v>
       </c>
       <c r="B954">
-        <v>7217680</v>
+        <v>7217677</v>
       </c>
       <c r="C954" t="s">
         <v>28</v>
@@ -85383,76 +85383,76 @@
         <v>45274.58333333334</v>
       </c>
       <c r="F954" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G954" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="H954">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I954">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J954" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K954">
-        <v>2.3</v>
+        <v>1.25</v>
       </c>
       <c r="L954">
+        <v>5</v>
+      </c>
+      <c r="M954">
+        <v>9</v>
+      </c>
+      <c r="N954">
+        <v>1.166</v>
+      </c>
+      <c r="O954">
+        <v>7</v>
+      </c>
+      <c r="P954">
+        <v>11</v>
+      </c>
+      <c r="Q954">
+        <v>-2</v>
+      </c>
+      <c r="R954">
+        <v>1.95</v>
+      </c>
+      <c r="S954">
+        <v>1.85</v>
+      </c>
+      <c r="T954">
         <v>3</v>
       </c>
-      <c r="M954">
-        <v>2.875</v>
-      </c>
-      <c r="N954">
-        <v>2.875</v>
-      </c>
-      <c r="O954">
-        <v>3.2</v>
-      </c>
-      <c r="P954">
-        <v>2.375</v>
-      </c>
-      <c r="Q954">
-        <v>0.25</v>
-      </c>
-      <c r="R954">
-        <v>1.75</v>
-      </c>
-      <c r="S954">
-        <v>2.05</v>
-      </c>
-      <c r="T954">
-        <v>2.5</v>
-      </c>
       <c r="U954">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V954">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W954">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X954">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y954">
         <v>-1</v>
       </c>
       <c r="Z954">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA954">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB954">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC954">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="955" spans="1:29">

--- a/Egypt Division 1/Egypt Division 1.xlsx
+++ b/Egypt Division 1/Egypt Division 1.xlsx
@@ -44342,7 +44342,7 @@
         <v>491</v>
       </c>
       <c r="B493">
-        <v>5035639</v>
+        <v>5036712</v>
       </c>
       <c r="C493" t="s">
         <v>28</v>
@@ -44354,76 +44354,76 @@
         <v>44760.66666666666</v>
       </c>
       <c r="F493" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G493" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H493">
         <v>0</v>
       </c>
       <c r="I493">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J493" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K493">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="L493">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="M493">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="N493">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="O493">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P493">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="Q493">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R493">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S493">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T493">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U493">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V493">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W493">
         <v>-1</v>
       </c>
       <c r="X493">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y493">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z493">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA493">
+        <v>0.95</v>
+      </c>
+      <c r="AB493">
+        <v>0</v>
+      </c>
+      <c r="AC493">
         <v>-0</v>
-      </c>
-      <c r="AB493">
-        <v>-1</v>
-      </c>
-      <c r="AC493">
-        <v>0.925</v>
       </c>
     </row>
     <row r="494" spans="1:29">
@@ -44431,7 +44431,7 @@
         <v>492</v>
       </c>
       <c r="B494">
-        <v>5036712</v>
+        <v>5035639</v>
       </c>
       <c r="C494" t="s">
         <v>28</v>
@@ -44443,76 +44443,76 @@
         <v>44760.66666666666</v>
       </c>
       <c r="F494" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G494" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H494">
         <v>0</v>
       </c>
       <c r="I494">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J494" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K494">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="L494">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="M494">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="N494">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="O494">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P494">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="Q494">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R494">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S494">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T494">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U494">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V494">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W494">
         <v>-1</v>
       </c>
       <c r="X494">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y494">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z494">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA494">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB494">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC494">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="495" spans="1:29">
@@ -50394,7 +50394,7 @@
         <v>559</v>
       </c>
       <c r="B561">
-        <v>5372565</v>
+        <v>5372566</v>
       </c>
       <c r="C561" t="s">
         <v>28</v>
@@ -50406,49 +50406,49 @@
         <v>44799.5625</v>
       </c>
       <c r="F561" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G561" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H561">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I561">
         <v>1</v>
       </c>
       <c r="J561" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K561">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="L561">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="M561">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="N561">
+        <v>3.5</v>
+      </c>
+      <c r="O561">
+        <v>2.8</v>
+      </c>
+      <c r="P561">
+        <v>2.15</v>
+      </c>
+      <c r="Q561">
+        <v>0.25</v>
+      </c>
+      <c r="R561">
         <v>1.95</v>
       </c>
-      <c r="O561">
-        <v>3.2</v>
-      </c>
-      <c r="P561">
-        <v>3.5</v>
-      </c>
-      <c r="Q561">
-        <v>-0.5</v>
-      </c>
-      <c r="R561">
-        <v>2.025</v>
-      </c>
       <c r="S561">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T561">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U561">
         <v>1.8</v>
@@ -50457,25 +50457,25 @@
         <v>2</v>
       </c>
       <c r="W561">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X561">
         <v>-1</v>
       </c>
       <c r="Y561">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z561">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA561">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB561">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC561">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562" spans="1:29">
@@ -50483,7 +50483,7 @@
         <v>560</v>
       </c>
       <c r="B562">
-        <v>5372566</v>
+        <v>5372565</v>
       </c>
       <c r="C562" t="s">
         <v>28</v>
@@ -50495,49 +50495,49 @@
         <v>44799.5625</v>
       </c>
       <c r="F562" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G562" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H562">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562">
         <v>1</v>
       </c>
       <c r="J562" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K562">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="L562">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="M562">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="N562">
+        <v>1.95</v>
+      </c>
+      <c r="O562">
+        <v>3.2</v>
+      </c>
+      <c r="P562">
         <v>3.5</v>
       </c>
-      <c r="O562">
-        <v>2.8</v>
-      </c>
-      <c r="P562">
-        <v>2.15</v>
-      </c>
       <c r="Q562">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R562">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S562">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T562">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U562">
         <v>1.8</v>
@@ -50546,25 +50546,25 @@
         <v>2</v>
       </c>
       <c r="W562">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X562">
         <v>-1</v>
       </c>
       <c r="Y562">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z562">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA562">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB562">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC562">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="563" spans="1:29">
@@ -50572,7 +50572,7 @@
         <v>561</v>
       </c>
       <c r="B563">
-        <v>5372583</v>
+        <v>5372845</v>
       </c>
       <c r="C563" t="s">
         <v>28</v>
@@ -50584,76 +50584,76 @@
         <v>44799.66666666666</v>
       </c>
       <c r="F563" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G563" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H563">
         <v>0</v>
       </c>
       <c r="I563">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J563" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K563">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="L563">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M563">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="N563">
-        <v>5.25</v>
+        <v>1.95</v>
       </c>
       <c r="O563">
         <v>3.4</v>
       </c>
       <c r="P563">
-        <v>1.65</v>
+        <v>3.6</v>
       </c>
       <c r="Q563">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R563">
+        <v>2.025</v>
+      </c>
+      <c r="S563">
+        <v>1.775</v>
+      </c>
+      <c r="T563">
+        <v>2.5</v>
+      </c>
+      <c r="U563">
         <v>1.95</v>
       </c>
-      <c r="S563">
+      <c r="V563">
         <v>1.85</v>
       </c>
-      <c r="T563">
-        <v>2.25</v>
-      </c>
-      <c r="U563">
-        <v>1.825</v>
-      </c>
-      <c r="V563">
-        <v>1.975</v>
-      </c>
       <c r="W563">
         <v>-1</v>
       </c>
       <c r="X563">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y563">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z563">
         <v>-1</v>
       </c>
       <c r="AA563">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB563">
+        <v>-1</v>
+      </c>
+      <c r="AC563">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB563">
-        <v>-0.5</v>
-      </c>
-      <c r="AC563">
-        <v>0.4875</v>
       </c>
     </row>
     <row r="564" spans="1:29">
@@ -50661,7 +50661,7 @@
         <v>562</v>
       </c>
       <c r="B564">
-        <v>5372845</v>
+        <v>5372583</v>
       </c>
       <c r="C564" t="s">
         <v>28</v>
@@ -50673,76 +50673,76 @@
         <v>44799.66666666666</v>
       </c>
       <c r="F564" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G564" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H564">
         <v>0</v>
       </c>
       <c r="I564">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J564" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K564">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="L564">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M564">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="N564">
-        <v>1.95</v>
+        <v>5.25</v>
       </c>
       <c r="O564">
         <v>3.4</v>
       </c>
       <c r="P564">
-        <v>3.6</v>
+        <v>1.65</v>
       </c>
       <c r="Q564">
+        <v>0.75</v>
+      </c>
+      <c r="R564">
+        <v>1.95</v>
+      </c>
+      <c r="S564">
+        <v>1.85</v>
+      </c>
+      <c r="T564">
+        <v>2.25</v>
+      </c>
+      <c r="U564">
+        <v>1.825</v>
+      </c>
+      <c r="V564">
+        <v>1.975</v>
+      </c>
+      <c r="W564">
+        <v>-1</v>
+      </c>
+      <c r="X564">
+        <v>-1</v>
+      </c>
+      <c r="Y564">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="Z564">
+        <v>-1</v>
+      </c>
+      <c r="AA564">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB564">
         <v>-0.5</v>
       </c>
-      <c r="R564">
-        <v>2.025</v>
-      </c>
-      <c r="S564">
-        <v>1.775</v>
-      </c>
-      <c r="T564">
-        <v>2.5</v>
-      </c>
-      <c r="U564">
-        <v>1.95</v>
-      </c>
-      <c r="V564">
-        <v>1.85</v>
-      </c>
-      <c r="W564">
-        <v>-1</v>
-      </c>
-      <c r="X564">
-        <v>2.4</v>
-      </c>
-      <c r="Y564">
-        <v>-1</v>
-      </c>
-      <c r="Z564">
-        <v>-1</v>
-      </c>
-      <c r="AA564">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AB564">
-        <v>-1</v>
-      </c>
       <c r="AC564">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="565" spans="1:29">
@@ -51195,7 +51195,7 @@
         <v>568</v>
       </c>
       <c r="B570">
-        <v>5372584</v>
+        <v>5372570</v>
       </c>
       <c r="C570" t="s">
         <v>28</v>
@@ -51207,76 +51207,76 @@
         <v>44803.47916666666</v>
       </c>
       <c r="F570" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G570" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H570">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I570">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J570" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K570">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="L570">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="M570">
-        <v>6.5</v>
+        <v>3.2</v>
       </c>
       <c r="N570">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="O570">
         <v>3</v>
       </c>
       <c r="P570">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="Q570">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R570">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S570">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T570">
         <v>2.5</v>
       </c>
       <c r="U570">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V570">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W570">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X570">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y570">
         <v>-1</v>
       </c>
       <c r="Z570">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AA570">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB570">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC570">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="571" spans="1:29">
@@ -51284,7 +51284,7 @@
         <v>569</v>
       </c>
       <c r="B571">
-        <v>5372571</v>
+        <v>5372584</v>
       </c>
       <c r="C571" t="s">
         <v>28</v>
@@ -51296,76 +51296,76 @@
         <v>44803.47916666666</v>
       </c>
       <c r="F571" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G571" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H571">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I571">
         <v>0</v>
       </c>
       <c r="J571" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K571">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="L571">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="M571">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="N571">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O571">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="P571">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q571">
         <v>-0.25</v>
       </c>
       <c r="R571">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S571">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T571">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U571">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V571">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W571">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X571">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y571">
         <v>-1</v>
       </c>
       <c r="Z571">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AA571">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB571">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC571">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="572" spans="1:29">
@@ -51373,7 +51373,7 @@
         <v>570</v>
       </c>
       <c r="B572">
-        <v>5372570</v>
+        <v>5372571</v>
       </c>
       <c r="C572" t="s">
         <v>28</v>
@@ -51385,76 +51385,76 @@
         <v>44803.47916666666</v>
       </c>
       <c r="F572" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G572" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="H572">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I572">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J572" t="s">
         <v>55</v>
       </c>
       <c r="K572">
+        <v>2.15</v>
+      </c>
+      <c r="L572">
+        <v>2.8</v>
+      </c>
+      <c r="M572">
+        <v>3.6</v>
+      </c>
+      <c r="N572">
         <v>2.3</v>
       </c>
-      <c r="L572">
-        <v>2.9</v>
-      </c>
-      <c r="M572">
-        <v>3.2</v>
-      </c>
-      <c r="N572">
-        <v>2.55</v>
-      </c>
       <c r="O572">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P572">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="Q572">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R572">
+        <v>2</v>
+      </c>
+      <c r="S572">
+        <v>1.8</v>
+      </c>
+      <c r="T572">
+        <v>2.25</v>
+      </c>
+      <c r="U572">
+        <v>1.95</v>
+      </c>
+      <c r="V572">
         <v>1.85</v>
       </c>
-      <c r="S572">
-        <v>1.95</v>
-      </c>
-      <c r="T572">
-        <v>2.5</v>
-      </c>
-      <c r="U572">
-        <v>2</v>
-      </c>
-      <c r="V572">
+      <c r="W572">
+        <v>-1</v>
+      </c>
+      <c r="X572">
         <v>1.8</v>
       </c>
-      <c r="W572">
-        <v>-1</v>
-      </c>
-      <c r="X572">
-        <v>2</v>
-      </c>
       <c r="Y572">
         <v>-1</v>
       </c>
       <c r="Z572">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA572">
-        <v>-0</v>
+        <v>0.4</v>
       </c>
       <c r="AB572">
         <v>-1</v>
       </c>
       <c r="AC572">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="573" spans="1:29">
@@ -54488,7 +54488,7 @@
         <v>605</v>
       </c>
       <c r="B607">
-        <v>5774016</v>
+        <v>5774017</v>
       </c>
       <c r="C607" t="s">
         <v>28</v>
@@ -54500,46 +54500,46 @@
         <v>44895.40625</v>
       </c>
       <c r="F607" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G607" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H607">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I607">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J607" t="s">
         <v>56</v>
       </c>
       <c r="K607">
-        <v>5.5</v>
+        <v>2.15</v>
       </c>
       <c r="L607">
+        <v>2.75</v>
+      </c>
+      <c r="M607">
         <v>3.5</v>
       </c>
-      <c r="M607">
-        <v>1.55</v>
-      </c>
       <c r="N607">
-        <v>7.5</v>
+        <v>1.833</v>
       </c>
       <c r="O607">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P607">
-        <v>1.444</v>
+        <v>4.333</v>
       </c>
       <c r="Q607">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R607">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S607">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T607">
         <v>2.25</v>
@@ -54557,19 +54557,19 @@
         <v>-1</v>
       </c>
       <c r="Y607">
-        <v>0.444</v>
+        <v>3.333</v>
       </c>
       <c r="Z607">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA607">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB607">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC607">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="608" spans="1:29">
@@ -54577,7 +54577,7 @@
         <v>606</v>
       </c>
       <c r="B608">
-        <v>5774017</v>
+        <v>5774016</v>
       </c>
       <c r="C608" t="s">
         <v>28</v>
@@ -54589,46 +54589,46 @@
         <v>44895.40625</v>
       </c>
       <c r="F608" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="G608" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H608">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I608">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J608" t="s">
         <v>56</v>
       </c>
       <c r="K608">
-        <v>2.15</v>
+        <v>5.5</v>
       </c>
       <c r="L608">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="M608">
-        <v>3.5</v>
+        <v>1.55</v>
       </c>
       <c r="N608">
-        <v>1.833</v>
+        <v>7.5</v>
       </c>
       <c r="O608">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P608">
-        <v>4.333</v>
+        <v>1.444</v>
       </c>
       <c r="Q608">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R608">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S608">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T608">
         <v>2.25</v>
@@ -54646,19 +54646,19 @@
         <v>-1</v>
       </c>
       <c r="Y608">
-        <v>3.333</v>
+        <v>0.444</v>
       </c>
       <c r="Z608">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA608">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB608">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC608">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="609" spans="1:29">
@@ -56891,7 +56891,7 @@
         <v>632</v>
       </c>
       <c r="B634">
-        <v>5774664</v>
+        <v>5774028</v>
       </c>
       <c r="C634" t="s">
         <v>28</v>
@@ -56903,49 +56903,49 @@
         <v>44910.5</v>
       </c>
       <c r="F634" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="G634" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="H634">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I634">
         <v>0</v>
       </c>
       <c r="J634" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K634">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="L634">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="M634">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="N634">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="O634">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="P634">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="Q634">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R634">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S634">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T634">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U634">
         <v>1.75</v>
@@ -56954,16 +56954,16 @@
         <v>2.05</v>
       </c>
       <c r="W634">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X634">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y634">
         <v>-1</v>
       </c>
       <c r="Z634">
-        <v>0.4875</v>
+        <v>0.375</v>
       </c>
       <c r="AA634">
         <v>-0.5</v>
@@ -56980,7 +56980,7 @@
         <v>633</v>
       </c>
       <c r="B635">
-        <v>5774028</v>
+        <v>5774664</v>
       </c>
       <c r="C635" t="s">
         <v>28</v>
@@ -56992,49 +56992,49 @@
         <v>44910.5</v>
       </c>
       <c r="F635" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="G635" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I635">
         <v>0</v>
       </c>
       <c r="J635" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K635">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="L635">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="M635">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="N635">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="O635">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="P635">
-        <v>2.375</v>
+        <v>5</v>
       </c>
       <c r="Q635">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R635">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S635">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T635">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U635">
         <v>1.75</v>
@@ -57043,16 +57043,16 @@
         <v>2.05</v>
       </c>
       <c r="W635">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X635">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y635">
         <v>-1</v>
       </c>
       <c r="Z635">
-        <v>0.375</v>
+        <v>0.4875</v>
       </c>
       <c r="AA635">
         <v>-0.5</v>
@@ -61163,7 +61163,7 @@
         <v>680</v>
       </c>
       <c r="B682">
-        <v>5774056</v>
+        <v>5774055</v>
       </c>
       <c r="C682" t="s">
         <v>28</v>
@@ -61175,76 +61175,76 @@
         <v>44934.40625</v>
       </c>
       <c r="F682" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="G682" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H682">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I682">
         <v>0</v>
       </c>
       <c r="J682" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K682">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="L682">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M682">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="N682">
-        <v>1.833</v>
+        <v>3.8</v>
       </c>
       <c r="O682">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P682">
-        <v>4.2</v>
+        <v>2.05</v>
       </c>
       <c r="Q682">
+        <v>0.25</v>
+      </c>
+      <c r="R682">
+        <v>2.025</v>
+      </c>
+      <c r="S682">
+        <v>1.775</v>
+      </c>
+      <c r="T682">
+        <v>1.75</v>
+      </c>
+      <c r="U682">
+        <v>1.8</v>
+      </c>
+      <c r="V682">
+        <v>2</v>
+      </c>
+      <c r="W682">
+        <v>2.8</v>
+      </c>
+      <c r="X682">
+        <v>-1</v>
+      </c>
+      <c r="Y682">
+        <v>-1</v>
+      </c>
+      <c r="Z682">
+        <v>1.025</v>
+      </c>
+      <c r="AA682">
+        <v>-1</v>
+      </c>
+      <c r="AB682">
+        <v>0.4</v>
+      </c>
+      <c r="AC682">
         <v>-0.5</v>
-      </c>
-      <c r="R682">
-        <v>1.875</v>
-      </c>
-      <c r="S682">
-        <v>1.925</v>
-      </c>
-      <c r="T682">
-        <v>2.25</v>
-      </c>
-      <c r="U682">
-        <v>2.025</v>
-      </c>
-      <c r="V682">
-        <v>1.775</v>
-      </c>
-      <c r="W682">
-        <v>-1</v>
-      </c>
-      <c r="X682">
-        <v>2.1</v>
-      </c>
-      <c r="Y682">
-        <v>-1</v>
-      </c>
-      <c r="Z682">
-        <v>-1</v>
-      </c>
-      <c r="AA682">
-        <v>0.925</v>
-      </c>
-      <c r="AB682">
-        <v>-1</v>
-      </c>
-      <c r="AC682">
-        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="683" spans="1:29">
@@ -61252,7 +61252,7 @@
         <v>681</v>
       </c>
       <c r="B683">
-        <v>5774055</v>
+        <v>5774056</v>
       </c>
       <c r="C683" t="s">
         <v>28</v>
@@ -61264,76 +61264,76 @@
         <v>44934.40625</v>
       </c>
       <c r="F683" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G683" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H683">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I683">
         <v>0</v>
       </c>
       <c r="J683" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K683">
-        <v>3.4</v>
+        <v>1.833</v>
       </c>
       <c r="L683">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M683">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="N683">
-        <v>3.8</v>
+        <v>1.833</v>
       </c>
       <c r="O683">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P683">
-        <v>2.05</v>
+        <v>4.2</v>
       </c>
       <c r="Q683">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R683">
+        <v>1.875</v>
+      </c>
+      <c r="S683">
+        <v>1.925</v>
+      </c>
+      <c r="T683">
+        <v>2.25</v>
+      </c>
+      <c r="U683">
         <v>2.025</v>
       </c>
-      <c r="S683">
+      <c r="V683">
         <v>1.775</v>
       </c>
-      <c r="T683">
-        <v>1.75</v>
-      </c>
-      <c r="U683">
-        <v>1.8</v>
-      </c>
-      <c r="V683">
-        <v>2</v>
-      </c>
       <c r="W683">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X683">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y683">
         <v>-1</v>
       </c>
       <c r="Z683">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA683">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB683">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC683">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="684" spans="1:29">
@@ -70241,7 +70241,7 @@
         <v>782</v>
       </c>
       <c r="B784">
-        <v>6488023</v>
+        <v>6471699</v>
       </c>
       <c r="C784" t="s">
         <v>28</v>
@@ -70253,76 +70253,76 @@
         <v>45029.67708333334</v>
       </c>
       <c r="F784" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G784" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H784">
         <v>0</v>
       </c>
       <c r="I784">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J784" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K784">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="L784">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="M784">
-        <v>3.25</v>
+        <v>1.833</v>
       </c>
       <c r="N784">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="O784">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P784">
-        <v>2.55</v>
+        <v>1.7</v>
       </c>
       <c r="Q784">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R784">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S784">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T784">
         <v>2</v>
       </c>
       <c r="U784">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V784">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W784">
         <v>-1</v>
       </c>
       <c r="X784">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y784">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z784">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA784">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB784">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC784">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="785" spans="1:29">
@@ -70419,7 +70419,7 @@
         <v>784</v>
       </c>
       <c r="B786">
-        <v>6471699</v>
+        <v>6488023</v>
       </c>
       <c r="C786" t="s">
         <v>28</v>
@@ -70431,76 +70431,76 @@
         <v>45029.67708333334</v>
       </c>
       <c r="F786" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G786" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H786">
         <v>0</v>
       </c>
       <c r="I786">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J786" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K786">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="L786">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="M786">
-        <v>1.833</v>
+        <v>3.25</v>
       </c>
       <c r="N786">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="O786">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P786">
-        <v>1.7</v>
+        <v>2.55</v>
       </c>
       <c r="Q786">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R786">
+        <v>1.9</v>
+      </c>
+      <c r="S786">
+        <v>1.9</v>
+      </c>
+      <c r="T786">
+        <v>2</v>
+      </c>
+      <c r="U786">
         <v>1.8</v>
       </c>
-      <c r="S786">
-        <v>2</v>
-      </c>
-      <c r="T786">
-        <v>2</v>
-      </c>
-      <c r="U786">
-        <v>1.825</v>
-      </c>
       <c r="V786">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W786">
         <v>-1</v>
       </c>
       <c r="X786">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y786">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z786">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA786">
+        <v>-0</v>
+      </c>
+      <c r="AB786">
+        <v>-1</v>
+      </c>
+      <c r="AC786">
         <v>1</v>
-      </c>
-      <c r="AB786">
-        <v>0.825</v>
-      </c>
-      <c r="AC786">
-        <v>-1</v>
       </c>
     </row>
     <row r="787" spans="1:29">
@@ -70508,7 +70508,7 @@
         <v>785</v>
       </c>
       <c r="B787">
-        <v>6471799</v>
+        <v>6471802</v>
       </c>
       <c r="C787" t="s">
         <v>28</v>
@@ -70520,73 +70520,73 @@
         <v>45030.67708333334</v>
       </c>
       <c r="F787" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G787" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H787">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I787">
+        <v>1</v>
+      </c>
+      <c r="J787" t="s">
+        <v>54</v>
+      </c>
+      <c r="K787">
+        <v>2.3</v>
+      </c>
+      <c r="L787">
+        <v>3.1</v>
+      </c>
+      <c r="M787">
         <v>3</v>
       </c>
-      <c r="J787" t="s">
-        <v>56</v>
-      </c>
-      <c r="K787">
-        <v>5.5</v>
-      </c>
-      <c r="L787">
-        <v>3.5</v>
-      </c>
-      <c r="M787">
-        <v>1.6</v>
-      </c>
       <c r="N787">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="O787">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P787">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="Q787">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R787">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S787">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T787">
         <v>2.25</v>
       </c>
       <c r="U787">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V787">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W787">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X787">
         <v>-1</v>
       </c>
       <c r="Y787">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z787">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA787">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB787">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC787">
         <v>-1</v>
@@ -70597,7 +70597,7 @@
         <v>786</v>
       </c>
       <c r="B788">
-        <v>6471801</v>
+        <v>6471799</v>
       </c>
       <c r="C788" t="s">
         <v>28</v>
@@ -70609,73 +70609,73 @@
         <v>45030.67708333334</v>
       </c>
       <c r="F788" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G788" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="H788">
+        <v>0</v>
+      </c>
+      <c r="I788">
         <v>3</v>
       </c>
-      <c r="I788">
-        <v>0</v>
-      </c>
       <c r="J788" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K788">
-        <v>1.333</v>
+        <v>5.5</v>
       </c>
       <c r="L788">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M788">
-        <v>9.5</v>
+        <v>1.6</v>
       </c>
       <c r="N788">
-        <v>1.333</v>
+        <v>4.5</v>
       </c>
       <c r="O788">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P788">
-        <v>8</v>
+        <v>1.8</v>
       </c>
       <c r="Q788">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R788">
+        <v>1.975</v>
+      </c>
+      <c r="S788">
         <v>1.825</v>
       </c>
-      <c r="S788">
-        <v>1.975</v>
-      </c>
       <c r="T788">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U788">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V788">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W788">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X788">
         <v>-1</v>
       </c>
       <c r="Y788">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z788">
+        <v>-1</v>
+      </c>
+      <c r="AA788">
         <v>0.825</v>
       </c>
-      <c r="AA788">
-        <v>-1</v>
-      </c>
       <c r="AB788">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC788">
         <v>-1</v>
@@ -70686,7 +70686,7 @@
         <v>787</v>
       </c>
       <c r="B789">
-        <v>6471802</v>
+        <v>6471801</v>
       </c>
       <c r="C789" t="s">
         <v>28</v>
@@ -70698,58 +70698,58 @@
         <v>45030.67708333334</v>
       </c>
       <c r="F789" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G789" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="H789">
         <v>3</v>
       </c>
       <c r="I789">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J789" t="s">
         <v>54</v>
       </c>
       <c r="K789">
-        <v>2.3</v>
+        <v>1.333</v>
       </c>
       <c r="L789">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="M789">
-        <v>3</v>
+        <v>9.5</v>
       </c>
       <c r="N789">
-        <v>2.7</v>
+        <v>1.333</v>
       </c>
       <c r="O789">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="P789">
-        <v>2.6</v>
+        <v>8</v>
       </c>
       <c r="Q789">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R789">
+        <v>1.825</v>
+      </c>
+      <c r="S789">
+        <v>1.975</v>
+      </c>
+      <c r="T789">
+        <v>2.5</v>
+      </c>
+      <c r="U789">
         <v>1.925</v>
       </c>
-      <c r="S789">
+      <c r="V789">
         <v>1.875</v>
       </c>
-      <c r="T789">
-        <v>2.25</v>
-      </c>
-      <c r="U789">
-        <v>2</v>
-      </c>
-      <c r="V789">
-        <v>1.8</v>
-      </c>
       <c r="W789">
-        <v>1.7</v>
+        <v>0.333</v>
       </c>
       <c r="X789">
         <v>-1</v>
@@ -70758,13 +70758,13 @@
         <v>-1</v>
       </c>
       <c r="Z789">
+        <v>0.825</v>
+      </c>
+      <c r="AA789">
+        <v>-1</v>
+      </c>
+      <c r="AB789">
         <v>0.925</v>
-      </c>
-      <c r="AA789">
-        <v>-1</v>
-      </c>
-      <c r="AB789">
-        <v>1</v>
       </c>
       <c r="AC789">
         <v>-1</v>
@@ -71487,7 +71487,7 @@
         <v>796</v>
       </c>
       <c r="B798">
-        <v>6495714</v>
+        <v>6488031</v>
       </c>
       <c r="C798" t="s">
         <v>28</v>
@@ -71499,76 +71499,76 @@
         <v>45036.67708333334</v>
       </c>
       <c r="F798" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G798" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H798">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I798">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J798" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K798">
         <v>2.3</v>
       </c>
       <c r="L798">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="M798">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N798">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O798">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="P798">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q798">
         <v>-0.25</v>
       </c>
       <c r="R798">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S798">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T798">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U798">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V798">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W798">
         <v>-1</v>
       </c>
       <c r="X798">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y798">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z798">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA798">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
       <c r="AB798">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC798">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="799" spans="1:29">
@@ -71576,7 +71576,7 @@
         <v>797</v>
       </c>
       <c r="B799">
-        <v>6488031</v>
+        <v>6495714</v>
       </c>
       <c r="C799" t="s">
         <v>28</v>
@@ -71588,76 +71588,76 @@
         <v>45036.67708333334</v>
       </c>
       <c r="F799" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G799" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H799">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I799">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J799" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K799">
         <v>2.3</v>
       </c>
       <c r="L799">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="M799">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N799">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O799">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="P799">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q799">
         <v>-0.25</v>
       </c>
       <c r="R799">
+        <v>1.9</v>
+      </c>
+      <c r="S799">
+        <v>1.9</v>
+      </c>
+      <c r="T799">
+        <v>2.25</v>
+      </c>
+      <c r="U799">
+        <v>1.95</v>
+      </c>
+      <c r="V799">
         <v>1.85</v>
       </c>
-      <c r="S799">
-        <v>1.95</v>
-      </c>
-      <c r="T799">
-        <v>2</v>
-      </c>
-      <c r="U799">
-        <v>2</v>
-      </c>
-      <c r="V799">
+      <c r="W799">
+        <v>-1</v>
+      </c>
+      <c r="X799">
         <v>1.8</v>
       </c>
-      <c r="W799">
-        <v>-1</v>
-      </c>
-      <c r="X799">
-        <v>-1</v>
-      </c>
       <c r="Y799">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z799">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA799">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="AB799">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC799">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="800" spans="1:29">
@@ -78073,7 +78073,7 @@
         <v>870</v>
       </c>
       <c r="B872">
-        <v>6853133</v>
+        <v>6853132</v>
       </c>
       <c r="C872" t="s">
         <v>28</v>
@@ -78085,58 +78085,58 @@
         <v>45121.60416666666</v>
       </c>
       <c r="F872" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="G872" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H872">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I872">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J872" t="s">
         <v>54</v>
       </c>
       <c r="K872">
-        <v>1.727</v>
+        <v>5.5</v>
       </c>
       <c r="L872">
         <v>3.25</v>
       </c>
       <c r="M872">
+        <v>1.6</v>
+      </c>
+      <c r="N872">
         <v>4.5</v>
       </c>
-      <c r="N872">
-        <v>1.6</v>
-      </c>
       <c r="O872">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P872">
-        <v>5.5</v>
+        <v>1.666</v>
       </c>
       <c r="Q872">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R872">
+        <v>1.825</v>
+      </c>
+      <c r="S872">
         <v>1.975</v>
       </c>
-      <c r="S872">
-        <v>1.825</v>
-      </c>
       <c r="T872">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U872">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V872">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W872">
-        <v>0.6000000000000001</v>
+        <v>3.5</v>
       </c>
       <c r="X872">
         <v>-1</v>
@@ -78145,13 +78145,13 @@
         <v>-1</v>
       </c>
       <c r="Z872">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA872">
         <v>-1</v>
       </c>
       <c r="AB872">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC872">
         <v>-1</v>
@@ -78340,7 +78340,7 @@
         <v>873</v>
       </c>
       <c r="B875">
-        <v>6853132</v>
+        <v>6853133</v>
       </c>
       <c r="C875" t="s">
         <v>28</v>
@@ -78352,58 +78352,58 @@
         <v>45121.60416666666</v>
       </c>
       <c r="F875" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="G875" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H875">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I875">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J875" t="s">
         <v>54</v>
       </c>
       <c r="K875">
-        <v>5.5</v>
+        <v>1.727</v>
       </c>
       <c r="L875">
         <v>3.25</v>
       </c>
       <c r="M875">
+        <v>4.5</v>
+      </c>
+      <c r="N875">
         <v>1.6</v>
       </c>
-      <c r="N875">
-        <v>4.5</v>
-      </c>
       <c r="O875">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P875">
-        <v>1.666</v>
+        <v>5.5</v>
       </c>
       <c r="Q875">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R875">
+        <v>1.975</v>
+      </c>
+      <c r="S875">
         <v>1.825</v>
       </c>
-      <c r="S875">
-        <v>1.975</v>
-      </c>
       <c r="T875">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U875">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V875">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W875">
-        <v>3.5</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X875">
         <v>-1</v>
@@ -78412,13 +78412,13 @@
         <v>-1</v>
       </c>
       <c r="Z875">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA875">
         <v>-1</v>
       </c>
       <c r="AB875">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC875">
         <v>-1</v>

--- a/Egypt Division 1/Egypt Division 1.xlsx
+++ b/Egypt Division 1/Egypt Division 1.xlsx
@@ -56891,7 +56891,7 @@
         <v>632</v>
       </c>
       <c r="B634">
-        <v>5774028</v>
+        <v>5774664</v>
       </c>
       <c r="C634" t="s">
         <v>28</v>
@@ -56903,49 +56903,49 @@
         <v>44910.5</v>
       </c>
       <c r="F634" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="G634" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I634">
         <v>0</v>
       </c>
       <c r="J634" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K634">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="L634">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="M634">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="N634">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="O634">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="P634">
-        <v>2.375</v>
+        <v>5</v>
       </c>
       <c r="Q634">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R634">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S634">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T634">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U634">
         <v>1.75</v>
@@ -56954,16 +56954,16 @@
         <v>2.05</v>
       </c>
       <c r="W634">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X634">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y634">
         <v>-1</v>
       </c>
       <c r="Z634">
-        <v>0.375</v>
+        <v>0.4875</v>
       </c>
       <c r="AA634">
         <v>-0.5</v>
@@ -56980,7 +56980,7 @@
         <v>633</v>
       </c>
       <c r="B635">
-        <v>5774664</v>
+        <v>5774028</v>
       </c>
       <c r="C635" t="s">
         <v>28</v>
@@ -56992,49 +56992,49 @@
         <v>44910.5</v>
       </c>
       <c r="F635" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="G635" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="H635">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I635">
         <v>0</v>
       </c>
       <c r="J635" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K635">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="L635">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="M635">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="N635">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="O635">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="P635">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="Q635">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R635">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S635">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T635">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U635">
         <v>1.75</v>
@@ -57043,16 +57043,16 @@
         <v>2.05</v>
       </c>
       <c r="W635">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X635">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y635">
         <v>-1</v>
       </c>
       <c r="Z635">
-        <v>0.4875</v>
+        <v>0.375</v>
       </c>
       <c r="AA635">
         <v>-0.5</v>
@@ -57959,7 +57959,7 @@
         <v>644</v>
       </c>
       <c r="B646">
-        <v>5774036</v>
+        <v>5774035</v>
       </c>
       <c r="C646" t="s">
         <v>28</v>
@@ -57971,76 +57971,76 @@
         <v>44915.5</v>
       </c>
       <c r="F646" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G646" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H646">
         <v>1</v>
       </c>
       <c r="I646">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J646" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K646">
-        <v>7</v>
+        <v>2.8</v>
       </c>
       <c r="L646">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="M646">
-        <v>1.444</v>
+        <v>2.75</v>
       </c>
       <c r="N646">
-        <v>9</v>
+        <v>3.4</v>
       </c>
       <c r="O646">
-        <v>4.2</v>
+        <v>2.625</v>
       </c>
       <c r="P646">
-        <v>1.363</v>
+        <v>2.375</v>
       </c>
       <c r="Q646">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R646">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S646">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T646">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U646">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V646">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W646">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X646">
         <v>-1</v>
       </c>
       <c r="Y646">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z646">
-        <v>0.4625</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA646">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB646">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC646">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="647" spans="1:29">
@@ -58048,7 +58048,7 @@
         <v>645</v>
       </c>
       <c r="B647">
-        <v>5774035</v>
+        <v>5774036</v>
       </c>
       <c r="C647" t="s">
         <v>28</v>
@@ -58060,76 +58060,76 @@
         <v>44915.5</v>
       </c>
       <c r="F647" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="G647" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H647">
         <v>1</v>
       </c>
       <c r="I647">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J647" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K647">
-        <v>2.8</v>
+        <v>7</v>
       </c>
       <c r="L647">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="M647">
-        <v>2.75</v>
+        <v>1.444</v>
       </c>
       <c r="N647">
-        <v>3.4</v>
+        <v>9</v>
       </c>
       <c r="O647">
-        <v>2.625</v>
+        <v>4.2</v>
       </c>
       <c r="P647">
-        <v>2.375</v>
+        <v>1.363</v>
       </c>
       <c r="Q647">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R647">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S647">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T647">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U647">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V647">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W647">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X647">
         <v>-1</v>
       </c>
       <c r="Y647">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z647">
-        <v>0.7749999999999999</v>
+        <v>0.4625</v>
       </c>
       <c r="AA647">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB647">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC647">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="648" spans="1:29">
@@ -60273,7 +60273,7 @@
         <v>670</v>
       </c>
       <c r="B672">
-        <v>5774679</v>
+        <v>5774051</v>
       </c>
       <c r="C672" t="s">
         <v>28</v>
@@ -60285,73 +60285,73 @@
         <v>44929.40625</v>
       </c>
       <c r="F672" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G672" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="H672">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I672">
+        <v>2</v>
+      </c>
+      <c r="J672" t="s">
+        <v>54</v>
+      </c>
+      <c r="K672">
+        <v>1.727</v>
+      </c>
+      <c r="L672">
         <v>3</v>
       </c>
-      <c r="J672" t="s">
-        <v>56</v>
-      </c>
-      <c r="K672">
-        <v>2.625</v>
-      </c>
-      <c r="L672">
-        <v>2.875</v>
-      </c>
       <c r="M672">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="N672">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="O672">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P672">
-        <v>2.1</v>
+        <v>5.25</v>
       </c>
       <c r="Q672">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R672">
+        <v>1.8</v>
+      </c>
+      <c r="S672">
+        <v>2</v>
+      </c>
+      <c r="T672">
+        <v>1.75</v>
+      </c>
+      <c r="U672">
         <v>1.775</v>
       </c>
-      <c r="S672">
+      <c r="V672">
         <v>2.025</v>
       </c>
-      <c r="T672">
-        <v>2.25</v>
-      </c>
-      <c r="U672">
-        <v>1.825</v>
-      </c>
-      <c r="V672">
-        <v>1.975</v>
-      </c>
       <c r="W672">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X672">
         <v>-1</v>
       </c>
       <c r="Y672">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z672">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA672">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB672">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC672">
         <v>-1</v>
@@ -60362,7 +60362,7 @@
         <v>671</v>
       </c>
       <c r="B673">
-        <v>5774051</v>
+        <v>5774679</v>
       </c>
       <c r="C673" t="s">
         <v>28</v>
@@ -60374,73 +60374,73 @@
         <v>44929.40625</v>
       </c>
       <c r="F673" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G673" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="H673">
+        <v>0</v>
+      </c>
+      <c r="I673">
         <v>3</v>
       </c>
-      <c r="I673">
-        <v>2</v>
-      </c>
       <c r="J673" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K673">
-        <v>1.727</v>
+        <v>2.625</v>
       </c>
       <c r="L673">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M673">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="N673">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="O673">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P673">
-        <v>5.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q673">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R673">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S673">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T673">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U673">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V673">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W673">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X673">
         <v>-1</v>
       </c>
       <c r="Y673">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z673">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA673">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB673">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC673">
         <v>-1</v>
@@ -61163,7 +61163,7 @@
         <v>680</v>
       </c>
       <c r="B682">
-        <v>5774055</v>
+        <v>5774056</v>
       </c>
       <c r="C682" t="s">
         <v>28</v>
@@ -61175,76 +61175,76 @@
         <v>44934.40625</v>
       </c>
       <c r="F682" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G682" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H682">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I682">
         <v>0</v>
       </c>
       <c r="J682" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K682">
-        <v>3.4</v>
+        <v>1.833</v>
       </c>
       <c r="L682">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M682">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="N682">
-        <v>3.8</v>
+        <v>1.833</v>
       </c>
       <c r="O682">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P682">
-        <v>2.05</v>
+        <v>4.2</v>
       </c>
       <c r="Q682">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R682">
+        <v>1.875</v>
+      </c>
+      <c r="S682">
+        <v>1.925</v>
+      </c>
+      <c r="T682">
+        <v>2.25</v>
+      </c>
+      <c r="U682">
         <v>2.025</v>
       </c>
-      <c r="S682">
+      <c r="V682">
         <v>1.775</v>
       </c>
-      <c r="T682">
-        <v>1.75</v>
-      </c>
-      <c r="U682">
-        <v>1.8</v>
-      </c>
-      <c r="V682">
-        <v>2</v>
-      </c>
       <c r="W682">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X682">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y682">
         <v>-1</v>
       </c>
       <c r="Z682">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA682">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB682">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC682">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="683" spans="1:29">
@@ -61252,7 +61252,7 @@
         <v>681</v>
       </c>
       <c r="B683">
-        <v>5774056</v>
+        <v>5774055</v>
       </c>
       <c r="C683" t="s">
         <v>28</v>
@@ -61264,76 +61264,76 @@
         <v>44934.40625</v>
       </c>
       <c r="F683" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="G683" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H683">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I683">
         <v>0</v>
       </c>
       <c r="J683" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K683">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="L683">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M683">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="N683">
-        <v>1.833</v>
+        <v>3.8</v>
       </c>
       <c r="O683">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P683">
-        <v>4.2</v>
+        <v>2.05</v>
       </c>
       <c r="Q683">
+        <v>0.25</v>
+      </c>
+      <c r="R683">
+        <v>2.025</v>
+      </c>
+      <c r="S683">
+        <v>1.775</v>
+      </c>
+      <c r="T683">
+        <v>1.75</v>
+      </c>
+      <c r="U683">
+        <v>1.8</v>
+      </c>
+      <c r="V683">
+        <v>2</v>
+      </c>
+      <c r="W683">
+        <v>2.8</v>
+      </c>
+      <c r="X683">
+        <v>-1</v>
+      </c>
+      <c r="Y683">
+        <v>-1</v>
+      </c>
+      <c r="Z683">
+        <v>1.025</v>
+      </c>
+      <c r="AA683">
+        <v>-1</v>
+      </c>
+      <c r="AB683">
+        <v>0.4</v>
+      </c>
+      <c r="AC683">
         <v>-0.5</v>
-      </c>
-      <c r="R683">
-        <v>1.875</v>
-      </c>
-      <c r="S683">
-        <v>1.925</v>
-      </c>
-      <c r="T683">
-        <v>2.25</v>
-      </c>
-      <c r="U683">
-        <v>2.025</v>
-      </c>
-      <c r="V683">
-        <v>1.775</v>
-      </c>
-      <c r="W683">
-        <v>-1</v>
-      </c>
-      <c r="X683">
-        <v>2.1</v>
-      </c>
-      <c r="Y683">
-        <v>-1</v>
-      </c>
-      <c r="Z683">
-        <v>-1</v>
-      </c>
-      <c r="AA683">
-        <v>0.925</v>
-      </c>
-      <c r="AB683">
-        <v>-1</v>
-      </c>
-      <c r="AC683">
-        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="684" spans="1:29">
@@ -61697,7 +61697,7 @@
         <v>686</v>
       </c>
       <c r="B688">
-        <v>6117225</v>
+        <v>5774686</v>
       </c>
       <c r="C688" t="s">
         <v>28</v>
@@ -61709,76 +61709,76 @@
         <v>44937.58333333334</v>
       </c>
       <c r="F688" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G688" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H688">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I688">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J688" t="s">
         <v>55</v>
       </c>
       <c r="K688">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="L688">
+        <v>3.2</v>
+      </c>
+      <c r="M688">
+        <v>1.95</v>
+      </c>
+      <c r="N688">
+        <v>3.4</v>
+      </c>
+      <c r="O688">
         <v>3</v>
       </c>
-      <c r="M688">
-        <v>1.909</v>
-      </c>
-      <c r="N688">
-        <v>3.8</v>
-      </c>
-      <c r="O688">
-        <v>2.875</v>
-      </c>
       <c r="P688">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="Q688">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R688">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S688">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T688">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U688">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V688">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W688">
         <v>-1</v>
       </c>
       <c r="X688">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="Y688">
         <v>-1</v>
       </c>
       <c r="Z688">
-        <v>0.75</v>
+        <v>0.45</v>
       </c>
       <c r="AA688">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB688">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC688">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="689" spans="1:29">
@@ -61786,7 +61786,7 @@
         <v>687</v>
       </c>
       <c r="B689">
-        <v>5774686</v>
+        <v>6117225</v>
       </c>
       <c r="C689" t="s">
         <v>28</v>
@@ -61798,76 +61798,76 @@
         <v>44937.58333333334</v>
       </c>
       <c r="F689" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G689" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H689">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I689">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J689" t="s">
         <v>55</v>
       </c>
       <c r="K689">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="L689">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M689">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="N689">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="O689">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P689">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="Q689">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R689">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S689">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T689">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U689">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V689">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W689">
         <v>-1</v>
       </c>
       <c r="X689">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="Y689">
         <v>-1</v>
       </c>
       <c r="Z689">
-        <v>0.45</v>
+        <v>0.75</v>
       </c>
       <c r="AA689">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB689">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC689">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="690" spans="1:29">
@@ -64812,7 +64812,7 @@
         <v>721</v>
       </c>
       <c r="B723">
-        <v>5774703</v>
+        <v>5774078</v>
       </c>
       <c r="C723" t="s">
         <v>28</v>
@@ -64824,76 +64824,76 @@
         <v>44962.58333333334</v>
       </c>
       <c r="F723" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G723" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H723">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I723">
         <v>1</v>
       </c>
       <c r="J723" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K723">
-        <v>1.833</v>
+        <v>1.909</v>
       </c>
       <c r="L723">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M723">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="N723">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O723">
         <v>3</v>
       </c>
       <c r="P723">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q723">
         <v>-0.25</v>
       </c>
       <c r="R723">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S723">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T723">
         <v>2.25</v>
       </c>
       <c r="U723">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V723">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W723">
         <v>-1</v>
       </c>
       <c r="X723">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y723">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z723">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA723">
-        <v>1.05</v>
+        <v>0.5</v>
       </c>
       <c r="AB723">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC723">
-        <v>0.9750000000000001</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="724" spans="1:29">
@@ -64901,7 +64901,7 @@
         <v>722</v>
       </c>
       <c r="B724">
-        <v>5774078</v>
+        <v>5774703</v>
       </c>
       <c r="C724" t="s">
         <v>28</v>
@@ -64913,76 +64913,76 @@
         <v>44962.58333333334</v>
       </c>
       <c r="F724" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G724" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H724">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I724">
         <v>1</v>
       </c>
       <c r="J724" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K724">
-        <v>1.909</v>
+        <v>1.833</v>
       </c>
       <c r="L724">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M724">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="N724">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="O724">
         <v>3</v>
       </c>
       <c r="P724">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q724">
         <v>-0.25</v>
       </c>
       <c r="R724">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S724">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T724">
         <v>2.25</v>
       </c>
       <c r="U724">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V724">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W724">
         <v>-1</v>
       </c>
       <c r="X724">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y724">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z724">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA724">
-        <v>0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB724">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC724">
-        <v>0.3875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="725" spans="1:29">
@@ -70241,7 +70241,7 @@
         <v>782</v>
       </c>
       <c r="B784">
-        <v>6471699</v>
+        <v>6488023</v>
       </c>
       <c r="C784" t="s">
         <v>28</v>
@@ -70253,76 +70253,76 @@
         <v>45029.67708333334</v>
       </c>
       <c r="F784" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G784" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H784">
         <v>0</v>
       </c>
       <c r="I784">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J784" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K784">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="L784">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="M784">
-        <v>1.833</v>
+        <v>3.25</v>
       </c>
       <c r="N784">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="O784">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P784">
-        <v>1.7</v>
+        <v>2.55</v>
       </c>
       <c r="Q784">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R784">
+        <v>1.9</v>
+      </c>
+      <c r="S784">
+        <v>1.9</v>
+      </c>
+      <c r="T784">
+        <v>2</v>
+      </c>
+      <c r="U784">
         <v>1.8</v>
       </c>
-      <c r="S784">
-        <v>2</v>
-      </c>
-      <c r="T784">
-        <v>2</v>
-      </c>
-      <c r="U784">
-        <v>1.825</v>
-      </c>
       <c r="V784">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W784">
         <v>-1</v>
       </c>
       <c r="X784">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y784">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z784">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA784">
+        <v>-0</v>
+      </c>
+      <c r="AB784">
+        <v>-1</v>
+      </c>
+      <c r="AC784">
         <v>1</v>
-      </c>
-      <c r="AB784">
-        <v>0.825</v>
-      </c>
-      <c r="AC784">
-        <v>-1</v>
       </c>
     </row>
     <row r="785" spans="1:29">
@@ -70419,7 +70419,7 @@
         <v>784</v>
       </c>
       <c r="B786">
-        <v>6488023</v>
+        <v>6471699</v>
       </c>
       <c r="C786" t="s">
         <v>28</v>
@@ -70431,76 +70431,76 @@
         <v>45029.67708333334</v>
       </c>
       <c r="F786" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G786" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H786">
         <v>0</v>
       </c>
       <c r="I786">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J786" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K786">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="L786">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="M786">
-        <v>3.25</v>
+        <v>1.833</v>
       </c>
       <c r="N786">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="O786">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P786">
-        <v>2.55</v>
+        <v>1.7</v>
       </c>
       <c r="Q786">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R786">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S786">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T786">
         <v>2</v>
       </c>
       <c r="U786">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V786">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W786">
         <v>-1</v>
       </c>
       <c r="X786">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y786">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z786">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA786">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB786">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC786">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="787" spans="1:29">
@@ -70508,7 +70508,7 @@
         <v>785</v>
       </c>
       <c r="B787">
-        <v>6471802</v>
+        <v>6471799</v>
       </c>
       <c r="C787" t="s">
         <v>28</v>
@@ -70520,73 +70520,73 @@
         <v>45030.67708333334</v>
       </c>
       <c r="F787" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G787" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H787">
+        <v>0</v>
+      </c>
+      <c r="I787">
         <v>3</v>
       </c>
-      <c r="I787">
-        <v>1</v>
-      </c>
       <c r="J787" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K787">
-        <v>2.3</v>
+        <v>5.5</v>
       </c>
       <c r="L787">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M787">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="N787">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="O787">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P787">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="Q787">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R787">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S787">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T787">
         <v>2.25</v>
       </c>
       <c r="U787">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V787">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W787">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X787">
         <v>-1</v>
       </c>
       <c r="Y787">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z787">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA787">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB787">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC787">
         <v>-1</v>
@@ -70597,7 +70597,7 @@
         <v>786</v>
       </c>
       <c r="B788">
-        <v>6471799</v>
+        <v>6471801</v>
       </c>
       <c r="C788" t="s">
         <v>28</v>
@@ -70609,73 +70609,73 @@
         <v>45030.67708333334</v>
       </c>
       <c r="F788" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G788" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="H788">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I788">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J788" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K788">
-        <v>5.5</v>
+        <v>1.333</v>
       </c>
       <c r="L788">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M788">
-        <v>1.6</v>
+        <v>9.5</v>
       </c>
       <c r="N788">
+        <v>1.333</v>
+      </c>
+      <c r="O788">
         <v>4.5</v>
       </c>
-      <c r="O788">
-        <v>3.2</v>
-      </c>
       <c r="P788">
-        <v>1.8</v>
+        <v>8</v>
       </c>
       <c r="Q788">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R788">
+        <v>1.825</v>
+      </c>
+      <c r="S788">
         <v>1.975</v>
       </c>
-      <c r="S788">
-        <v>1.825</v>
-      </c>
       <c r="T788">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U788">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V788">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W788">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X788">
         <v>-1</v>
       </c>
       <c r="Y788">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z788">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA788">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB788">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC788">
         <v>-1</v>
@@ -70686,7 +70686,7 @@
         <v>787</v>
       </c>
       <c r="B789">
-        <v>6471801</v>
+        <v>6471802</v>
       </c>
       <c r="C789" t="s">
         <v>28</v>
@@ -70698,58 +70698,58 @@
         <v>45030.67708333334</v>
       </c>
       <c r="F789" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G789" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="H789">
         <v>3</v>
       </c>
       <c r="I789">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J789" t="s">
         <v>54</v>
       </c>
       <c r="K789">
-        <v>1.333</v>
+        <v>2.3</v>
       </c>
       <c r="L789">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="M789">
-        <v>9.5</v>
+        <v>3</v>
       </c>
       <c r="N789">
-        <v>1.333</v>
+        <v>2.7</v>
       </c>
       <c r="O789">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="P789">
-        <v>8</v>
+        <v>2.6</v>
       </c>
       <c r="Q789">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R789">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S789">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T789">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U789">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V789">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W789">
-        <v>0.333</v>
+        <v>1.7</v>
       </c>
       <c r="X789">
         <v>-1</v>
@@ -70758,13 +70758,13 @@
         <v>-1</v>
       </c>
       <c r="Z789">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA789">
         <v>-1</v>
       </c>
       <c r="AB789">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC789">
         <v>-1</v>
@@ -72288,7 +72288,7 @@
         <v>805</v>
       </c>
       <c r="B807">
-        <v>6576763</v>
+        <v>6574064</v>
       </c>
       <c r="C807" t="s">
         <v>28</v>
@@ -72300,76 +72300,76 @@
         <v>45050.54166666666</v>
       </c>
       <c r="F807" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G807" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H807">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I807">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J807" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K807">
+        <v>3.4</v>
+      </c>
+      <c r="L807">
+        <v>2.75</v>
+      </c>
+      <c r="M807">
+        <v>2.2</v>
+      </c>
+      <c r="N807">
+        <v>4</v>
+      </c>
+      <c r="O807">
+        <v>2.7</v>
+      </c>
+      <c r="P807">
         <v>2.1</v>
       </c>
-      <c r="L807">
-        <v>2.5</v>
-      </c>
-      <c r="M807">
-        <v>4.25</v>
-      </c>
-      <c r="N807">
-        <v>2.3</v>
-      </c>
-      <c r="O807">
-        <v>2.55</v>
-      </c>
-      <c r="P807">
-        <v>3.5</v>
-      </c>
       <c r="Q807">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R807">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S807">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T807">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U807">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V807">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W807">
         <v>-1</v>
       </c>
       <c r="X807">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Y807">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z807">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA807">
-        <v>0.3875</v>
+        <v>0.8</v>
       </c>
       <c r="AB807">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC807">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="808" spans="1:29">
@@ -72377,7 +72377,7 @@
         <v>806</v>
       </c>
       <c r="B808">
-        <v>6574064</v>
+        <v>6576763</v>
       </c>
       <c r="C808" t="s">
         <v>28</v>
@@ -72389,76 +72389,76 @@
         <v>45050.54166666666</v>
       </c>
       <c r="F808" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G808" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H808">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I808">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J808" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K808">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="L808">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="M808">
-        <v>2.2</v>
+        <v>4.25</v>
       </c>
       <c r="N808">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="O808">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="P808">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q808">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R808">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S808">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T808">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U808">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V808">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W808">
         <v>-1</v>
       </c>
       <c r="X808">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Y808">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z808">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA808">
-        <v>0.8</v>
+        <v>0.3875</v>
       </c>
       <c r="AB808">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC808">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="809" spans="1:29">
@@ -76738,7 +76738,7 @@
         <v>855</v>
       </c>
       <c r="B857">
-        <v>6682721</v>
+        <v>6682722</v>
       </c>
       <c r="C857" t="s">
         <v>28</v>
@@ -76750,76 +76750,76 @@
         <v>45107.64583333334</v>
       </c>
       <c r="F857" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G857" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H857">
         <v>0</v>
       </c>
       <c r="I857">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J857" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K857">
+        <v>2.5</v>
+      </c>
+      <c r="L857">
+        <v>2.7</v>
+      </c>
+      <c r="M857">
+        <v>2.9</v>
+      </c>
+      <c r="N857">
+        <v>3.1</v>
+      </c>
+      <c r="O857">
+        <v>2.6</v>
+      </c>
+      <c r="P857">
+        <v>2.5</v>
+      </c>
+      <c r="Q857">
+        <v>0.25</v>
+      </c>
+      <c r="R857">
+        <v>1.7</v>
+      </c>
+      <c r="S857">
+        <v>2.1</v>
+      </c>
+      <c r="T857">
+        <v>1.75</v>
+      </c>
+      <c r="U857">
+        <v>1.75</v>
+      </c>
+      <c r="V857">
         <v>2.05</v>
       </c>
-      <c r="L857">
-        <v>2.9</v>
-      </c>
-      <c r="M857">
-        <v>3.5</v>
-      </c>
-      <c r="N857">
-        <v>2.3</v>
-      </c>
-      <c r="O857">
-        <v>2.8</v>
-      </c>
-      <c r="P857">
-        <v>3.1</v>
-      </c>
-      <c r="Q857">
-        <v>-0.25</v>
-      </c>
-      <c r="R857">
-        <v>1.975</v>
-      </c>
-      <c r="S857">
-        <v>1.825</v>
-      </c>
-      <c r="T857">
-        <v>2.25</v>
-      </c>
-      <c r="U857">
-        <v>2</v>
-      </c>
-      <c r="V857">
-        <v>1.8</v>
-      </c>
       <c r="W857">
         <v>-1</v>
       </c>
       <c r="X857">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Y857">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z857">
-        <v>-1</v>
+        <v>0.35</v>
       </c>
       <c r="AA857">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB857">
         <v>-1</v>
       </c>
       <c r="AC857">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="858" spans="1:29">
@@ -76827,7 +76827,7 @@
         <v>856</v>
       </c>
       <c r="B858">
-        <v>6682722</v>
+        <v>6682721</v>
       </c>
       <c r="C858" t="s">
         <v>28</v>
@@ -76839,76 +76839,76 @@
         <v>45107.64583333334</v>
       </c>
       <c r="F858" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G858" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="H858">
         <v>0</v>
       </c>
       <c r="I858">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J858" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K858">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="L858">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="M858">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="N858">
+        <v>2.3</v>
+      </c>
+      <c r="O858">
+        <v>2.8</v>
+      </c>
+      <c r="P858">
         <v>3.1</v>
       </c>
-      <c r="O858">
-        <v>2.6</v>
-      </c>
-      <c r="P858">
-        <v>2.5</v>
-      </c>
       <c r="Q858">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R858">
-        <v>1.7</v>
+        <v>1.975</v>
       </c>
       <c r="S858">
+        <v>1.825</v>
+      </c>
+      <c r="T858">
+        <v>2.25</v>
+      </c>
+      <c r="U858">
+        <v>2</v>
+      </c>
+      <c r="V858">
+        <v>1.8</v>
+      </c>
+      <c r="W858">
+        <v>-1</v>
+      </c>
+      <c r="X858">
+        <v>-1</v>
+      </c>
+      <c r="Y858">
         <v>2.1</v>
       </c>
-      <c r="T858">
-        <v>1.75</v>
-      </c>
-      <c r="U858">
-        <v>1.75</v>
-      </c>
-      <c r="V858">
-        <v>2.05</v>
-      </c>
-      <c r="W858">
-        <v>-1</v>
-      </c>
-      <c r="X858">
-        <v>1.6</v>
-      </c>
-      <c r="Y858">
-        <v>-1</v>
-      </c>
       <c r="Z858">
-        <v>0.35</v>
+        <v>-1</v>
       </c>
       <c r="AA858">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB858">
         <v>-1</v>
       </c>
       <c r="AC858">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="859" spans="1:29">
@@ -81722,7 +81722,7 @@
         <v>911</v>
       </c>
       <c r="B913">
-        <v>7217630</v>
+        <v>7217629</v>
       </c>
       <c r="C913" t="s">
         <v>28</v>
@@ -81734,13 +81734,13 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F913" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G913" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H913">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I913">
         <v>1</v>
@@ -81749,43 +81749,43 @@
         <v>54</v>
       </c>
       <c r="K913">
-        <v>1.65</v>
+        <v>2.4</v>
       </c>
       <c r="L913">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="M913">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="N913">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="O913">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="P913">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="Q913">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R913">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S913">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T913">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U913">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V913">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W913">
-        <v>0.909</v>
+        <v>1.5</v>
       </c>
       <c r="X913">
         <v>-1</v>
@@ -81794,13 +81794,13 @@
         <v>-1</v>
       </c>
       <c r="Z913">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA913">
         <v>-1</v>
       </c>
       <c r="AB913">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC913">
         <v>-1</v>
@@ -81811,7 +81811,7 @@
         <v>912</v>
       </c>
       <c r="B914">
-        <v>7217629</v>
+        <v>7217630</v>
       </c>
       <c r="C914" t="s">
         <v>28</v>
@@ -81823,13 +81823,13 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F914" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G914" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H914">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I914">
         <v>1</v>
@@ -81838,43 +81838,43 @@
         <v>54</v>
       </c>
       <c r="K914">
-        <v>2.4</v>
+        <v>1.65</v>
       </c>
       <c r="L914">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="M914">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="N914">
+        <v>1.909</v>
+      </c>
+      <c r="O914">
+        <v>3.25</v>
+      </c>
+      <c r="P914">
+        <v>3.6</v>
+      </c>
+      <c r="Q914">
+        <v>-0.5</v>
+      </c>
+      <c r="R914">
+        <v>1.925</v>
+      </c>
+      <c r="S914">
+        <v>1.875</v>
+      </c>
+      <c r="T914">
         <v>2.5</v>
       </c>
-      <c r="O914">
-        <v>2.8</v>
-      </c>
-      <c r="P914">
-        <v>2.9</v>
-      </c>
-      <c r="Q914">
-        <v>0</v>
-      </c>
-      <c r="R914">
-        <v>1.8</v>
-      </c>
-      <c r="S914">
-        <v>2</v>
-      </c>
-      <c r="T914">
-        <v>2</v>
-      </c>
       <c r="U914">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V914">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W914">
-        <v>1.5</v>
+        <v>0.909</v>
       </c>
       <c r="X914">
         <v>-1</v>
@@ -81883,13 +81883,13 @@
         <v>-1</v>
       </c>
       <c r="Z914">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA914">
         <v>-1</v>
       </c>
       <c r="AB914">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC914">
         <v>-1</v>
@@ -85104,7 +85104,7 @@
         <v>949</v>
       </c>
       <c r="B951">
-        <v>7217678</v>
+        <v>7217675</v>
       </c>
       <c r="C951" t="s">
         <v>28</v>
@@ -85116,76 +85116,76 @@
         <v>45274.45833333334</v>
       </c>
       <c r="F951" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G951" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H951">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I951">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J951" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K951">
+        <v>2.5</v>
+      </c>
+      <c r="L951">
+        <v>2.8</v>
+      </c>
+      <c r="M951">
+        <v>2.8</v>
+      </c>
+      <c r="N951">
+        <v>2.4</v>
+      </c>
+      <c r="O951">
         <v>2.875</v>
       </c>
-      <c r="L951">
+      <c r="P951">
         <v>3</v>
       </c>
-      <c r="M951">
-        <v>2.4</v>
-      </c>
-      <c r="N951">
-        <v>3</v>
-      </c>
-      <c r="O951">
-        <v>3</v>
-      </c>
-      <c r="P951">
-        <v>2.25</v>
-      </c>
       <c r="Q951">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R951">
+        <v>2.05</v>
+      </c>
+      <c r="S951">
         <v>1.75</v>
       </c>
-      <c r="S951">
-        <v>2.05</v>
-      </c>
       <c r="T951">
         <v>2</v>
       </c>
       <c r="U951">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V951">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W951">
         <v>-1</v>
       </c>
       <c r="X951">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y951">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z951">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AA951">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AB951">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC951">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="952" spans="1:29">
@@ -85193,7 +85193,7 @@
         <v>950</v>
       </c>
       <c r="B952">
-        <v>7217675</v>
+        <v>7217678</v>
       </c>
       <c r="C952" t="s">
         <v>28</v>
@@ -85205,76 +85205,76 @@
         <v>45274.45833333334</v>
       </c>
       <c r="F952" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G952" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H952">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I952">
+        <v>1</v>
+      </c>
+      <c r="J952" t="s">
+        <v>55</v>
+      </c>
+      <c r="K952">
+        <v>2.875</v>
+      </c>
+      <c r="L952">
         <v>3</v>
       </c>
-      <c r="J952" t="s">
-        <v>56</v>
-      </c>
-      <c r="K952">
-        <v>2.5</v>
-      </c>
-      <c r="L952">
-        <v>2.8</v>
-      </c>
       <c r="M952">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="N952">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="O952">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P952">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="Q952">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R952">
+        <v>1.75</v>
+      </c>
+      <c r="S952">
         <v>2.05</v>
       </c>
-      <c r="S952">
-        <v>1.75</v>
-      </c>
       <c r="T952">
         <v>2</v>
       </c>
       <c r="U952">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V952">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W952">
         <v>-1</v>
       </c>
       <c r="X952">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y952">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z952">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AA952">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AB952">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC952">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="953" spans="1:29">
@@ -85282,7 +85282,7 @@
         <v>951</v>
       </c>
       <c r="B953">
-        <v>7217680</v>
+        <v>7217677</v>
       </c>
       <c r="C953" t="s">
         <v>28</v>
@@ -85294,76 +85294,76 @@
         <v>45274.58333333334</v>
       </c>
       <c r="F953" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G953" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="H953">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I953">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J953" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K953">
-        <v>2.3</v>
+        <v>1.25</v>
       </c>
       <c r="L953">
+        <v>5</v>
+      </c>
+      <c r="M953">
+        <v>9</v>
+      </c>
+      <c r="N953">
+        <v>1.166</v>
+      </c>
+      <c r="O953">
+        <v>7</v>
+      </c>
+      <c r="P953">
+        <v>11</v>
+      </c>
+      <c r="Q953">
+        <v>-2</v>
+      </c>
+      <c r="R953">
+        <v>1.95</v>
+      </c>
+      <c r="S953">
+        <v>1.85</v>
+      </c>
+      <c r="T953">
         <v>3</v>
       </c>
-      <c r="M953">
-        <v>2.875</v>
-      </c>
-      <c r="N953">
-        <v>2.875</v>
-      </c>
-      <c r="O953">
-        <v>3.2</v>
-      </c>
-      <c r="P953">
-        <v>2.375</v>
-      </c>
-      <c r="Q953">
-        <v>0.25</v>
-      </c>
-      <c r="R953">
-        <v>1.75</v>
-      </c>
-      <c r="S953">
-        <v>2.05</v>
-      </c>
-      <c r="T953">
-        <v>2.5</v>
-      </c>
       <c r="U953">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V953">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W953">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X953">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y953">
         <v>-1</v>
       </c>
       <c r="Z953">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA953">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB953">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC953">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="954" spans="1:29">
@@ -85371,7 +85371,7 @@
         <v>952</v>
       </c>
       <c r="B954">
-        <v>7217677</v>
+        <v>7217680</v>
       </c>
       <c r="C954" t="s">
         <v>28</v>
@@ -85383,76 +85383,76 @@
         <v>45274.58333333334</v>
       </c>
       <c r="F954" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G954" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="H954">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I954">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J954" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K954">
-        <v>1.25</v>
+        <v>2.3</v>
       </c>
       <c r="L954">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M954">
-        <v>9</v>
+        <v>2.875</v>
       </c>
       <c r="N954">
-        <v>1.166</v>
+        <v>2.875</v>
       </c>
       <c r="O954">
-        <v>7</v>
+        <v>3.2</v>
       </c>
       <c r="P954">
-        <v>11</v>
+        <v>2.375</v>
       </c>
       <c r="Q954">
-        <v>-2</v>
+        <v>0.25</v>
       </c>
       <c r="R954">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S954">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T954">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U954">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V954">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W954">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X954">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Y954">
         <v>-1</v>
       </c>
       <c r="Z954">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA954">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB954">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC954">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="955" spans="1:29">
@@ -85549,7 +85549,7 @@
         <v>954</v>
       </c>
       <c r="B956">
-        <v>7549592</v>
+        <v>7549591</v>
       </c>
       <c r="C956" t="s">
         <v>28</v>
@@ -85561,10 +85561,10 @@
         <v>45275.54166666666</v>
       </c>
       <c r="F956" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="G956" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H956">
         <v>1</v>
@@ -85576,40 +85576,40 @@
         <v>56</v>
       </c>
       <c r="K956">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="L956">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="M956">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="N956">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="O956">
         <v>2.75</v>
       </c>
       <c r="P956">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q956">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R956">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="S956">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="T956">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U956">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V956">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W956">
         <v>-1</v>
@@ -85618,16 +85618,16 @@
         <v>-1</v>
       </c>
       <c r="Y956">
-        <v>2.5</v>
+        <v>1.45</v>
       </c>
       <c r="Z956">
         <v>-1</v>
       </c>
       <c r="AA956">
-        <v>0.8999999999999999</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB956">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC956">
         <v>-1</v>
@@ -85638,7 +85638,7 @@
         <v>955</v>
       </c>
       <c r="B957">
-        <v>7549591</v>
+        <v>7549592</v>
       </c>
       <c r="C957" t="s">
         <v>28</v>
@@ -85650,10 +85650,10 @@
         <v>45275.54166666666</v>
       </c>
       <c r="F957" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G957" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H957">
         <v>1</v>
@@ -85665,40 +85665,40 @@
         <v>56</v>
       </c>
       <c r="K957">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="L957">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="M957">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="N957">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="O957">
         <v>2.75</v>
       </c>
       <c r="P957">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="Q957">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R957">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="S957">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="T957">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U957">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V957">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W957">
         <v>-1</v>
@@ -85707,16 +85707,16 @@
         <v>-1</v>
       </c>
       <c r="Y957">
-        <v>1.45</v>
+        <v>2.5</v>
       </c>
       <c r="Z957">
         <v>-1</v>
       </c>
       <c r="AA957">
-        <v>0.7250000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB957">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC957">
         <v>-1</v>

--- a/Egypt Division 1/Egypt Division 1.xlsx
+++ b/Egypt Division 1/Egypt Division 1.xlsx
@@ -28233,7 +28233,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>4226770</v>
+        <v>4226769</v>
       </c>
       <c r="C312" t="s">
         <v>28</v>
@@ -28245,76 +28245,76 @@
         <v>44522.625</v>
       </c>
       <c r="F312" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G312" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I312">
+        <v>1</v>
+      </c>
+      <c r="J312" t="s">
+        <v>55</v>
+      </c>
+      <c r="K312">
+        <v>1.285</v>
+      </c>
+      <c r="L312">
+        <v>4.75</v>
+      </c>
+      <c r="M312">
+        <v>9</v>
+      </c>
+      <c r="N312">
+        <v>1.5</v>
+      </c>
+      <c r="O312">
+        <v>4</v>
+      </c>
+      <c r="P312">
+        <v>5.5</v>
+      </c>
+      <c r="Q312">
+        <v>-1</v>
+      </c>
+      <c r="R312">
+        <v>1.85</v>
+      </c>
+      <c r="S312">
+        <v>1.95</v>
+      </c>
+      <c r="T312">
+        <v>2.5</v>
+      </c>
+      <c r="U312">
+        <v>1.925</v>
+      </c>
+      <c r="V312">
+        <v>1.875</v>
+      </c>
+      <c r="W312">
+        <v>-1</v>
+      </c>
+      <c r="X312">
         <v>3</v>
       </c>
-      <c r="J312" t="s">
-        <v>56</v>
-      </c>
-      <c r="K312">
-        <v>3.6</v>
-      </c>
-      <c r="L312">
-        <v>3</v>
-      </c>
-      <c r="M312">
-        <v>2</v>
-      </c>
-      <c r="N312">
-        <v>3.25</v>
-      </c>
-      <c r="O312">
-        <v>2.9</v>
-      </c>
-      <c r="P312">
-        <v>2.15</v>
-      </c>
-      <c r="Q312">
-        <v>0.25</v>
-      </c>
-      <c r="R312">
-        <v>1.95</v>
-      </c>
-      <c r="S312">
-        <v>1.85</v>
-      </c>
-      <c r="T312">
-        <v>2.25</v>
-      </c>
-      <c r="U312">
-        <v>1.95</v>
-      </c>
-      <c r="V312">
-        <v>1.85</v>
-      </c>
-      <c r="W312">
-        <v>-1</v>
-      </c>
-      <c r="X312">
-        <v>-1</v>
-      </c>
       <c r="Y312">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z312">
         <v>-1</v>
       </c>
       <c r="AA312">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB312">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC312">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="313" spans="1:29">
@@ -28322,7 +28322,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>4226769</v>
+        <v>4226770</v>
       </c>
       <c r="C313" t="s">
         <v>28</v>
@@ -28334,76 +28334,76 @@
         <v>44522.625</v>
       </c>
       <c r="F313" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G313" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H313">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I313">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J313" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K313">
-        <v>1.285</v>
+        <v>3.6</v>
       </c>
       <c r="L313">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="M313">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="N313">
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
       <c r="O313">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="P313">
-        <v>5.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q313">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R313">
+        <v>1.95</v>
+      </c>
+      <c r="S313">
         <v>1.85</v>
       </c>
-      <c r="S313">
+      <c r="T313">
+        <v>2.25</v>
+      </c>
+      <c r="U313">
         <v>1.95</v>
       </c>
-      <c r="T313">
-        <v>2.5</v>
-      </c>
-      <c r="U313">
-        <v>1.925</v>
-      </c>
       <c r="V313">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W313">
         <v>-1</v>
       </c>
       <c r="X313">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y313">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z313">
         <v>-1</v>
       </c>
       <c r="AA313">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB313">
         <v>0.95</v>
       </c>
-      <c r="AB313">
-        <v>-1</v>
-      </c>
       <c r="AC313">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="314" spans="1:29">
@@ -35353,7 +35353,7 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>4656668</v>
+        <v>4656667</v>
       </c>
       <c r="C392" t="s">
         <v>28</v>
@@ -35365,73 +35365,73 @@
         <v>44666.6875</v>
       </c>
       <c r="F392" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G392" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J392" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K392">
-        <v>2.875</v>
+        <v>2.4</v>
       </c>
       <c r="L392">
         <v>2.875</v>
       </c>
       <c r="M392">
+        <v>2.875</v>
+      </c>
+      <c r="N392">
         <v>2.4</v>
       </c>
-      <c r="N392">
-        <v>3.8</v>
-      </c>
       <c r="O392">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="P392">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="Q392">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R392">
-        <v>1.775</v>
+        <v>1.725</v>
       </c>
       <c r="S392">
-        <v>2.025</v>
+        <v>2.075</v>
       </c>
       <c r="T392">
         <v>2</v>
       </c>
       <c r="U392">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V392">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W392">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X392">
         <v>-1</v>
       </c>
       <c r="Y392">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z392">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA392">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB392">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC392">
         <v>-1</v>
@@ -35442,7 +35442,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>4656667</v>
+        <v>4656668</v>
       </c>
       <c r="C393" t="s">
         <v>28</v>
@@ -35454,73 +35454,73 @@
         <v>44666.6875</v>
       </c>
       <c r="F393" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G393" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J393" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K393">
-        <v>2.4</v>
+        <v>2.875</v>
       </c>
       <c r="L393">
         <v>2.875</v>
       </c>
       <c r="M393">
-        <v>2.875</v>
+        <v>2.4</v>
       </c>
       <c r="N393">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="O393">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="P393">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="Q393">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R393">
-        <v>1.725</v>
+        <v>1.775</v>
       </c>
       <c r="S393">
-        <v>2.075</v>
+        <v>2.025</v>
       </c>
       <c r="T393">
         <v>2</v>
       </c>
       <c r="U393">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V393">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W393">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X393">
         <v>-1</v>
       </c>
       <c r="Y393">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z393">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA393">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB393">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC393">
         <v>-1</v>
@@ -35531,7 +35531,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>4656670</v>
+        <v>4656671</v>
       </c>
       <c r="C394" t="s">
         <v>28</v>
@@ -35543,76 +35543,76 @@
         <v>44669.6875</v>
       </c>
       <c r="F394" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="G394" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H394">
+        <v>0</v>
+      </c>
+      <c r="I394">
         <v>1</v>
       </c>
-      <c r="I394">
-        <v>0</v>
-      </c>
       <c r="J394" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K394">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="L394">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="M394">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="N394">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="O394">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="P394">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="Q394">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R394">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S394">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T394">
         <v>1.75</v>
       </c>
       <c r="U394">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="V394">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="W394">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X394">
         <v>-1</v>
       </c>
       <c r="Y394">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z394">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA394">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB394">
         <v>-1</v>
       </c>
       <c r="AC394">
-        <v>1.05</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="395" spans="1:29">
@@ -35709,7 +35709,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>4656671</v>
+        <v>4656670</v>
       </c>
       <c r="C396" t="s">
         <v>28</v>
@@ -35721,76 +35721,76 @@
         <v>44669.6875</v>
       </c>
       <c r="F396" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G396" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I396">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J396" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K396">
+        <v>2.1</v>
+      </c>
+      <c r="L396">
+        <v>2.875</v>
+      </c>
+      <c r="M396">
+        <v>3.5</v>
+      </c>
+      <c r="N396">
+        <v>2.55</v>
+      </c>
+      <c r="O396">
         <v>2.8</v>
       </c>
-      <c r="L396">
+      <c r="P396">
         <v>2.8</v>
       </c>
-      <c r="M396">
-        <v>2.5</v>
-      </c>
-      <c r="N396">
-        <v>3.25</v>
-      </c>
-      <c r="O396">
-        <v>2.75</v>
-      </c>
-      <c r="P396">
-        <v>2.3</v>
-      </c>
       <c r="Q396">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R396">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S396">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T396">
         <v>1.75</v>
       </c>
       <c r="U396">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="V396">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="W396">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X396">
         <v>-1</v>
       </c>
       <c r="Y396">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z396">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA396">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB396">
         <v>-1</v>
       </c>
       <c r="AC396">
-        <v>0.7749999999999999</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="397" spans="1:29">
@@ -35798,7 +35798,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>4656672</v>
+        <v>4656674</v>
       </c>
       <c r="C397" t="s">
         <v>28</v>
@@ -35810,76 +35810,76 @@
         <v>44670.6875</v>
       </c>
       <c r="F397" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G397" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I397">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J397" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K397">
-        <v>4.75</v>
+        <v>2.55</v>
       </c>
       <c r="L397">
+        <v>2.7</v>
+      </c>
+      <c r="M397">
+        <v>2.9</v>
+      </c>
+      <c r="N397">
+        <v>2.5</v>
+      </c>
+      <c r="O397">
+        <v>2.55</v>
+      </c>
+      <c r="P397">
         <v>3.1</v>
       </c>
-      <c r="M397">
+      <c r="Q397">
+        <v>0</v>
+      </c>
+      <c r="R397">
         <v>1.75</v>
       </c>
-      <c r="N397">
-        <v>4.75</v>
-      </c>
-      <c r="O397">
-        <v>3.1</v>
-      </c>
-      <c r="P397">
+      <c r="S397">
+        <v>2.05</v>
+      </c>
+      <c r="T397">
         <v>1.75</v>
       </c>
-      <c r="Q397">
+      <c r="U397">
+        <v>1.825</v>
+      </c>
+      <c r="V397">
+        <v>1.975</v>
+      </c>
+      <c r="W397">
+        <v>1.5</v>
+      </c>
+      <c r="X397">
+        <v>-1</v>
+      </c>
+      <c r="Y397">
+        <v>-1</v>
+      </c>
+      <c r="Z397">
         <v>0.75</v>
       </c>
-      <c r="R397">
-        <v>1.775</v>
-      </c>
-      <c r="S397">
-        <v>2.025</v>
-      </c>
-      <c r="T397">
-        <v>2.25</v>
-      </c>
-      <c r="U397">
-        <v>1.95</v>
-      </c>
-      <c r="V397">
-        <v>1.85</v>
-      </c>
-      <c r="W397">
-        <v>-1</v>
-      </c>
-      <c r="X397">
-        <v>-1</v>
-      </c>
-      <c r="Y397">
-        <v>0.75</v>
-      </c>
-      <c r="Z397">
-        <v>-1</v>
-      </c>
       <c r="AA397">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB397">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC397">
-        <v>0.425</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="398" spans="1:29">
@@ -35887,7 +35887,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>4656674</v>
+        <v>4656672</v>
       </c>
       <c r="C398" t="s">
         <v>28</v>
@@ -35899,76 +35899,76 @@
         <v>44670.6875</v>
       </c>
       <c r="F398" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G398" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H398">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I398">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J398" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K398">
-        <v>2.55</v>
+        <v>4.75</v>
       </c>
       <c r="L398">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="M398">
-        <v>2.9</v>
+        <v>1.75</v>
       </c>
       <c r="N398">
-        <v>2.5</v>
+        <v>4.75</v>
       </c>
       <c r="O398">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="P398">
-        <v>3.1</v>
+        <v>1.75</v>
       </c>
       <c r="Q398">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R398">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="S398">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T398">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U398">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V398">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W398">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X398">
         <v>-1</v>
       </c>
       <c r="Y398">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z398">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA398">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB398">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC398">
-        <v>0.9750000000000001</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="399" spans="1:29">
@@ -36065,7 +36065,7 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>4656678</v>
+        <v>4656679</v>
       </c>
       <c r="C400" t="s">
         <v>28</v>
@@ -36077,58 +36077,58 @@
         <v>44676.6875</v>
       </c>
       <c r="F400" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G400" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H400">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I400">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J400" t="s">
         <v>54</v>
       </c>
       <c r="K400">
-        <v>1.666</v>
+        <v>1.7</v>
       </c>
       <c r="L400">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M400">
         <v>4.75</v>
       </c>
       <c r="N400">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="O400">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P400">
         <v>4.75</v>
       </c>
       <c r="Q400">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R400">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S400">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T400">
         <v>2.25</v>
       </c>
       <c r="U400">
+        <v>1.95</v>
+      </c>
+      <c r="V400">
         <v>1.85</v>
       </c>
-      <c r="V400">
-        <v>1.95</v>
-      </c>
       <c r="W400">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="X400">
         <v>-1</v>
@@ -36137,16 +36137,16 @@
         <v>-1</v>
       </c>
       <c r="Z400">
-        <v>0.4875</v>
+        <v>0.8</v>
       </c>
       <c r="AA400">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB400">
+        <v>-1</v>
+      </c>
+      <c r="AC400">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC400">
-        <v>-1</v>
       </c>
     </row>
     <row r="401" spans="1:29">
@@ -36154,7 +36154,7 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>4656680</v>
+        <v>4656678</v>
       </c>
       <c r="C401" t="s">
         <v>28</v>
@@ -36166,76 +36166,76 @@
         <v>44676.6875</v>
       </c>
       <c r="F401" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G401" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H401">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I401">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J401" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K401">
-        <v>2.45</v>
+        <v>1.666</v>
       </c>
       <c r="L401">
-        <v>2.7</v>
+        <v>3.25</v>
       </c>
       <c r="M401">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="N401">
-        <v>2.55</v>
+        <v>1.7</v>
       </c>
       <c r="O401">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="P401">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q401">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R401">
-        <v>1.7</v>
+        <v>1.975</v>
       </c>
       <c r="S401">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="T401">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U401">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V401">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W401">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X401">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Y401">
         <v>-1</v>
       </c>
       <c r="Z401">
-        <v>0</v>
+        <v>0.4875</v>
       </c>
       <c r="AA401">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB401">
-        <v>0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC401">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="402" spans="1:29">
@@ -36243,7 +36243,7 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>4656679</v>
+        <v>4656680</v>
       </c>
       <c r="C402" t="s">
         <v>28</v>
@@ -36255,76 +36255,76 @@
         <v>44676.6875</v>
       </c>
       <c r="F402" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G402" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="H402">
         <v>1</v>
       </c>
       <c r="I402">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J402" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K402">
+        <v>2.45</v>
+      </c>
+      <c r="L402">
+        <v>2.7</v>
+      </c>
+      <c r="M402">
+        <v>3.1</v>
+      </c>
+      <c r="N402">
+        <v>2.55</v>
+      </c>
+      <c r="O402">
+        <v>2.5</v>
+      </c>
+      <c r="P402">
+        <v>3.2</v>
+      </c>
+      <c r="Q402">
+        <v>0</v>
+      </c>
+      <c r="R402">
         <v>1.7</v>
       </c>
-      <c r="L402">
-        <v>3.1</v>
-      </c>
-      <c r="M402">
-        <v>4.75</v>
-      </c>
-      <c r="N402">
+      <c r="S402">
+        <v>2.1</v>
+      </c>
+      <c r="T402">
         <v>1.75</v>
       </c>
-      <c r="O402">
-        <v>3.1</v>
-      </c>
-      <c r="P402">
-        <v>4.75</v>
-      </c>
-      <c r="Q402">
+      <c r="U402">
+        <v>2</v>
+      </c>
+      <c r="V402">
+        <v>1.8</v>
+      </c>
+      <c r="W402">
+        <v>-1</v>
+      </c>
+      <c r="X402">
+        <v>1.5</v>
+      </c>
+      <c r="Y402">
+        <v>-1</v>
+      </c>
+      <c r="Z402">
+        <v>0</v>
+      </c>
+      <c r="AA402">
+        <v>-0</v>
+      </c>
+      <c r="AB402">
+        <v>0.5</v>
+      </c>
+      <c r="AC402">
         <v>-0.5</v>
-      </c>
-      <c r="R402">
-        <v>1.8</v>
-      </c>
-      <c r="S402">
-        <v>2</v>
-      </c>
-      <c r="T402">
-        <v>2.25</v>
-      </c>
-      <c r="U402">
-        <v>1.95</v>
-      </c>
-      <c r="V402">
-        <v>1.85</v>
-      </c>
-      <c r="W402">
-        <v>0.75</v>
-      </c>
-      <c r="X402">
-        <v>-1</v>
-      </c>
-      <c r="Y402">
-        <v>-1</v>
-      </c>
-      <c r="Z402">
-        <v>0.8</v>
-      </c>
-      <c r="AA402">
-        <v>-1</v>
-      </c>
-      <c r="AB402">
-        <v>-1</v>
-      </c>
-      <c r="AC402">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="403" spans="1:29">
@@ -36332,7 +36332,7 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>4656681</v>
+        <v>4656682</v>
       </c>
       <c r="C403" t="s">
         <v>28</v>
@@ -36344,76 +36344,76 @@
         <v>44677.6875</v>
       </c>
       <c r="F403" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G403" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="H403">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I403">
         <v>1</v>
       </c>
       <c r="J403" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K403">
-        <v>2.7</v>
+        <v>1.85</v>
       </c>
       <c r="L403">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M403">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="N403">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="O403">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="P403">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="Q403">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R403">
-        <v>2.075</v>
+        <v>2.05</v>
       </c>
       <c r="S403">
-        <v>1.725</v>
+        <v>1.75</v>
       </c>
       <c r="T403">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U403">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V403">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W403">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X403">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y403">
         <v>-1</v>
       </c>
       <c r="Z403">
-        <v>0</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA403">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB403">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC403">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="404" spans="1:29">
@@ -36421,7 +36421,7 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>4656682</v>
+        <v>4656683</v>
       </c>
       <c r="C404" t="s">
         <v>28</v>
@@ -36433,76 +36433,76 @@
         <v>44677.6875</v>
       </c>
       <c r="F404" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G404" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J404" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K404">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="L404">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="M404">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="N404">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="O404">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="P404">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q404">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R404">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S404">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T404">
+        <v>2</v>
+      </c>
+      <c r="U404">
+        <v>1.975</v>
+      </c>
+      <c r="V404">
+        <v>1.825</v>
+      </c>
+      <c r="W404">
+        <v>-1</v>
+      </c>
+      <c r="X404">
+        <v>-1</v>
+      </c>
+      <c r="Y404">
         <v>2.5</v>
       </c>
-      <c r="U404">
-        <v>1.875</v>
-      </c>
-      <c r="V404">
-        <v>1.925</v>
-      </c>
-      <c r="W404">
-        <v>0.8</v>
-      </c>
-      <c r="X404">
-        <v>-1</v>
-      </c>
-      <c r="Y404">
-        <v>-1</v>
-      </c>
       <c r="Z404">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA404">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB404">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC404">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="405" spans="1:29">
@@ -36510,7 +36510,7 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>4656683</v>
+        <v>4656681</v>
       </c>
       <c r="C405" t="s">
         <v>28</v>
@@ -36522,70 +36522,70 @@
         <v>44677.6875</v>
       </c>
       <c r="F405" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G405" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I405">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J405" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K405">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="L405">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="M405">
-        <v>3.3</v>
+        <v>2.55</v>
       </c>
       <c r="N405">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="O405">
         <v>2.8</v>
       </c>
       <c r="P405">
-        <v>3.5</v>
+        <v>2.375</v>
       </c>
       <c r="Q405">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R405">
-        <v>1.925</v>
+        <v>2.075</v>
       </c>
       <c r="S405">
-        <v>1.875</v>
+        <v>1.725</v>
       </c>
       <c r="T405">
         <v>2</v>
       </c>
       <c r="U405">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V405">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W405">
         <v>-1</v>
       </c>
       <c r="X405">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y405">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z405">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA405">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB405">
         <v>0</v>
@@ -36599,7 +36599,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>4656684</v>
+        <v>4656685</v>
       </c>
       <c r="C406" t="s">
         <v>28</v>
@@ -36611,76 +36611,76 @@
         <v>44678.6875</v>
       </c>
       <c r="F406" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G406" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H406">
         <v>0</v>
       </c>
       <c r="I406">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J406" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K406">
-        <v>1.333</v>
+        <v>2</v>
       </c>
       <c r="L406">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="M406">
-        <v>9</v>
+        <v>3.8</v>
       </c>
       <c r="N406">
-        <v>1.4</v>
+        <v>1.666</v>
       </c>
       <c r="O406">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P406">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="Q406">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R406">
+        <v>1.975</v>
+      </c>
+      <c r="S406">
+        <v>1.825</v>
+      </c>
+      <c r="T406">
+        <v>2.25</v>
+      </c>
+      <c r="U406">
+        <v>1.775</v>
+      </c>
+      <c r="V406">
         <v>2.025</v>
       </c>
-      <c r="S406">
-        <v>1.775</v>
-      </c>
-      <c r="T406">
-        <v>2</v>
-      </c>
-      <c r="U406">
-        <v>1.825</v>
-      </c>
-      <c r="V406">
-        <v>1.975</v>
-      </c>
       <c r="W406">
         <v>-1</v>
       </c>
       <c r="X406">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y406">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z406">
         <v>-1</v>
       </c>
       <c r="AA406">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB406">
         <v>-1</v>
       </c>
       <c r="AC406">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="407" spans="1:29">
@@ -36688,7 +36688,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>4656685</v>
+        <v>4656684</v>
       </c>
       <c r="C407" t="s">
         <v>28</v>
@@ -36700,76 +36700,76 @@
         <v>44678.6875</v>
       </c>
       <c r="F407" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G407" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H407">
         <v>0</v>
       </c>
       <c r="I407">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J407" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K407">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="L407">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="M407">
+        <v>9</v>
+      </c>
+      <c r="N407">
+        <v>1.4</v>
+      </c>
+      <c r="O407">
         <v>3.8</v>
       </c>
-      <c r="N407">
-        <v>1.666</v>
-      </c>
-      <c r="O407">
-        <v>3.3</v>
-      </c>
       <c r="P407">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="Q407">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R407">
+        <v>2.025</v>
+      </c>
+      <c r="S407">
+        <v>1.775</v>
+      </c>
+      <c r="T407">
+        <v>2</v>
+      </c>
+      <c r="U407">
+        <v>1.825</v>
+      </c>
+      <c r="V407">
         <v>1.975</v>
       </c>
-      <c r="S407">
-        <v>1.825</v>
-      </c>
-      <c r="T407">
-        <v>2.25</v>
-      </c>
-      <c r="U407">
-        <v>1.775</v>
-      </c>
-      <c r="V407">
-        <v>2.025</v>
-      </c>
       <c r="W407">
         <v>-1</v>
       </c>
       <c r="X407">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y407">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z407">
         <v>-1</v>
       </c>
       <c r="AA407">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB407">
         <v>-1</v>
       </c>
       <c r="AC407">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="408" spans="1:29">
@@ -36866,7 +36866,7 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>4656687</v>
+        <v>4656686</v>
       </c>
       <c r="C409" t="s">
         <v>28</v>
@@ -36878,76 +36878,76 @@
         <v>44680.6875</v>
       </c>
       <c r="F409" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="G409" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="H409">
         <v>0</v>
       </c>
       <c r="I409">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J409" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K409">
-        <v>2.9</v>
+        <v>6.5</v>
       </c>
       <c r="L409">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="M409">
-        <v>2.6</v>
+        <v>1.571</v>
       </c>
       <c r="N409">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="O409">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="P409">
-        <v>2.6</v>
+        <v>1.615</v>
       </c>
       <c r="Q409">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R409">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S409">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="T409">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U409">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V409">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W409">
         <v>-1</v>
       </c>
       <c r="X409">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Y409">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z409">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA409">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB409">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC409">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="410" spans="1:29">
@@ -37044,7 +37044,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>4656686</v>
+        <v>4656687</v>
       </c>
       <c r="C411" t="s">
         <v>28</v>
@@ -37056,76 +37056,76 @@
         <v>44680.6875</v>
       </c>
       <c r="F411" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="G411" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="H411">
         <v>0</v>
       </c>
       <c r="I411">
+        <v>0</v>
+      </c>
+      <c r="J411" t="s">
+        <v>55</v>
+      </c>
+      <c r="K411">
+        <v>2.9</v>
+      </c>
+      <c r="L411">
+        <v>2.8</v>
+      </c>
+      <c r="M411">
+        <v>2.6</v>
+      </c>
+      <c r="N411">
         <v>3</v>
       </c>
-      <c r="J411" t="s">
-        <v>56</v>
-      </c>
-      <c r="K411">
-        <v>6.5</v>
-      </c>
-      <c r="L411">
-        <v>3.4</v>
-      </c>
-      <c r="M411">
-        <v>1.571</v>
-      </c>
-      <c r="N411">
-        <v>5.5</v>
-      </c>
       <c r="O411">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="P411">
-        <v>1.615</v>
+        <v>2.6</v>
       </c>
       <c r="Q411">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R411">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S411">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="T411">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U411">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V411">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W411">
         <v>-1</v>
       </c>
       <c r="X411">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Y411">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Z411">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA411">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB411">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC411">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="412" spans="1:29">
@@ -43274,7 +43274,7 @@
         <v>479</v>
       </c>
       <c r="B481">
-        <v>5035637</v>
+        <v>5035636</v>
       </c>
       <c r="C481" t="s">
         <v>28</v>
@@ -43286,76 +43286,76 @@
         <v>44755.5625</v>
       </c>
       <c r="F481" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G481" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="H481">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I481">
         <v>0</v>
       </c>
       <c r="J481" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K481">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="L481">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M481">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="N481">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="O481">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="P481">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="Q481">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R481">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="S481">
-        <v>2.075</v>
+        <v>1.925</v>
       </c>
       <c r="T481">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U481">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V481">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W481">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X481">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y481">
         <v>-1</v>
       </c>
       <c r="Z481">
-        <v>0.7250000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA481">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB481">
         <v>-1</v>
       </c>
       <c r="AC481">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="482" spans="1:29">
@@ -43363,7 +43363,7 @@
         <v>480</v>
       </c>
       <c r="B482">
-        <v>5035636</v>
+        <v>5035637</v>
       </c>
       <c r="C482" t="s">
         <v>28</v>
@@ -43375,76 +43375,76 @@
         <v>44755.5625</v>
       </c>
       <c r="F482" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G482" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I482">
         <v>0</v>
       </c>
       <c r="J482" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K482">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="L482">
+        <v>3.1</v>
+      </c>
+      <c r="M482">
+        <v>2.8</v>
+      </c>
+      <c r="N482">
+        <v>2.4</v>
+      </c>
+      <c r="O482">
         <v>3</v>
       </c>
-      <c r="M482">
-        <v>3.4</v>
-      </c>
-      <c r="N482">
-        <v>2.15</v>
-      </c>
-      <c r="O482">
-        <v>2.7</v>
-      </c>
       <c r="P482">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="Q482">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R482">
-        <v>1.875</v>
+        <v>1.725</v>
       </c>
       <c r="S482">
-        <v>1.925</v>
+        <v>2.075</v>
       </c>
       <c r="T482">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U482">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V482">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W482">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X482">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y482">
         <v>-1</v>
       </c>
       <c r="Z482">
-        <v>-0.5</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA482">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB482">
         <v>-1</v>
       </c>
       <c r="AC482">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="483" spans="1:29">
@@ -43986,7 +43986,7 @@
         <v>487</v>
       </c>
       <c r="B489">
-        <v>5036709</v>
+        <v>5035638</v>
       </c>
       <c r="C489" t="s">
         <v>28</v>
@@ -43998,76 +43998,76 @@
         <v>44759.5625</v>
       </c>
       <c r="F489" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G489" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H489">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489">
         <v>1</v>
       </c>
       <c r="J489" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K489">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L489">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="M489">
+        <v>3.4</v>
+      </c>
+      <c r="N489">
+        <v>2.3</v>
+      </c>
+      <c r="O489">
+        <v>3.1</v>
+      </c>
+      <c r="P489">
+        <v>2.75</v>
+      </c>
+      <c r="Q489">
+        <v>-0.25</v>
+      </c>
+      <c r="R489">
+        <v>2.025</v>
+      </c>
+      <c r="S489">
+        <v>1.775</v>
+      </c>
+      <c r="T489">
         <v>2.5</v>
       </c>
-      <c r="N489">
-        <v>3.1</v>
-      </c>
-      <c r="O489">
-        <v>2.5</v>
-      </c>
-      <c r="P489">
-        <v>2.55</v>
-      </c>
-      <c r="Q489">
-        <v>0</v>
-      </c>
-      <c r="R489">
-        <v>2.1</v>
-      </c>
-      <c r="S489">
-        <v>1.7</v>
-      </c>
-      <c r="T489">
+      <c r="U489">
+        <v>2</v>
+      </c>
+      <c r="V489">
+        <v>1.8</v>
+      </c>
+      <c r="W489">
+        <v>-1</v>
+      </c>
+      <c r="X489">
+        <v>-1</v>
+      </c>
+      <c r="Y489">
         <v>1.75</v>
       </c>
-      <c r="U489">
-        <v>1.9</v>
-      </c>
-      <c r="V489">
-        <v>1.9</v>
-      </c>
-      <c r="W489">
-        <v>2.1</v>
-      </c>
-      <c r="X489">
-        <v>-1</v>
-      </c>
-      <c r="Y489">
-        <v>-1</v>
-      </c>
       <c r="Z489">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA489">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB489">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC489">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="490" spans="1:29">
@@ -44075,7 +44075,7 @@
         <v>488</v>
       </c>
       <c r="B490">
-        <v>5035638</v>
+        <v>5036709</v>
       </c>
       <c r="C490" t="s">
         <v>28</v>
@@ -44087,76 +44087,76 @@
         <v>44759.5625</v>
       </c>
       <c r="F490" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G490" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490">
         <v>1</v>
       </c>
       <c r="J490" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K490">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L490">
+        <v>2.625</v>
+      </c>
+      <c r="M490">
+        <v>2.5</v>
+      </c>
+      <c r="N490">
         <v>3.1</v>
       </c>
-      <c r="M490">
-        <v>3.4</v>
-      </c>
-      <c r="N490">
-        <v>2.3</v>
-      </c>
       <c r="O490">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="P490">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="Q490">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R490">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="S490">
-        <v>1.775</v>
+        <v>1.7</v>
       </c>
       <c r="T490">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U490">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V490">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W490">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X490">
         <v>-1</v>
       </c>
       <c r="Y490">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z490">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA490">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB490">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC490">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="491" spans="1:29">
@@ -44342,7 +44342,7 @@
         <v>491</v>
       </c>
       <c r="B493">
-        <v>5036712</v>
+        <v>5035639</v>
       </c>
       <c r="C493" t="s">
         <v>28</v>
@@ -44354,76 +44354,76 @@
         <v>44760.66666666666</v>
       </c>
       <c r="F493" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G493" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H493">
         <v>0</v>
       </c>
       <c r="I493">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J493" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K493">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="L493">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="M493">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="N493">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="O493">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P493">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="Q493">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R493">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S493">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T493">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U493">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V493">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W493">
         <v>-1</v>
       </c>
       <c r="X493">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y493">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z493">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA493">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB493">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC493">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="494" spans="1:29">
@@ -44431,7 +44431,7 @@
         <v>492</v>
       </c>
       <c r="B494">
-        <v>5035639</v>
+        <v>5036712</v>
       </c>
       <c r="C494" t="s">
         <v>28</v>
@@ -44443,76 +44443,76 @@
         <v>44760.66666666666</v>
       </c>
       <c r="F494" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G494" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H494">
         <v>0</v>
       </c>
       <c r="I494">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J494" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K494">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="L494">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="M494">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="N494">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="O494">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P494">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="Q494">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R494">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S494">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T494">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U494">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V494">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W494">
         <v>-1</v>
       </c>
       <c r="X494">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y494">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z494">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA494">
+        <v>0.95</v>
+      </c>
+      <c r="AB494">
+        <v>0</v>
+      </c>
+      <c r="AC494">
         <v>-0</v>
-      </c>
-      <c r="AB494">
-        <v>-1</v>
-      </c>
-      <c r="AC494">
-        <v>0.925</v>
       </c>
     </row>
     <row r="495" spans="1:29">
@@ -45588,7 +45588,7 @@
         <v>505</v>
       </c>
       <c r="B507">
-        <v>5035643</v>
+        <v>5036089</v>
       </c>
       <c r="C507" t="s">
         <v>28</v>
@@ -45600,76 +45600,76 @@
         <v>44769.5625</v>
       </c>
       <c r="F507" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G507" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H507">
         <v>1</v>
       </c>
       <c r="I507">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J507" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K507">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="L507">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="M507">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="N507">
-        <v>2.4</v>
+        <v>1.363</v>
       </c>
       <c r="O507">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="P507">
-        <v>2.7</v>
+        <v>6.5</v>
       </c>
       <c r="Q507">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R507">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S507">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T507">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U507">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V507">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W507">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X507">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y507">
         <v>-1</v>
       </c>
       <c r="Z507">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA507">
-        <v>-0</v>
+        <v>0.4625</v>
       </c>
       <c r="AB507">
         <v>-1</v>
       </c>
       <c r="AC507">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="508" spans="1:29">
@@ -45677,7 +45677,7 @@
         <v>506</v>
       </c>
       <c r="B508">
-        <v>5036089</v>
+        <v>5035643</v>
       </c>
       <c r="C508" t="s">
         <v>28</v>
@@ -45689,76 +45689,76 @@
         <v>44769.5625</v>
       </c>
       <c r="F508" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G508" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H508">
         <v>1</v>
       </c>
       <c r="I508">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J508" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K508">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="L508">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="M508">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="N508">
-        <v>1.363</v>
+        <v>2.4</v>
       </c>
       <c r="O508">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="P508">
-        <v>6.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q508">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R508">
+        <v>1.775</v>
+      </c>
+      <c r="S508">
+        <v>2.025</v>
+      </c>
+      <c r="T508">
+        <v>2.5</v>
+      </c>
+      <c r="U508">
         <v>1.875</v>
       </c>
-      <c r="S508">
+      <c r="V508">
         <v>1.925</v>
       </c>
-      <c r="T508">
-        <v>2.75</v>
-      </c>
-      <c r="U508">
-        <v>1.95</v>
-      </c>
-      <c r="V508">
-        <v>1.85</v>
-      </c>
       <c r="W508">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X508">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y508">
         <v>-1</v>
       </c>
       <c r="Z508">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA508">
-        <v>0.4625</v>
+        <v>-0</v>
       </c>
       <c r="AB508">
         <v>-1</v>
       </c>
       <c r="AC508">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="509" spans="1:29">
@@ -45855,7 +45855,7 @@
         <v>508</v>
       </c>
       <c r="B510">
-        <v>5036720</v>
+        <v>5036721</v>
       </c>
       <c r="C510" t="s">
         <v>28</v>
@@ -45867,55 +45867,55 @@
         <v>44770.5625</v>
       </c>
       <c r="F510" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G510" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H510">
         <v>0</v>
       </c>
       <c r="I510">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J510" t="s">
         <v>56</v>
       </c>
       <c r="K510">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="L510">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="M510">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="N510">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="O510">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="P510">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q510">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R510">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="S510">
-        <v>1.85</v>
+        <v>2.075</v>
       </c>
       <c r="T510">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U510">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V510">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W510">
         <v>-1</v>
@@ -45924,19 +45924,19 @@
         <v>-1</v>
       </c>
       <c r="Y510">
-        <v>1.75</v>
+        <v>1.375</v>
       </c>
       <c r="Z510">
         <v>-1</v>
       </c>
       <c r="AA510">
-        <v>0.8500000000000001</v>
+        <v>1.075</v>
       </c>
       <c r="AB510">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC510">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="511" spans="1:29">
@@ -45944,7 +45944,7 @@
         <v>509</v>
       </c>
       <c r="B511">
-        <v>5036721</v>
+        <v>5036720</v>
       </c>
       <c r="C511" t="s">
         <v>28</v>
@@ -45956,55 +45956,55 @@
         <v>44770.5625</v>
       </c>
       <c r="F511" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G511" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H511">
         <v>0</v>
       </c>
       <c r="I511">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J511" t="s">
         <v>56</v>
       </c>
       <c r="K511">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="L511">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="M511">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="N511">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="O511">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="P511">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="Q511">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R511">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="S511">
-        <v>2.075</v>
+        <v>1.85</v>
       </c>
       <c r="T511">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U511">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V511">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W511">
         <v>-1</v>
@@ -46013,19 +46013,19 @@
         <v>-1</v>
       </c>
       <c r="Y511">
-        <v>1.375</v>
+        <v>1.75</v>
       </c>
       <c r="Z511">
         <v>-1</v>
       </c>
       <c r="AA511">
-        <v>1.075</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB511">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC511">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="512" spans="1:29">
@@ -46300,7 +46300,7 @@
         <v>513</v>
       </c>
       <c r="B515">
-        <v>5036722</v>
+        <v>5035645</v>
       </c>
       <c r="C515" t="s">
         <v>28</v>
@@ -46312,76 +46312,76 @@
         <v>44773.5625</v>
       </c>
       <c r="F515" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G515" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I515">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J515" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K515">
-        <v>1.615</v>
+        <v>3</v>
       </c>
       <c r="L515">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="M515">
-        <v>5.25</v>
+        <v>2.375</v>
       </c>
       <c r="N515">
-        <v>1.75</v>
+        <v>2.7</v>
       </c>
       <c r="O515">
-        <v>3.25</v>
+        <v>2.7</v>
       </c>
       <c r="P515">
-        <v>4.333</v>
+        <v>2.6</v>
       </c>
       <c r="Q515">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R515">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S515">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T515">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U515">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V515">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W515">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X515">
         <v>-1</v>
       </c>
       <c r="Y515">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z515">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA515">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB515">
         <v>-1</v>
       </c>
       <c r="AC515">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="516" spans="1:29">
@@ -46389,7 +46389,7 @@
         <v>514</v>
       </c>
       <c r="B516">
-        <v>5035645</v>
+        <v>5036722</v>
       </c>
       <c r="C516" t="s">
         <v>28</v>
@@ -46401,76 +46401,76 @@
         <v>44773.5625</v>
       </c>
       <c r="F516" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G516" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="H516">
+        <v>0</v>
+      </c>
+      <c r="I516">
         <v>1</v>
       </c>
-      <c r="I516">
-        <v>0</v>
-      </c>
       <c r="J516" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K516">
-        <v>3</v>
+        <v>1.615</v>
       </c>
       <c r="L516">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="M516">
-        <v>2.375</v>
+        <v>5.25</v>
       </c>
       <c r="N516">
-        <v>2.7</v>
+        <v>1.75</v>
       </c>
       <c r="O516">
-        <v>2.7</v>
+        <v>3.25</v>
       </c>
       <c r="P516">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="Q516">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R516">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S516">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T516">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U516">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V516">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W516">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X516">
         <v>-1</v>
       </c>
       <c r="Y516">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z516">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA516">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB516">
         <v>-1</v>
       </c>
       <c r="AC516">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="517" spans="1:29">
@@ -46567,7 +46567,7 @@
         <v>516</v>
       </c>
       <c r="B518">
-        <v>5036724</v>
+        <v>5036725</v>
       </c>
       <c r="C518" t="s">
         <v>28</v>
@@ -46579,40 +46579,40 @@
         <v>44774.5625</v>
       </c>
       <c r="F518" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G518" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H518">
         <v>1</v>
       </c>
       <c r="I518">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J518" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K518">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="L518">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M518">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="N518">
-        <v>1.3</v>
+        <v>2.05</v>
       </c>
       <c r="O518">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="P518">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="Q518">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R518">
         <v>1.775</v>
@@ -46621,19 +46621,19 @@
         <v>2.025</v>
       </c>
       <c r="T518">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U518">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V518">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W518">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X518">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y518">
         <v>-1</v>
@@ -46645,10 +46645,10 @@
         <v>0.5125</v>
       </c>
       <c r="AB518">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC518">
-        <v>0.8500000000000001</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="519" spans="1:29">
@@ -46656,7 +46656,7 @@
         <v>517</v>
       </c>
       <c r="B519">
-        <v>5036725</v>
+        <v>5036724</v>
       </c>
       <c r="C519" t="s">
         <v>28</v>
@@ -46668,40 +46668,40 @@
         <v>44774.5625</v>
       </c>
       <c r="F519" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G519" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H519">
         <v>1</v>
       </c>
       <c r="I519">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J519" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K519">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L519">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M519">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="N519">
-        <v>2.05</v>
+        <v>1.3</v>
       </c>
       <c r="O519">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="P519">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="Q519">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R519">
         <v>1.775</v>
@@ -46710,19 +46710,19 @@
         <v>2.025</v>
       </c>
       <c r="T519">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U519">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V519">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W519">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X519">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y519">
         <v>-1</v>
@@ -46734,10 +46734,10 @@
         <v>0.5125</v>
       </c>
       <c r="AB519">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC519">
-        <v>0.3875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="520" spans="1:29">
@@ -47012,7 +47012,7 @@
         <v>521</v>
       </c>
       <c r="B523">
-        <v>5036727</v>
+        <v>5035646</v>
       </c>
       <c r="C523" t="s">
         <v>28</v>
@@ -47024,76 +47024,76 @@
         <v>44777.5625</v>
       </c>
       <c r="F523" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G523" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H523">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I523">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J523" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K523">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="L523">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M523">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="N523">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="O523">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P523">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="Q523">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R523">
+        <v>1.8</v>
+      </c>
+      <c r="S523">
+        <v>2</v>
+      </c>
+      <c r="T523">
+        <v>2.5</v>
+      </c>
+      <c r="U523">
         <v>2.025</v>
       </c>
-      <c r="S523">
+      <c r="V523">
         <v>1.775</v>
       </c>
-      <c r="T523">
-        <v>2.25</v>
-      </c>
-      <c r="U523">
-        <v>2</v>
-      </c>
-      <c r="V523">
-        <v>1.8</v>
-      </c>
       <c r="W523">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X523">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y523">
         <v>-1</v>
       </c>
       <c r="Z523">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA523">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB523">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC523">
-        <v>0.4</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="524" spans="1:29">
@@ -47101,7 +47101,7 @@
         <v>522</v>
       </c>
       <c r="B524">
-        <v>5035646</v>
+        <v>5036727</v>
       </c>
       <c r="C524" t="s">
         <v>28</v>
@@ -47113,76 +47113,76 @@
         <v>44777.5625</v>
       </c>
       <c r="F524" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G524" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="H524">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I524">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J524" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K524">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="L524">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M524">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="N524">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="O524">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P524">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="Q524">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R524">
+        <v>2.025</v>
+      </c>
+      <c r="S524">
+        <v>1.775</v>
+      </c>
+      <c r="T524">
+        <v>2.25</v>
+      </c>
+      <c r="U524">
+        <v>2</v>
+      </c>
+      <c r="V524">
         <v>1.8</v>
       </c>
-      <c r="S524">
-        <v>2</v>
-      </c>
-      <c r="T524">
-        <v>2.5</v>
-      </c>
-      <c r="U524">
-        <v>2.025</v>
-      </c>
-      <c r="V524">
-        <v>1.775</v>
-      </c>
       <c r="W524">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X524">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y524">
         <v>-1</v>
       </c>
       <c r="Z524">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA524">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB524">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC524">
-        <v>0.7749999999999999</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="525" spans="1:29">
@@ -51284,7 +51284,7 @@
         <v>569</v>
       </c>
       <c r="B571">
-        <v>5372584</v>
+        <v>5372571</v>
       </c>
       <c r="C571" t="s">
         <v>28</v>
@@ -51296,76 +51296,76 @@
         <v>44803.47916666666</v>
       </c>
       <c r="F571" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G571" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H571">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I571">
         <v>0</v>
       </c>
       <c r="J571" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K571">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="L571">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="M571">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="N571">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O571">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P571">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q571">
         <v>-0.25</v>
       </c>
       <c r="R571">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S571">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T571">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U571">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V571">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W571">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X571">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y571">
         <v>-1</v>
       </c>
       <c r="Z571">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AA571">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB571">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC571">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="572" spans="1:29">
@@ -51373,7 +51373,7 @@
         <v>570</v>
       </c>
       <c r="B572">
-        <v>5372571</v>
+        <v>5372584</v>
       </c>
       <c r="C572" t="s">
         <v>28</v>
@@ -51385,76 +51385,76 @@
         <v>44803.47916666666</v>
       </c>
       <c r="F572" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G572" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H572">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I572">
         <v>0</v>
       </c>
       <c r="J572" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K572">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="L572">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="M572">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="N572">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O572">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="P572">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q572">
         <v>-0.25</v>
       </c>
       <c r="R572">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S572">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T572">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U572">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V572">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W572">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X572">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y572">
         <v>-1</v>
       </c>
       <c r="Z572">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AA572">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB572">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC572">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="573" spans="1:29">
@@ -54221,7 +54221,7 @@
         <v>602</v>
       </c>
       <c r="B604">
-        <v>5774014</v>
+        <v>5774015</v>
       </c>
       <c r="C604" t="s">
         <v>28</v>
@@ -54233,76 +54233,76 @@
         <v>44888.5</v>
       </c>
       <c r="F604" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="G604" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H604">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I604">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J604" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K604">
-        <v>2.875</v>
+        <v>1.444</v>
       </c>
       <c r="L604">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="M604">
-        <v>2.7</v>
+        <v>6.5</v>
       </c>
       <c r="N604">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="O604">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="P604">
-        <v>2.625</v>
+        <v>5.25</v>
       </c>
       <c r="Q604">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R604">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="S604">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="T604">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U604">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V604">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W604">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X604">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y604">
         <v>-1</v>
       </c>
       <c r="Z604">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA604">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB604">
-        <v>0.4125</v>
+        <v>-0.5</v>
       </c>
       <c r="AC604">
-        <v>-0.5</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="605" spans="1:29">
@@ -54399,7 +54399,7 @@
         <v>604</v>
       </c>
       <c r="B606">
-        <v>5774015</v>
+        <v>5774014</v>
       </c>
       <c r="C606" t="s">
         <v>28</v>
@@ -54411,76 +54411,76 @@
         <v>44888.5</v>
       </c>
       <c r="F606" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="G606" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H606">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I606">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J606" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K606">
-        <v>1.444</v>
+        <v>2.875</v>
       </c>
       <c r="L606">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="M606">
-        <v>6.5</v>
+        <v>2.7</v>
       </c>
       <c r="N606">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="O606">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="P606">
-        <v>5.25</v>
+        <v>2.625</v>
       </c>
       <c r="Q606">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R606">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="S606">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="T606">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U606">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V606">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W606">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X606">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y606">
         <v>-1</v>
       </c>
       <c r="Z606">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA606">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB606">
+        <v>0.4125</v>
+      </c>
+      <c r="AC606">
         <v>-0.5</v>
-      </c>
-      <c r="AC606">
-        <v>0.4375</v>
       </c>
     </row>
     <row r="607" spans="1:29">
@@ -54488,7 +54488,7 @@
         <v>605</v>
       </c>
       <c r="B607">
-        <v>5774017</v>
+        <v>5774016</v>
       </c>
       <c r="C607" t="s">
         <v>28</v>
@@ -54500,46 +54500,46 @@
         <v>44895.40625</v>
       </c>
       <c r="F607" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="G607" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H607">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I607">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J607" t="s">
         <v>56</v>
       </c>
       <c r="K607">
-        <v>2.15</v>
+        <v>5.5</v>
       </c>
       <c r="L607">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="M607">
-        <v>3.5</v>
+        <v>1.55</v>
       </c>
       <c r="N607">
-        <v>1.833</v>
+        <v>7.5</v>
       </c>
       <c r="O607">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P607">
-        <v>4.333</v>
+        <v>1.444</v>
       </c>
       <c r="Q607">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R607">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S607">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T607">
         <v>2.25</v>
@@ -54557,19 +54557,19 @@
         <v>-1</v>
       </c>
       <c r="Y607">
-        <v>3.333</v>
+        <v>0.444</v>
       </c>
       <c r="Z607">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA607">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB607">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC607">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="608" spans="1:29">
@@ -54577,7 +54577,7 @@
         <v>606</v>
       </c>
       <c r="B608">
-        <v>5774016</v>
+        <v>5774017</v>
       </c>
       <c r="C608" t="s">
         <v>28</v>
@@ -54589,46 +54589,46 @@
         <v>44895.40625</v>
       </c>
       <c r="F608" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G608" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H608">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I608">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J608" t="s">
         <v>56</v>
       </c>
       <c r="K608">
-        <v>5.5</v>
+        <v>2.15</v>
       </c>
       <c r="L608">
+        <v>2.75</v>
+      </c>
+      <c r="M608">
         <v>3.5</v>
       </c>
-      <c r="M608">
-        <v>1.55</v>
-      </c>
       <c r="N608">
-        <v>7.5</v>
+        <v>1.833</v>
       </c>
       <c r="O608">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P608">
-        <v>1.444</v>
+        <v>4.333</v>
       </c>
       <c r="Q608">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R608">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S608">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T608">
         <v>2.25</v>
@@ -54646,19 +54646,19 @@
         <v>-1</v>
       </c>
       <c r="Y608">
-        <v>0.444</v>
+        <v>3.333</v>
       </c>
       <c r="Z608">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA608">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB608">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC608">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="609" spans="1:29">
@@ -54755,7 +54755,7 @@
         <v>608</v>
       </c>
       <c r="B610">
-        <v>5774018</v>
+        <v>5774659</v>
       </c>
       <c r="C610" t="s">
         <v>28</v>
@@ -54767,76 +54767,76 @@
         <v>44896.40625</v>
       </c>
       <c r="F610" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G610" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H610">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I610">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J610" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K610">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="L610">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="M610">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="N610">
-        <v>5.75</v>
+        <v>2.8</v>
       </c>
       <c r="O610">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="P610">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q610">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R610">
+        <v>1.95</v>
+      </c>
+      <c r="S610">
         <v>1.85</v>
       </c>
-      <c r="S610">
-        <v>1.95</v>
-      </c>
       <c r="T610">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U610">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V610">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W610">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X610">
         <v>-1</v>
       </c>
       <c r="Y610">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z610">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA610">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB610">
         <v>-1</v>
       </c>
       <c r="AC610">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="611" spans="1:29">
@@ -54844,7 +54844,7 @@
         <v>609</v>
       </c>
       <c r="B611">
-        <v>5774659</v>
+        <v>5774018</v>
       </c>
       <c r="C611" t="s">
         <v>28</v>
@@ -54856,76 +54856,76 @@
         <v>44896.40625</v>
       </c>
       <c r="F611" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G611" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H611">
+        <v>0</v>
+      </c>
+      <c r="I611">
         <v>1</v>
       </c>
-      <c r="I611">
-        <v>0</v>
-      </c>
       <c r="J611" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K611">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="L611">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="M611">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="N611">
-        <v>2.8</v>
+        <v>5.75</v>
       </c>
       <c r="O611">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="P611">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="Q611">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R611">
+        <v>1.85</v>
+      </c>
+      <c r="S611">
         <v>1.95</v>
       </c>
-      <c r="S611">
-        <v>1.85</v>
-      </c>
       <c r="T611">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U611">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V611">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W611">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X611">
         <v>-1</v>
       </c>
       <c r="Y611">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z611">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA611">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB611">
         <v>-1</v>
       </c>
       <c r="AC611">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="612" spans="1:29">
@@ -57603,7 +57603,7 @@
         <v>640</v>
       </c>
       <c r="B642">
-        <v>5774666</v>
+        <v>5774665</v>
       </c>
       <c r="C642" t="s">
         <v>28</v>
@@ -57615,76 +57615,76 @@
         <v>44914.5</v>
       </c>
       <c r="F642" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G642" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H642">
+        <v>0</v>
+      </c>
+      <c r="I642">
+        <v>2</v>
+      </c>
+      <c r="J642" t="s">
+        <v>56</v>
+      </c>
+      <c r="K642">
+        <v>3.1</v>
+      </c>
+      <c r="L642">
+        <v>2.8</v>
+      </c>
+      <c r="M642">
+        <v>2.45</v>
+      </c>
+      <c r="N642">
+        <v>3.3</v>
+      </c>
+      <c r="O642">
+        <v>2.8</v>
+      </c>
+      <c r="P642">
+        <v>2.3</v>
+      </c>
+      <c r="Q642">
+        <v>0.25</v>
+      </c>
+      <c r="R642">
+        <v>1.8</v>
+      </c>
+      <c r="S642">
+        <v>2</v>
+      </c>
+      <c r="T642">
+        <v>2</v>
+      </c>
+      <c r="U642">
+        <v>1.875</v>
+      </c>
+      <c r="V642">
+        <v>1.925</v>
+      </c>
+      <c r="W642">
+        <v>-1</v>
+      </c>
+      <c r="X642">
+        <v>-1</v>
+      </c>
+      <c r="Y642">
+        <v>1.3</v>
+      </c>
+      <c r="Z642">
+        <v>-1</v>
+      </c>
+      <c r="AA642">
         <v>1</v>
       </c>
-      <c r="I642">
-        <v>0</v>
-      </c>
-      <c r="J642" t="s">
-        <v>54</v>
-      </c>
-      <c r="K642">
-        <v>1.65</v>
-      </c>
-      <c r="L642">
-        <v>3.4</v>
-      </c>
-      <c r="M642">
-        <v>5.5</v>
-      </c>
-      <c r="N642">
-        <v>1.7</v>
-      </c>
-      <c r="O642">
-        <v>3.4</v>
-      </c>
-      <c r="P642">
-        <v>5</v>
-      </c>
-      <c r="Q642">
-        <v>-0.5</v>
-      </c>
-      <c r="R642">
-        <v>1.775</v>
-      </c>
-      <c r="S642">
-        <v>2.025</v>
-      </c>
-      <c r="T642">
-        <v>2.25</v>
-      </c>
-      <c r="U642">
-        <v>2.025</v>
-      </c>
-      <c r="V642">
-        <v>1.775</v>
-      </c>
-      <c r="W642">
-        <v>0.7</v>
-      </c>
-      <c r="X642">
-        <v>-1</v>
-      </c>
-      <c r="Y642">
-        <v>-1</v>
-      </c>
-      <c r="Z642">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AA642">
-        <v>-1</v>
-      </c>
       <c r="AB642">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC642">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="643" spans="1:29">
@@ -57692,7 +57692,7 @@
         <v>641</v>
       </c>
       <c r="B643">
-        <v>5774665</v>
+        <v>5774666</v>
       </c>
       <c r="C643" t="s">
         <v>28</v>
@@ -57704,76 +57704,76 @@
         <v>44914.5</v>
       </c>
       <c r="F643" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G643" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H643">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I643">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J643" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K643">
-        <v>3.1</v>
+        <v>1.65</v>
       </c>
       <c r="L643">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="M643">
-        <v>2.45</v>
+        <v>5.5</v>
       </c>
       <c r="N643">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="O643">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="P643">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="Q643">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R643">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S643">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T643">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U643">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V643">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W643">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X643">
         <v>-1</v>
       </c>
       <c r="Y643">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z643">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA643">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB643">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC643">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="644" spans="1:29">
@@ -57959,7 +57959,7 @@
         <v>644</v>
       </c>
       <c r="B646">
-        <v>5774035</v>
+        <v>5774036</v>
       </c>
       <c r="C646" t="s">
         <v>28</v>
@@ -57971,76 +57971,76 @@
         <v>44915.5</v>
       </c>
       <c r="F646" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="G646" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H646">
         <v>1</v>
       </c>
       <c r="I646">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J646" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K646">
-        <v>2.8</v>
+        <v>7</v>
       </c>
       <c r="L646">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="M646">
-        <v>2.75</v>
+        <v>1.444</v>
       </c>
       <c r="N646">
-        <v>3.4</v>
+        <v>9</v>
       </c>
       <c r="O646">
-        <v>2.625</v>
+        <v>4.2</v>
       </c>
       <c r="P646">
-        <v>2.375</v>
+        <v>1.363</v>
       </c>
       <c r="Q646">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R646">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S646">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T646">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U646">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V646">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W646">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X646">
         <v>-1</v>
       </c>
       <c r="Y646">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z646">
-        <v>0.7749999999999999</v>
+        <v>0.4625</v>
       </c>
       <c r="AA646">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB646">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC646">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="647" spans="1:29">
@@ -58048,7 +58048,7 @@
         <v>645</v>
       </c>
       <c r="B647">
-        <v>5774036</v>
+        <v>5774035</v>
       </c>
       <c r="C647" t="s">
         <v>28</v>
@@ -58060,76 +58060,76 @@
         <v>44915.5</v>
       </c>
       <c r="F647" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G647" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H647">
         <v>1</v>
       </c>
       <c r="I647">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J647" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K647">
-        <v>7</v>
+        <v>2.8</v>
       </c>
       <c r="L647">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="M647">
-        <v>1.444</v>
+        <v>2.75</v>
       </c>
       <c r="N647">
-        <v>9</v>
+        <v>3.4</v>
       </c>
       <c r="O647">
-        <v>4.2</v>
+        <v>2.625</v>
       </c>
       <c r="P647">
-        <v>1.363</v>
+        <v>2.375</v>
       </c>
       <c r="Q647">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R647">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S647">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T647">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U647">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V647">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W647">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X647">
         <v>-1</v>
       </c>
       <c r="Y647">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z647">
-        <v>0.4625</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA647">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB647">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC647">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="648" spans="1:29">
@@ -59294,7 +59294,7 @@
         <v>659</v>
       </c>
       <c r="B661">
-        <v>5774674</v>
+        <v>5774044</v>
       </c>
       <c r="C661" t="s">
         <v>28</v>
@@ -59306,40 +59306,40 @@
         <v>44923.5</v>
       </c>
       <c r="F661" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G661" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H661">
         <v>2</v>
       </c>
       <c r="I661">
+        <v>2</v>
+      </c>
+      <c r="J661" t="s">
+        <v>55</v>
+      </c>
+      <c r="K661">
+        <v>1.727</v>
+      </c>
+      <c r="L661">
         <v>3</v>
       </c>
-      <c r="J661" t="s">
-        <v>56</v>
-      </c>
-      <c r="K661">
-        <v>4.2</v>
-      </c>
-      <c r="L661">
-        <v>2.75</v>
-      </c>
       <c r="M661">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N661">
-        <v>5.5</v>
+        <v>1.75</v>
       </c>
       <c r="O661">
         <v>3</v>
       </c>
       <c r="P661">
-        <v>1.727</v>
+        <v>5</v>
       </c>
       <c r="Q661">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R661">
         <v>1.775</v>
@@ -59351,28 +59351,28 @@
         <v>2</v>
       </c>
       <c r="U661">
+        <v>1.975</v>
+      </c>
+      <c r="V661">
         <v>1.825</v>
       </c>
-      <c r="V661">
-        <v>1.975</v>
-      </c>
       <c r="W661">
         <v>-1</v>
       </c>
       <c r="X661">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y661">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z661">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA661">
-        <v>0.5125</v>
+        <v>1.025</v>
       </c>
       <c r="AB661">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC661">
         <v>-1</v>
@@ -59383,7 +59383,7 @@
         <v>660</v>
       </c>
       <c r="B662">
-        <v>5774044</v>
+        <v>5774674</v>
       </c>
       <c r="C662" t="s">
         <v>28</v>
@@ -59395,40 +59395,40 @@
         <v>44923.5</v>
       </c>
       <c r="F662" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="G662" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H662">
         <v>2</v>
       </c>
       <c r="I662">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J662" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K662">
-        <v>1.727</v>
+        <v>4.2</v>
       </c>
       <c r="L662">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="M662">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N662">
-        <v>1.75</v>
+        <v>5.5</v>
       </c>
       <c r="O662">
         <v>3</v>
       </c>
       <c r="P662">
-        <v>5</v>
+        <v>1.727</v>
       </c>
       <c r="Q662">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R662">
         <v>1.775</v>
@@ -59440,28 +59440,28 @@
         <v>2</v>
       </c>
       <c r="U662">
+        <v>1.825</v>
+      </c>
+      <c r="V662">
         <v>1.975</v>
       </c>
-      <c r="V662">
-        <v>1.825</v>
-      </c>
       <c r="W662">
         <v>-1</v>
       </c>
       <c r="X662">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y662">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z662">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA662">
-        <v>1.025</v>
+        <v>0.5125</v>
       </c>
       <c r="AB662">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC662">
         <v>-1</v>
@@ -60273,7 +60273,7 @@
         <v>670</v>
       </c>
       <c r="B672">
-        <v>5774051</v>
+        <v>5774679</v>
       </c>
       <c r="C672" t="s">
         <v>28</v>
@@ -60285,73 +60285,73 @@
         <v>44929.40625</v>
       </c>
       <c r="F672" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G672" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="H672">
+        <v>0</v>
+      </c>
+      <c r="I672">
         <v>3</v>
       </c>
-      <c r="I672">
-        <v>2</v>
-      </c>
       <c r="J672" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K672">
-        <v>1.727</v>
+        <v>2.625</v>
       </c>
       <c r="L672">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M672">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="N672">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="O672">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P672">
-        <v>5.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q672">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R672">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S672">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T672">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U672">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V672">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W672">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X672">
         <v>-1</v>
       </c>
       <c r="Y672">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z672">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA672">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB672">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC672">
         <v>-1</v>
@@ -60362,7 +60362,7 @@
         <v>671</v>
       </c>
       <c r="B673">
-        <v>5774679</v>
+        <v>5774051</v>
       </c>
       <c r="C673" t="s">
         <v>28</v>
@@ -60374,73 +60374,73 @@
         <v>44929.40625</v>
       </c>
       <c r="F673" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G673" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="H673">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I673">
+        <v>2</v>
+      </c>
+      <c r="J673" t="s">
+        <v>54</v>
+      </c>
+      <c r="K673">
+        <v>1.727</v>
+      </c>
+      <c r="L673">
         <v>3</v>
       </c>
-      <c r="J673" t="s">
-        <v>56</v>
-      </c>
-      <c r="K673">
-        <v>2.625</v>
-      </c>
-      <c r="L673">
-        <v>2.875</v>
-      </c>
       <c r="M673">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="N673">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="O673">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P673">
-        <v>2.1</v>
+        <v>5.25</v>
       </c>
       <c r="Q673">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R673">
+        <v>1.8</v>
+      </c>
+      <c r="S673">
+        <v>2</v>
+      </c>
+      <c r="T673">
+        <v>1.75</v>
+      </c>
+      <c r="U673">
         <v>1.775</v>
       </c>
-      <c r="S673">
+      <c r="V673">
         <v>2.025</v>
       </c>
-      <c r="T673">
-        <v>2.25</v>
-      </c>
-      <c r="U673">
-        <v>1.825</v>
-      </c>
-      <c r="V673">
-        <v>1.975</v>
-      </c>
       <c r="W673">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X673">
         <v>-1</v>
       </c>
       <c r="Y673">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z673">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA673">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB673">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC673">
         <v>-1</v>
@@ -61163,7 +61163,7 @@
         <v>680</v>
       </c>
       <c r="B682">
-        <v>5774056</v>
+        <v>5774055</v>
       </c>
       <c r="C682" t="s">
         <v>28</v>
@@ -61175,76 +61175,76 @@
         <v>44934.40625</v>
       </c>
       <c r="F682" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="G682" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H682">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I682">
         <v>0</v>
       </c>
       <c r="J682" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K682">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="L682">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M682">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="N682">
-        <v>1.833</v>
+        <v>3.8</v>
       </c>
       <c r="O682">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P682">
-        <v>4.2</v>
+        <v>2.05</v>
       </c>
       <c r="Q682">
+        <v>0.25</v>
+      </c>
+      <c r="R682">
+        <v>2.025</v>
+      </c>
+      <c r="S682">
+        <v>1.775</v>
+      </c>
+      <c r="T682">
+        <v>1.75</v>
+      </c>
+      <c r="U682">
+        <v>1.8</v>
+      </c>
+      <c r="V682">
+        <v>2</v>
+      </c>
+      <c r="W682">
+        <v>2.8</v>
+      </c>
+      <c r="X682">
+        <v>-1</v>
+      </c>
+      <c r="Y682">
+        <v>-1</v>
+      </c>
+      <c r="Z682">
+        <v>1.025</v>
+      </c>
+      <c r="AA682">
+        <v>-1</v>
+      </c>
+      <c r="AB682">
+        <v>0.4</v>
+      </c>
+      <c r="AC682">
         <v>-0.5</v>
-      </c>
-      <c r="R682">
-        <v>1.875</v>
-      </c>
-      <c r="S682">
-        <v>1.925</v>
-      </c>
-      <c r="T682">
-        <v>2.25</v>
-      </c>
-      <c r="U682">
-        <v>2.025</v>
-      </c>
-      <c r="V682">
-        <v>1.775</v>
-      </c>
-      <c r="W682">
-        <v>-1</v>
-      </c>
-      <c r="X682">
-        <v>2.1</v>
-      </c>
-      <c r="Y682">
-        <v>-1</v>
-      </c>
-      <c r="Z682">
-        <v>-1</v>
-      </c>
-      <c r="AA682">
-        <v>0.925</v>
-      </c>
-      <c r="AB682">
-        <v>-1</v>
-      </c>
-      <c r="AC682">
-        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="683" spans="1:29">
@@ -61252,7 +61252,7 @@
         <v>681</v>
       </c>
       <c r="B683">
-        <v>5774055</v>
+        <v>5774056</v>
       </c>
       <c r="C683" t="s">
         <v>28</v>
@@ -61264,76 +61264,76 @@
         <v>44934.40625</v>
       </c>
       <c r="F683" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G683" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H683">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I683">
         <v>0</v>
       </c>
       <c r="J683" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K683">
-        <v>3.4</v>
+        <v>1.833</v>
       </c>
       <c r="L683">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M683">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="N683">
-        <v>3.8</v>
+        <v>1.833</v>
       </c>
       <c r="O683">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P683">
-        <v>2.05</v>
+        <v>4.2</v>
       </c>
       <c r="Q683">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R683">
+        <v>1.875</v>
+      </c>
+      <c r="S683">
+        <v>1.925</v>
+      </c>
+      <c r="T683">
+        <v>2.25</v>
+      </c>
+      <c r="U683">
         <v>2.025</v>
       </c>
-      <c r="S683">
+      <c r="V683">
         <v>1.775</v>
       </c>
-      <c r="T683">
-        <v>1.75</v>
-      </c>
-      <c r="U683">
-        <v>1.8</v>
-      </c>
-      <c r="V683">
-        <v>2</v>
-      </c>
       <c r="W683">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X683">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y683">
         <v>-1</v>
       </c>
       <c r="Z683">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA683">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB683">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC683">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="684" spans="1:29">
@@ -64367,7 +64367,7 @@
         <v>716</v>
       </c>
       <c r="B718">
-        <v>5774702</v>
+        <v>5774701</v>
       </c>
       <c r="C718" t="s">
         <v>28</v>
@@ -64379,73 +64379,73 @@
         <v>44955.58333333334</v>
       </c>
       <c r="F718" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G718" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H718">
         <v>2</v>
       </c>
       <c r="I718">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J718" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K718">
+        <v>1.55</v>
+      </c>
+      <c r="L718">
+        <v>3.8</v>
+      </c>
+      <c r="M718">
+        <v>5.25</v>
+      </c>
+      <c r="N718">
+        <v>1.6</v>
+      </c>
+      <c r="O718">
+        <v>3.8</v>
+      </c>
+      <c r="P718">
+        <v>4.75</v>
+      </c>
+      <c r="Q718">
+        <v>-1</v>
+      </c>
+      <c r="R718">
         <v>2.05</v>
       </c>
-      <c r="L718">
-        <v>3.1</v>
-      </c>
-      <c r="M718">
-        <v>3.4</v>
-      </c>
-      <c r="N718">
-        <v>2.4</v>
-      </c>
-      <c r="O718">
-        <v>2.875</v>
-      </c>
-      <c r="P718">
+      <c r="S718">
+        <v>1.75</v>
+      </c>
+      <c r="T718">
+        <v>2.5</v>
+      </c>
+      <c r="U718">
+        <v>1.925</v>
+      </c>
+      <c r="V718">
+        <v>1.875</v>
+      </c>
+      <c r="W718">
+        <v>-1</v>
+      </c>
+      <c r="X718">
         <v>2.8</v>
       </c>
-      <c r="Q718">
-        <v>0</v>
-      </c>
-      <c r="R718">
-        <v>1.8</v>
-      </c>
-      <c r="S718">
-        <v>2</v>
-      </c>
-      <c r="T718">
-        <v>2</v>
-      </c>
-      <c r="U718">
-        <v>1.75</v>
-      </c>
-      <c r="V718">
-        <v>2.05</v>
-      </c>
-      <c r="W718">
-        <v>1.4</v>
-      </c>
-      <c r="X718">
-        <v>-1</v>
-      </c>
       <c r="Y718">
         <v>-1</v>
       </c>
       <c r="Z718">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA718">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB718">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AC718">
         <v>-1</v>
@@ -64456,7 +64456,7 @@
         <v>717</v>
       </c>
       <c r="B719">
-        <v>5774701</v>
+        <v>5774702</v>
       </c>
       <c r="C719" t="s">
         <v>28</v>
@@ -64468,73 +64468,73 @@
         <v>44955.58333333334</v>
       </c>
       <c r="F719" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G719" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H719">
         <v>2</v>
       </c>
       <c r="I719">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J719" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K719">
-        <v>1.55</v>
+        <v>2.05</v>
       </c>
       <c r="L719">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="M719">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="N719">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="O719">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="P719">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q719">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R719">
+        <v>1.8</v>
+      </c>
+      <c r="S719">
+        <v>2</v>
+      </c>
+      <c r="T719">
+        <v>2</v>
+      </c>
+      <c r="U719">
+        <v>1.75</v>
+      </c>
+      <c r="V719">
         <v>2.05</v>
       </c>
-      <c r="S719">
-        <v>1.75</v>
-      </c>
-      <c r="T719">
-        <v>2.5</v>
-      </c>
-      <c r="U719">
-        <v>1.925</v>
-      </c>
-      <c r="V719">
-        <v>1.875</v>
-      </c>
       <c r="W719">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X719">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y719">
         <v>-1</v>
       </c>
       <c r="Z719">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA719">
+        <v>-1</v>
+      </c>
+      <c r="AB719">
         <v>0.75</v>
-      </c>
-      <c r="AB719">
-        <v>0.925</v>
       </c>
       <c r="AC719">
         <v>-1</v>
@@ -64812,7 +64812,7 @@
         <v>721</v>
       </c>
       <c r="B723">
-        <v>5774078</v>
+        <v>5774703</v>
       </c>
       <c r="C723" t="s">
         <v>28</v>
@@ -64824,76 +64824,76 @@
         <v>44962.58333333334</v>
       </c>
       <c r="F723" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G723" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H723">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I723">
         <v>1</v>
       </c>
       <c r="J723" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K723">
-        <v>1.909</v>
+        <v>1.833</v>
       </c>
       <c r="L723">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M723">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="N723">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="O723">
         <v>3</v>
       </c>
       <c r="P723">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q723">
         <v>-0.25</v>
       </c>
       <c r="R723">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S723">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T723">
         <v>2.25</v>
       </c>
       <c r="U723">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V723">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W723">
         <v>-1</v>
       </c>
       <c r="X723">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y723">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z723">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA723">
-        <v>0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB723">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC723">
-        <v>0.3875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="724" spans="1:29">
@@ -64901,7 +64901,7 @@
         <v>722</v>
       </c>
       <c r="B724">
-        <v>5774703</v>
+        <v>5774078</v>
       </c>
       <c r="C724" t="s">
         <v>28</v>
@@ -64913,76 +64913,76 @@
         <v>44962.58333333334</v>
       </c>
       <c r="F724" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G724" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H724">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I724">
         <v>1</v>
       </c>
       <c r="J724" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K724">
-        <v>1.833</v>
+        <v>1.909</v>
       </c>
       <c r="L724">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M724">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="N724">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O724">
         <v>3</v>
       </c>
       <c r="P724">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q724">
         <v>-0.25</v>
       </c>
       <c r="R724">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S724">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T724">
         <v>2.25</v>
       </c>
       <c r="U724">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V724">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W724">
         <v>-1</v>
       </c>
       <c r="X724">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y724">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z724">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA724">
-        <v>1.05</v>
+        <v>0.5</v>
       </c>
       <c r="AB724">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC724">
-        <v>0.9750000000000001</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="725" spans="1:29">
@@ -70330,7 +70330,7 @@
         <v>783</v>
       </c>
       <c r="B785">
-        <v>6484223</v>
+        <v>6471699</v>
       </c>
       <c r="C785" t="s">
         <v>28</v>
@@ -70342,73 +70342,73 @@
         <v>45029.67708333334</v>
       </c>
       <c r="F785" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G785" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H785">
+        <v>0</v>
+      </c>
+      <c r="I785">
         <v>3</v>
       </c>
-      <c r="I785">
+      <c r="J785" t="s">
+        <v>56</v>
+      </c>
+      <c r="K785">
+        <v>4.2</v>
+      </c>
+      <c r="L785">
+        <v>3</v>
+      </c>
+      <c r="M785">
+        <v>1.833</v>
+      </c>
+      <c r="N785">
+        <v>5</v>
+      </c>
+      <c r="O785">
+        <v>3</v>
+      </c>
+      <c r="P785">
+        <v>1.7</v>
+      </c>
+      <c r="Q785">
+        <v>0.75</v>
+      </c>
+      <c r="R785">
+        <v>1.8</v>
+      </c>
+      <c r="S785">
+        <v>2</v>
+      </c>
+      <c r="T785">
+        <v>2</v>
+      </c>
+      <c r="U785">
+        <v>1.825</v>
+      </c>
+      <c r="V785">
+        <v>1.975</v>
+      </c>
+      <c r="W785">
+        <v>-1</v>
+      </c>
+      <c r="X785">
+        <v>-1</v>
+      </c>
+      <c r="Y785">
+        <v>0.7</v>
+      </c>
+      <c r="Z785">
+        <v>-1</v>
+      </c>
+      <c r="AA785">
         <v>1</v>
       </c>
-      <c r="J785" t="s">
-        <v>54</v>
-      </c>
-      <c r="K785">
-        <v>2.875</v>
-      </c>
-      <c r="L785">
-        <v>2.75</v>
-      </c>
-      <c r="M785">
-        <v>2.5</v>
-      </c>
-      <c r="N785">
-        <v>2.375</v>
-      </c>
-      <c r="O785">
-        <v>2.7</v>
-      </c>
-      <c r="P785">
-        <v>3.1</v>
-      </c>
-      <c r="Q785">
-        <v>-0.25</v>
-      </c>
-      <c r="R785">
-        <v>2</v>
-      </c>
-      <c r="S785">
-        <v>1.8</v>
-      </c>
-      <c r="T785">
-        <v>1.75</v>
-      </c>
-      <c r="U785">
-        <v>1.75</v>
-      </c>
-      <c r="V785">
-        <v>2.05</v>
-      </c>
-      <c r="W785">
-        <v>1.375</v>
-      </c>
-      <c r="X785">
-        <v>-1</v>
-      </c>
-      <c r="Y785">
-        <v>-1</v>
-      </c>
-      <c r="Z785">
-        <v>1</v>
-      </c>
-      <c r="AA785">
-        <v>-1</v>
-      </c>
       <c r="AB785">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="AC785">
         <v>-1</v>
@@ -70419,7 +70419,7 @@
         <v>784</v>
       </c>
       <c r="B786">
-        <v>6471699</v>
+        <v>6484223</v>
       </c>
       <c r="C786" t="s">
         <v>28</v>
@@ -70431,73 +70431,73 @@
         <v>45029.67708333334</v>
       </c>
       <c r="F786" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G786" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H786">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I786">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J786" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K786">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="L786">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="M786">
-        <v>1.833</v>
+        <v>2.5</v>
       </c>
       <c r="N786">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="O786">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="P786">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="Q786">
+        <v>-0.25</v>
+      </c>
+      <c r="R786">
+        <v>2</v>
+      </c>
+      <c r="S786">
+        <v>1.8</v>
+      </c>
+      <c r="T786">
+        <v>1.75</v>
+      </c>
+      <c r="U786">
+        <v>1.75</v>
+      </c>
+      <c r="V786">
+        <v>2.05</v>
+      </c>
+      <c r="W786">
+        <v>1.375</v>
+      </c>
+      <c r="X786">
+        <v>-1</v>
+      </c>
+      <c r="Y786">
+        <v>-1</v>
+      </c>
+      <c r="Z786">
+        <v>1</v>
+      </c>
+      <c r="AA786">
+        <v>-1</v>
+      </c>
+      <c r="AB786">
         <v>0.75</v>
-      </c>
-      <c r="R786">
-        <v>1.8</v>
-      </c>
-      <c r="S786">
-        <v>2</v>
-      </c>
-      <c r="T786">
-        <v>2</v>
-      </c>
-      <c r="U786">
-        <v>1.825</v>
-      </c>
-      <c r="V786">
-        <v>1.975</v>
-      </c>
-      <c r="W786">
-        <v>-1</v>
-      </c>
-      <c r="X786">
-        <v>-1</v>
-      </c>
-      <c r="Y786">
-        <v>0.7</v>
-      </c>
-      <c r="Z786">
-        <v>-1</v>
-      </c>
-      <c r="AA786">
-        <v>1</v>
-      </c>
-      <c r="AB786">
-        <v>0.825</v>
       </c>
       <c r="AC786">
         <v>-1</v>
@@ -70864,7 +70864,7 @@
         <v>789</v>
       </c>
       <c r="B791">
-        <v>6488028</v>
+        <v>6488032</v>
       </c>
       <c r="C791" t="s">
         <v>28</v>
@@ -70876,49 +70876,49 @@
         <v>45033.67708333334</v>
       </c>
       <c r="F791" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G791" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H791">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I791">
         <v>2</v>
       </c>
       <c r="J791" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K791">
-        <v>1.8</v>
+        <v>6.5</v>
       </c>
       <c r="L791">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M791">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="N791">
-        <v>2.25</v>
+        <v>6.5</v>
       </c>
       <c r="O791">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="P791">
-        <v>3.1</v>
+        <v>1.45</v>
       </c>
       <c r="Q791">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R791">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S791">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T791">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U791">
         <v>1.875</v>
@@ -70930,22 +70930,22 @@
         <v>-1</v>
       </c>
       <c r="X791">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y791">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z791">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA791">
-        <v>0.375</v>
+        <v>0.825</v>
       </c>
       <c r="AB791">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC791">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="792" spans="1:29">
@@ -70953,7 +70953,7 @@
         <v>790</v>
       </c>
       <c r="B792">
-        <v>6488032</v>
+        <v>6488028</v>
       </c>
       <c r="C792" t="s">
         <v>28</v>
@@ -70965,49 +70965,49 @@
         <v>45033.67708333334</v>
       </c>
       <c r="F792" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G792" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H792">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I792">
         <v>2</v>
       </c>
       <c r="J792" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K792">
-        <v>6.5</v>
+        <v>1.8</v>
       </c>
       <c r="L792">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M792">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="N792">
-        <v>6.5</v>
+        <v>2.25</v>
       </c>
       <c r="O792">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="P792">
-        <v>1.45</v>
+        <v>3.1</v>
       </c>
       <c r="Q792">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R792">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S792">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T792">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U792">
         <v>1.875</v>
@@ -71019,22 +71019,22 @@
         <v>-1</v>
       </c>
       <c r="X792">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y792">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z792">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA792">
-        <v>0.825</v>
+        <v>0.375</v>
       </c>
       <c r="AB792">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC792">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="793" spans="1:29">
@@ -76738,7 +76738,7 @@
         <v>855</v>
       </c>
       <c r="B857">
-        <v>6682722</v>
+        <v>6682721</v>
       </c>
       <c r="C857" t="s">
         <v>28</v>
@@ -76750,76 +76750,76 @@
         <v>45107.64583333334</v>
       </c>
       <c r="F857" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G857" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="H857">
         <v>0</v>
       </c>
       <c r="I857">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J857" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K857">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="L857">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="M857">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="N857">
+        <v>2.3</v>
+      </c>
+      <c r="O857">
+        <v>2.8</v>
+      </c>
+      <c r="P857">
         <v>3.1</v>
       </c>
-      <c r="O857">
-        <v>2.6</v>
-      </c>
-      <c r="P857">
-        <v>2.5</v>
-      </c>
       <c r="Q857">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R857">
-        <v>1.7</v>
+        <v>1.975</v>
       </c>
       <c r="S857">
+        <v>1.825</v>
+      </c>
+      <c r="T857">
+        <v>2.25</v>
+      </c>
+      <c r="U857">
+        <v>2</v>
+      </c>
+      <c r="V857">
+        <v>1.8</v>
+      </c>
+      <c r="W857">
+        <v>-1</v>
+      </c>
+      <c r="X857">
+        <v>-1</v>
+      </c>
+      <c r="Y857">
         <v>2.1</v>
       </c>
-      <c r="T857">
-        <v>1.75</v>
-      </c>
-      <c r="U857">
-        <v>1.75</v>
-      </c>
-      <c r="V857">
-        <v>2.05</v>
-      </c>
-      <c r="W857">
-        <v>-1</v>
-      </c>
-      <c r="X857">
-        <v>1.6</v>
-      </c>
-      <c r="Y857">
-        <v>-1</v>
-      </c>
       <c r="Z857">
-        <v>0.35</v>
+        <v>-1</v>
       </c>
       <c r="AA857">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB857">
         <v>-1</v>
       </c>
       <c r="AC857">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="858" spans="1:29">
@@ -76827,7 +76827,7 @@
         <v>856</v>
       </c>
       <c r="B858">
-        <v>6682721</v>
+        <v>6682722</v>
       </c>
       <c r="C858" t="s">
         <v>28</v>
@@ -76839,76 +76839,76 @@
         <v>45107.64583333334</v>
       </c>
       <c r="F858" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G858" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H858">
         <v>0</v>
       </c>
       <c r="I858">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J858" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K858">
+        <v>2.5</v>
+      </c>
+      <c r="L858">
+        <v>2.7</v>
+      </c>
+      <c r="M858">
+        <v>2.9</v>
+      </c>
+      <c r="N858">
+        <v>3.1</v>
+      </c>
+      <c r="O858">
+        <v>2.6</v>
+      </c>
+      <c r="P858">
+        <v>2.5</v>
+      </c>
+      <c r="Q858">
+        <v>0.25</v>
+      </c>
+      <c r="R858">
+        <v>1.7</v>
+      </c>
+      <c r="S858">
+        <v>2.1</v>
+      </c>
+      <c r="T858">
+        <v>1.75</v>
+      </c>
+      <c r="U858">
+        <v>1.75</v>
+      </c>
+      <c r="V858">
         <v>2.05</v>
       </c>
-      <c r="L858">
-        <v>2.9</v>
-      </c>
-      <c r="M858">
-        <v>3.5</v>
-      </c>
-      <c r="N858">
-        <v>2.3</v>
-      </c>
-      <c r="O858">
-        <v>2.8</v>
-      </c>
-      <c r="P858">
-        <v>3.1</v>
-      </c>
-      <c r="Q858">
-        <v>-0.25</v>
-      </c>
-      <c r="R858">
-        <v>1.975</v>
-      </c>
-      <c r="S858">
-        <v>1.825</v>
-      </c>
-      <c r="T858">
-        <v>2.25</v>
-      </c>
-      <c r="U858">
-        <v>2</v>
-      </c>
-      <c r="V858">
-        <v>1.8</v>
-      </c>
       <c r="W858">
         <v>-1</v>
       </c>
       <c r="X858">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Y858">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z858">
-        <v>-1</v>
+        <v>0.35</v>
       </c>
       <c r="AA858">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB858">
         <v>-1</v>
       </c>
       <c r="AC858">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="859" spans="1:29">
@@ -81722,7 +81722,7 @@
         <v>911</v>
       </c>
       <c r="B913">
-        <v>7217629</v>
+        <v>7217630</v>
       </c>
       <c r="C913" t="s">
         <v>28</v>
@@ -81734,13 +81734,13 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F913" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G913" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H913">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I913">
         <v>1</v>
@@ -81749,43 +81749,43 @@
         <v>54</v>
       </c>
       <c r="K913">
-        <v>2.4</v>
+        <v>1.65</v>
       </c>
       <c r="L913">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="M913">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="N913">
+        <v>1.909</v>
+      </c>
+      <c r="O913">
+        <v>3.25</v>
+      </c>
+      <c r="P913">
+        <v>3.6</v>
+      </c>
+      <c r="Q913">
+        <v>-0.5</v>
+      </c>
+      <c r="R913">
+        <v>1.925</v>
+      </c>
+      <c r="S913">
+        <v>1.875</v>
+      </c>
+      <c r="T913">
         <v>2.5</v>
       </c>
-      <c r="O913">
-        <v>2.8</v>
-      </c>
-      <c r="P913">
-        <v>2.9</v>
-      </c>
-      <c r="Q913">
-        <v>0</v>
-      </c>
-      <c r="R913">
-        <v>1.8</v>
-      </c>
-      <c r="S913">
-        <v>2</v>
-      </c>
-      <c r="T913">
-        <v>2</v>
-      </c>
       <c r="U913">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V913">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W913">
-        <v>1.5</v>
+        <v>0.909</v>
       </c>
       <c r="X913">
         <v>-1</v>
@@ -81794,13 +81794,13 @@
         <v>-1</v>
       </c>
       <c r="Z913">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA913">
         <v>-1</v>
       </c>
       <c r="AB913">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC913">
         <v>-1</v>
@@ -81811,7 +81811,7 @@
         <v>912</v>
       </c>
       <c r="B914">
-        <v>7217630</v>
+        <v>7217629</v>
       </c>
       <c r="C914" t="s">
         <v>28</v>
@@ -81823,13 +81823,13 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F914" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G914" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H914">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I914">
         <v>1</v>
@@ -81838,43 +81838,43 @@
         <v>54</v>
       </c>
       <c r="K914">
-        <v>1.65</v>
+        <v>2.4</v>
       </c>
       <c r="L914">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="M914">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="N914">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="O914">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="P914">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="Q914">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R914">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S914">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T914">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U914">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V914">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W914">
-        <v>0.909</v>
+        <v>1.5</v>
       </c>
       <c r="X914">
         <v>-1</v>
@@ -81883,13 +81883,13 @@
         <v>-1</v>
       </c>
       <c r="Z914">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA914">
         <v>-1</v>
       </c>
       <c r="AB914">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC914">
         <v>-1</v>
@@ -85104,7 +85104,7 @@
         <v>949</v>
       </c>
       <c r="B951">
-        <v>7217675</v>
+        <v>7217678</v>
       </c>
       <c r="C951" t="s">
         <v>28</v>
@@ -85116,76 +85116,76 @@
         <v>45274.45833333334</v>
       </c>
       <c r="F951" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G951" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H951">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I951">
+        <v>1</v>
+      </c>
+      <c r="J951" t="s">
+        <v>55</v>
+      </c>
+      <c r="K951">
+        <v>2.875</v>
+      </c>
+      <c r="L951">
         <v>3</v>
       </c>
-      <c r="J951" t="s">
-        <v>56</v>
-      </c>
-      <c r="K951">
-        <v>2.5</v>
-      </c>
-      <c r="L951">
-        <v>2.8</v>
-      </c>
       <c r="M951">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="N951">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="O951">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P951">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="Q951">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R951">
+        <v>1.75</v>
+      </c>
+      <c r="S951">
         <v>2.05</v>
       </c>
-      <c r="S951">
-        <v>1.75</v>
-      </c>
       <c r="T951">
         <v>2</v>
       </c>
       <c r="U951">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V951">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W951">
         <v>-1</v>
       </c>
       <c r="X951">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y951">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z951">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AA951">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AB951">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC951">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="952" spans="1:29">
@@ -85193,7 +85193,7 @@
         <v>950</v>
       </c>
       <c r="B952">
-        <v>7217678</v>
+        <v>7217675</v>
       </c>
       <c r="C952" t="s">
         <v>28</v>
@@ -85205,76 +85205,76 @@
         <v>45274.45833333334</v>
       </c>
       <c r="F952" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G952" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H952">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I952">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J952" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K952">
+        <v>2.5</v>
+      </c>
+      <c r="L952">
+        <v>2.8</v>
+      </c>
+      <c r="M952">
+        <v>2.8</v>
+      </c>
+      <c r="N952">
+        <v>2.4</v>
+      </c>
+      <c r="O952">
         <v>2.875</v>
       </c>
-      <c r="L952">
+      <c r="P952">
         <v>3</v>
       </c>
-      <c r="M952">
-        <v>2.4</v>
-      </c>
-      <c r="N952">
-        <v>3</v>
-      </c>
-      <c r="O952">
-        <v>3</v>
-      </c>
-      <c r="P952">
-        <v>2.25</v>
-      </c>
       <c r="Q952">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R952">
+        <v>2.05</v>
+      </c>
+      <c r="S952">
         <v>1.75</v>
       </c>
-      <c r="S952">
-        <v>2.05</v>
-      </c>
       <c r="T952">
         <v>2</v>
       </c>
       <c r="U952">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V952">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W952">
         <v>-1</v>
       </c>
       <c r="X952">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y952">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z952">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AA952">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AB952">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC952">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="953" spans="1:29">
@@ -85549,7 +85549,7 @@
         <v>954</v>
       </c>
       <c r="B956">
-        <v>7549591</v>
+        <v>7549592</v>
       </c>
       <c r="C956" t="s">
         <v>28</v>
@@ -85561,10 +85561,10 @@
         <v>45275.54166666666</v>
       </c>
       <c r="F956" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G956" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H956">
         <v>1</v>
@@ -85576,40 +85576,40 @@
         <v>56</v>
       </c>
       <c r="K956">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="L956">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="M956">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="N956">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="O956">
         <v>2.75</v>
       </c>
       <c r="P956">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="Q956">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R956">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="S956">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="T956">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U956">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V956">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W956">
         <v>-1</v>
@@ -85618,16 +85618,16 @@
         <v>-1</v>
       </c>
       <c r="Y956">
-        <v>1.45</v>
+        <v>2.5</v>
       </c>
       <c r="Z956">
         <v>-1</v>
       </c>
       <c r="AA956">
-        <v>0.7250000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB956">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC956">
         <v>-1</v>
@@ -85638,7 +85638,7 @@
         <v>955</v>
       </c>
       <c r="B957">
-        <v>7549592</v>
+        <v>7549591</v>
       </c>
       <c r="C957" t="s">
         <v>28</v>
@@ -85650,10 +85650,10 @@
         <v>45275.54166666666</v>
       </c>
       <c r="F957" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="G957" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H957">
         <v>1</v>
@@ -85665,40 +85665,40 @@
         <v>56</v>
       </c>
       <c r="K957">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="L957">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="M957">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="N957">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="O957">
         <v>2.75</v>
       </c>
       <c r="P957">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q957">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R957">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="S957">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="T957">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U957">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V957">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W957">
         <v>-1</v>
@@ -85707,16 +85707,16 @@
         <v>-1</v>
       </c>
       <c r="Y957">
-        <v>2.5</v>
+        <v>1.45</v>
       </c>
       <c r="Z957">
         <v>-1</v>
       </c>
       <c r="AA957">
-        <v>0.8999999999999999</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB957">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC957">
         <v>-1</v>

--- a/Egypt Division 1/Egypt Division 1.xlsx
+++ b/Egypt Division 1/Egypt Division 1.xlsx
@@ -41761,7 +41761,7 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>5184846</v>
+        <v>4997249</v>
       </c>
       <c r="C464" t="s">
         <v>28</v>
@@ -41773,55 +41773,55 @@
         <v>44734.58333333334</v>
       </c>
       <c r="F464" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G464" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I464">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J464" t="s">
         <v>56</v>
       </c>
       <c r="K464">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="L464">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="M464">
-        <v>1.363</v>
+        <v>1.75</v>
       </c>
       <c r="N464">
-        <v>10</v>
+        <v>3.6</v>
       </c>
       <c r="O464">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="P464">
-        <v>1.285</v>
+        <v>2</v>
       </c>
       <c r="Q464">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R464">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S464">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T464">
         <v>2.5</v>
       </c>
       <c r="U464">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V464">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W464">
         <v>-1</v>
@@ -41830,16 +41830,16 @@
         <v>-1</v>
       </c>
       <c r="Y464">
-        <v>0.2849999999999999</v>
+        <v>1</v>
       </c>
       <c r="Z464">
         <v>-1</v>
       </c>
       <c r="AA464">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB464">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC464">
         <v>-1</v>
@@ -41850,7 +41850,7 @@
         <v>463</v>
       </c>
       <c r="B465">
-        <v>4997249</v>
+        <v>5184846</v>
       </c>
       <c r="C465" t="s">
         <v>28</v>
@@ -41862,55 +41862,55 @@
         <v>44734.58333333334</v>
       </c>
       <c r="F465" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G465" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H465">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I465">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J465" t="s">
         <v>56</v>
       </c>
       <c r="K465">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="L465">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="M465">
-        <v>1.75</v>
+        <v>1.363</v>
       </c>
       <c r="N465">
-        <v>3.6</v>
+        <v>10</v>
       </c>
       <c r="O465">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="P465">
-        <v>2</v>
+        <v>1.285</v>
       </c>
       <c r="Q465">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R465">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S465">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T465">
         <v>2.5</v>
       </c>
       <c r="U465">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V465">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W465">
         <v>-1</v>
@@ -41919,16 +41919,16 @@
         <v>-1</v>
       </c>
       <c r="Y465">
-        <v>1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z465">
         <v>-1</v>
       </c>
       <c r="AA465">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB465">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC465">
         <v>-1</v>
@@ -43274,7 +43274,7 @@
         <v>479</v>
       </c>
       <c r="B481">
-        <v>5035636</v>
+        <v>5035637</v>
       </c>
       <c r="C481" t="s">
         <v>28</v>
@@ -43286,76 +43286,76 @@
         <v>44755.5625</v>
       </c>
       <c r="F481" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G481" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I481">
         <v>0</v>
       </c>
       <c r="J481" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K481">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="L481">
+        <v>3.1</v>
+      </c>
+      <c r="M481">
+        <v>2.8</v>
+      </c>
+      <c r="N481">
+        <v>2.4</v>
+      </c>
+      <c r="O481">
         <v>3</v>
       </c>
-      <c r="M481">
-        <v>3.4</v>
-      </c>
-      <c r="N481">
-        <v>2.15</v>
-      </c>
-      <c r="O481">
-        <v>2.7</v>
-      </c>
       <c r="P481">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="Q481">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R481">
-        <v>1.875</v>
+        <v>1.725</v>
       </c>
       <c r="S481">
-        <v>1.925</v>
+        <v>2.075</v>
       </c>
       <c r="T481">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U481">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V481">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W481">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X481">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y481">
         <v>-1</v>
       </c>
       <c r="Z481">
-        <v>-0.5</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA481">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB481">
         <v>-1</v>
       </c>
       <c r="AC481">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="482" spans="1:29">
@@ -43363,7 +43363,7 @@
         <v>480</v>
       </c>
       <c r="B482">
-        <v>5035637</v>
+        <v>5035636</v>
       </c>
       <c r="C482" t="s">
         <v>28</v>
@@ -43375,76 +43375,76 @@
         <v>44755.5625</v>
       </c>
       <c r="F482" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G482" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="H482">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I482">
         <v>0</v>
       </c>
       <c r="J482" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K482">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="L482">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M482">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="N482">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="O482">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="P482">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="Q482">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R482">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="S482">
-        <v>2.075</v>
+        <v>1.925</v>
       </c>
       <c r="T482">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U482">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V482">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W482">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X482">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y482">
         <v>-1</v>
       </c>
       <c r="Z482">
-        <v>0.7250000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA482">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB482">
         <v>-1</v>
       </c>
       <c r="AC482">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="483" spans="1:29">
@@ -45321,7 +45321,7 @@
         <v>502</v>
       </c>
       <c r="B504">
-        <v>5036718</v>
+        <v>5035642</v>
       </c>
       <c r="C504" t="s">
         <v>28</v>
@@ -45333,76 +45333,76 @@
         <v>44768.5625</v>
       </c>
       <c r="F504" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G504" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I504">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J504" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K504">
-        <v>3.25</v>
+        <v>1.75</v>
       </c>
       <c r="L504">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M504">
-        <v>2.2</v>
+        <v>4.333</v>
       </c>
       <c r="N504">
-        <v>3</v>
+        <v>1.55</v>
       </c>
       <c r="O504">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="P504">
-        <v>2.4</v>
+        <v>6</v>
       </c>
       <c r="Q504">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R504">
-        <v>1.725</v>
+        <v>1.75</v>
       </c>
       <c r="S504">
-        <v>2.075</v>
+        <v>2.05</v>
       </c>
       <c r="T504">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U504">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V504">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W504">
         <v>-1</v>
       </c>
       <c r="X504">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y504">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z504">
-        <v>0.3625</v>
+        <v>-1</v>
       </c>
       <c r="AA504">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB504">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC504">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="505" spans="1:29">
@@ -45410,7 +45410,7 @@
         <v>503</v>
       </c>
       <c r="B505">
-        <v>5035642</v>
+        <v>5036718</v>
       </c>
       <c r="C505" t="s">
         <v>28</v>
@@ -45422,76 +45422,76 @@
         <v>44768.5625</v>
       </c>
       <c r="F505" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G505" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H505">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I505">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J505" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K505">
-        <v>1.75</v>
+        <v>3.25</v>
       </c>
       <c r="L505">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M505">
-        <v>4.333</v>
+        <v>2.2</v>
       </c>
       <c r="N505">
-        <v>1.55</v>
+        <v>3</v>
       </c>
       <c r="O505">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="P505">
-        <v>6</v>
+        <v>2.4</v>
       </c>
       <c r="Q505">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R505">
-        <v>1.75</v>
+        <v>1.725</v>
       </c>
       <c r="S505">
-        <v>2.05</v>
+        <v>2.075</v>
       </c>
       <c r="T505">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U505">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V505">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W505">
         <v>-1</v>
       </c>
       <c r="X505">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y505">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z505">
-        <v>-1</v>
+        <v>0.3625</v>
       </c>
       <c r="AA505">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AB505">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC505">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="506" spans="1:29">
@@ -45855,7 +45855,7 @@
         <v>508</v>
       </c>
       <c r="B510">
-        <v>5036721</v>
+        <v>5036720</v>
       </c>
       <c r="C510" t="s">
         <v>28</v>
@@ -45867,55 +45867,55 @@
         <v>44770.5625</v>
       </c>
       <c r="F510" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G510" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H510">
         <v>0</v>
       </c>
       <c r="I510">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J510" t="s">
         <v>56</v>
       </c>
       <c r="K510">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="L510">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="M510">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="N510">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="O510">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="P510">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="Q510">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R510">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="S510">
-        <v>2.075</v>
+        <v>1.85</v>
       </c>
       <c r="T510">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U510">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V510">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W510">
         <v>-1</v>
@@ -45924,19 +45924,19 @@
         <v>-1</v>
       </c>
       <c r="Y510">
-        <v>1.375</v>
+        <v>1.75</v>
       </c>
       <c r="Z510">
         <v>-1</v>
       </c>
       <c r="AA510">
-        <v>1.075</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB510">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC510">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="511" spans="1:29">
@@ -45944,7 +45944,7 @@
         <v>509</v>
       </c>
       <c r="B511">
-        <v>5036720</v>
+        <v>5036721</v>
       </c>
       <c r="C511" t="s">
         <v>28</v>
@@ -45956,55 +45956,55 @@
         <v>44770.5625</v>
       </c>
       <c r="F511" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G511" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H511">
         <v>0</v>
       </c>
       <c r="I511">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J511" t="s">
         <v>56</v>
       </c>
       <c r="K511">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="L511">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="M511">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="N511">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="O511">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="P511">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q511">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R511">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="S511">
-        <v>1.85</v>
+        <v>2.075</v>
       </c>
       <c r="T511">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U511">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V511">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W511">
         <v>-1</v>
@@ -46013,19 +46013,19 @@
         <v>-1</v>
       </c>
       <c r="Y511">
-        <v>1.75</v>
+        <v>1.375</v>
       </c>
       <c r="Z511">
         <v>-1</v>
       </c>
       <c r="AA511">
-        <v>0.8500000000000001</v>
+        <v>1.075</v>
       </c>
       <c r="AB511">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC511">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="512" spans="1:29">
@@ -46567,7 +46567,7 @@
         <v>516</v>
       </c>
       <c r="B518">
-        <v>5036725</v>
+        <v>5036724</v>
       </c>
       <c r="C518" t="s">
         <v>28</v>
@@ -46579,40 +46579,40 @@
         <v>44774.5625</v>
       </c>
       <c r="F518" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G518" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H518">
         <v>1</v>
       </c>
       <c r="I518">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J518" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K518">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L518">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M518">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="N518">
-        <v>2.05</v>
+        <v>1.3</v>
       </c>
       <c r="O518">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="P518">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="Q518">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R518">
         <v>1.775</v>
@@ -46621,19 +46621,19 @@
         <v>2.025</v>
       </c>
       <c r="T518">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U518">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V518">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W518">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X518">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y518">
         <v>-1</v>
@@ -46645,10 +46645,10 @@
         <v>0.5125</v>
       </c>
       <c r="AB518">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC518">
-        <v>0.3875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="519" spans="1:29">
@@ -46656,7 +46656,7 @@
         <v>517</v>
       </c>
       <c r="B519">
-        <v>5036724</v>
+        <v>5036725</v>
       </c>
       <c r="C519" t="s">
         <v>28</v>
@@ -46668,40 +46668,40 @@
         <v>44774.5625</v>
       </c>
       <c r="F519" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G519" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H519">
         <v>1</v>
       </c>
       <c r="I519">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J519" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K519">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="L519">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M519">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="N519">
-        <v>1.3</v>
+        <v>2.05</v>
       </c>
       <c r="O519">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="P519">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="Q519">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R519">
         <v>1.775</v>
@@ -46710,19 +46710,19 @@
         <v>2.025</v>
       </c>
       <c r="T519">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U519">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V519">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W519">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X519">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y519">
         <v>-1</v>
@@ -46734,10 +46734,10 @@
         <v>0.5125</v>
       </c>
       <c r="AB519">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC519">
-        <v>0.8500000000000001</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="520" spans="1:29">
@@ -47012,7 +47012,7 @@
         <v>521</v>
       </c>
       <c r="B523">
-        <v>5035646</v>
+        <v>5036727</v>
       </c>
       <c r="C523" t="s">
         <v>28</v>
@@ -47024,76 +47024,76 @@
         <v>44777.5625</v>
       </c>
       <c r="F523" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G523" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="H523">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I523">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J523" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K523">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="L523">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M523">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="N523">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="O523">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P523">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="Q523">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R523">
+        <v>2.025</v>
+      </c>
+      <c r="S523">
+        <v>1.775</v>
+      </c>
+      <c r="T523">
+        <v>2.25</v>
+      </c>
+      <c r="U523">
+        <v>2</v>
+      </c>
+      <c r="V523">
         <v>1.8</v>
       </c>
-      <c r="S523">
-        <v>2</v>
-      </c>
-      <c r="T523">
-        <v>2.5</v>
-      </c>
-      <c r="U523">
-        <v>2.025</v>
-      </c>
-      <c r="V523">
-        <v>1.775</v>
-      </c>
       <c r="W523">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X523">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y523">
         <v>-1</v>
       </c>
       <c r="Z523">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA523">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB523">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC523">
-        <v>0.7749999999999999</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="524" spans="1:29">
@@ -47101,7 +47101,7 @@
         <v>522</v>
       </c>
       <c r="B524">
-        <v>5036727</v>
+        <v>5035646</v>
       </c>
       <c r="C524" t="s">
         <v>28</v>
@@ -47113,76 +47113,76 @@
         <v>44777.5625</v>
       </c>
       <c r="F524" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G524" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H524">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I524">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J524" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K524">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="L524">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M524">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="N524">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="O524">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P524">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="Q524">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R524">
+        <v>1.8</v>
+      </c>
+      <c r="S524">
+        <v>2</v>
+      </c>
+      <c r="T524">
+        <v>2.5</v>
+      </c>
+      <c r="U524">
         <v>2.025</v>
       </c>
-      <c r="S524">
+      <c r="V524">
         <v>1.775</v>
       </c>
-      <c r="T524">
-        <v>2.25</v>
-      </c>
-      <c r="U524">
-        <v>2</v>
-      </c>
-      <c r="V524">
-        <v>1.8</v>
-      </c>
       <c r="W524">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X524">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y524">
         <v>-1</v>
       </c>
       <c r="Z524">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA524">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB524">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC524">
-        <v>0.4</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="525" spans="1:29">
@@ -48792,7 +48792,7 @@
         <v>541</v>
       </c>
       <c r="B543">
-        <v>5036737</v>
+        <v>5035650</v>
       </c>
       <c r="C543" t="s">
         <v>28</v>
@@ -48804,76 +48804,76 @@
         <v>44791.5625</v>
       </c>
       <c r="F543" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G543" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I543">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J543" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K543">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="L543">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="M543">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N543">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="O543">
         <v>2.7</v>
       </c>
       <c r="P543">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q543">
         <v>-0.25</v>
       </c>
       <c r="R543">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S543">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T543">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U543">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V543">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W543">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X543">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y543">
         <v>-1</v>
       </c>
       <c r="Z543">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA543">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AB543">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC543">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="544" spans="1:29">
@@ -48881,7 +48881,7 @@
         <v>542</v>
       </c>
       <c r="B544">
-        <v>5035650</v>
+        <v>5036737</v>
       </c>
       <c r="C544" t="s">
         <v>28</v>
@@ -48893,76 +48893,76 @@
         <v>44791.5625</v>
       </c>
       <c r="F544" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G544" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H544">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I544">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J544" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K544">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="L544">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="M544">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N544">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="O544">
         <v>2.7</v>
       </c>
       <c r="P544">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q544">
         <v>-0.25</v>
       </c>
       <c r="R544">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S544">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T544">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U544">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V544">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W544">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X544">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y544">
         <v>-1</v>
       </c>
       <c r="Z544">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA544">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB544">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC544">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="545" spans="1:29">
@@ -50572,7 +50572,7 @@
         <v>561</v>
       </c>
       <c r="B563">
-        <v>5372845</v>
+        <v>5372583</v>
       </c>
       <c r="C563" t="s">
         <v>28</v>
@@ -50584,76 +50584,76 @@
         <v>44799.66666666666</v>
       </c>
       <c r="F563" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G563" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H563">
         <v>0</v>
       </c>
       <c r="I563">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J563" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K563">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="L563">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M563">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="N563">
-        <v>1.95</v>
+        <v>5.25</v>
       </c>
       <c r="O563">
         <v>3.4</v>
       </c>
       <c r="P563">
-        <v>3.6</v>
+        <v>1.65</v>
       </c>
       <c r="Q563">
+        <v>0.75</v>
+      </c>
+      <c r="R563">
+        <v>1.95</v>
+      </c>
+      <c r="S563">
+        <v>1.85</v>
+      </c>
+      <c r="T563">
+        <v>2.25</v>
+      </c>
+      <c r="U563">
+        <v>1.825</v>
+      </c>
+      <c r="V563">
+        <v>1.975</v>
+      </c>
+      <c r="W563">
+        <v>-1</v>
+      </c>
+      <c r="X563">
+        <v>-1</v>
+      </c>
+      <c r="Y563">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="Z563">
+        <v>-1</v>
+      </c>
+      <c r="AA563">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB563">
         <v>-0.5</v>
       </c>
-      <c r="R563">
-        <v>2.025</v>
-      </c>
-      <c r="S563">
-        <v>1.775</v>
-      </c>
-      <c r="T563">
-        <v>2.5</v>
-      </c>
-      <c r="U563">
-        <v>1.95</v>
-      </c>
-      <c r="V563">
-        <v>1.85</v>
-      </c>
-      <c r="W563">
-        <v>-1</v>
-      </c>
-      <c r="X563">
-        <v>2.4</v>
-      </c>
-      <c r="Y563">
-        <v>-1</v>
-      </c>
-      <c r="Z563">
-        <v>-1</v>
-      </c>
-      <c r="AA563">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AB563">
-        <v>-1</v>
-      </c>
       <c r="AC563">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="564" spans="1:29">
@@ -50661,7 +50661,7 @@
         <v>562</v>
       </c>
       <c r="B564">
-        <v>5372583</v>
+        <v>5372845</v>
       </c>
       <c r="C564" t="s">
         <v>28</v>
@@ -50673,76 +50673,76 @@
         <v>44799.66666666666</v>
       </c>
       <c r="F564" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G564" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H564">
         <v>0</v>
       </c>
       <c r="I564">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J564" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K564">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="L564">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M564">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="N564">
-        <v>5.25</v>
+        <v>1.95</v>
       </c>
       <c r="O564">
         <v>3.4</v>
       </c>
       <c r="P564">
-        <v>1.65</v>
+        <v>3.6</v>
       </c>
       <c r="Q564">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R564">
+        <v>2.025</v>
+      </c>
+      <c r="S564">
+        <v>1.775</v>
+      </c>
+      <c r="T564">
+        <v>2.5</v>
+      </c>
+      <c r="U564">
         <v>1.95</v>
       </c>
-      <c r="S564">
+      <c r="V564">
         <v>1.85</v>
       </c>
-      <c r="T564">
-        <v>2.25</v>
-      </c>
-      <c r="U564">
-        <v>1.825</v>
-      </c>
-      <c r="V564">
-        <v>1.975</v>
-      </c>
       <c r="W564">
         <v>-1</v>
       </c>
       <c r="X564">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y564">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z564">
         <v>-1</v>
       </c>
       <c r="AA564">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB564">
+        <v>-1</v>
+      </c>
+      <c r="AC564">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB564">
-        <v>-0.5</v>
-      </c>
-      <c r="AC564">
-        <v>0.4875</v>
       </c>
     </row>
     <row r="565" spans="1:29">
@@ -54755,7 +54755,7 @@
         <v>608</v>
       </c>
       <c r="B610">
-        <v>5774659</v>
+        <v>5774018</v>
       </c>
       <c r="C610" t="s">
         <v>28</v>
@@ -54767,76 +54767,76 @@
         <v>44896.40625</v>
       </c>
       <c r="F610" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G610" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H610">
+        <v>0</v>
+      </c>
+      <c r="I610">
         <v>1</v>
       </c>
-      <c r="I610">
-        <v>0</v>
-      </c>
       <c r="J610" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K610">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="L610">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="M610">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="N610">
-        <v>2.8</v>
+        <v>5.75</v>
       </c>
       <c r="O610">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="P610">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="Q610">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R610">
+        <v>1.85</v>
+      </c>
+      <c r="S610">
         <v>1.95</v>
       </c>
-      <c r="S610">
-        <v>1.85</v>
-      </c>
       <c r="T610">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U610">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V610">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W610">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X610">
         <v>-1</v>
       </c>
       <c r="Y610">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z610">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA610">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB610">
         <v>-1</v>
       </c>
       <c r="AC610">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="611" spans="1:29">
@@ -54844,7 +54844,7 @@
         <v>609</v>
       </c>
       <c r="B611">
-        <v>5774018</v>
+        <v>5774659</v>
       </c>
       <c r="C611" t="s">
         <v>28</v>
@@ -54856,76 +54856,76 @@
         <v>44896.40625</v>
       </c>
       <c r="F611" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G611" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H611">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I611">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J611" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K611">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="L611">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="M611">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="N611">
-        <v>5.75</v>
+        <v>2.8</v>
       </c>
       <c r="O611">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="P611">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q611">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R611">
+        <v>1.95</v>
+      </c>
+      <c r="S611">
         <v>1.85</v>
       </c>
-      <c r="S611">
-        <v>1.95</v>
-      </c>
       <c r="T611">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U611">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V611">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W611">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X611">
         <v>-1</v>
       </c>
       <c r="Y611">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z611">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA611">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB611">
         <v>-1</v>
       </c>
       <c r="AC611">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="612" spans="1:29">
@@ -57603,7 +57603,7 @@
         <v>640</v>
       </c>
       <c r="B642">
-        <v>5774665</v>
+        <v>5774666</v>
       </c>
       <c r="C642" t="s">
         <v>28</v>
@@ -57615,76 +57615,76 @@
         <v>44914.5</v>
       </c>
       <c r="F642" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G642" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H642">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I642">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J642" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K642">
-        <v>3.1</v>
+        <v>1.65</v>
       </c>
       <c r="L642">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="M642">
-        <v>2.45</v>
+        <v>5.5</v>
       </c>
       <c r="N642">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="O642">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="P642">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="Q642">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R642">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S642">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T642">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U642">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V642">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W642">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X642">
         <v>-1</v>
       </c>
       <c r="Y642">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z642">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA642">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB642">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC642">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="643" spans="1:29">
@@ -57692,7 +57692,7 @@
         <v>641</v>
       </c>
       <c r="B643">
-        <v>5774666</v>
+        <v>5774665</v>
       </c>
       <c r="C643" t="s">
         <v>28</v>
@@ -57704,76 +57704,76 @@
         <v>44914.5</v>
       </c>
       <c r="F643" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G643" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H643">
+        <v>0</v>
+      </c>
+      <c r="I643">
+        <v>2</v>
+      </c>
+      <c r="J643" t="s">
+        <v>56</v>
+      </c>
+      <c r="K643">
+        <v>3.1</v>
+      </c>
+      <c r="L643">
+        <v>2.8</v>
+      </c>
+      <c r="M643">
+        <v>2.45</v>
+      </c>
+      <c r="N643">
+        <v>3.3</v>
+      </c>
+      <c r="O643">
+        <v>2.8</v>
+      </c>
+      <c r="P643">
+        <v>2.3</v>
+      </c>
+      <c r="Q643">
+        <v>0.25</v>
+      </c>
+      <c r="R643">
+        <v>1.8</v>
+      </c>
+      <c r="S643">
+        <v>2</v>
+      </c>
+      <c r="T643">
+        <v>2</v>
+      </c>
+      <c r="U643">
+        <v>1.875</v>
+      </c>
+      <c r="V643">
+        <v>1.925</v>
+      </c>
+      <c r="W643">
+        <v>-1</v>
+      </c>
+      <c r="X643">
+        <v>-1</v>
+      </c>
+      <c r="Y643">
+        <v>1.3</v>
+      </c>
+      <c r="Z643">
+        <v>-1</v>
+      </c>
+      <c r="AA643">
         <v>1</v>
       </c>
-      <c r="I643">
-        <v>0</v>
-      </c>
-      <c r="J643" t="s">
-        <v>54</v>
-      </c>
-      <c r="K643">
-        <v>1.65</v>
-      </c>
-      <c r="L643">
-        <v>3.4</v>
-      </c>
-      <c r="M643">
-        <v>5.5</v>
-      </c>
-      <c r="N643">
-        <v>1.7</v>
-      </c>
-      <c r="O643">
-        <v>3.4</v>
-      </c>
-      <c r="P643">
-        <v>5</v>
-      </c>
-      <c r="Q643">
-        <v>-0.5</v>
-      </c>
-      <c r="R643">
-        <v>1.775</v>
-      </c>
-      <c r="S643">
-        <v>2.025</v>
-      </c>
-      <c r="T643">
-        <v>2.25</v>
-      </c>
-      <c r="U643">
-        <v>2.025</v>
-      </c>
-      <c r="V643">
-        <v>1.775</v>
-      </c>
-      <c r="W643">
-        <v>0.7</v>
-      </c>
-      <c r="X643">
-        <v>-1</v>
-      </c>
-      <c r="Y643">
-        <v>-1</v>
-      </c>
-      <c r="Z643">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AA643">
-        <v>-1</v>
-      </c>
       <c r="AB643">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC643">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="644" spans="1:29">
@@ -64367,7 +64367,7 @@
         <v>716</v>
       </c>
       <c r="B718">
-        <v>5774701</v>
+        <v>5774702</v>
       </c>
       <c r="C718" t="s">
         <v>28</v>
@@ -64379,73 +64379,73 @@
         <v>44955.58333333334</v>
       </c>
       <c r="F718" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G718" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H718">
         <v>2</v>
       </c>
       <c r="I718">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J718" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K718">
-        <v>1.55</v>
+        <v>2.05</v>
       </c>
       <c r="L718">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="M718">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="N718">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="O718">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="P718">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q718">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R718">
+        <v>1.8</v>
+      </c>
+      <c r="S718">
+        <v>2</v>
+      </c>
+      <c r="T718">
+        <v>2</v>
+      </c>
+      <c r="U718">
+        <v>1.75</v>
+      </c>
+      <c r="V718">
         <v>2.05</v>
       </c>
-      <c r="S718">
-        <v>1.75</v>
-      </c>
-      <c r="T718">
-        <v>2.5</v>
-      </c>
-      <c r="U718">
-        <v>1.925</v>
-      </c>
-      <c r="V718">
-        <v>1.875</v>
-      </c>
       <c r="W718">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X718">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y718">
         <v>-1</v>
       </c>
       <c r="Z718">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA718">
+        <v>-1</v>
+      </c>
+      <c r="AB718">
         <v>0.75</v>
-      </c>
-      <c r="AB718">
-        <v>0.925</v>
       </c>
       <c r="AC718">
         <v>-1</v>
@@ -64456,7 +64456,7 @@
         <v>717</v>
       </c>
       <c r="B719">
-        <v>5774702</v>
+        <v>5774701</v>
       </c>
       <c r="C719" t="s">
         <v>28</v>
@@ -64468,73 +64468,73 @@
         <v>44955.58333333334</v>
       </c>
       <c r="F719" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G719" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H719">
         <v>2</v>
       </c>
       <c r="I719">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J719" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K719">
+        <v>1.55</v>
+      </c>
+      <c r="L719">
+        <v>3.8</v>
+      </c>
+      <c r="M719">
+        <v>5.25</v>
+      </c>
+      <c r="N719">
+        <v>1.6</v>
+      </c>
+      <c r="O719">
+        <v>3.8</v>
+      </c>
+      <c r="P719">
+        <v>4.75</v>
+      </c>
+      <c r="Q719">
+        <v>-1</v>
+      </c>
+      <c r="R719">
         <v>2.05</v>
       </c>
-      <c r="L719">
-        <v>3.1</v>
-      </c>
-      <c r="M719">
-        <v>3.4</v>
-      </c>
-      <c r="N719">
-        <v>2.4</v>
-      </c>
-      <c r="O719">
-        <v>2.875</v>
-      </c>
-      <c r="P719">
+      <c r="S719">
+        <v>1.75</v>
+      </c>
+      <c r="T719">
+        <v>2.5</v>
+      </c>
+      <c r="U719">
+        <v>1.925</v>
+      </c>
+      <c r="V719">
+        <v>1.875</v>
+      </c>
+      <c r="W719">
+        <v>-1</v>
+      </c>
+      <c r="X719">
         <v>2.8</v>
       </c>
-      <c r="Q719">
-        <v>0</v>
-      </c>
-      <c r="R719">
-        <v>1.8</v>
-      </c>
-      <c r="S719">
-        <v>2</v>
-      </c>
-      <c r="T719">
-        <v>2</v>
-      </c>
-      <c r="U719">
-        <v>1.75</v>
-      </c>
-      <c r="V719">
-        <v>2.05</v>
-      </c>
-      <c r="W719">
-        <v>1.4</v>
-      </c>
-      <c r="X719">
-        <v>-1</v>
-      </c>
       <c r="Y719">
         <v>-1</v>
       </c>
       <c r="Z719">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA719">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB719">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AC719">
         <v>-1</v>
@@ -68817,7 +68817,7 @@
         <v>766</v>
       </c>
       <c r="B768">
-        <v>6467348</v>
+        <v>6451732</v>
       </c>
       <c r="C768" t="s">
         <v>28</v>
@@ -68829,76 +68829,76 @@
         <v>45019.67708333334</v>
       </c>
       <c r="F768" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G768" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H768">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I768">
         <v>1</v>
       </c>
       <c r="J768" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K768">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="L768">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="M768">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="N768">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="O768">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="P768">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="Q768">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R768">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S768">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T768">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U768">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V768">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W768">
         <v>-1</v>
       </c>
       <c r="X768">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y768">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z768">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA768">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AB768">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC768">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="769" spans="1:29">
@@ -68906,7 +68906,7 @@
         <v>767</v>
       </c>
       <c r="B769">
-        <v>6451732</v>
+        <v>6467348</v>
       </c>
       <c r="C769" t="s">
         <v>28</v>
@@ -68918,76 +68918,76 @@
         <v>45019.67708333334</v>
       </c>
       <c r="F769" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G769" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H769">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I769">
         <v>1</v>
       </c>
       <c r="J769" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K769">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="L769">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="M769">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="N769">
+        <v>3.2</v>
+      </c>
+      <c r="O769">
         <v>2.9</v>
       </c>
-      <c r="O769">
-        <v>2.75</v>
-      </c>
       <c r="P769">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="Q769">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R769">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S769">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T769">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U769">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V769">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W769">
         <v>-1</v>
       </c>
       <c r="X769">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y769">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z769">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA769">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AB769">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC769">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="770" spans="1:29">
@@ -69262,7 +69262,7 @@
         <v>771</v>
       </c>
       <c r="B773">
-        <v>6451733</v>
+        <v>6471794</v>
       </c>
       <c r="C773" t="s">
         <v>28</v>
@@ -69274,76 +69274,76 @@
         <v>45021.67708333334</v>
       </c>
       <c r="F773" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G773" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H773">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I773">
         <v>0</v>
       </c>
       <c r="J773" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K773">
-        <v>4.2</v>
+        <v>1.222</v>
       </c>
       <c r="L773">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="M773">
-        <v>1.85</v>
+        <v>10</v>
       </c>
       <c r="N773">
-        <v>3.4</v>
+        <v>1.222</v>
       </c>
       <c r="O773">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="P773">
-        <v>2.15</v>
+        <v>10</v>
       </c>
       <c r="Q773">
-        <v>0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R773">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S773">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T773">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U773">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V773">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W773">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X773">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y773">
         <v>-1</v>
       </c>
       <c r="Z773">
-        <v>0.4375</v>
+        <v>1</v>
       </c>
       <c r="AA773">
+        <v>-1</v>
+      </c>
+      <c r="AB773">
+        <v>0.4875</v>
+      </c>
+      <c r="AC773">
         <v>-0.5</v>
-      </c>
-      <c r="AB773">
-        <v>-1</v>
-      </c>
-      <c r="AC773">
-        <v>0.925</v>
       </c>
     </row>
     <row r="774" spans="1:29">
@@ -69351,7 +69351,7 @@
         <v>772</v>
       </c>
       <c r="B774">
-        <v>6471794</v>
+        <v>6451733</v>
       </c>
       <c r="C774" t="s">
         <v>28</v>
@@ -69363,76 +69363,76 @@
         <v>45021.67708333334</v>
       </c>
       <c r="F774" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G774" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H774">
+        <v>0</v>
+      </c>
+      <c r="I774">
+        <v>0</v>
+      </c>
+      <c r="J774" t="s">
+        <v>55</v>
+      </c>
+      <c r="K774">
+        <v>4.2</v>
+      </c>
+      <c r="L774">
         <v>3</v>
       </c>
-      <c r="I774">
-        <v>0</v>
-      </c>
-      <c r="J774" t="s">
-        <v>54</v>
-      </c>
-      <c r="K774">
-        <v>1.222</v>
-      </c>
-      <c r="L774">
-        <v>5.25</v>
-      </c>
       <c r="M774">
-        <v>10</v>
+        <v>1.85</v>
       </c>
       <c r="N774">
-        <v>1.222</v>
+        <v>3.4</v>
       </c>
       <c r="O774">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="P774">
-        <v>10</v>
+        <v>2.15</v>
       </c>
       <c r="Q774">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R774">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S774">
+        <v>1.925</v>
+      </c>
+      <c r="T774">
+        <v>2</v>
+      </c>
+      <c r="U774">
+        <v>1.875</v>
+      </c>
+      <c r="V774">
+        <v>1.925</v>
+      </c>
+      <c r="W774">
+        <v>-1</v>
+      </c>
+      <c r="X774">
         <v>1.8</v>
       </c>
-      <c r="T774">
-        <v>2.75</v>
-      </c>
-      <c r="U774">
-        <v>1.975</v>
-      </c>
-      <c r="V774">
-        <v>1.825</v>
-      </c>
-      <c r="W774">
-        <v>0.222</v>
-      </c>
-      <c r="X774">
-        <v>-1</v>
-      </c>
       <c r="Y774">
         <v>-1</v>
       </c>
       <c r="Z774">
-        <v>1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA774">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB774">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC774">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="775" spans="1:29">
@@ -70063,7 +70063,7 @@
         <v>780</v>
       </c>
       <c r="B782">
-        <v>6471800</v>
+        <v>6484222</v>
       </c>
       <c r="C782" t="s">
         <v>28</v>
@@ -70075,76 +70075,76 @@
         <v>45028.67708333334</v>
       </c>
       <c r="F782" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="G782" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H782">
         <v>0</v>
       </c>
       <c r="I782">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J782" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K782">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="L782">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M782">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="N782">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="O782">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="P782">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="Q782">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R782">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S782">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T782">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U782">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V782">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W782">
         <v>-1</v>
       </c>
       <c r="X782">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y782">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z782">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA782">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB782">
         <v>-1</v>
       </c>
       <c r="AC782">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="783" spans="1:29">
@@ -70152,7 +70152,7 @@
         <v>781</v>
       </c>
       <c r="B783">
-        <v>6484222</v>
+        <v>6471800</v>
       </c>
       <c r="C783" t="s">
         <v>28</v>
@@ -70164,76 +70164,76 @@
         <v>45028.67708333334</v>
       </c>
       <c r="F783" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="G783" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H783">
         <v>0</v>
       </c>
       <c r="I783">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J783" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K783">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="L783">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M783">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="N783">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="O783">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="P783">
-        <v>1.95</v>
+        <v>1.6</v>
       </c>
       <c r="Q783">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R783">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S783">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T783">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U783">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V783">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W783">
         <v>-1</v>
       </c>
       <c r="X783">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y783">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z783">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA783">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB783">
         <v>-1</v>
       </c>
       <c r="AC783">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="784" spans="1:29">
@@ -70241,7 +70241,7 @@
         <v>782</v>
       </c>
       <c r="B784">
-        <v>6488023</v>
+        <v>6471699</v>
       </c>
       <c r="C784" t="s">
         <v>28</v>
@@ -70253,76 +70253,76 @@
         <v>45029.67708333334</v>
       </c>
       <c r="F784" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G784" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H784">
         <v>0</v>
       </c>
       <c r="I784">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J784" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K784">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="L784">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="M784">
-        <v>3.25</v>
+        <v>1.833</v>
       </c>
       <c r="N784">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="O784">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P784">
-        <v>2.55</v>
+        <v>1.7</v>
       </c>
       <c r="Q784">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R784">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S784">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T784">
         <v>2</v>
       </c>
       <c r="U784">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V784">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W784">
         <v>-1</v>
       </c>
       <c r="X784">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y784">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z784">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA784">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB784">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC784">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="785" spans="1:29">
@@ -70330,7 +70330,7 @@
         <v>783</v>
       </c>
       <c r="B785">
-        <v>6471699</v>
+        <v>6484223</v>
       </c>
       <c r="C785" t="s">
         <v>28</v>
@@ -70342,73 +70342,73 @@
         <v>45029.67708333334</v>
       </c>
       <c r="F785" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G785" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H785">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I785">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J785" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K785">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="L785">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="M785">
-        <v>1.833</v>
+        <v>2.5</v>
       </c>
       <c r="N785">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="O785">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="P785">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="Q785">
+        <v>-0.25</v>
+      </c>
+      <c r="R785">
+        <v>2</v>
+      </c>
+      <c r="S785">
+        <v>1.8</v>
+      </c>
+      <c r="T785">
+        <v>1.75</v>
+      </c>
+      <c r="U785">
+        <v>1.75</v>
+      </c>
+      <c r="V785">
+        <v>2.05</v>
+      </c>
+      <c r="W785">
+        <v>1.375</v>
+      </c>
+      <c r="X785">
+        <v>-1</v>
+      </c>
+      <c r="Y785">
+        <v>-1</v>
+      </c>
+      <c r="Z785">
+        <v>1</v>
+      </c>
+      <c r="AA785">
+        <v>-1</v>
+      </c>
+      <c r="AB785">
         <v>0.75</v>
-      </c>
-      <c r="R785">
-        <v>1.8</v>
-      </c>
-      <c r="S785">
-        <v>2</v>
-      </c>
-      <c r="T785">
-        <v>2</v>
-      </c>
-      <c r="U785">
-        <v>1.825</v>
-      </c>
-      <c r="V785">
-        <v>1.975</v>
-      </c>
-      <c r="W785">
-        <v>-1</v>
-      </c>
-      <c r="X785">
-        <v>-1</v>
-      </c>
-      <c r="Y785">
-        <v>0.7</v>
-      </c>
-      <c r="Z785">
-        <v>-1</v>
-      </c>
-      <c r="AA785">
-        <v>1</v>
-      </c>
-      <c r="AB785">
-        <v>0.825</v>
       </c>
       <c r="AC785">
         <v>-1</v>
@@ -70419,7 +70419,7 @@
         <v>784</v>
       </c>
       <c r="B786">
-        <v>6484223</v>
+        <v>6488023</v>
       </c>
       <c r="C786" t="s">
         <v>28</v>
@@ -70431,76 +70431,76 @@
         <v>45029.67708333334</v>
       </c>
       <c r="F786" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G786" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H786">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I786">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J786" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K786">
-        <v>2.875</v>
+        <v>2.25</v>
       </c>
       <c r="L786">
         <v>2.75</v>
       </c>
       <c r="M786">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="N786">
-        <v>2.375</v>
+        <v>2.6</v>
       </c>
       <c r="O786">
-        <v>2.7</v>
+        <v>2.875</v>
       </c>
       <c r="P786">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="Q786">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R786">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S786">
+        <v>1.9</v>
+      </c>
+      <c r="T786">
+        <v>2</v>
+      </c>
+      <c r="U786">
         <v>1.8</v>
       </c>
-      <c r="T786">
-        <v>1.75</v>
-      </c>
-      <c r="U786">
-        <v>1.75</v>
-      </c>
       <c r="V786">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W786">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X786">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y786">
         <v>-1</v>
       </c>
       <c r="Z786">
+        <v>0</v>
+      </c>
+      <c r="AA786">
+        <v>-0</v>
+      </c>
+      <c r="AB786">
+        <v>-1</v>
+      </c>
+      <c r="AC786">
         <v>1</v>
-      </c>
-      <c r="AA786">
-        <v>-1</v>
-      </c>
-      <c r="AB786">
-        <v>0.75</v>
-      </c>
-      <c r="AC786">
-        <v>-1</v>
       </c>
     </row>
     <row r="787" spans="1:29">
@@ -70864,7 +70864,7 @@
         <v>789</v>
       </c>
       <c r="B791">
-        <v>6488032</v>
+        <v>6488028</v>
       </c>
       <c r="C791" t="s">
         <v>28</v>
@@ -70876,49 +70876,49 @@
         <v>45033.67708333334</v>
       </c>
       <c r="F791" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G791" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H791">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I791">
         <v>2</v>
       </c>
       <c r="J791" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K791">
-        <v>6.5</v>
+        <v>1.8</v>
       </c>
       <c r="L791">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M791">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="N791">
-        <v>6.5</v>
+        <v>2.25</v>
       </c>
       <c r="O791">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="P791">
-        <v>1.45</v>
+        <v>3.1</v>
       </c>
       <c r="Q791">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R791">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S791">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T791">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U791">
         <v>1.875</v>
@@ -70930,22 +70930,22 @@
         <v>-1</v>
       </c>
       <c r="X791">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y791">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z791">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA791">
-        <v>0.825</v>
+        <v>0.375</v>
       </c>
       <c r="AB791">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC791">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="792" spans="1:29">
@@ -70953,7 +70953,7 @@
         <v>790</v>
       </c>
       <c r="B792">
-        <v>6488028</v>
+        <v>6488032</v>
       </c>
       <c r="C792" t="s">
         <v>28</v>
@@ -70965,49 +70965,49 @@
         <v>45033.67708333334</v>
       </c>
       <c r="F792" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G792" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H792">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I792">
         <v>2</v>
       </c>
       <c r="J792" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K792">
-        <v>1.8</v>
+        <v>6.5</v>
       </c>
       <c r="L792">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M792">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="N792">
-        <v>2.25</v>
+        <v>6.5</v>
       </c>
       <c r="O792">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="P792">
-        <v>3.1</v>
+        <v>1.45</v>
       </c>
       <c r="Q792">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R792">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S792">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T792">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U792">
         <v>1.875</v>
@@ -71019,22 +71019,22 @@
         <v>-1</v>
       </c>
       <c r="X792">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y792">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z792">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA792">
-        <v>0.375</v>
+        <v>0.825</v>
       </c>
       <c r="AB792">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC792">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="793" spans="1:29">
@@ -71309,7 +71309,7 @@
         <v>794</v>
       </c>
       <c r="B796">
-        <v>6488030</v>
+        <v>6495713</v>
       </c>
       <c r="C796" t="s">
         <v>28</v>
@@ -71321,76 +71321,76 @@
         <v>45035.67708333334</v>
       </c>
       <c r="F796" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G796" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="H796">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I796">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J796" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K796">
-        <v>2</v>
+        <v>3.9</v>
       </c>
       <c r="L796">
+        <v>2.7</v>
+      </c>
+      <c r="M796">
+        <v>2.05</v>
+      </c>
+      <c r="N796">
+        <v>4.2</v>
+      </c>
+      <c r="O796">
         <v>2.75</v>
       </c>
-      <c r="M796">
-        <v>4</v>
-      </c>
-      <c r="N796">
-        <v>2.05</v>
-      </c>
-      <c r="O796">
-        <v>2.9</v>
-      </c>
       <c r="P796">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="Q796">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R796">
+        <v>2.025</v>
+      </c>
+      <c r="S796">
         <v>1.775</v>
       </c>
-      <c r="S796">
-        <v>2.025</v>
-      </c>
       <c r="T796">
         <v>2</v>
       </c>
       <c r="U796">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V796">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W796">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X796">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y796">
         <v>-1</v>
       </c>
       <c r="Z796">
-        <v>0.7749999999999999</v>
+        <v>0.5125</v>
       </c>
       <c r="AA796">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB796">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC796">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="797" spans="1:29">
@@ -71398,7 +71398,7 @@
         <v>795</v>
       </c>
       <c r="B797">
-        <v>6495713</v>
+        <v>6488030</v>
       </c>
       <c r="C797" t="s">
         <v>28</v>
@@ -71410,76 +71410,76 @@
         <v>45035.67708333334</v>
       </c>
       <c r="F797" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="G797" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H797">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I797">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J797" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K797">
-        <v>3.9</v>
+        <v>2</v>
       </c>
       <c r="L797">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="M797">
+        <v>4</v>
+      </c>
+      <c r="N797">
         <v>2.05</v>
       </c>
-      <c r="N797">
-        <v>4.2</v>
-      </c>
       <c r="O797">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="P797">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="Q797">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R797">
+        <v>1.775</v>
+      </c>
+      <c r="S797">
         <v>2.025</v>
       </c>
-      <c r="S797">
-        <v>1.775</v>
-      </c>
       <c r="T797">
         <v>2</v>
       </c>
       <c r="U797">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V797">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W797">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X797">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y797">
         <v>-1</v>
       </c>
       <c r="Z797">
-        <v>0.5125</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA797">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB797">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC797">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="798" spans="1:29">
@@ -79497,7 +79497,7 @@
         <v>886</v>
       </c>
       <c r="B888">
-        <v>7208758</v>
+        <v>7210310</v>
       </c>
       <c r="C888" t="s">
         <v>28</v>
@@ -79509,76 +79509,76 @@
         <v>45189.54166666666</v>
       </c>
       <c r="F888" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G888" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H888">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I888">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J888" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K888">
         <v>2.5</v>
       </c>
       <c r="L888">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="M888">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="N888">
+        <v>2.25</v>
+      </c>
+      <c r="O888">
+        <v>2.7</v>
+      </c>
+      <c r="P888">
+        <v>3.5</v>
+      </c>
+      <c r="Q888">
+        <v>-0.25</v>
+      </c>
+      <c r="R888">
+        <v>1.925</v>
+      </c>
+      <c r="S888">
+        <v>1.875</v>
+      </c>
+      <c r="T888">
+        <v>1.75</v>
+      </c>
+      <c r="U888">
+        <v>1.925</v>
+      </c>
+      <c r="V888">
+        <v>1.875</v>
+      </c>
+      <c r="W888">
+        <v>-1</v>
+      </c>
+      <c r="X888">
+        <v>-1</v>
+      </c>
+      <c r="Y888">
         <v>2.5</v>
       </c>
-      <c r="O888">
-        <v>2.625</v>
-      </c>
-      <c r="P888">
-        <v>3</v>
-      </c>
-      <c r="Q888">
-        <v>0</v>
-      </c>
-      <c r="R888">
-        <v>1.725</v>
-      </c>
-      <c r="S888">
-        <v>2.075</v>
-      </c>
-      <c r="T888">
-        <v>2</v>
-      </c>
-      <c r="U888">
-        <v>1.775</v>
-      </c>
-      <c r="V888">
-        <v>2.025</v>
-      </c>
-      <c r="W888">
-        <v>-1</v>
-      </c>
-      <c r="X888">
-        <v>1.625</v>
-      </c>
-      <c r="Y888">
-        <v>-1</v>
-      </c>
       <c r="Z888">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA888">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB888">
-        <v>0</v>
+        <v>0.4625</v>
       </c>
       <c r="AC888">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="889" spans="1:29">
@@ -79586,7 +79586,7 @@
         <v>887</v>
       </c>
       <c r="B889">
-        <v>7210310</v>
+        <v>7208758</v>
       </c>
       <c r="C889" t="s">
         <v>28</v>
@@ -79598,76 +79598,76 @@
         <v>45189.54166666666</v>
       </c>
       <c r="F889" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G889" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="H889">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I889">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J889" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K889">
         <v>2.5</v>
       </c>
       <c r="L889">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="M889">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="N889">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="O889">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="P889">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Q889">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R889">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="S889">
-        <v>1.875</v>
+        <v>2.075</v>
       </c>
       <c r="T889">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U889">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V889">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W889">
         <v>-1</v>
       </c>
       <c r="X889">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Y889">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z889">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA889">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB889">
-        <v>0.4625</v>
+        <v>0</v>
       </c>
       <c r="AC889">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="890" spans="1:29">
@@ -81277,7 +81277,7 @@
         <v>906</v>
       </c>
       <c r="B908">
-        <v>7217625</v>
+        <v>7217624</v>
       </c>
       <c r="C908" t="s">
         <v>28</v>
@@ -81289,58 +81289,58 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F908" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G908" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H908">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I908">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J908" t="s">
         <v>54</v>
       </c>
       <c r="K908">
-        <v>1.25</v>
+        <v>1.444</v>
       </c>
       <c r="L908">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M908">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="N908">
-        <v>1.333</v>
+        <v>1.5</v>
       </c>
       <c r="O908">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P908">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q908">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R908">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S908">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T908">
         <v>2.5</v>
       </c>
       <c r="U908">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V908">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W908">
-        <v>0.333</v>
+        <v>0.5</v>
       </c>
       <c r="X908">
         <v>-1</v>
@@ -81349,16 +81349,16 @@
         <v>-1</v>
       </c>
       <c r="Z908">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA908">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB908">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC908">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="909" spans="1:29">
@@ -81366,7 +81366,7 @@
         <v>907</v>
       </c>
       <c r="B909">
-        <v>7217624</v>
+        <v>7217625</v>
       </c>
       <c r="C909" t="s">
         <v>28</v>
@@ -81378,58 +81378,58 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F909" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G909" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H909">
+        <v>3</v>
+      </c>
+      <c r="I909">
         <v>1</v>
-      </c>
-      <c r="I909">
-        <v>0</v>
       </c>
       <c r="J909" t="s">
         <v>54</v>
       </c>
       <c r="K909">
-        <v>1.444</v>
+        <v>1.25</v>
       </c>
       <c r="L909">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M909">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="N909">
-        <v>1.5</v>
+        <v>1.333</v>
       </c>
       <c r="O909">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P909">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q909">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R909">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S909">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T909">
         <v>2.5</v>
       </c>
       <c r="U909">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V909">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W909">
-        <v>0.5</v>
+        <v>0.333</v>
       </c>
       <c r="X909">
         <v>-1</v>
@@ -81438,16 +81438,16 @@
         <v>-1</v>
       </c>
       <c r="Z909">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA909">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB909">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC909">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="910" spans="1:29">
@@ -84214,7 +84214,7 @@
         <v>939</v>
       </c>
       <c r="B941">
-        <v>7217658</v>
+        <v>7217659</v>
       </c>
       <c r="C941" t="s">
         <v>28</v>
@@ -84226,10 +84226,10 @@
         <v>45260.58333333334</v>
       </c>
       <c r="F941" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="G941" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H941">
         <v>1</v>
@@ -84241,55 +84241,55 @@
         <v>55</v>
       </c>
       <c r="K941">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L941">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="M941">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="N941">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="O941">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="P941">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q941">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R941">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S941">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T941">
         <v>2</v>
       </c>
       <c r="U941">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V941">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W941">
         <v>-1</v>
       </c>
       <c r="X941">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="Y941">
         <v>-1</v>
       </c>
       <c r="Z941">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA941">
-        <v>0.475</v>
+        <v>-0</v>
       </c>
       <c r="AB941">
         <v>0</v>
@@ -84303,7 +84303,7 @@
         <v>940</v>
       </c>
       <c r="B942">
-        <v>7217659</v>
+        <v>7217658</v>
       </c>
       <c r="C942" t="s">
         <v>28</v>
@@ -84315,10 +84315,10 @@
         <v>45260.58333333334</v>
       </c>
       <c r="F942" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G942" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H942">
         <v>1</v>
@@ -84330,55 +84330,55 @@
         <v>55</v>
       </c>
       <c r="K942">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L942">
+        <v>2.875</v>
+      </c>
+      <c r="M942">
+        <v>3.5</v>
+      </c>
+      <c r="N942">
+        <v>2.15</v>
+      </c>
+      <c r="O942">
         <v>2.8</v>
       </c>
-      <c r="M942">
-        <v>2.8</v>
-      </c>
-      <c r="N942">
-        <v>2.6</v>
-      </c>
-      <c r="O942">
-        <v>2.7</v>
-      </c>
       <c r="P942">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q942">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R942">
+        <v>1.85</v>
+      </c>
+      <c r="S942">
+        <v>1.95</v>
+      </c>
+      <c r="T942">
+        <v>2</v>
+      </c>
+      <c r="U942">
         <v>1.825</v>
       </c>
-      <c r="S942">
+      <c r="V942">
         <v>1.975</v>
       </c>
-      <c r="T942">
-        <v>2</v>
-      </c>
-      <c r="U942">
-        <v>2</v>
-      </c>
-      <c r="V942">
+      <c r="W942">
+        <v>-1</v>
+      </c>
+      <c r="X942">
         <v>1.8</v>
       </c>
-      <c r="W942">
-        <v>-1</v>
-      </c>
-      <c r="X942">
-        <v>1.7</v>
-      </c>
       <c r="Y942">
         <v>-1</v>
       </c>
       <c r="Z942">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA942">
-        <v>-0</v>
+        <v>0.475</v>
       </c>
       <c r="AB942">
         <v>0</v>
@@ -84837,7 +84837,7 @@
         <v>946</v>
       </c>
       <c r="B948">
-        <v>7217665</v>
+        <v>7217666</v>
       </c>
       <c r="C948" t="s">
         <v>28</v>
@@ -84849,58 +84849,58 @@
         <v>45265.58333333334</v>
       </c>
       <c r="F948" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G948" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H948">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I948">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J948" t="s">
         <v>54</v>
       </c>
       <c r="K948">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="L948">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M948">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="N948">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="O948">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="P948">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="Q948">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R948">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S948">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T948">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U948">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="V948">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W948">
-        <v>1.375</v>
+        <v>0.909</v>
       </c>
       <c r="X948">
         <v>-1</v>
@@ -84909,13 +84909,13 @@
         <v>-1</v>
       </c>
       <c r="Z948">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AA948">
         <v>-1</v>
       </c>
       <c r="AB948">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AC948">
         <v>-1</v>
@@ -84926,7 +84926,7 @@
         <v>947</v>
       </c>
       <c r="B949">
-        <v>7217666</v>
+        <v>7217665</v>
       </c>
       <c r="C949" t="s">
         <v>28</v>
@@ -84938,58 +84938,58 @@
         <v>45265.58333333334</v>
       </c>
       <c r="F949" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G949" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H949">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I949">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J949" t="s">
         <v>54</v>
       </c>
       <c r="K949">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="L949">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M949">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="N949">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O949">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="P949">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="Q949">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R949">
+        <v>2.025</v>
+      </c>
+      <c r="S949">
+        <v>1.775</v>
+      </c>
+      <c r="T949">
+        <v>2.25</v>
+      </c>
+      <c r="U949">
         <v>1.95</v>
       </c>
-      <c r="S949">
+      <c r="V949">
         <v>1.85</v>
       </c>
-      <c r="T949">
-        <v>2</v>
-      </c>
-      <c r="U949">
-        <v>1.75</v>
-      </c>
-      <c r="V949">
-        <v>2.05</v>
-      </c>
       <c r="W949">
-        <v>0.909</v>
+        <v>1.375</v>
       </c>
       <c r="X949">
         <v>-1</v>
@@ -84998,13 +84998,13 @@
         <v>-1</v>
       </c>
       <c r="Z949">
+        <v>1.025</v>
+      </c>
+      <c r="AA949">
+        <v>-1</v>
+      </c>
+      <c r="AB949">
         <v>0.95</v>
-      </c>
-      <c r="AA949">
-        <v>-1</v>
-      </c>
-      <c r="AB949">
-        <v>0.75</v>
       </c>
       <c r="AC949">
         <v>-1</v>
@@ -85104,7 +85104,7 @@
         <v>949</v>
       </c>
       <c r="B951">
-        <v>7217678</v>
+        <v>7217675</v>
       </c>
       <c r="C951" t="s">
         <v>28</v>
@@ -85116,76 +85116,76 @@
         <v>45274.45833333334</v>
       </c>
       <c r="F951" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G951" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H951">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I951">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J951" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K951">
+        <v>2.5</v>
+      </c>
+      <c r="L951">
+        <v>2.8</v>
+      </c>
+      <c r="M951">
+        <v>2.8</v>
+      </c>
+      <c r="N951">
+        <v>2.4</v>
+      </c>
+      <c r="O951">
         <v>2.875</v>
       </c>
-      <c r="L951">
+      <c r="P951">
         <v>3</v>
       </c>
-      <c r="M951">
-        <v>2.4</v>
-      </c>
-      <c r="N951">
-        <v>3</v>
-      </c>
-      <c r="O951">
-        <v>3</v>
-      </c>
-      <c r="P951">
-        <v>2.25</v>
-      </c>
       <c r="Q951">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R951">
+        <v>2.05</v>
+      </c>
+      <c r="S951">
         <v>1.75</v>
       </c>
-      <c r="S951">
-        <v>2.05</v>
-      </c>
       <c r="T951">
         <v>2</v>
       </c>
       <c r="U951">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V951">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W951">
         <v>-1</v>
       </c>
       <c r="X951">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y951">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z951">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AA951">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AB951">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC951">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="952" spans="1:29">
@@ -85193,7 +85193,7 @@
         <v>950</v>
       </c>
       <c r="B952">
-        <v>7217675</v>
+        <v>7217678</v>
       </c>
       <c r="C952" t="s">
         <v>28</v>
@@ -85205,76 +85205,76 @@
         <v>45274.45833333334</v>
       </c>
       <c r="F952" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G952" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H952">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I952">
+        <v>1</v>
+      </c>
+      <c r="J952" t="s">
+        <v>55</v>
+      </c>
+      <c r="K952">
+        <v>2.875</v>
+      </c>
+      <c r="L952">
         <v>3</v>
       </c>
-      <c r="J952" t="s">
-        <v>56</v>
-      </c>
-      <c r="K952">
-        <v>2.5</v>
-      </c>
-      <c r="L952">
-        <v>2.8</v>
-      </c>
       <c r="M952">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="N952">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="O952">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P952">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="Q952">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R952">
+        <v>1.75</v>
+      </c>
+      <c r="S952">
         <v>2.05</v>
       </c>
-      <c r="S952">
-        <v>1.75</v>
-      </c>
       <c r="T952">
         <v>2</v>
       </c>
       <c r="U952">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V952">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W952">
         <v>-1</v>
       </c>
       <c r="X952">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y952">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z952">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AA952">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AB952">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC952">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="953" spans="1:29">
@@ -85282,7 +85282,7 @@
         <v>951</v>
       </c>
       <c r="B953">
-        <v>7217677</v>
+        <v>7217680</v>
       </c>
       <c r="C953" t="s">
         <v>28</v>
@@ -85294,76 +85294,76 @@
         <v>45274.58333333334</v>
       </c>
       <c r="F953" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G953" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="H953">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I953">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J953" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K953">
-        <v>1.25</v>
+        <v>2.3</v>
       </c>
       <c r="L953">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M953">
-        <v>9</v>
+        <v>2.875</v>
       </c>
       <c r="N953">
-        <v>1.166</v>
+        <v>2.875</v>
       </c>
       <c r="O953">
-        <v>7</v>
+        <v>3.2</v>
       </c>
       <c r="P953">
-        <v>11</v>
+        <v>2.375</v>
       </c>
       <c r="Q953">
-        <v>-2</v>
+        <v>0.25</v>
       </c>
       <c r="R953">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S953">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T953">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U953">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V953">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W953">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X953">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Y953">
         <v>-1</v>
       </c>
       <c r="Z953">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA953">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB953">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC953">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="954" spans="1:29">
@@ -85371,7 +85371,7 @@
         <v>952</v>
       </c>
       <c r="B954">
-        <v>7217680</v>
+        <v>7217677</v>
       </c>
       <c r="C954" t="s">
         <v>28</v>
@@ -85383,76 +85383,76 @@
         <v>45274.58333333334</v>
       </c>
       <c r="F954" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G954" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="H954">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I954">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J954" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K954">
-        <v>2.3</v>
+        <v>1.25</v>
       </c>
       <c r="L954">
+        <v>5</v>
+      </c>
+      <c r="M954">
+        <v>9</v>
+      </c>
+      <c r="N954">
+        <v>1.166</v>
+      </c>
+      <c r="O954">
+        <v>7</v>
+      </c>
+      <c r="P954">
+        <v>11</v>
+      </c>
+      <c r="Q954">
+        <v>-2</v>
+      </c>
+      <c r="R954">
+        <v>1.95</v>
+      </c>
+      <c r="S954">
+        <v>1.85</v>
+      </c>
+      <c r="T954">
         <v>3</v>
       </c>
-      <c r="M954">
-        <v>2.875</v>
-      </c>
-      <c r="N954">
-        <v>2.875</v>
-      </c>
-      <c r="O954">
-        <v>3.2</v>
-      </c>
-      <c r="P954">
-        <v>2.375</v>
-      </c>
-      <c r="Q954">
-        <v>0.25</v>
-      </c>
-      <c r="R954">
-        <v>1.75</v>
-      </c>
-      <c r="S954">
-        <v>2.05</v>
-      </c>
-      <c r="T954">
-        <v>2.5</v>
-      </c>
       <c r="U954">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V954">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W954">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X954">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y954">
         <v>-1</v>
       </c>
       <c r="Z954">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA954">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB954">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC954">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="955" spans="1:29">
@@ -85549,7 +85549,7 @@
         <v>954</v>
       </c>
       <c r="B956">
-        <v>7549592</v>
+        <v>7549591</v>
       </c>
       <c r="C956" t="s">
         <v>28</v>
@@ -85561,10 +85561,10 @@
         <v>45275.54166666666</v>
       </c>
       <c r="F956" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="G956" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H956">
         <v>1</v>
@@ -85576,40 +85576,40 @@
         <v>56</v>
       </c>
       <c r="K956">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="L956">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="M956">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="N956">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="O956">
         <v>2.75</v>
       </c>
       <c r="P956">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q956">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R956">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="S956">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="T956">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U956">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V956">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W956">
         <v>-1</v>
@@ -85618,16 +85618,16 @@
         <v>-1</v>
       </c>
       <c r="Y956">
-        <v>2.5</v>
+        <v>1.45</v>
       </c>
       <c r="Z956">
         <v>-1</v>
       </c>
       <c r="AA956">
-        <v>0.8999999999999999</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB956">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC956">
         <v>-1</v>
@@ -85638,7 +85638,7 @@
         <v>955</v>
       </c>
       <c r="B957">
-        <v>7549591</v>
+        <v>7549592</v>
       </c>
       <c r="C957" t="s">
         <v>28</v>
@@ -85650,10 +85650,10 @@
         <v>45275.54166666666</v>
       </c>
       <c r="F957" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="G957" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H957">
         <v>1</v>
@@ -85665,40 +85665,40 @@
         <v>56</v>
       </c>
       <c r="K957">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="L957">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="M957">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="N957">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="O957">
         <v>2.75</v>
       </c>
       <c r="P957">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="Q957">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R957">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="S957">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="T957">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U957">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V957">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W957">
         <v>-1</v>
@@ -85707,16 +85707,16 @@
         <v>-1</v>
       </c>
       <c r="Y957">
-        <v>1.45</v>
+        <v>2.5</v>
       </c>
       <c r="Z957">
         <v>-1</v>
       </c>
       <c r="AA957">
-        <v>0.7250000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB957">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC957">
         <v>-1</v>

--- a/Egypt Division 1/Egypt Division 1.xlsx
+++ b/Egypt Division 1/Egypt Division 1.xlsx
@@ -103,10 +103,10 @@
     <t>Egypt Division 1</t>
   </si>
   <si>
-    <t>Aswan FC</t>
+    <t>El Daklyeh</t>
   </si>
   <si>
-    <t>El Daklyeh</t>
+    <t>Aswan FC</t>
   </si>
   <si>
     <t>Al Ittihad Al Sakandary</t>
@@ -115,10 +115,10 @@
     <t>Al Ahly Cairo</t>
   </si>
   <si>
-    <t>Al Moqawloon Al Arab</t>
+    <t>Ghazl El Mahallah</t>
   </si>
   <si>
-    <t>Ghazl El Mahallah</t>
+    <t>Al Moqawloon Al Arab</t>
   </si>
   <si>
     <t>Ismaily SC</t>
@@ -139,10 +139,10 @@
     <t>Pyramids FC</t>
   </si>
   <si>
-    <t>Ceramica Cleopatra</t>
+    <t>El Masry</t>
   </si>
   <si>
-    <t>El Masry</t>
+    <t>Ceramica Cleopatra</t>
   </si>
   <si>
     <t>National Bank</t>
@@ -151,10 +151,10 @@
     <t>Haras El Hedoud</t>
   </si>
   <si>
-    <t>Smouha</t>
+    <t>Talaea El Geish</t>
   </si>
   <si>
-    <t>Talaea El Geish</t>
+    <t>Smouha</t>
   </si>
   <si>
     <t>ZED FC</t>
@@ -166,10 +166,10 @@
     <t>El Gounah</t>
   </si>
   <si>
-    <t>H</t>
+    <t>A</t>
   </si>
   <si>
-    <t>A</t>
+    <t>H</t>
   </si>
   <si>
     <t>D</t>
@@ -631,7 +631,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5774677</v>
+        <v>5774048</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -646,10 +646,10 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -658,25 +658,25 @@
         <v>50</v>
       </c>
       <c r="K2">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="L2">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M2">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="N2">
         <v>4.5</v>
       </c>
       <c r="O2">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="P2">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="Q2">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R2">
         <v>1.85</v>
@@ -685,34 +685,34 @@
         <v>1.95</v>
       </c>
       <c r="T2">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U2">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V2">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W2">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X2">
         <v>-1</v>
       </c>
       <c r="Y2">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z2">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA2">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB2">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC2">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -720,7 +720,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5774048</v>
+        <v>5774677</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -735,10 +735,10 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -747,25 +747,25 @@
         <v>51</v>
       </c>
       <c r="K3">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="L3">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M3">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="N3">
         <v>4.5</v>
       </c>
       <c r="O3">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="P3">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="Q3">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R3">
         <v>1.85</v>
@@ -774,34 +774,34 @@
         <v>1.95</v>
       </c>
       <c r="T3">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U3">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V3">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W3">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="X3">
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA3">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC3">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -833,7 +833,7 @@
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K4">
         <v>1.833</v>
@@ -922,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -987,7 +987,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5774051</v>
+        <v>5774679</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1002,70 +1002,70 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
         <v>3</v>
-      </c>
-      <c r="I6">
-        <v>2</v>
       </c>
       <c r="J6" t="s">
         <v>50</v>
       </c>
       <c r="K6">
-        <v>1.727</v>
+        <v>2.625</v>
       </c>
       <c r="L6">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M6">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="N6">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="O6">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P6">
-        <v>5.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q6">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R6">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S6">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T6">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U6">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V6">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W6">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z6">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB6">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC6">
         <v>-1</v>
@@ -1076,7 +1076,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5774679</v>
+        <v>5774051</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1091,70 +1091,70 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J7" t="s">
         <v>51</v>
       </c>
       <c r="K7">
-        <v>2.625</v>
+        <v>1.727</v>
       </c>
       <c r="L7">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M7">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="N7">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="O7">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P7">
-        <v>2.1</v>
+        <v>5.25</v>
       </c>
       <c r="Q7">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R7">
+        <v>1.8</v>
+      </c>
+      <c r="S7">
+        <v>2</v>
+      </c>
+      <c r="T7">
+        <v>1.75</v>
+      </c>
+      <c r="U7">
         <v>1.775</v>
       </c>
-      <c r="S7">
+      <c r="V7">
         <v>2.025</v>
       </c>
-      <c r="T7">
-        <v>2.25</v>
-      </c>
-      <c r="U7">
-        <v>1.825</v>
-      </c>
-      <c r="V7">
-        <v>1.975</v>
-      </c>
       <c r="W7">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA7">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC7">
         <v>-1</v>
@@ -1269,7 +1269,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1358,7 +1358,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1456,7 +1456,7 @@
         <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K11">
         <v>7.5</v>
@@ -1536,7 +1536,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1625,7 +1625,7 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H13">
         <v>4</v>
@@ -1634,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K13">
         <v>1.4</v>
@@ -1699,7 +1699,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5774683</v>
+        <v>5774682</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1714,70 +1714,70 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H14">
         <v>2</v>
       </c>
       <c r="I14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
         <v>51</v>
       </c>
       <c r="K14">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="L14">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M14">
-        <v>2.45</v>
+        <v>3.4</v>
       </c>
       <c r="N14">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="O14">
         <v>3.1</v>
       </c>
       <c r="P14">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R14">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S14">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T14">
         <v>2.25</v>
       </c>
       <c r="U14">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V14">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W14">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z14">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA14">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB14">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC14">
         <v>-1</v>
@@ -1788,7 +1788,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5774682</v>
+        <v>5774683</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1803,70 +1803,70 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H15">
         <v>2</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J15" t="s">
         <v>50</v>
       </c>
       <c r="K15">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="L15">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M15">
-        <v>3.4</v>
+        <v>2.45</v>
       </c>
       <c r="N15">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="O15">
         <v>3.1</v>
       </c>
       <c r="P15">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="Q15">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S15">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T15">
         <v>2.25</v>
       </c>
       <c r="U15">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V15">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W15">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z15">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB15">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC15">
         <v>-1</v>
@@ -1892,7 +1892,7 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1990,7 +1990,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K17">
         <v>3.4</v>
@@ -2055,7 +2055,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5774684</v>
+        <v>5774057</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2070,52 +2070,52 @@
         <v>45</v>
       </c>
       <c r="G18" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18">
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K18">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L18">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="M18">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="N18">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="O18">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="P18">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="Q18">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R18">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S18">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T18">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U18">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V18">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W18">
         <v>-1</v>
@@ -2124,19 +2124,19 @@
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>3</v>
+        <v>1.9</v>
       </c>
       <c r="Z18">
         <v>-1</v>
       </c>
       <c r="AA18">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AB18">
-        <v>0.3875</v>
+        <v>0.925</v>
       </c>
       <c r="AC18">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2144,7 +2144,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5774057</v>
+        <v>5774684</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2159,52 +2159,52 @@
         <v>46</v>
       </c>
       <c r="G19" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K19">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L19">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="M19">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="N19">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="O19">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="P19">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R19">
+        <v>1.775</v>
+      </c>
+      <c r="S19">
+        <v>2.025</v>
+      </c>
+      <c r="T19">
         <v>1.75</v>
       </c>
-      <c r="S19">
-        <v>2.05</v>
-      </c>
-      <c r="T19">
-        <v>2</v>
-      </c>
       <c r="U19">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V19">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W19">
         <v>-1</v>
@@ -2213,19 +2213,19 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="Z19">
         <v>-1</v>
       </c>
       <c r="AA19">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AB19">
-        <v>0.925</v>
+        <v>0.3875</v>
       </c>
       <c r="AC19">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2245,10 +2245,10 @@
         <v>44937.40625</v>
       </c>
       <c r="F20" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" t="s">
         <v>45</v>
-      </c>
-      <c r="G20" t="s">
-        <v>46</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -2257,7 +2257,7 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K20">
         <v>2.375</v>
@@ -2334,7 +2334,7 @@
         <v>44937.40625</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G21" t="s">
         <v>43</v>
@@ -2601,7 +2601,7 @@
         <v>44938.5</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G24" t="s">
         <v>38</v>
@@ -2613,7 +2613,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K24">
         <v>2.75</v>
@@ -2693,7 +2693,7 @@
         <v>32</v>
       </c>
       <c r="G25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>44939.40625</v>
       </c>
       <c r="F26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G26" t="s">
         <v>44</v>
@@ -2871,7 +2871,7 @@
         <v>37</v>
       </c>
       <c r="G27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -2960,7 +2960,7 @@
         <v>35</v>
       </c>
       <c r="G28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -2969,7 +2969,7 @@
         <v>3</v>
       </c>
       <c r="J28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K28">
         <v>2.7</v>
@@ -3049,7 +3049,7 @@
         <v>44</v>
       </c>
       <c r="G29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3058,7 +3058,7 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K29">
         <v>2.5</v>
@@ -3135,7 +3135,7 @@
         <v>44944.5</v>
       </c>
       <c r="F30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G30" t="s">
         <v>35</v>
@@ -3236,7 +3236,7 @@
         <v>3</v>
       </c>
       <c r="J31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K31">
         <v>4</v>
@@ -3313,10 +3313,10 @@
         <v>44945.40625</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -3325,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -3414,7 +3414,7 @@
         <v>3</v>
       </c>
       <c r="J33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K33">
         <v>2.25</v>
@@ -3503,7 +3503,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K34">
         <v>1.333</v>
@@ -3580,10 +3580,10 @@
         <v>44946.5</v>
       </c>
       <c r="F35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -3669,10 +3669,10 @@
         <v>44946.58333333334</v>
       </c>
       <c r="F36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K36">
         <v>2</v>
@@ -3770,7 +3770,7 @@
         <v>3</v>
       </c>
       <c r="J37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K37">
         <v>4</v>
@@ -3847,10 +3847,10 @@
         <v>44948.5</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G38" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -3859,7 +3859,7 @@
         <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K38">
         <v>3.6</v>
@@ -3948,7 +3948,7 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K39">
         <v>2.75</v>
@@ -4025,7 +4025,7 @@
         <v>44949.40625</v>
       </c>
       <c r="F40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G40" t="s">
         <v>35</v>
@@ -4114,10 +4114,10 @@
         <v>44949.58333333334</v>
       </c>
       <c r="F41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -4215,7 +4215,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K42">
         <v>1.727</v>
@@ -4295,7 +4295,7 @@
         <v>36</v>
       </c>
       <c r="G43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -4381,7 +4381,7 @@
         <v>44950.5</v>
       </c>
       <c r="F44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G44" t="s">
         <v>39</v>
@@ -4393,7 +4393,7 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K44">
         <v>4.5</v>
@@ -4470,7 +4470,7 @@
         <v>44950.58333333334</v>
       </c>
       <c r="F45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G45" t="s">
         <v>40</v>
@@ -4482,7 +4482,7 @@
         <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K45">
         <v>5.75</v>
@@ -4571,7 +4571,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K46">
         <v>1.4</v>
@@ -4648,10 +4648,10 @@
         <v>44953.40625</v>
       </c>
       <c r="F47" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H47">
         <v>2</v>
@@ -4740,7 +4740,7 @@
         <v>35</v>
       </c>
       <c r="G48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H48">
         <v>3</v>
@@ -4749,7 +4749,7 @@
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K48">
         <v>2</v>
@@ -4826,7 +4826,7 @@
         <v>44953.58333333334</v>
       </c>
       <c r="F49" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G49" t="s">
         <v>31</v>
@@ -4915,7 +4915,7 @@
         <v>44954.5</v>
       </c>
       <c r="F50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G50" t="s">
         <v>37</v>
@@ -4927,7 +4927,7 @@
         <v>2</v>
       </c>
       <c r="J50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K50">
         <v>1.7</v>
@@ -5007,7 +5007,7 @@
         <v>38</v>
       </c>
       <c r="G51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -5016,7 +5016,7 @@
         <v>2</v>
       </c>
       <c r="J51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K51">
         <v>2.75</v>
@@ -5081,7 +5081,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>5774701</v>
+        <v>5774702</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5093,73 +5093,73 @@
         <v>44955.58333333334</v>
       </c>
       <c r="F52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G52" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H52">
         <v>2</v>
       </c>
       <c r="I52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K52">
-        <v>1.55</v>
+        <v>2.05</v>
       </c>
       <c r="L52">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="M52">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="N52">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="O52">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="P52">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q52">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R52">
+        <v>1.8</v>
+      </c>
+      <c r="S52">
+        <v>2</v>
+      </c>
+      <c r="T52">
+        <v>2</v>
+      </c>
+      <c r="U52">
+        <v>1.75</v>
+      </c>
+      <c r="V52">
         <v>2.05</v>
       </c>
-      <c r="S52">
-        <v>1.75</v>
-      </c>
-      <c r="T52">
-        <v>2.5</v>
-      </c>
-      <c r="U52">
-        <v>1.925</v>
-      </c>
-      <c r="V52">
-        <v>1.875</v>
-      </c>
       <c r="W52">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X52">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y52">
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA52">
+        <v>-1</v>
+      </c>
+      <c r="AB52">
         <v>0.75</v>
-      </c>
-      <c r="AB52">
-        <v>0.925</v>
       </c>
       <c r="AC52">
         <v>-1</v>
@@ -5170,7 +5170,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>5774702</v>
+        <v>5774701</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5182,73 +5182,73 @@
         <v>44955.58333333334</v>
       </c>
       <c r="F53" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G53" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H53">
         <v>2</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K53">
+        <v>1.55</v>
+      </c>
+      <c r="L53">
+        <v>3.8</v>
+      </c>
+      <c r="M53">
+        <v>5.25</v>
+      </c>
+      <c r="N53">
+        <v>1.6</v>
+      </c>
+      <c r="O53">
+        <v>3.8</v>
+      </c>
+      <c r="P53">
+        <v>4.75</v>
+      </c>
+      <c r="Q53">
+        <v>-1</v>
+      </c>
+      <c r="R53">
         <v>2.05</v>
       </c>
-      <c r="L53">
-        <v>3.1</v>
-      </c>
-      <c r="M53">
-        <v>3.4</v>
-      </c>
-      <c r="N53">
-        <v>2.4</v>
-      </c>
-      <c r="O53">
-        <v>2.875</v>
-      </c>
-      <c r="P53">
+      <c r="S53">
+        <v>1.75</v>
+      </c>
+      <c r="T53">
+        <v>2.5</v>
+      </c>
+      <c r="U53">
+        <v>1.925</v>
+      </c>
+      <c r="V53">
+        <v>1.875</v>
+      </c>
+      <c r="W53">
+        <v>-1</v>
+      </c>
+      <c r="X53">
         <v>2.8</v>
       </c>
-      <c r="Q53">
-        <v>0</v>
-      </c>
-      <c r="R53">
-        <v>1.8</v>
-      </c>
-      <c r="S53">
-        <v>2</v>
-      </c>
-      <c r="T53">
-        <v>2</v>
-      </c>
-      <c r="U53">
-        <v>1.75</v>
-      </c>
-      <c r="V53">
-        <v>2.05</v>
-      </c>
-      <c r="W53">
-        <v>1.4</v>
-      </c>
-      <c r="X53">
-        <v>-1</v>
-      </c>
       <c r="Y53">
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA53">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB53">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AC53">
         <v>-1</v>
@@ -5274,7 +5274,7 @@
         <v>43</v>
       </c>
       <c r="G54" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H54">
         <v>2</v>
@@ -5360,7 +5360,7 @@
         <v>44962.40625</v>
       </c>
       <c r="F55" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G55" t="s">
         <v>44</v>
@@ -5372,7 +5372,7 @@
         <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K55">
         <v>1.615</v>
@@ -5449,10 +5449,10 @@
         <v>44962.40625</v>
       </c>
       <c r="F56" t="s">
+        <v>29</v>
+      </c>
+      <c r="G56" t="s">
         <v>30</v>
-      </c>
-      <c r="G56" t="s">
-        <v>29</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5461,7 +5461,7 @@
         <v>2</v>
       </c>
       <c r="J56" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K56">
         <v>2.6</v>
@@ -5627,7 +5627,7 @@
         <v>44962.58333333334</v>
       </c>
       <c r="F58" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G58" t="s">
         <v>38</v>
@@ -5639,7 +5639,7 @@
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K58">
         <v>1.833</v>
@@ -5728,7 +5728,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K59">
         <v>4.333</v>
@@ -5805,10 +5805,10 @@
         <v>44964.40625</v>
       </c>
       <c r="F60" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G60" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -5894,7 +5894,7 @@
         <v>44964.5</v>
       </c>
       <c r="F61" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G61" t="s">
         <v>40</v>
@@ -5906,7 +5906,7 @@
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K61">
         <v>5.25</v>
@@ -5995,7 +5995,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K62">
         <v>1.95</v>
@@ -6075,7 +6075,7 @@
         <v>31</v>
       </c>
       <c r="G63" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H63">
         <v>2</v>
@@ -6084,7 +6084,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K63">
         <v>2</v>
@@ -6161,10 +6161,10 @@
         <v>44967.54166666666</v>
       </c>
       <c r="F64" t="s">
+        <v>33</v>
+      </c>
+      <c r="G64" t="s">
         <v>34</v>
-      </c>
-      <c r="G64" t="s">
-        <v>33</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6173,7 +6173,7 @@
         <v>3</v>
       </c>
       <c r="J64" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K64">
         <v>3.1</v>
@@ -6262,7 +6262,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K65">
         <v>2.25</v>
@@ -6339,10 +6339,10 @@
         <v>44968.58333333334</v>
       </c>
       <c r="F66" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -6351,7 +6351,7 @@
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K66">
         <v>1.909</v>
@@ -6428,10 +6428,10 @@
         <v>44969.54166666666</v>
       </c>
       <c r="F67" t="s">
+        <v>42</v>
+      </c>
+      <c r="G67" t="s">
         <v>41</v>
-      </c>
-      <c r="G67" t="s">
-        <v>42</v>
       </c>
       <c r="H67">
         <v>3</v>
@@ -6440,7 +6440,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K67">
         <v>2.2</v>
@@ -6517,7 +6517,7 @@
         <v>44970.58333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G68" t="s">
         <v>39</v>
@@ -6529,7 +6529,7 @@
         <v>3</v>
       </c>
       <c r="J68" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K68">
         <v>3.1</v>
@@ -6618,7 +6618,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K69">
         <v>1.5</v>
@@ -6707,7 +6707,7 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K70">
         <v>1.666</v>
@@ -6787,7 +6787,7 @@
         <v>43</v>
       </c>
       <c r="G71" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H71">
         <v>2</v>
@@ -6873,7 +6873,7 @@
         <v>44977.5</v>
       </c>
       <c r="F72" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G72" t="s">
         <v>31</v>
@@ -6885,7 +6885,7 @@
         <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K72">
         <v>3.5</v>
@@ -6965,7 +6965,7 @@
         <v>38</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -7051,7 +7051,7 @@
         <v>44978.40625</v>
       </c>
       <c r="F74" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G74" t="s">
         <v>32</v>
@@ -7063,7 +7063,7 @@
         <v>3</v>
       </c>
       <c r="J74" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K74">
         <v>7</v>
@@ -7143,7 +7143,7 @@
         <v>35</v>
       </c>
       <c r="G75" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7318,7 +7318,7 @@
         <v>44979.5</v>
       </c>
       <c r="F77" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G77" t="s">
         <v>36</v>
@@ -7407,7 +7407,7 @@
         <v>44979.58333333334</v>
       </c>
       <c r="F78" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G78" t="s">
         <v>40</v>
@@ -7496,7 +7496,7 @@
         <v>44983.5</v>
       </c>
       <c r="F79" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G79" t="s">
         <v>44</v>
@@ -7508,7 +7508,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K79">
         <v>1.85</v>
@@ -7585,10 +7585,10 @@
         <v>44984.41666666666</v>
       </c>
       <c r="F80" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G80" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -7597,7 +7597,7 @@
         <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K80">
         <v>2.75</v>
@@ -7674,7 +7674,7 @@
         <v>44984.58333333334</v>
       </c>
       <c r="F81" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G81" t="s">
         <v>31</v>
@@ -7686,7 +7686,7 @@
         <v>4</v>
       </c>
       <c r="J81" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K81">
         <v>2.625</v>
@@ -7763,7 +7763,7 @@
         <v>44985.5</v>
       </c>
       <c r="F82" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G82" t="s">
         <v>43</v>
@@ -7775,7 +7775,7 @@
         <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K82">
         <v>2.25</v>
@@ -7852,7 +7852,7 @@
         <v>44985.5</v>
       </c>
       <c r="F83" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G83" t="s">
         <v>38</v>
@@ -7864,7 +7864,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K83">
         <v>1.95</v>
@@ -7944,7 +7944,7 @@
         <v>32</v>
       </c>
       <c r="G84" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H84">
         <v>1</v>
@@ -8033,7 +8033,7 @@
         <v>37</v>
       </c>
       <c r="G85" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H85">
         <v>2</v>
@@ -8042,7 +8042,7 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K85">
         <v>3.5</v>
@@ -8300,7 +8300,7 @@
         <v>44</v>
       </c>
       <c r="G88" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -8386,10 +8386,10 @@
         <v>44991.41666666666</v>
       </c>
       <c r="F89" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G89" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H89">
         <v>2</v>
@@ -8398,7 +8398,7 @@
         <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K89">
         <v>2.4</v>
@@ -8475,10 +8475,10 @@
         <v>44991.5</v>
       </c>
       <c r="F90" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -8487,7 +8487,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K90">
         <v>2.5</v>
@@ -8567,7 +8567,7 @@
         <v>32</v>
       </c>
       <c r="G91" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H91">
         <v>2</v>
@@ -8576,7 +8576,7 @@
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K91">
         <v>1.45</v>
@@ -8742,10 +8742,10 @@
         <v>44996.58333333334</v>
       </c>
       <c r="F93" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G93" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -8754,7 +8754,7 @@
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K93">
         <v>2.15</v>
@@ -8831,7 +8831,7 @@
         <v>44997.41666666666</v>
       </c>
       <c r="F94" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G94" t="s">
         <v>36</v>
@@ -8843,7 +8843,7 @@
         <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K94">
         <v>3.4</v>
@@ -8932,7 +8932,7 @@
         <v>2</v>
       </c>
       <c r="J95" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K95">
         <v>1.444</v>
@@ -9021,7 +9021,7 @@
         <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K96">
         <v>4</v>
@@ -9086,7 +9086,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6441121</v>
+        <v>6436239</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9098,73 +9098,73 @@
         <v>45015.67708333334</v>
       </c>
       <c r="F97" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G97" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H97">
+        <v>2</v>
+      </c>
+      <c r="I97">
         <v>1</v>
-      </c>
-      <c r="I97">
-        <v>3</v>
       </c>
       <c r="J97" t="s">
         <v>51</v>
       </c>
       <c r="K97">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="L97">
+        <v>2.875</v>
+      </c>
+      <c r="M97">
+        <v>2.8</v>
+      </c>
+      <c r="N97">
+        <v>2.7</v>
+      </c>
+      <c r="O97">
         <v>2.625</v>
       </c>
-      <c r="M97">
-        <v>3.5</v>
-      </c>
-      <c r="N97">
-        <v>2.25</v>
-      </c>
-      <c r="O97">
-        <v>2.75</v>
-      </c>
       <c r="P97">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="Q97">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R97">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S97">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T97">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U97">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V97">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="W97">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X97">
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA97">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB97">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AC97">
         <v>-1</v>
@@ -9175,7 +9175,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6436239</v>
+        <v>6441121</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9187,73 +9187,73 @@
         <v>45015.67708333334</v>
       </c>
       <c r="F98" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G98" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J98" t="s">
         <v>50</v>
       </c>
       <c r="K98">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="L98">
-        <v>2.875</v>
+        <v>2.625</v>
       </c>
       <c r="M98">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="N98">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="O98">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="P98">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="Q98">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R98">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S98">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T98">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U98">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V98">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="W98">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z98">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB98">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AC98">
         <v>-1</v>
@@ -9276,10 +9276,10 @@
         <v>45015.67708333334</v>
       </c>
       <c r="F99" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G99" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -9353,7 +9353,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6436240</v>
+        <v>6439526</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9365,76 +9365,76 @@
         <v>45016.67708333334</v>
       </c>
       <c r="F100" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G100" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100">
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K100">
+        <v>3.1</v>
+      </c>
+      <c r="L100">
+        <v>3</v>
+      </c>
+      <c r="M100">
         <v>2.3</v>
       </c>
-      <c r="L100">
-        <v>2.8</v>
-      </c>
-      <c r="M100">
+      <c r="N100">
+        <v>4.2</v>
+      </c>
+      <c r="O100">
         <v>3.2</v>
       </c>
-      <c r="N100">
-        <v>2.7</v>
-      </c>
-      <c r="O100">
-        <v>2.625</v>
-      </c>
       <c r="P100">
-        <v>2.8</v>
+        <v>1.85</v>
       </c>
       <c r="Q100">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R100">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S100">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T100">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U100">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V100">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W100">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X100">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Y100">
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA100">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB100">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC100">
-        <v>1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9442,7 +9442,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6439526</v>
+        <v>6436240</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9454,76 +9454,76 @@
         <v>45016.67708333334</v>
       </c>
       <c r="F101" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G101" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101">
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K101">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="L101">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M101">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="N101">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="O101">
-        <v>3.2</v>
+        <v>2.625</v>
       </c>
       <c r="P101">
-        <v>1.85</v>
+        <v>2.8</v>
       </c>
       <c r="Q101">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R101">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S101">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T101">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U101">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V101">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W101">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X101">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA101">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB101">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC101">
-        <v>0.4125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9531,7 +9531,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6467348</v>
+        <v>6451732</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9543,76 +9543,76 @@
         <v>45019.67708333334</v>
       </c>
       <c r="F102" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G102" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102">
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K102">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="L102">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="M102">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="N102">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="O102">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="P102">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="Q102">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R102">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S102">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T102">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U102">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V102">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W102">
         <v>-1</v>
       </c>
       <c r="X102">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y102">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z102">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA102">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AB102">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC102">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9620,7 +9620,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6451732</v>
+        <v>6467348</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9632,76 +9632,76 @@
         <v>45019.67708333334</v>
       </c>
       <c r="F103" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G103" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103">
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K103">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="L103">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="M103">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="N103">
+        <v>3.2</v>
+      </c>
+      <c r="O103">
         <v>2.9</v>
       </c>
-      <c r="O103">
-        <v>2.75</v>
-      </c>
       <c r="P103">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="Q103">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R103">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S103">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T103">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U103">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V103">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W103">
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y103">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA103">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC103">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9709,7 +9709,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6467349</v>
+        <v>6445815</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9721,19 +9721,19 @@
         <v>45020.67708333334</v>
       </c>
       <c r="F104" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G104" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K104">
         <v>2.7</v>
@@ -9742,25 +9742,25 @@
         <v>2.75</v>
       </c>
       <c r="M104">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="N104">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O104">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="P104">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="Q104">
         <v>0</v>
       </c>
       <c r="R104">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="S104">
-        <v>2.075</v>
+        <v>2</v>
       </c>
       <c r="T104">
         <v>2</v>
@@ -9772,25 +9772,25 @@
         <v>1.95</v>
       </c>
       <c r="W104">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X104">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA104">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC104">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9810,7 +9810,7 @@
         <v>45020.67708333334</v>
       </c>
       <c r="F105" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G105" t="s">
         <v>37</v>
@@ -9887,7 +9887,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6445815</v>
+        <v>6467349</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9899,19 +9899,19 @@
         <v>45020.67708333334</v>
       </c>
       <c r="F106" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G106" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H106">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K106">
         <v>2.7</v>
@@ -9920,25 +9920,25 @@
         <v>2.75</v>
       </c>
       <c r="M106">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="N106">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="O106">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="P106">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="Q106">
         <v>0</v>
       </c>
       <c r="R106">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="S106">
-        <v>2</v>
+        <v>2.075</v>
       </c>
       <c r="T106">
         <v>2</v>
@@ -9950,25 +9950,25 @@
         <v>1.95</v>
       </c>
       <c r="W106">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X106">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA106">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB106">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC106">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9976,7 +9976,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6471794</v>
+        <v>6451733</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9988,76 +9988,76 @@
         <v>45021.67708333334</v>
       </c>
       <c r="F107" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G107" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107" t="s">
+        <v>52</v>
+      </c>
+      <c r="K107">
+        <v>4.2</v>
+      </c>
+      <c r="L107">
         <v>3</v>
       </c>
-      <c r="I107">
-        <v>0</v>
-      </c>
-      <c r="J107" t="s">
-        <v>50</v>
-      </c>
-      <c r="K107">
-        <v>1.222</v>
-      </c>
-      <c r="L107">
-        <v>5.25</v>
-      </c>
       <c r="M107">
-        <v>10</v>
+        <v>1.85</v>
       </c>
       <c r="N107">
-        <v>1.222</v>
+        <v>3.4</v>
       </c>
       <c r="O107">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="P107">
-        <v>10</v>
+        <v>2.15</v>
       </c>
       <c r="Q107">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R107">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S107">
+        <v>1.925</v>
+      </c>
+      <c r="T107">
+        <v>2</v>
+      </c>
+      <c r="U107">
+        <v>1.875</v>
+      </c>
+      <c r="V107">
+        <v>1.925</v>
+      </c>
+      <c r="W107">
+        <v>-1</v>
+      </c>
+      <c r="X107">
         <v>1.8</v>
       </c>
-      <c r="T107">
-        <v>2.75</v>
-      </c>
-      <c r="U107">
-        <v>1.975</v>
-      </c>
-      <c r="V107">
-        <v>1.825</v>
-      </c>
-      <c r="W107">
-        <v>0.222</v>
-      </c>
-      <c r="X107">
-        <v>-1</v>
-      </c>
       <c r="Y107">
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA107">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB107">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC107">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10065,7 +10065,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6451733</v>
+        <v>6471794</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10077,76 +10077,76 @@
         <v>45021.67708333334</v>
       </c>
       <c r="F108" t="s">
+        <v>32</v>
+      </c>
+      <c r="G108" t="s">
         <v>33</v>
       </c>
-      <c r="G108" t="s">
-        <v>40</v>
-      </c>
       <c r="H108">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I108">
         <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K108">
-        <v>4.2</v>
+        <v>1.222</v>
       </c>
       <c r="L108">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="M108">
-        <v>1.85</v>
+        <v>10</v>
       </c>
       <c r="N108">
-        <v>3.4</v>
+        <v>1.222</v>
       </c>
       <c r="O108">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="P108">
-        <v>2.15</v>
+        <v>10</v>
       </c>
       <c r="Q108">
-        <v>0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R108">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S108">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T108">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U108">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V108">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W108">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X108">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y108">
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>0.4375</v>
+        <v>1</v>
       </c>
       <c r="AA108">
+        <v>-1</v>
+      </c>
+      <c r="AB108">
+        <v>0.4875</v>
+      </c>
+      <c r="AC108">
         <v>-0.5</v>
-      </c>
-      <c r="AB108">
-        <v>-1</v>
-      </c>
-      <c r="AC108">
-        <v>0.925</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10178,7 +10178,7 @@
         <v>1</v>
       </c>
       <c r="J109" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K109">
         <v>2.875</v>
@@ -10255,10 +10255,10 @@
         <v>45023.67708333334</v>
       </c>
       <c r="F110" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G110" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -10344,7 +10344,7 @@
         <v>45023.67708333334</v>
       </c>
       <c r="F111" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G111" t="s">
         <v>44</v>
@@ -10356,7 +10356,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K111">
         <v>1.727</v>
@@ -10421,7 +10421,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6471698</v>
+        <v>6488022</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10433,25 +10433,25 @@
         <v>45025.67708333334</v>
       </c>
       <c r="F112" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G112" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I112">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J112" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K112">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="L112">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M112">
         <v>4</v>
@@ -10460,28 +10460,28 @@
         <v>2.2</v>
       </c>
       <c r="O112">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P112">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="Q112">
         <v>-0.25</v>
       </c>
       <c r="R112">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S112">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T112">
         <v>2</v>
       </c>
       <c r="U112">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V112">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W112">
         <v>1.2</v>
@@ -10493,16 +10493,16 @@
         <v>-1</v>
       </c>
       <c r="Z112">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA112">
         <v>-1</v>
       </c>
       <c r="AB112">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC112">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10525,7 +10525,7 @@
         <v>38</v>
       </c>
       <c r="G113" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H113">
         <v>2</v>
@@ -10534,7 +10534,7 @@
         <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K113">
         <v>3</v>
@@ -10599,7 +10599,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6488022</v>
+        <v>6471698</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10611,25 +10611,25 @@
         <v>45025.67708333334</v>
       </c>
       <c r="F114" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G114" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H114">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I114">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K114">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="L114">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M114">
         <v>4</v>
@@ -10638,28 +10638,28 @@
         <v>2.2</v>
       </c>
       <c r="O114">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="P114">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="Q114">
         <v>-0.25</v>
       </c>
       <c r="R114">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S114">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T114">
         <v>2</v>
       </c>
       <c r="U114">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V114">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W114">
         <v>1.2</v>
@@ -10671,16 +10671,16 @@
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA114">
         <v>-1</v>
       </c>
       <c r="AB114">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC114">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10712,7 +10712,7 @@
         <v>2</v>
       </c>
       <c r="J115" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K115">
         <v>3.1</v>
@@ -10777,7 +10777,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6484222</v>
+        <v>6471800</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10789,76 +10789,76 @@
         <v>45028.67708333334</v>
       </c>
       <c r="F116" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G116" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H116">
         <v>0</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K116">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="L116">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M116">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="N116">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="O116">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="P116">
-        <v>1.95</v>
+        <v>1.6</v>
       </c>
       <c r="Q116">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R116">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S116">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T116">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U116">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V116">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W116">
         <v>-1</v>
       </c>
       <c r="X116">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y116">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z116">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA116">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB116">
         <v>-1</v>
       </c>
       <c r="AC116">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10866,7 +10866,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6471800</v>
+        <v>6484222</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10878,76 +10878,76 @@
         <v>45028.67708333334</v>
       </c>
       <c r="F117" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G117" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H117">
         <v>0</v>
       </c>
       <c r="I117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K117">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="L117">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M117">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="N117">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="O117">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="P117">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="Q117">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R117">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S117">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T117">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U117">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V117">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y117">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA117">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB117">
         <v>-1</v>
       </c>
       <c r="AC117">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10955,7 +10955,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6484223</v>
+        <v>6471699</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10967,73 +10967,73 @@
         <v>45029.67708333334</v>
       </c>
       <c r="F118" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G118" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
         <v>3</v>
-      </c>
-      <c r="I118">
-        <v>1</v>
       </c>
       <c r="J118" t="s">
         <v>50</v>
       </c>
       <c r="K118">
-        <v>2.875</v>
+        <v>4.2</v>
       </c>
       <c r="L118">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="M118">
-        <v>2.5</v>
+        <v>1.833</v>
       </c>
       <c r="N118">
-        <v>2.375</v>
+        <v>5</v>
       </c>
       <c r="O118">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="P118">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="Q118">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R118">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S118">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T118">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U118">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V118">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W118">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X118">
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z118">
+        <v>-1</v>
+      </c>
+      <c r="AA118">
         <v>1</v>
       </c>
-      <c r="AA118">
-        <v>-1</v>
-      </c>
       <c r="AB118">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="AC118">
         <v>-1</v>
@@ -11056,10 +11056,10 @@
         <v>45029.67708333334</v>
       </c>
       <c r="F119" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G119" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6471699</v>
+        <v>6484223</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11145,73 +11145,73 @@
         <v>45029.67708333334</v>
       </c>
       <c r="F120" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G120" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I120">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J120" t="s">
         <v>51</v>
       </c>
       <c r="K120">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="L120">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="M120">
-        <v>1.833</v>
+        <v>2.5</v>
       </c>
       <c r="N120">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="O120">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="P120">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="Q120">
+        <v>-0.25</v>
+      </c>
+      <c r="R120">
+        <v>2</v>
+      </c>
+      <c r="S120">
+        <v>1.8</v>
+      </c>
+      <c r="T120">
+        <v>1.75</v>
+      </c>
+      <c r="U120">
+        <v>1.75</v>
+      </c>
+      <c r="V120">
+        <v>2.05</v>
+      </c>
+      <c r="W120">
+        <v>1.375</v>
+      </c>
+      <c r="X120">
+        <v>-1</v>
+      </c>
+      <c r="Y120">
+        <v>-1</v>
+      </c>
+      <c r="Z120">
+        <v>1</v>
+      </c>
+      <c r="AA120">
+        <v>-1</v>
+      </c>
+      <c r="AB120">
         <v>0.75</v>
-      </c>
-      <c r="R120">
-        <v>1.8</v>
-      </c>
-      <c r="S120">
-        <v>2</v>
-      </c>
-      <c r="T120">
-        <v>2</v>
-      </c>
-      <c r="U120">
-        <v>1.825</v>
-      </c>
-      <c r="V120">
-        <v>1.975</v>
-      </c>
-      <c r="W120">
-        <v>-1</v>
-      </c>
-      <c r="X120">
-        <v>-1</v>
-      </c>
-      <c r="Y120">
-        <v>0.7</v>
-      </c>
-      <c r="Z120">
-        <v>-1</v>
-      </c>
-      <c r="AA120">
-        <v>1</v>
-      </c>
-      <c r="AB120">
-        <v>0.825</v>
       </c>
       <c r="AC120">
         <v>-1</v>
@@ -11237,7 +11237,7 @@
         <v>31</v>
       </c>
       <c r="G121" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H121">
         <v>3</v>
@@ -11246,7 +11246,7 @@
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K121">
         <v>2.3</v>
@@ -11311,7 +11311,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6471801</v>
+        <v>6471799</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11323,73 +11323,73 @@
         <v>45030.67708333334</v>
       </c>
       <c r="F122" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G122" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
         <v>3</v>
-      </c>
-      <c r="I122">
-        <v>0</v>
       </c>
       <c r="J122" t="s">
         <v>50</v>
       </c>
       <c r="K122">
-        <v>1.333</v>
+        <v>5.5</v>
       </c>
       <c r="L122">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M122">
-        <v>9.5</v>
+        <v>1.6</v>
       </c>
       <c r="N122">
-        <v>1.333</v>
+        <v>4.5</v>
       </c>
       <c r="O122">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P122">
-        <v>8</v>
+        <v>1.8</v>
       </c>
       <c r="Q122">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R122">
+        <v>1.975</v>
+      </c>
+      <c r="S122">
         <v>1.825</v>
       </c>
-      <c r="S122">
-        <v>1.975</v>
-      </c>
       <c r="T122">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U122">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V122">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W122">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X122">
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z122">
+        <v>-1</v>
+      </c>
+      <c r="AA122">
         <v>0.825</v>
       </c>
-      <c r="AA122">
-        <v>-1</v>
-      </c>
       <c r="AB122">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC122">
         <v>-1</v>
@@ -11400,7 +11400,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6471799</v>
+        <v>6471801</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11412,73 +11412,73 @@
         <v>45030.67708333334</v>
       </c>
       <c r="F123" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G123" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I123">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J123" t="s">
         <v>51</v>
       </c>
       <c r="K123">
-        <v>5.5</v>
+        <v>1.333</v>
       </c>
       <c r="L123">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M123">
-        <v>1.6</v>
+        <v>9.5</v>
       </c>
       <c r="N123">
+        <v>1.333</v>
+      </c>
+      <c r="O123">
         <v>4.5</v>
       </c>
-      <c r="O123">
-        <v>3.2</v>
-      </c>
       <c r="P123">
-        <v>1.8</v>
+        <v>8</v>
       </c>
       <c r="Q123">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R123">
+        <v>1.825</v>
+      </c>
+      <c r="S123">
         <v>1.975</v>
       </c>
-      <c r="S123">
-        <v>1.825</v>
-      </c>
       <c r="T123">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U123">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V123">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W123">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA123">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB123">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC123">
         <v>-1</v>
@@ -11504,7 +11504,7 @@
         <v>43</v>
       </c>
       <c r="G124" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H124">
         <v>2</v>
@@ -11513,7 +11513,7 @@
         <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K124">
         <v>2.5</v>
@@ -11593,7 +11593,7 @@
         <v>39</v>
       </c>
       <c r="G125" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H125">
         <v>2</v>
@@ -11679,7 +11679,7 @@
         <v>45033.67708333334</v>
       </c>
       <c r="F126" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G126" t="s">
         <v>32</v>
@@ -11691,7 +11691,7 @@
         <v>2</v>
       </c>
       <c r="J126" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K126">
         <v>6.5</v>
@@ -11756,7 +11756,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6488033</v>
+        <v>6488029</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11768,7 +11768,7 @@
         <v>45034.67708333334</v>
       </c>
       <c r="F127" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G127" t="s">
         <v>29</v>
@@ -11780,46 +11780,46 @@
         <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K127">
+        <v>1.4</v>
+      </c>
+      <c r="L127">
+        <v>4</v>
+      </c>
+      <c r="M127">
+        <v>7</v>
+      </c>
+      <c r="N127">
+        <v>1.444</v>
+      </c>
+      <c r="O127">
+        <v>3.75</v>
+      </c>
+      <c r="P127">
+        <v>7</v>
+      </c>
+      <c r="Q127">
+        <v>-1</v>
+      </c>
+      <c r="R127">
+        <v>1.8</v>
+      </c>
+      <c r="S127">
+        <v>2</v>
+      </c>
+      <c r="T127">
         <v>2.25</v>
       </c>
-      <c r="L127">
-        <v>3</v>
-      </c>
-      <c r="M127">
-        <v>3</v>
-      </c>
-      <c r="N127">
-        <v>2.25</v>
-      </c>
-      <c r="O127">
-        <v>2.875</v>
-      </c>
-      <c r="P127">
-        <v>3.1</v>
-      </c>
-      <c r="Q127">
-        <v>0</v>
-      </c>
-      <c r="R127">
-        <v>1.725</v>
-      </c>
-      <c r="S127">
-        <v>2.075</v>
-      </c>
-      <c r="T127">
-        <v>2</v>
-      </c>
       <c r="U127">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V127">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W127">
-        <v>1.25</v>
+        <v>0.444</v>
       </c>
       <c r="X127">
         <v>-1</v>
@@ -11828,16 +11828,16 @@
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>0.7250000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA127">
         <v>-1</v>
       </c>
       <c r="AB127">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC127">
-        <v>-0</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11845,7 +11845,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6488029</v>
+        <v>6488033</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11857,7 +11857,7 @@
         <v>45034.67708333334</v>
       </c>
       <c r="F128" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G128" t="s">
         <v>30</v>
@@ -11869,46 +11869,46 @@
         <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K128">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="L128">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M128">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N128">
-        <v>1.444</v>
+        <v>2.25</v>
       </c>
       <c r="O128">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="P128">
-        <v>7</v>
+        <v>3.1</v>
       </c>
       <c r="Q128">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R128">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="S128">
-        <v>2</v>
+        <v>2.075</v>
       </c>
       <c r="T128">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U128">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V128">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W128">
-        <v>0.444</v>
+        <v>1.25</v>
       </c>
       <c r="X128">
         <v>-1</v>
@@ -11917,16 +11917,16 @@
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>0.8</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA128">
         <v>-1</v>
       </c>
       <c r="AB128">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC128">
-        <v>0.4625</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11934,7 +11934,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6499805</v>
+        <v>6488030</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11946,40 +11946,40 @@
         <v>45035.67708333334</v>
       </c>
       <c r="F129" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G129" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H129">
+        <v>3</v>
+      </c>
+      <c r="I129">
         <v>1</v>
       </c>
-      <c r="I129">
-        <v>0</v>
-      </c>
       <c r="J129" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K129">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L129">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="M129">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="N129">
-        <v>1.727</v>
+        <v>2.05</v>
       </c>
       <c r="O129">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P129">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="Q129">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R129">
         <v>1.775</v>
@@ -11991,13 +11991,13 @@
         <v>2</v>
       </c>
       <c r="U129">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V129">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W129">
-        <v>0.7270000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="X129">
         <v>-1</v>
@@ -12012,10 +12012,10 @@
         <v>-1</v>
       </c>
       <c r="AB129">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC129">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12023,7 +12023,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6488030</v>
+        <v>6499805</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12035,40 +12035,40 @@
         <v>45035.67708333334</v>
       </c>
       <c r="F130" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G130" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H130">
+        <v>1</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130" t="s">
+        <v>51</v>
+      </c>
+      <c r="K130">
+        <v>2.1</v>
+      </c>
+      <c r="L130">
         <v>3</v>
       </c>
-      <c r="I130">
-        <v>1</v>
-      </c>
-      <c r="J130" t="s">
-        <v>50</v>
-      </c>
-      <c r="K130">
-        <v>2</v>
-      </c>
-      <c r="L130">
-        <v>2.75</v>
-      </c>
       <c r="M130">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="N130">
-        <v>2.05</v>
+        <v>1.727</v>
       </c>
       <c r="O130">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="P130">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="Q130">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R130">
         <v>1.775</v>
@@ -12080,13 +12080,13 @@
         <v>2</v>
       </c>
       <c r="U130">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V130">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W130">
-        <v>1.05</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X130">
         <v>-1</v>
@@ -12101,10 +12101,10 @@
         <v>-1</v>
       </c>
       <c r="AB130">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC130">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12124,7 +12124,7 @@
         <v>45035.67708333334</v>
       </c>
       <c r="F131" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G131" t="s">
         <v>36</v>
@@ -12213,7 +12213,7 @@
         <v>45036.67708333334</v>
       </c>
       <c r="F132" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G132" t="s">
         <v>31</v>
@@ -12302,7 +12302,7 @@
         <v>45036.67708333334</v>
       </c>
       <c r="F133" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G133" t="s">
         <v>35</v>
@@ -12314,7 +12314,7 @@
         <v>2</v>
       </c>
       <c r="J133" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K133">
         <v>2.3</v>
@@ -12394,7 +12394,7 @@
         <v>43</v>
       </c>
       <c r="G134" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -12483,7 +12483,7 @@
         <v>36</v>
       </c>
       <c r="G135" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H135">
         <v>0</v>
@@ -12492,7 +12492,7 @@
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K135">
         <v>1.571</v>
@@ -12569,10 +12569,10 @@
         <v>45042.5</v>
       </c>
       <c r="F136" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G136" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H136">
         <v>1</v>
@@ -12581,7 +12581,7 @@
         <v>0</v>
       </c>
       <c r="J136" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K136">
         <v>1.909</v>
@@ -12661,7 +12661,7 @@
         <v>39</v>
       </c>
       <c r="G137" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H137">
         <v>1</v>
@@ -12670,7 +12670,7 @@
         <v>0</v>
       </c>
       <c r="J137" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K137">
         <v>2.1</v>
@@ -12747,10 +12747,10 @@
         <v>45048.54166666666</v>
       </c>
       <c r="F138" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G138" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H138">
         <v>0</v>
@@ -12759,7 +12759,7 @@
         <v>2</v>
       </c>
       <c r="J138" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K138">
         <v>3.3</v>
@@ -12836,7 +12836,7 @@
         <v>45048.64583333334</v>
       </c>
       <c r="F139" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G139" t="s">
         <v>38</v>
@@ -12925,10 +12925,10 @@
         <v>45049.58333333334</v>
       </c>
       <c r="F140" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G140" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H140">
         <v>3</v>
@@ -12937,7 +12937,7 @@
         <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K140">
         <v>2.75</v>
@@ -13014,7 +13014,7 @@
         <v>45050.54166666666</v>
       </c>
       <c r="F141" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G141" t="s">
         <v>43</v>
@@ -13106,7 +13106,7 @@
         <v>44</v>
       </c>
       <c r="G142" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H142">
         <v>2</v>
@@ -13115,7 +13115,7 @@
         <v>3</v>
       </c>
       <c r="J142" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K142">
         <v>3.4</v>
@@ -13293,7 +13293,7 @@
         <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K144">
         <v>1.8</v>
@@ -13382,7 +13382,7 @@
         <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K145">
         <v>4.5</v>
@@ -13459,10 +13459,10 @@
         <v>45060.58333333334</v>
       </c>
       <c r="F146" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G146" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H146">
         <v>0</v>
@@ -13548,10 +13548,10 @@
         <v>45061.54166666666</v>
       </c>
       <c r="F147" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G147" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H147">
         <v>1</v>
@@ -13649,7 +13649,7 @@
         <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K148">
         <v>2.5</v>
@@ -13729,7 +13729,7 @@
         <v>44</v>
       </c>
       <c r="G149" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H149">
         <v>0</v>
@@ -13738,7 +13738,7 @@
         <v>2</v>
       </c>
       <c r="J149" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K149">
         <v>4.333</v>
@@ -13815,7 +13815,7 @@
         <v>45062.54166666666</v>
       </c>
       <c r="F150" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G150" t="s">
         <v>36</v>
@@ -13904,7 +13904,7 @@
         <v>45062.64583333334</v>
       </c>
       <c r="F151" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G151" t="s">
         <v>37</v>
@@ -14005,7 +14005,7 @@
         <v>0</v>
       </c>
       <c r="J152" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K152">
         <v>2.4</v>
@@ -14085,7 +14085,7 @@
         <v>39</v>
       </c>
       <c r="G153" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H153">
         <v>1</v>
@@ -14094,7 +14094,7 @@
         <v>0</v>
       </c>
       <c r="J153" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K153">
         <v>1.909</v>
@@ -14183,7 +14183,7 @@
         <v>0</v>
       </c>
       <c r="J154" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K154">
         <v>1.727</v>
@@ -14260,7 +14260,7 @@
         <v>45067.64583333334</v>
       </c>
       <c r="F155" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G155" t="s">
         <v>40</v>
@@ -14272,7 +14272,7 @@
         <v>2</v>
       </c>
       <c r="J155" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K155">
         <v>6</v>
@@ -14352,7 +14352,7 @@
         <v>31</v>
       </c>
       <c r="G156" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H156">
         <v>1</v>
@@ -14361,7 +14361,7 @@
         <v>2</v>
       </c>
       <c r="J156" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K156">
         <v>2.7</v>
@@ -14426,7 +14426,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6678437</v>
+        <v>6574889</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14438,76 +14438,76 @@
         <v>45068.64583333334</v>
       </c>
       <c r="F157" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G157" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J157" t="s">
         <v>52</v>
       </c>
       <c r="K157">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="L157">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M157">
-        <v>3.75</v>
+        <v>1.8</v>
       </c>
       <c r="N157">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="O157">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="P157">
-        <v>3.4</v>
+        <v>1.909</v>
       </c>
       <c r="Q157">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R157">
+        <v>1.825</v>
+      </c>
+      <c r="S157">
+        <v>1.975</v>
+      </c>
+      <c r="T157">
+        <v>2.25</v>
+      </c>
+      <c r="U157">
         <v>1.925</v>
       </c>
-      <c r="S157">
+      <c r="V157">
         <v>1.875</v>
       </c>
-      <c r="T157">
-        <v>1.75</v>
-      </c>
-      <c r="U157">
-        <v>1.775</v>
-      </c>
-      <c r="V157">
-        <v>2.025</v>
-      </c>
       <c r="W157">
         <v>-1</v>
       </c>
       <c r="X157">
-        <v>1.875</v>
+        <v>2.25</v>
       </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
+        <v>0.825</v>
+      </c>
+      <c r="AA157">
+        <v>-1</v>
+      </c>
+      <c r="AB157">
         <v>-0.5</v>
       </c>
-      <c r="AA157">
+      <c r="AC157">
         <v>0.4375</v>
-      </c>
-      <c r="AB157">
-        <v>-1</v>
-      </c>
-      <c r="AC157">
-        <v>1.025</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14515,7 +14515,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6574889</v>
+        <v>6678437</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14527,76 +14527,76 @@
         <v>45068.64583333334</v>
       </c>
       <c r="F158" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G158" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J158" t="s">
         <v>52</v>
       </c>
       <c r="K158">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="L158">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M158">
-        <v>1.8</v>
+        <v>3.75</v>
       </c>
       <c r="N158">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="O158">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="P158">
-        <v>1.909</v>
+        <v>3.4</v>
       </c>
       <c r="Q158">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R158">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S158">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T158">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U158">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V158">
+        <v>2.025</v>
+      </c>
+      <c r="W158">
+        <v>-1</v>
+      </c>
+      <c r="X158">
         <v>1.875</v>
       </c>
-      <c r="W158">
-        <v>-1</v>
-      </c>
-      <c r="X158">
-        <v>2.25</v>
-      </c>
       <c r="Y158">
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA158">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB158">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC158">
-        <v>0.4375</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14616,7 +14616,7 @@
         <v>45069.54166666666</v>
       </c>
       <c r="F159" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G159" t="s">
         <v>43</v>
@@ -14628,7 +14628,7 @@
         <v>2</v>
       </c>
       <c r="J159" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K159">
         <v>2.7</v>
@@ -14708,7 +14708,7 @@
         <v>37</v>
       </c>
       <c r="G160" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H160">
         <v>1</v>
@@ -14717,7 +14717,7 @@
         <v>0</v>
       </c>
       <c r="J160" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K160">
         <v>2.45</v>
@@ -14806,7 +14806,7 @@
         <v>0</v>
       </c>
       <c r="J161" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K161">
         <v>1.333</v>
@@ -14871,7 +14871,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6576691</v>
+        <v>6686652</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14883,10 +14883,10 @@
         <v>45070.64583333334</v>
       </c>
       <c r="F162" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G162" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H162">
         <v>1</v>
@@ -14895,46 +14895,46 @@
         <v>0</v>
       </c>
       <c r="J162" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K162">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="L162">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="M162">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="N162">
-        <v>1.363</v>
+        <v>2.2</v>
       </c>
       <c r="O162">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="P162">
-        <v>8</v>
+        <v>3.25</v>
       </c>
       <c r="Q162">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R162">
+        <v>1.95</v>
+      </c>
+      <c r="S162">
         <v>1.85</v>
       </c>
-      <c r="S162">
-        <v>1.95</v>
-      </c>
       <c r="T162">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U162">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V162">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W162">
-        <v>0.363</v>
+        <v>1.2</v>
       </c>
       <c r="X162">
         <v>-1</v>
@@ -14943,16 +14943,16 @@
         <v>-1</v>
       </c>
       <c r="Z162">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA162">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB162">
         <v>-1</v>
       </c>
       <c r="AC162">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -14960,7 +14960,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6686652</v>
+        <v>6576691</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14972,10 +14972,10 @@
         <v>45070.64583333334</v>
       </c>
       <c r="F163" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G163" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H163">
         <v>1</v>
@@ -14984,46 +14984,46 @@
         <v>0</v>
       </c>
       <c r="J163" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K163">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="L163">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="M163">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="N163">
-        <v>2.2</v>
+        <v>1.363</v>
       </c>
       <c r="O163">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="P163">
-        <v>3.25</v>
+        <v>8</v>
       </c>
       <c r="Q163">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R163">
+        <v>1.85</v>
+      </c>
+      <c r="S163">
         <v>1.95</v>
       </c>
-      <c r="S163">
-        <v>1.85</v>
-      </c>
       <c r="T163">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U163">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V163">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W163">
-        <v>1.2</v>
+        <v>0.363</v>
       </c>
       <c r="X163">
         <v>-1</v>
@@ -15032,16 +15032,16 @@
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA163">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB163">
         <v>-1</v>
       </c>
       <c r="AC163">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15061,7 +15061,7 @@
         <v>45072.58333333334</v>
       </c>
       <c r="F164" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G164" t="s">
         <v>32</v>
@@ -15073,7 +15073,7 @@
         <v>2</v>
       </c>
       <c r="J164" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K164">
         <v>6.5</v>
@@ -15162,7 +15162,7 @@
         <v>2</v>
       </c>
       <c r="J165" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K165">
         <v>3.75</v>
@@ -15242,7 +15242,7 @@
         <v>32</v>
       </c>
       <c r="G166" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H166">
         <v>1</v>
@@ -15251,7 +15251,7 @@
         <v>0</v>
       </c>
       <c r="J166" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K166">
         <v>1.571</v>
@@ -15331,7 +15331,7 @@
         <v>39</v>
       </c>
       <c r="G167" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H167">
         <v>2</v>
@@ -15340,7 +15340,7 @@
         <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K167">
         <v>2</v>
@@ -15420,7 +15420,7 @@
         <v>43</v>
       </c>
       <c r="G168" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H168">
         <v>3</v>
@@ -15429,7 +15429,7 @@
         <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K168">
         <v>1.909</v>
@@ -15506,7 +15506,7 @@
         <v>45077.64583333334</v>
       </c>
       <c r="F169" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G169" t="s">
         <v>35</v>
@@ -15598,7 +15598,7 @@
         <v>44</v>
       </c>
       <c r="G170" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H170">
         <v>1</v>
@@ -15607,7 +15607,7 @@
         <v>0</v>
       </c>
       <c r="J170" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K170">
         <v>3.1</v>
@@ -15687,7 +15687,7 @@
         <v>38</v>
       </c>
       <c r="G171" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H171">
         <v>1</v>
@@ -15696,7 +15696,7 @@
         <v>0</v>
       </c>
       <c r="J171" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K171">
         <v>2.05</v>
@@ -15773,7 +15773,7 @@
         <v>45079.54166666666</v>
       </c>
       <c r="F172" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G172" t="s">
         <v>37</v>
@@ -15874,7 +15874,7 @@
         <v>0</v>
       </c>
       <c r="J173" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K173">
         <v>2</v>
@@ -15951,11 +15951,11 @@
         <v>45080.58333333334</v>
       </c>
       <c r="F174" t="s">
+        <v>45</v>
+      </c>
+      <c r="G174" t="s">
         <v>46</v>
       </c>
-      <c r="G174" t="s">
-        <v>45</v>
-      </c>
       <c r="H174">
         <v>2</v>
       </c>
@@ -15963,7 +15963,7 @@
         <v>0</v>
       </c>
       <c r="J174" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K174">
         <v>2.05</v>
@@ -16052,7 +16052,7 @@
         <v>1</v>
       </c>
       <c r="J175" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K175">
         <v>1.85</v>
@@ -16129,7 +16129,7 @@
         <v>45083.54166666666</v>
       </c>
       <c r="F176" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G176" t="s">
         <v>44</v>
@@ -16230,7 +16230,7 @@
         <v>1</v>
       </c>
       <c r="J177" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K177">
         <v>4.333</v>
@@ -16319,7 +16319,7 @@
         <v>0</v>
       </c>
       <c r="J178" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K178">
         <v>1.666</v>
@@ -16396,10 +16396,10 @@
         <v>45084.54166666666</v>
       </c>
       <c r="F179" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G179" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H179">
         <v>1</v>
@@ -16485,10 +16485,10 @@
         <v>45084.64583333334</v>
       </c>
       <c r="F180" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G180" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H180">
         <v>2</v>
@@ -16577,7 +16577,7 @@
         <v>35</v>
       </c>
       <c r="G181" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H181">
         <v>0</v>
@@ -16586,7 +16586,7 @@
         <v>1</v>
       </c>
       <c r="J181" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K181">
         <v>2.5</v>
@@ -16663,10 +16663,10 @@
         <v>45085.64583333334</v>
       </c>
       <c r="F182" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G182" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H182">
         <v>1</v>
@@ -16853,7 +16853,7 @@
         <v>3</v>
       </c>
       <c r="J184" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K184">
         <v>9</v>
@@ -16933,7 +16933,7 @@
         <v>39</v>
       </c>
       <c r="G185" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H185">
         <v>2</v>
@@ -16942,7 +16942,7 @@
         <v>0</v>
       </c>
       <c r="J185" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K185">
         <v>1.5</v>
@@ -17019,7 +17019,7 @@
         <v>45105.54166666666</v>
       </c>
       <c r="F186" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G186" t="s">
         <v>36</v>
@@ -17031,7 +17031,7 @@
         <v>0</v>
       </c>
       <c r="J186" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K186">
         <v>2.9</v>
@@ -17111,7 +17111,7 @@
         <v>40</v>
       </c>
       <c r="G187" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H187">
         <v>5</v>
@@ -17120,7 +17120,7 @@
         <v>2</v>
       </c>
       <c r="J187" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K187">
         <v>1.4</v>
@@ -17200,7 +17200,7 @@
         <v>35</v>
       </c>
       <c r="G188" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H188">
         <v>1</v>
@@ -17298,7 +17298,7 @@
         <v>3</v>
       </c>
       <c r="J189" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K189">
         <v>6</v>
@@ -17387,7 +17387,7 @@
         <v>1</v>
       </c>
       <c r="J190" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K190">
         <v>2.5</v>
@@ -17464,10 +17464,10 @@
         <v>45107.64583333334</v>
       </c>
       <c r="F191" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G191" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H191">
         <v>0</v>
@@ -17476,7 +17476,7 @@
         <v>1</v>
       </c>
       <c r="J191" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K191">
         <v>2.05</v>
@@ -17553,10 +17553,10 @@
         <v>45107.64583333334</v>
       </c>
       <c r="F192" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G192" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H192">
         <v>0</v>
@@ -17832,7 +17832,7 @@
         <v>0</v>
       </c>
       <c r="J195" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K195">
         <v>1.333</v>
@@ -17921,7 +17921,7 @@
         <v>2</v>
       </c>
       <c r="J196" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K196">
         <v>6.5</v>
@@ -18010,7 +18010,7 @@
         <v>3</v>
       </c>
       <c r="J197" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K197">
         <v>2.75</v>
@@ -18090,7 +18090,7 @@
         <v>37</v>
       </c>
       <c r="G198" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H198">
         <v>0</v>
@@ -18099,7 +18099,7 @@
         <v>3</v>
       </c>
       <c r="J198" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K198">
         <v>2.875</v>
@@ -18164,7 +18164,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6853140</v>
+        <v>6853139</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18176,76 +18176,76 @@
         <v>45117.60416666666</v>
       </c>
       <c r="F199" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G199" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H199">
+        <v>0</v>
+      </c>
+      <c r="I199">
         <v>1</v>
-      </c>
-      <c r="I199">
-        <v>0</v>
       </c>
       <c r="J199" t="s">
         <v>50</v>
       </c>
       <c r="K199">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="L199">
+        <v>2.7</v>
+      </c>
+      <c r="M199">
+        <v>2.7</v>
+      </c>
+      <c r="N199">
         <v>2.8</v>
       </c>
-      <c r="M199">
-        <v>3.75</v>
-      </c>
-      <c r="N199">
-        <v>2</v>
-      </c>
       <c r="O199">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="P199">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="Q199">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R199">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S199">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T199">
         <v>2</v>
       </c>
       <c r="U199">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V199">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W199">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X199">
         <v>-1</v>
       </c>
       <c r="Y199">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z199">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA199">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB199">
         <v>-1</v>
       </c>
       <c r="AC199">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18265,7 +18265,7 @@
         <v>45117.60416666666</v>
       </c>
       <c r="F200" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G200" t="s">
         <v>40</v>
@@ -18277,7 +18277,7 @@
         <v>1</v>
       </c>
       <c r="J200" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K200">
         <v>3.4</v>
@@ -18342,7 +18342,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6853139</v>
+        <v>6853140</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18354,76 +18354,76 @@
         <v>45117.60416666666</v>
       </c>
       <c r="F201" t="s">
+        <v>45</v>
+      </c>
+      <c r="G201" t="s">
         <v>30</v>
       </c>
-      <c r="G201" t="s">
-        <v>35</v>
-      </c>
       <c r="H201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J201" t="s">
         <v>51</v>
       </c>
       <c r="K201">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="L201">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="M201">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="N201">
+        <v>2</v>
+      </c>
+      <c r="O201">
         <v>2.8</v>
       </c>
-      <c r="O201">
-        <v>2.75</v>
-      </c>
       <c r="P201">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="Q201">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R201">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S201">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T201">
         <v>2</v>
       </c>
       <c r="U201">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V201">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W201">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X201">
         <v>-1</v>
       </c>
       <c r="Y201">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z201">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA201">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB201">
         <v>-1</v>
       </c>
       <c r="AC201">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18443,7 +18443,7 @@
         <v>45117.60416666666</v>
       </c>
       <c r="F202" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G202" t="s">
         <v>43</v>
@@ -18532,7 +18532,7 @@
         <v>45118.60416666666</v>
       </c>
       <c r="F203" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G203" t="s">
         <v>38</v>
@@ -18544,7 +18544,7 @@
         <v>1</v>
       </c>
       <c r="J203" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K203">
         <v>2.3</v>
@@ -18624,7 +18624,7 @@
         <v>31</v>
       </c>
       <c r="G204" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H204">
         <v>0</v>
@@ -18722,7 +18722,7 @@
         <v>1</v>
       </c>
       <c r="J205" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K205">
         <v>1.615</v>
@@ -18787,7 +18787,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6853141</v>
+        <v>6853143</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18799,46 +18799,46 @@
         <v>45121.60416666666</v>
       </c>
       <c r="F206" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G206" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I206">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J206" t="s">
         <v>51</v>
       </c>
       <c r="K206">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="L206">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="M206">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="N206">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O206">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="P206">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Q206">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R206">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="S206">
-        <v>1.8</v>
+        <v>2.075</v>
       </c>
       <c r="T206">
         <v>2.25</v>
@@ -18850,25 +18850,25 @@
         <v>1.9</v>
       </c>
       <c r="W206">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X206">
         <v>-1</v>
       </c>
       <c r="Y206">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z206">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA206">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB206">
+        <v>-1</v>
+      </c>
+      <c r="AC206">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC206">
-        <v>-1</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18876,7 +18876,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6853143</v>
+        <v>6853141</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18888,46 +18888,46 @@
         <v>45121.60416666666</v>
       </c>
       <c r="F207" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G207" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H207">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I207">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J207" t="s">
         <v>50</v>
       </c>
       <c r="K207">
+        <v>2</v>
+      </c>
+      <c r="L207">
         <v>2.75</v>
       </c>
-      <c r="L207">
-        <v>2.9</v>
-      </c>
       <c r="M207">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="N207">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="O207">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="P207">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="Q207">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R207">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="S207">
-        <v>2.075</v>
+        <v>1.8</v>
       </c>
       <c r="T207">
         <v>2.25</v>
@@ -18939,25 +18939,25 @@
         <v>1.9</v>
       </c>
       <c r="W207">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X207">
         <v>-1</v>
       </c>
       <c r="Y207">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z207">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA207">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB207">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC207">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -18965,7 +18965,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6853132</v>
+        <v>6853133</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18977,58 +18977,58 @@
         <v>45121.60416666666</v>
       </c>
       <c r="F208" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G208" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I208">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J208" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K208">
-        <v>5.5</v>
+        <v>1.727</v>
       </c>
       <c r="L208">
         <v>3.25</v>
       </c>
       <c r="M208">
+        <v>4.5</v>
+      </c>
+      <c r="N208">
         <v>1.6</v>
       </c>
-      <c r="N208">
-        <v>4.5</v>
-      </c>
       <c r="O208">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P208">
-        <v>1.666</v>
+        <v>5.5</v>
       </c>
       <c r="Q208">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R208">
+        <v>1.975</v>
+      </c>
+      <c r="S208">
         <v>1.825</v>
       </c>
-      <c r="S208">
-        <v>1.975</v>
-      </c>
       <c r="T208">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U208">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V208">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W208">
-        <v>3.5</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X208">
         <v>-1</v>
@@ -19037,13 +19037,13 @@
         <v>-1</v>
       </c>
       <c r="Z208">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA208">
         <v>-1</v>
       </c>
       <c r="AB208">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC208">
         <v>-1</v>
@@ -19054,7 +19054,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6853133</v>
+        <v>6853132</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19066,58 +19066,58 @@
         <v>45121.60416666666</v>
       </c>
       <c r="F209" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G209" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H209">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I209">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J209" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K209">
-        <v>1.727</v>
+        <v>5.5</v>
       </c>
       <c r="L209">
         <v>3.25</v>
       </c>
       <c r="M209">
+        <v>1.6</v>
+      </c>
+      <c r="N209">
         <v>4.5</v>
       </c>
-      <c r="N209">
-        <v>1.6</v>
-      </c>
       <c r="O209">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P209">
-        <v>5.5</v>
+        <v>1.666</v>
       </c>
       <c r="Q209">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R209">
+        <v>1.825</v>
+      </c>
+      <c r="S209">
         <v>1.975</v>
       </c>
-      <c r="S209">
-        <v>1.825</v>
-      </c>
       <c r="T209">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U209">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V209">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W209">
-        <v>0.6000000000000001</v>
+        <v>3.5</v>
       </c>
       <c r="X209">
         <v>-1</v>
@@ -19126,13 +19126,13 @@
         <v>-1</v>
       </c>
       <c r="Z209">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA209">
         <v>-1</v>
       </c>
       <c r="AB209">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC209">
         <v>-1</v>
@@ -19143,7 +19143,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6853142</v>
+        <v>6853144</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19155,76 +19155,76 @@
         <v>45122.54166666666</v>
       </c>
       <c r="F210" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G210" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H210">
+        <v>0</v>
+      </c>
+      <c r="I210">
         <v>1</v>
-      </c>
-      <c r="I210">
-        <v>0</v>
       </c>
       <c r="J210" t="s">
         <v>50</v>
       </c>
       <c r="K210">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="L210">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="M210">
+        <v>3.6</v>
+      </c>
+      <c r="N210">
+        <v>1.85</v>
+      </c>
+      <c r="O210">
+        <v>3.1</v>
+      </c>
+      <c r="P210">
+        <v>4.2</v>
+      </c>
+      <c r="Q210">
+        <v>-0.5</v>
+      </c>
+      <c r="R210">
+        <v>1.95</v>
+      </c>
+      <c r="S210">
+        <v>1.85</v>
+      </c>
+      <c r="T210">
         <v>2.5</v>
       </c>
-      <c r="N210">
-        <v>3.75</v>
-      </c>
-      <c r="O210">
-        <v>2.625</v>
-      </c>
-      <c r="P210">
-        <v>2.2</v>
-      </c>
-      <c r="Q210">
-        <v>0.25</v>
-      </c>
-      <c r="R210">
-        <v>1.85</v>
-      </c>
-      <c r="S210">
-        <v>1.95</v>
-      </c>
-      <c r="T210">
-        <v>1.75</v>
-      </c>
       <c r="U210">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V210">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W210">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X210">
         <v>-1</v>
       </c>
       <c r="Y210">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z210">
+        <v>-1</v>
+      </c>
+      <c r="AA210">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA210">
-        <v>-1</v>
-      </c>
       <c r="AB210">
         <v>-1</v>
       </c>
       <c r="AC210">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19232,7 +19232,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>6853144</v>
+        <v>6853142</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19244,76 +19244,76 @@
         <v>45122.54166666666</v>
       </c>
       <c r="F211" t="s">
+        <v>38</v>
+      </c>
+      <c r="G211" t="s">
         <v>42</v>
       </c>
-      <c r="G211" t="s">
-        <v>45</v>
-      </c>
       <c r="H211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J211" t="s">
         <v>51</v>
       </c>
       <c r="K211">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="L211">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="M211">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="N211">
+        <v>3.75</v>
+      </c>
+      <c r="O211">
+        <v>2.625</v>
+      </c>
+      <c r="P211">
+        <v>2.2</v>
+      </c>
+      <c r="Q211">
+        <v>0.25</v>
+      </c>
+      <c r="R211">
         <v>1.85</v>
       </c>
-      <c r="O211">
-        <v>3.1</v>
-      </c>
-      <c r="P211">
-        <v>4.2</v>
-      </c>
-      <c r="Q211">
-        <v>-0.5</v>
-      </c>
-      <c r="R211">
+      <c r="S211">
         <v>1.95</v>
       </c>
-      <c r="S211">
+      <c r="T211">
+        <v>1.75</v>
+      </c>
+      <c r="U211">
         <v>1.85</v>
       </c>
-      <c r="T211">
-        <v>2.5</v>
-      </c>
-      <c r="U211">
-        <v>1.975</v>
-      </c>
       <c r="V211">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W211">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X211">
         <v>-1</v>
       </c>
       <c r="Y211">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z211">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA211">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB211">
         <v>-1</v>
       </c>
       <c r="AC211">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19345,7 +19345,7 @@
         <v>1</v>
       </c>
       <c r="J212" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K212">
         <v>2.1</v>
@@ -19422,7 +19422,7 @@
         <v>45123.54166666666</v>
       </c>
       <c r="F213" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G213" t="s">
         <v>32</v>
@@ -19434,7 +19434,7 @@
         <v>4</v>
       </c>
       <c r="J213" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K213">
         <v>6</v>
@@ -19701,7 +19701,7 @@
         <v>0</v>
       </c>
       <c r="J216" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K216">
         <v>3.25</v>
@@ -19778,7 +19778,7 @@
         <v>45133.60416666666</v>
       </c>
       <c r="F217" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G217" t="s">
         <v>32</v>
@@ -19867,7 +19867,7 @@
         <v>45187.54166666666</v>
       </c>
       <c r="F218" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G218" t="s">
         <v>43</v>
@@ -19879,7 +19879,7 @@
         <v>0</v>
       </c>
       <c r="J218" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K218">
         <v>2.375</v>
@@ -19968,7 +19968,7 @@
         <v>0</v>
       </c>
       <c r="J219" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K219">
         <v>2.7</v>
@@ -20045,7 +20045,7 @@
         <v>45188.54166666666</v>
       </c>
       <c r="F220" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G220" t="s">
         <v>32</v>
@@ -20057,7 +20057,7 @@
         <v>4</v>
       </c>
       <c r="J220" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K220">
         <v>6</v>
@@ -20134,7 +20134,7 @@
         <v>45189.41666666666</v>
       </c>
       <c r="F221" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G221" t="s">
         <v>38</v>
@@ -20146,7 +20146,7 @@
         <v>0</v>
       </c>
       <c r="J221" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K221">
         <v>2.45</v>
@@ -20223,7 +20223,7 @@
         <v>45189.54166666666</v>
       </c>
       <c r="F222" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G222" t="s">
         <v>49</v>
@@ -20312,7 +20312,7 @@
         <v>45189.54166666666</v>
       </c>
       <c r="F223" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G223" t="s">
         <v>48</v>
@@ -20324,7 +20324,7 @@
         <v>2</v>
       </c>
       <c r="J223" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K223">
         <v>2.5</v>
@@ -20413,7 +20413,7 @@
         <v>2</v>
       </c>
       <c r="J224" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K224">
         <v>2.9</v>
@@ -20582,7 +20582,7 @@
         <v>31</v>
       </c>
       <c r="G226" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H226">
         <v>1</v>
@@ -20591,7 +20591,7 @@
         <v>0</v>
       </c>
       <c r="J226" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K226">
         <v>2.8</v>
@@ -20680,7 +20680,7 @@
         <v>1</v>
       </c>
       <c r="J227" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K227">
         <v>5</v>
@@ -20760,7 +20760,7 @@
         <v>39</v>
       </c>
       <c r="G228" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H228">
         <v>1</v>
@@ -20849,7 +20849,7 @@
         <v>48</v>
       </c>
       <c r="G229" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H229">
         <v>0</v>
@@ -20858,7 +20858,7 @@
         <v>2</v>
       </c>
       <c r="J229" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K229">
         <v>2.25</v>
@@ -20938,7 +20938,7 @@
         <v>36</v>
       </c>
       <c r="G230" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H230">
         <v>2</v>
@@ -20947,7 +20947,7 @@
         <v>1</v>
       </c>
       <c r="J230" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K230">
         <v>1.666</v>
@@ -21027,7 +21027,7 @@
         <v>38</v>
       </c>
       <c r="G231" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H231">
         <v>0</v>
@@ -21125,7 +21125,7 @@
         <v>1</v>
       </c>
       <c r="J232" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K232">
         <v>2.4</v>
@@ -21202,7 +21202,7 @@
         <v>45197.41666666666</v>
       </c>
       <c r="F233" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G233" t="s">
         <v>37</v>
@@ -21214,7 +21214,7 @@
         <v>0</v>
       </c>
       <c r="J233" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K233">
         <v>1.95</v>
@@ -21303,7 +21303,7 @@
         <v>1</v>
       </c>
       <c r="J234" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K234">
         <v>2.35</v>
@@ -21469,10 +21469,10 @@
         <v>45204.54166666666</v>
       </c>
       <c r="F236" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G236" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H236">
         <v>2</v>
@@ -21481,7 +21481,7 @@
         <v>1</v>
       </c>
       <c r="J236" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K236">
         <v>2.5</v>
@@ -21650,7 +21650,7 @@
         <v>37</v>
       </c>
       <c r="G238" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H238">
         <v>2</v>
@@ -21736,10 +21736,10 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F239" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G239" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H239">
         <v>3</v>
@@ -21748,7 +21748,7 @@
         <v>1</v>
       </c>
       <c r="J239" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K239">
         <v>1.909</v>
@@ -21837,7 +21837,7 @@
         <v>2</v>
       </c>
       <c r="J240" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K240">
         <v>4</v>
@@ -21914,7 +21914,7 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F241" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G241" t="s">
         <v>36</v>
@@ -21926,7 +21926,7 @@
         <v>2</v>
       </c>
       <c r="J241" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K241">
         <v>3</v>
@@ -22015,7 +22015,7 @@
         <v>0</v>
       </c>
       <c r="J242" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K242">
         <v>1.444</v>
@@ -22104,7 +22104,7 @@
         <v>1</v>
       </c>
       <c r="J243" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K243">
         <v>1.25</v>
@@ -22181,10 +22181,10 @@
         <v>45219.41666666666</v>
       </c>
       <c r="F244" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G244" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H244">
         <v>1</v>
@@ -22193,7 +22193,7 @@
         <v>0</v>
       </c>
       <c r="J244" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K244">
         <v>2.1</v>
@@ -22270,10 +22270,10 @@
         <v>45219.58333333334</v>
       </c>
       <c r="F245" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G245" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H245">
         <v>4</v>
@@ -22282,7 +22282,7 @@
         <v>0</v>
       </c>
       <c r="J245" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K245">
         <v>1.65</v>
@@ -22451,7 +22451,7 @@
         <v>39</v>
       </c>
       <c r="G247" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H247">
         <v>5</v>
@@ -22460,7 +22460,7 @@
         <v>1</v>
       </c>
       <c r="J247" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K247">
         <v>1.65</v>
@@ -22549,7 +22549,7 @@
         <v>1</v>
       </c>
       <c r="J248" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K248">
         <v>2.4</v>
@@ -22626,7 +22626,7 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F249" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G249" t="s">
         <v>47</v>
@@ -22727,7 +22727,7 @@
         <v>1</v>
       </c>
       <c r="J250" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K250">
         <v>2.5</v>
@@ -22816,7 +22816,7 @@
         <v>1</v>
       </c>
       <c r="J251" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K251">
         <v>3.8</v>
@@ -22893,7 +22893,7 @@
         <v>45226.45833333334</v>
       </c>
       <c r="F252" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G252" t="s">
         <v>40</v>
@@ -22905,7 +22905,7 @@
         <v>3</v>
       </c>
       <c r="J252" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K252">
         <v>1.65</v>
@@ -22994,7 +22994,7 @@
         <v>1</v>
       </c>
       <c r="J253" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K253">
         <v>3.6</v>
@@ -23083,7 +23083,7 @@
         <v>1</v>
       </c>
       <c r="J254" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K254">
         <v>2.2</v>
@@ -23163,7 +23163,7 @@
         <v>47</v>
       </c>
       <c r="G255" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H255">
         <v>1</v>
@@ -23252,7 +23252,7 @@
         <v>31</v>
       </c>
       <c r="G256" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H256">
         <v>3</v>
@@ -23261,7 +23261,7 @@
         <v>2</v>
       </c>
       <c r="J256" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K256">
         <v>2.25</v>
@@ -23338,10 +23338,10 @@
         <v>45228.58333333334</v>
       </c>
       <c r="F257" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G257" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H257">
         <v>1</v>
@@ -23350,7 +23350,7 @@
         <v>0</v>
       </c>
       <c r="J257" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K257">
         <v>3</v>
@@ -23427,7 +23427,7 @@
         <v>45229.45833333334</v>
       </c>
       <c r="F258" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G258" t="s">
         <v>35</v>
@@ -23528,7 +23528,7 @@
         <v>2</v>
       </c>
       <c r="J259" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K259">
         <v>2.9</v>
@@ -23605,7 +23605,7 @@
         <v>45233.45833333334</v>
       </c>
       <c r="F260" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G260" t="s">
         <v>31</v>
@@ -23617,7 +23617,7 @@
         <v>1</v>
       </c>
       <c r="J260" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K260">
         <v>2.3</v>
@@ -23706,7 +23706,7 @@
         <v>2</v>
       </c>
       <c r="J261" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K261">
         <v>1.909</v>
@@ -23783,7 +23783,7 @@
         <v>45233.58333333334</v>
       </c>
       <c r="F262" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G262" t="s">
         <v>40</v>
@@ -23795,7 +23795,7 @@
         <v>0</v>
       </c>
       <c r="J262" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K262">
         <v>4.75</v>
@@ -23875,7 +23875,7 @@
         <v>49</v>
       </c>
       <c r="G263" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H263">
         <v>2</v>
@@ -23884,7 +23884,7 @@
         <v>0</v>
       </c>
       <c r="J263" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K263">
         <v>1.909</v>
@@ -23949,7 +23949,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>7217650</v>
+        <v>7217649</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -23961,13 +23961,13 @@
         <v>45234.58333333334</v>
       </c>
       <c r="F264" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="G264" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H264">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I264">
         <v>2</v>
@@ -23976,58 +23976,58 @@
         <v>50</v>
       </c>
       <c r="K264">
-        <v>2.55</v>
+        <v>7.5</v>
       </c>
       <c r="L264">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M264">
-        <v>2.6</v>
+        <v>1.363</v>
       </c>
       <c r="N264">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="O264">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="P264">
-        <v>2.625</v>
+        <v>1.5</v>
       </c>
       <c r="Q264">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R264">
+        <v>1.875</v>
+      </c>
+      <c r="S264">
         <v>1.925</v>
       </c>
-      <c r="S264">
+      <c r="T264">
+        <v>2.25</v>
+      </c>
+      <c r="U264">
         <v>1.875</v>
       </c>
-      <c r="T264">
-        <v>2</v>
-      </c>
-      <c r="U264">
+      <c r="V264">
         <v>1.925</v>
       </c>
-      <c r="V264">
-        <v>1.875</v>
-      </c>
       <c r="W264">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X264">
         <v>-1</v>
       </c>
       <c r="Y264">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z264">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA264">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB264">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC264">
         <v>-1</v>
@@ -24038,7 +24038,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>7217649</v>
+        <v>7217650</v>
       </c>
       <c r="C265" t="s">
         <v>28</v>
@@ -24050,13 +24050,13 @@
         <v>45234.58333333334</v>
       </c>
       <c r="F265" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="G265" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H265">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I265">
         <v>2</v>
@@ -24065,58 +24065,58 @@
         <v>51</v>
       </c>
       <c r="K265">
-        <v>7.5</v>
+        <v>2.55</v>
       </c>
       <c r="L265">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M265">
-        <v>1.363</v>
+        <v>2.6</v>
       </c>
       <c r="N265">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="O265">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="P265">
-        <v>1.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q265">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R265">
+        <v>1.925</v>
+      </c>
+      <c r="S265">
         <v>1.875</v>
       </c>
-      <c r="S265">
+      <c r="T265">
+        <v>2</v>
+      </c>
+      <c r="U265">
         <v>1.925</v>
       </c>
-      <c r="T265">
-        <v>2.25</v>
-      </c>
-      <c r="U265">
+      <c r="V265">
         <v>1.875</v>
       </c>
-      <c r="V265">
-        <v>1.925</v>
-      </c>
       <c r="W265">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X265">
         <v>-1</v>
       </c>
       <c r="Y265">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z265">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA265">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB265">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC265">
         <v>-1</v>
@@ -24127,7 +24127,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>7217652</v>
+        <v>7217651</v>
       </c>
       <c r="C266" t="s">
         <v>28</v>
@@ -24139,55 +24139,55 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F266" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G266" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J266" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K266">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L266">
         <v>2.9</v>
       </c>
       <c r="M266">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N266">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="O266">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="P266">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="Q266">
         <v>-0.25</v>
       </c>
       <c r="R266">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S266">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="T266">
         <v>2</v>
       </c>
       <c r="U266">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V266">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W266">
         <v>-1</v>
@@ -24196,19 +24196,19 @@
         <v>-1</v>
       </c>
       <c r="Y266">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="Z266">
         <v>-1</v>
       </c>
       <c r="AA266">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="AB266">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC266">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="267" spans="1:29">
@@ -24216,7 +24216,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>7217651</v>
+        <v>7217652</v>
       </c>
       <c r="C267" t="s">
         <v>28</v>
@@ -24228,55 +24228,55 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F267" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G267" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J267" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K267">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L267">
         <v>2.9</v>
       </c>
       <c r="M267">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N267">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="O267">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="P267">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Q267">
         <v>-0.25</v>
       </c>
       <c r="R267">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S267">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="T267">
         <v>2</v>
       </c>
       <c r="U267">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V267">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W267">
         <v>-1</v>
@@ -24285,19 +24285,19 @@
         <v>-1</v>
       </c>
       <c r="Y267">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="Z267">
         <v>-1</v>
       </c>
       <c r="AA267">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="AB267">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC267">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="268" spans="1:29">
@@ -24317,7 +24317,7 @@
         <v>45235.58333333334</v>
       </c>
       <c r="F268" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G268" t="s">
         <v>43</v>
@@ -24329,7 +24329,7 @@
         <v>4</v>
       </c>
       <c r="J268" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K268">
         <v>1.95</v>
@@ -24406,7 +24406,7 @@
         <v>45238.45833333334</v>
       </c>
       <c r="F269" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G269" t="s">
         <v>32</v>
@@ -24418,7 +24418,7 @@
         <v>2</v>
       </c>
       <c r="J269" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K269">
         <v>5.5</v>
@@ -24596,7 +24596,7 @@
         <v>1</v>
       </c>
       <c r="J271" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K271">
         <v>1.4</v>
@@ -24676,7 +24676,7 @@
         <v>32</v>
       </c>
       <c r="G272" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H272">
         <v>0</v>
@@ -24774,7 +24774,7 @@
         <v>2</v>
       </c>
       <c r="J273" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K273">
         <v>2.9</v>
@@ -24928,7 +24928,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>7217659</v>
+        <v>7217658</v>
       </c>
       <c r="C275" t="s">
         <v>28</v>
@@ -24940,10 +24940,10 @@
         <v>45260.58333333334</v>
       </c>
       <c r="F275" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G275" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="H275">
         <v>1</v>
@@ -24955,55 +24955,55 @@
         <v>52</v>
       </c>
       <c r="K275">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L275">
+        <v>2.875</v>
+      </c>
+      <c r="M275">
+        <v>3.5</v>
+      </c>
+      <c r="N275">
+        <v>2.15</v>
+      </c>
+      <c r="O275">
         <v>2.8</v>
       </c>
-      <c r="M275">
-        <v>2.8</v>
-      </c>
-      <c r="N275">
-        <v>2.6</v>
-      </c>
-      <c r="O275">
-        <v>2.7</v>
-      </c>
       <c r="P275">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q275">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R275">
+        <v>1.85</v>
+      </c>
+      <c r="S275">
+        <v>1.95</v>
+      </c>
+      <c r="T275">
+        <v>2</v>
+      </c>
+      <c r="U275">
         <v>1.825</v>
       </c>
-      <c r="S275">
+      <c r="V275">
         <v>1.975</v>
       </c>
-      <c r="T275">
-        <v>2</v>
-      </c>
-      <c r="U275">
-        <v>2</v>
-      </c>
-      <c r="V275">
+      <c r="W275">
+        <v>-1</v>
+      </c>
+      <c r="X275">
         <v>1.8</v>
       </c>
-      <c r="W275">
-        <v>-1</v>
-      </c>
-      <c r="X275">
-        <v>1.7</v>
-      </c>
       <c r="Y275">
         <v>-1</v>
       </c>
       <c r="Z275">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA275">
-        <v>-0</v>
+        <v>0.475</v>
       </c>
       <c r="AB275">
         <v>0</v>
@@ -25017,7 +25017,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>7217658</v>
+        <v>7217659</v>
       </c>
       <c r="C276" t="s">
         <v>28</v>
@@ -25029,10 +25029,10 @@
         <v>45260.58333333334</v>
       </c>
       <c r="F276" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G276" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="H276">
         <v>1</v>
@@ -25044,55 +25044,55 @@
         <v>52</v>
       </c>
       <c r="K276">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L276">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="M276">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="N276">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="O276">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="P276">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q276">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R276">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S276">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T276">
         <v>2</v>
       </c>
       <c r="U276">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V276">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W276">
         <v>-1</v>
       </c>
       <c r="X276">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="Y276">
         <v>-1</v>
       </c>
       <c r="Z276">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA276">
-        <v>0.475</v>
+        <v>-0</v>
       </c>
       <c r="AB276">
         <v>0</v>
@@ -25118,7 +25118,7 @@
         <v>45261.45833333334</v>
       </c>
       <c r="F277" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G277" t="s">
         <v>38</v>
@@ -25130,7 +25130,7 @@
         <v>1</v>
       </c>
       <c r="J277" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K277">
         <v>2.625</v>
@@ -25207,7 +25207,7 @@
         <v>45261.45833333334</v>
       </c>
       <c r="F278" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G278" t="s">
         <v>48</v>
@@ -25299,7 +25299,7 @@
         <v>43</v>
       </c>
       <c r="G279" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H279">
         <v>0</v>
@@ -25308,7 +25308,7 @@
         <v>1</v>
       </c>
       <c r="J279" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K279">
         <v>2.75</v>
@@ -25385,7 +25385,7 @@
         <v>45264.58333333334</v>
       </c>
       <c r="F280" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G280" t="s">
         <v>37</v>
@@ -25397,7 +25397,7 @@
         <v>1</v>
       </c>
       <c r="J280" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K280">
         <v>2.25</v>
@@ -25477,7 +25477,7 @@
         <v>48</v>
       </c>
       <c r="G281" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H281">
         <v>0</v>
@@ -25486,7 +25486,7 @@
         <v>2</v>
       </c>
       <c r="J281" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K281">
         <v>2.6</v>
@@ -25551,7 +25551,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>7217665</v>
+        <v>7217666</v>
       </c>
       <c r="C282" t="s">
         <v>28</v>
@@ -25563,58 +25563,58 @@
         <v>45265.58333333334</v>
       </c>
       <c r="F282" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G282" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I282">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J282" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K282">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="L282">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M282">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="N282">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="O282">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="P282">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="Q282">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R282">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S282">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T282">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U282">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="V282">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W282">
-        <v>1.375</v>
+        <v>0.909</v>
       </c>
       <c r="X282">
         <v>-1</v>
@@ -25623,13 +25623,13 @@
         <v>-1</v>
       </c>
       <c r="Z282">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AA282">
         <v>-1</v>
       </c>
       <c r="AB282">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AC282">
         <v>-1</v>
@@ -25640,7 +25640,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>7217666</v>
+        <v>7217665</v>
       </c>
       <c r="C283" t="s">
         <v>28</v>
@@ -25652,58 +25652,58 @@
         <v>45265.58333333334</v>
       </c>
       <c r="F283" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G283" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H283">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I283">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J283" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K283">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="L283">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M283">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="N283">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O283">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="P283">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="Q283">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R283">
+        <v>2.025</v>
+      </c>
+      <c r="S283">
+        <v>1.775</v>
+      </c>
+      <c r="T283">
+        <v>2.25</v>
+      </c>
+      <c r="U283">
         <v>1.95</v>
       </c>
-      <c r="S283">
+      <c r="V283">
         <v>1.85</v>
       </c>
-      <c r="T283">
-        <v>2</v>
-      </c>
-      <c r="U283">
-        <v>1.75</v>
-      </c>
-      <c r="V283">
-        <v>2.05</v>
-      </c>
       <c r="W283">
-        <v>0.909</v>
+        <v>1.375</v>
       </c>
       <c r="X283">
         <v>-1</v>
@@ -25712,13 +25712,13 @@
         <v>-1</v>
       </c>
       <c r="Z283">
+        <v>1.025</v>
+      </c>
+      <c r="AA283">
+        <v>-1</v>
+      </c>
+      <c r="AB283">
         <v>0.95</v>
-      </c>
-      <c r="AA283">
-        <v>-1</v>
-      </c>
-      <c r="AB283">
-        <v>0.75</v>
       </c>
       <c r="AC283">
         <v>-1</v>
@@ -25741,10 +25741,10 @@
         <v>45266.58333333334</v>
       </c>
       <c r="F284" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G284" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H284">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>3</v>
       </c>
       <c r="J285" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K285">
         <v>2.5</v>
@@ -25922,7 +25922,7 @@
         <v>36</v>
       </c>
       <c r="G286" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H286">
         <v>1</v>
@@ -26097,7 +26097,7 @@
         <v>45274.58333333334</v>
       </c>
       <c r="F288" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G288" t="s">
         <v>39</v>
@@ -26109,7 +26109,7 @@
         <v>0</v>
       </c>
       <c r="J288" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K288">
         <v>2.3</v>
@@ -26186,10 +26186,10 @@
         <v>45275.45833333334</v>
       </c>
       <c r="F289" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G289" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H289">
         <v>0</v>
@@ -26263,7 +26263,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>7549591</v>
+        <v>7549592</v>
       </c>
       <c r="C290" t="s">
         <v>28</v>
@@ -26275,10 +26275,10 @@
         <v>45275.54166666666</v>
       </c>
       <c r="F290" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G290" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="H290">
         <v>1</v>
@@ -26287,43 +26287,43 @@
         <v>2</v>
       </c>
       <c r="J290" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K290">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="L290">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="M290">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="N290">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="O290">
         <v>2.75</v>
       </c>
       <c r="P290">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="Q290">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R290">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="S290">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="T290">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U290">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V290">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W290">
         <v>-1</v>
@@ -26332,16 +26332,16 @@
         <v>-1</v>
       </c>
       <c r="Y290">
-        <v>1.45</v>
+        <v>2.5</v>
       </c>
       <c r="Z290">
         <v>-1</v>
       </c>
       <c r="AA290">
-        <v>0.7250000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB290">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC290">
         <v>-1</v>
@@ -26352,7 +26352,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>7549592</v>
+        <v>7549591</v>
       </c>
       <c r="C291" t="s">
         <v>28</v>
@@ -26364,10 +26364,10 @@
         <v>45275.54166666666</v>
       </c>
       <c r="F291" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G291" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H291">
         <v>1</v>
@@ -26376,43 +26376,43 @@
         <v>2</v>
       </c>
       <c r="J291" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K291">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="L291">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="M291">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="N291">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="O291">
         <v>2.75</v>
       </c>
       <c r="P291">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q291">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R291">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="S291">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="T291">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U291">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V291">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W291">
         <v>-1</v>
@@ -26421,16 +26421,16 @@
         <v>-1</v>
       </c>
       <c r="Y291">
-        <v>2.5</v>
+        <v>1.45</v>
       </c>
       <c r="Z291">
         <v>-1</v>
       </c>
       <c r="AA291">
-        <v>0.8999999999999999</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB291">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC291">
         <v>-1</v>
@@ -26465,7 +26465,7 @@
         <v>0</v>
       </c>
       <c r="J292" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K292">
         <v>2.45</v>
@@ -26554,7 +26554,7 @@
         <v>2</v>
       </c>
       <c r="J293" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K293">
         <v>2.1</v>
@@ -26643,7 +26643,7 @@
         <v>2</v>
       </c>
       <c r="J294" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K294">
         <v>1.909</v>
@@ -26732,7 +26732,7 @@
         <v>1</v>
       </c>
       <c r="J295" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K295">
         <v>1.95</v>
@@ -26812,7 +26812,7 @@
         <v>47</v>
       </c>
       <c r="G296" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H296">
         <v>3</v>
@@ -26821,7 +26821,7 @@
         <v>1</v>
       </c>
       <c r="J296" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K296">
         <v>1.571</v>
@@ -26898,10 +26898,10 @@
         <v>45287.58333333334</v>
       </c>
       <c r="F297" t="s">
+        <v>46</v>
+      </c>
+      <c r="G297" t="s">
         <v>45</v>
-      </c>
-      <c r="G297" t="s">
-        <v>46</v>
       </c>
       <c r="H297">
         <v>1</v>
@@ -26910,7 +26910,7 @@
         <v>0</v>
       </c>
       <c r="J297" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K297">
         <v>2.6</v>
@@ -26990,7 +26990,7 @@
         <v>43</v>
       </c>
       <c r="G298" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H298">
         <v>3</v>
@@ -26999,7 +26999,7 @@
         <v>1</v>
       </c>
       <c r="J298" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K298">
         <v>2.4</v>
@@ -27088,7 +27088,7 @@
         <v>0</v>
       </c>
       <c r="J299" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K299">
         <v>2.1</v>
@@ -27165,7 +27165,7 @@
         <v>45290.58333333334</v>
       </c>
       <c r="F300" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G300" t="s">
         <v>47</v>
@@ -27177,7 +27177,7 @@
         <v>0</v>
       </c>
       <c r="J300" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K300">
         <v>2.9</v>
@@ -27254,7 +27254,7 @@
         <v>45292.45833333334</v>
       </c>
       <c r="F301" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G301" t="s">
         <v>31</v>
@@ -27266,7 +27266,7 @@
         <v>1</v>
       </c>
       <c r="J301" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K301">
         <v>3.25</v>
@@ -27343,7 +27343,7 @@
         <v>45292.58333333334</v>
       </c>
       <c r="F302" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G302" t="s">
         <v>35</v>

--- a/Egypt Division 1/Egypt Division 1.xlsx
+++ b/Egypt Division 1/Egypt Division 1.xlsx
@@ -115,10 +115,10 @@
     <t>Al Ahly Cairo</t>
   </si>
   <si>
-    <t>Ghazl El Mahallah</t>
+    <t>Al Moqawloon Al Arab</t>
   </si>
   <si>
-    <t>Al Moqawloon Al Arab</t>
+    <t>Ghazl El Mahallah</t>
   </si>
   <si>
     <t>Ismaily SC</t>
@@ -987,7 +987,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5774679</v>
+        <v>5774051</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1002,70 +1002,70 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6">
+        <v>1.727</v>
+      </c>
+      <c r="L6">
         <v>3</v>
       </c>
-      <c r="J6" t="s">
-        <v>50</v>
-      </c>
-      <c r="K6">
-        <v>2.625</v>
-      </c>
-      <c r="L6">
-        <v>2.875</v>
-      </c>
       <c r="M6">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="N6">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="O6">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P6">
-        <v>2.1</v>
+        <v>5.25</v>
       </c>
       <c r="Q6">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R6">
+        <v>1.8</v>
+      </c>
+      <c r="S6">
+        <v>2</v>
+      </c>
+      <c r="T6">
+        <v>1.75</v>
+      </c>
+      <c r="U6">
         <v>1.775</v>
       </c>
-      <c r="S6">
+      <c r="V6">
         <v>2.025</v>
       </c>
-      <c r="T6">
-        <v>2.25</v>
-      </c>
-      <c r="U6">
-        <v>1.825</v>
-      </c>
-      <c r="V6">
-        <v>1.975</v>
-      </c>
       <c r="W6">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA6">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC6">
         <v>-1</v>
@@ -1076,7 +1076,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5774051</v>
+        <v>5774679</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1091,70 +1091,70 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
         <v>3</v>
       </c>
-      <c r="I7">
-        <v>2</v>
-      </c>
       <c r="J7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K7">
-        <v>1.727</v>
+        <v>2.625</v>
       </c>
       <c r="L7">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M7">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="N7">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="O7">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P7">
-        <v>5.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q7">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R7">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S7">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T7">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U7">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V7">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W7">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z7">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB7">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC7">
         <v>-1</v>
@@ -1625,7 +1625,7 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H13">
         <v>4</v>
@@ -2070,7 +2070,7 @@
         <v>45</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2233,7 +2233,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5774059</v>
+        <v>5774058</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2245,73 +2245,73 @@
         <v>44937.40625</v>
       </c>
       <c r="F20" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K20">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="L20">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="M20">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="N20">
-        <v>2.55</v>
+        <v>4.2</v>
       </c>
       <c r="O20">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="P20">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R20">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="S20">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T20">
         <v>2</v>
       </c>
       <c r="U20">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V20">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="W20">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X20">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y20">
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="AA20">
         <v>-1</v>
       </c>
       <c r="AB20">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AC20">
         <v>-1</v>
@@ -2322,7 +2322,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5774058</v>
+        <v>5774059</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2334,73 +2334,73 @@
         <v>44937.40625</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G21" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21" t="s">
+        <v>51</v>
+      </c>
+      <c r="K21">
+        <v>2.375</v>
+      </c>
+      <c r="L21">
+        <v>2.625</v>
+      </c>
+      <c r="M21">
+        <v>3.2</v>
+      </c>
+      <c r="N21">
+        <v>2.55</v>
+      </c>
+      <c r="O21">
+        <v>2.55</v>
+      </c>
+      <c r="P21">
         <v>3</v>
       </c>
-      <c r="I21">
-        <v>3</v>
-      </c>
-      <c r="J21" t="s">
-        <v>52</v>
-      </c>
-      <c r="K21">
-        <v>4</v>
-      </c>
-      <c r="L21">
-        <v>2.8</v>
-      </c>
-      <c r="M21">
-        <v>2</v>
-      </c>
-      <c r="N21">
-        <v>4.2</v>
-      </c>
-      <c r="O21">
-        <v>2.8</v>
-      </c>
-      <c r="P21">
-        <v>1.909</v>
-      </c>
       <c r="Q21">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R21">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="S21">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T21">
         <v>2</v>
       </c>
       <c r="U21">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V21">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="W21">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X21">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="AA21">
         <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AC21">
         <v>-1</v>
@@ -2411,7 +2411,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5774686</v>
+        <v>6117225</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2423,76 +2423,76 @@
         <v>44937.58333333334</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="s">
         <v>52</v>
       </c>
       <c r="K22">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="L22">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M22">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="N22">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="O22">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P22">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="Q22">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R22">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S22">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T22">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U22">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V22">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="Y22">
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>0.45</v>
+        <v>0.75</v>
       </c>
       <c r="AA22">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC22">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2500,7 +2500,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6117225</v>
+        <v>5774686</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2512,76 +2512,76 @@
         <v>44937.58333333334</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
         <v>52</v>
       </c>
       <c r="K23">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="L23">
+        <v>3.2</v>
+      </c>
+      <c r="M23">
+        <v>1.95</v>
+      </c>
+      <c r="N23">
+        <v>3.4</v>
+      </c>
+      <c r="O23">
         <v>3</v>
       </c>
-      <c r="M23">
-        <v>1.909</v>
-      </c>
-      <c r="N23">
-        <v>3.8</v>
-      </c>
-      <c r="O23">
-        <v>2.875</v>
-      </c>
       <c r="P23">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="Q23">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R23">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S23">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T23">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U23">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V23">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="Y23">
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0.75</v>
+        <v>0.45</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2601,7 +2601,7 @@
         <v>44938.5</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G24" t="s">
         <v>38</v>
@@ -2960,7 +2960,7 @@
         <v>35</v>
       </c>
       <c r="G28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -3313,7 +3313,7 @@
         <v>44945.40625</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G32" t="s">
         <v>30</v>
@@ -3583,7 +3583,7 @@
         <v>41</v>
       </c>
       <c r="G35" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -3850,7 +3850,7 @@
         <v>29</v>
       </c>
       <c r="G38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -4381,7 +4381,7 @@
         <v>44950.5</v>
       </c>
       <c r="F44" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G44" t="s">
         <v>39</v>
@@ -4826,7 +4826,7 @@
         <v>44953.58333333334</v>
       </c>
       <c r="F49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G49" t="s">
         <v>31</v>
@@ -5274,7 +5274,7 @@
         <v>43</v>
       </c>
       <c r="G54" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H54">
         <v>2</v>
@@ -5360,7 +5360,7 @@
         <v>44962.40625</v>
       </c>
       <c r="F55" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G55" t="s">
         <v>44</v>
@@ -6161,10 +6161,10 @@
         <v>44967.54166666666</v>
       </c>
       <c r="F64" t="s">
+        <v>34</v>
+      </c>
+      <c r="G64" t="s">
         <v>33</v>
-      </c>
-      <c r="G64" t="s">
-        <v>34</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -7143,7 +7143,7 @@
         <v>35</v>
       </c>
       <c r="G75" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7318,7 +7318,7 @@
         <v>44979.5</v>
       </c>
       <c r="F77" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G77" t="s">
         <v>36</v>
@@ -7585,7 +7585,7 @@
         <v>44984.41666666666</v>
       </c>
       <c r="F80" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G80" t="s">
         <v>30</v>
@@ -8033,7 +8033,7 @@
         <v>37</v>
       </c>
       <c r="G85" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H85">
         <v>2</v>
@@ -8389,7 +8389,7 @@
         <v>29</v>
       </c>
       <c r="G89" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H89">
         <v>2</v>
@@ -8567,7 +8567,7 @@
         <v>32</v>
       </c>
       <c r="G91" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H91">
         <v>2</v>
@@ -8742,7 +8742,7 @@
         <v>44996.58333333334</v>
       </c>
       <c r="F93" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G93" t="s">
         <v>46</v>
@@ -9279,7 +9279,7 @@
         <v>42</v>
       </c>
       <c r="G99" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -9365,7 +9365,7 @@
         <v>45016.67708333334</v>
       </c>
       <c r="F100" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G100" t="s">
         <v>31</v>
@@ -9531,7 +9531,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6451732</v>
+        <v>6467348</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9543,76 +9543,76 @@
         <v>45019.67708333334</v>
       </c>
       <c r="F102" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G102" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102">
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K102">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="L102">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="M102">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="N102">
+        <v>3.2</v>
+      </c>
+      <c r="O102">
         <v>2.9</v>
       </c>
-      <c r="O102">
-        <v>2.75</v>
-      </c>
       <c r="P102">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="Q102">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R102">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S102">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T102">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U102">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V102">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W102">
         <v>-1</v>
       </c>
       <c r="X102">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y102">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA102">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC102">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9620,7 +9620,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6467348</v>
+        <v>6451732</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9632,76 +9632,76 @@
         <v>45019.67708333334</v>
       </c>
       <c r="F103" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G103" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103">
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K103">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="L103">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="M103">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="N103">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="O103">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="P103">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="Q103">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R103">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S103">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T103">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U103">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V103">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W103">
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y103">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z103">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AB103">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9709,7 +9709,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6445815</v>
+        <v>6467349</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9721,19 +9721,19 @@
         <v>45020.67708333334</v>
       </c>
       <c r="F104" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G104" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H104">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K104">
         <v>2.7</v>
@@ -9742,25 +9742,25 @@
         <v>2.75</v>
       </c>
       <c r="M104">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="N104">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="O104">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="P104">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="Q104">
         <v>0</v>
       </c>
       <c r="R104">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="S104">
-        <v>2</v>
+        <v>2.075</v>
       </c>
       <c r="T104">
         <v>2</v>
@@ -9772,25 +9772,25 @@
         <v>1.95</v>
       </c>
       <c r="W104">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X104">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB104">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC104">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9798,7 +9798,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6471793</v>
+        <v>6445815</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9810,76 +9810,76 @@
         <v>45020.67708333334</v>
       </c>
       <c r="F105" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G105" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K105">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="L105">
+        <v>2.75</v>
+      </c>
+      <c r="M105">
         <v>2.625</v>
       </c>
-      <c r="M105">
-        <v>3</v>
-      </c>
       <c r="N105">
+        <v>2.6</v>
+      </c>
+      <c r="O105">
+        <v>2.8</v>
+      </c>
+      <c r="P105">
         <v>2.875</v>
       </c>
-      <c r="O105">
-        <v>2.625</v>
-      </c>
-      <c r="P105">
-        <v>2.625</v>
-      </c>
       <c r="Q105">
         <v>0</v>
       </c>
       <c r="R105">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S105">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T105">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U105">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V105">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W105">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X105">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Y105">
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA105">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC105">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9887,7 +9887,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6467349</v>
+        <v>6471793</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9899,61 +9899,61 @@
         <v>45020.67708333334</v>
       </c>
       <c r="F106" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G106" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="s">
         <v>52</v>
       </c>
       <c r="K106">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="L106">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="M106">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="N106">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="O106">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="P106">
-        <v>2.9</v>
+        <v>2.625</v>
       </c>
       <c r="Q106">
         <v>0</v>
       </c>
       <c r="R106">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="S106">
-        <v>2.075</v>
+        <v>1.775</v>
       </c>
       <c r="T106">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U106">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V106">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W106">
         <v>-1</v>
       </c>
       <c r="X106">
-        <v>1.75</v>
+        <v>1.625</v>
       </c>
       <c r="Y106">
         <v>-1</v>
@@ -9965,10 +9965,10 @@
         <v>-0</v>
       </c>
       <c r="AB106">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC106">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9976,7 +9976,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6451733</v>
+        <v>6471794</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9988,76 +9988,76 @@
         <v>45021.67708333334</v>
       </c>
       <c r="F107" t="s">
+        <v>32</v>
+      </c>
+      <c r="G107" t="s">
         <v>34</v>
       </c>
-      <c r="G107" t="s">
-        <v>40</v>
-      </c>
       <c r="H107">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I107">
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K107">
-        <v>4.2</v>
+        <v>1.222</v>
       </c>
       <c r="L107">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="M107">
-        <v>1.85</v>
+        <v>10</v>
       </c>
       <c r="N107">
-        <v>3.4</v>
+        <v>1.222</v>
       </c>
       <c r="O107">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="P107">
-        <v>2.15</v>
+        <v>10</v>
       </c>
       <c r="Q107">
-        <v>0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R107">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S107">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T107">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U107">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V107">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W107">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X107">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y107">
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0.4375</v>
+        <v>1</v>
       </c>
       <c r="AA107">
+        <v>-1</v>
+      </c>
+      <c r="AB107">
+        <v>0.4875</v>
+      </c>
+      <c r="AC107">
         <v>-0.5</v>
-      </c>
-      <c r="AB107">
-        <v>-1</v>
-      </c>
-      <c r="AC107">
-        <v>0.925</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10065,7 +10065,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6471794</v>
+        <v>6451733</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10077,76 +10077,76 @@
         <v>45021.67708333334</v>
       </c>
       <c r="F108" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G108" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108" t="s">
+        <v>52</v>
+      </c>
+      <c r="K108">
+        <v>4.2</v>
+      </c>
+      <c r="L108">
         <v>3</v>
       </c>
-      <c r="I108">
-        <v>0</v>
-      </c>
-      <c r="J108" t="s">
-        <v>51</v>
-      </c>
-      <c r="K108">
-        <v>1.222</v>
-      </c>
-      <c r="L108">
-        <v>5.25</v>
-      </c>
       <c r="M108">
-        <v>10</v>
+        <v>1.85</v>
       </c>
       <c r="N108">
-        <v>1.222</v>
+        <v>3.4</v>
       </c>
       <c r="O108">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="P108">
-        <v>10</v>
+        <v>2.15</v>
       </c>
       <c r="Q108">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R108">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S108">
+        <v>1.925</v>
+      </c>
+      <c r="T108">
+        <v>2</v>
+      </c>
+      <c r="U108">
+        <v>1.875</v>
+      </c>
+      <c r="V108">
+        <v>1.925</v>
+      </c>
+      <c r="W108">
+        <v>-1</v>
+      </c>
+      <c r="X108">
         <v>1.8</v>
       </c>
-      <c r="T108">
-        <v>2.75</v>
-      </c>
-      <c r="U108">
-        <v>1.975</v>
-      </c>
-      <c r="V108">
-        <v>1.825</v>
-      </c>
-      <c r="W108">
-        <v>0.222</v>
-      </c>
-      <c r="X108">
-        <v>-1</v>
-      </c>
       <c r="Y108">
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA108">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB108">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC108">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10243,7 +10243,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6493897</v>
+        <v>6484231</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10255,76 +10255,76 @@
         <v>45023.67708333334</v>
       </c>
       <c r="F110" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G110" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H110">
         <v>1</v>
       </c>
       <c r="I110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K110">
-        <v>3.5</v>
+        <v>1.727</v>
       </c>
       <c r="L110">
         <v>3.25</v>
       </c>
       <c r="M110">
-        <v>1.909</v>
+        <v>4.333</v>
       </c>
       <c r="N110">
-        <v>2.7</v>
+        <v>1.533</v>
       </c>
       <c r="O110">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P110">
-        <v>2.3</v>
+        <v>5.5</v>
       </c>
       <c r="Q110">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R110">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S110">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T110">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U110">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="V110">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="W110">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X110">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y110">
         <v>-1</v>
       </c>
       <c r="Z110">
-        <v>0.4</v>
+        <v>0.375</v>
       </c>
       <c r="AA110">
         <v>-0.5</v>
       </c>
       <c r="AB110">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC110">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10332,7 +10332,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6484231</v>
+        <v>6493897</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10344,76 +10344,76 @@
         <v>45023.67708333334</v>
       </c>
       <c r="F111" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G111" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H111">
         <v>1</v>
       </c>
       <c r="I111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K111">
-        <v>1.727</v>
+        <v>3.5</v>
       </c>
       <c r="L111">
         <v>3.25</v>
       </c>
       <c r="M111">
-        <v>4.333</v>
+        <v>1.909</v>
       </c>
       <c r="N111">
-        <v>1.533</v>
+        <v>2.7</v>
       </c>
       <c r="O111">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P111">
-        <v>5.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q111">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R111">
+        <v>1.8</v>
+      </c>
+      <c r="S111">
+        <v>2</v>
+      </c>
+      <c r="T111">
+        <v>2</v>
+      </c>
+      <c r="U111">
         <v>1.75</v>
       </c>
-      <c r="S111">
+      <c r="V111">
         <v>2.05</v>
       </c>
-      <c r="T111">
+      <c r="W111">
+        <v>-1</v>
+      </c>
+      <c r="X111">
         <v>2.25</v>
       </c>
-      <c r="U111">
-        <v>2.025</v>
-      </c>
-      <c r="V111">
-        <v>1.775</v>
-      </c>
-      <c r="W111">
-        <v>0.5329999999999999</v>
-      </c>
-      <c r="X111">
-        <v>-1</v>
-      </c>
       <c r="Y111">
         <v>-1</v>
       </c>
       <c r="Z111">
-        <v>0.375</v>
+        <v>0.4</v>
       </c>
       <c r="AA111">
         <v>-0.5</v>
       </c>
       <c r="AB111">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC111">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10421,7 +10421,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6488022</v>
+        <v>6484232</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10433,46 +10433,46 @@
         <v>45025.67708333334</v>
       </c>
       <c r="F112" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G112" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H112">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I112">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J112" t="s">
         <v>51</v>
       </c>
       <c r="K112">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="L112">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M112">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="N112">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="O112">
         <v>2.875</v>
       </c>
       <c r="P112">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="Q112">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R112">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S112">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T112">
         <v>2</v>
@@ -10484,7 +10484,7 @@
         <v>1.9</v>
       </c>
       <c r="W112">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="X112">
         <v>-1</v>
@@ -10493,7 +10493,7 @@
         <v>-1</v>
       </c>
       <c r="Z112">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA112">
         <v>-1</v>
@@ -10510,7 +10510,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6484232</v>
+        <v>6471698</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10522,58 +10522,58 @@
         <v>45025.67708333334</v>
       </c>
       <c r="F113" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G113" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="s">
         <v>51</v>
       </c>
       <c r="K113">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="L113">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="M113">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="N113">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="O113">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="P113">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="Q113">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R113">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S113">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T113">
         <v>2</v>
       </c>
       <c r="U113">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V113">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W113">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="X113">
         <v>-1</v>
@@ -10582,16 +10582,16 @@
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA113">
         <v>-1</v>
       </c>
       <c r="AB113">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC113">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10599,7 +10599,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6471698</v>
+        <v>6488022</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10611,25 +10611,25 @@
         <v>45025.67708333334</v>
       </c>
       <c r="F114" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G114" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I114">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J114" t="s">
         <v>51</v>
       </c>
       <c r="K114">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="L114">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M114">
         <v>4</v>
@@ -10638,28 +10638,28 @@
         <v>2.2</v>
       </c>
       <c r="O114">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P114">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="Q114">
         <v>-0.25</v>
       </c>
       <c r="R114">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S114">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T114">
         <v>2</v>
       </c>
       <c r="U114">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V114">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W114">
         <v>1.2</v>
@@ -10671,16 +10671,16 @@
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA114">
         <v>-1</v>
       </c>
       <c r="AB114">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC114">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10789,7 +10789,7 @@
         <v>45028.67708333334</v>
       </c>
       <c r="F116" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G116" t="s">
         <v>36</v>
@@ -10955,7 +10955,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6471699</v>
+        <v>6484223</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10967,73 +10967,73 @@
         <v>45029.67708333334</v>
       </c>
       <c r="F118" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G118" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I118">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K118">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="L118">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="M118">
-        <v>1.833</v>
+        <v>2.5</v>
       </c>
       <c r="N118">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="O118">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="P118">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="Q118">
+        <v>-0.25</v>
+      </c>
+      <c r="R118">
+        <v>2</v>
+      </c>
+      <c r="S118">
+        <v>1.8</v>
+      </c>
+      <c r="T118">
+        <v>1.75</v>
+      </c>
+      <c r="U118">
+        <v>1.75</v>
+      </c>
+      <c r="V118">
+        <v>2.05</v>
+      </c>
+      <c r="W118">
+        <v>1.375</v>
+      </c>
+      <c r="X118">
+        <v>-1</v>
+      </c>
+      <c r="Y118">
+        <v>-1</v>
+      </c>
+      <c r="Z118">
+        <v>1</v>
+      </c>
+      <c r="AA118">
+        <v>-1</v>
+      </c>
+      <c r="AB118">
         <v>0.75</v>
-      </c>
-      <c r="R118">
-        <v>1.8</v>
-      </c>
-      <c r="S118">
-        <v>2</v>
-      </c>
-      <c r="T118">
-        <v>2</v>
-      </c>
-      <c r="U118">
-        <v>1.825</v>
-      </c>
-      <c r="V118">
-        <v>1.975</v>
-      </c>
-      <c r="W118">
-        <v>-1</v>
-      </c>
-      <c r="X118">
-        <v>-1</v>
-      </c>
-      <c r="Y118">
-        <v>0.7</v>
-      </c>
-      <c r="Z118">
-        <v>-1</v>
-      </c>
-      <c r="AA118">
-        <v>1</v>
-      </c>
-      <c r="AB118">
-        <v>0.825</v>
       </c>
       <c r="AC118">
         <v>-1</v>
@@ -11056,7 +11056,7 @@
         <v>45029.67708333334</v>
       </c>
       <c r="F119" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G119" t="s">
         <v>41</v>
@@ -11133,7 +11133,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6484223</v>
+        <v>6471699</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11145,73 +11145,73 @@
         <v>45029.67708333334</v>
       </c>
       <c r="F120" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G120" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
         <v>3</v>
       </c>
-      <c r="I120">
+      <c r="J120" t="s">
+        <v>50</v>
+      </c>
+      <c r="K120">
+        <v>4.2</v>
+      </c>
+      <c r="L120">
+        <v>3</v>
+      </c>
+      <c r="M120">
+        <v>1.833</v>
+      </c>
+      <c r="N120">
+        <v>5</v>
+      </c>
+      <c r="O120">
+        <v>3</v>
+      </c>
+      <c r="P120">
+        <v>1.7</v>
+      </c>
+      <c r="Q120">
+        <v>0.75</v>
+      </c>
+      <c r="R120">
+        <v>1.8</v>
+      </c>
+      <c r="S120">
+        <v>2</v>
+      </c>
+      <c r="T120">
+        <v>2</v>
+      </c>
+      <c r="U120">
+        <v>1.825</v>
+      </c>
+      <c r="V120">
+        <v>1.975</v>
+      </c>
+      <c r="W120">
+        <v>-1</v>
+      </c>
+      <c r="X120">
+        <v>-1</v>
+      </c>
+      <c r="Y120">
+        <v>0.7</v>
+      </c>
+      <c r="Z120">
+        <v>-1</v>
+      </c>
+      <c r="AA120">
         <v>1</v>
       </c>
-      <c r="J120" t="s">
-        <v>51</v>
-      </c>
-      <c r="K120">
-        <v>2.875</v>
-      </c>
-      <c r="L120">
-        <v>2.75</v>
-      </c>
-      <c r="M120">
-        <v>2.5</v>
-      </c>
-      <c r="N120">
-        <v>2.375</v>
-      </c>
-      <c r="O120">
-        <v>2.7</v>
-      </c>
-      <c r="P120">
-        <v>3.1</v>
-      </c>
-      <c r="Q120">
-        <v>-0.25</v>
-      </c>
-      <c r="R120">
-        <v>2</v>
-      </c>
-      <c r="S120">
-        <v>1.8</v>
-      </c>
-      <c r="T120">
-        <v>1.75</v>
-      </c>
-      <c r="U120">
-        <v>1.75</v>
-      </c>
-      <c r="V120">
-        <v>2.05</v>
-      </c>
-      <c r="W120">
-        <v>1.375</v>
-      </c>
-      <c r="X120">
-        <v>-1</v>
-      </c>
-      <c r="Y120">
-        <v>-1</v>
-      </c>
-      <c r="Z120">
-        <v>1</v>
-      </c>
-      <c r="AA120">
-        <v>-1</v>
-      </c>
       <c r="AB120">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="AC120">
         <v>-1</v>
@@ -11578,7 +11578,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6488028</v>
+        <v>6488032</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11590,49 +11590,49 @@
         <v>45033.67708333334</v>
       </c>
       <c r="F125" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G125" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125">
         <v>2</v>
       </c>
       <c r="J125" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K125">
-        <v>1.8</v>
+        <v>6.5</v>
       </c>
       <c r="L125">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M125">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="N125">
-        <v>2.25</v>
+        <v>6.5</v>
       </c>
       <c r="O125">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="P125">
-        <v>3.1</v>
+        <v>1.45</v>
       </c>
       <c r="Q125">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R125">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S125">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T125">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U125">
         <v>1.875</v>
@@ -11644,22 +11644,22 @@
         <v>-1</v>
       </c>
       <c r="X125">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z125">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA125">
-        <v>0.375</v>
+        <v>0.825</v>
       </c>
       <c r="AB125">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC125">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11667,7 +11667,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6488032</v>
+        <v>6488028</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11679,49 +11679,49 @@
         <v>45033.67708333334</v>
       </c>
       <c r="F126" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G126" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126">
         <v>2</v>
       </c>
       <c r="J126" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K126">
-        <v>6.5</v>
+        <v>1.8</v>
       </c>
       <c r="L126">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M126">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="N126">
-        <v>6.5</v>
+        <v>2.25</v>
       </c>
       <c r="O126">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="P126">
-        <v>1.45</v>
+        <v>3.1</v>
       </c>
       <c r="Q126">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R126">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S126">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T126">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U126">
         <v>1.875</v>
@@ -11733,22 +11733,22 @@
         <v>-1</v>
       </c>
       <c r="X126">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y126">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z126">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA126">
-        <v>0.825</v>
+        <v>0.375</v>
       </c>
       <c r="AB126">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC126">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11949,7 +11949,7 @@
         <v>37</v>
       </c>
       <c r="G129" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H129">
         <v>3</v>
@@ -12201,7 +12201,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6495714</v>
+        <v>6488031</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12213,76 +12213,76 @@
         <v>45036.67708333334</v>
       </c>
       <c r="F132" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G132" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J132" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K132">
         <v>2.3</v>
       </c>
       <c r="L132">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="M132">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N132">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O132">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="P132">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q132">
         <v>-0.25</v>
       </c>
       <c r="R132">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S132">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T132">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U132">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V132">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W132">
         <v>-1</v>
       </c>
       <c r="X132">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y132">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z132">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA132">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
       <c r="AB132">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC132">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12290,7 +12290,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6488031</v>
+        <v>6495714</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12302,76 +12302,76 @@
         <v>45036.67708333334</v>
       </c>
       <c r="F133" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G133" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K133">
         <v>2.3</v>
       </c>
       <c r="L133">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="M133">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N133">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O133">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="P133">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q133">
         <v>-0.25</v>
       </c>
       <c r="R133">
+        <v>1.9</v>
+      </c>
+      <c r="S133">
+        <v>1.9</v>
+      </c>
+      <c r="T133">
+        <v>2.25</v>
+      </c>
+      <c r="U133">
+        <v>1.95</v>
+      </c>
+      <c r="V133">
         <v>1.85</v>
       </c>
-      <c r="S133">
-        <v>1.95</v>
-      </c>
-      <c r="T133">
-        <v>2</v>
-      </c>
-      <c r="U133">
-        <v>2</v>
-      </c>
-      <c r="V133">
+      <c r="W133">
+        <v>-1</v>
+      </c>
+      <c r="X133">
         <v>1.8</v>
       </c>
-      <c r="W133">
-        <v>-1</v>
-      </c>
-      <c r="X133">
-        <v>-1</v>
-      </c>
       <c r="Y133">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z133">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA133">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="AB133">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC133">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12572,7 +12572,7 @@
         <v>45</v>
       </c>
       <c r="G136" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H136">
         <v>1</v>
@@ -12747,7 +12747,7 @@
         <v>45048.54166666666</v>
       </c>
       <c r="F138" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G138" t="s">
         <v>46</v>
@@ -13014,7 +13014,7 @@
         <v>45050.54166666666</v>
       </c>
       <c r="F141" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G141" t="s">
         <v>43</v>
@@ -13462,7 +13462,7 @@
         <v>42</v>
       </c>
       <c r="G146" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H146">
         <v>0</v>
@@ -13729,7 +13729,7 @@
         <v>44</v>
       </c>
       <c r="G149" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H149">
         <v>0</v>
@@ -14260,7 +14260,7 @@
         <v>45067.64583333334</v>
       </c>
       <c r="F155" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G155" t="s">
         <v>40</v>
@@ -14527,7 +14527,7 @@
         <v>45068.64583333334</v>
       </c>
       <c r="F158" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G158" t="s">
         <v>45</v>
@@ -14693,7 +14693,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6680849</v>
+        <v>6576771</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14705,13 +14705,13 @@
         <v>45069.64583333334</v>
       </c>
       <c r="F160" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G160" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I160">
         <v>0</v>
@@ -14720,43 +14720,43 @@
         <v>51</v>
       </c>
       <c r="K160">
-        <v>2.45</v>
+        <v>1.333</v>
       </c>
       <c r="L160">
-        <v>2.9</v>
+        <v>4.333</v>
       </c>
       <c r="M160">
-        <v>2.875</v>
+        <v>9</v>
       </c>
       <c r="N160">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="O160">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="P160">
-        <v>3</v>
+        <v>9.5</v>
       </c>
       <c r="Q160">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R160">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S160">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T160">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U160">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V160">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W160">
-        <v>1.4</v>
+        <v>0.3</v>
       </c>
       <c r="X160">
         <v>-1</v>
@@ -14765,7 +14765,7 @@
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>1.05</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA160">
         <v>-1</v>
@@ -14774,7 +14774,7 @@
         <v>-1</v>
       </c>
       <c r="AC160">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14782,7 +14782,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6576771</v>
+        <v>6680849</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14794,13 +14794,13 @@
         <v>45069.64583333334</v>
       </c>
       <c r="F161" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G161" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I161">
         <v>0</v>
@@ -14809,43 +14809,43 @@
         <v>51</v>
       </c>
       <c r="K161">
-        <v>1.333</v>
+        <v>2.45</v>
       </c>
       <c r="L161">
-        <v>4.333</v>
+        <v>2.9</v>
       </c>
       <c r="M161">
-        <v>9</v>
+        <v>2.875</v>
       </c>
       <c r="N161">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="O161">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="P161">
-        <v>9.5</v>
+        <v>3</v>
       </c>
       <c r="Q161">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R161">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S161">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T161">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U161">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V161">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W161">
-        <v>0.3</v>
+        <v>1.4</v>
       </c>
       <c r="X161">
         <v>-1</v>
@@ -14854,7 +14854,7 @@
         <v>-1</v>
       </c>
       <c r="Z161">
-        <v>0.7749999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AA161">
         <v>-1</v>
@@ -14863,7 +14863,7 @@
         <v>-1</v>
       </c>
       <c r="AC161">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14871,7 +14871,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6686652</v>
+        <v>6576691</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14883,10 +14883,10 @@
         <v>45070.64583333334</v>
       </c>
       <c r="F162" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G162" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H162">
         <v>1</v>
@@ -14898,43 +14898,43 @@
         <v>51</v>
       </c>
       <c r="K162">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="L162">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="M162">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="N162">
-        <v>2.2</v>
+        <v>1.363</v>
       </c>
       <c r="O162">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="P162">
-        <v>3.25</v>
+        <v>8</v>
       </c>
       <c r="Q162">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R162">
+        <v>1.85</v>
+      </c>
+      <c r="S162">
         <v>1.95</v>
       </c>
-      <c r="S162">
-        <v>1.85</v>
-      </c>
       <c r="T162">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U162">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V162">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W162">
-        <v>1.2</v>
+        <v>0.363</v>
       </c>
       <c r="X162">
         <v>-1</v>
@@ -14943,16 +14943,16 @@
         <v>-1</v>
       </c>
       <c r="Z162">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA162">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB162">
         <v>-1</v>
       </c>
       <c r="AC162">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -14960,7 +14960,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6576691</v>
+        <v>6686652</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14972,10 +14972,10 @@
         <v>45070.64583333334</v>
       </c>
       <c r="F163" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G163" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H163">
         <v>1</v>
@@ -14987,43 +14987,43 @@
         <v>51</v>
       </c>
       <c r="K163">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="L163">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="M163">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="N163">
-        <v>1.363</v>
+        <v>2.2</v>
       </c>
       <c r="O163">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="P163">
-        <v>8</v>
+        <v>3.25</v>
       </c>
       <c r="Q163">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R163">
+        <v>1.95</v>
+      </c>
+      <c r="S163">
         <v>1.85</v>
       </c>
-      <c r="S163">
-        <v>1.95</v>
-      </c>
       <c r="T163">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U163">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V163">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W163">
-        <v>0.363</v>
+        <v>1.2</v>
       </c>
       <c r="X163">
         <v>-1</v>
@@ -15032,16 +15032,16 @@
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA163">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB163">
         <v>-1</v>
       </c>
       <c r="AC163">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15506,7 +15506,7 @@
         <v>45077.64583333334</v>
       </c>
       <c r="F169" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G169" t="s">
         <v>35</v>
@@ -15687,7 +15687,7 @@
         <v>38</v>
       </c>
       <c r="G171" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H171">
         <v>1</v>
@@ -16117,7 +16117,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6682708</v>
+        <v>6682709</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16129,76 +16129,76 @@
         <v>45083.54166666666</v>
       </c>
       <c r="F176" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G176" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176">
         <v>1</v>
       </c>
       <c r="J176" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K176">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="L176">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="M176">
-        <v>3.75</v>
+        <v>1.727</v>
       </c>
       <c r="N176">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="O176">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P176">
-        <v>4.333</v>
+        <v>1.85</v>
       </c>
       <c r="Q176">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R176">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S176">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T176">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U176">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V176">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W176">
         <v>-1</v>
       </c>
       <c r="X176">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y176">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z176">
         <v>-1</v>
       </c>
       <c r="AA176">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AB176">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC176">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16206,7 +16206,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6682709</v>
+        <v>6682708</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16218,76 +16218,76 @@
         <v>45083.54166666666</v>
       </c>
       <c r="F177" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G177" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I177">
         <v>1</v>
       </c>
       <c r="J177" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K177">
+        <v>2</v>
+      </c>
+      <c r="L177">
+        <v>2.875</v>
+      </c>
+      <c r="M177">
+        <v>3.75</v>
+      </c>
+      <c r="N177">
+        <v>1.833</v>
+      </c>
+      <c r="O177">
+        <v>3</v>
+      </c>
+      <c r="P177">
         <v>4.333</v>
       </c>
-      <c r="L177">
-        <v>3.25</v>
-      </c>
-      <c r="M177">
-        <v>1.727</v>
-      </c>
-      <c r="N177">
-        <v>3.4</v>
-      </c>
-      <c r="O177">
-        <v>3.5</v>
-      </c>
-      <c r="P177">
+      <c r="Q177">
+        <v>-0.5</v>
+      </c>
+      <c r="R177">
         <v>1.85</v>
       </c>
-      <c r="Q177">
-        <v>0.5</v>
-      </c>
-      <c r="R177">
-        <v>1.875</v>
-      </c>
       <c r="S177">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T177">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U177">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V177">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W177">
         <v>-1</v>
       </c>
       <c r="X177">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y177">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z177">
         <v>-1</v>
       </c>
       <c r="AA177">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB177">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC177">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16399,7 +16399,7 @@
         <v>41</v>
       </c>
       <c r="G179" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H179">
         <v>1</v>
@@ -16666,7 +16666,7 @@
         <v>30</v>
       </c>
       <c r="G182" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H182">
         <v>1</v>
@@ -16933,7 +16933,7 @@
         <v>39</v>
       </c>
       <c r="G185" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H185">
         <v>2</v>
@@ -17464,7 +17464,7 @@
         <v>45107.64583333334</v>
       </c>
       <c r="F191" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G191" t="s">
         <v>29</v>
@@ -18164,7 +18164,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6853139</v>
+        <v>6853140</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18176,76 +18176,76 @@
         <v>45117.60416666666</v>
       </c>
       <c r="F199" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G199" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I199">
+        <v>0</v>
+      </c>
+      <c r="J199" t="s">
+        <v>51</v>
+      </c>
+      <c r="K199">
+        <v>2.05</v>
+      </c>
+      <c r="L199">
+        <v>2.8</v>
+      </c>
+      <c r="M199">
+        <v>3.75</v>
+      </c>
+      <c r="N199">
+        <v>2</v>
+      </c>
+      <c r="O199">
+        <v>2.8</v>
+      </c>
+      <c r="P199">
+        <v>4</v>
+      </c>
+      <c r="Q199">
+        <v>-0.5</v>
+      </c>
+      <c r="R199">
+        <v>2.05</v>
+      </c>
+      <c r="S199">
+        <v>1.75</v>
+      </c>
+      <c r="T199">
+        <v>2</v>
+      </c>
+      <c r="U199">
+        <v>2</v>
+      </c>
+      <c r="V199">
+        <v>1.8</v>
+      </c>
+      <c r="W199">
         <v>1</v>
       </c>
-      <c r="J199" t="s">
-        <v>50</v>
-      </c>
-      <c r="K199">
-        <v>2.7</v>
-      </c>
-      <c r="L199">
-        <v>2.7</v>
-      </c>
-      <c r="M199">
-        <v>2.7</v>
-      </c>
-      <c r="N199">
-        <v>2.8</v>
-      </c>
-      <c r="O199">
-        <v>2.75</v>
-      </c>
-      <c r="P199">
-        <v>2.55</v>
-      </c>
-      <c r="Q199">
-        <v>0</v>
-      </c>
-      <c r="R199">
-        <v>1.975</v>
-      </c>
-      <c r="S199">
-        <v>1.825</v>
-      </c>
-      <c r="T199">
-        <v>2</v>
-      </c>
-      <c r="U199">
-        <v>1.775</v>
-      </c>
-      <c r="V199">
-        <v>2.025</v>
-      </c>
-      <c r="W199">
-        <v>-1</v>
-      </c>
       <c r="X199">
         <v>-1</v>
       </c>
       <c r="Y199">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z199">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA199">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB199">
         <v>-1</v>
       </c>
       <c r="AC199">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18253,7 +18253,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>6853129</v>
+        <v>6853128</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18265,40 +18265,40 @@
         <v>45117.60416666666</v>
       </c>
       <c r="F200" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G200" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J200" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K200">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="L200">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="M200">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="N200">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="O200">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="P200">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="Q200">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R200">
         <v>1.775</v>
@@ -18310,31 +18310,31 @@
         <v>2.25</v>
       </c>
       <c r="U200">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V200">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W200">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X200">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y200">
         <v>-1</v>
       </c>
       <c r="Z200">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA200">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB200">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC200">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18342,7 +18342,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6853140</v>
+        <v>6853129</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18354,58 +18354,58 @@
         <v>45117.60416666666</v>
       </c>
       <c r="F201" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G201" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H201">
+        <v>2</v>
+      </c>
+      <c r="I201">
         <v>1</v>
-      </c>
-      <c r="I201">
-        <v>0</v>
       </c>
       <c r="J201" t="s">
         <v>51</v>
       </c>
       <c r="K201">
-        <v>2.05</v>
+        <v>3.4</v>
       </c>
       <c r="L201">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="M201">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="N201">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O201">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="P201">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="Q201">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R201">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S201">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T201">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U201">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V201">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W201">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X201">
         <v>-1</v>
@@ -18414,16 +18414,16 @@
         <v>-1</v>
       </c>
       <c r="Z201">
-        <v>1.05</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA201">
         <v>-1</v>
       </c>
       <c r="AB201">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC201">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18431,7 +18431,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6853128</v>
+        <v>6853139</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18443,76 +18443,76 @@
         <v>45117.60416666666</v>
       </c>
       <c r="F202" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G202" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H202">
         <v>0</v>
       </c>
       <c r="I202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J202" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K202">
-        <v>2.875</v>
+        <v>2.7</v>
       </c>
       <c r="L202">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="M202">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="N202">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="O202">
         <v>2.75</v>
       </c>
       <c r="P202">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="Q202">
         <v>0</v>
       </c>
       <c r="R202">
+        <v>1.975</v>
+      </c>
+      <c r="S202">
+        <v>1.825</v>
+      </c>
+      <c r="T202">
+        <v>2</v>
+      </c>
+      <c r="U202">
         <v>1.775</v>
       </c>
-      <c r="S202">
+      <c r="V202">
         <v>2.025</v>
       </c>
-      <c r="T202">
-        <v>2.25</v>
-      </c>
-      <c r="U202">
-        <v>1.9</v>
-      </c>
-      <c r="V202">
-        <v>1.9</v>
-      </c>
       <c r="W202">
         <v>-1</v>
       </c>
       <c r="X202">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y202">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z202">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA202">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB202">
         <v>-1</v>
       </c>
       <c r="AC202">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18624,7 +18624,7 @@
         <v>31</v>
       </c>
       <c r="G204" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H204">
         <v>0</v>
@@ -18787,7 +18787,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6853143</v>
+        <v>6853132</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18799,58 +18799,58 @@
         <v>45121.60416666666</v>
       </c>
       <c r="F206" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G206" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H206">
+        <v>2</v>
+      </c>
+      <c r="I206">
         <v>1</v>
-      </c>
-      <c r="I206">
-        <v>0</v>
       </c>
       <c r="J206" t="s">
         <v>51</v>
       </c>
       <c r="K206">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
       <c r="L206">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="M206">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="N206">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="O206">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="P206">
-        <v>2.9</v>
+        <v>1.666</v>
       </c>
       <c r="Q206">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R206">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="S206">
-        <v>2.075</v>
+        <v>1.975</v>
       </c>
       <c r="T206">
         <v>2.25</v>
       </c>
       <c r="U206">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V206">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W206">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="X206">
         <v>-1</v>
@@ -18859,16 +18859,16 @@
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>0.7250000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA206">
         <v>-1</v>
       </c>
       <c r="AB206">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC206">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18876,7 +18876,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6853141</v>
+        <v>6853133</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18888,49 +18888,49 @@
         <v>45121.60416666666</v>
       </c>
       <c r="F207" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G207" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I207">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J207" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K207">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L207">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="M207">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N207">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="O207">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="P207">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="Q207">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R207">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S207">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T207">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U207">
         <v>1.9</v>
@@ -18939,19 +18939,19 @@
         <v>1.9</v>
       </c>
       <c r="W207">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X207">
         <v>-1</v>
       </c>
       <c r="Y207">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z207">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA207">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB207">
         <v>0.8999999999999999</v>
@@ -18965,7 +18965,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6853133</v>
+        <v>6853143</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18977,49 +18977,49 @@
         <v>45121.60416666666</v>
       </c>
       <c r="F208" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G208" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H208">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I208">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J208" t="s">
         <v>51</v>
       </c>
       <c r="K208">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="L208">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="M208">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="N208">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="O208">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="P208">
-        <v>5.5</v>
+        <v>2.9</v>
       </c>
       <c r="Q208">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R208">
-        <v>1.975</v>
+        <v>1.725</v>
       </c>
       <c r="S208">
-        <v>1.825</v>
+        <v>2.075</v>
       </c>
       <c r="T208">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U208">
         <v>1.9</v>
@@ -19028,7 +19028,7 @@
         <v>1.9</v>
       </c>
       <c r="W208">
-        <v>0.6000000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="X208">
         <v>-1</v>
@@ -19037,16 +19037,16 @@
         <v>-1</v>
       </c>
       <c r="Z208">
-        <v>0.9750000000000001</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA208">
         <v>-1</v>
       </c>
       <c r="AB208">
+        <v>-1</v>
+      </c>
+      <c r="AC208">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC208">
-        <v>-1</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19054,7 +19054,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6853132</v>
+        <v>6853141</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19066,73 +19066,73 @@
         <v>45121.60416666666</v>
       </c>
       <c r="F209" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G209" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H209">
         <v>2</v>
       </c>
       <c r="I209">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J209" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K209">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="L209">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="M209">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="N209">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="O209">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="P209">
-        <v>1.666</v>
+        <v>3</v>
       </c>
       <c r="Q209">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R209">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S209">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T209">
         <v>2.25</v>
       </c>
       <c r="U209">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V209">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W209">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X209">
         <v>-1</v>
       </c>
       <c r="Y209">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z209">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA209">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB209">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC209">
         <v>-1</v>
@@ -19143,7 +19143,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6853144</v>
+        <v>6853142</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19155,76 +19155,76 @@
         <v>45122.54166666666</v>
       </c>
       <c r="F210" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G210" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J210" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K210">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="L210">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="M210">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="N210">
+        <v>3.75</v>
+      </c>
+      <c r="O210">
+        <v>2.625</v>
+      </c>
+      <c r="P210">
+        <v>2.2</v>
+      </c>
+      <c r="Q210">
+        <v>0.25</v>
+      </c>
+      <c r="R210">
         <v>1.85</v>
       </c>
-      <c r="O210">
-        <v>3.1</v>
-      </c>
-      <c r="P210">
-        <v>4.2</v>
-      </c>
-      <c r="Q210">
-        <v>-0.5</v>
-      </c>
-      <c r="R210">
+      <c r="S210">
         <v>1.95</v>
       </c>
-      <c r="S210">
+      <c r="T210">
+        <v>1.75</v>
+      </c>
+      <c r="U210">
         <v>1.85</v>
       </c>
-      <c r="T210">
-        <v>2.5</v>
-      </c>
-      <c r="U210">
-        <v>1.975</v>
-      </c>
       <c r="V210">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W210">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X210">
         <v>-1</v>
       </c>
       <c r="Y210">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z210">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA210">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB210">
         <v>-1</v>
       </c>
       <c r="AC210">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19232,7 +19232,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>6853142</v>
+        <v>6853144</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19244,76 +19244,76 @@
         <v>45122.54166666666</v>
       </c>
       <c r="F211" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G211" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H211">
+        <v>0</v>
+      </c>
+      <c r="I211">
         <v>1</v>
       </c>
-      <c r="I211">
-        <v>0</v>
-      </c>
       <c r="J211" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K211">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="L211">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="M211">
+        <v>3.6</v>
+      </c>
+      <c r="N211">
+        <v>1.85</v>
+      </c>
+      <c r="O211">
+        <v>3.1</v>
+      </c>
+      <c r="P211">
+        <v>4.2</v>
+      </c>
+      <c r="Q211">
+        <v>-0.5</v>
+      </c>
+      <c r="R211">
+        <v>1.95</v>
+      </c>
+      <c r="S211">
+        <v>1.85</v>
+      </c>
+      <c r="T211">
         <v>2.5</v>
       </c>
-      <c r="N211">
-        <v>3.75</v>
-      </c>
-      <c r="O211">
-        <v>2.625</v>
-      </c>
-      <c r="P211">
-        <v>2.2</v>
-      </c>
-      <c r="Q211">
-        <v>0.25</v>
-      </c>
-      <c r="R211">
-        <v>1.85</v>
-      </c>
-      <c r="S211">
-        <v>1.95</v>
-      </c>
-      <c r="T211">
-        <v>1.75</v>
-      </c>
       <c r="U211">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V211">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W211">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X211">
         <v>-1</v>
       </c>
       <c r="Y211">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z211">
+        <v>-1</v>
+      </c>
+      <c r="AA211">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA211">
-        <v>-1</v>
-      </c>
       <c r="AB211">
         <v>-1</v>
       </c>
       <c r="AC211">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19422,7 +19422,7 @@
         <v>45123.54166666666</v>
       </c>
       <c r="F213" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G213" t="s">
         <v>32</v>
@@ -20312,7 +20312,7 @@
         <v>45189.54166666666</v>
       </c>
       <c r="F223" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G223" t="s">
         <v>48</v>
@@ -20478,7 +20478,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>7208367</v>
+        <v>7208756</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20490,76 +20490,76 @@
         <v>45190.54166666666</v>
       </c>
       <c r="F225" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G225" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I225">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J225" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K225">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="L225">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M225">
-        <v>3.8</v>
+        <v>2.55</v>
       </c>
       <c r="N225">
-        <v>2.05</v>
+        <v>2.8</v>
       </c>
       <c r="O225">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P225">
-        <v>3.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q225">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R225">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S225">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T225">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U225">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V225">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W225">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X225">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y225">
         <v>-1</v>
       </c>
       <c r="Z225">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA225">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB225">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC225">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="226" spans="1:29">
@@ -20567,7 +20567,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>7208756</v>
+        <v>7208367</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20579,76 +20579,76 @@
         <v>45190.54166666666</v>
       </c>
       <c r="F226" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G226" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I226">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J226" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K226">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="L226">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M226">
-        <v>2.55</v>
+        <v>3.8</v>
       </c>
       <c r="N226">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="O226">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P226">
-        <v>2.55</v>
+        <v>3.5</v>
       </c>
       <c r="Q226">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R226">
+        <v>2.025</v>
+      </c>
+      <c r="S226">
+        <v>1.775</v>
+      </c>
+      <c r="T226">
+        <v>2.5</v>
+      </c>
+      <c r="U226">
         <v>1.975</v>
       </c>
-      <c r="S226">
+      <c r="V226">
         <v>1.825</v>
       </c>
-      <c r="T226">
-        <v>2.25</v>
-      </c>
-      <c r="U226">
-        <v>2</v>
-      </c>
-      <c r="V226">
-        <v>1.8</v>
-      </c>
       <c r="W226">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X226">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y226">
         <v>-1</v>
       </c>
       <c r="Z226">
+        <v>-1</v>
+      </c>
+      <c r="AA226">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB226">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA226">
-        <v>-1</v>
-      </c>
-      <c r="AB226">
-        <v>-1</v>
-      </c>
       <c r="AC226">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -20760,7 +20760,7 @@
         <v>39</v>
       </c>
       <c r="G228" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H228">
         <v>1</v>
@@ -21472,7 +21472,7 @@
         <v>46</v>
       </c>
       <c r="G236" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H236">
         <v>2</v>
@@ -22626,7 +22626,7 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F249" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G249" t="s">
         <v>47</v>
@@ -23252,7 +23252,7 @@
         <v>31</v>
       </c>
       <c r="G256" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H256">
         <v>3</v>
@@ -23682,7 +23682,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>7217646</v>
+        <v>7217647</v>
       </c>
       <c r="C261" t="s">
         <v>28</v>
@@ -23694,46 +23694,46 @@
         <v>45233.58333333334</v>
       </c>
       <c r="F261" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G261" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H261">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I261">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J261" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K261">
-        <v>1.909</v>
+        <v>4.75</v>
       </c>
       <c r="L261">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M261">
-        <v>3.5</v>
+        <v>1.666</v>
       </c>
       <c r="N261">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O261">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P261">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="Q261">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R261">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S261">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T261">
         <v>2.5</v>
@@ -23745,25 +23745,25 @@
         <v>1.825</v>
       </c>
       <c r="W261">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X261">
         <v>-1</v>
       </c>
       <c r="Y261">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z261">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA261">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB261">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC261">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="262" spans="1:29">
@@ -23771,7 +23771,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>7217647</v>
+        <v>7217646</v>
       </c>
       <c r="C262" t="s">
         <v>28</v>
@@ -23783,46 +23783,46 @@
         <v>45233.58333333334</v>
       </c>
       <c r="F262" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G262" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I262">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J262" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K262">
-        <v>4.75</v>
+        <v>1.909</v>
       </c>
       <c r="L262">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M262">
-        <v>1.666</v>
+        <v>3.5</v>
       </c>
       <c r="N262">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O262">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P262">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q262">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R262">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S262">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T262">
         <v>2.5</v>
@@ -23834,25 +23834,25 @@
         <v>1.825</v>
       </c>
       <c r="W262">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X262">
         <v>-1</v>
       </c>
       <c r="Y262">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z262">
+        <v>-1</v>
+      </c>
+      <c r="AA262">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB262">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA262">
-        <v>-1</v>
-      </c>
-      <c r="AB262">
-        <v>-1</v>
-      </c>
       <c r="AC262">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="263" spans="1:29">
@@ -23961,7 +23961,7 @@
         <v>45234.58333333334</v>
       </c>
       <c r="F264" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G264" t="s">
         <v>32</v>
@@ -25032,7 +25032,7 @@
         <v>37</v>
       </c>
       <c r="G276" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H276">
         <v>1</v>
@@ -25741,7 +25741,7 @@
         <v>45266.58333333334</v>
       </c>
       <c r="F284" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G284" t="s">
         <v>29</v>
@@ -25996,7 +25996,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>7217677</v>
+        <v>7217680</v>
       </c>
       <c r="C287" t="s">
         <v>28</v>
@@ -26008,76 +26008,76 @@
         <v>45274.58333333334</v>
       </c>
       <c r="F287" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G287" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I287">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J287" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K287">
-        <v>1.25</v>
+        <v>2.3</v>
       </c>
       <c r="L287">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M287">
-        <v>9</v>
+        <v>2.875</v>
       </c>
       <c r="N287">
-        <v>1.166</v>
+        <v>2.875</v>
       </c>
       <c r="O287">
-        <v>7</v>
+        <v>3.2</v>
       </c>
       <c r="P287">
-        <v>11</v>
+        <v>2.375</v>
       </c>
       <c r="Q287">
-        <v>-2</v>
+        <v>0.25</v>
       </c>
       <c r="R287">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S287">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T287">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U287">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V287">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W287">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X287">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Y287">
         <v>-1</v>
       </c>
       <c r="Z287">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA287">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB287">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC287">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="288" spans="1:29">
@@ -26085,7 +26085,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>7217680</v>
+        <v>7217677</v>
       </c>
       <c r="C288" t="s">
         <v>28</v>
@@ -26097,76 +26097,76 @@
         <v>45274.58333333334</v>
       </c>
       <c r="F288" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G288" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H288">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I288">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J288" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K288">
-        <v>2.3</v>
+        <v>1.25</v>
       </c>
       <c r="L288">
+        <v>5</v>
+      </c>
+      <c r="M288">
+        <v>9</v>
+      </c>
+      <c r="N288">
+        <v>1.166</v>
+      </c>
+      <c r="O288">
+        <v>7</v>
+      </c>
+      <c r="P288">
+        <v>11</v>
+      </c>
+      <c r="Q288">
+        <v>-2</v>
+      </c>
+      <c r="R288">
+        <v>1.95</v>
+      </c>
+      <c r="S288">
+        <v>1.85</v>
+      </c>
+      <c r="T288">
         <v>3</v>
       </c>
-      <c r="M288">
-        <v>2.875</v>
-      </c>
-      <c r="N288">
-        <v>2.875</v>
-      </c>
-      <c r="O288">
-        <v>3.2</v>
-      </c>
-      <c r="P288">
-        <v>2.375</v>
-      </c>
-      <c r="Q288">
-        <v>0.25</v>
-      </c>
-      <c r="R288">
-        <v>1.75</v>
-      </c>
-      <c r="S288">
-        <v>2.05</v>
-      </c>
-      <c r="T288">
-        <v>2.5</v>
-      </c>
       <c r="U288">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V288">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W288">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X288">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y288">
         <v>-1</v>
       </c>
       <c r="Z288">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA288">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB288">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC288">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="289" spans="1:29">
@@ -26278,7 +26278,7 @@
         <v>45</v>
       </c>
       <c r="G290" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H290">
         <v>1</v>
@@ -26990,7 +26990,7 @@
         <v>43</v>
       </c>
       <c r="G298" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H298">
         <v>3</v>
@@ -27064,7 +27064,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>7217691</v>
+        <v>7217692</v>
       </c>
       <c r="C299" t="s">
         <v>28</v>
@@ -27076,13 +27076,13 @@
         <v>45290.58333333334</v>
       </c>
       <c r="F299" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G299" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H299">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I299">
         <v>0</v>
@@ -27091,43 +27091,43 @@
         <v>51</v>
       </c>
       <c r="K299">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="L299">
+        <v>2.9</v>
+      </c>
+      <c r="M299">
+        <v>2.4</v>
+      </c>
+      <c r="N299">
         <v>2.8</v>
       </c>
-      <c r="M299">
-        <v>3.6</v>
-      </c>
-      <c r="N299">
-        <v>1.85</v>
-      </c>
       <c r="O299">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P299">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="Q299">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R299">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S299">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T299">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U299">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V299">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W299">
-        <v>0.8500000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="X299">
         <v>-1</v>
@@ -27136,16 +27136,16 @@
         <v>-1</v>
       </c>
       <c r="Z299">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA299">
         <v>-1</v>
       </c>
       <c r="AB299">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC299">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="300" spans="1:29">
@@ -27153,7 +27153,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>7217692</v>
+        <v>7217691</v>
       </c>
       <c r="C300" t="s">
         <v>28</v>
@@ -27165,13 +27165,13 @@
         <v>45290.58333333334</v>
       </c>
       <c r="F300" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G300" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H300">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I300">
         <v>0</v>
@@ -27180,43 +27180,43 @@
         <v>51</v>
       </c>
       <c r="K300">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="L300">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="M300">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="N300">
-        <v>2.8</v>
+        <v>1.85</v>
       </c>
       <c r="O300">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P300">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q300">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R300">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S300">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T300">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U300">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V300">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W300">
-        <v>1.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X300">
         <v>-1</v>
@@ -27225,16 +27225,16 @@
         <v>-1</v>
       </c>
       <c r="Z300">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA300">
         <v>-1</v>
       </c>
       <c r="AB300">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC300">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="301" spans="1:29">

--- a/Egypt Division 1/Egypt Division 1.xlsx
+++ b/Egypt Division 1/Egypt Division 1.xlsx
@@ -139,10 +139,10 @@
     <t>Pyramids FC</t>
   </si>
   <si>
-    <t>El Masry</t>
+    <t>Ceramica Cleopatra</t>
   </si>
   <si>
-    <t>Ceramica Cleopatra</t>
+    <t>El Masry</t>
   </si>
   <si>
     <t>National Bank</t>
@@ -151,10 +151,10 @@
     <t>Haras El Hedoud</t>
   </si>
   <si>
-    <t>Talaea El Geish</t>
+    <t>Smouha</t>
   </si>
   <si>
-    <t>Smouha</t>
+    <t>Talaea El Geish</t>
   </si>
   <si>
     <t>ZED FC</t>
@@ -646,7 +646,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1269,7 +1269,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1358,7 +1358,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1699,7 +1699,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5774682</v>
+        <v>5774683</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1714,70 +1714,70 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H14">
         <v>2</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K14">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="L14">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M14">
-        <v>3.4</v>
+        <v>2.45</v>
       </c>
       <c r="N14">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="O14">
         <v>3.1</v>
       </c>
       <c r="P14">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="Q14">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R14">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S14">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T14">
         <v>2.25</v>
       </c>
       <c r="U14">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V14">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W14">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z14">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA14">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB14">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC14">
         <v>-1</v>
@@ -1788,7 +1788,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5774683</v>
+        <v>5774682</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1803,70 +1803,70 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H15">
         <v>2</v>
       </c>
       <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>51</v>
+      </c>
+      <c r="K15">
+        <v>2.15</v>
+      </c>
+      <c r="L15">
         <v>3</v>
       </c>
-      <c r="J15" t="s">
-        <v>50</v>
-      </c>
-      <c r="K15">
-        <v>2.9</v>
-      </c>
-      <c r="L15">
-        <v>2.9</v>
-      </c>
       <c r="M15">
-        <v>2.45</v>
+        <v>3.4</v>
       </c>
       <c r="N15">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="O15">
         <v>3.1</v>
       </c>
       <c r="P15">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R15">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S15">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T15">
         <v>2.25</v>
       </c>
       <c r="U15">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V15">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W15">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z15">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA15">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB15">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC15">
         <v>-1</v>
@@ -2055,7 +2055,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5774057</v>
+        <v>5774684</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2070,10 +2070,10 @@
         <v>45</v>
       </c>
       <c r="G18" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>2</v>
@@ -2082,40 +2082,40 @@
         <v>50</v>
       </c>
       <c r="K18">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L18">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="M18">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="N18">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="O18">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="P18">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R18">
+        <v>1.775</v>
+      </c>
+      <c r="S18">
+        <v>2.025</v>
+      </c>
+      <c r="T18">
         <v>1.75</v>
       </c>
-      <c r="S18">
-        <v>2.05</v>
-      </c>
-      <c r="T18">
-        <v>2</v>
-      </c>
       <c r="U18">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V18">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W18">
         <v>-1</v>
@@ -2124,19 +2124,19 @@
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="Z18">
         <v>-1</v>
       </c>
       <c r="AA18">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AB18">
-        <v>0.925</v>
+        <v>0.3875</v>
       </c>
       <c r="AC18">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2144,7 +2144,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5774684</v>
+        <v>5774057</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2159,10 +2159,10 @@
         <v>46</v>
       </c>
       <c r="G19" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19">
         <v>2</v>
@@ -2171,40 +2171,40 @@
         <v>50</v>
       </c>
       <c r="K19">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L19">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="M19">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="N19">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="O19">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="P19">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="Q19">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R19">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S19">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T19">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U19">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V19">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W19">
         <v>-1</v>
@@ -2213,19 +2213,19 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>3</v>
+        <v>1.9</v>
       </c>
       <c r="Z19">
         <v>-1</v>
       </c>
       <c r="AA19">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AB19">
-        <v>0.3875</v>
+        <v>0.925</v>
       </c>
       <c r="AC19">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2233,7 +2233,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5774058</v>
+        <v>5774059</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2245,73 +2245,73 @@
         <v>44937.40625</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G20" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>51</v>
+      </c>
+      <c r="K20">
+        <v>2.375</v>
+      </c>
+      <c r="L20">
+        <v>2.625</v>
+      </c>
+      <c r="M20">
+        <v>3.2</v>
+      </c>
+      <c r="N20">
+        <v>2.55</v>
+      </c>
+      <c r="O20">
+        <v>2.55</v>
+      </c>
+      <c r="P20">
         <v>3</v>
       </c>
-      <c r="I20">
-        <v>3</v>
-      </c>
-      <c r="J20" t="s">
-        <v>52</v>
-      </c>
-      <c r="K20">
-        <v>4</v>
-      </c>
-      <c r="L20">
-        <v>2.8</v>
-      </c>
-      <c r="M20">
-        <v>2</v>
-      </c>
-      <c r="N20">
-        <v>4.2</v>
-      </c>
-      <c r="O20">
-        <v>2.8</v>
-      </c>
-      <c r="P20">
-        <v>1.909</v>
-      </c>
       <c r="Q20">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R20">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="S20">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T20">
         <v>2</v>
       </c>
       <c r="U20">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V20">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="W20">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X20">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y20">
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="AA20">
         <v>-1</v>
       </c>
       <c r="AB20">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AC20">
         <v>-1</v>
@@ -2322,7 +2322,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5774059</v>
+        <v>5774058</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2334,73 +2334,73 @@
         <v>44937.40625</v>
       </c>
       <c r="F21" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K21">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="L21">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="M21">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="N21">
-        <v>2.55</v>
+        <v>4.2</v>
       </c>
       <c r="O21">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="P21">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R21">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="S21">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T21">
         <v>2</v>
       </c>
       <c r="U21">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V21">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="W21">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X21">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="AA21">
         <v>-1</v>
       </c>
       <c r="AB21">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AC21">
         <v>-1</v>
@@ -2411,7 +2411,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6117225</v>
+        <v>5774686</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2423,76 +2423,76 @@
         <v>44937.58333333334</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
         <v>52</v>
       </c>
       <c r="K22">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="L22">
+        <v>3.2</v>
+      </c>
+      <c r="M22">
+        <v>1.95</v>
+      </c>
+      <c r="N22">
+        <v>3.4</v>
+      </c>
+      <c r="O22">
         <v>3</v>
       </c>
-      <c r="M22">
-        <v>1.909</v>
-      </c>
-      <c r="N22">
-        <v>3.8</v>
-      </c>
-      <c r="O22">
-        <v>2.875</v>
-      </c>
       <c r="P22">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="Q22">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R22">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S22">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T22">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U22">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V22">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="Y22">
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>0.75</v>
+        <v>0.45</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2500,7 +2500,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5774686</v>
+        <v>6117225</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2512,76 +2512,76 @@
         <v>44937.58333333334</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
         <v>52</v>
       </c>
       <c r="K23">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="L23">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M23">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="N23">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="O23">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P23">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="Q23">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R23">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S23">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T23">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U23">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V23">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="Y23">
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0.45</v>
+        <v>0.75</v>
       </c>
       <c r="AA23">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC23">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2693,7 +2693,7 @@
         <v>32</v>
       </c>
       <c r="G25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -2871,7 +2871,7 @@
         <v>37</v>
       </c>
       <c r="G27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -3135,7 +3135,7 @@
         <v>44944.5</v>
       </c>
       <c r="F30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G30" t="s">
         <v>35</v>
@@ -3580,7 +3580,7 @@
         <v>44946.5</v>
       </c>
       <c r="F35" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G35" t="s">
         <v>34</v>
@@ -3669,10 +3669,10 @@
         <v>44946.58333333334</v>
       </c>
       <c r="F36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -3924,7 +3924,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>5774694</v>
+        <v>5774068</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3936,76 +3936,76 @@
         <v>44949.40625</v>
       </c>
       <c r="F39" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G39" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H39">
         <v>0</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K39">
+        <v>2.7</v>
+      </c>
+      <c r="L39">
         <v>2.75</v>
       </c>
-      <c r="L39">
-        <v>2.8</v>
-      </c>
       <c r="M39">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="N39">
+        <v>2.4</v>
+      </c>
+      <c r="O39">
+        <v>2.75</v>
+      </c>
+      <c r="P39">
         <v>3.1</v>
       </c>
-      <c r="O39">
-        <v>2.7</v>
-      </c>
-      <c r="P39">
-        <v>2.5</v>
-      </c>
       <c r="Q39">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R39">
-        <v>1.7</v>
+        <v>2.025</v>
       </c>
       <c r="S39">
-        <v>2.1</v>
+        <v>1.775</v>
       </c>
       <c r="T39">
+        <v>2</v>
+      </c>
+      <c r="U39">
+        <v>1.925</v>
+      </c>
+      <c r="V39">
+        <v>1.875</v>
+      </c>
+      <c r="W39">
+        <v>-1</v>
+      </c>
+      <c r="X39">
         <v>1.75</v>
       </c>
-      <c r="U39">
-        <v>1.825</v>
-      </c>
-      <c r="V39">
-        <v>1.975</v>
-      </c>
-      <c r="W39">
-        <v>-1</v>
-      </c>
-      <c r="X39">
-        <v>-1</v>
-      </c>
       <c r="Y39">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA39">
-        <v>1.1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB39">
         <v>-1</v>
       </c>
       <c r="AC39">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4013,7 +4013,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>5774068</v>
+        <v>5774694</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4025,76 +4025,76 @@
         <v>44949.40625</v>
       </c>
       <c r="F40" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G40" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H40">
         <v>0</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K40">
+        <v>2.75</v>
+      </c>
+      <c r="L40">
+        <v>2.8</v>
+      </c>
+      <c r="M40">
+        <v>2.625</v>
+      </c>
+      <c r="N40">
+        <v>3.1</v>
+      </c>
+      <c r="O40">
         <v>2.7</v>
       </c>
-      <c r="L40">
-        <v>2.75</v>
-      </c>
-      <c r="M40">
-        <v>2.75</v>
-      </c>
-      <c r="N40">
-        <v>2.4</v>
-      </c>
-      <c r="O40">
-        <v>2.75</v>
-      </c>
       <c r="P40">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="Q40">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R40">
-        <v>2.025</v>
+        <v>1.7</v>
       </c>
       <c r="S40">
-        <v>1.775</v>
+        <v>2.1</v>
       </c>
       <c r="T40">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U40">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V40">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W40">
         <v>-1</v>
       </c>
       <c r="X40">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y40">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z40">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA40">
-        <v>0.3875</v>
+        <v>1.1</v>
       </c>
       <c r="AB40">
         <v>-1</v>
       </c>
       <c r="AC40">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4102,7 +4102,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>5774069</v>
+        <v>5774070</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4114,76 +4114,76 @@
         <v>44949.58333333334</v>
       </c>
       <c r="F41" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K41">
-        <v>2.05</v>
+        <v>1.727</v>
       </c>
       <c r="L41">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M41">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="N41">
-        <v>2.05</v>
+        <v>1.65</v>
       </c>
       <c r="O41">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="P41">
-        <v>3.6</v>
+        <v>5.75</v>
       </c>
       <c r="Q41">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R41">
+        <v>1.95</v>
+      </c>
+      <c r="S41">
         <v>1.85</v>
       </c>
-      <c r="S41">
-        <v>1.95</v>
-      </c>
       <c r="T41">
         <v>2</v>
       </c>
       <c r="U41">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V41">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W41">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X41">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y41">
         <v>-1</v>
       </c>
       <c r="Z41">
+        <v>0.475</v>
+      </c>
+      <c r="AA41">
         <v>-0.5</v>
       </c>
-      <c r="AA41">
-        <v>0.475</v>
-      </c>
       <c r="AB41">
         <v>-1</v>
       </c>
       <c r="AC41">
-        <v>1.025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4191,7 +4191,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>5774070</v>
+        <v>5774069</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4203,76 +4203,76 @@
         <v>44949.58333333334</v>
       </c>
       <c r="F42" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G42" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K42">
-        <v>1.727</v>
+        <v>2.05</v>
       </c>
       <c r="L42">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M42">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="N42">
-        <v>1.65</v>
+        <v>2.05</v>
       </c>
       <c r="O42">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P42">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q42">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R42">
+        <v>1.85</v>
+      </c>
+      <c r="S42">
         <v>1.95</v>
       </c>
-      <c r="S42">
-        <v>1.85</v>
-      </c>
       <c r="T42">
         <v>2</v>
       </c>
       <c r="U42">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V42">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W42">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X42">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y42">
         <v>-1</v>
       </c>
       <c r="Z42">
+        <v>-0.5</v>
+      </c>
+      <c r="AA42">
         <v>0.475</v>
       </c>
-      <c r="AA42">
-        <v>-0.5</v>
-      </c>
       <c r="AB42">
         <v>-1</v>
       </c>
       <c r="AC42">
-        <v>1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4295,7 +4295,7 @@
         <v>36</v>
       </c>
       <c r="G43" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -4458,7 +4458,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>5774697</v>
+        <v>5774071</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4470,76 +4470,76 @@
         <v>44950.58333333334</v>
       </c>
       <c r="F45" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G45" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K45">
+        <v>1.4</v>
+      </c>
+      <c r="L45">
+        <v>4.2</v>
+      </c>
+      <c r="M45">
+        <v>6.5</v>
+      </c>
+      <c r="N45">
+        <v>1.4</v>
+      </c>
+      <c r="O45">
+        <v>4.2</v>
+      </c>
+      <c r="P45">
         <v>5.75</v>
       </c>
-      <c r="L45">
-        <v>3.2</v>
-      </c>
-      <c r="M45">
-        <v>1.6</v>
-      </c>
-      <c r="N45">
-        <v>8</v>
-      </c>
-      <c r="O45">
-        <v>3.5</v>
-      </c>
-      <c r="P45">
-        <v>1.4</v>
-      </c>
       <c r="Q45">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="R45">
+        <v>2.025</v>
+      </c>
+      <c r="S45">
+        <v>1.775</v>
+      </c>
+      <c r="T45">
+        <v>2.5</v>
+      </c>
+      <c r="U45">
         <v>1.975</v>
       </c>
-      <c r="S45">
+      <c r="V45">
         <v>1.825</v>
       </c>
-      <c r="T45">
-        <v>2</v>
-      </c>
-      <c r="U45">
-        <v>1.75</v>
-      </c>
-      <c r="V45">
-        <v>2.05</v>
-      </c>
       <c r="W45">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z45">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA45">
-        <v>-0</v>
+        <v>0.3875</v>
       </c>
       <c r="AB45">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4547,7 +4547,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>5774071</v>
+        <v>5774697</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4559,76 +4559,76 @@
         <v>44950.58333333334</v>
       </c>
       <c r="F46" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G46" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K46">
+        <v>5.75</v>
+      </c>
+      <c r="L46">
+        <v>3.2</v>
+      </c>
+      <c r="M46">
+        <v>1.6</v>
+      </c>
+      <c r="N46">
+        <v>8</v>
+      </c>
+      <c r="O46">
+        <v>3.5</v>
+      </c>
+      <c r="P46">
         <v>1.4</v>
       </c>
-      <c r="L46">
-        <v>4.2</v>
-      </c>
-      <c r="M46">
-        <v>6.5</v>
-      </c>
-      <c r="N46">
-        <v>1.4</v>
-      </c>
-      <c r="O46">
-        <v>4.2</v>
-      </c>
-      <c r="P46">
-        <v>5.75</v>
-      </c>
       <c r="Q46">
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="R46">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S46">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T46">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U46">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V46">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W46">
+        <v>-1</v>
+      </c>
+      <c r="X46">
+        <v>-1</v>
+      </c>
+      <c r="Y46">
         <v>0.3999999999999999</v>
       </c>
-      <c r="X46">
-        <v>-1</v>
-      </c>
-      <c r="Y46">
-        <v>-1</v>
-      </c>
       <c r="Z46">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA46">
-        <v>0.3875</v>
+        <v>-0</v>
       </c>
       <c r="AB46">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC46">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4651,7 +4651,7 @@
         <v>30</v>
       </c>
       <c r="G47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H47">
         <v>2</v>
@@ -4915,7 +4915,7 @@
         <v>44954.5</v>
       </c>
       <c r="F50" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G50" t="s">
         <v>37</v>
@@ -5007,7 +5007,7 @@
         <v>38</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -5185,7 +5185,7 @@
         <v>40</v>
       </c>
       <c r="G53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -5526,7 +5526,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>5774078</v>
+        <v>5774703</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5538,76 +5538,76 @@
         <v>44962.58333333334</v>
       </c>
       <c r="F57" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G57" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57">
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K57">
-        <v>1.909</v>
+        <v>1.833</v>
       </c>
       <c r="L57">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M57">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="N57">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="O57">
         <v>3</v>
       </c>
       <c r="P57">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q57">
         <v>-0.25</v>
       </c>
       <c r="R57">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S57">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T57">
         <v>2.25</v>
       </c>
       <c r="U57">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V57">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W57">
         <v>-1</v>
       </c>
       <c r="X57">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y57">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z57">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA57">
-        <v>0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB57">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC57">
-        <v>0.3875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5615,7 +5615,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>5774703</v>
+        <v>5774078</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5627,76 +5627,76 @@
         <v>44962.58333333334</v>
       </c>
       <c r="F58" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G58" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58">
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K58">
-        <v>1.833</v>
+        <v>1.909</v>
       </c>
       <c r="L58">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M58">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="N58">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O58">
         <v>3</v>
       </c>
       <c r="P58">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q58">
         <v>-0.25</v>
       </c>
       <c r="R58">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S58">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T58">
         <v>2.25</v>
       </c>
       <c r="U58">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V58">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W58">
         <v>-1</v>
       </c>
       <c r="X58">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y58">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z58">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA58">
-        <v>1.05</v>
+        <v>0.5</v>
       </c>
       <c r="AB58">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC58">
-        <v>0.9750000000000001</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5805,10 +5805,10 @@
         <v>44964.40625</v>
       </c>
       <c r="F60" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G60" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -5894,7 +5894,7 @@
         <v>44964.5</v>
       </c>
       <c r="F61" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G61" t="s">
         <v>40</v>
@@ -6339,7 +6339,7 @@
         <v>44968.58333333334</v>
       </c>
       <c r="F66" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G66" t="s">
         <v>29</v>
@@ -6428,10 +6428,10 @@
         <v>44969.54166666666</v>
       </c>
       <c r="F67" t="s">
+        <v>41</v>
+      </c>
+      <c r="G67" t="s">
         <v>42</v>
-      </c>
-      <c r="G67" t="s">
-        <v>41</v>
       </c>
       <c r="H67">
         <v>3</v>
@@ -6517,7 +6517,7 @@
         <v>44970.58333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G68" t="s">
         <v>39</v>
@@ -6787,7 +6787,7 @@
         <v>43</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H71">
         <v>2</v>
@@ -6965,7 +6965,7 @@
         <v>38</v>
       </c>
       <c r="G73" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -7407,7 +7407,7 @@
         <v>44979.58333333334</v>
       </c>
       <c r="F78" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G78" t="s">
         <v>40</v>
@@ -7496,7 +7496,7 @@
         <v>44983.5</v>
       </c>
       <c r="F79" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G79" t="s">
         <v>44</v>
@@ -7674,7 +7674,7 @@
         <v>44984.58333333334</v>
       </c>
       <c r="F81" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G81" t="s">
         <v>31</v>
@@ -7751,7 +7751,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6094223</v>
+        <v>6094222</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7766,7 +7766,7 @@
         <v>42</v>
       </c>
       <c r="G82" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H82">
         <v>2</v>
@@ -7778,43 +7778,43 @@
         <v>51</v>
       </c>
       <c r="K82">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="L82">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="M82">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="N82">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="O82">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="P82">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q82">
         <v>-0.25</v>
       </c>
       <c r="R82">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S82">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T82">
         <v>2</v>
       </c>
       <c r="U82">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V82">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W82">
-        <v>1.05</v>
+        <v>1.15</v>
       </c>
       <c r="X82">
         <v>-1</v>
@@ -7823,13 +7823,13 @@
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AA82">
         <v>-1</v>
       </c>
       <c r="AB82">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AC82">
         <v>-1</v>
@@ -7840,7 +7840,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6094222</v>
+        <v>6094223</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7855,7 +7855,7 @@
         <v>41</v>
       </c>
       <c r="G83" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -7867,43 +7867,43 @@
         <v>51</v>
       </c>
       <c r="K83">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="L83">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="M83">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="N83">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="O83">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="P83">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q83">
         <v>-0.25</v>
       </c>
       <c r="R83">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S83">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T83">
         <v>2</v>
       </c>
       <c r="U83">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V83">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W83">
-        <v>1.15</v>
+        <v>1.05</v>
       </c>
       <c r="X83">
         <v>-1</v>
@@ -7912,13 +7912,13 @@
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AA83">
         <v>-1</v>
       </c>
       <c r="AB83">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AC83">
         <v>-1</v>
@@ -8300,7 +8300,7 @@
         <v>44</v>
       </c>
       <c r="G88" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -8475,10 +8475,10 @@
         <v>44991.5</v>
       </c>
       <c r="F90" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G90" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -8745,7 +8745,7 @@
         <v>33</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -9086,7 +9086,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6436239</v>
+        <v>6441342</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9098,37 +9098,37 @@
         <v>45015.67708333334</v>
       </c>
       <c r="F97" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G97" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K97">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="L97">
+        <v>2.8</v>
+      </c>
+      <c r="M97">
+        <v>3.1</v>
+      </c>
+      <c r="N97">
+        <v>2.6</v>
+      </c>
+      <c r="O97">
+        <v>2.7</v>
+      </c>
+      <c r="P97">
         <v>2.875</v>
-      </c>
-      <c r="M97">
-        <v>2.8</v>
-      </c>
-      <c r="N97">
-        <v>2.7</v>
-      </c>
-      <c r="O97">
-        <v>2.625</v>
-      </c>
-      <c r="P97">
-        <v>2.8</v>
       </c>
       <c r="Q97">
         <v>0</v>
@@ -9140,34 +9140,34 @@
         <v>1.95</v>
       </c>
       <c r="T97">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U97">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="V97">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="W97">
+        <v>-1</v>
+      </c>
+      <c r="X97">
         <v>1.7</v>
       </c>
-      <c r="X97">
-        <v>-1</v>
-      </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA97">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB97">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC97">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9175,7 +9175,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6441121</v>
+        <v>6436239</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9187,73 +9187,73 @@
         <v>45015.67708333334</v>
       </c>
       <c r="F98" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G98" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H98">
+        <v>2</v>
+      </c>
+      <c r="I98">
         <v>1</v>
       </c>
-      <c r="I98">
-        <v>3</v>
-      </c>
       <c r="J98" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K98">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="L98">
+        <v>2.875</v>
+      </c>
+      <c r="M98">
+        <v>2.8</v>
+      </c>
+      <c r="N98">
+        <v>2.7</v>
+      </c>
+      <c r="O98">
         <v>2.625</v>
       </c>
-      <c r="M98">
-        <v>3.5</v>
-      </c>
-      <c r="N98">
-        <v>2.25</v>
-      </c>
-      <c r="O98">
-        <v>2.75</v>
-      </c>
       <c r="P98">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="Q98">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R98">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S98">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T98">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U98">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V98">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="W98">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA98">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AC98">
         <v>-1</v>
@@ -9264,7 +9264,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6441342</v>
+        <v>6441121</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9276,76 +9276,76 @@
         <v>45015.67708333334</v>
       </c>
       <c r="F99" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G99" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J99" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K99">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="L99">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="M99">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="N99">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="O99">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="P99">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="Q99">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R99">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S99">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T99">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U99">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V99">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W99">
         <v>-1</v>
       </c>
       <c r="X99">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z99">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB99">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC99">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9353,7 +9353,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6439526</v>
+        <v>6436240</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9365,76 +9365,76 @@
         <v>45016.67708333334</v>
       </c>
       <c r="F100" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G100" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100">
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K100">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="L100">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M100">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="N100">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="O100">
-        <v>3.2</v>
+        <v>2.625</v>
       </c>
       <c r="P100">
-        <v>1.85</v>
+        <v>2.8</v>
       </c>
       <c r="Q100">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R100">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S100">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T100">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U100">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V100">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W100">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X100">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Y100">
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA100">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB100">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC100">
-        <v>0.4125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9442,7 +9442,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6436240</v>
+        <v>6439526</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9454,76 +9454,76 @@
         <v>45016.67708333334</v>
       </c>
       <c r="F101" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G101" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101">
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K101">
+        <v>3.1</v>
+      </c>
+      <c r="L101">
+        <v>3</v>
+      </c>
+      <c r="M101">
         <v>2.3</v>
       </c>
-      <c r="L101">
-        <v>2.8</v>
-      </c>
-      <c r="M101">
+      <c r="N101">
+        <v>4.2</v>
+      </c>
+      <c r="O101">
         <v>3.2</v>
       </c>
-      <c r="N101">
-        <v>2.7</v>
-      </c>
-      <c r="O101">
-        <v>2.625</v>
-      </c>
       <c r="P101">
-        <v>2.8</v>
+        <v>1.85</v>
       </c>
       <c r="Q101">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R101">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S101">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T101">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U101">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V101">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W101">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X101">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA101">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC101">
-        <v>1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9546,7 +9546,7 @@
         <v>35</v>
       </c>
       <c r="G102" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H102">
         <v>1</v>
@@ -9709,7 +9709,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6467349</v>
+        <v>6471793</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9721,61 +9721,61 @@
         <v>45020.67708333334</v>
       </c>
       <c r="F104" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G104" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="s">
         <v>52</v>
       </c>
       <c r="K104">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="L104">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="M104">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="N104">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="O104">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="P104">
-        <v>2.9</v>
+        <v>2.625</v>
       </c>
       <c r="Q104">
         <v>0</v>
       </c>
       <c r="R104">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="S104">
-        <v>2.075</v>
+        <v>1.775</v>
       </c>
       <c r="T104">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U104">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V104">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W104">
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>1.75</v>
+        <v>1.625</v>
       </c>
       <c r="Y104">
         <v>-1</v>
@@ -9787,10 +9787,10 @@
         <v>-0</v>
       </c>
       <c r="AB104">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9798,7 +9798,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6445815</v>
+        <v>6467349</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9810,19 +9810,19 @@
         <v>45020.67708333334</v>
       </c>
       <c r="F105" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G105" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H105">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K105">
         <v>2.7</v>
@@ -9831,25 +9831,25 @@
         <v>2.75</v>
       </c>
       <c r="M105">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="N105">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="O105">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="P105">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="Q105">
         <v>0</v>
       </c>
       <c r="R105">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="S105">
-        <v>2</v>
+        <v>2.075</v>
       </c>
       <c r="T105">
         <v>2</v>
@@ -9861,25 +9861,25 @@
         <v>1.95</v>
       </c>
       <c r="W105">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X105">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y105">
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB105">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC105">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9887,7 +9887,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6471793</v>
+        <v>6445815</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9899,76 +9899,76 @@
         <v>45020.67708333334</v>
       </c>
       <c r="F106" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G106" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J106" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K106">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="L106">
+        <v>2.75</v>
+      </c>
+      <c r="M106">
         <v>2.625</v>
       </c>
-      <c r="M106">
-        <v>3</v>
-      </c>
       <c r="N106">
+        <v>2.6</v>
+      </c>
+      <c r="O106">
+        <v>2.8</v>
+      </c>
+      <c r="P106">
         <v>2.875</v>
       </c>
-      <c r="O106">
-        <v>2.625</v>
-      </c>
-      <c r="P106">
-        <v>2.625</v>
-      </c>
       <c r="Q106">
         <v>0</v>
       </c>
       <c r="R106">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S106">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T106">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U106">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V106">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W106">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X106">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA106">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB106">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC106">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9976,7 +9976,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6471794</v>
+        <v>6451733</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9988,76 +9988,76 @@
         <v>45021.67708333334</v>
       </c>
       <c r="F107" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G107" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107" t="s">
+        <v>52</v>
+      </c>
+      <c r="K107">
+        <v>4.2</v>
+      </c>
+      <c r="L107">
         <v>3</v>
       </c>
-      <c r="I107">
-        <v>0</v>
-      </c>
-      <c r="J107" t="s">
-        <v>51</v>
-      </c>
-      <c r="K107">
-        <v>1.222</v>
-      </c>
-      <c r="L107">
-        <v>5.25</v>
-      </c>
       <c r="M107">
-        <v>10</v>
+        <v>1.85</v>
       </c>
       <c r="N107">
-        <v>1.222</v>
+        <v>3.4</v>
       </c>
       <c r="O107">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="P107">
-        <v>10</v>
+        <v>2.15</v>
       </c>
       <c r="Q107">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R107">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S107">
+        <v>1.925</v>
+      </c>
+      <c r="T107">
+        <v>2</v>
+      </c>
+      <c r="U107">
+        <v>1.875</v>
+      </c>
+      <c r="V107">
+        <v>1.925</v>
+      </c>
+      <c r="W107">
+        <v>-1</v>
+      </c>
+      <c r="X107">
         <v>1.8</v>
       </c>
-      <c r="T107">
-        <v>2.75</v>
-      </c>
-      <c r="U107">
-        <v>1.975</v>
-      </c>
-      <c r="V107">
-        <v>1.825</v>
-      </c>
-      <c r="W107">
-        <v>0.222</v>
-      </c>
-      <c r="X107">
-        <v>-1</v>
-      </c>
       <c r="Y107">
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA107">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB107">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC107">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10065,7 +10065,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6451733</v>
+        <v>6471794</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10077,76 +10077,76 @@
         <v>45021.67708333334</v>
       </c>
       <c r="F108" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G108" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I108">
         <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K108">
-        <v>4.2</v>
+        <v>1.222</v>
       </c>
       <c r="L108">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="M108">
-        <v>1.85</v>
+        <v>10</v>
       </c>
       <c r="N108">
-        <v>3.4</v>
+        <v>1.222</v>
       </c>
       <c r="O108">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="P108">
-        <v>2.15</v>
+        <v>10</v>
       </c>
       <c r="Q108">
-        <v>0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R108">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S108">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T108">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U108">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V108">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W108">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X108">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y108">
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>0.4375</v>
+        <v>1</v>
       </c>
       <c r="AA108">
+        <v>-1</v>
+      </c>
+      <c r="AB108">
+        <v>0.4875</v>
+      </c>
+      <c r="AC108">
         <v>-0.5</v>
-      </c>
-      <c r="AB108">
-        <v>-1</v>
-      </c>
-      <c r="AC108">
-        <v>0.925</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10255,7 +10255,7 @@
         <v>45023.67708333334</v>
       </c>
       <c r="F110" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G110" t="s">
         <v>44</v>
@@ -10347,7 +10347,7 @@
         <v>30</v>
       </c>
       <c r="G111" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -10421,7 +10421,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6484232</v>
+        <v>6488022</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10433,46 +10433,46 @@
         <v>45025.67708333334</v>
       </c>
       <c r="F112" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G112" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I112">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J112" t="s">
         <v>51</v>
       </c>
       <c r="K112">
+        <v>1.95</v>
+      </c>
+      <c r="L112">
         <v>3</v>
       </c>
-      <c r="L112">
-        <v>2.8</v>
-      </c>
       <c r="M112">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="N112">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="O112">
         <v>2.875</v>
       </c>
       <c r="P112">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q112">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R112">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S112">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T112">
         <v>2</v>
@@ -10484,7 +10484,7 @@
         <v>1.9</v>
       </c>
       <c r="W112">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="X112">
         <v>-1</v>
@@ -10493,7 +10493,7 @@
         <v>-1</v>
       </c>
       <c r="Z112">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA112">
         <v>-1</v>
@@ -10510,7 +10510,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6471698</v>
+        <v>6484232</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10522,59 +10522,59 @@
         <v>45025.67708333334</v>
       </c>
       <c r="F113" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G113" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H113">
+        <v>2</v>
+      </c>
+      <c r="I113">
         <v>1</v>
-      </c>
-      <c r="I113">
-        <v>0</v>
       </c>
       <c r="J113" t="s">
         <v>51</v>
       </c>
       <c r="K113">
+        <v>3</v>
+      </c>
+      <c r="L113">
+        <v>2.8</v>
+      </c>
+      <c r="M113">
+        <v>2.375</v>
+      </c>
+      <c r="N113">
+        <v>3.2</v>
+      </c>
+      <c r="O113">
+        <v>2.875</v>
+      </c>
+      <c r="P113">
+        <v>2.25</v>
+      </c>
+      <c r="Q113">
+        <v>0.25</v>
+      </c>
+      <c r="R113">
         <v>1.8</v>
       </c>
-      <c r="L113">
-        <v>3.2</v>
-      </c>
-      <c r="M113">
-        <v>4</v>
-      </c>
-      <c r="N113">
+      <c r="S113">
+        <v>2</v>
+      </c>
+      <c r="T113">
+        <v>2</v>
+      </c>
+      <c r="U113">
+        <v>1.9</v>
+      </c>
+      <c r="V113">
+        <v>1.9</v>
+      </c>
+      <c r="W113">
         <v>2.2</v>
       </c>
-      <c r="O113">
-        <v>3.1</v>
-      </c>
-      <c r="P113">
-        <v>2.9</v>
-      </c>
-      <c r="Q113">
-        <v>-0.25</v>
-      </c>
-      <c r="R113">
-        <v>1.975</v>
-      </c>
-      <c r="S113">
-        <v>1.825</v>
-      </c>
-      <c r="T113">
-        <v>2</v>
-      </c>
-      <c r="U113">
-        <v>1.775</v>
-      </c>
-      <c r="V113">
-        <v>2.025</v>
-      </c>
-      <c r="W113">
-        <v>1.2</v>
-      </c>
       <c r="X113">
         <v>-1</v>
       </c>
@@ -10582,16 +10582,16 @@
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA113">
         <v>-1</v>
       </c>
       <c r="AB113">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC113">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10599,7 +10599,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6488022</v>
+        <v>6471698</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10611,25 +10611,25 @@
         <v>45025.67708333334</v>
       </c>
       <c r="F114" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G114" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H114">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I114">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J114" t="s">
         <v>51</v>
       </c>
       <c r="K114">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="L114">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M114">
         <v>4</v>
@@ -10638,28 +10638,28 @@
         <v>2.2</v>
       </c>
       <c r="O114">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="P114">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="Q114">
         <v>-0.25</v>
       </c>
       <c r="R114">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S114">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T114">
         <v>2</v>
       </c>
       <c r="U114">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V114">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W114">
         <v>1.2</v>
@@ -10671,16 +10671,16 @@
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA114">
         <v>-1</v>
       </c>
       <c r="AB114">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC114">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10777,7 +10777,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6471800</v>
+        <v>6484222</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10789,76 +10789,76 @@
         <v>45028.67708333334</v>
       </c>
       <c r="F116" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G116" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H116">
         <v>0</v>
       </c>
       <c r="I116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K116">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="L116">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M116">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="N116">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="O116">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="P116">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="Q116">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R116">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S116">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T116">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U116">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V116">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W116">
         <v>-1</v>
       </c>
       <c r="X116">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y116">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z116">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA116">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB116">
         <v>-1</v>
       </c>
       <c r="AC116">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10866,7 +10866,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6484222</v>
+        <v>6471800</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10878,76 +10878,76 @@
         <v>45028.67708333334</v>
       </c>
       <c r="F117" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G117" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H117">
         <v>0</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K117">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="L117">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M117">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="N117">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="O117">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="P117">
-        <v>1.95</v>
+        <v>1.6</v>
       </c>
       <c r="Q117">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R117">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S117">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T117">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U117">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V117">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y117">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z117">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA117">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB117">
         <v>-1</v>
       </c>
       <c r="AC117">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10955,7 +10955,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6484223</v>
+        <v>6471699</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10967,73 +10967,73 @@
         <v>45029.67708333334</v>
       </c>
       <c r="F118" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G118" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
         <v>3</v>
       </c>
-      <c r="I118">
+      <c r="J118" t="s">
+        <v>50</v>
+      </c>
+      <c r="K118">
+        <v>4.2</v>
+      </c>
+      <c r="L118">
+        <v>3</v>
+      </c>
+      <c r="M118">
+        <v>1.833</v>
+      </c>
+      <c r="N118">
+        <v>5</v>
+      </c>
+      <c r="O118">
+        <v>3</v>
+      </c>
+      <c r="P118">
+        <v>1.7</v>
+      </c>
+      <c r="Q118">
+        <v>0.75</v>
+      </c>
+      <c r="R118">
+        <v>1.8</v>
+      </c>
+      <c r="S118">
+        <v>2</v>
+      </c>
+      <c r="T118">
+        <v>2</v>
+      </c>
+      <c r="U118">
+        <v>1.825</v>
+      </c>
+      <c r="V118">
+        <v>1.975</v>
+      </c>
+      <c r="W118">
+        <v>-1</v>
+      </c>
+      <c r="X118">
+        <v>-1</v>
+      </c>
+      <c r="Y118">
+        <v>0.7</v>
+      </c>
+      <c r="Z118">
+        <v>-1</v>
+      </c>
+      <c r="AA118">
         <v>1</v>
       </c>
-      <c r="J118" t="s">
-        <v>51</v>
-      </c>
-      <c r="K118">
-        <v>2.875</v>
-      </c>
-      <c r="L118">
-        <v>2.75</v>
-      </c>
-      <c r="M118">
-        <v>2.5</v>
-      </c>
-      <c r="N118">
-        <v>2.375</v>
-      </c>
-      <c r="O118">
-        <v>2.7</v>
-      </c>
-      <c r="P118">
-        <v>3.1</v>
-      </c>
-      <c r="Q118">
-        <v>-0.25</v>
-      </c>
-      <c r="R118">
-        <v>2</v>
-      </c>
-      <c r="S118">
-        <v>1.8</v>
-      </c>
-      <c r="T118">
-        <v>1.75</v>
-      </c>
-      <c r="U118">
-        <v>1.75</v>
-      </c>
-      <c r="V118">
-        <v>2.05</v>
-      </c>
-      <c r="W118">
-        <v>1.375</v>
-      </c>
-      <c r="X118">
-        <v>-1</v>
-      </c>
-      <c r="Y118">
-        <v>-1</v>
-      </c>
-      <c r="Z118">
-        <v>1</v>
-      </c>
-      <c r="AA118">
-        <v>-1</v>
-      </c>
       <c r="AB118">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="AC118">
         <v>-1</v>
@@ -11044,7 +11044,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6488023</v>
+        <v>6484223</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11056,76 +11056,76 @@
         <v>45029.67708333334</v>
       </c>
       <c r="F119" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G119" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K119">
-        <v>2.25</v>
+        <v>2.875</v>
       </c>
       <c r="L119">
         <v>2.75</v>
       </c>
       <c r="M119">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="N119">
-        <v>2.6</v>
+        <v>2.375</v>
       </c>
       <c r="O119">
-        <v>2.875</v>
+        <v>2.7</v>
       </c>
       <c r="P119">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="Q119">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R119">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S119">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T119">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U119">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V119">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W119">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X119">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA119">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB119">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC119">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11133,7 +11133,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6471699</v>
+        <v>6488023</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11145,76 +11145,76 @@
         <v>45029.67708333334</v>
       </c>
       <c r="F120" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G120" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H120">
         <v>0</v>
       </c>
       <c r="I120">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K120">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="L120">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="M120">
-        <v>1.833</v>
+        <v>3.25</v>
       </c>
       <c r="N120">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="O120">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P120">
-        <v>1.7</v>
+        <v>2.55</v>
       </c>
       <c r="Q120">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R120">
+        <v>1.9</v>
+      </c>
+      <c r="S120">
+        <v>1.9</v>
+      </c>
+      <c r="T120">
+        <v>2</v>
+      </c>
+      <c r="U120">
         <v>1.8</v>
       </c>
-      <c r="S120">
-        <v>2</v>
-      </c>
-      <c r="T120">
-        <v>2</v>
-      </c>
-      <c r="U120">
-        <v>1.825</v>
-      </c>
       <c r="V120">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W120">
         <v>-1</v>
       </c>
       <c r="X120">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y120">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z120">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA120">
+        <v>-0</v>
+      </c>
+      <c r="AB120">
+        <v>-1</v>
+      </c>
+      <c r="AC120">
         <v>1</v>
-      </c>
-      <c r="AB120">
-        <v>0.825</v>
-      </c>
-      <c r="AC120">
-        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11237,7 +11237,7 @@
         <v>31</v>
       </c>
       <c r="G121" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H121">
         <v>3</v>
@@ -11504,7 +11504,7 @@
         <v>43</v>
       </c>
       <c r="G124" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H124">
         <v>2</v>
@@ -11578,7 +11578,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6488032</v>
+        <v>6488028</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11590,49 +11590,49 @@
         <v>45033.67708333334</v>
       </c>
       <c r="F125" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G125" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125">
         <v>2</v>
       </c>
       <c r="J125" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K125">
-        <v>6.5</v>
+        <v>1.8</v>
       </c>
       <c r="L125">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M125">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="N125">
-        <v>6.5</v>
+        <v>2.25</v>
       </c>
       <c r="O125">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="P125">
-        <v>1.45</v>
+        <v>3.1</v>
       </c>
       <c r="Q125">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R125">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S125">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T125">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U125">
         <v>1.875</v>
@@ -11644,22 +11644,22 @@
         <v>-1</v>
       </c>
       <c r="X125">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y125">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z125">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA125">
-        <v>0.825</v>
+        <v>0.375</v>
       </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC125">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11667,7 +11667,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6488028</v>
+        <v>6488032</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11679,49 +11679,49 @@
         <v>45033.67708333334</v>
       </c>
       <c r="F126" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G126" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126">
         <v>2</v>
       </c>
       <c r="J126" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K126">
-        <v>1.8</v>
+        <v>6.5</v>
       </c>
       <c r="L126">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M126">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="N126">
-        <v>2.25</v>
+        <v>6.5</v>
       </c>
       <c r="O126">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="P126">
-        <v>3.1</v>
+        <v>1.45</v>
       </c>
       <c r="Q126">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R126">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S126">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T126">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U126">
         <v>1.875</v>
@@ -11733,22 +11733,22 @@
         <v>-1</v>
       </c>
       <c r="X126">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y126">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z126">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA126">
-        <v>0.375</v>
+        <v>0.825</v>
       </c>
       <c r="AB126">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC126">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11756,7 +11756,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6488029</v>
+        <v>6488033</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11768,10 +11768,10 @@
         <v>45034.67708333334</v>
       </c>
       <c r="F127" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G127" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H127">
         <v>2</v>
@@ -11783,43 +11783,43 @@
         <v>51</v>
       </c>
       <c r="K127">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="L127">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M127">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N127">
-        <v>1.444</v>
+        <v>2.25</v>
       </c>
       <c r="O127">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="P127">
-        <v>7</v>
+        <v>3.1</v>
       </c>
       <c r="Q127">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R127">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="S127">
-        <v>2</v>
+        <v>2.075</v>
       </c>
       <c r="T127">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U127">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V127">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W127">
-        <v>0.444</v>
+        <v>1.25</v>
       </c>
       <c r="X127">
         <v>-1</v>
@@ -11828,16 +11828,16 @@
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>0.8</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA127">
         <v>-1</v>
       </c>
       <c r="AB127">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC127">
-        <v>0.4625</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11845,7 +11845,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6488033</v>
+        <v>6488029</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11857,10 +11857,10 @@
         <v>45034.67708333334</v>
       </c>
       <c r="F128" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G128" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H128">
         <v>2</v>
@@ -11872,43 +11872,43 @@
         <v>51</v>
       </c>
       <c r="K128">
+        <v>1.4</v>
+      </c>
+      <c r="L128">
+        <v>4</v>
+      </c>
+      <c r="M128">
+        <v>7</v>
+      </c>
+      <c r="N128">
+        <v>1.444</v>
+      </c>
+      <c r="O128">
+        <v>3.75</v>
+      </c>
+      <c r="P128">
+        <v>7</v>
+      </c>
+      <c r="Q128">
+        <v>-1</v>
+      </c>
+      <c r="R128">
+        <v>1.8</v>
+      </c>
+      <c r="S128">
+        <v>2</v>
+      </c>
+      <c r="T128">
         <v>2.25</v>
       </c>
-      <c r="L128">
-        <v>3</v>
-      </c>
-      <c r="M128">
-        <v>3</v>
-      </c>
-      <c r="N128">
-        <v>2.25</v>
-      </c>
-      <c r="O128">
-        <v>2.875</v>
-      </c>
-      <c r="P128">
-        <v>3.1</v>
-      </c>
-      <c r="Q128">
-        <v>0</v>
-      </c>
-      <c r="R128">
-        <v>1.725</v>
-      </c>
-      <c r="S128">
-        <v>2.075</v>
-      </c>
-      <c r="T128">
-        <v>2</v>
-      </c>
       <c r="U128">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V128">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W128">
-        <v>1.25</v>
+        <v>0.444</v>
       </c>
       <c r="X128">
         <v>-1</v>
@@ -11917,16 +11917,16 @@
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>0.7250000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA128">
         <v>-1</v>
       </c>
       <c r="AB128">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC128">
-        <v>-0</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11934,7 +11934,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6488030</v>
+        <v>6499805</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11946,40 +11946,40 @@
         <v>45035.67708333334</v>
       </c>
       <c r="F129" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G129" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H129">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" t="s">
         <v>51</v>
       </c>
       <c r="K129">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L129">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="M129">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="N129">
-        <v>2.05</v>
+        <v>1.727</v>
       </c>
       <c r="O129">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="P129">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="Q129">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R129">
         <v>1.775</v>
@@ -11991,13 +11991,13 @@
         <v>2</v>
       </c>
       <c r="U129">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V129">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W129">
-        <v>1.05</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X129">
         <v>-1</v>
@@ -12012,10 +12012,10 @@
         <v>-1</v>
       </c>
       <c r="AB129">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC129">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12023,7 +12023,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6499805</v>
+        <v>6495713</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12035,76 +12035,76 @@
         <v>45035.67708333334</v>
       </c>
       <c r="F130" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G130" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130">
         <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K130">
-        <v>2.1</v>
+        <v>3.9</v>
       </c>
       <c r="L130">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="M130">
-        <v>3.3</v>
+        <v>2.05</v>
       </c>
       <c r="N130">
-        <v>1.727</v>
+        <v>4.2</v>
       </c>
       <c r="O130">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="P130">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="Q130">
+        <v>0.25</v>
+      </c>
+      <c r="R130">
+        <v>2.025</v>
+      </c>
+      <c r="S130">
+        <v>1.775</v>
+      </c>
+      <c r="T130">
+        <v>2</v>
+      </c>
+      <c r="U130">
+        <v>1.95</v>
+      </c>
+      <c r="V130">
+        <v>1.85</v>
+      </c>
+      <c r="W130">
+        <v>-1</v>
+      </c>
+      <c r="X130">
+        <v>1.75</v>
+      </c>
+      <c r="Y130">
+        <v>-1</v>
+      </c>
+      <c r="Z130">
+        <v>0.5125</v>
+      </c>
+      <c r="AA130">
         <v>-0.5</v>
       </c>
-      <c r="R130">
-        <v>1.775</v>
-      </c>
-      <c r="S130">
-        <v>2.025</v>
-      </c>
-      <c r="T130">
-        <v>2</v>
-      </c>
-      <c r="U130">
-        <v>1.9</v>
-      </c>
-      <c r="V130">
-        <v>1.9</v>
-      </c>
-      <c r="W130">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="X130">
-        <v>-1</v>
-      </c>
-      <c r="Y130">
-        <v>-1</v>
-      </c>
-      <c r="Z130">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AA130">
-        <v>-1</v>
-      </c>
       <c r="AB130">
         <v>-1</v>
       </c>
       <c r="AC130">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12112,7 +12112,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6495713</v>
+        <v>6488030</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12124,76 +12124,76 @@
         <v>45035.67708333334</v>
       </c>
       <c r="F131" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G131" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K131">
-        <v>3.9</v>
+        <v>2</v>
       </c>
       <c r="L131">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="M131">
+        <v>4</v>
+      </c>
+      <c r="N131">
         <v>2.05</v>
       </c>
-      <c r="N131">
-        <v>4.2</v>
-      </c>
       <c r="O131">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="P131">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="Q131">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R131">
+        <v>1.775</v>
+      </c>
+      <c r="S131">
         <v>2.025</v>
       </c>
-      <c r="S131">
-        <v>1.775</v>
-      </c>
       <c r="T131">
         <v>2</v>
       </c>
       <c r="U131">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V131">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W131">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X131">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0.5125</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA131">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB131">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC131">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12213,7 +12213,7 @@
         <v>45036.67708333334</v>
       </c>
       <c r="F132" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G132" t="s">
         <v>35</v>
@@ -12302,7 +12302,7 @@
         <v>45036.67708333334</v>
       </c>
       <c r="F133" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G133" t="s">
         <v>31</v>
@@ -12394,7 +12394,7 @@
         <v>43</v>
       </c>
       <c r="G134" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -12569,7 +12569,7 @@
         <v>45042.5</v>
       </c>
       <c r="F136" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G136" t="s">
         <v>34</v>
@@ -12661,7 +12661,7 @@
         <v>39</v>
       </c>
       <c r="G137" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H137">
         <v>1</v>
@@ -12750,7 +12750,7 @@
         <v>34</v>
       </c>
       <c r="G138" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H138">
         <v>0</v>
@@ -12928,7 +12928,7 @@
         <v>30</v>
       </c>
       <c r="G140" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H140">
         <v>3</v>
@@ -13106,7 +13106,7 @@
         <v>44</v>
       </c>
       <c r="G142" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H142">
         <v>2</v>
@@ -13459,7 +13459,7 @@
         <v>45060.58333333334</v>
       </c>
       <c r="F146" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G146" t="s">
         <v>34</v>
@@ -13548,7 +13548,7 @@
         <v>45061.54166666666</v>
       </c>
       <c r="F147" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G147" t="s">
         <v>29</v>
@@ -13815,7 +13815,7 @@
         <v>45062.54166666666</v>
       </c>
       <c r="F150" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G150" t="s">
         <v>36</v>
@@ -13904,7 +13904,7 @@
         <v>45062.64583333334</v>
       </c>
       <c r="F151" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G151" t="s">
         <v>37</v>
@@ -14352,7 +14352,7 @@
         <v>31</v>
       </c>
       <c r="G156" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H156">
         <v>1</v>
@@ -14530,7 +14530,7 @@
         <v>33</v>
       </c>
       <c r="G158" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H158">
         <v>0</v>
@@ -14693,7 +14693,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6576771</v>
+        <v>6680849</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14705,13 +14705,13 @@
         <v>45069.64583333334</v>
       </c>
       <c r="F160" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G160" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I160">
         <v>0</v>
@@ -14720,43 +14720,43 @@
         <v>51</v>
       </c>
       <c r="K160">
-        <v>1.333</v>
+        <v>2.45</v>
       </c>
       <c r="L160">
-        <v>4.333</v>
+        <v>2.9</v>
       </c>
       <c r="M160">
-        <v>9</v>
+        <v>2.875</v>
       </c>
       <c r="N160">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="O160">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="P160">
-        <v>9.5</v>
+        <v>3</v>
       </c>
       <c r="Q160">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R160">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S160">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T160">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U160">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V160">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W160">
-        <v>0.3</v>
+        <v>1.4</v>
       </c>
       <c r="X160">
         <v>-1</v>
@@ -14765,7 +14765,7 @@
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>0.7749999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AA160">
         <v>-1</v>
@@ -14774,7 +14774,7 @@
         <v>-1</v>
       </c>
       <c r="AC160">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14782,7 +14782,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6680849</v>
+        <v>6576771</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14794,13 +14794,13 @@
         <v>45069.64583333334</v>
       </c>
       <c r="F161" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G161" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I161">
         <v>0</v>
@@ -14809,43 +14809,43 @@
         <v>51</v>
       </c>
       <c r="K161">
-        <v>2.45</v>
+        <v>1.333</v>
       </c>
       <c r="L161">
-        <v>2.9</v>
+        <v>4.333</v>
       </c>
       <c r="M161">
-        <v>2.875</v>
+        <v>9</v>
       </c>
       <c r="N161">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="O161">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="P161">
-        <v>3</v>
+        <v>9.5</v>
       </c>
       <c r="Q161">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R161">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S161">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T161">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U161">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V161">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W161">
-        <v>1.4</v>
+        <v>0.3</v>
       </c>
       <c r="X161">
         <v>-1</v>
@@ -14854,7 +14854,7 @@
         <v>-1</v>
       </c>
       <c r="Z161">
-        <v>1.05</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA161">
         <v>-1</v>
@@ -14863,7 +14863,7 @@
         <v>-1</v>
       </c>
       <c r="AC161">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14975,7 +14975,7 @@
         <v>36</v>
       </c>
       <c r="G163" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H163">
         <v>1</v>
@@ -15061,7 +15061,7 @@
         <v>45072.58333333334</v>
       </c>
       <c r="F164" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G164" t="s">
         <v>32</v>
@@ -15242,7 +15242,7 @@
         <v>32</v>
       </c>
       <c r="G166" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H166">
         <v>1</v>
@@ -15331,7 +15331,7 @@
         <v>39</v>
       </c>
       <c r="G167" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H167">
         <v>2</v>
@@ -15773,7 +15773,7 @@
         <v>45079.54166666666</v>
       </c>
       <c r="F172" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G172" t="s">
         <v>37</v>
@@ -15951,10 +15951,10 @@
         <v>45080.58333333334</v>
       </c>
       <c r="F174" t="s">
+        <v>46</v>
+      </c>
+      <c r="G174" t="s">
         <v>45</v>
-      </c>
-      <c r="G174" t="s">
-        <v>46</v>
       </c>
       <c r="H174">
         <v>2</v>
@@ -16396,7 +16396,7 @@
         <v>45084.54166666666</v>
       </c>
       <c r="F179" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G179" t="s">
         <v>34</v>
@@ -16485,10 +16485,10 @@
         <v>45084.64583333334</v>
       </c>
       <c r="F180" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G180" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H180">
         <v>2</v>
@@ -16577,7 +16577,7 @@
         <v>35</v>
       </c>
       <c r="G181" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H181">
         <v>0</v>
@@ -17019,7 +17019,7 @@
         <v>45105.54166666666</v>
       </c>
       <c r="F186" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G186" t="s">
         <v>36</v>
@@ -17111,7 +17111,7 @@
         <v>40</v>
       </c>
       <c r="G187" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H187">
         <v>5</v>
@@ -17553,10 +17553,10 @@
         <v>45107.64583333334</v>
       </c>
       <c r="F192" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G192" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H192">
         <v>0</v>
@@ -18090,7 +18090,7 @@
         <v>37</v>
       </c>
       <c r="G198" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H198">
         <v>0</v>
@@ -18164,7 +18164,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6853140</v>
+        <v>6853128</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18176,76 +18176,76 @@
         <v>45117.60416666666</v>
       </c>
       <c r="F199" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G199" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I199">
         <v>0</v>
       </c>
       <c r="J199" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K199">
-        <v>2.05</v>
+        <v>2.875</v>
       </c>
       <c r="L199">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="M199">
-        <v>3.75</v>
+        <v>2.45</v>
       </c>
       <c r="N199">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="O199">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="P199">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="Q199">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R199">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S199">
+        <v>2.025</v>
+      </c>
+      <c r="T199">
+        <v>2.25</v>
+      </c>
+      <c r="U199">
+        <v>1.9</v>
+      </c>
+      <c r="V199">
+        <v>1.9</v>
+      </c>
+      <c r="W199">
+        <v>-1</v>
+      </c>
+      <c r="X199">
         <v>1.75</v>
       </c>
-      <c r="T199">
-        <v>2</v>
-      </c>
-      <c r="U199">
-        <v>2</v>
-      </c>
-      <c r="V199">
-        <v>1.8</v>
-      </c>
-      <c r="W199">
-        <v>1</v>
-      </c>
-      <c r="X199">
-        <v>-1</v>
-      </c>
       <c r="Y199">
         <v>-1</v>
       </c>
       <c r="Z199">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AA199">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB199">
         <v>-1</v>
       </c>
       <c r="AC199">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18253,7 +18253,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>6853128</v>
+        <v>6853140</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18265,76 +18265,76 @@
         <v>45117.60416666666</v>
       </c>
       <c r="F200" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G200" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I200">
         <v>0</v>
       </c>
       <c r="J200" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K200">
-        <v>2.875</v>
+        <v>2.05</v>
       </c>
       <c r="L200">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="M200">
-        <v>2.45</v>
+        <v>3.75</v>
       </c>
       <c r="N200">
-        <v>2.55</v>
+        <v>2</v>
       </c>
       <c r="O200">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="P200">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="Q200">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R200">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S200">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T200">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U200">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V200">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W200">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X200">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y200">
         <v>-1</v>
       </c>
       <c r="Z200">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA200">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB200">
         <v>-1</v>
       </c>
       <c r="AC200">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18342,7 +18342,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6853129</v>
+        <v>6853139</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18354,76 +18354,76 @@
         <v>45117.60416666666</v>
       </c>
       <c r="F201" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G201" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201">
         <v>1</v>
       </c>
       <c r="J201" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K201">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="L201">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="M201">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="N201">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="O201">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="P201">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="Q201">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R201">
+        <v>1.975</v>
+      </c>
+      <c r="S201">
+        <v>1.825</v>
+      </c>
+      <c r="T201">
+        <v>2</v>
+      </c>
+      <c r="U201">
         <v>1.775</v>
       </c>
-      <c r="S201">
+      <c r="V201">
         <v>2.025</v>
       </c>
-      <c r="T201">
-        <v>2.25</v>
-      </c>
-      <c r="U201">
-        <v>2.025</v>
-      </c>
-      <c r="V201">
-        <v>1.775</v>
-      </c>
       <c r="W201">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X201">
         <v>-1</v>
       </c>
       <c r="Y201">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z201">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA201">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB201">
+        <v>-1</v>
+      </c>
+      <c r="AC201">
         <v>1.025</v>
-      </c>
-      <c r="AC201">
-        <v>-1</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18431,7 +18431,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6853139</v>
+        <v>6853129</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18443,76 +18443,76 @@
         <v>45117.60416666666</v>
       </c>
       <c r="F202" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G202" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202">
         <v>1</v>
       </c>
       <c r="J202" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K202">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="L202">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="M202">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="N202">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="O202">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="P202">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="Q202">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R202">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S202">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T202">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U202">
+        <v>2.025</v>
+      </c>
+      <c r="V202">
         <v>1.775</v>
       </c>
-      <c r="V202">
-        <v>2.025</v>
-      </c>
       <c r="W202">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X202">
         <v>-1</v>
       </c>
       <c r="Y202">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z202">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA202">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB202">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC202">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18532,7 +18532,7 @@
         <v>45118.60416666666</v>
       </c>
       <c r="F203" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G203" t="s">
         <v>38</v>
@@ -18876,7 +18876,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6853133</v>
+        <v>6853143</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18888,49 +18888,49 @@
         <v>45121.60416666666</v>
       </c>
       <c r="F207" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G207" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H207">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I207">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J207" t="s">
         <v>51</v>
       </c>
       <c r="K207">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="L207">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="M207">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="N207">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="O207">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="P207">
-        <v>5.5</v>
+        <v>2.9</v>
       </c>
       <c r="Q207">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R207">
-        <v>1.975</v>
+        <v>1.725</v>
       </c>
       <c r="S207">
-        <v>1.825</v>
+        <v>2.075</v>
       </c>
       <c r="T207">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U207">
         <v>1.9</v>
@@ -18939,7 +18939,7 @@
         <v>1.9</v>
       </c>
       <c r="W207">
-        <v>0.6000000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="X207">
         <v>-1</v>
@@ -18948,16 +18948,16 @@
         <v>-1</v>
       </c>
       <c r="Z207">
-        <v>0.9750000000000001</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA207">
         <v>-1</v>
       </c>
       <c r="AB207">
+        <v>-1</v>
+      </c>
+      <c r="AC207">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC207">
-        <v>-1</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -18965,7 +18965,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6853143</v>
+        <v>6853141</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18977,46 +18977,46 @@
         <v>45121.60416666666</v>
       </c>
       <c r="F208" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G208" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H208">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I208">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J208" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K208">
+        <v>2</v>
+      </c>
+      <c r="L208">
         <v>2.75</v>
       </c>
-      <c r="L208">
-        <v>2.9</v>
-      </c>
       <c r="M208">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="N208">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="O208">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="P208">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="Q208">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R208">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="S208">
-        <v>2.075</v>
+        <v>1.8</v>
       </c>
       <c r="T208">
         <v>2.25</v>
@@ -19028,25 +19028,25 @@
         <v>1.9</v>
       </c>
       <c r="W208">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X208">
         <v>-1</v>
       </c>
       <c r="Y208">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z208">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA208">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB208">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC208">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19054,7 +19054,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6853141</v>
+        <v>6853133</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19066,49 +19066,49 @@
         <v>45121.60416666666</v>
       </c>
       <c r="F209" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G209" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I209">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J209" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K209">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L209">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="M209">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N209">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="O209">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="P209">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="Q209">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R209">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S209">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T209">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U209">
         <v>1.9</v>
@@ -19117,19 +19117,19 @@
         <v>1.9</v>
       </c>
       <c r="W209">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X209">
         <v>-1</v>
       </c>
       <c r="Y209">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z209">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA209">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB209">
         <v>0.8999999999999999</v>
@@ -19143,7 +19143,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6853142</v>
+        <v>6853144</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19155,76 +19155,76 @@
         <v>45122.54166666666</v>
       </c>
       <c r="F210" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G210" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H210">
+        <v>0</v>
+      </c>
+      <c r="I210">
         <v>1</v>
       </c>
-      <c r="I210">
-        <v>0</v>
-      </c>
       <c r="J210" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K210">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="L210">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="M210">
+        <v>3.6</v>
+      </c>
+      <c r="N210">
+        <v>1.85</v>
+      </c>
+      <c r="O210">
+        <v>3.1</v>
+      </c>
+      <c r="P210">
+        <v>4.2</v>
+      </c>
+      <c r="Q210">
+        <v>-0.5</v>
+      </c>
+      <c r="R210">
+        <v>1.95</v>
+      </c>
+      <c r="S210">
+        <v>1.85</v>
+      </c>
+      <c r="T210">
         <v>2.5</v>
       </c>
-      <c r="N210">
-        <v>3.75</v>
-      </c>
-      <c r="O210">
-        <v>2.625</v>
-      </c>
-      <c r="P210">
-        <v>2.2</v>
-      </c>
-      <c r="Q210">
-        <v>0.25</v>
-      </c>
-      <c r="R210">
-        <v>1.85</v>
-      </c>
-      <c r="S210">
-        <v>1.95</v>
-      </c>
-      <c r="T210">
-        <v>1.75</v>
-      </c>
       <c r="U210">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V210">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W210">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X210">
         <v>-1</v>
       </c>
       <c r="Y210">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z210">
+        <v>-1</v>
+      </c>
+      <c r="AA210">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA210">
-        <v>-1</v>
-      </c>
       <c r="AB210">
         <v>-1</v>
       </c>
       <c r="AC210">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19232,7 +19232,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>6853144</v>
+        <v>6853142</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19244,76 +19244,76 @@
         <v>45122.54166666666</v>
       </c>
       <c r="F211" t="s">
+        <v>38</v>
+      </c>
+      <c r="G211" t="s">
         <v>41</v>
       </c>
-      <c r="G211" t="s">
-        <v>46</v>
-      </c>
       <c r="H211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J211" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K211">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="L211">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="M211">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="N211">
+        <v>3.75</v>
+      </c>
+      <c r="O211">
+        <v>2.625</v>
+      </c>
+      <c r="P211">
+        <v>2.2</v>
+      </c>
+      <c r="Q211">
+        <v>0.25</v>
+      </c>
+      <c r="R211">
         <v>1.85</v>
       </c>
-      <c r="O211">
-        <v>3.1</v>
-      </c>
-      <c r="P211">
-        <v>4.2</v>
-      </c>
-      <c r="Q211">
-        <v>-0.5</v>
-      </c>
-      <c r="R211">
+      <c r="S211">
         <v>1.95</v>
       </c>
-      <c r="S211">
+      <c r="T211">
+        <v>1.75</v>
+      </c>
+      <c r="U211">
         <v>1.85</v>
       </c>
-      <c r="T211">
-        <v>2.5</v>
-      </c>
-      <c r="U211">
-        <v>1.975</v>
-      </c>
       <c r="V211">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W211">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X211">
         <v>-1</v>
       </c>
       <c r="Y211">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z211">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA211">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB211">
         <v>-1</v>
       </c>
       <c r="AC211">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19778,7 +19778,7 @@
         <v>45133.60416666666</v>
       </c>
       <c r="F217" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G217" t="s">
         <v>32</v>
@@ -19867,7 +19867,7 @@
         <v>45187.54166666666</v>
       </c>
       <c r="F218" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G218" t="s">
         <v>43</v>
@@ -20045,7 +20045,7 @@
         <v>45188.54166666666</v>
       </c>
       <c r="F220" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G220" t="s">
         <v>32</v>
@@ -20211,7 +20211,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>7208758</v>
+        <v>7210310</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20223,76 +20223,76 @@
         <v>45189.54166666666</v>
       </c>
       <c r="F222" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G222" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I222">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J222" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K222">
         <v>2.5</v>
       </c>
       <c r="L222">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="M222">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="N222">
+        <v>2.25</v>
+      </c>
+      <c r="O222">
+        <v>2.7</v>
+      </c>
+      <c r="P222">
+        <v>3.5</v>
+      </c>
+      <c r="Q222">
+        <v>-0.25</v>
+      </c>
+      <c r="R222">
+        <v>1.925</v>
+      </c>
+      <c r="S222">
+        <v>1.875</v>
+      </c>
+      <c r="T222">
+        <v>1.75</v>
+      </c>
+      <c r="U222">
+        <v>1.925</v>
+      </c>
+      <c r="V222">
+        <v>1.875</v>
+      </c>
+      <c r="W222">
+        <v>-1</v>
+      </c>
+      <c r="X222">
+        <v>-1</v>
+      </c>
+      <c r="Y222">
         <v>2.5</v>
       </c>
-      <c r="O222">
-        <v>2.625</v>
-      </c>
-      <c r="P222">
-        <v>3</v>
-      </c>
-      <c r="Q222">
-        <v>0</v>
-      </c>
-      <c r="R222">
-        <v>1.725</v>
-      </c>
-      <c r="S222">
-        <v>2.075</v>
-      </c>
-      <c r="T222">
-        <v>2</v>
-      </c>
-      <c r="U222">
-        <v>1.775</v>
-      </c>
-      <c r="V222">
-        <v>2.025</v>
-      </c>
-      <c r="W222">
-        <v>-1</v>
-      </c>
-      <c r="X222">
-        <v>1.625</v>
-      </c>
-      <c r="Y222">
-        <v>-1</v>
-      </c>
       <c r="Z222">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA222">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB222">
-        <v>0</v>
+        <v>0.4625</v>
       </c>
       <c r="AC222">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20300,7 +20300,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>7210310</v>
+        <v>7208758</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20312,76 +20312,76 @@
         <v>45189.54166666666</v>
       </c>
       <c r="F223" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G223" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I223">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J223" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K223">
         <v>2.5</v>
       </c>
       <c r="L223">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="M223">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="N223">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="O223">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="P223">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Q223">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R223">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="S223">
-        <v>1.875</v>
+        <v>2.075</v>
       </c>
       <c r="T223">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U223">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V223">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W223">
         <v>-1</v>
       </c>
       <c r="X223">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Y223">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z223">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA223">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB223">
-        <v>0.4625</v>
+        <v>0</v>
       </c>
       <c r="AC223">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20478,7 +20478,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>7208756</v>
+        <v>7208367</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20490,76 +20490,76 @@
         <v>45190.54166666666</v>
       </c>
       <c r="F225" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G225" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H225">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I225">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J225" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K225">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="L225">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M225">
-        <v>2.55</v>
+        <v>3.8</v>
       </c>
       <c r="N225">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="O225">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P225">
-        <v>2.55</v>
+        <v>3.5</v>
       </c>
       <c r="Q225">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R225">
+        <v>2.025</v>
+      </c>
+      <c r="S225">
+        <v>1.775</v>
+      </c>
+      <c r="T225">
+        <v>2.5</v>
+      </c>
+      <c r="U225">
         <v>1.975</v>
       </c>
-      <c r="S225">
+      <c r="V225">
         <v>1.825</v>
       </c>
-      <c r="T225">
-        <v>2.25</v>
-      </c>
-      <c r="U225">
-        <v>2</v>
-      </c>
-      <c r="V225">
-        <v>1.8</v>
-      </c>
       <c r="W225">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X225">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y225">
         <v>-1</v>
       </c>
       <c r="Z225">
+        <v>-1</v>
+      </c>
+      <c r="AA225">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB225">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA225">
-        <v>-1</v>
-      </c>
-      <c r="AB225">
-        <v>-1</v>
-      </c>
       <c r="AC225">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="226" spans="1:29">
@@ -20567,7 +20567,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>7208367</v>
+        <v>7208756</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20579,76 +20579,76 @@
         <v>45190.54166666666</v>
       </c>
       <c r="F226" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G226" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I226">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J226" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K226">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="L226">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M226">
-        <v>3.8</v>
+        <v>2.55</v>
       </c>
       <c r="N226">
-        <v>2.05</v>
+        <v>2.8</v>
       </c>
       <c r="O226">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P226">
-        <v>3.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q226">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R226">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S226">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T226">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U226">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V226">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W226">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X226">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y226">
         <v>-1</v>
       </c>
       <c r="Z226">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA226">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB226">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC226">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -20849,7 +20849,7 @@
         <v>48</v>
       </c>
       <c r="G229" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H229">
         <v>0</v>
@@ -21027,7 +21027,7 @@
         <v>38</v>
       </c>
       <c r="G231" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H231">
         <v>0</v>
@@ -21202,7 +21202,7 @@
         <v>45197.41666666666</v>
       </c>
       <c r="F233" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G233" t="s">
         <v>37</v>
@@ -21469,7 +21469,7 @@
         <v>45204.54166666666</v>
       </c>
       <c r="F236" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G236" t="s">
         <v>33</v>
@@ -21650,7 +21650,7 @@
         <v>37</v>
       </c>
       <c r="G238" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H238">
         <v>2</v>
@@ -21736,7 +21736,7 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F239" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G239" t="s">
         <v>29</v>
@@ -21813,7 +21813,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>7217623</v>
+        <v>7217622</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21825,13 +21825,13 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F240" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G240" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I240">
         <v>2</v>
@@ -21840,40 +21840,40 @@
         <v>50</v>
       </c>
       <c r="K240">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L240">
         <v>3</v>
       </c>
       <c r="M240">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="N240">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="O240">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P240">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="Q240">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R240">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S240">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T240">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U240">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V240">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W240">
         <v>-1</v>
@@ -21882,19 +21882,19 @@
         <v>-1</v>
       </c>
       <c r="Y240">
-        <v>1.15</v>
+        <v>1.4</v>
       </c>
       <c r="Z240">
         <v>-1</v>
       </c>
       <c r="AA240">
-        <v>0.825</v>
+        <v>0.75</v>
       </c>
       <c r="AB240">
-        <v>0.8999999999999999</v>
+        <v>0.3875</v>
       </c>
       <c r="AC240">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="241" spans="1:29">
@@ -21902,7 +21902,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>7217622</v>
+        <v>7217623</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21914,13 +21914,13 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F241" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G241" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I241">
         <v>2</v>
@@ -21929,40 +21929,40 @@
         <v>50</v>
       </c>
       <c r="K241">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L241">
         <v>3</v>
       </c>
       <c r="M241">
+        <v>1.909</v>
+      </c>
+      <c r="N241">
+        <v>3.4</v>
+      </c>
+      <c r="O241">
+        <v>3</v>
+      </c>
+      <c r="P241">
+        <v>2.15</v>
+      </c>
+      <c r="Q241">
+        <v>0.25</v>
+      </c>
+      <c r="R241">
+        <v>1.975</v>
+      </c>
+      <c r="S241">
+        <v>1.825</v>
+      </c>
+      <c r="T241">
         <v>2.25</v>
       </c>
-      <c r="N241">
-        <v>2.875</v>
-      </c>
-      <c r="O241">
-        <v>3.1</v>
-      </c>
-      <c r="P241">
-        <v>2.4</v>
-      </c>
-      <c r="Q241">
-        <v>0</v>
-      </c>
-      <c r="R241">
-        <v>2.05</v>
-      </c>
-      <c r="S241">
-        <v>1.75</v>
-      </c>
-      <c r="T241">
-        <v>1.75</v>
-      </c>
       <c r="U241">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V241">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W241">
         <v>-1</v>
@@ -21971,19 +21971,19 @@
         <v>-1</v>
       </c>
       <c r="Y241">
-        <v>1.4</v>
+        <v>1.15</v>
       </c>
       <c r="Z241">
         <v>-1</v>
       </c>
       <c r="AA241">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="AB241">
-        <v>0.3875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC241">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="242" spans="1:29">
@@ -22181,10 +22181,10 @@
         <v>45219.41666666666</v>
       </c>
       <c r="F244" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G244" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H244">
         <v>1</v>
@@ -22270,7 +22270,7 @@
         <v>45219.58333333334</v>
       </c>
       <c r="F245" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G245" t="s">
         <v>29</v>
@@ -22436,7 +22436,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>7217630</v>
+        <v>7217629</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22448,13 +22448,13 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F247" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G247" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H247">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I247">
         <v>1</v>
@@ -22463,43 +22463,43 @@
         <v>51</v>
       </c>
       <c r="K247">
-        <v>1.65</v>
+        <v>2.4</v>
       </c>
       <c r="L247">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="M247">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="N247">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="O247">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="P247">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="Q247">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R247">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S247">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T247">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U247">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V247">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W247">
-        <v>0.909</v>
+        <v>1.5</v>
       </c>
       <c r="X247">
         <v>-1</v>
@@ -22508,13 +22508,13 @@
         <v>-1</v>
       </c>
       <c r="Z247">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA247">
         <v>-1</v>
       </c>
       <c r="AB247">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC247">
         <v>-1</v>
@@ -22525,7 +22525,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>7217629</v>
+        <v>7217630</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22537,13 +22537,13 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F248" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G248" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H248">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I248">
         <v>1</v>
@@ -22552,43 +22552,43 @@
         <v>51</v>
       </c>
       <c r="K248">
-        <v>2.4</v>
+        <v>1.65</v>
       </c>
       <c r="L248">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="M248">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="N248">
+        <v>1.909</v>
+      </c>
+      <c r="O248">
+        <v>3.25</v>
+      </c>
+      <c r="P248">
+        <v>3.6</v>
+      </c>
+      <c r="Q248">
+        <v>-0.5</v>
+      </c>
+      <c r="R248">
+        <v>1.925</v>
+      </c>
+      <c r="S248">
+        <v>1.875</v>
+      </c>
+      <c r="T248">
         <v>2.5</v>
       </c>
-      <c r="O248">
-        <v>2.8</v>
-      </c>
-      <c r="P248">
-        <v>2.9</v>
-      </c>
-      <c r="Q248">
-        <v>0</v>
-      </c>
-      <c r="R248">
-        <v>1.8</v>
-      </c>
-      <c r="S248">
-        <v>2</v>
-      </c>
-      <c r="T248">
-        <v>2</v>
-      </c>
       <c r="U248">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V248">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W248">
-        <v>1.5</v>
+        <v>0.909</v>
       </c>
       <c r="X248">
         <v>-1</v>
@@ -22597,13 +22597,13 @@
         <v>-1</v>
       </c>
       <c r="Z248">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA248">
         <v>-1</v>
       </c>
       <c r="AB248">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC248">
         <v>-1</v>
@@ -22893,7 +22893,7 @@
         <v>45226.45833333334</v>
       </c>
       <c r="F252" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G252" t="s">
         <v>40</v>
@@ -23163,7 +23163,7 @@
         <v>47</v>
       </c>
       <c r="G255" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H255">
         <v>1</v>
@@ -23338,10 +23338,10 @@
         <v>45228.58333333334</v>
       </c>
       <c r="F257" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G257" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H257">
         <v>1</v>
@@ -23605,7 +23605,7 @@
         <v>45233.45833333334</v>
       </c>
       <c r="F260" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G260" t="s">
         <v>31</v>
@@ -23682,7 +23682,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>7217647</v>
+        <v>7217646</v>
       </c>
       <c r="C261" t="s">
         <v>28</v>
@@ -23694,46 +23694,46 @@
         <v>45233.58333333334</v>
       </c>
       <c r="F261" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G261" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I261">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J261" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K261">
-        <v>4.75</v>
+        <v>1.909</v>
       </c>
       <c r="L261">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M261">
-        <v>1.666</v>
+        <v>3.5</v>
       </c>
       <c r="N261">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O261">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P261">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q261">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R261">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S261">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T261">
         <v>2.5</v>
@@ -23745,25 +23745,25 @@
         <v>1.825</v>
       </c>
       <c r="W261">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X261">
         <v>-1</v>
       </c>
       <c r="Y261">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z261">
+        <v>-1</v>
+      </c>
+      <c r="AA261">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB261">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA261">
-        <v>-1</v>
-      </c>
-      <c r="AB261">
-        <v>-1</v>
-      </c>
       <c r="AC261">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="262" spans="1:29">
@@ -23771,7 +23771,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>7217646</v>
+        <v>7217647</v>
       </c>
       <c r="C262" t="s">
         <v>28</v>
@@ -23783,46 +23783,46 @@
         <v>45233.58333333334</v>
       </c>
       <c r="F262" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G262" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H262">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I262">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J262" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K262">
-        <v>1.909</v>
+        <v>4.75</v>
       </c>
       <c r="L262">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M262">
-        <v>3.5</v>
+        <v>1.666</v>
       </c>
       <c r="N262">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O262">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P262">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="Q262">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R262">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S262">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T262">
         <v>2.5</v>
@@ -23834,25 +23834,25 @@
         <v>1.825</v>
       </c>
       <c r="W262">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X262">
         <v>-1</v>
       </c>
       <c r="Y262">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z262">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA262">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB262">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC262">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="263" spans="1:29">
@@ -23949,7 +23949,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>7217649</v>
+        <v>7217650</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -23961,73 +23961,73 @@
         <v>45234.58333333334</v>
       </c>
       <c r="F264" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="G264" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H264">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I264">
         <v>2</v>
       </c>
       <c r="J264" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K264">
-        <v>7.5</v>
+        <v>2.55</v>
       </c>
       <c r="L264">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M264">
-        <v>1.363</v>
+        <v>2.6</v>
       </c>
       <c r="N264">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="O264">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="P264">
-        <v>1.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q264">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R264">
+        <v>1.925</v>
+      </c>
+      <c r="S264">
         <v>1.875</v>
       </c>
-      <c r="S264">
+      <c r="T264">
+        <v>2</v>
+      </c>
+      <c r="U264">
         <v>1.925</v>
       </c>
-      <c r="T264">
-        <v>2.25</v>
-      </c>
-      <c r="U264">
+      <c r="V264">
         <v>1.875</v>
       </c>
-      <c r="V264">
-        <v>1.925</v>
-      </c>
       <c r="W264">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X264">
         <v>-1</v>
       </c>
       <c r="Y264">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z264">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA264">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB264">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC264">
         <v>-1</v>
@@ -24038,7 +24038,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>7217650</v>
+        <v>7217649</v>
       </c>
       <c r="C265" t="s">
         <v>28</v>
@@ -24050,73 +24050,73 @@
         <v>45234.58333333334</v>
       </c>
       <c r="F265" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="G265" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H265">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I265">
         <v>2</v>
       </c>
       <c r="J265" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K265">
-        <v>2.55</v>
+        <v>7.5</v>
       </c>
       <c r="L265">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M265">
-        <v>2.6</v>
+        <v>1.363</v>
       </c>
       <c r="N265">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="O265">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="P265">
-        <v>2.625</v>
+        <v>1.5</v>
       </c>
       <c r="Q265">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R265">
+        <v>1.875</v>
+      </c>
+      <c r="S265">
         <v>1.925</v>
       </c>
-      <c r="S265">
+      <c r="T265">
+        <v>2.25</v>
+      </c>
+      <c r="U265">
         <v>1.875</v>
       </c>
-      <c r="T265">
-        <v>2</v>
-      </c>
-      <c r="U265">
+      <c r="V265">
         <v>1.925</v>
       </c>
-      <c r="V265">
-        <v>1.875</v>
-      </c>
       <c r="W265">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X265">
         <v>-1</v>
       </c>
       <c r="Y265">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z265">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA265">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB265">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC265">
         <v>-1</v>
@@ -24142,7 +24142,7 @@
         <v>35</v>
       </c>
       <c r="G266" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H266">
         <v>2</v>
@@ -24317,7 +24317,7 @@
         <v>45235.58333333334</v>
       </c>
       <c r="F268" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G268" t="s">
         <v>43</v>
@@ -24406,7 +24406,7 @@
         <v>45238.45833333334</v>
       </c>
       <c r="F269" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G269" t="s">
         <v>32</v>
@@ -24676,7 +24676,7 @@
         <v>32</v>
       </c>
       <c r="G272" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H272">
         <v>0</v>
@@ -24928,7 +24928,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>7217658</v>
+        <v>7217659</v>
       </c>
       <c r="C275" t="s">
         <v>28</v>
@@ -24940,10 +24940,10 @@
         <v>45260.58333333334</v>
       </c>
       <c r="F275" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G275" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H275">
         <v>1</v>
@@ -24955,55 +24955,55 @@
         <v>52</v>
       </c>
       <c r="K275">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L275">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="M275">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="N275">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="O275">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="P275">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q275">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R275">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S275">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T275">
         <v>2</v>
       </c>
       <c r="U275">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V275">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W275">
         <v>-1</v>
       </c>
       <c r="X275">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="Y275">
         <v>-1</v>
       </c>
       <c r="Z275">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA275">
-        <v>0.475</v>
+        <v>-0</v>
       </c>
       <c r="AB275">
         <v>0</v>
@@ -25017,7 +25017,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>7217659</v>
+        <v>7217658</v>
       </c>
       <c r="C276" t="s">
         <v>28</v>
@@ -25029,10 +25029,10 @@
         <v>45260.58333333334</v>
       </c>
       <c r="F276" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G276" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="H276">
         <v>1</v>
@@ -25044,55 +25044,55 @@
         <v>52</v>
       </c>
       <c r="K276">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L276">
+        <v>2.875</v>
+      </c>
+      <c r="M276">
+        <v>3.5</v>
+      </c>
+      <c r="N276">
+        <v>2.15</v>
+      </c>
+      <c r="O276">
         <v>2.8</v>
       </c>
-      <c r="M276">
-        <v>2.8</v>
-      </c>
-      <c r="N276">
-        <v>2.6</v>
-      </c>
-      <c r="O276">
-        <v>2.7</v>
-      </c>
       <c r="P276">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q276">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R276">
+        <v>1.85</v>
+      </c>
+      <c r="S276">
+        <v>1.95</v>
+      </c>
+      <c r="T276">
+        <v>2</v>
+      </c>
+      <c r="U276">
         <v>1.825</v>
       </c>
-      <c r="S276">
+      <c r="V276">
         <v>1.975</v>
       </c>
-      <c r="T276">
-        <v>2</v>
-      </c>
-      <c r="U276">
-        <v>2</v>
-      </c>
-      <c r="V276">
+      <c r="W276">
+        <v>-1</v>
+      </c>
+      <c r="X276">
         <v>1.8</v>
       </c>
-      <c r="W276">
-        <v>-1</v>
-      </c>
-      <c r="X276">
-        <v>1.7</v>
-      </c>
       <c r="Y276">
         <v>-1</v>
       </c>
       <c r="Z276">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA276">
-        <v>-0</v>
+        <v>0.475</v>
       </c>
       <c r="AB276">
         <v>0</v>
@@ -25106,7 +25106,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>7217661</v>
+        <v>7217660</v>
       </c>
       <c r="C277" t="s">
         <v>28</v>
@@ -25118,34 +25118,34 @@
         <v>45261.45833333334</v>
       </c>
       <c r="F277" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G277" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J277" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K277">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="L277">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M277">
         <v>2.5</v>
       </c>
       <c r="N277">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="O277">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P277">
         <v>2.6</v>
@@ -25154,10 +25154,10 @@
         <v>0</v>
       </c>
       <c r="R277">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S277">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T277">
         <v>2.25</v>
@@ -25169,25 +25169,25 @@
         <v>1.775</v>
       </c>
       <c r="W277">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X277">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y277">
         <v>-1</v>
       </c>
       <c r="Z277">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA277">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB277">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC277">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="278" spans="1:29">
@@ -25195,7 +25195,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>7217660</v>
+        <v>7217661</v>
       </c>
       <c r="C278" t="s">
         <v>28</v>
@@ -25207,34 +25207,34 @@
         <v>45261.45833333334</v>
       </c>
       <c r="F278" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G278" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J278" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K278">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="L278">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M278">
         <v>2.5</v>
       </c>
       <c r="N278">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="O278">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="P278">
         <v>2.6</v>
@@ -25243,10 +25243,10 @@
         <v>0</v>
       </c>
       <c r="R278">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S278">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T278">
         <v>2.25</v>
@@ -25258,25 +25258,25 @@
         <v>1.775</v>
       </c>
       <c r="W278">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X278">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y278">
         <v>-1</v>
       </c>
       <c r="Z278">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA278">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB278">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC278">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="279" spans="1:29">
@@ -25299,7 +25299,7 @@
         <v>43</v>
       </c>
       <c r="G279" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H279">
         <v>0</v>
@@ -25385,7 +25385,7 @@
         <v>45264.58333333334</v>
       </c>
       <c r="F280" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G280" t="s">
         <v>37</v>
@@ -25477,7 +25477,7 @@
         <v>48</v>
       </c>
       <c r="G281" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H281">
         <v>0</v>
@@ -25563,7 +25563,7 @@
         <v>45265.58333333334</v>
       </c>
       <c r="F282" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G282" t="s">
         <v>38</v>
@@ -25922,7 +25922,7 @@
         <v>36</v>
       </c>
       <c r="G286" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H286">
         <v>1</v>
@@ -25996,7 +25996,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>7217680</v>
+        <v>7217677</v>
       </c>
       <c r="C287" t="s">
         <v>28</v>
@@ -26008,76 +26008,76 @@
         <v>45274.58333333334</v>
       </c>
       <c r="F287" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G287" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H287">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I287">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J287" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K287">
-        <v>2.3</v>
+        <v>1.25</v>
       </c>
       <c r="L287">
+        <v>5</v>
+      </c>
+      <c r="M287">
+        <v>9</v>
+      </c>
+      <c r="N287">
+        <v>1.166</v>
+      </c>
+      <c r="O287">
+        <v>7</v>
+      </c>
+      <c r="P287">
+        <v>11</v>
+      </c>
+      <c r="Q287">
+        <v>-2</v>
+      </c>
+      <c r="R287">
+        <v>1.95</v>
+      </c>
+      <c r="S287">
+        <v>1.85</v>
+      </c>
+      <c r="T287">
         <v>3</v>
       </c>
-      <c r="M287">
-        <v>2.875</v>
-      </c>
-      <c r="N287">
-        <v>2.875</v>
-      </c>
-      <c r="O287">
-        <v>3.2</v>
-      </c>
-      <c r="P287">
-        <v>2.375</v>
-      </c>
-      <c r="Q287">
-        <v>0.25</v>
-      </c>
-      <c r="R287">
-        <v>1.75</v>
-      </c>
-      <c r="S287">
-        <v>2.05</v>
-      </c>
-      <c r="T287">
-        <v>2.5</v>
-      </c>
       <c r="U287">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V287">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W287">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X287">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y287">
         <v>-1</v>
       </c>
       <c r="Z287">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA287">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB287">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC287">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="288" spans="1:29">
@@ -26085,7 +26085,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>7217677</v>
+        <v>7217680</v>
       </c>
       <c r="C288" t="s">
         <v>28</v>
@@ -26097,76 +26097,76 @@
         <v>45274.58333333334</v>
       </c>
       <c r="F288" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G288" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I288">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J288" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K288">
-        <v>1.25</v>
+        <v>2.3</v>
       </c>
       <c r="L288">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M288">
-        <v>9</v>
+        <v>2.875</v>
       </c>
       <c r="N288">
-        <v>1.166</v>
+        <v>2.875</v>
       </c>
       <c r="O288">
-        <v>7</v>
+        <v>3.2</v>
       </c>
       <c r="P288">
-        <v>11</v>
+        <v>2.375</v>
       </c>
       <c r="Q288">
-        <v>-2</v>
+        <v>0.25</v>
       </c>
       <c r="R288">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S288">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T288">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U288">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V288">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W288">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X288">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Y288">
         <v>-1</v>
       </c>
       <c r="Z288">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA288">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB288">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC288">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="289" spans="1:29">
@@ -26189,7 +26189,7 @@
         <v>29</v>
       </c>
       <c r="G289" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H289">
         <v>0</v>
@@ -26263,7 +26263,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>7549592</v>
+        <v>7549591</v>
       </c>
       <c r="C290" t="s">
         <v>28</v>
@@ -26275,10 +26275,10 @@
         <v>45275.54166666666</v>
       </c>
       <c r="F290" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G290" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H290">
         <v>1</v>
@@ -26290,40 +26290,40 @@
         <v>50</v>
       </c>
       <c r="K290">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="L290">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="M290">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="N290">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="O290">
         <v>2.75</v>
       </c>
       <c r="P290">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q290">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R290">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="S290">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="T290">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U290">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V290">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W290">
         <v>-1</v>
@@ -26332,16 +26332,16 @@
         <v>-1</v>
       </c>
       <c r="Y290">
-        <v>2.5</v>
+        <v>1.45</v>
       </c>
       <c r="Z290">
         <v>-1</v>
       </c>
       <c r="AA290">
-        <v>0.8999999999999999</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB290">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC290">
         <v>-1</v>
@@ -26352,7 +26352,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>7549591</v>
+        <v>7549592</v>
       </c>
       <c r="C291" t="s">
         <v>28</v>
@@ -26364,10 +26364,10 @@
         <v>45275.54166666666</v>
       </c>
       <c r="F291" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G291" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="H291">
         <v>1</v>
@@ -26379,40 +26379,40 @@
         <v>50</v>
       </c>
       <c r="K291">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="L291">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="M291">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="N291">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="O291">
         <v>2.75</v>
       </c>
       <c r="P291">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="Q291">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R291">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="S291">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="T291">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U291">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V291">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W291">
         <v>-1</v>
@@ -26421,16 +26421,16 @@
         <v>-1</v>
       </c>
       <c r="Y291">
-        <v>1.45</v>
+        <v>2.5</v>
       </c>
       <c r="Z291">
         <v>-1</v>
       </c>
       <c r="AA291">
-        <v>0.7250000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB291">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC291">
         <v>-1</v>
@@ -26898,10 +26898,10 @@
         <v>45287.58333333334</v>
       </c>
       <c r="F297" t="s">
+        <v>45</v>
+      </c>
+      <c r="G297" t="s">
         <v>46</v>
-      </c>
-      <c r="G297" t="s">
-        <v>45</v>
       </c>
       <c r="H297">
         <v>1</v>
@@ -27064,7 +27064,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>7217692</v>
+        <v>7217691</v>
       </c>
       <c r="C299" t="s">
         <v>28</v>
@@ -27076,13 +27076,13 @@
         <v>45290.58333333334</v>
       </c>
       <c r="F299" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G299" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H299">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I299">
         <v>0</v>
@@ -27091,43 +27091,43 @@
         <v>51</v>
       </c>
       <c r="K299">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="L299">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="M299">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="N299">
-        <v>2.8</v>
+        <v>1.85</v>
       </c>
       <c r="O299">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P299">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q299">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R299">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S299">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T299">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U299">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V299">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W299">
-        <v>1.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X299">
         <v>-1</v>
@@ -27136,16 +27136,16 @@
         <v>-1</v>
       </c>
       <c r="Z299">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA299">
         <v>-1</v>
       </c>
       <c r="AB299">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC299">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="300" spans="1:29">
@@ -27153,7 +27153,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>7217691</v>
+        <v>7217692</v>
       </c>
       <c r="C300" t="s">
         <v>28</v>
@@ -27165,13 +27165,13 @@
         <v>45290.58333333334</v>
       </c>
       <c r="F300" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G300" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H300">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I300">
         <v>0</v>
@@ -27180,43 +27180,43 @@
         <v>51</v>
       </c>
       <c r="K300">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="L300">
+        <v>2.9</v>
+      </c>
+      <c r="M300">
+        <v>2.4</v>
+      </c>
+      <c r="N300">
         <v>2.8</v>
       </c>
-      <c r="M300">
-        <v>3.6</v>
-      </c>
-      <c r="N300">
-        <v>1.85</v>
-      </c>
       <c r="O300">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P300">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="Q300">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R300">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S300">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T300">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U300">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V300">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W300">
-        <v>0.8500000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="X300">
         <v>-1</v>
@@ -27225,16 +27225,16 @@
         <v>-1</v>
       </c>
       <c r="Z300">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA300">
         <v>-1</v>
       </c>
       <c r="AB300">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC300">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="301" spans="1:29">
@@ -27343,7 +27343,7 @@
         <v>45292.58333333334</v>
       </c>
       <c r="F302" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G302" t="s">
         <v>35</v>

--- a/Egypt Division 1/Egypt Division 1.xlsx
+++ b/Egypt Division 1/Egypt Division 1.xlsx
@@ -2411,7 +2411,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5774686</v>
+        <v>6117225</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2423,76 +2423,76 @@
         <v>44937.58333333334</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="s">
         <v>52</v>
       </c>
       <c r="K22">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="L22">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M22">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="N22">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="O22">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P22">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="Q22">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R22">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S22">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T22">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U22">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V22">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="Y22">
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>0.45</v>
+        <v>0.75</v>
       </c>
       <c r="AA22">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC22">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2500,7 +2500,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6117225</v>
+        <v>5774686</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2512,76 +2512,76 @@
         <v>44937.58333333334</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
         <v>52</v>
       </c>
       <c r="K23">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="L23">
+        <v>3.2</v>
+      </c>
+      <c r="M23">
+        <v>1.95</v>
+      </c>
+      <c r="N23">
+        <v>3.4</v>
+      </c>
+      <c r="O23">
         <v>3</v>
       </c>
-      <c r="M23">
-        <v>1.909</v>
-      </c>
-      <c r="N23">
-        <v>3.8</v>
-      </c>
-      <c r="O23">
-        <v>2.875</v>
-      </c>
       <c r="P23">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="Q23">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R23">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S23">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T23">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U23">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V23">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="Y23">
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0.75</v>
+        <v>0.45</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -3924,7 +3924,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>5774068</v>
+        <v>5774694</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3936,76 +3936,76 @@
         <v>44949.40625</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G39" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H39">
         <v>0</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K39">
+        <v>2.75</v>
+      </c>
+      <c r="L39">
+        <v>2.8</v>
+      </c>
+      <c r="M39">
+        <v>2.625</v>
+      </c>
+      <c r="N39">
+        <v>3.1</v>
+      </c>
+      <c r="O39">
         <v>2.7</v>
       </c>
-      <c r="L39">
-        <v>2.75</v>
-      </c>
-      <c r="M39">
-        <v>2.75</v>
-      </c>
-      <c r="N39">
-        <v>2.4</v>
-      </c>
-      <c r="O39">
-        <v>2.75</v>
-      </c>
       <c r="P39">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="Q39">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R39">
-        <v>2.025</v>
+        <v>1.7</v>
       </c>
       <c r="S39">
-        <v>1.775</v>
+        <v>2.1</v>
       </c>
       <c r="T39">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U39">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V39">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W39">
         <v>-1</v>
       </c>
       <c r="X39">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z39">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>0.3875</v>
+        <v>1.1</v>
       </c>
       <c r="AB39">
         <v>-1</v>
       </c>
       <c r="AC39">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4013,7 +4013,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>5774694</v>
+        <v>5774068</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4025,76 +4025,76 @@
         <v>44949.40625</v>
       </c>
       <c r="F40" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G40" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H40">
         <v>0</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K40">
+        <v>2.7</v>
+      </c>
+      <c r="L40">
         <v>2.75</v>
       </c>
-      <c r="L40">
-        <v>2.8</v>
-      </c>
       <c r="M40">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="N40">
+        <v>2.4</v>
+      </c>
+      <c r="O40">
+        <v>2.75</v>
+      </c>
+      <c r="P40">
         <v>3.1</v>
       </c>
-      <c r="O40">
-        <v>2.7</v>
-      </c>
-      <c r="P40">
-        <v>2.5</v>
-      </c>
       <c r="Q40">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R40">
-        <v>1.7</v>
+        <v>2.025</v>
       </c>
       <c r="S40">
-        <v>2.1</v>
+        <v>1.775</v>
       </c>
       <c r="T40">
+        <v>2</v>
+      </c>
+      <c r="U40">
+        <v>1.925</v>
+      </c>
+      <c r="V40">
+        <v>1.875</v>
+      </c>
+      <c r="W40">
+        <v>-1</v>
+      </c>
+      <c r="X40">
         <v>1.75</v>
       </c>
-      <c r="U40">
-        <v>1.825</v>
-      </c>
-      <c r="V40">
-        <v>1.975</v>
-      </c>
-      <c r="W40">
-        <v>-1</v>
-      </c>
-      <c r="X40">
-        <v>-1</v>
-      </c>
       <c r="Y40">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA40">
-        <v>1.1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB40">
         <v>-1</v>
       </c>
       <c r="AC40">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4102,7 +4102,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>5774070</v>
+        <v>5774069</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4114,76 +4114,76 @@
         <v>44949.58333333334</v>
       </c>
       <c r="F41" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G41" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K41">
-        <v>1.727</v>
+        <v>2.05</v>
       </c>
       <c r="L41">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M41">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="N41">
-        <v>1.65</v>
+        <v>2.05</v>
       </c>
       <c r="O41">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P41">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q41">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R41">
+        <v>1.85</v>
+      </c>
+      <c r="S41">
         <v>1.95</v>
       </c>
-      <c r="S41">
-        <v>1.85</v>
-      </c>
       <c r="T41">
         <v>2</v>
       </c>
       <c r="U41">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V41">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W41">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X41">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y41">
         <v>-1</v>
       </c>
       <c r="Z41">
+        <v>-0.5</v>
+      </c>
+      <c r="AA41">
         <v>0.475</v>
       </c>
-      <c r="AA41">
-        <v>-0.5</v>
-      </c>
       <c r="AB41">
         <v>-1</v>
       </c>
       <c r="AC41">
-        <v>1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4191,7 +4191,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>5774069</v>
+        <v>5774070</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4203,76 +4203,76 @@
         <v>44949.58333333334</v>
       </c>
       <c r="F42" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K42">
-        <v>2.05</v>
+        <v>1.727</v>
       </c>
       <c r="L42">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M42">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="N42">
-        <v>2.05</v>
+        <v>1.65</v>
       </c>
       <c r="O42">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="P42">
-        <v>3.6</v>
+        <v>5.75</v>
       </c>
       <c r="Q42">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R42">
+        <v>1.95</v>
+      </c>
+      <c r="S42">
         <v>1.85</v>
       </c>
-      <c r="S42">
-        <v>1.95</v>
-      </c>
       <c r="T42">
         <v>2</v>
       </c>
       <c r="U42">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V42">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W42">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X42">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y42">
         <v>-1</v>
       </c>
       <c r="Z42">
+        <v>0.475</v>
+      </c>
+      <c r="AA42">
         <v>-0.5</v>
       </c>
-      <c r="AA42">
-        <v>0.475</v>
-      </c>
       <c r="AB42">
         <v>-1</v>
       </c>
       <c r="AC42">
-        <v>1.025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4458,7 +4458,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>5774071</v>
+        <v>5774697</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4470,76 +4470,76 @@
         <v>44950.58333333334</v>
       </c>
       <c r="F45" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G45" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K45">
+        <v>5.75</v>
+      </c>
+      <c r="L45">
+        <v>3.2</v>
+      </c>
+      <c r="M45">
+        <v>1.6</v>
+      </c>
+      <c r="N45">
+        <v>8</v>
+      </c>
+      <c r="O45">
+        <v>3.5</v>
+      </c>
+      <c r="P45">
         <v>1.4</v>
       </c>
-      <c r="L45">
-        <v>4.2</v>
-      </c>
-      <c r="M45">
-        <v>6.5</v>
-      </c>
-      <c r="N45">
-        <v>1.4</v>
-      </c>
-      <c r="O45">
-        <v>4.2</v>
-      </c>
-      <c r="P45">
-        <v>5.75</v>
-      </c>
       <c r="Q45">
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="R45">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S45">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T45">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U45">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V45">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W45">
+        <v>-1</v>
+      </c>
+      <c r="X45">
+        <v>-1</v>
+      </c>
+      <c r="Y45">
         <v>0.3999999999999999</v>
       </c>
-      <c r="X45">
-        <v>-1</v>
-      </c>
-      <c r="Y45">
-        <v>-1</v>
-      </c>
       <c r="Z45">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA45">
-        <v>0.3875</v>
+        <v>-0</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC45">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4547,7 +4547,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>5774697</v>
+        <v>5774071</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4559,76 +4559,76 @@
         <v>44950.58333333334</v>
       </c>
       <c r="F46" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G46" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K46">
+        <v>1.4</v>
+      </c>
+      <c r="L46">
+        <v>4.2</v>
+      </c>
+      <c r="M46">
+        <v>6.5</v>
+      </c>
+      <c r="N46">
+        <v>1.4</v>
+      </c>
+      <c r="O46">
+        <v>4.2</v>
+      </c>
+      <c r="P46">
         <v>5.75</v>
       </c>
-      <c r="L46">
-        <v>3.2</v>
-      </c>
-      <c r="M46">
-        <v>1.6</v>
-      </c>
-      <c r="N46">
-        <v>8</v>
-      </c>
-      <c r="O46">
-        <v>3.5</v>
-      </c>
-      <c r="P46">
-        <v>1.4</v>
-      </c>
       <c r="Q46">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="R46">
+        <v>2.025</v>
+      </c>
+      <c r="S46">
+        <v>1.775</v>
+      </c>
+      <c r="T46">
+        <v>2.5</v>
+      </c>
+      <c r="U46">
         <v>1.975</v>
       </c>
-      <c r="S46">
+      <c r="V46">
         <v>1.825</v>
       </c>
-      <c r="T46">
-        <v>2</v>
-      </c>
-      <c r="U46">
-        <v>1.75</v>
-      </c>
-      <c r="V46">
-        <v>2.05</v>
-      </c>
       <c r="W46">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA46">
-        <v>-0</v>
+        <v>0.3875</v>
       </c>
       <c r="AB46">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC46">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -5526,7 +5526,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>5774703</v>
+        <v>5774078</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5538,76 +5538,76 @@
         <v>44962.58333333334</v>
       </c>
       <c r="F57" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G57" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57">
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K57">
-        <v>1.833</v>
+        <v>1.909</v>
       </c>
       <c r="L57">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M57">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="N57">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O57">
         <v>3</v>
       </c>
       <c r="P57">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q57">
         <v>-0.25</v>
       </c>
       <c r="R57">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S57">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T57">
         <v>2.25</v>
       </c>
       <c r="U57">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V57">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W57">
         <v>-1</v>
       </c>
       <c r="X57">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y57">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z57">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA57">
-        <v>1.05</v>
+        <v>0.5</v>
       </c>
       <c r="AB57">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC57">
-        <v>0.9750000000000001</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5615,7 +5615,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>5774078</v>
+        <v>5774703</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5627,76 +5627,76 @@
         <v>44962.58333333334</v>
       </c>
       <c r="F58" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G58" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58">
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K58">
-        <v>1.909</v>
+        <v>1.833</v>
       </c>
       <c r="L58">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M58">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="N58">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="O58">
         <v>3</v>
       </c>
       <c r="P58">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q58">
         <v>-0.25</v>
       </c>
       <c r="R58">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S58">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T58">
         <v>2.25</v>
       </c>
       <c r="U58">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V58">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W58">
         <v>-1</v>
       </c>
       <c r="X58">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y58">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z58">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA58">
-        <v>0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB58">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC58">
-        <v>0.3875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -9086,7 +9086,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6441342</v>
+        <v>6436239</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9098,37 +9098,37 @@
         <v>45015.67708333334</v>
       </c>
       <c r="F97" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G97" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K97">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="L97">
+        <v>2.875</v>
+      </c>
+      <c r="M97">
         <v>2.8</v>
       </c>
-      <c r="M97">
-        <v>3.1</v>
-      </c>
       <c r="N97">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="O97">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="P97">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="Q97">
         <v>0</v>
@@ -9140,34 +9140,34 @@
         <v>1.95</v>
       </c>
       <c r="T97">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U97">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="V97">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="W97">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X97">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA97">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB97">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC97">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9175,7 +9175,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6436239</v>
+        <v>6441342</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9187,37 +9187,37 @@
         <v>45015.67708333334</v>
       </c>
       <c r="F98" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G98" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K98">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="L98">
+        <v>2.8</v>
+      </c>
+      <c r="M98">
+        <v>3.1</v>
+      </c>
+      <c r="N98">
+        <v>2.6</v>
+      </c>
+      <c r="O98">
+        <v>2.7</v>
+      </c>
+      <c r="P98">
         <v>2.875</v>
-      </c>
-      <c r="M98">
-        <v>2.8</v>
-      </c>
-      <c r="N98">
-        <v>2.7</v>
-      </c>
-      <c r="O98">
-        <v>2.625</v>
-      </c>
-      <c r="P98">
-        <v>2.8</v>
       </c>
       <c r="Q98">
         <v>0</v>
@@ -9229,34 +9229,34 @@
         <v>1.95</v>
       </c>
       <c r="T98">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U98">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="V98">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="W98">
+        <v>-1</v>
+      </c>
+      <c r="X98">
         <v>1.7</v>
       </c>
-      <c r="X98">
-        <v>-1</v>
-      </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB98">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC98">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9531,7 +9531,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6467348</v>
+        <v>6451732</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9543,76 +9543,76 @@
         <v>45019.67708333334</v>
       </c>
       <c r="F102" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G102" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102">
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K102">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="L102">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="M102">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="N102">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="O102">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="P102">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="Q102">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R102">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S102">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T102">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U102">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V102">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W102">
         <v>-1</v>
       </c>
       <c r="X102">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y102">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z102">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA102">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AB102">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC102">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9620,7 +9620,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6451732</v>
+        <v>6467348</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9632,76 +9632,76 @@
         <v>45019.67708333334</v>
       </c>
       <c r="F103" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G103" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103">
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K103">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="L103">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="M103">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="N103">
+        <v>3.2</v>
+      </c>
+      <c r="O103">
         <v>2.9</v>
       </c>
-      <c r="O103">
-        <v>2.75</v>
-      </c>
       <c r="P103">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="Q103">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R103">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S103">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T103">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U103">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V103">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W103">
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y103">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA103">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC103">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9709,7 +9709,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6471793</v>
+        <v>6445815</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9721,76 +9721,76 @@
         <v>45020.67708333334</v>
       </c>
       <c r="F104" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G104" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K104">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="L104">
+        <v>2.75</v>
+      </c>
+      <c r="M104">
         <v>2.625</v>
       </c>
-      <c r="M104">
-        <v>3</v>
-      </c>
       <c r="N104">
+        <v>2.6</v>
+      </c>
+      <c r="O104">
+        <v>2.8</v>
+      </c>
+      <c r="P104">
         <v>2.875</v>
       </c>
-      <c r="O104">
-        <v>2.625</v>
-      </c>
-      <c r="P104">
-        <v>2.625</v>
-      </c>
       <c r="Q104">
         <v>0</v>
       </c>
       <c r="R104">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S104">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T104">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U104">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V104">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W104">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X104">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA104">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC104">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9887,7 +9887,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6445815</v>
+        <v>6471793</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9899,76 +9899,76 @@
         <v>45020.67708333334</v>
       </c>
       <c r="F106" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G106" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106" t="s">
+        <v>52</v>
+      </c>
+      <c r="K106">
+        <v>2.55</v>
+      </c>
+      <c r="L106">
+        <v>2.625</v>
+      </c>
+      <c r="M106">
         <v>3</v>
       </c>
-      <c r="I106">
-        <v>2</v>
-      </c>
-      <c r="J106" t="s">
-        <v>51</v>
-      </c>
-      <c r="K106">
-        <v>2.7</v>
-      </c>
-      <c r="L106">
-        <v>2.75</v>
-      </c>
-      <c r="M106">
+      <c r="N106">
+        <v>2.875</v>
+      </c>
+      <c r="O106">
         <v>2.625</v>
       </c>
-      <c r="N106">
-        <v>2.6</v>
-      </c>
-      <c r="O106">
-        <v>2.8</v>
-      </c>
       <c r="P106">
-        <v>2.875</v>
+        <v>2.625</v>
       </c>
       <c r="Q106">
         <v>0</v>
       </c>
       <c r="R106">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S106">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T106">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U106">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V106">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W106">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X106">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA106">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB106">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC106">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -10243,7 +10243,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6484231</v>
+        <v>6493897</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10255,76 +10255,76 @@
         <v>45023.67708333334</v>
       </c>
       <c r="F110" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G110" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H110">
         <v>1</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K110">
-        <v>1.727</v>
+        <v>3.5</v>
       </c>
       <c r="L110">
         <v>3.25</v>
       </c>
       <c r="M110">
-        <v>4.333</v>
+        <v>1.909</v>
       </c>
       <c r="N110">
-        <v>1.533</v>
+        <v>2.7</v>
       </c>
       <c r="O110">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P110">
-        <v>5.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q110">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R110">
+        <v>1.8</v>
+      </c>
+      <c r="S110">
+        <v>2</v>
+      </c>
+      <c r="T110">
+        <v>2</v>
+      </c>
+      <c r="U110">
         <v>1.75</v>
       </c>
-      <c r="S110">
+      <c r="V110">
         <v>2.05</v>
       </c>
-      <c r="T110">
+      <c r="W110">
+        <v>-1</v>
+      </c>
+      <c r="X110">
         <v>2.25</v>
       </c>
-      <c r="U110">
-        <v>2.025</v>
-      </c>
-      <c r="V110">
-        <v>1.775</v>
-      </c>
-      <c r="W110">
-        <v>0.5329999999999999</v>
-      </c>
-      <c r="X110">
-        <v>-1</v>
-      </c>
       <c r="Y110">
         <v>-1</v>
       </c>
       <c r="Z110">
-        <v>0.375</v>
+        <v>0.4</v>
       </c>
       <c r="AA110">
         <v>-0.5</v>
       </c>
       <c r="AB110">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC110">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10332,7 +10332,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6493897</v>
+        <v>6484231</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10344,76 +10344,76 @@
         <v>45023.67708333334</v>
       </c>
       <c r="F111" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G111" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H111">
         <v>1</v>
       </c>
       <c r="I111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K111">
-        <v>3.5</v>
+        <v>1.727</v>
       </c>
       <c r="L111">
         <v>3.25</v>
       </c>
       <c r="M111">
-        <v>1.909</v>
+        <v>4.333</v>
       </c>
       <c r="N111">
-        <v>2.7</v>
+        <v>1.533</v>
       </c>
       <c r="O111">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P111">
-        <v>2.3</v>
+        <v>5.5</v>
       </c>
       <c r="Q111">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R111">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S111">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T111">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U111">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="V111">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="W111">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X111">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y111">
         <v>-1</v>
       </c>
       <c r="Z111">
-        <v>0.4</v>
+        <v>0.375</v>
       </c>
       <c r="AA111">
         <v>-0.5</v>
       </c>
       <c r="AB111">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC111">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10421,7 +10421,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6488022</v>
+        <v>6471698</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10433,25 +10433,25 @@
         <v>45025.67708333334</v>
       </c>
       <c r="F112" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G112" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H112">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I112">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J112" t="s">
         <v>51</v>
       </c>
       <c r="K112">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="L112">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M112">
         <v>4</v>
@@ -10460,28 +10460,28 @@
         <v>2.2</v>
       </c>
       <c r="O112">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="P112">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="Q112">
         <v>-0.25</v>
       </c>
       <c r="R112">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S112">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T112">
         <v>2</v>
       </c>
       <c r="U112">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V112">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W112">
         <v>1.2</v>
@@ -10493,16 +10493,16 @@
         <v>-1</v>
       </c>
       <c r="Z112">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA112">
         <v>-1</v>
       </c>
       <c r="AB112">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC112">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10599,7 +10599,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6471698</v>
+        <v>6488022</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10611,25 +10611,25 @@
         <v>45025.67708333334</v>
       </c>
       <c r="F114" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G114" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I114">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J114" t="s">
         <v>51</v>
       </c>
       <c r="K114">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="L114">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M114">
         <v>4</v>
@@ -10638,28 +10638,28 @@
         <v>2.2</v>
       </c>
       <c r="O114">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P114">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="Q114">
         <v>-0.25</v>
       </c>
       <c r="R114">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S114">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T114">
         <v>2</v>
       </c>
       <c r="U114">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V114">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W114">
         <v>1.2</v>
@@ -10671,16 +10671,16 @@
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA114">
         <v>-1</v>
       </c>
       <c r="AB114">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC114">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10955,7 +10955,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6471699</v>
+        <v>6488023</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10967,76 +10967,76 @@
         <v>45029.67708333334</v>
       </c>
       <c r="F118" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G118" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H118">
         <v>0</v>
       </c>
       <c r="I118">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J118" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K118">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="L118">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="M118">
-        <v>1.833</v>
+        <v>3.25</v>
       </c>
       <c r="N118">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="O118">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P118">
-        <v>1.7</v>
+        <v>2.55</v>
       </c>
       <c r="Q118">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R118">
+        <v>1.9</v>
+      </c>
+      <c r="S118">
+        <v>1.9</v>
+      </c>
+      <c r="T118">
+        <v>2</v>
+      </c>
+      <c r="U118">
         <v>1.8</v>
       </c>
-      <c r="S118">
-        <v>2</v>
-      </c>
-      <c r="T118">
-        <v>2</v>
-      </c>
-      <c r="U118">
-        <v>1.825</v>
-      </c>
       <c r="V118">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W118">
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y118">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z118">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA118">
+        <v>-0</v>
+      </c>
+      <c r="AB118">
+        <v>-1</v>
+      </c>
+      <c r="AC118">
         <v>1</v>
-      </c>
-      <c r="AB118">
-        <v>0.825</v>
-      </c>
-      <c r="AC118">
-        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11133,7 +11133,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6488023</v>
+        <v>6471699</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11145,76 +11145,76 @@
         <v>45029.67708333334</v>
       </c>
       <c r="F120" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G120" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H120">
         <v>0</v>
       </c>
       <c r="I120">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J120" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K120">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="L120">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="M120">
-        <v>3.25</v>
+        <v>1.833</v>
       </c>
       <c r="N120">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="O120">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P120">
-        <v>2.55</v>
+        <v>1.7</v>
       </c>
       <c r="Q120">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R120">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S120">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T120">
         <v>2</v>
       </c>
       <c r="U120">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V120">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W120">
         <v>-1</v>
       </c>
       <c r="X120">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y120">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z120">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA120">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB120">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC120">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11222,7 +11222,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6471802</v>
+        <v>6471801</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11234,58 +11234,58 @@
         <v>45030.67708333334</v>
       </c>
       <c r="F121" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G121" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H121">
         <v>3</v>
       </c>
       <c r="I121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="s">
         <v>51</v>
       </c>
       <c r="K121">
-        <v>2.3</v>
+        <v>1.333</v>
       </c>
       <c r="L121">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="M121">
-        <v>3</v>
+        <v>9.5</v>
       </c>
       <c r="N121">
-        <v>2.7</v>
+        <v>1.333</v>
       </c>
       <c r="O121">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="P121">
-        <v>2.6</v>
+        <v>8</v>
       </c>
       <c r="Q121">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R121">
+        <v>1.825</v>
+      </c>
+      <c r="S121">
+        <v>1.975</v>
+      </c>
+      <c r="T121">
+        <v>2.5</v>
+      </c>
+      <c r="U121">
         <v>1.925</v>
       </c>
-      <c r="S121">
+      <c r="V121">
         <v>1.875</v>
       </c>
-      <c r="T121">
-        <v>2.25</v>
-      </c>
-      <c r="U121">
-        <v>2</v>
-      </c>
-      <c r="V121">
-        <v>1.8</v>
-      </c>
       <c r="W121">
-        <v>1.7</v>
+        <v>0.333</v>
       </c>
       <c r="X121">
         <v>-1</v>
@@ -11294,13 +11294,13 @@
         <v>-1</v>
       </c>
       <c r="Z121">
+        <v>0.825</v>
+      </c>
+      <c r="AA121">
+        <v>-1</v>
+      </c>
+      <c r="AB121">
         <v>0.925</v>
-      </c>
-      <c r="AA121">
-        <v>-1</v>
-      </c>
-      <c r="AB121">
-        <v>1</v>
       </c>
       <c r="AC121">
         <v>-1</v>
@@ -11311,7 +11311,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6471799</v>
+        <v>6471802</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11323,73 +11323,73 @@
         <v>45030.67708333334</v>
       </c>
       <c r="F122" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G122" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I122">
+        <v>1</v>
+      </c>
+      <c r="J122" t="s">
+        <v>51</v>
+      </c>
+      <c r="K122">
+        <v>2.3</v>
+      </c>
+      <c r="L122">
+        <v>3.1</v>
+      </c>
+      <c r="M122">
         <v>3</v>
       </c>
-      <c r="J122" t="s">
-        <v>50</v>
-      </c>
-      <c r="K122">
-        <v>5.5</v>
-      </c>
-      <c r="L122">
-        <v>3.5</v>
-      </c>
-      <c r="M122">
-        <v>1.6</v>
-      </c>
       <c r="N122">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="O122">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P122">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="Q122">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R122">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S122">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T122">
         <v>2.25</v>
       </c>
       <c r="U122">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V122">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W122">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X122">
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z122">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA122">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB122">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AC122">
         <v>-1</v>
@@ -11400,7 +11400,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6471801</v>
+        <v>6471799</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11412,73 +11412,73 @@
         <v>45030.67708333334</v>
       </c>
       <c r="F123" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G123" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
         <v>3</v>
       </c>
-      <c r="I123">
-        <v>0</v>
-      </c>
       <c r="J123" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K123">
-        <v>1.333</v>
+        <v>5.5</v>
       </c>
       <c r="L123">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="M123">
-        <v>9.5</v>
+        <v>1.6</v>
       </c>
       <c r="N123">
-        <v>1.333</v>
+        <v>4.5</v>
       </c>
       <c r="O123">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P123">
-        <v>8</v>
+        <v>1.8</v>
       </c>
       <c r="Q123">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R123">
+        <v>1.975</v>
+      </c>
+      <c r="S123">
         <v>1.825</v>
       </c>
-      <c r="S123">
-        <v>1.975</v>
-      </c>
       <c r="T123">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U123">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V123">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W123">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z123">
+        <v>-1</v>
+      </c>
+      <c r="AA123">
         <v>0.825</v>
       </c>
-      <c r="AA123">
-        <v>-1</v>
-      </c>
       <c r="AB123">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC123">
         <v>-1</v>
@@ -11756,7 +11756,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6488033</v>
+        <v>6488029</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11768,10 +11768,10 @@
         <v>45034.67708333334</v>
       </c>
       <c r="F127" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G127" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H127">
         <v>2</v>
@@ -11783,43 +11783,43 @@
         <v>51</v>
       </c>
       <c r="K127">
+        <v>1.4</v>
+      </c>
+      <c r="L127">
+        <v>4</v>
+      </c>
+      <c r="M127">
+        <v>7</v>
+      </c>
+      <c r="N127">
+        <v>1.444</v>
+      </c>
+      <c r="O127">
+        <v>3.75</v>
+      </c>
+      <c r="P127">
+        <v>7</v>
+      </c>
+      <c r="Q127">
+        <v>-1</v>
+      </c>
+      <c r="R127">
+        <v>1.8</v>
+      </c>
+      <c r="S127">
+        <v>2</v>
+      </c>
+      <c r="T127">
         <v>2.25</v>
       </c>
-      <c r="L127">
-        <v>3</v>
-      </c>
-      <c r="M127">
-        <v>3</v>
-      </c>
-      <c r="N127">
-        <v>2.25</v>
-      </c>
-      <c r="O127">
-        <v>2.875</v>
-      </c>
-      <c r="P127">
-        <v>3.1</v>
-      </c>
-      <c r="Q127">
-        <v>0</v>
-      </c>
-      <c r="R127">
-        <v>1.725</v>
-      </c>
-      <c r="S127">
-        <v>2.075</v>
-      </c>
-      <c r="T127">
-        <v>2</v>
-      </c>
       <c r="U127">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V127">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W127">
-        <v>1.25</v>
+        <v>0.444</v>
       </c>
       <c r="X127">
         <v>-1</v>
@@ -11828,16 +11828,16 @@
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>0.7250000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA127">
         <v>-1</v>
       </c>
       <c r="AB127">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC127">
-        <v>-0</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11845,7 +11845,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6488029</v>
+        <v>6488033</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11857,10 +11857,10 @@
         <v>45034.67708333334</v>
       </c>
       <c r="F128" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G128" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H128">
         <v>2</v>
@@ -11872,43 +11872,43 @@
         <v>51</v>
       </c>
       <c r="K128">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="L128">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M128">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N128">
-        <v>1.444</v>
+        <v>2.25</v>
       </c>
       <c r="O128">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="P128">
-        <v>7</v>
+        <v>3.1</v>
       </c>
       <c r="Q128">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R128">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="S128">
-        <v>2</v>
+        <v>2.075</v>
       </c>
       <c r="T128">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U128">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V128">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W128">
-        <v>0.444</v>
+        <v>1.25</v>
       </c>
       <c r="X128">
         <v>-1</v>
@@ -11917,16 +11917,16 @@
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>0.8</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA128">
         <v>-1</v>
       </c>
       <c r="AB128">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC128">
-        <v>0.4625</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -12023,7 +12023,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6495713</v>
+        <v>6488030</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12035,76 +12035,76 @@
         <v>45035.67708333334</v>
       </c>
       <c r="F130" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G130" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K130">
-        <v>3.9</v>
+        <v>2</v>
       </c>
       <c r="L130">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="M130">
+        <v>4</v>
+      </c>
+      <c r="N130">
         <v>2.05</v>
       </c>
-      <c r="N130">
-        <v>4.2</v>
-      </c>
       <c r="O130">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="P130">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="Q130">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R130">
+        <v>1.775</v>
+      </c>
+      <c r="S130">
         <v>2.025</v>
       </c>
-      <c r="S130">
-        <v>1.775</v>
-      </c>
       <c r="T130">
         <v>2</v>
       </c>
       <c r="U130">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V130">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W130">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X130">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y130">
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0.5125</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA130">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB130">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC130">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12112,7 +12112,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6488030</v>
+        <v>6495713</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12124,76 +12124,76 @@
         <v>45035.67708333334</v>
       </c>
       <c r="F131" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G131" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H131">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J131" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K131">
-        <v>2</v>
+        <v>3.9</v>
       </c>
       <c r="L131">
+        <v>2.7</v>
+      </c>
+      <c r="M131">
+        <v>2.05</v>
+      </c>
+      <c r="N131">
+        <v>4.2</v>
+      </c>
+      <c r="O131">
         <v>2.75</v>
       </c>
-      <c r="M131">
-        <v>4</v>
-      </c>
-      <c r="N131">
-        <v>2.05</v>
-      </c>
-      <c r="O131">
-        <v>2.9</v>
-      </c>
       <c r="P131">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="Q131">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R131">
+        <v>2.025</v>
+      </c>
+      <c r="S131">
         <v>1.775</v>
       </c>
-      <c r="S131">
-        <v>2.025</v>
-      </c>
       <c r="T131">
         <v>2</v>
       </c>
       <c r="U131">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V131">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W131">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X131">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0.7749999999999999</v>
+        <v>0.5125</v>
       </c>
       <c r="AA131">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB131">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC131">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -13002,7 +13002,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6576763</v>
+        <v>6574064</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13014,76 +13014,76 @@
         <v>45050.54166666666</v>
       </c>
       <c r="F141" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G141" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I141">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J141" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K141">
+        <v>3.4</v>
+      </c>
+      <c r="L141">
+        <v>2.75</v>
+      </c>
+      <c r="M141">
+        <v>2.2</v>
+      </c>
+      <c r="N141">
+        <v>4</v>
+      </c>
+      <c r="O141">
+        <v>2.7</v>
+      </c>
+      <c r="P141">
         <v>2.1</v>
       </c>
-      <c r="L141">
-        <v>2.5</v>
-      </c>
-      <c r="M141">
-        <v>4.25</v>
-      </c>
-      <c r="N141">
-        <v>2.3</v>
-      </c>
-      <c r="O141">
-        <v>2.55</v>
-      </c>
-      <c r="P141">
-        <v>3.5</v>
-      </c>
       <c r="Q141">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R141">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S141">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T141">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U141">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V141">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W141">
         <v>-1</v>
       </c>
       <c r="X141">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Y141">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z141">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA141">
-        <v>0.3875</v>
+        <v>0.8</v>
       </c>
       <c r="AB141">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC141">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13091,7 +13091,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6574064</v>
+        <v>6576763</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13103,76 +13103,76 @@
         <v>45050.54166666666</v>
       </c>
       <c r="F142" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G142" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I142">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K142">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="L142">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="M142">
-        <v>2.2</v>
+        <v>4.25</v>
       </c>
       <c r="N142">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="O142">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="P142">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q142">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R142">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S142">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T142">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U142">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V142">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W142">
         <v>-1</v>
       </c>
       <c r="X142">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Y142">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA142">
-        <v>0.8</v>
+        <v>0.3875</v>
       </c>
       <c r="AB142">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC142">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -14871,7 +14871,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6576691</v>
+        <v>6686652</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14883,10 +14883,10 @@
         <v>45070.64583333334</v>
       </c>
       <c r="F162" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G162" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H162">
         <v>1</v>
@@ -14898,43 +14898,43 @@
         <v>51</v>
       </c>
       <c r="K162">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="L162">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="M162">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="N162">
-        <v>1.363</v>
+        <v>2.2</v>
       </c>
       <c r="O162">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="P162">
-        <v>8</v>
+        <v>3.25</v>
       </c>
       <c r="Q162">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R162">
+        <v>1.95</v>
+      </c>
+      <c r="S162">
         <v>1.85</v>
       </c>
-      <c r="S162">
-        <v>1.95</v>
-      </c>
       <c r="T162">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U162">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V162">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W162">
-        <v>0.363</v>
+        <v>1.2</v>
       </c>
       <c r="X162">
         <v>-1</v>
@@ -14943,16 +14943,16 @@
         <v>-1</v>
       </c>
       <c r="Z162">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA162">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB162">
         <v>-1</v>
       </c>
       <c r="AC162">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -14960,7 +14960,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6686652</v>
+        <v>6576691</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14972,10 +14972,10 @@
         <v>45070.64583333334</v>
       </c>
       <c r="F163" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G163" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H163">
         <v>1</v>
@@ -14987,43 +14987,43 @@
         <v>51</v>
       </c>
       <c r="K163">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="L163">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="M163">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="N163">
-        <v>2.2</v>
+        <v>1.363</v>
       </c>
       <c r="O163">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="P163">
-        <v>3.25</v>
+        <v>8</v>
       </c>
       <c r="Q163">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R163">
+        <v>1.85</v>
+      </c>
+      <c r="S163">
         <v>1.95</v>
       </c>
-      <c r="S163">
-        <v>1.85</v>
-      </c>
       <c r="T163">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U163">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V163">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W163">
-        <v>1.2</v>
+        <v>0.363</v>
       </c>
       <c r="X163">
         <v>-1</v>
@@ -15032,16 +15032,16 @@
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA163">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB163">
         <v>-1</v>
       </c>
       <c r="AC163">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -16117,7 +16117,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6682709</v>
+        <v>6682708</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16129,76 +16129,76 @@
         <v>45083.54166666666</v>
       </c>
       <c r="F176" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G176" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I176">
         <v>1</v>
       </c>
       <c r="J176" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K176">
+        <v>2</v>
+      </c>
+      <c r="L176">
+        <v>2.875</v>
+      </c>
+      <c r="M176">
+        <v>3.75</v>
+      </c>
+      <c r="N176">
+        <v>1.833</v>
+      </c>
+      <c r="O176">
+        <v>3</v>
+      </c>
+      <c r="P176">
         <v>4.333</v>
       </c>
-      <c r="L176">
-        <v>3.25</v>
-      </c>
-      <c r="M176">
-        <v>1.727</v>
-      </c>
-      <c r="N176">
-        <v>3.4</v>
-      </c>
-      <c r="O176">
-        <v>3.5</v>
-      </c>
-      <c r="P176">
+      <c r="Q176">
+        <v>-0.5</v>
+      </c>
+      <c r="R176">
         <v>1.85</v>
       </c>
-      <c r="Q176">
-        <v>0.5</v>
-      </c>
-      <c r="R176">
-        <v>1.875</v>
-      </c>
       <c r="S176">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T176">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U176">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V176">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W176">
         <v>-1</v>
       </c>
       <c r="X176">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y176">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z176">
         <v>-1</v>
       </c>
       <c r="AA176">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB176">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC176">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16206,7 +16206,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6682708</v>
+        <v>6682709</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16218,76 +16218,76 @@
         <v>45083.54166666666</v>
       </c>
       <c r="F177" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G177" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177">
         <v>1</v>
       </c>
       <c r="J177" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K177">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="L177">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="M177">
-        <v>3.75</v>
+        <v>1.727</v>
       </c>
       <c r="N177">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="O177">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P177">
-        <v>4.333</v>
+        <v>1.85</v>
       </c>
       <c r="Q177">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R177">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S177">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T177">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U177">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V177">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W177">
         <v>-1</v>
       </c>
       <c r="X177">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y177">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z177">
         <v>-1</v>
       </c>
       <c r="AA177">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AB177">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC177">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -17452,7 +17452,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6682721</v>
+        <v>6682722</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17464,76 +17464,76 @@
         <v>45107.64583333334</v>
       </c>
       <c r="F191" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G191" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H191">
         <v>0</v>
       </c>
       <c r="I191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J191" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K191">
+        <v>2.5</v>
+      </c>
+      <c r="L191">
+        <v>2.7</v>
+      </c>
+      <c r="M191">
+        <v>2.9</v>
+      </c>
+      <c r="N191">
+        <v>3.1</v>
+      </c>
+      <c r="O191">
+        <v>2.6</v>
+      </c>
+      <c r="P191">
+        <v>2.5</v>
+      </c>
+      <c r="Q191">
+        <v>0.25</v>
+      </c>
+      <c r="R191">
+        <v>1.7</v>
+      </c>
+      <c r="S191">
+        <v>2.1</v>
+      </c>
+      <c r="T191">
+        <v>1.75</v>
+      </c>
+      <c r="U191">
+        <v>1.75</v>
+      </c>
+      <c r="V191">
         <v>2.05</v>
       </c>
-      <c r="L191">
-        <v>2.9</v>
-      </c>
-      <c r="M191">
-        <v>3.5</v>
-      </c>
-      <c r="N191">
-        <v>2.3</v>
-      </c>
-      <c r="O191">
-        <v>2.8</v>
-      </c>
-      <c r="P191">
-        <v>3.1</v>
-      </c>
-      <c r="Q191">
-        <v>-0.25</v>
-      </c>
-      <c r="R191">
-        <v>1.975</v>
-      </c>
-      <c r="S191">
-        <v>1.825</v>
-      </c>
-      <c r="T191">
-        <v>2.25</v>
-      </c>
-      <c r="U191">
-        <v>2</v>
-      </c>
-      <c r="V191">
-        <v>1.8</v>
-      </c>
       <c r="W191">
         <v>-1</v>
       </c>
       <c r="X191">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Y191">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z191">
-        <v>-1</v>
+        <v>0.35</v>
       </c>
       <c r="AA191">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB191">
         <v>-1</v>
       </c>
       <c r="AC191">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17541,7 +17541,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6682722</v>
+        <v>6682721</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17553,76 +17553,76 @@
         <v>45107.64583333334</v>
       </c>
       <c r="F192" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G192" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H192">
         <v>0</v>
       </c>
       <c r="I192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J192" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K192">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="L192">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="M192">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="N192">
+        <v>2.3</v>
+      </c>
+      <c r="O192">
+        <v>2.8</v>
+      </c>
+      <c r="P192">
         <v>3.1</v>
       </c>
-      <c r="O192">
-        <v>2.6</v>
-      </c>
-      <c r="P192">
-        <v>2.5</v>
-      </c>
       <c r="Q192">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R192">
-        <v>1.7</v>
+        <v>1.975</v>
       </c>
       <c r="S192">
+        <v>1.825</v>
+      </c>
+      <c r="T192">
+        <v>2.25</v>
+      </c>
+      <c r="U192">
+        <v>2</v>
+      </c>
+      <c r="V192">
+        <v>1.8</v>
+      </c>
+      <c r="W192">
+        <v>-1</v>
+      </c>
+      <c r="X192">
+        <v>-1</v>
+      </c>
+      <c r="Y192">
         <v>2.1</v>
       </c>
-      <c r="T192">
-        <v>1.75</v>
-      </c>
-      <c r="U192">
-        <v>1.75</v>
-      </c>
-      <c r="V192">
-        <v>2.05</v>
-      </c>
-      <c r="W192">
-        <v>-1</v>
-      </c>
-      <c r="X192">
-        <v>1.6</v>
-      </c>
-      <c r="Y192">
-        <v>-1</v>
-      </c>
       <c r="Z192">
-        <v>0.35</v>
+        <v>-1</v>
       </c>
       <c r="AA192">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB192">
         <v>-1</v>
       </c>
       <c r="AC192">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -18164,7 +18164,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6853128</v>
+        <v>6853139</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18176,76 +18176,76 @@
         <v>45117.60416666666</v>
       </c>
       <c r="F199" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G199" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H199">
         <v>0</v>
       </c>
       <c r="I199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J199" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K199">
-        <v>2.875</v>
+        <v>2.7</v>
       </c>
       <c r="L199">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="M199">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="N199">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="O199">
         <v>2.75</v>
       </c>
       <c r="P199">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="Q199">
         <v>0</v>
       </c>
       <c r="R199">
+        <v>1.975</v>
+      </c>
+      <c r="S199">
+        <v>1.825</v>
+      </c>
+      <c r="T199">
+        <v>2</v>
+      </c>
+      <c r="U199">
         <v>1.775</v>
       </c>
-      <c r="S199">
+      <c r="V199">
         <v>2.025</v>
       </c>
-      <c r="T199">
-        <v>2.25</v>
-      </c>
-      <c r="U199">
-        <v>1.9</v>
-      </c>
-      <c r="V199">
-        <v>1.9</v>
-      </c>
       <c r="W199">
         <v>-1</v>
       </c>
       <c r="X199">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y199">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z199">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA199">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB199">
         <v>-1</v>
       </c>
       <c r="AC199">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18253,7 +18253,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>6853140</v>
+        <v>6853128</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18265,76 +18265,76 @@
         <v>45117.60416666666</v>
       </c>
       <c r="F200" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G200" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200">
         <v>0</v>
       </c>
       <c r="J200" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K200">
-        <v>2.05</v>
+        <v>2.875</v>
       </c>
       <c r="L200">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="M200">
-        <v>3.75</v>
+        <v>2.45</v>
       </c>
       <c r="N200">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="O200">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="P200">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="Q200">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R200">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S200">
+        <v>2.025</v>
+      </c>
+      <c r="T200">
+        <v>2.25</v>
+      </c>
+      <c r="U200">
+        <v>1.9</v>
+      </c>
+      <c r="V200">
+        <v>1.9</v>
+      </c>
+      <c r="W200">
+        <v>-1</v>
+      </c>
+      <c r="X200">
         <v>1.75</v>
       </c>
-      <c r="T200">
-        <v>2</v>
-      </c>
-      <c r="U200">
-        <v>2</v>
-      </c>
-      <c r="V200">
-        <v>1.8</v>
-      </c>
-      <c r="W200">
-        <v>1</v>
-      </c>
-      <c r="X200">
-        <v>-1</v>
-      </c>
       <c r="Y200">
         <v>-1</v>
       </c>
       <c r="Z200">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AA200">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB200">
         <v>-1</v>
       </c>
       <c r="AC200">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18342,7 +18342,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6853139</v>
+        <v>6853140</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18354,76 +18354,76 @@
         <v>45117.60416666666</v>
       </c>
       <c r="F201" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G201" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I201">
+        <v>0</v>
+      </c>
+      <c r="J201" t="s">
+        <v>51</v>
+      </c>
+      <c r="K201">
+        <v>2.05</v>
+      </c>
+      <c r="L201">
+        <v>2.8</v>
+      </c>
+      <c r="M201">
+        <v>3.75</v>
+      </c>
+      <c r="N201">
+        <v>2</v>
+      </c>
+      <c r="O201">
+        <v>2.8</v>
+      </c>
+      <c r="P201">
+        <v>4</v>
+      </c>
+      <c r="Q201">
+        <v>-0.5</v>
+      </c>
+      <c r="R201">
+        <v>2.05</v>
+      </c>
+      <c r="S201">
+        <v>1.75</v>
+      </c>
+      <c r="T201">
+        <v>2</v>
+      </c>
+      <c r="U201">
+        <v>2</v>
+      </c>
+      <c r="V201">
+        <v>1.8</v>
+      </c>
+      <c r="W201">
         <v>1</v>
       </c>
-      <c r="J201" t="s">
-        <v>50</v>
-      </c>
-      <c r="K201">
-        <v>2.7</v>
-      </c>
-      <c r="L201">
-        <v>2.7</v>
-      </c>
-      <c r="M201">
-        <v>2.7</v>
-      </c>
-      <c r="N201">
-        <v>2.8</v>
-      </c>
-      <c r="O201">
-        <v>2.75</v>
-      </c>
-      <c r="P201">
-        <v>2.55</v>
-      </c>
-      <c r="Q201">
-        <v>0</v>
-      </c>
-      <c r="R201">
-        <v>1.975</v>
-      </c>
-      <c r="S201">
-        <v>1.825</v>
-      </c>
-      <c r="T201">
-        <v>2</v>
-      </c>
-      <c r="U201">
-        <v>1.775</v>
-      </c>
-      <c r="V201">
-        <v>2.025</v>
-      </c>
-      <c r="W201">
-        <v>-1</v>
-      </c>
       <c r="X201">
         <v>-1</v>
       </c>
       <c r="Y201">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z201">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA201">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB201">
         <v>-1</v>
       </c>
       <c r="AC201">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18787,7 +18787,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6853132</v>
+        <v>6853133</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18799,58 +18799,58 @@
         <v>45121.60416666666</v>
       </c>
       <c r="F206" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G206" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I206">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J206" t="s">
         <v>51</v>
       </c>
       <c r="K206">
-        <v>5.5</v>
+        <v>1.727</v>
       </c>
       <c r="L206">
         <v>3.25</v>
       </c>
       <c r="M206">
+        <v>4.5</v>
+      </c>
+      <c r="N206">
         <v>1.6</v>
       </c>
-      <c r="N206">
-        <v>4.5</v>
-      </c>
       <c r="O206">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P206">
-        <v>1.666</v>
+        <v>5.5</v>
       </c>
       <c r="Q206">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R206">
+        <v>1.975</v>
+      </c>
+      <c r="S206">
         <v>1.825</v>
       </c>
-      <c r="S206">
-        <v>1.975</v>
-      </c>
       <c r="T206">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U206">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V206">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W206">
-        <v>3.5</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X206">
         <v>-1</v>
@@ -18859,13 +18859,13 @@
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA206">
         <v>-1</v>
       </c>
       <c r="AB206">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC206">
         <v>-1</v>
@@ -19054,7 +19054,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6853133</v>
+        <v>6853132</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19066,58 +19066,58 @@
         <v>45121.60416666666</v>
       </c>
       <c r="F209" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G209" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H209">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I209">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J209" t="s">
         <v>51</v>
       </c>
       <c r="K209">
-        <v>1.727</v>
+        <v>5.5</v>
       </c>
       <c r="L209">
         <v>3.25</v>
       </c>
       <c r="M209">
+        <v>1.6</v>
+      </c>
+      <c r="N209">
         <v>4.5</v>
       </c>
-      <c r="N209">
-        <v>1.6</v>
-      </c>
       <c r="O209">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P209">
-        <v>5.5</v>
+        <v>1.666</v>
       </c>
       <c r="Q209">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R209">
+        <v>1.825</v>
+      </c>
+      <c r="S209">
         <v>1.975</v>
       </c>
-      <c r="S209">
-        <v>1.825</v>
-      </c>
       <c r="T209">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U209">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V209">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W209">
-        <v>0.6000000000000001</v>
+        <v>3.5</v>
       </c>
       <c r="X209">
         <v>-1</v>
@@ -19126,13 +19126,13 @@
         <v>-1</v>
       </c>
       <c r="Z209">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA209">
         <v>-1</v>
       </c>
       <c r="AB209">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC209">
         <v>-1</v>
@@ -22436,7 +22436,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>7217629</v>
+        <v>7217630</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22448,13 +22448,13 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F247" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G247" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H247">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I247">
         <v>1</v>
@@ -22463,43 +22463,43 @@
         <v>51</v>
       </c>
       <c r="K247">
-        <v>2.4</v>
+        <v>1.65</v>
       </c>
       <c r="L247">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="M247">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="N247">
+        <v>1.909</v>
+      </c>
+      <c r="O247">
+        <v>3.25</v>
+      </c>
+      <c r="P247">
+        <v>3.6</v>
+      </c>
+      <c r="Q247">
+        <v>-0.5</v>
+      </c>
+      <c r="R247">
+        <v>1.925</v>
+      </c>
+      <c r="S247">
+        <v>1.875</v>
+      </c>
+      <c r="T247">
         <v>2.5</v>
       </c>
-      <c r="O247">
-        <v>2.8</v>
-      </c>
-      <c r="P247">
-        <v>2.9</v>
-      </c>
-      <c r="Q247">
-        <v>0</v>
-      </c>
-      <c r="R247">
-        <v>1.8</v>
-      </c>
-      <c r="S247">
-        <v>2</v>
-      </c>
-      <c r="T247">
-        <v>2</v>
-      </c>
       <c r="U247">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V247">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W247">
-        <v>1.5</v>
+        <v>0.909</v>
       </c>
       <c r="X247">
         <v>-1</v>
@@ -22508,13 +22508,13 @@
         <v>-1</v>
       </c>
       <c r="Z247">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA247">
         <v>-1</v>
       </c>
       <c r="AB247">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC247">
         <v>-1</v>
@@ -22525,7 +22525,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>7217630</v>
+        <v>7217629</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22537,13 +22537,13 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F248" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G248" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H248">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I248">
         <v>1</v>
@@ -22552,43 +22552,43 @@
         <v>51</v>
       </c>
       <c r="K248">
-        <v>1.65</v>
+        <v>2.4</v>
       </c>
       <c r="L248">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="M248">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="N248">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="O248">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="P248">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="Q248">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R248">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S248">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T248">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U248">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V248">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W248">
-        <v>0.909</v>
+        <v>1.5</v>
       </c>
       <c r="X248">
         <v>-1</v>
@@ -22597,13 +22597,13 @@
         <v>-1</v>
       </c>
       <c r="Z248">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA248">
         <v>-1</v>
       </c>
       <c r="AB248">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC248">
         <v>-1</v>
@@ -22703,7 +22703,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>7217633</v>
+        <v>7217634</v>
       </c>
       <c r="C250" t="s">
         <v>28</v>
@@ -22715,10 +22715,10 @@
         <v>45221.54166666666</v>
       </c>
       <c r="F250" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G250" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H250">
         <v>0</v>
@@ -22730,40 +22730,40 @@
         <v>50</v>
       </c>
       <c r="K250">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="L250">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M250">
-        <v>2.9</v>
+        <v>2.05</v>
       </c>
       <c r="N250">
-        <v>1.95</v>
+        <v>5.25</v>
       </c>
       <c r="O250">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P250">
-        <v>3.8</v>
+        <v>1.727</v>
       </c>
       <c r="Q250">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R250">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S250">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T250">
         <v>2.25</v>
       </c>
       <c r="U250">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V250">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W250">
         <v>-1</v>
@@ -22772,19 +22772,19 @@
         <v>-1</v>
       </c>
       <c r="Y250">
-        <v>2.8</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z250">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA250">
-        <v>0.8</v>
+        <v>0.4875</v>
       </c>
       <c r="AB250">
         <v>-1</v>
       </c>
       <c r="AC250">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="251" spans="1:29">
@@ -22792,7 +22792,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>7217634</v>
+        <v>7217633</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22804,10 +22804,10 @@
         <v>45221.54166666666</v>
       </c>
       <c r="F251" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G251" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H251">
         <v>0</v>
@@ -22819,40 +22819,40 @@
         <v>50</v>
       </c>
       <c r="K251">
+        <v>2.5</v>
+      </c>
+      <c r="L251">
+        <v>2.875</v>
+      </c>
+      <c r="M251">
+        <v>2.9</v>
+      </c>
+      <c r="N251">
+        <v>1.95</v>
+      </c>
+      <c r="O251">
+        <v>3.1</v>
+      </c>
+      <c r="P251">
         <v>3.8</v>
       </c>
-      <c r="L251">
-        <v>2.9</v>
-      </c>
-      <c r="M251">
-        <v>2.05</v>
-      </c>
-      <c r="N251">
-        <v>5.25</v>
-      </c>
-      <c r="O251">
-        <v>3.2</v>
-      </c>
-      <c r="P251">
-        <v>1.727</v>
-      </c>
       <c r="Q251">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R251">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S251">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T251">
         <v>2.25</v>
       </c>
       <c r="U251">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V251">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W251">
         <v>-1</v>
@@ -22861,19 +22861,19 @@
         <v>-1</v>
       </c>
       <c r="Y251">
-        <v>0.7270000000000001</v>
+        <v>2.8</v>
       </c>
       <c r="Z251">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA251">
-        <v>0.4875</v>
+        <v>0.8</v>
       </c>
       <c r="AB251">
         <v>-1</v>
       </c>
       <c r="AC251">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="252" spans="1:29">
@@ -23949,7 +23949,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>7217650</v>
+        <v>7217649</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -23961,73 +23961,73 @@
         <v>45234.58333333334</v>
       </c>
       <c r="F264" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="G264" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H264">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I264">
         <v>2</v>
       </c>
       <c r="J264" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K264">
-        <v>2.55</v>
+        <v>7.5</v>
       </c>
       <c r="L264">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M264">
-        <v>2.6</v>
+        <v>1.363</v>
       </c>
       <c r="N264">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="O264">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="P264">
-        <v>2.625</v>
+        <v>1.5</v>
       </c>
       <c r="Q264">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R264">
+        <v>1.875</v>
+      </c>
+      <c r="S264">
         <v>1.925</v>
       </c>
-      <c r="S264">
+      <c r="T264">
+        <v>2.25</v>
+      </c>
+      <c r="U264">
         <v>1.875</v>
       </c>
-      <c r="T264">
-        <v>2</v>
-      </c>
-      <c r="U264">
+      <c r="V264">
         <v>1.925</v>
       </c>
-      <c r="V264">
-        <v>1.875</v>
-      </c>
       <c r="W264">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X264">
         <v>-1</v>
       </c>
       <c r="Y264">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z264">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA264">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB264">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC264">
         <v>-1</v>
@@ -24038,7 +24038,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>7217649</v>
+        <v>7217650</v>
       </c>
       <c r="C265" t="s">
         <v>28</v>
@@ -24050,73 +24050,73 @@
         <v>45234.58333333334</v>
       </c>
       <c r="F265" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="G265" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H265">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I265">
         <v>2</v>
       </c>
       <c r="J265" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K265">
-        <v>7.5</v>
+        <v>2.55</v>
       </c>
       <c r="L265">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M265">
-        <v>1.363</v>
+        <v>2.6</v>
       </c>
       <c r="N265">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="O265">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="P265">
-        <v>1.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q265">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R265">
+        <v>1.925</v>
+      </c>
+      <c r="S265">
         <v>1.875</v>
       </c>
-      <c r="S265">
+      <c r="T265">
+        <v>2</v>
+      </c>
+      <c r="U265">
         <v>1.925</v>
       </c>
-      <c r="T265">
-        <v>2.25</v>
-      </c>
-      <c r="U265">
+      <c r="V265">
         <v>1.875</v>
       </c>
-      <c r="V265">
-        <v>1.925</v>
-      </c>
       <c r="W265">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X265">
         <v>-1</v>
       </c>
       <c r="Y265">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z265">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA265">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB265">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC265">
         <v>-1</v>
@@ -24127,7 +24127,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>7217651</v>
+        <v>7217652</v>
       </c>
       <c r="C266" t="s">
         <v>28</v>
@@ -24139,55 +24139,55 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F266" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G266" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J266" t="s">
         <v>50</v>
       </c>
       <c r="K266">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L266">
         <v>2.9</v>
       </c>
       <c r="M266">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N266">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="O266">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="P266">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Q266">
         <v>-0.25</v>
       </c>
       <c r="R266">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S266">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="T266">
         <v>2</v>
       </c>
       <c r="U266">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V266">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W266">
         <v>-1</v>
@@ -24196,19 +24196,19 @@
         <v>-1</v>
       </c>
       <c r="Y266">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="Z266">
         <v>-1</v>
       </c>
       <c r="AA266">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="AB266">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC266">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="267" spans="1:29">
@@ -24216,7 +24216,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>7217652</v>
+        <v>7217651</v>
       </c>
       <c r="C267" t="s">
         <v>28</v>
@@ -24228,55 +24228,55 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F267" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G267" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J267" t="s">
         <v>50</v>
       </c>
       <c r="K267">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L267">
         <v>2.9</v>
       </c>
       <c r="M267">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N267">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="O267">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="P267">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="Q267">
         <v>-0.25</v>
       </c>
       <c r="R267">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S267">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="T267">
         <v>2</v>
       </c>
       <c r="U267">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V267">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W267">
         <v>-1</v>
@@ -24285,19 +24285,19 @@
         <v>-1</v>
       </c>
       <c r="Y267">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="Z267">
         <v>-1</v>
       </c>
       <c r="AA267">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="AB267">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC267">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="268" spans="1:29">
@@ -25106,7 +25106,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>7217660</v>
+        <v>7217661</v>
       </c>
       <c r="C277" t="s">
         <v>28</v>
@@ -25118,34 +25118,34 @@
         <v>45261.45833333334</v>
       </c>
       <c r="F277" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G277" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J277" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K277">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="L277">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M277">
         <v>2.5</v>
       </c>
       <c r="N277">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="O277">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="P277">
         <v>2.6</v>
@@ -25154,10 +25154,10 @@
         <v>0</v>
       </c>
       <c r="R277">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S277">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T277">
         <v>2.25</v>
@@ -25169,25 +25169,25 @@
         <v>1.775</v>
       </c>
       <c r="W277">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X277">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y277">
         <v>-1</v>
       </c>
       <c r="Z277">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA277">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB277">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC277">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="278" spans="1:29">
@@ -25195,7 +25195,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>7217661</v>
+        <v>7217660</v>
       </c>
       <c r="C278" t="s">
         <v>28</v>
@@ -25207,34 +25207,34 @@
         <v>45261.45833333334</v>
       </c>
       <c r="F278" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G278" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J278" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K278">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="L278">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M278">
         <v>2.5</v>
       </c>
       <c r="N278">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="O278">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P278">
         <v>2.6</v>
@@ -25243,10 +25243,10 @@
         <v>0</v>
       </c>
       <c r="R278">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S278">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T278">
         <v>2.25</v>
@@ -25258,25 +25258,25 @@
         <v>1.775</v>
       </c>
       <c r="W278">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X278">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y278">
         <v>-1</v>
       </c>
       <c r="Z278">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA278">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB278">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC278">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="279" spans="1:29">
@@ -25996,7 +25996,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>7217677</v>
+        <v>7217680</v>
       </c>
       <c r="C287" t="s">
         <v>28</v>
@@ -26008,76 +26008,76 @@
         <v>45274.58333333334</v>
       </c>
       <c r="F287" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G287" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I287">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J287" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K287">
-        <v>1.25</v>
+        <v>2.3</v>
       </c>
       <c r="L287">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M287">
-        <v>9</v>
+        <v>2.875</v>
       </c>
       <c r="N287">
-        <v>1.166</v>
+        <v>2.875</v>
       </c>
       <c r="O287">
-        <v>7</v>
+        <v>3.2</v>
       </c>
       <c r="P287">
-        <v>11</v>
+        <v>2.375</v>
       </c>
       <c r="Q287">
-        <v>-2</v>
+        <v>0.25</v>
       </c>
       <c r="R287">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S287">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T287">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U287">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V287">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W287">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X287">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Y287">
         <v>-1</v>
       </c>
       <c r="Z287">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA287">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB287">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC287">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="288" spans="1:29">
@@ -26085,7 +26085,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>7217680</v>
+        <v>7217677</v>
       </c>
       <c r="C288" t="s">
         <v>28</v>
@@ -26097,76 +26097,76 @@
         <v>45274.58333333334</v>
       </c>
       <c r="F288" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G288" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H288">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I288">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J288" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K288">
-        <v>2.3</v>
+        <v>1.25</v>
       </c>
       <c r="L288">
+        <v>5</v>
+      </c>
+      <c r="M288">
+        <v>9</v>
+      </c>
+      <c r="N288">
+        <v>1.166</v>
+      </c>
+      <c r="O288">
+        <v>7</v>
+      </c>
+      <c r="P288">
+        <v>11</v>
+      </c>
+      <c r="Q288">
+        <v>-2</v>
+      </c>
+      <c r="R288">
+        <v>1.95</v>
+      </c>
+      <c r="S288">
+        <v>1.85</v>
+      </c>
+      <c r="T288">
         <v>3</v>
       </c>
-      <c r="M288">
-        <v>2.875</v>
-      </c>
-      <c r="N288">
-        <v>2.875</v>
-      </c>
-      <c r="O288">
-        <v>3.2</v>
-      </c>
-      <c r="P288">
-        <v>2.375</v>
-      </c>
-      <c r="Q288">
-        <v>0.25</v>
-      </c>
-      <c r="R288">
-        <v>1.75</v>
-      </c>
-      <c r="S288">
-        <v>2.05</v>
-      </c>
-      <c r="T288">
-        <v>2.5</v>
-      </c>
       <c r="U288">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V288">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W288">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X288">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y288">
         <v>-1</v>
       </c>
       <c r="Z288">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA288">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB288">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC288">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="289" spans="1:29">
@@ -26263,7 +26263,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>7549591</v>
+        <v>7549592</v>
       </c>
       <c r="C290" t="s">
         <v>28</v>
@@ -26275,10 +26275,10 @@
         <v>45275.54166666666</v>
       </c>
       <c r="F290" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G290" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="H290">
         <v>1</v>
@@ -26290,40 +26290,40 @@
         <v>50</v>
       </c>
       <c r="K290">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="L290">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="M290">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="N290">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="O290">
         <v>2.75</v>
       </c>
       <c r="P290">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="Q290">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R290">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="S290">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="T290">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U290">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V290">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W290">
         <v>-1</v>
@@ -26332,16 +26332,16 @@
         <v>-1</v>
       </c>
       <c r="Y290">
-        <v>1.45</v>
+        <v>2.5</v>
       </c>
       <c r="Z290">
         <v>-1</v>
       </c>
       <c r="AA290">
-        <v>0.7250000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB290">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC290">
         <v>-1</v>
@@ -26352,7 +26352,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>7549592</v>
+        <v>7549591</v>
       </c>
       <c r="C291" t="s">
         <v>28</v>
@@ -26364,10 +26364,10 @@
         <v>45275.54166666666</v>
       </c>
       <c r="F291" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G291" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H291">
         <v>1</v>
@@ -26379,40 +26379,40 @@
         <v>50</v>
       </c>
       <c r="K291">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="L291">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="M291">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="N291">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="O291">
         <v>2.75</v>
       </c>
       <c r="P291">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q291">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R291">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="S291">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="T291">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U291">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V291">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W291">
         <v>-1</v>
@@ -26421,16 +26421,16 @@
         <v>-1</v>
       </c>
       <c r="Y291">
-        <v>2.5</v>
+        <v>1.45</v>
       </c>
       <c r="Z291">
         <v>-1</v>
       </c>
       <c r="AA291">
-        <v>0.8999999999999999</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB291">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC291">
         <v>-1</v>
@@ -27064,7 +27064,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>7217691</v>
+        <v>7217692</v>
       </c>
       <c r="C299" t="s">
         <v>28</v>
@@ -27076,13 +27076,13 @@
         <v>45290.58333333334</v>
       </c>
       <c r="F299" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G299" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H299">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I299">
         <v>0</v>
@@ -27091,43 +27091,43 @@
         <v>51</v>
       </c>
       <c r="K299">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="L299">
+        <v>2.9</v>
+      </c>
+      <c r="M299">
+        <v>2.4</v>
+      </c>
+      <c r="N299">
         <v>2.8</v>
       </c>
-      <c r="M299">
-        <v>3.6</v>
-      </c>
-      <c r="N299">
-        <v>1.85</v>
-      </c>
       <c r="O299">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P299">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="Q299">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R299">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S299">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T299">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U299">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V299">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W299">
-        <v>0.8500000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="X299">
         <v>-1</v>
@@ -27136,16 +27136,16 @@
         <v>-1</v>
       </c>
       <c r="Z299">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA299">
         <v>-1</v>
       </c>
       <c r="AB299">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC299">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="300" spans="1:29">
@@ -27153,7 +27153,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>7217692</v>
+        <v>7217691</v>
       </c>
       <c r="C300" t="s">
         <v>28</v>
@@ -27165,13 +27165,13 @@
         <v>45290.58333333334</v>
       </c>
       <c r="F300" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G300" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H300">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I300">
         <v>0</v>
@@ -27180,43 +27180,43 @@
         <v>51</v>
       </c>
       <c r="K300">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="L300">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="M300">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="N300">
-        <v>2.8</v>
+        <v>1.85</v>
       </c>
       <c r="O300">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P300">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q300">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R300">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S300">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T300">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U300">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V300">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W300">
-        <v>1.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X300">
         <v>-1</v>
@@ -27225,16 +27225,16 @@
         <v>-1</v>
       </c>
       <c r="Z300">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA300">
         <v>-1</v>
       </c>
       <c r="AB300">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC300">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="301" spans="1:29">

--- a/Egypt Division 1/Egypt Division 1.xlsx
+++ b/Egypt Division 1/Egypt Division 1.xlsx
@@ -2233,7 +2233,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5774059</v>
+        <v>5774058</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2245,73 +2245,73 @@
         <v>44937.40625</v>
       </c>
       <c r="F20" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K20">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="L20">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="M20">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="N20">
-        <v>2.55</v>
+        <v>4.2</v>
       </c>
       <c r="O20">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="P20">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R20">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="S20">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T20">
         <v>2</v>
       </c>
       <c r="U20">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V20">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="W20">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X20">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y20">
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="AA20">
         <v>-1</v>
       </c>
       <c r="AB20">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AC20">
         <v>-1</v>
@@ -2322,7 +2322,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5774058</v>
+        <v>5774059</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2334,73 +2334,73 @@
         <v>44937.40625</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G21" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21" t="s">
+        <v>51</v>
+      </c>
+      <c r="K21">
+        <v>2.375</v>
+      </c>
+      <c r="L21">
+        <v>2.625</v>
+      </c>
+      <c r="M21">
+        <v>3.2</v>
+      </c>
+      <c r="N21">
+        <v>2.55</v>
+      </c>
+      <c r="O21">
+        <v>2.55</v>
+      </c>
+      <c r="P21">
         <v>3</v>
       </c>
-      <c r="I21">
-        <v>3</v>
-      </c>
-      <c r="J21" t="s">
-        <v>52</v>
-      </c>
-      <c r="K21">
-        <v>4</v>
-      </c>
-      <c r="L21">
-        <v>2.8</v>
-      </c>
-      <c r="M21">
-        <v>2</v>
-      </c>
-      <c r="N21">
-        <v>4.2</v>
-      </c>
-      <c r="O21">
-        <v>2.8</v>
-      </c>
-      <c r="P21">
-        <v>1.909</v>
-      </c>
       <c r="Q21">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R21">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="S21">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T21">
         <v>2</v>
       </c>
       <c r="U21">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V21">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="W21">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X21">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="AA21">
         <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AC21">
         <v>-1</v>
@@ -2411,7 +2411,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6117225</v>
+        <v>5774686</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2423,76 +2423,76 @@
         <v>44937.58333333334</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
         <v>52</v>
       </c>
       <c r="K22">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="L22">
+        <v>3.2</v>
+      </c>
+      <c r="M22">
+        <v>1.95</v>
+      </c>
+      <c r="N22">
+        <v>3.4</v>
+      </c>
+      <c r="O22">
         <v>3</v>
       </c>
-      <c r="M22">
-        <v>1.909</v>
-      </c>
-      <c r="N22">
-        <v>3.8</v>
-      </c>
-      <c r="O22">
-        <v>2.875</v>
-      </c>
       <c r="P22">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="Q22">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R22">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S22">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T22">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U22">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V22">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="Y22">
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>0.75</v>
+        <v>0.45</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2500,7 +2500,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5774686</v>
+        <v>6117225</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2512,76 +2512,76 @@
         <v>44937.58333333334</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
         <v>52</v>
       </c>
       <c r="K23">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="L23">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M23">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="N23">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="O23">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P23">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="Q23">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R23">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S23">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T23">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U23">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V23">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="Y23">
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0.45</v>
+        <v>0.75</v>
       </c>
       <c r="AA23">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC23">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -3924,7 +3924,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>5774068</v>
+        <v>5774694</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3936,76 +3936,76 @@
         <v>44949.40625</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G39" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H39">
         <v>0</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K39">
+        <v>2.75</v>
+      </c>
+      <c r="L39">
+        <v>2.8</v>
+      </c>
+      <c r="M39">
+        <v>2.625</v>
+      </c>
+      <c r="N39">
+        <v>3.1</v>
+      </c>
+      <c r="O39">
         <v>2.7</v>
       </c>
-      <c r="L39">
-        <v>2.75</v>
-      </c>
-      <c r="M39">
-        <v>2.75</v>
-      </c>
-      <c r="N39">
-        <v>2.4</v>
-      </c>
-      <c r="O39">
-        <v>2.75</v>
-      </c>
       <c r="P39">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="Q39">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R39">
-        <v>2.025</v>
+        <v>1.7</v>
       </c>
       <c r="S39">
-        <v>1.775</v>
+        <v>2.1</v>
       </c>
       <c r="T39">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U39">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V39">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W39">
         <v>-1</v>
       </c>
       <c r="X39">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z39">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>0.3875</v>
+        <v>1.1</v>
       </c>
       <c r="AB39">
         <v>-1</v>
       </c>
       <c r="AC39">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4013,7 +4013,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>5774694</v>
+        <v>5774068</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4025,76 +4025,76 @@
         <v>44949.40625</v>
       </c>
       <c r="F40" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G40" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H40">
         <v>0</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K40">
+        <v>2.7</v>
+      </c>
+      <c r="L40">
         <v>2.75</v>
       </c>
-      <c r="L40">
-        <v>2.8</v>
-      </c>
       <c r="M40">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="N40">
+        <v>2.4</v>
+      </c>
+      <c r="O40">
+        <v>2.75</v>
+      </c>
+      <c r="P40">
         <v>3.1</v>
       </c>
-      <c r="O40">
-        <v>2.7</v>
-      </c>
-      <c r="P40">
-        <v>2.5</v>
-      </c>
       <c r="Q40">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R40">
-        <v>1.7</v>
+        <v>2.025</v>
       </c>
       <c r="S40">
-        <v>2.1</v>
+        <v>1.775</v>
       </c>
       <c r="T40">
+        <v>2</v>
+      </c>
+      <c r="U40">
+        <v>1.925</v>
+      </c>
+      <c r="V40">
+        <v>1.875</v>
+      </c>
+      <c r="W40">
+        <v>-1</v>
+      </c>
+      <c r="X40">
         <v>1.75</v>
       </c>
-      <c r="U40">
-        <v>1.825</v>
-      </c>
-      <c r="V40">
-        <v>1.975</v>
-      </c>
-      <c r="W40">
-        <v>-1</v>
-      </c>
-      <c r="X40">
-        <v>-1</v>
-      </c>
       <c r="Y40">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA40">
-        <v>1.1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB40">
         <v>-1</v>
       </c>
       <c r="AC40">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4102,7 +4102,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>5774070</v>
+        <v>5774069</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4114,76 +4114,76 @@
         <v>44949.58333333334</v>
       </c>
       <c r="F41" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G41" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K41">
-        <v>1.727</v>
+        <v>2.05</v>
       </c>
       <c r="L41">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M41">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="N41">
-        <v>1.65</v>
+        <v>2.05</v>
       </c>
       <c r="O41">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P41">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q41">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R41">
+        <v>1.85</v>
+      </c>
+      <c r="S41">
         <v>1.95</v>
       </c>
-      <c r="S41">
-        <v>1.85</v>
-      </c>
       <c r="T41">
         <v>2</v>
       </c>
       <c r="U41">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V41">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W41">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X41">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y41">
         <v>-1</v>
       </c>
       <c r="Z41">
+        <v>-0.5</v>
+      </c>
+      <c r="AA41">
         <v>0.475</v>
       </c>
-      <c r="AA41">
-        <v>-0.5</v>
-      </c>
       <c r="AB41">
         <v>-1</v>
       </c>
       <c r="AC41">
-        <v>1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4191,7 +4191,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>5774069</v>
+        <v>5774070</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4203,76 +4203,76 @@
         <v>44949.58333333334</v>
       </c>
       <c r="F42" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K42">
-        <v>2.05</v>
+        <v>1.727</v>
       </c>
       <c r="L42">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M42">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="N42">
-        <v>2.05</v>
+        <v>1.65</v>
       </c>
       <c r="O42">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="P42">
-        <v>3.6</v>
+        <v>5.75</v>
       </c>
       <c r="Q42">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R42">
+        <v>1.95</v>
+      </c>
+      <c r="S42">
         <v>1.85</v>
       </c>
-      <c r="S42">
-        <v>1.95</v>
-      </c>
       <c r="T42">
         <v>2</v>
       </c>
       <c r="U42">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V42">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W42">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X42">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y42">
         <v>-1</v>
       </c>
       <c r="Z42">
+        <v>0.475</v>
+      </c>
+      <c r="AA42">
         <v>-0.5</v>
       </c>
-      <c r="AA42">
-        <v>0.475</v>
-      </c>
       <c r="AB42">
         <v>-1</v>
       </c>
       <c r="AC42">
-        <v>1.025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -9086,7 +9086,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6436239</v>
+        <v>6441121</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9098,73 +9098,73 @@
         <v>45015.67708333334</v>
       </c>
       <c r="F97" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G97" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97">
+        <v>3</v>
+      </c>
+      <c r="J97" t="s">
+        <v>50</v>
+      </c>
+      <c r="K97">
+        <v>2.3</v>
+      </c>
+      <c r="L97">
+        <v>2.625</v>
+      </c>
+      <c r="M97">
+        <v>3.5</v>
+      </c>
+      <c r="N97">
+        <v>2.25</v>
+      </c>
+      <c r="O97">
+        <v>2.75</v>
+      </c>
+      <c r="P97">
+        <v>3.4</v>
+      </c>
+      <c r="Q97">
+        <v>-0.25</v>
+      </c>
+      <c r="R97">
+        <v>2.025</v>
+      </c>
+      <c r="S97">
+        <v>1.775</v>
+      </c>
+      <c r="T97">
+        <v>2</v>
+      </c>
+      <c r="U97">
+        <v>2</v>
+      </c>
+      <c r="V97">
+        <v>1.8</v>
+      </c>
+      <c r="W97">
+        <v>-1</v>
+      </c>
+      <c r="X97">
+        <v>-1</v>
+      </c>
+      <c r="Y97">
+        <v>2.4</v>
+      </c>
+      <c r="Z97">
+        <v>-1</v>
+      </c>
+      <c r="AA97">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB97">
         <v>1</v>
-      </c>
-      <c r="J97" t="s">
-        <v>51</v>
-      </c>
-      <c r="K97">
-        <v>2.5</v>
-      </c>
-      <c r="L97">
-        <v>2.875</v>
-      </c>
-      <c r="M97">
-        <v>2.8</v>
-      </c>
-      <c r="N97">
-        <v>2.7</v>
-      </c>
-      <c r="O97">
-        <v>2.625</v>
-      </c>
-      <c r="P97">
-        <v>2.8</v>
-      </c>
-      <c r="Q97">
-        <v>0</v>
-      </c>
-      <c r="R97">
-        <v>1.85</v>
-      </c>
-      <c r="S97">
-        <v>1.95</v>
-      </c>
-      <c r="T97">
-        <v>1.75</v>
-      </c>
-      <c r="U97">
-        <v>1.75</v>
-      </c>
-      <c r="V97">
-        <v>2.05</v>
-      </c>
-      <c r="W97">
-        <v>1.7</v>
-      </c>
-      <c r="X97">
-        <v>-1</v>
-      </c>
-      <c r="Y97">
-        <v>-1</v>
-      </c>
-      <c r="Z97">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA97">
-        <v>-1</v>
-      </c>
-      <c r="AB97">
-        <v>0.75</v>
       </c>
       <c r="AC97">
         <v>-1</v>
@@ -9175,7 +9175,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6441121</v>
+        <v>6441342</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9187,76 +9187,76 @@
         <v>45015.67708333334</v>
       </c>
       <c r="F98" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G98" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K98">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="L98">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="M98">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="N98">
+        <v>2.6</v>
+      </c>
+      <c r="O98">
+        <v>2.7</v>
+      </c>
+      <c r="P98">
+        <v>2.875</v>
+      </c>
+      <c r="Q98">
+        <v>0</v>
+      </c>
+      <c r="R98">
+        <v>1.85</v>
+      </c>
+      <c r="S98">
+        <v>1.95</v>
+      </c>
+      <c r="T98">
         <v>2.25</v>
       </c>
-      <c r="O98">
-        <v>2.75</v>
-      </c>
-      <c r="P98">
-        <v>3.4</v>
-      </c>
-      <c r="Q98">
-        <v>-0.25</v>
-      </c>
-      <c r="R98">
+      <c r="U98">
         <v>2.025</v>
       </c>
-      <c r="S98">
+      <c r="V98">
         <v>1.775</v>
       </c>
-      <c r="T98">
-        <v>2</v>
-      </c>
-      <c r="U98">
-        <v>2</v>
-      </c>
-      <c r="V98">
-        <v>1.8</v>
-      </c>
       <c r="W98">
         <v>-1</v>
       </c>
       <c r="X98">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y98">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA98">
+        <v>-0</v>
+      </c>
+      <c r="AB98">
+        <v>-1</v>
+      </c>
+      <c r="AC98">
         <v>0.7749999999999999</v>
-      </c>
-      <c r="AB98">
-        <v>1</v>
-      </c>
-      <c r="AC98">
-        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9264,7 +9264,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6441342</v>
+        <v>6436239</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9276,37 +9276,37 @@
         <v>45015.67708333334</v>
       </c>
       <c r="F99" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G99" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K99">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="L99">
+        <v>2.875</v>
+      </c>
+      <c r="M99">
         <v>2.8</v>
       </c>
-      <c r="M99">
-        <v>3.1</v>
-      </c>
       <c r="N99">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="O99">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="P99">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="Q99">
         <v>0</v>
@@ -9318,34 +9318,34 @@
         <v>1.95</v>
       </c>
       <c r="T99">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U99">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="V99">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="W99">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X99">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y99">
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA99">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC99">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9531,7 +9531,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6467348</v>
+        <v>6451732</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9543,76 +9543,76 @@
         <v>45019.67708333334</v>
       </c>
       <c r="F102" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G102" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102">
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K102">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="L102">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="M102">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="N102">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="O102">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="P102">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="Q102">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R102">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S102">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T102">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U102">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V102">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W102">
         <v>-1</v>
       </c>
       <c r="X102">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y102">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z102">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA102">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AB102">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC102">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9620,7 +9620,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6451732</v>
+        <v>6467348</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9632,76 +9632,76 @@
         <v>45019.67708333334</v>
       </c>
       <c r="F103" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G103" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103">
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K103">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="L103">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="M103">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="N103">
+        <v>3.2</v>
+      </c>
+      <c r="O103">
         <v>2.9</v>
       </c>
-      <c r="O103">
-        <v>2.75</v>
-      </c>
       <c r="P103">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="Q103">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R103">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S103">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T103">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U103">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V103">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W103">
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y103">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA103">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC103">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9709,7 +9709,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6471793</v>
+        <v>6445815</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9721,76 +9721,76 @@
         <v>45020.67708333334</v>
       </c>
       <c r="F104" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G104" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K104">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="L104">
+        <v>2.75</v>
+      </c>
+      <c r="M104">
         <v>2.625</v>
       </c>
-      <c r="M104">
-        <v>3</v>
-      </c>
       <c r="N104">
+        <v>2.6</v>
+      </c>
+      <c r="O104">
+        <v>2.8</v>
+      </c>
+      <c r="P104">
         <v>2.875</v>
       </c>
-      <c r="O104">
-        <v>2.625</v>
-      </c>
-      <c r="P104">
-        <v>2.625</v>
-      </c>
       <c r="Q104">
         <v>0</v>
       </c>
       <c r="R104">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S104">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T104">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U104">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V104">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W104">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X104">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA104">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC104">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9887,7 +9887,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6445815</v>
+        <v>6471793</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9899,76 +9899,76 @@
         <v>45020.67708333334</v>
       </c>
       <c r="F106" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G106" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106" t="s">
+        <v>52</v>
+      </c>
+      <c r="K106">
+        <v>2.55</v>
+      </c>
+      <c r="L106">
+        <v>2.625</v>
+      </c>
+      <c r="M106">
         <v>3</v>
       </c>
-      <c r="I106">
-        <v>2</v>
-      </c>
-      <c r="J106" t="s">
-        <v>51</v>
-      </c>
-      <c r="K106">
-        <v>2.7</v>
-      </c>
-      <c r="L106">
-        <v>2.75</v>
-      </c>
-      <c r="M106">
+      <c r="N106">
+        <v>2.875</v>
+      </c>
+      <c r="O106">
         <v>2.625</v>
       </c>
-      <c r="N106">
-        <v>2.6</v>
-      </c>
-      <c r="O106">
-        <v>2.8</v>
-      </c>
       <c r="P106">
-        <v>2.875</v>
+        <v>2.625</v>
       </c>
       <c r="Q106">
         <v>0</v>
       </c>
       <c r="R106">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S106">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T106">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U106">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V106">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W106">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X106">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA106">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB106">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC106">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9976,7 +9976,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6471794</v>
+        <v>6451733</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9988,76 +9988,76 @@
         <v>45021.67708333334</v>
       </c>
       <c r="F107" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G107" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107" t="s">
+        <v>52</v>
+      </c>
+      <c r="K107">
+        <v>4.2</v>
+      </c>
+      <c r="L107">
         <v>3</v>
       </c>
-      <c r="I107">
-        <v>0</v>
-      </c>
-      <c r="J107" t="s">
-        <v>51</v>
-      </c>
-      <c r="K107">
-        <v>1.222</v>
-      </c>
-      <c r="L107">
-        <v>5.25</v>
-      </c>
       <c r="M107">
-        <v>10</v>
+        <v>1.85</v>
       </c>
       <c r="N107">
-        <v>1.222</v>
+        <v>3.4</v>
       </c>
       <c r="O107">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="P107">
-        <v>10</v>
+        <v>2.15</v>
       </c>
       <c r="Q107">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R107">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S107">
+        <v>1.925</v>
+      </c>
+      <c r="T107">
+        <v>2</v>
+      </c>
+      <c r="U107">
+        <v>1.875</v>
+      </c>
+      <c r="V107">
+        <v>1.925</v>
+      </c>
+      <c r="W107">
+        <v>-1</v>
+      </c>
+      <c r="X107">
         <v>1.8</v>
       </c>
-      <c r="T107">
-        <v>2.75</v>
-      </c>
-      <c r="U107">
-        <v>1.975</v>
-      </c>
-      <c r="V107">
-        <v>1.825</v>
-      </c>
-      <c r="W107">
-        <v>0.222</v>
-      </c>
-      <c r="X107">
-        <v>-1</v>
-      </c>
       <c r="Y107">
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA107">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB107">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC107">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10065,7 +10065,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6451733</v>
+        <v>6471794</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10077,76 +10077,76 @@
         <v>45021.67708333334</v>
       </c>
       <c r="F108" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G108" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I108">
         <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K108">
-        <v>4.2</v>
+        <v>1.222</v>
       </c>
       <c r="L108">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="M108">
-        <v>1.85</v>
+        <v>10</v>
       </c>
       <c r="N108">
-        <v>3.4</v>
+        <v>1.222</v>
       </c>
       <c r="O108">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="P108">
-        <v>2.15</v>
+        <v>10</v>
       </c>
       <c r="Q108">
-        <v>0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R108">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S108">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T108">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U108">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V108">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W108">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X108">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y108">
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>0.4375</v>
+        <v>1</v>
       </c>
       <c r="AA108">
+        <v>-1</v>
+      </c>
+      <c r="AB108">
+        <v>0.4875</v>
+      </c>
+      <c r="AC108">
         <v>-0.5</v>
-      </c>
-      <c r="AB108">
-        <v>-1</v>
-      </c>
-      <c r="AC108">
-        <v>0.925</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10777,7 +10777,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6484222</v>
+        <v>6471800</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10789,76 +10789,76 @@
         <v>45028.67708333334</v>
       </c>
       <c r="F116" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G116" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H116">
         <v>0</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K116">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="L116">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M116">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="N116">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="O116">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="P116">
-        <v>1.95</v>
+        <v>1.6</v>
       </c>
       <c r="Q116">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R116">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S116">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T116">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U116">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V116">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W116">
         <v>-1</v>
       </c>
       <c r="X116">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y116">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z116">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA116">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB116">
         <v>-1</v>
       </c>
       <c r="AC116">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10866,7 +10866,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6471800</v>
+        <v>6484222</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10878,76 +10878,76 @@
         <v>45028.67708333334</v>
       </c>
       <c r="F117" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G117" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H117">
         <v>0</v>
       </c>
       <c r="I117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K117">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="L117">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M117">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="N117">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="O117">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="P117">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="Q117">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R117">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S117">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T117">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U117">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V117">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y117">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA117">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB117">
         <v>-1</v>
       </c>
       <c r="AC117">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10955,7 +10955,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6484223</v>
+        <v>6471699</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10967,73 +10967,73 @@
         <v>45029.67708333334</v>
       </c>
       <c r="F118" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G118" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
         <v>3</v>
       </c>
-      <c r="I118">
+      <c r="J118" t="s">
+        <v>50</v>
+      </c>
+      <c r="K118">
+        <v>4.2</v>
+      </c>
+      <c r="L118">
+        <v>3</v>
+      </c>
+      <c r="M118">
+        <v>1.833</v>
+      </c>
+      <c r="N118">
+        <v>5</v>
+      </c>
+      <c r="O118">
+        <v>3</v>
+      </c>
+      <c r="P118">
+        <v>1.7</v>
+      </c>
+      <c r="Q118">
+        <v>0.75</v>
+      </c>
+      <c r="R118">
+        <v>1.8</v>
+      </c>
+      <c r="S118">
+        <v>2</v>
+      </c>
+      <c r="T118">
+        <v>2</v>
+      </c>
+      <c r="U118">
+        <v>1.825</v>
+      </c>
+      <c r="V118">
+        <v>1.975</v>
+      </c>
+      <c r="W118">
+        <v>-1</v>
+      </c>
+      <c r="X118">
+        <v>-1</v>
+      </c>
+      <c r="Y118">
+        <v>0.7</v>
+      </c>
+      <c r="Z118">
+        <v>-1</v>
+      </c>
+      <c r="AA118">
         <v>1</v>
       </c>
-      <c r="J118" t="s">
-        <v>51</v>
-      </c>
-      <c r="K118">
-        <v>2.875</v>
-      </c>
-      <c r="L118">
-        <v>2.75</v>
-      </c>
-      <c r="M118">
-        <v>2.5</v>
-      </c>
-      <c r="N118">
-        <v>2.375</v>
-      </c>
-      <c r="O118">
-        <v>2.7</v>
-      </c>
-      <c r="P118">
-        <v>3.1</v>
-      </c>
-      <c r="Q118">
-        <v>-0.25</v>
-      </c>
-      <c r="R118">
-        <v>2</v>
-      </c>
-      <c r="S118">
-        <v>1.8</v>
-      </c>
-      <c r="T118">
-        <v>1.75</v>
-      </c>
-      <c r="U118">
-        <v>1.75</v>
-      </c>
-      <c r="V118">
-        <v>2.05</v>
-      </c>
-      <c r="W118">
-        <v>1.375</v>
-      </c>
-      <c r="X118">
-        <v>-1</v>
-      </c>
-      <c r="Y118">
-        <v>-1</v>
-      </c>
-      <c r="Z118">
-        <v>1</v>
-      </c>
-      <c r="AA118">
-        <v>-1</v>
-      </c>
       <c r="AB118">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="AC118">
         <v>-1</v>
@@ -11044,7 +11044,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6471699</v>
+        <v>6484223</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11056,73 +11056,73 @@
         <v>45029.67708333334</v>
       </c>
       <c r="F119" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G119" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I119">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K119">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="L119">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="M119">
-        <v>1.833</v>
+        <v>2.5</v>
       </c>
       <c r="N119">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="O119">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="P119">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="Q119">
+        <v>-0.25</v>
+      </c>
+      <c r="R119">
+        <v>2</v>
+      </c>
+      <c r="S119">
+        <v>1.8</v>
+      </c>
+      <c r="T119">
+        <v>1.75</v>
+      </c>
+      <c r="U119">
+        <v>1.75</v>
+      </c>
+      <c r="V119">
+        <v>2.05</v>
+      </c>
+      <c r="W119">
+        <v>1.375</v>
+      </c>
+      <c r="X119">
+        <v>-1</v>
+      </c>
+      <c r="Y119">
+        <v>-1</v>
+      </c>
+      <c r="Z119">
+        <v>1</v>
+      </c>
+      <c r="AA119">
+        <v>-1</v>
+      </c>
+      <c r="AB119">
         <v>0.75</v>
-      </c>
-      <c r="R119">
-        <v>1.8</v>
-      </c>
-      <c r="S119">
-        <v>2</v>
-      </c>
-      <c r="T119">
-        <v>2</v>
-      </c>
-      <c r="U119">
-        <v>1.825</v>
-      </c>
-      <c r="V119">
-        <v>1.975</v>
-      </c>
-      <c r="W119">
-        <v>-1</v>
-      </c>
-      <c r="X119">
-        <v>-1</v>
-      </c>
-      <c r="Y119">
-        <v>0.7</v>
-      </c>
-      <c r="Z119">
-        <v>-1</v>
-      </c>
-      <c r="AA119">
-        <v>1</v>
-      </c>
-      <c r="AB119">
-        <v>0.825</v>
       </c>
       <c r="AC119">
         <v>-1</v>
@@ -11578,7 +11578,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6488032</v>
+        <v>6488028</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11590,49 +11590,49 @@
         <v>45033.67708333334</v>
       </c>
       <c r="F125" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G125" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125">
         <v>2</v>
       </c>
       <c r="J125" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K125">
-        <v>6.5</v>
+        <v>1.8</v>
       </c>
       <c r="L125">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M125">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="N125">
-        <v>6.5</v>
+        <v>2.25</v>
       </c>
       <c r="O125">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="P125">
-        <v>1.45</v>
+        <v>3.1</v>
       </c>
       <c r="Q125">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R125">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S125">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T125">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U125">
         <v>1.875</v>
@@ -11644,22 +11644,22 @@
         <v>-1</v>
       </c>
       <c r="X125">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y125">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z125">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA125">
-        <v>0.825</v>
+        <v>0.375</v>
       </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC125">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11667,7 +11667,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6488028</v>
+        <v>6488032</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11679,49 +11679,49 @@
         <v>45033.67708333334</v>
       </c>
       <c r="F126" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G126" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126">
         <v>2</v>
       </c>
       <c r="J126" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K126">
-        <v>1.8</v>
+        <v>6.5</v>
       </c>
       <c r="L126">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M126">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="N126">
-        <v>2.25</v>
+        <v>6.5</v>
       </c>
       <c r="O126">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="P126">
-        <v>3.1</v>
+        <v>1.45</v>
       </c>
       <c r="Q126">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R126">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S126">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T126">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U126">
         <v>1.875</v>
@@ -11733,22 +11733,22 @@
         <v>-1</v>
       </c>
       <c r="X126">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y126">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z126">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA126">
-        <v>0.375</v>
+        <v>0.825</v>
       </c>
       <c r="AB126">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC126">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11756,7 +11756,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6488033</v>
+        <v>6488029</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11768,10 +11768,10 @@
         <v>45034.67708333334</v>
       </c>
       <c r="F127" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G127" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H127">
         <v>2</v>
@@ -11783,43 +11783,43 @@
         <v>51</v>
       </c>
       <c r="K127">
+        <v>1.4</v>
+      </c>
+      <c r="L127">
+        <v>4</v>
+      </c>
+      <c r="M127">
+        <v>7</v>
+      </c>
+      <c r="N127">
+        <v>1.444</v>
+      </c>
+      <c r="O127">
+        <v>3.75</v>
+      </c>
+      <c r="P127">
+        <v>7</v>
+      </c>
+      <c r="Q127">
+        <v>-1</v>
+      </c>
+      <c r="R127">
+        <v>1.8</v>
+      </c>
+      <c r="S127">
+        <v>2</v>
+      </c>
+      <c r="T127">
         <v>2.25</v>
       </c>
-      <c r="L127">
-        <v>3</v>
-      </c>
-      <c r="M127">
-        <v>3</v>
-      </c>
-      <c r="N127">
-        <v>2.25</v>
-      </c>
-      <c r="O127">
-        <v>2.875</v>
-      </c>
-      <c r="P127">
-        <v>3.1</v>
-      </c>
-      <c r="Q127">
-        <v>0</v>
-      </c>
-      <c r="R127">
-        <v>1.725</v>
-      </c>
-      <c r="S127">
-        <v>2.075</v>
-      </c>
-      <c r="T127">
-        <v>2</v>
-      </c>
       <c r="U127">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V127">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W127">
-        <v>1.25</v>
+        <v>0.444</v>
       </c>
       <c r="X127">
         <v>-1</v>
@@ -11828,16 +11828,16 @@
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>0.7250000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA127">
         <v>-1</v>
       </c>
       <c r="AB127">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC127">
-        <v>-0</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11845,7 +11845,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6488029</v>
+        <v>6488033</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11857,10 +11857,10 @@
         <v>45034.67708333334</v>
       </c>
       <c r="F128" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G128" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H128">
         <v>2</v>
@@ -11872,43 +11872,43 @@
         <v>51</v>
       </c>
       <c r="K128">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="L128">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M128">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N128">
-        <v>1.444</v>
+        <v>2.25</v>
       </c>
       <c r="O128">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="P128">
-        <v>7</v>
+        <v>3.1</v>
       </c>
       <c r="Q128">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R128">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="S128">
-        <v>2</v>
+        <v>2.075</v>
       </c>
       <c r="T128">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U128">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V128">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W128">
-        <v>0.444</v>
+        <v>1.25</v>
       </c>
       <c r="X128">
         <v>-1</v>
@@ -11917,16 +11917,16 @@
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>0.8</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA128">
         <v>-1</v>
       </c>
       <c r="AB128">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC128">
-        <v>0.4625</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -14426,7 +14426,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6574889</v>
+        <v>6678437</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14438,76 +14438,76 @@
         <v>45068.64583333334</v>
       </c>
       <c r="F157" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G157" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J157" t="s">
         <v>52</v>
       </c>
       <c r="K157">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="L157">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M157">
-        <v>1.8</v>
+        <v>3.75</v>
       </c>
       <c r="N157">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="O157">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="P157">
-        <v>1.909</v>
+        <v>3.4</v>
       </c>
       <c r="Q157">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R157">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S157">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T157">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U157">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V157">
+        <v>2.025</v>
+      </c>
+      <c r="W157">
+        <v>-1</v>
+      </c>
+      <c r="X157">
         <v>1.875</v>
       </c>
-      <c r="W157">
-        <v>-1</v>
-      </c>
-      <c r="X157">
-        <v>2.25</v>
-      </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA157">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB157">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC157">
-        <v>0.4375</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14515,7 +14515,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6678437</v>
+        <v>6574889</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14527,76 +14527,76 @@
         <v>45068.64583333334</v>
       </c>
       <c r="F158" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G158" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J158" t="s">
         <v>52</v>
       </c>
       <c r="K158">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="L158">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M158">
-        <v>3.75</v>
+        <v>1.8</v>
       </c>
       <c r="N158">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="O158">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="P158">
-        <v>3.4</v>
+        <v>1.909</v>
       </c>
       <c r="Q158">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R158">
+        <v>1.825</v>
+      </c>
+      <c r="S158">
+        <v>1.975</v>
+      </c>
+      <c r="T158">
+        <v>2.25</v>
+      </c>
+      <c r="U158">
         <v>1.925</v>
       </c>
-      <c r="S158">
+      <c r="V158">
         <v>1.875</v>
       </c>
-      <c r="T158">
-        <v>1.75</v>
-      </c>
-      <c r="U158">
-        <v>1.775</v>
-      </c>
-      <c r="V158">
-        <v>2.025</v>
-      </c>
       <c r="W158">
         <v>-1</v>
       </c>
       <c r="X158">
-        <v>1.875</v>
+        <v>2.25</v>
       </c>
       <c r="Y158">
         <v>-1</v>
       </c>
       <c r="Z158">
+        <v>0.825</v>
+      </c>
+      <c r="AA158">
+        <v>-1</v>
+      </c>
+      <c r="AB158">
         <v>-0.5</v>
       </c>
-      <c r="AA158">
+      <c r="AC158">
         <v>0.4375</v>
-      </c>
-      <c r="AB158">
-        <v>-1</v>
-      </c>
-      <c r="AC158">
-        <v>1.025</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14871,7 +14871,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6576691</v>
+        <v>6686652</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14883,10 +14883,10 @@
         <v>45070.64583333334</v>
       </c>
       <c r="F162" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G162" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H162">
         <v>1</v>
@@ -14898,43 +14898,43 @@
         <v>51</v>
       </c>
       <c r="K162">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="L162">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="M162">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="N162">
-        <v>1.363</v>
+        <v>2.2</v>
       </c>
       <c r="O162">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="P162">
-        <v>8</v>
+        <v>3.25</v>
       </c>
       <c r="Q162">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R162">
+        <v>1.95</v>
+      </c>
+      <c r="S162">
         <v>1.85</v>
       </c>
-      <c r="S162">
-        <v>1.95</v>
-      </c>
       <c r="T162">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U162">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V162">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W162">
-        <v>0.363</v>
+        <v>1.2</v>
       </c>
       <c r="X162">
         <v>-1</v>
@@ -14943,16 +14943,16 @@
         <v>-1</v>
       </c>
       <c r="Z162">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA162">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB162">
         <v>-1</v>
       </c>
       <c r="AC162">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -14960,7 +14960,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6686652</v>
+        <v>6576691</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14972,10 +14972,10 @@
         <v>45070.64583333334</v>
       </c>
       <c r="F163" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G163" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H163">
         <v>1</v>
@@ -14987,43 +14987,43 @@
         <v>51</v>
       </c>
       <c r="K163">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="L163">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="M163">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="N163">
-        <v>2.2</v>
+        <v>1.363</v>
       </c>
       <c r="O163">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="P163">
-        <v>3.25</v>
+        <v>8</v>
       </c>
       <c r="Q163">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R163">
+        <v>1.85</v>
+      </c>
+      <c r="S163">
         <v>1.95</v>
       </c>
-      <c r="S163">
-        <v>1.85</v>
-      </c>
       <c r="T163">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U163">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V163">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W163">
-        <v>1.2</v>
+        <v>0.363</v>
       </c>
       <c r="X163">
         <v>-1</v>
@@ -15032,16 +15032,16 @@
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA163">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB163">
         <v>-1</v>
       </c>
       <c r="AC163">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -18787,7 +18787,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6853141</v>
+        <v>6853143</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18799,46 +18799,46 @@
         <v>45121.60416666666</v>
       </c>
       <c r="F206" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G206" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I206">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J206" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K206">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="L206">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="M206">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="N206">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O206">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="P206">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Q206">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R206">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="S206">
-        <v>1.8</v>
+        <v>2.075</v>
       </c>
       <c r="T206">
         <v>2.25</v>
@@ -18850,25 +18850,25 @@
         <v>1.9</v>
       </c>
       <c r="W206">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X206">
         <v>-1</v>
       </c>
       <c r="Y206">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z206">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA206">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB206">
+        <v>-1</v>
+      </c>
+      <c r="AC206">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC206">
-        <v>-1</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18876,7 +18876,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6853133</v>
+        <v>6853132</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18888,58 +18888,58 @@
         <v>45121.60416666666</v>
       </c>
       <c r="F207" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G207" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H207">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I207">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J207" t="s">
         <v>51</v>
       </c>
       <c r="K207">
-        <v>1.727</v>
+        <v>5.5</v>
       </c>
       <c r="L207">
         <v>3.25</v>
       </c>
       <c r="M207">
+        <v>1.6</v>
+      </c>
+      <c r="N207">
         <v>4.5</v>
       </c>
-      <c r="N207">
-        <v>1.6</v>
-      </c>
       <c r="O207">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P207">
-        <v>5.5</v>
+        <v>1.666</v>
       </c>
       <c r="Q207">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R207">
+        <v>1.825</v>
+      </c>
+      <c r="S207">
         <v>1.975</v>
       </c>
-      <c r="S207">
-        <v>1.825</v>
-      </c>
       <c r="T207">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U207">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V207">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W207">
-        <v>0.6000000000000001</v>
+        <v>3.5</v>
       </c>
       <c r="X207">
         <v>-1</v>
@@ -18948,13 +18948,13 @@
         <v>-1</v>
       </c>
       <c r="Z207">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA207">
         <v>-1</v>
       </c>
       <c r="AB207">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC207">
         <v>-1</v>
@@ -18965,7 +18965,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6853143</v>
+        <v>6853133</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18977,49 +18977,49 @@
         <v>45121.60416666666</v>
       </c>
       <c r="F208" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G208" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H208">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I208">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J208" t="s">
         <v>51</v>
       </c>
       <c r="K208">
-        <v>2.75</v>
+        <v>1.727</v>
       </c>
       <c r="L208">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="M208">
+        <v>4.5</v>
+      </c>
+      <c r="N208">
+        <v>1.6</v>
+      </c>
+      <c r="O208">
+        <v>3.3</v>
+      </c>
+      <c r="P208">
+        <v>5.5</v>
+      </c>
+      <c r="Q208">
+        <v>-1</v>
+      </c>
+      <c r="R208">
+        <v>1.975</v>
+      </c>
+      <c r="S208">
+        <v>1.825</v>
+      </c>
+      <c r="T208">
         <v>2.5</v>
-      </c>
-      <c r="N208">
-        <v>2.5</v>
-      </c>
-      <c r="O208">
-        <v>2.8</v>
-      </c>
-      <c r="P208">
-        <v>2.9</v>
-      </c>
-      <c r="Q208">
-        <v>0</v>
-      </c>
-      <c r="R208">
-        <v>1.725</v>
-      </c>
-      <c r="S208">
-        <v>2.075</v>
-      </c>
-      <c r="T208">
-        <v>2.25</v>
       </c>
       <c r="U208">
         <v>1.9</v>
@@ -19028,7 +19028,7 @@
         <v>1.9</v>
       </c>
       <c r="W208">
-        <v>1.5</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X208">
         <v>-1</v>
@@ -19037,16 +19037,16 @@
         <v>-1</v>
       </c>
       <c r="Z208">
-        <v>0.7250000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA208">
         <v>-1</v>
       </c>
       <c r="AB208">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC208">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19054,7 +19054,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6853132</v>
+        <v>6853141</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19066,73 +19066,73 @@
         <v>45121.60416666666</v>
       </c>
       <c r="F209" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G209" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H209">
         <v>2</v>
       </c>
       <c r="I209">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J209" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K209">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="L209">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="M209">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="N209">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="O209">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="P209">
-        <v>1.666</v>
+        <v>3</v>
       </c>
       <c r="Q209">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R209">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S209">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T209">
         <v>2.25</v>
       </c>
       <c r="U209">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V209">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W209">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X209">
         <v>-1</v>
       </c>
       <c r="Y209">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z209">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA209">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB209">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC209">
         <v>-1</v>
@@ -20478,7 +20478,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>7208367</v>
+        <v>7208756</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20490,76 +20490,76 @@
         <v>45190.54166666666</v>
       </c>
       <c r="F225" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G225" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I225">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J225" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K225">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="L225">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M225">
-        <v>3.8</v>
+        <v>2.55</v>
       </c>
       <c r="N225">
-        <v>2.05</v>
+        <v>2.8</v>
       </c>
       <c r="O225">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P225">
-        <v>3.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q225">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R225">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S225">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T225">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U225">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V225">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W225">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X225">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y225">
         <v>-1</v>
       </c>
       <c r="Z225">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA225">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB225">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC225">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="226" spans="1:29">
@@ -20567,7 +20567,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>7208756</v>
+        <v>7208367</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20579,76 +20579,76 @@
         <v>45190.54166666666</v>
       </c>
       <c r="F226" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G226" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I226">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J226" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K226">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="L226">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M226">
-        <v>2.55</v>
+        <v>3.8</v>
       </c>
       <c r="N226">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="O226">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P226">
-        <v>2.55</v>
+        <v>3.5</v>
       </c>
       <c r="Q226">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R226">
+        <v>2.025</v>
+      </c>
+      <c r="S226">
+        <v>1.775</v>
+      </c>
+      <c r="T226">
+        <v>2.5</v>
+      </c>
+      <c r="U226">
         <v>1.975</v>
       </c>
-      <c r="S226">
+      <c r="V226">
         <v>1.825</v>
       </c>
-      <c r="T226">
-        <v>2.25</v>
-      </c>
-      <c r="U226">
-        <v>2</v>
-      </c>
-      <c r="V226">
-        <v>1.8</v>
-      </c>
       <c r="W226">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X226">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y226">
         <v>-1</v>
       </c>
       <c r="Z226">
+        <v>-1</v>
+      </c>
+      <c r="AA226">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB226">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA226">
-        <v>-1</v>
-      </c>
-      <c r="AB226">
-        <v>-1</v>
-      </c>
       <c r="AC226">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -21991,7 +21991,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>7217624</v>
+        <v>7217625</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
@@ -22003,58 +22003,58 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F242" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G242" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H242">
+        <v>3</v>
+      </c>
+      <c r="I242">
         <v>1</v>
-      </c>
-      <c r="I242">
-        <v>0</v>
       </c>
       <c r="J242" t="s">
         <v>51</v>
       </c>
       <c r="K242">
-        <v>1.444</v>
+        <v>1.25</v>
       </c>
       <c r="L242">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M242">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="N242">
-        <v>1.5</v>
+        <v>1.333</v>
       </c>
       <c r="O242">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P242">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q242">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R242">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S242">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T242">
         <v>2.5</v>
       </c>
       <c r="U242">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V242">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W242">
-        <v>0.5</v>
+        <v>0.333</v>
       </c>
       <c r="X242">
         <v>-1</v>
@@ -22063,16 +22063,16 @@
         <v>-1</v>
       </c>
       <c r="Z242">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA242">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB242">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC242">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="243" spans="1:29">
@@ -22080,7 +22080,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>7217625</v>
+        <v>7217624</v>
       </c>
       <c r="C243" t="s">
         <v>28</v>
@@ -22092,58 +22092,58 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F243" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G243" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H243">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J243" t="s">
         <v>51</v>
       </c>
       <c r="K243">
-        <v>1.25</v>
+        <v>1.444</v>
       </c>
       <c r="L243">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M243">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="N243">
-        <v>1.333</v>
+        <v>1.5</v>
       </c>
       <c r="O243">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P243">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q243">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R243">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S243">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T243">
         <v>2.5</v>
       </c>
       <c r="U243">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V243">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W243">
-        <v>0.333</v>
+        <v>0.5</v>
       </c>
       <c r="X243">
         <v>-1</v>
@@ -22152,16 +22152,16 @@
         <v>-1</v>
       </c>
       <c r="Z243">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA243">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB243">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC243">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="244" spans="1:29">
@@ -24127,7 +24127,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>7217651</v>
+        <v>7217652</v>
       </c>
       <c r="C266" t="s">
         <v>28</v>
@@ -24139,55 +24139,55 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F266" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G266" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J266" t="s">
         <v>50</v>
       </c>
       <c r="K266">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L266">
         <v>2.9</v>
       </c>
       <c r="M266">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N266">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="O266">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="P266">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Q266">
         <v>-0.25</v>
       </c>
       <c r="R266">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S266">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="T266">
         <v>2</v>
       </c>
       <c r="U266">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V266">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W266">
         <v>-1</v>
@@ -24196,19 +24196,19 @@
         <v>-1</v>
       </c>
       <c r="Y266">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="Z266">
         <v>-1</v>
       </c>
       <c r="AA266">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="AB266">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC266">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="267" spans="1:29">
@@ -24216,7 +24216,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>7217652</v>
+        <v>7217651</v>
       </c>
       <c r="C267" t="s">
         <v>28</v>
@@ -24228,55 +24228,55 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F267" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G267" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J267" t="s">
         <v>50</v>
       </c>
       <c r="K267">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L267">
         <v>2.9</v>
       </c>
       <c r="M267">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N267">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="O267">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="P267">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="Q267">
         <v>-0.25</v>
       </c>
       <c r="R267">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S267">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="T267">
         <v>2</v>
       </c>
       <c r="U267">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V267">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W267">
         <v>-1</v>
@@ -24285,19 +24285,19 @@
         <v>-1</v>
       </c>
       <c r="Y267">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="Z267">
         <v>-1</v>
       </c>
       <c r="AA267">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="AB267">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC267">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="268" spans="1:29">
@@ -25818,7 +25818,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>7217678</v>
+        <v>7217675</v>
       </c>
       <c r="C285" t="s">
         <v>28</v>
@@ -25830,76 +25830,76 @@
         <v>45274.45833333334</v>
       </c>
       <c r="F285" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G285" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H285">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I285">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J285" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K285">
+        <v>2.5</v>
+      </c>
+      <c r="L285">
+        <v>2.8</v>
+      </c>
+      <c r="M285">
+        <v>2.8</v>
+      </c>
+      <c r="N285">
+        <v>2.4</v>
+      </c>
+      <c r="O285">
         <v>2.875</v>
       </c>
-      <c r="L285">
+      <c r="P285">
         <v>3</v>
       </c>
-      <c r="M285">
-        <v>2.4</v>
-      </c>
-      <c r="N285">
-        <v>3</v>
-      </c>
-      <c r="O285">
-        <v>3</v>
-      </c>
-      <c r="P285">
-        <v>2.25</v>
-      </c>
       <c r="Q285">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R285">
+        <v>2.05</v>
+      </c>
+      <c r="S285">
         <v>1.75</v>
       </c>
-      <c r="S285">
-        <v>2.05</v>
-      </c>
       <c r="T285">
         <v>2</v>
       </c>
       <c r="U285">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V285">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W285">
         <v>-1</v>
       </c>
       <c r="X285">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y285">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z285">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AA285">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AB285">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC285">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="286" spans="1:29">
@@ -25907,7 +25907,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>7217675</v>
+        <v>7217678</v>
       </c>
       <c r="C286" t="s">
         <v>28</v>
@@ -25919,76 +25919,76 @@
         <v>45274.45833333334</v>
       </c>
       <c r="F286" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G286" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I286">
+        <v>1</v>
+      </c>
+      <c r="J286" t="s">
+        <v>52</v>
+      </c>
+      <c r="K286">
+        <v>2.875</v>
+      </c>
+      <c r="L286">
         <v>3</v>
       </c>
-      <c r="J286" t="s">
-        <v>50</v>
-      </c>
-      <c r="K286">
-        <v>2.5</v>
-      </c>
-      <c r="L286">
-        <v>2.8</v>
-      </c>
       <c r="M286">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="N286">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="O286">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P286">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="Q286">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R286">
+        <v>1.75</v>
+      </c>
+      <c r="S286">
         <v>2.05</v>
       </c>
-      <c r="S286">
-        <v>1.75</v>
-      </c>
       <c r="T286">
         <v>2</v>
       </c>
       <c r="U286">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V286">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W286">
         <v>-1</v>
       </c>
       <c r="X286">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y286">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z286">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AA286">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AB286">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC286">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="287" spans="1:29">
@@ -25996,7 +25996,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>7217680</v>
+        <v>7217677</v>
       </c>
       <c r="C287" t="s">
         <v>28</v>
@@ -26008,76 +26008,76 @@
         <v>45274.58333333334</v>
       </c>
       <c r="F287" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G287" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H287">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I287">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J287" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K287">
-        <v>2.3</v>
+        <v>1.25</v>
       </c>
       <c r="L287">
+        <v>5</v>
+      </c>
+      <c r="M287">
+        <v>9</v>
+      </c>
+      <c r="N287">
+        <v>1.166</v>
+      </c>
+      <c r="O287">
+        <v>7</v>
+      </c>
+      <c r="P287">
+        <v>11</v>
+      </c>
+      <c r="Q287">
+        <v>-2</v>
+      </c>
+      <c r="R287">
+        <v>1.95</v>
+      </c>
+      <c r="S287">
+        <v>1.85</v>
+      </c>
+      <c r="T287">
         <v>3</v>
       </c>
-      <c r="M287">
-        <v>2.875</v>
-      </c>
-      <c r="N287">
-        <v>2.875</v>
-      </c>
-      <c r="O287">
-        <v>3.2</v>
-      </c>
-      <c r="P287">
-        <v>2.375</v>
-      </c>
-      <c r="Q287">
-        <v>0.25</v>
-      </c>
-      <c r="R287">
-        <v>1.75</v>
-      </c>
-      <c r="S287">
-        <v>2.05</v>
-      </c>
-      <c r="T287">
-        <v>2.5</v>
-      </c>
       <c r="U287">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V287">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W287">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X287">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y287">
         <v>-1</v>
       </c>
       <c r="Z287">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA287">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB287">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC287">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="288" spans="1:29">
@@ -26085,7 +26085,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>7217677</v>
+        <v>7217680</v>
       </c>
       <c r="C288" t="s">
         <v>28</v>
@@ -26097,76 +26097,76 @@
         <v>45274.58333333334</v>
       </c>
       <c r="F288" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G288" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I288">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J288" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K288">
-        <v>1.25</v>
+        <v>2.3</v>
       </c>
       <c r="L288">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M288">
-        <v>9</v>
+        <v>2.875</v>
       </c>
       <c r="N288">
-        <v>1.166</v>
+        <v>2.875</v>
       </c>
       <c r="O288">
-        <v>7</v>
+        <v>3.2</v>
       </c>
       <c r="P288">
-        <v>11</v>
+        <v>2.375</v>
       </c>
       <c r="Q288">
-        <v>-2</v>
+        <v>0.25</v>
       </c>
       <c r="R288">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S288">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T288">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U288">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V288">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W288">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X288">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Y288">
         <v>-1</v>
       </c>
       <c r="Z288">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA288">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB288">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC288">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="289" spans="1:29">
@@ -27064,7 +27064,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>7217692</v>
+        <v>7217691</v>
       </c>
       <c r="C299" t="s">
         <v>28</v>
@@ -27076,13 +27076,13 @@
         <v>45290.58333333334</v>
       </c>
       <c r="F299" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G299" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H299">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I299">
         <v>0</v>
@@ -27091,43 +27091,43 @@
         <v>51</v>
       </c>
       <c r="K299">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="L299">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="M299">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="N299">
-        <v>2.8</v>
+        <v>1.85</v>
       </c>
       <c r="O299">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P299">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q299">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R299">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S299">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T299">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U299">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V299">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W299">
-        <v>1.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X299">
         <v>-1</v>
@@ -27136,16 +27136,16 @@
         <v>-1</v>
       </c>
       <c r="Z299">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA299">
         <v>-1</v>
       </c>
       <c r="AB299">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC299">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="300" spans="1:29">
@@ -27153,7 +27153,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>7217691</v>
+        <v>7217692</v>
       </c>
       <c r="C300" t="s">
         <v>28</v>
@@ -27165,13 +27165,13 @@
         <v>45290.58333333334</v>
       </c>
       <c r="F300" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G300" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H300">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I300">
         <v>0</v>
@@ -27180,43 +27180,43 @@
         <v>51</v>
       </c>
       <c r="K300">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="L300">
+        <v>2.9</v>
+      </c>
+      <c r="M300">
+        <v>2.4</v>
+      </c>
+      <c r="N300">
         <v>2.8</v>
       </c>
-      <c r="M300">
-        <v>3.6</v>
-      </c>
-      <c r="N300">
-        <v>1.85</v>
-      </c>
       <c r="O300">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P300">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="Q300">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R300">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S300">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T300">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U300">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V300">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W300">
-        <v>0.8500000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="X300">
         <v>-1</v>
@@ -27225,16 +27225,16 @@
         <v>-1</v>
       </c>
       <c r="Z300">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA300">
         <v>-1</v>
       </c>
       <c r="AB300">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC300">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="301" spans="1:29">
@@ -28043,7 +28043,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>7217708</v>
+        <v>7217709</v>
       </c>
       <c r="C310" t="s">
         <v>28</v>
@@ -28055,46 +28055,46 @@
         <v>45340.45833333334</v>
       </c>
       <c r="F310" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G310" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K310">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="L310">
         <v>3</v>
       </c>
       <c r="M310">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="N310">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="O310">
         <v>3</v>
       </c>
       <c r="P310">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="Q310">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R310">
+        <v>1.95</v>
+      </c>
+      <c r="S310">
         <v>1.85</v>
-      </c>
-      <c r="S310">
-        <v>1.95</v>
       </c>
       <c r="T310">
         <v>2.25</v>
       </c>
       <c r="U310">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V310">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W310">
         <v>0</v>
@@ -28117,7 +28117,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>7217709</v>
+        <v>7217708</v>
       </c>
       <c r="C311" t="s">
         <v>28</v>
@@ -28129,46 +28129,46 @@
         <v>45340.45833333334</v>
       </c>
       <c r="F311" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G311" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K311">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="L311">
         <v>3</v>
       </c>
       <c r="M311">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="N311">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="O311">
         <v>3</v>
       </c>
       <c r="P311">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q311">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R311">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S311">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T311">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U311">
+        <v>1.775</v>
+      </c>
+      <c r="V311">
         <v>2.025</v>
-      </c>
-      <c r="V311">
-        <v>1.775</v>
       </c>
       <c r="W311">
         <v>0</v>
@@ -28218,31 +28218,31 @@
         <v>6</v>
       </c>
       <c r="N312">
-        <v>1.444</v>
+        <v>1.4</v>
       </c>
       <c r="O312">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="P312">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q312">
         <v>-1.25</v>
       </c>
       <c r="R312">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S312">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T312">
         <v>2.75</v>
       </c>
       <c r="U312">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V312">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W312">
         <v>0</v>

--- a/Egypt Division 1/Egypt Division 1.xlsx
+++ b/Egypt Division 1/Egypt Division 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1588" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1600" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC314"/>
+  <dimension ref="A1:AC317"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2233,7 +2233,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5774058</v>
+        <v>5774059</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2245,73 +2245,73 @@
         <v>44937.40625</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G20" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>51</v>
+      </c>
+      <c r="K20">
+        <v>2.375</v>
+      </c>
+      <c r="L20">
+        <v>2.625</v>
+      </c>
+      <c r="M20">
+        <v>3.2</v>
+      </c>
+      <c r="N20">
+        <v>2.55</v>
+      </c>
+      <c r="O20">
+        <v>2.55</v>
+      </c>
+      <c r="P20">
         <v>3</v>
       </c>
-      <c r="I20">
-        <v>3</v>
-      </c>
-      <c r="J20" t="s">
-        <v>52</v>
-      </c>
-      <c r="K20">
-        <v>4</v>
-      </c>
-      <c r="L20">
-        <v>2.8</v>
-      </c>
-      <c r="M20">
-        <v>2</v>
-      </c>
-      <c r="N20">
-        <v>4.2</v>
-      </c>
-      <c r="O20">
-        <v>2.8</v>
-      </c>
-      <c r="P20">
-        <v>1.909</v>
-      </c>
       <c r="Q20">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R20">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="S20">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T20">
         <v>2</v>
       </c>
       <c r="U20">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V20">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="W20">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X20">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y20">
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="AA20">
         <v>-1</v>
       </c>
       <c r="AB20">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AC20">
         <v>-1</v>
@@ -2322,7 +2322,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5774059</v>
+        <v>5774058</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2334,73 +2334,73 @@
         <v>44937.40625</v>
       </c>
       <c r="F21" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K21">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="L21">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="M21">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="N21">
-        <v>2.55</v>
+        <v>4.2</v>
       </c>
       <c r="O21">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="P21">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R21">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="S21">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T21">
         <v>2</v>
       </c>
       <c r="U21">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V21">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="W21">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X21">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="AA21">
         <v>-1</v>
       </c>
       <c r="AB21">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AC21">
         <v>-1</v>
@@ -2411,7 +2411,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5774686</v>
+        <v>6117225</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2423,76 +2423,76 @@
         <v>44937.58333333334</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="s">
         <v>52</v>
       </c>
       <c r="K22">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="L22">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M22">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="N22">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="O22">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P22">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="Q22">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R22">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S22">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T22">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U22">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V22">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="Y22">
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>0.45</v>
+        <v>0.75</v>
       </c>
       <c r="AA22">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC22">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2500,7 +2500,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6117225</v>
+        <v>5774686</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2512,76 +2512,76 @@
         <v>44937.58333333334</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
         <v>52</v>
       </c>
       <c r="K23">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="L23">
+        <v>3.2</v>
+      </c>
+      <c r="M23">
+        <v>1.95</v>
+      </c>
+      <c r="N23">
+        <v>3.4</v>
+      </c>
+      <c r="O23">
         <v>3</v>
       </c>
-      <c r="M23">
-        <v>1.909</v>
-      </c>
-      <c r="N23">
-        <v>3.8</v>
-      </c>
-      <c r="O23">
-        <v>2.875</v>
-      </c>
       <c r="P23">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="Q23">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R23">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S23">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T23">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U23">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V23">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="Y23">
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0.75</v>
+        <v>0.45</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -3924,7 +3924,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>5774694</v>
+        <v>5774068</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3936,76 +3936,76 @@
         <v>44949.40625</v>
       </c>
       <c r="F39" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G39" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H39">
         <v>0</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K39">
+        <v>2.7</v>
+      </c>
+      <c r="L39">
         <v>2.75</v>
       </c>
-      <c r="L39">
-        <v>2.8</v>
-      </c>
       <c r="M39">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="N39">
+        <v>2.4</v>
+      </c>
+      <c r="O39">
+        <v>2.75</v>
+      </c>
+      <c r="P39">
         <v>3.1</v>
       </c>
-      <c r="O39">
-        <v>2.7</v>
-      </c>
-      <c r="P39">
-        <v>2.5</v>
-      </c>
       <c r="Q39">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R39">
-        <v>1.7</v>
+        <v>2.025</v>
       </c>
       <c r="S39">
-        <v>2.1</v>
+        <v>1.775</v>
       </c>
       <c r="T39">
+        <v>2</v>
+      </c>
+      <c r="U39">
+        <v>1.925</v>
+      </c>
+      <c r="V39">
+        <v>1.875</v>
+      </c>
+      <c r="W39">
+        <v>-1</v>
+      </c>
+      <c r="X39">
         <v>1.75</v>
       </c>
-      <c r="U39">
-        <v>1.825</v>
-      </c>
-      <c r="V39">
-        <v>1.975</v>
-      </c>
-      <c r="W39">
-        <v>-1</v>
-      </c>
-      <c r="X39">
-        <v>-1</v>
-      </c>
       <c r="Y39">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA39">
-        <v>1.1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB39">
         <v>-1</v>
       </c>
       <c r="AC39">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4013,7 +4013,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>5774068</v>
+        <v>5774694</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4025,76 +4025,76 @@
         <v>44949.40625</v>
       </c>
       <c r="F40" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G40" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H40">
         <v>0</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K40">
+        <v>2.75</v>
+      </c>
+      <c r="L40">
+        <v>2.8</v>
+      </c>
+      <c r="M40">
+        <v>2.625</v>
+      </c>
+      <c r="N40">
+        <v>3.1</v>
+      </c>
+      <c r="O40">
         <v>2.7</v>
       </c>
-      <c r="L40">
-        <v>2.75</v>
-      </c>
-      <c r="M40">
-        <v>2.75</v>
-      </c>
-      <c r="N40">
-        <v>2.4</v>
-      </c>
-      <c r="O40">
-        <v>2.75</v>
-      </c>
       <c r="P40">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="Q40">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R40">
-        <v>2.025</v>
+        <v>1.7</v>
       </c>
       <c r="S40">
-        <v>1.775</v>
+        <v>2.1</v>
       </c>
       <c r="T40">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U40">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V40">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W40">
         <v>-1</v>
       </c>
       <c r="X40">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y40">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z40">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA40">
-        <v>0.3875</v>
+        <v>1.1</v>
       </c>
       <c r="AB40">
         <v>-1</v>
       </c>
       <c r="AC40">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4102,7 +4102,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>5774069</v>
+        <v>5774070</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4114,76 +4114,76 @@
         <v>44949.58333333334</v>
       </c>
       <c r="F41" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K41">
-        <v>2.05</v>
+        <v>1.727</v>
       </c>
       <c r="L41">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M41">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="N41">
-        <v>2.05</v>
+        <v>1.65</v>
       </c>
       <c r="O41">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="P41">
-        <v>3.6</v>
+        <v>5.75</v>
       </c>
       <c r="Q41">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R41">
+        <v>1.95</v>
+      </c>
+      <c r="S41">
         <v>1.85</v>
       </c>
-      <c r="S41">
-        <v>1.95</v>
-      </c>
       <c r="T41">
         <v>2</v>
       </c>
       <c r="U41">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V41">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W41">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X41">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y41">
         <v>-1</v>
       </c>
       <c r="Z41">
+        <v>0.475</v>
+      </c>
+      <c r="AA41">
         <v>-0.5</v>
       </c>
-      <c r="AA41">
-        <v>0.475</v>
-      </c>
       <c r="AB41">
         <v>-1</v>
       </c>
       <c r="AC41">
-        <v>1.025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4191,7 +4191,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>5774070</v>
+        <v>5774069</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4203,76 +4203,76 @@
         <v>44949.58333333334</v>
       </c>
       <c r="F42" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G42" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K42">
-        <v>1.727</v>
+        <v>2.05</v>
       </c>
       <c r="L42">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M42">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="N42">
-        <v>1.65</v>
+        <v>2.05</v>
       </c>
       <c r="O42">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P42">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q42">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R42">
+        <v>1.85</v>
+      </c>
+      <c r="S42">
         <v>1.95</v>
       </c>
-      <c r="S42">
-        <v>1.85</v>
-      </c>
       <c r="T42">
         <v>2</v>
       </c>
       <c r="U42">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V42">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W42">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X42">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y42">
         <v>-1</v>
       </c>
       <c r="Z42">
+        <v>-0.5</v>
+      </c>
+      <c r="AA42">
         <v>0.475</v>
       </c>
-      <c r="AA42">
-        <v>-0.5</v>
-      </c>
       <c r="AB42">
         <v>-1</v>
       </c>
       <c r="AC42">
-        <v>1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -9086,7 +9086,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6441121</v>
+        <v>6441342</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9098,76 +9098,76 @@
         <v>45015.67708333334</v>
       </c>
       <c r="F97" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G97" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K97">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="L97">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="M97">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="N97">
+        <v>2.6</v>
+      </c>
+      <c r="O97">
+        <v>2.7</v>
+      </c>
+      <c r="P97">
+        <v>2.875</v>
+      </c>
+      <c r="Q97">
+        <v>0</v>
+      </c>
+      <c r="R97">
+        <v>1.85</v>
+      </c>
+      <c r="S97">
+        <v>1.95</v>
+      </c>
+      <c r="T97">
         <v>2.25</v>
       </c>
-      <c r="O97">
-        <v>2.75</v>
-      </c>
-      <c r="P97">
-        <v>3.4</v>
-      </c>
-      <c r="Q97">
-        <v>-0.25</v>
-      </c>
-      <c r="R97">
+      <c r="U97">
         <v>2.025</v>
       </c>
-      <c r="S97">
+      <c r="V97">
         <v>1.775</v>
       </c>
-      <c r="T97">
-        <v>2</v>
-      </c>
-      <c r="U97">
-        <v>2</v>
-      </c>
-      <c r="V97">
-        <v>1.8</v>
-      </c>
       <c r="W97">
         <v>-1</v>
       </c>
       <c r="X97">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y97">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA97">
+        <v>-0</v>
+      </c>
+      <c r="AB97">
+        <v>-1</v>
+      </c>
+      <c r="AC97">
         <v>0.7749999999999999</v>
-      </c>
-      <c r="AB97">
-        <v>1</v>
-      </c>
-      <c r="AC97">
-        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9175,7 +9175,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6441342</v>
+        <v>6436239</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9187,37 +9187,37 @@
         <v>45015.67708333334</v>
       </c>
       <c r="F98" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G98" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K98">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="L98">
+        <v>2.875</v>
+      </c>
+      <c r="M98">
         <v>2.8</v>
       </c>
-      <c r="M98">
-        <v>3.1</v>
-      </c>
       <c r="N98">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="O98">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="P98">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="Q98">
         <v>0</v>
@@ -9229,34 +9229,34 @@
         <v>1.95</v>
       </c>
       <c r="T98">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U98">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="V98">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="W98">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X98">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA98">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC98">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9264,7 +9264,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6436239</v>
+        <v>6441121</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9276,73 +9276,73 @@
         <v>45015.67708333334</v>
       </c>
       <c r="F99" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G99" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I99">
+        <v>3</v>
+      </c>
+      <c r="J99" t="s">
+        <v>50</v>
+      </c>
+      <c r="K99">
+        <v>2.3</v>
+      </c>
+      <c r="L99">
+        <v>2.625</v>
+      </c>
+      <c r="M99">
+        <v>3.5</v>
+      </c>
+      <c r="N99">
+        <v>2.25</v>
+      </c>
+      <c r="O99">
+        <v>2.75</v>
+      </c>
+      <c r="P99">
+        <v>3.4</v>
+      </c>
+      <c r="Q99">
+        <v>-0.25</v>
+      </c>
+      <c r="R99">
+        <v>2.025</v>
+      </c>
+      <c r="S99">
+        <v>1.775</v>
+      </c>
+      <c r="T99">
+        <v>2</v>
+      </c>
+      <c r="U99">
+        <v>2</v>
+      </c>
+      <c r="V99">
+        <v>1.8</v>
+      </c>
+      <c r="W99">
+        <v>-1</v>
+      </c>
+      <c r="X99">
+        <v>-1</v>
+      </c>
+      <c r="Y99">
+        <v>2.4</v>
+      </c>
+      <c r="Z99">
+        <v>-1</v>
+      </c>
+      <c r="AA99">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB99">
         <v>1</v>
-      </c>
-      <c r="J99" t="s">
-        <v>51</v>
-      </c>
-      <c r="K99">
-        <v>2.5</v>
-      </c>
-      <c r="L99">
-        <v>2.875</v>
-      </c>
-      <c r="M99">
-        <v>2.8</v>
-      </c>
-      <c r="N99">
-        <v>2.7</v>
-      </c>
-      <c r="O99">
-        <v>2.625</v>
-      </c>
-      <c r="P99">
-        <v>2.8</v>
-      </c>
-      <c r="Q99">
-        <v>0</v>
-      </c>
-      <c r="R99">
-        <v>1.85</v>
-      </c>
-      <c r="S99">
-        <v>1.95</v>
-      </c>
-      <c r="T99">
-        <v>1.75</v>
-      </c>
-      <c r="U99">
-        <v>1.75</v>
-      </c>
-      <c r="V99">
-        <v>2.05</v>
-      </c>
-      <c r="W99">
-        <v>1.7</v>
-      </c>
-      <c r="X99">
-        <v>-1</v>
-      </c>
-      <c r="Y99">
-        <v>-1</v>
-      </c>
-      <c r="Z99">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA99">
-        <v>-1</v>
-      </c>
-      <c r="AB99">
-        <v>0.75</v>
       </c>
       <c r="AC99">
         <v>-1</v>
@@ -9709,7 +9709,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6445815</v>
+        <v>6471793</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9721,76 +9721,76 @@
         <v>45020.67708333334</v>
       </c>
       <c r="F104" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G104" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104" t="s">
+        <v>52</v>
+      </c>
+      <c r="K104">
+        <v>2.55</v>
+      </c>
+      <c r="L104">
+        <v>2.625</v>
+      </c>
+      <c r="M104">
         <v>3</v>
       </c>
-      <c r="I104">
-        <v>2</v>
-      </c>
-      <c r="J104" t="s">
-        <v>51</v>
-      </c>
-      <c r="K104">
-        <v>2.7</v>
-      </c>
-      <c r="L104">
-        <v>2.75</v>
-      </c>
-      <c r="M104">
+      <c r="N104">
+        <v>2.875</v>
+      </c>
+      <c r="O104">
         <v>2.625</v>
       </c>
-      <c r="N104">
-        <v>2.6</v>
-      </c>
-      <c r="O104">
-        <v>2.8</v>
-      </c>
       <c r="P104">
-        <v>2.875</v>
+        <v>2.625</v>
       </c>
       <c r="Q104">
         <v>0</v>
       </c>
       <c r="R104">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S104">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T104">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U104">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V104">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W104">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X104">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB104">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9887,7 +9887,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6471793</v>
+        <v>6445815</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9899,76 +9899,76 @@
         <v>45020.67708333334</v>
       </c>
       <c r="F106" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G106" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J106" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K106">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="L106">
+        <v>2.75</v>
+      </c>
+      <c r="M106">
         <v>2.625</v>
       </c>
-      <c r="M106">
-        <v>3</v>
-      </c>
       <c r="N106">
+        <v>2.6</v>
+      </c>
+      <c r="O106">
+        <v>2.8</v>
+      </c>
+      <c r="P106">
         <v>2.875</v>
       </c>
-      <c r="O106">
-        <v>2.625</v>
-      </c>
-      <c r="P106">
-        <v>2.625</v>
-      </c>
       <c r="Q106">
         <v>0</v>
       </c>
       <c r="R106">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S106">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T106">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U106">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V106">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W106">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X106">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA106">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB106">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC106">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9976,7 +9976,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6451733</v>
+        <v>6471794</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9988,76 +9988,76 @@
         <v>45021.67708333334</v>
       </c>
       <c r="F107" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G107" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I107">
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K107">
-        <v>4.2</v>
+        <v>1.222</v>
       </c>
       <c r="L107">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="M107">
-        <v>1.85</v>
+        <v>10</v>
       </c>
       <c r="N107">
-        <v>3.4</v>
+        <v>1.222</v>
       </c>
       <c r="O107">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="P107">
-        <v>2.15</v>
+        <v>10</v>
       </c>
       <c r="Q107">
-        <v>0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R107">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S107">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T107">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U107">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V107">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W107">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X107">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y107">
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0.4375</v>
+        <v>1</v>
       </c>
       <c r="AA107">
+        <v>-1</v>
+      </c>
+      <c r="AB107">
+        <v>0.4875</v>
+      </c>
+      <c r="AC107">
         <v>-0.5</v>
-      </c>
-      <c r="AB107">
-        <v>-1</v>
-      </c>
-      <c r="AC107">
-        <v>0.925</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10065,7 +10065,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6471794</v>
+        <v>6451733</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10077,76 +10077,76 @@
         <v>45021.67708333334</v>
       </c>
       <c r="F108" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G108" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108" t="s">
+        <v>52</v>
+      </c>
+      <c r="K108">
+        <v>4.2</v>
+      </c>
+      <c r="L108">
         <v>3</v>
       </c>
-      <c r="I108">
-        <v>0</v>
-      </c>
-      <c r="J108" t="s">
-        <v>51</v>
-      </c>
-      <c r="K108">
-        <v>1.222</v>
-      </c>
-      <c r="L108">
-        <v>5.25</v>
-      </c>
       <c r="M108">
-        <v>10</v>
+        <v>1.85</v>
       </c>
       <c r="N108">
-        <v>1.222</v>
+        <v>3.4</v>
       </c>
       <c r="O108">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="P108">
-        <v>10</v>
+        <v>2.15</v>
       </c>
       <c r="Q108">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R108">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S108">
+        <v>1.925</v>
+      </c>
+      <c r="T108">
+        <v>2</v>
+      </c>
+      <c r="U108">
+        <v>1.875</v>
+      </c>
+      <c r="V108">
+        <v>1.925</v>
+      </c>
+      <c r="W108">
+        <v>-1</v>
+      </c>
+      <c r="X108">
         <v>1.8</v>
       </c>
-      <c r="T108">
-        <v>2.75</v>
-      </c>
-      <c r="U108">
-        <v>1.975</v>
-      </c>
-      <c r="V108">
-        <v>1.825</v>
-      </c>
-      <c r="W108">
-        <v>0.222</v>
-      </c>
-      <c r="X108">
-        <v>-1</v>
-      </c>
       <c r="Y108">
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA108">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB108">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC108">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10777,7 +10777,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6471800</v>
+        <v>6484222</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10789,76 +10789,76 @@
         <v>45028.67708333334</v>
       </c>
       <c r="F116" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G116" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H116">
         <v>0</v>
       </c>
       <c r="I116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K116">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="L116">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M116">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="N116">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="O116">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="P116">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="Q116">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R116">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S116">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T116">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U116">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V116">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W116">
         <v>-1</v>
       </c>
       <c r="X116">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y116">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z116">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA116">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB116">
         <v>-1</v>
       </c>
       <c r="AC116">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10866,7 +10866,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6484222</v>
+        <v>6471800</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10878,76 +10878,76 @@
         <v>45028.67708333334</v>
       </c>
       <c r="F117" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G117" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H117">
         <v>0</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K117">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="L117">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M117">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="N117">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="O117">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="P117">
-        <v>1.95</v>
+        <v>1.6</v>
       </c>
       <c r="Q117">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R117">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S117">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T117">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U117">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V117">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y117">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z117">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA117">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB117">
         <v>-1</v>
       </c>
       <c r="AC117">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10955,7 +10955,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6471699</v>
+        <v>6484223</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10967,73 +10967,73 @@
         <v>45029.67708333334</v>
       </c>
       <c r="F118" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G118" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I118">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K118">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="L118">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="M118">
-        <v>1.833</v>
+        <v>2.5</v>
       </c>
       <c r="N118">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="O118">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="P118">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="Q118">
+        <v>-0.25</v>
+      </c>
+      <c r="R118">
+        <v>2</v>
+      </c>
+      <c r="S118">
+        <v>1.8</v>
+      </c>
+      <c r="T118">
+        <v>1.75</v>
+      </c>
+      <c r="U118">
+        <v>1.75</v>
+      </c>
+      <c r="V118">
+        <v>2.05</v>
+      </c>
+      <c r="W118">
+        <v>1.375</v>
+      </c>
+      <c r="X118">
+        <v>-1</v>
+      </c>
+      <c r="Y118">
+        <v>-1</v>
+      </c>
+      <c r="Z118">
+        <v>1</v>
+      </c>
+      <c r="AA118">
+        <v>-1</v>
+      </c>
+      <c r="AB118">
         <v>0.75</v>
-      </c>
-      <c r="R118">
-        <v>1.8</v>
-      </c>
-      <c r="S118">
-        <v>2</v>
-      </c>
-      <c r="T118">
-        <v>2</v>
-      </c>
-      <c r="U118">
-        <v>1.825</v>
-      </c>
-      <c r="V118">
-        <v>1.975</v>
-      </c>
-      <c r="W118">
-        <v>-1</v>
-      </c>
-      <c r="X118">
-        <v>-1</v>
-      </c>
-      <c r="Y118">
-        <v>0.7</v>
-      </c>
-      <c r="Z118">
-        <v>-1</v>
-      </c>
-      <c r="AA118">
-        <v>1</v>
-      </c>
-      <c r="AB118">
-        <v>0.825</v>
       </c>
       <c r="AC118">
         <v>-1</v>
@@ -11044,7 +11044,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6484223</v>
+        <v>6471699</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11056,73 +11056,73 @@
         <v>45029.67708333334</v>
       </c>
       <c r="F119" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G119" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119">
         <v>3</v>
       </c>
-      <c r="I119">
+      <c r="J119" t="s">
+        <v>50</v>
+      </c>
+      <c r="K119">
+        <v>4.2</v>
+      </c>
+      <c r="L119">
+        <v>3</v>
+      </c>
+      <c r="M119">
+        <v>1.833</v>
+      </c>
+      <c r="N119">
+        <v>5</v>
+      </c>
+      <c r="O119">
+        <v>3</v>
+      </c>
+      <c r="P119">
+        <v>1.7</v>
+      </c>
+      <c r="Q119">
+        <v>0.75</v>
+      </c>
+      <c r="R119">
+        <v>1.8</v>
+      </c>
+      <c r="S119">
+        <v>2</v>
+      </c>
+      <c r="T119">
+        <v>2</v>
+      </c>
+      <c r="U119">
+        <v>1.825</v>
+      </c>
+      <c r="V119">
+        <v>1.975</v>
+      </c>
+      <c r="W119">
+        <v>-1</v>
+      </c>
+      <c r="X119">
+        <v>-1</v>
+      </c>
+      <c r="Y119">
+        <v>0.7</v>
+      </c>
+      <c r="Z119">
+        <v>-1</v>
+      </c>
+      <c r="AA119">
         <v>1</v>
       </c>
-      <c r="J119" t="s">
-        <v>51</v>
-      </c>
-      <c r="K119">
-        <v>2.875</v>
-      </c>
-      <c r="L119">
-        <v>2.75</v>
-      </c>
-      <c r="M119">
-        <v>2.5</v>
-      </c>
-      <c r="N119">
-        <v>2.375</v>
-      </c>
-      <c r="O119">
-        <v>2.7</v>
-      </c>
-      <c r="P119">
-        <v>3.1</v>
-      </c>
-      <c r="Q119">
-        <v>-0.25</v>
-      </c>
-      <c r="R119">
-        <v>2</v>
-      </c>
-      <c r="S119">
-        <v>1.8</v>
-      </c>
-      <c r="T119">
-        <v>1.75</v>
-      </c>
-      <c r="U119">
-        <v>1.75</v>
-      </c>
-      <c r="V119">
-        <v>2.05</v>
-      </c>
-      <c r="W119">
-        <v>1.375</v>
-      </c>
-      <c r="X119">
-        <v>-1</v>
-      </c>
-      <c r="Y119">
-        <v>-1</v>
-      </c>
-      <c r="Z119">
-        <v>1</v>
-      </c>
-      <c r="AA119">
-        <v>-1</v>
-      </c>
       <c r="AB119">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="AC119">
         <v>-1</v>
@@ -11578,7 +11578,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6488028</v>
+        <v>6488032</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11590,49 +11590,49 @@
         <v>45033.67708333334</v>
       </c>
       <c r="F125" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G125" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125">
         <v>2</v>
       </c>
       <c r="J125" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K125">
-        <v>1.8</v>
+        <v>6.5</v>
       </c>
       <c r="L125">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M125">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="N125">
-        <v>2.25</v>
+        <v>6.5</v>
       </c>
       <c r="O125">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="P125">
-        <v>3.1</v>
+        <v>1.45</v>
       </c>
       <c r="Q125">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R125">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S125">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T125">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U125">
         <v>1.875</v>
@@ -11644,22 +11644,22 @@
         <v>-1</v>
       </c>
       <c r="X125">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z125">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA125">
-        <v>0.375</v>
+        <v>0.825</v>
       </c>
       <c r="AB125">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC125">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11667,7 +11667,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6488032</v>
+        <v>6488028</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11679,49 +11679,49 @@
         <v>45033.67708333334</v>
       </c>
       <c r="F126" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G126" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126">
         <v>2</v>
       </c>
       <c r="J126" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K126">
-        <v>6.5</v>
+        <v>1.8</v>
       </c>
       <c r="L126">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M126">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="N126">
-        <v>6.5</v>
+        <v>2.25</v>
       </c>
       <c r="O126">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="P126">
-        <v>1.45</v>
+        <v>3.1</v>
       </c>
       <c r="Q126">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R126">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S126">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T126">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U126">
         <v>1.875</v>
@@ -11733,22 +11733,22 @@
         <v>-1</v>
       </c>
       <c r="X126">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y126">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z126">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA126">
-        <v>0.825</v>
+        <v>0.375</v>
       </c>
       <c r="AB126">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC126">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -14426,7 +14426,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6678437</v>
+        <v>6574889</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14438,76 +14438,76 @@
         <v>45068.64583333334</v>
       </c>
       <c r="F157" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G157" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J157" t="s">
         <v>52</v>
       </c>
       <c r="K157">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="L157">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M157">
-        <v>3.75</v>
+        <v>1.8</v>
       </c>
       <c r="N157">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="O157">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="P157">
-        <v>3.4</v>
+        <v>1.909</v>
       </c>
       <c r="Q157">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R157">
+        <v>1.825</v>
+      </c>
+      <c r="S157">
+        <v>1.975</v>
+      </c>
+      <c r="T157">
+        <v>2.25</v>
+      </c>
+      <c r="U157">
         <v>1.925</v>
       </c>
-      <c r="S157">
+      <c r="V157">
         <v>1.875</v>
       </c>
-      <c r="T157">
-        <v>1.75</v>
-      </c>
-      <c r="U157">
-        <v>1.775</v>
-      </c>
-      <c r="V157">
-        <v>2.025</v>
-      </c>
       <c r="W157">
         <v>-1</v>
       </c>
       <c r="X157">
-        <v>1.875</v>
+        <v>2.25</v>
       </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
+        <v>0.825</v>
+      </c>
+      <c r="AA157">
+        <v>-1</v>
+      </c>
+      <c r="AB157">
         <v>-0.5</v>
       </c>
-      <c r="AA157">
+      <c r="AC157">
         <v>0.4375</v>
-      </c>
-      <c r="AB157">
-        <v>-1</v>
-      </c>
-      <c r="AC157">
-        <v>1.025</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14515,7 +14515,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6574889</v>
+        <v>6678437</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14527,76 +14527,76 @@
         <v>45068.64583333334</v>
       </c>
       <c r="F158" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G158" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J158" t="s">
         <v>52</v>
       </c>
       <c r="K158">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="L158">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M158">
-        <v>1.8</v>
+        <v>3.75</v>
       </c>
       <c r="N158">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="O158">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="P158">
-        <v>1.909</v>
+        <v>3.4</v>
       </c>
       <c r="Q158">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R158">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S158">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T158">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U158">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V158">
+        <v>2.025</v>
+      </c>
+      <c r="W158">
+        <v>-1</v>
+      </c>
+      <c r="X158">
         <v>1.875</v>
       </c>
-      <c r="W158">
-        <v>-1</v>
-      </c>
-      <c r="X158">
-        <v>2.25</v>
-      </c>
       <c r="Y158">
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA158">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB158">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC158">
-        <v>0.4375</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -18164,7 +18164,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6853129</v>
+        <v>6853140</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18176,58 +18176,58 @@
         <v>45117.60416666666</v>
       </c>
       <c r="F199" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G199" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J199" t="s">
         <v>51</v>
       </c>
       <c r="K199">
-        <v>3.4</v>
+        <v>2.05</v>
       </c>
       <c r="L199">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="M199">
-        <v>2.1</v>
+        <v>3.75</v>
       </c>
       <c r="N199">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O199">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="P199">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="Q199">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R199">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S199">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T199">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U199">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V199">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W199">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X199">
         <v>-1</v>
@@ -18236,16 +18236,16 @@
         <v>-1</v>
       </c>
       <c r="Z199">
-        <v>0.7749999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AA199">
         <v>-1</v>
       </c>
       <c r="AB199">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC199">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18253,7 +18253,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>6853128</v>
+        <v>6853139</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18265,76 +18265,76 @@
         <v>45117.60416666666</v>
       </c>
       <c r="F200" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G200" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H200">
         <v>0</v>
       </c>
       <c r="I200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J200" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K200">
-        <v>2.875</v>
+        <v>2.7</v>
       </c>
       <c r="L200">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="M200">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="N200">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="O200">
         <v>2.75</v>
       </c>
       <c r="P200">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="Q200">
         <v>0</v>
       </c>
       <c r="R200">
+        <v>1.975</v>
+      </c>
+      <c r="S200">
+        <v>1.825</v>
+      </c>
+      <c r="T200">
+        <v>2</v>
+      </c>
+      <c r="U200">
         <v>1.775</v>
       </c>
-      <c r="S200">
+      <c r="V200">
         <v>2.025</v>
       </c>
-      <c r="T200">
-        <v>2.25</v>
-      </c>
-      <c r="U200">
-        <v>1.9</v>
-      </c>
-      <c r="V200">
-        <v>1.9</v>
-      </c>
       <c r="W200">
         <v>-1</v>
       </c>
       <c r="X200">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y200">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z200">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA200">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB200">
         <v>-1</v>
       </c>
       <c r="AC200">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18342,7 +18342,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6853139</v>
+        <v>6853129</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18354,76 +18354,76 @@
         <v>45117.60416666666</v>
       </c>
       <c r="F201" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G201" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201">
         <v>1</v>
       </c>
       <c r="J201" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K201">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="L201">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="M201">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="N201">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="O201">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="P201">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="Q201">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R201">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S201">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T201">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U201">
+        <v>2.025</v>
+      </c>
+      <c r="V201">
         <v>1.775</v>
       </c>
-      <c r="V201">
-        <v>2.025</v>
-      </c>
       <c r="W201">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X201">
         <v>-1</v>
       </c>
       <c r="Y201">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z201">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA201">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB201">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC201">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18431,7 +18431,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6853140</v>
+        <v>6853128</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18443,76 +18443,76 @@
         <v>45117.60416666666</v>
       </c>
       <c r="F202" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G202" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I202">
         <v>0</v>
       </c>
       <c r="J202" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K202">
-        <v>2.05</v>
+        <v>2.875</v>
       </c>
       <c r="L202">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="M202">
-        <v>3.75</v>
+        <v>2.45</v>
       </c>
       <c r="N202">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="O202">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="P202">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="Q202">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R202">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S202">
+        <v>2.025</v>
+      </c>
+      <c r="T202">
+        <v>2.25</v>
+      </c>
+      <c r="U202">
+        <v>1.9</v>
+      </c>
+      <c r="V202">
+        <v>1.9</v>
+      </c>
+      <c r="W202">
+        <v>-1</v>
+      </c>
+      <c r="X202">
         <v>1.75</v>
       </c>
-      <c r="T202">
-        <v>2</v>
-      </c>
-      <c r="U202">
-        <v>2</v>
-      </c>
-      <c r="V202">
-        <v>1.8</v>
-      </c>
-      <c r="W202">
-        <v>1</v>
-      </c>
-      <c r="X202">
-        <v>-1</v>
-      </c>
       <c r="Y202">
         <v>-1</v>
       </c>
       <c r="Z202">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AA202">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB202">
         <v>-1</v>
       </c>
       <c r="AC202">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18787,7 +18787,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6853143</v>
+        <v>6853141</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18799,46 +18799,46 @@
         <v>45121.60416666666</v>
       </c>
       <c r="F206" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G206" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I206">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J206" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K206">
+        <v>2</v>
+      </c>
+      <c r="L206">
         <v>2.75</v>
       </c>
-      <c r="L206">
-        <v>2.9</v>
-      </c>
       <c r="M206">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="N206">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="O206">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="P206">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="Q206">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R206">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="S206">
-        <v>2.075</v>
+        <v>1.8</v>
       </c>
       <c r="T206">
         <v>2.25</v>
@@ -18850,25 +18850,25 @@
         <v>1.9</v>
       </c>
       <c r="W206">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X206">
         <v>-1</v>
       </c>
       <c r="Y206">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z206">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA206">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB206">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC206">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18876,7 +18876,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6853132</v>
+        <v>6853133</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18888,58 +18888,58 @@
         <v>45121.60416666666</v>
       </c>
       <c r="F207" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G207" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I207">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J207" t="s">
         <v>51</v>
       </c>
       <c r="K207">
-        <v>5.5</v>
+        <v>1.727</v>
       </c>
       <c r="L207">
         <v>3.25</v>
       </c>
       <c r="M207">
+        <v>4.5</v>
+      </c>
+      <c r="N207">
         <v>1.6</v>
       </c>
-      <c r="N207">
-        <v>4.5</v>
-      </c>
       <c r="O207">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P207">
-        <v>1.666</v>
+        <v>5.5</v>
       </c>
       <c r="Q207">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R207">
+        <v>1.975</v>
+      </c>
+      <c r="S207">
         <v>1.825</v>
       </c>
-      <c r="S207">
-        <v>1.975</v>
-      </c>
       <c r="T207">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U207">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V207">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W207">
-        <v>3.5</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X207">
         <v>-1</v>
@@ -18948,13 +18948,13 @@
         <v>-1</v>
       </c>
       <c r="Z207">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA207">
         <v>-1</v>
       </c>
       <c r="AB207">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC207">
         <v>-1</v>
@@ -18965,7 +18965,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6853133</v>
+        <v>6853132</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18977,58 +18977,58 @@
         <v>45121.60416666666</v>
       </c>
       <c r="F208" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G208" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H208">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I208">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J208" t="s">
         <v>51</v>
       </c>
       <c r="K208">
-        <v>1.727</v>
+        <v>5.5</v>
       </c>
       <c r="L208">
         <v>3.25</v>
       </c>
       <c r="M208">
+        <v>1.6</v>
+      </c>
+      <c r="N208">
         <v>4.5</v>
       </c>
-      <c r="N208">
-        <v>1.6</v>
-      </c>
       <c r="O208">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P208">
-        <v>5.5</v>
+        <v>1.666</v>
       </c>
       <c r="Q208">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R208">
+        <v>1.825</v>
+      </c>
+      <c r="S208">
         <v>1.975</v>
       </c>
-      <c r="S208">
-        <v>1.825</v>
-      </c>
       <c r="T208">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U208">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V208">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W208">
-        <v>0.6000000000000001</v>
+        <v>3.5</v>
       </c>
       <c r="X208">
         <v>-1</v>
@@ -19037,13 +19037,13 @@
         <v>-1</v>
       </c>
       <c r="Z208">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA208">
         <v>-1</v>
       </c>
       <c r="AB208">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC208">
         <v>-1</v>
@@ -19054,7 +19054,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6853141</v>
+        <v>6853143</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19066,46 +19066,46 @@
         <v>45121.60416666666</v>
       </c>
       <c r="F209" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G209" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I209">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J209" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K209">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="L209">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="M209">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="N209">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O209">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="P209">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Q209">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R209">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="S209">
-        <v>1.8</v>
+        <v>2.075</v>
       </c>
       <c r="T209">
         <v>2.25</v>
@@ -19117,25 +19117,25 @@
         <v>1.9</v>
       </c>
       <c r="W209">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X209">
         <v>-1</v>
       </c>
       <c r="Y209">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z209">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA209">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB209">
+        <v>-1</v>
+      </c>
+      <c r="AC209">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC209">
-        <v>-1</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -20211,7 +20211,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>7210310</v>
+        <v>7208758</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20223,76 +20223,76 @@
         <v>45189.54166666666</v>
       </c>
       <c r="F222" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G222" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I222">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J222" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K222">
         <v>2.5</v>
       </c>
       <c r="L222">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="M222">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="N222">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="O222">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="P222">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Q222">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R222">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="S222">
-        <v>1.875</v>
+        <v>2.075</v>
       </c>
       <c r="T222">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U222">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V222">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W222">
         <v>-1</v>
       </c>
       <c r="X222">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Y222">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z222">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA222">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB222">
-        <v>0.4625</v>
+        <v>0</v>
       </c>
       <c r="AC222">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20300,7 +20300,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>7208758</v>
+        <v>7210310</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20312,76 +20312,76 @@
         <v>45189.54166666666</v>
       </c>
       <c r="F223" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G223" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I223">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J223" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K223">
         <v>2.5</v>
       </c>
       <c r="L223">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="M223">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="N223">
+        <v>2.25</v>
+      </c>
+      <c r="O223">
+        <v>2.7</v>
+      </c>
+      <c r="P223">
+        <v>3.5</v>
+      </c>
+      <c r="Q223">
+        <v>-0.25</v>
+      </c>
+      <c r="R223">
+        <v>1.925</v>
+      </c>
+      <c r="S223">
+        <v>1.875</v>
+      </c>
+      <c r="T223">
+        <v>1.75</v>
+      </c>
+      <c r="U223">
+        <v>1.925</v>
+      </c>
+      <c r="V223">
+        <v>1.875</v>
+      </c>
+      <c r="W223">
+        <v>-1</v>
+      </c>
+      <c r="X223">
+        <v>-1</v>
+      </c>
+      <c r="Y223">
         <v>2.5</v>
       </c>
-      <c r="O223">
-        <v>2.625</v>
-      </c>
-      <c r="P223">
-        <v>3</v>
-      </c>
-      <c r="Q223">
-        <v>0</v>
-      </c>
-      <c r="R223">
-        <v>1.725</v>
-      </c>
-      <c r="S223">
-        <v>2.075</v>
-      </c>
-      <c r="T223">
-        <v>2</v>
-      </c>
-      <c r="U223">
-        <v>1.775</v>
-      </c>
-      <c r="V223">
-        <v>2.025</v>
-      </c>
-      <c r="W223">
-        <v>-1</v>
-      </c>
-      <c r="X223">
-        <v>1.625</v>
-      </c>
-      <c r="Y223">
-        <v>-1</v>
-      </c>
       <c r="Z223">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA223">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB223">
-        <v>0</v>
+        <v>0.4625</v>
       </c>
       <c r="AC223">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20478,7 +20478,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>7208756</v>
+        <v>7208367</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20490,76 +20490,76 @@
         <v>45190.54166666666</v>
       </c>
       <c r="F225" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G225" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H225">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I225">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J225" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K225">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="L225">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M225">
-        <v>2.55</v>
+        <v>3.8</v>
       </c>
       <c r="N225">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="O225">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P225">
-        <v>2.55</v>
+        <v>3.5</v>
       </c>
       <c r="Q225">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R225">
+        <v>2.025</v>
+      </c>
+      <c r="S225">
+        <v>1.775</v>
+      </c>
+      <c r="T225">
+        <v>2.5</v>
+      </c>
+      <c r="U225">
         <v>1.975</v>
       </c>
-      <c r="S225">
+      <c r="V225">
         <v>1.825</v>
       </c>
-      <c r="T225">
-        <v>2.25</v>
-      </c>
-      <c r="U225">
-        <v>2</v>
-      </c>
-      <c r="V225">
-        <v>1.8</v>
-      </c>
       <c r="W225">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X225">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y225">
         <v>-1</v>
       </c>
       <c r="Z225">
+        <v>-1</v>
+      </c>
+      <c r="AA225">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB225">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA225">
-        <v>-1</v>
-      </c>
-      <c r="AB225">
-        <v>-1</v>
-      </c>
       <c r="AC225">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="226" spans="1:29">
@@ -20567,7 +20567,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>7208367</v>
+        <v>7208756</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20579,76 +20579,76 @@
         <v>45190.54166666666</v>
       </c>
       <c r="F226" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G226" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I226">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J226" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K226">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="L226">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M226">
-        <v>3.8</v>
+        <v>2.55</v>
       </c>
       <c r="N226">
-        <v>2.05</v>
+        <v>2.8</v>
       </c>
       <c r="O226">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P226">
-        <v>3.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q226">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R226">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S226">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T226">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U226">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V226">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W226">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X226">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y226">
         <v>-1</v>
       </c>
       <c r="Z226">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA226">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB226">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC226">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -21991,7 +21991,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>7217625</v>
+        <v>7217624</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
@@ -22003,58 +22003,58 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F242" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G242" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H242">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I242">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J242" t="s">
         <v>51</v>
       </c>
       <c r="K242">
-        <v>1.25</v>
+        <v>1.444</v>
       </c>
       <c r="L242">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M242">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="N242">
-        <v>1.333</v>
+        <v>1.5</v>
       </c>
       <c r="O242">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P242">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q242">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R242">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S242">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T242">
         <v>2.5</v>
       </c>
       <c r="U242">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V242">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W242">
-        <v>0.333</v>
+        <v>0.5</v>
       </c>
       <c r="X242">
         <v>-1</v>
@@ -22063,16 +22063,16 @@
         <v>-1</v>
       </c>
       <c r="Z242">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA242">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB242">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC242">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="243" spans="1:29">
@@ -22080,7 +22080,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>7217624</v>
+        <v>7217625</v>
       </c>
       <c r="C243" t="s">
         <v>28</v>
@@ -22092,58 +22092,58 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F243" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G243" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H243">
+        <v>3</v>
+      </c>
+      <c r="I243">
         <v>1</v>
-      </c>
-      <c r="I243">
-        <v>0</v>
       </c>
       <c r="J243" t="s">
         <v>51</v>
       </c>
       <c r="K243">
-        <v>1.444</v>
+        <v>1.25</v>
       </c>
       <c r="L243">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M243">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="N243">
-        <v>1.5</v>
+        <v>1.333</v>
       </c>
       <c r="O243">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P243">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q243">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R243">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S243">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T243">
         <v>2.5</v>
       </c>
       <c r="U243">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V243">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W243">
-        <v>0.5</v>
+        <v>0.333</v>
       </c>
       <c r="X243">
         <v>-1</v>
@@ -22152,16 +22152,16 @@
         <v>-1</v>
       </c>
       <c r="Z243">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA243">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB243">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC243">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="244" spans="1:29">
@@ -24928,7 +24928,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>7217658</v>
+        <v>7217659</v>
       </c>
       <c r="C275" t="s">
         <v>28</v>
@@ -24940,10 +24940,10 @@
         <v>45260.58333333334</v>
       </c>
       <c r="F275" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G275" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H275">
         <v>1</v>
@@ -24955,55 +24955,55 @@
         <v>52</v>
       </c>
       <c r="K275">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L275">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="M275">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="N275">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="O275">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="P275">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q275">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R275">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S275">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T275">
         <v>2</v>
       </c>
       <c r="U275">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V275">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W275">
         <v>-1</v>
       </c>
       <c r="X275">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="Y275">
         <v>-1</v>
       </c>
       <c r="Z275">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA275">
-        <v>0.475</v>
+        <v>-0</v>
       </c>
       <c r="AB275">
         <v>0</v>
@@ -25017,7 +25017,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>7217659</v>
+        <v>7217658</v>
       </c>
       <c r="C276" t="s">
         <v>28</v>
@@ -25029,10 +25029,10 @@
         <v>45260.58333333334</v>
       </c>
       <c r="F276" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G276" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="H276">
         <v>1</v>
@@ -25044,55 +25044,55 @@
         <v>52</v>
       </c>
       <c r="K276">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L276">
+        <v>2.875</v>
+      </c>
+      <c r="M276">
+        <v>3.5</v>
+      </c>
+      <c r="N276">
+        <v>2.15</v>
+      </c>
+      <c r="O276">
         <v>2.8</v>
       </c>
-      <c r="M276">
-        <v>2.8</v>
-      </c>
-      <c r="N276">
-        <v>2.6</v>
-      </c>
-      <c r="O276">
-        <v>2.7</v>
-      </c>
       <c r="P276">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q276">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R276">
+        <v>1.85</v>
+      </c>
+      <c r="S276">
+        <v>1.95</v>
+      </c>
+      <c r="T276">
+        <v>2</v>
+      </c>
+      <c r="U276">
         <v>1.825</v>
       </c>
-      <c r="S276">
+      <c r="V276">
         <v>1.975</v>
       </c>
-      <c r="T276">
-        <v>2</v>
-      </c>
-      <c r="U276">
-        <v>2</v>
-      </c>
-      <c r="V276">
+      <c r="W276">
+        <v>-1</v>
+      </c>
+      <c r="X276">
         <v>1.8</v>
       </c>
-      <c r="W276">
-        <v>-1</v>
-      </c>
-      <c r="X276">
-        <v>1.7</v>
-      </c>
       <c r="Y276">
         <v>-1</v>
       </c>
       <c r="Z276">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA276">
-        <v>-0</v>
+        <v>0.475</v>
       </c>
       <c r="AB276">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>7217666</v>
+        <v>7217665</v>
       </c>
       <c r="C282" t="s">
         <v>28</v>
@@ -25563,58 +25563,58 @@
         <v>45265.58333333334</v>
       </c>
       <c r="F282" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G282" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H282">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I282">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J282" t="s">
         <v>51</v>
       </c>
       <c r="K282">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="L282">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M282">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="N282">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O282">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="P282">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="Q282">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R282">
+        <v>2.025</v>
+      </c>
+      <c r="S282">
+        <v>1.775</v>
+      </c>
+      <c r="T282">
+        <v>2.25</v>
+      </c>
+      <c r="U282">
         <v>1.95</v>
       </c>
-      <c r="S282">
+      <c r="V282">
         <v>1.85</v>
       </c>
-      <c r="T282">
-        <v>2</v>
-      </c>
-      <c r="U282">
-        <v>1.75</v>
-      </c>
-      <c r="V282">
-        <v>2.05</v>
-      </c>
       <c r="W282">
-        <v>0.909</v>
+        <v>1.375</v>
       </c>
       <c r="X282">
         <v>-1</v>
@@ -25623,13 +25623,13 @@
         <v>-1</v>
       </c>
       <c r="Z282">
+        <v>1.025</v>
+      </c>
+      <c r="AA282">
+        <v>-1</v>
+      </c>
+      <c r="AB282">
         <v>0.95</v>
-      </c>
-      <c r="AA282">
-        <v>-1</v>
-      </c>
-      <c r="AB282">
-        <v>0.75</v>
       </c>
       <c r="AC282">
         <v>-1</v>
@@ -25640,7 +25640,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>7217665</v>
+        <v>7217666</v>
       </c>
       <c r="C283" t="s">
         <v>28</v>
@@ -25652,58 +25652,58 @@
         <v>45265.58333333334</v>
       </c>
       <c r="F283" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G283" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I283">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J283" t="s">
         <v>51</v>
       </c>
       <c r="K283">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="L283">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M283">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="N283">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="O283">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="P283">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="Q283">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R283">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S283">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T283">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U283">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="V283">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W283">
-        <v>1.375</v>
+        <v>0.909</v>
       </c>
       <c r="X283">
         <v>-1</v>
@@ -25712,13 +25712,13 @@
         <v>-1</v>
       </c>
       <c r="Z283">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AA283">
         <v>-1</v>
       </c>
       <c r="AB283">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AC283">
         <v>-1</v>
@@ -26263,7 +26263,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>7549592</v>
+        <v>7549591</v>
       </c>
       <c r="C290" t="s">
         <v>28</v>
@@ -26275,10 +26275,10 @@
         <v>45275.54166666666</v>
       </c>
       <c r="F290" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G290" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H290">
         <v>1</v>
@@ -26290,40 +26290,40 @@
         <v>50</v>
       </c>
       <c r="K290">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="L290">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="M290">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="N290">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="O290">
         <v>2.75</v>
       </c>
       <c r="P290">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q290">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R290">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="S290">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="T290">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U290">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V290">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W290">
         <v>-1</v>
@@ -26332,16 +26332,16 @@
         <v>-1</v>
       </c>
       <c r="Y290">
-        <v>2.5</v>
+        <v>1.45</v>
       </c>
       <c r="Z290">
         <v>-1</v>
       </c>
       <c r="AA290">
-        <v>0.8999999999999999</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB290">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC290">
         <v>-1</v>
@@ -26352,7 +26352,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>7549591</v>
+        <v>7549592</v>
       </c>
       <c r="C291" t="s">
         <v>28</v>
@@ -26364,10 +26364,10 @@
         <v>45275.54166666666</v>
       </c>
       <c r="F291" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G291" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="H291">
         <v>1</v>
@@ -26379,40 +26379,40 @@
         <v>50</v>
       </c>
       <c r="K291">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="L291">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="M291">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="N291">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="O291">
         <v>2.75</v>
       </c>
       <c r="P291">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="Q291">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R291">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="S291">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="T291">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U291">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V291">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W291">
         <v>-1</v>
@@ -26421,16 +26421,16 @@
         <v>-1</v>
       </c>
       <c r="Y291">
-        <v>1.45</v>
+        <v>2.5</v>
       </c>
       <c r="Z291">
         <v>-1</v>
       </c>
       <c r="AA291">
-        <v>0.7250000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB291">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC291">
         <v>-1</v>
@@ -27598,7 +27598,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>7217701</v>
+        <v>7217702</v>
       </c>
       <c r="C305" t="s">
         <v>28</v>
@@ -27610,76 +27610,76 @@
         <v>45336.45833333334</v>
       </c>
       <c r="F305" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G305" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J305" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K305">
+        <v>2.9</v>
+      </c>
+      <c r="L305">
+        <v>3</v>
+      </c>
+      <c r="M305">
         <v>2.375</v>
       </c>
-      <c r="L305">
-        <v>2.9</v>
-      </c>
-      <c r="M305">
-        <v>3</v>
-      </c>
       <c r="N305">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="O305">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P305">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="Q305">
         <v>0</v>
       </c>
       <c r="R305">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S305">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T305">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U305">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V305">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W305">
         <v>-1</v>
       </c>
       <c r="X305">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y305">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z305">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA305">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB305">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC305">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="306" spans="1:29">
@@ -27687,7 +27687,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>7217702</v>
+        <v>7217701</v>
       </c>
       <c r="C306" t="s">
         <v>28</v>
@@ -27699,76 +27699,76 @@
         <v>45336.45833333334</v>
       </c>
       <c r="F306" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G306" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J306" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K306">
+        <v>2.375</v>
+      </c>
+      <c r="L306">
         <v>2.9</v>
       </c>
-      <c r="L306">
+      <c r="M306">
         <v>3</v>
       </c>
-      <c r="M306">
-        <v>2.375</v>
-      </c>
       <c r="N306">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="O306">
+        <v>3</v>
+      </c>
+      <c r="P306">
         <v>2.8</v>
       </c>
-      <c r="P306">
-        <v>2.5</v>
-      </c>
       <c r="Q306">
         <v>0</v>
       </c>
       <c r="R306">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S306">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T306">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U306">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V306">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W306">
         <v>-1</v>
       </c>
       <c r="X306">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y306">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z306">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA306">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB306">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC306">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="307" spans="1:29">
@@ -28091,10 +28091,10 @@
         <v>2.25</v>
       </c>
       <c r="U310">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V310">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W310">
         <v>0</v>
@@ -28144,31 +28144,31 @@
         <v>3.4</v>
       </c>
       <c r="N311">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O311">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P311">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q311">
         <v>-0.25</v>
       </c>
       <c r="R311">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S311">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T311">
         <v>2</v>
       </c>
       <c r="U311">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V311">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W311">
         <v>0</v>
@@ -28239,10 +28239,10 @@
         <v>2.75</v>
       </c>
       <c r="U312">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V312">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W312">
         <v>0</v>
@@ -28405,6 +28405,228 @@
         <v>0</v>
       </c>
       <c r="AA314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:29">
+      <c r="A315" s="1">
+        <v>313</v>
+      </c>
+      <c r="B315">
+        <v>7217714</v>
+      </c>
+      <c r="C315" t="s">
+        <v>28</v>
+      </c>
+      <c r="D315" t="s">
+        <v>28</v>
+      </c>
+      <c r="E315" s="2">
+        <v>45342.45833333334</v>
+      </c>
+      <c r="F315" t="s">
+        <v>42</v>
+      </c>
+      <c r="G315" t="s">
+        <v>49</v>
+      </c>
+      <c r="K315">
+        <v>1.833</v>
+      </c>
+      <c r="L315">
+        <v>3.25</v>
+      </c>
+      <c r="M315">
+        <v>4.5</v>
+      </c>
+      <c r="N315">
+        <v>1.833</v>
+      </c>
+      <c r="O315">
+        <v>3.25</v>
+      </c>
+      <c r="P315">
+        <v>4.5</v>
+      </c>
+      <c r="Q315">
+        <v>-0.5</v>
+      </c>
+      <c r="R315">
+        <v>1.825</v>
+      </c>
+      <c r="S315">
+        <v>1.975</v>
+      </c>
+      <c r="T315">
+        <v>2.25</v>
+      </c>
+      <c r="U315">
+        <v>1.875</v>
+      </c>
+      <c r="V315">
+        <v>1.925</v>
+      </c>
+      <c r="W315">
+        <v>0</v>
+      </c>
+      <c r="X315">
+        <v>0</v>
+      </c>
+      <c r="Y315">
+        <v>0</v>
+      </c>
+      <c r="Z315">
+        <v>0</v>
+      </c>
+      <c r="AA315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:29">
+      <c r="A316" s="1">
+        <v>314</v>
+      </c>
+      <c r="B316">
+        <v>7217715</v>
+      </c>
+      <c r="C316" t="s">
+        <v>28</v>
+      </c>
+      <c r="D316" t="s">
+        <v>28</v>
+      </c>
+      <c r="E316" s="2">
+        <v>45342.58333333334</v>
+      </c>
+      <c r="F316" t="s">
+        <v>29</v>
+      </c>
+      <c r="G316" t="s">
+        <v>37</v>
+      </c>
+      <c r="K316">
+        <v>3</v>
+      </c>
+      <c r="L316">
+        <v>2.8</v>
+      </c>
+      <c r="M316">
+        <v>2.5</v>
+      </c>
+      <c r="N316">
+        <v>3</v>
+      </c>
+      <c r="O316">
+        <v>2.8</v>
+      </c>
+      <c r="P316">
+        <v>2.5</v>
+      </c>
+      <c r="Q316">
+        <v>0</v>
+      </c>
+      <c r="R316">
+        <v>2.075</v>
+      </c>
+      <c r="S316">
+        <v>1.725</v>
+      </c>
+      <c r="T316">
+        <v>2</v>
+      </c>
+      <c r="U316">
+        <v>2.025</v>
+      </c>
+      <c r="V316">
+        <v>1.775</v>
+      </c>
+      <c r="W316">
+        <v>0</v>
+      </c>
+      <c r="X316">
+        <v>0</v>
+      </c>
+      <c r="Y316">
+        <v>0</v>
+      </c>
+      <c r="Z316">
+        <v>0</v>
+      </c>
+      <c r="AA316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:29">
+      <c r="A317" s="1">
+        <v>315</v>
+      </c>
+      <c r="B317">
+        <v>7217716</v>
+      </c>
+      <c r="C317" t="s">
+        <v>28</v>
+      </c>
+      <c r="D317" t="s">
+        <v>28</v>
+      </c>
+      <c r="E317" s="2">
+        <v>45342.58333333334</v>
+      </c>
+      <c r="F317" t="s">
+        <v>41</v>
+      </c>
+      <c r="G317" t="s">
+        <v>48</v>
+      </c>
+      <c r="K317">
+        <v>1.615</v>
+      </c>
+      <c r="L317">
+        <v>3.4</v>
+      </c>
+      <c r="M317">
+        <v>5.75</v>
+      </c>
+      <c r="N317">
+        <v>1.615</v>
+      </c>
+      <c r="O317">
+        <v>3.4</v>
+      </c>
+      <c r="P317">
+        <v>5.75</v>
+      </c>
+      <c r="Q317">
+        <v>-0.75</v>
+      </c>
+      <c r="R317">
+        <v>1.8</v>
+      </c>
+      <c r="S317">
+        <v>2</v>
+      </c>
+      <c r="T317">
+        <v>2.25</v>
+      </c>
+      <c r="U317">
+        <v>1.95</v>
+      </c>
+      <c r="V317">
+        <v>1.85</v>
+      </c>
+      <c r="W317">
+        <v>0</v>
+      </c>
+      <c r="X317">
+        <v>0</v>
+      </c>
+      <c r="Y317">
+        <v>0</v>
+      </c>
+      <c r="Z317">
+        <v>0</v>
+      </c>
+      <c r="AA317">
         <v>0</v>
       </c>
     </row>

--- a/Egypt Division 1/Egypt Division 1.xlsx
+++ b/Egypt Division 1/Egypt Division 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1600" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1603" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -139,10 +139,10 @@
     <t>Pyramids FC</t>
   </si>
   <si>
-    <t>El Masry</t>
+    <t>Ceramica Cleopatra</t>
   </si>
   <si>
-    <t>Ceramica Cleopatra</t>
+    <t>El Masry</t>
   </si>
   <si>
     <t>Haras El Hedoud</t>
@@ -151,10 +151,10 @@
     <t>National Bank</t>
   </si>
   <si>
-    <t>Smouha</t>
+    <t>Talaea El Geish</t>
   </si>
   <si>
-    <t>Talaea El Geish</t>
+    <t>Smouha</t>
   </si>
   <si>
     <t>ZED FC</t>
@@ -646,7 +646,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1269,7 +1269,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1358,7 +1358,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1699,7 +1699,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5774682</v>
+        <v>5774683</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1714,70 +1714,70 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H14">
         <v>2</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K14">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="L14">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M14">
-        <v>3.4</v>
+        <v>2.45</v>
       </c>
       <c r="N14">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="O14">
         <v>3.1</v>
       </c>
       <c r="P14">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="Q14">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R14">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S14">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T14">
         <v>2.25</v>
       </c>
       <c r="U14">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V14">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W14">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z14">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA14">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB14">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC14">
         <v>-1</v>
@@ -1788,7 +1788,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5774683</v>
+        <v>5774682</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1803,70 +1803,70 @@
         <v>42</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H15">
         <v>2</v>
       </c>
       <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>51</v>
+      </c>
+      <c r="K15">
+        <v>2.15</v>
+      </c>
+      <c r="L15">
         <v>3</v>
       </c>
-      <c r="J15" t="s">
-        <v>50</v>
-      </c>
-      <c r="K15">
-        <v>2.9</v>
-      </c>
-      <c r="L15">
-        <v>2.9</v>
-      </c>
       <c r="M15">
-        <v>2.45</v>
+        <v>3.4</v>
       </c>
       <c r="N15">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="O15">
         <v>3.1</v>
       </c>
       <c r="P15">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R15">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S15">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T15">
         <v>2.25</v>
       </c>
       <c r="U15">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V15">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W15">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z15">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA15">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB15">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC15">
         <v>-1</v>
@@ -2055,7 +2055,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5774684</v>
+        <v>5774057</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2070,10 +2070,10 @@
         <v>45</v>
       </c>
       <c r="G18" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18">
         <v>2</v>
@@ -2082,40 +2082,40 @@
         <v>50</v>
       </c>
       <c r="K18">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L18">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="M18">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="N18">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="O18">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="P18">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="Q18">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R18">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S18">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T18">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U18">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V18">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W18">
         <v>-1</v>
@@ -2124,19 +2124,19 @@
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>3</v>
+        <v>1.9</v>
       </c>
       <c r="Z18">
         <v>-1</v>
       </c>
       <c r="AA18">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AB18">
-        <v>0.3875</v>
+        <v>0.925</v>
       </c>
       <c r="AC18">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2144,7 +2144,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5774057</v>
+        <v>5774684</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2159,10 +2159,10 @@
         <v>46</v>
       </c>
       <c r="G19" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>2</v>
@@ -2171,40 +2171,40 @@
         <v>50</v>
       </c>
       <c r="K19">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L19">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="M19">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="N19">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="O19">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="P19">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R19">
+        <v>1.775</v>
+      </c>
+      <c r="S19">
+        <v>2.025</v>
+      </c>
+      <c r="T19">
         <v>1.75</v>
       </c>
-      <c r="S19">
-        <v>2.05</v>
-      </c>
-      <c r="T19">
-        <v>2</v>
-      </c>
       <c r="U19">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V19">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W19">
         <v>-1</v>
@@ -2213,19 +2213,19 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="Z19">
         <v>-1</v>
       </c>
       <c r="AA19">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AB19">
-        <v>0.925</v>
+        <v>0.3875</v>
       </c>
       <c r="AC19">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2245,10 +2245,10 @@
         <v>44937.40625</v>
       </c>
       <c r="F20" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" t="s">
         <v>45</v>
-      </c>
-      <c r="G20" t="s">
-        <v>46</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -2693,7 +2693,7 @@
         <v>32</v>
       </c>
       <c r="G25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -2871,7 +2871,7 @@
         <v>37</v>
       </c>
       <c r="G27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -3135,7 +3135,7 @@
         <v>44944.5</v>
       </c>
       <c r="F30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G30" t="s">
         <v>35</v>
@@ -3580,7 +3580,7 @@
         <v>44946.5</v>
       </c>
       <c r="F35" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G35" t="s">
         <v>34</v>
@@ -3669,10 +3669,10 @@
         <v>44946.58333333334</v>
       </c>
       <c r="F36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -4203,10 +4203,10 @@
         <v>44949.58333333334</v>
       </c>
       <c r="F42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -4295,7 +4295,7 @@
         <v>36</v>
       </c>
       <c r="G43" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -4559,7 +4559,7 @@
         <v>44950.58333333334</v>
       </c>
       <c r="F46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G46" t="s">
         <v>40</v>
@@ -4651,7 +4651,7 @@
         <v>30</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H47">
         <v>2</v>
@@ -4915,7 +4915,7 @@
         <v>44954.5</v>
       </c>
       <c r="F50" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G50" t="s">
         <v>37</v>
@@ -5007,7 +5007,7 @@
         <v>38</v>
       </c>
       <c r="G51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -5096,7 +5096,7 @@
         <v>40</v>
       </c>
       <c r="G52" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H52">
         <v>2</v>
@@ -5526,7 +5526,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>5774078</v>
+        <v>5774703</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5538,76 +5538,76 @@
         <v>44962.58333333334</v>
       </c>
       <c r="F57" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G57" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57">
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K57">
-        <v>1.909</v>
+        <v>1.833</v>
       </c>
       <c r="L57">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M57">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="N57">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="O57">
         <v>3</v>
       </c>
       <c r="P57">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q57">
         <v>-0.25</v>
       </c>
       <c r="R57">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S57">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T57">
         <v>2.25</v>
       </c>
       <c r="U57">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V57">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W57">
         <v>-1</v>
       </c>
       <c r="X57">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y57">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z57">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA57">
-        <v>0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB57">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC57">
-        <v>0.3875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5615,7 +5615,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>5774703</v>
+        <v>5774078</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5627,76 +5627,76 @@
         <v>44962.58333333334</v>
       </c>
       <c r="F58" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G58" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58">
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K58">
-        <v>1.833</v>
+        <v>1.909</v>
       </c>
       <c r="L58">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M58">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="N58">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O58">
         <v>3</v>
       </c>
       <c r="P58">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q58">
         <v>-0.25</v>
       </c>
       <c r="R58">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S58">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T58">
         <v>2.25</v>
       </c>
       <c r="U58">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V58">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W58">
         <v>-1</v>
       </c>
       <c r="X58">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y58">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z58">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA58">
-        <v>1.05</v>
+        <v>0.5</v>
       </c>
       <c r="AB58">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC58">
-        <v>0.9750000000000001</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5805,10 +5805,10 @@
         <v>44964.40625</v>
       </c>
       <c r="F60" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G60" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -5894,7 +5894,7 @@
         <v>44964.5</v>
       </c>
       <c r="F61" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G61" t="s">
         <v>40</v>
@@ -6339,7 +6339,7 @@
         <v>44968.58333333334</v>
       </c>
       <c r="F66" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G66" t="s">
         <v>29</v>
@@ -6428,10 +6428,10 @@
         <v>44969.54166666666</v>
       </c>
       <c r="F67" t="s">
+        <v>41</v>
+      </c>
+      <c r="G67" t="s">
         <v>42</v>
-      </c>
-      <c r="G67" t="s">
-        <v>41</v>
       </c>
       <c r="H67">
         <v>3</v>
@@ -6517,7 +6517,7 @@
         <v>44970.58333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G68" t="s">
         <v>39</v>
@@ -6787,7 +6787,7 @@
         <v>44</v>
       </c>
       <c r="G71" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H71">
         <v>2</v>
@@ -6965,7 +6965,7 @@
         <v>38</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -7407,7 +7407,7 @@
         <v>44979.58333333334</v>
       </c>
       <c r="F78" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G78" t="s">
         <v>40</v>
@@ -7496,7 +7496,7 @@
         <v>44983.5</v>
       </c>
       <c r="F79" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G79" t="s">
         <v>43</v>
@@ -7674,7 +7674,7 @@
         <v>44984.58333333334</v>
       </c>
       <c r="F81" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G81" t="s">
         <v>31</v>
@@ -7751,7 +7751,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6094223</v>
+        <v>6094222</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7766,7 +7766,7 @@
         <v>42</v>
       </c>
       <c r="G82" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H82">
         <v>2</v>
@@ -7778,43 +7778,43 @@
         <v>51</v>
       </c>
       <c r="K82">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="L82">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="M82">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="N82">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="O82">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="P82">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q82">
         <v>-0.25</v>
       </c>
       <c r="R82">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S82">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T82">
         <v>2</v>
       </c>
       <c r="U82">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V82">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W82">
-        <v>1.05</v>
+        <v>1.15</v>
       </c>
       <c r="X82">
         <v>-1</v>
@@ -7823,13 +7823,13 @@
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AA82">
         <v>-1</v>
       </c>
       <c r="AB82">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AC82">
         <v>-1</v>
@@ -7840,7 +7840,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6094222</v>
+        <v>6094223</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7855,7 +7855,7 @@
         <v>41</v>
       </c>
       <c r="G83" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -7867,43 +7867,43 @@
         <v>51</v>
       </c>
       <c r="K83">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="L83">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="M83">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="N83">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="O83">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="P83">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q83">
         <v>-0.25</v>
       </c>
       <c r="R83">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S83">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T83">
         <v>2</v>
       </c>
       <c r="U83">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V83">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W83">
-        <v>1.15</v>
+        <v>1.05</v>
       </c>
       <c r="X83">
         <v>-1</v>
@@ -7912,13 +7912,13 @@
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AA83">
         <v>-1</v>
       </c>
       <c r="AB83">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AC83">
         <v>-1</v>
@@ -8300,7 +8300,7 @@
         <v>43</v>
       </c>
       <c r="G88" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -8475,10 +8475,10 @@
         <v>44991.5</v>
       </c>
       <c r="F90" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -8745,7 +8745,7 @@
         <v>33</v>
       </c>
       <c r="G93" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -9098,7 +9098,7 @@
         <v>45015.67708333334</v>
       </c>
       <c r="F97" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G97" t="s">
         <v>33</v>
@@ -9175,7 +9175,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6436239</v>
+        <v>6441121</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9187,73 +9187,73 @@
         <v>45015.67708333334</v>
       </c>
       <c r="F98" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G98" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98">
+        <v>3</v>
+      </c>
+      <c r="J98" t="s">
+        <v>50</v>
+      </c>
+      <c r="K98">
+        <v>2.3</v>
+      </c>
+      <c r="L98">
+        <v>2.625</v>
+      </c>
+      <c r="M98">
+        <v>3.5</v>
+      </c>
+      <c r="N98">
+        <v>2.25</v>
+      </c>
+      <c r="O98">
+        <v>2.75</v>
+      </c>
+      <c r="P98">
+        <v>3.4</v>
+      </c>
+      <c r="Q98">
+        <v>-0.25</v>
+      </c>
+      <c r="R98">
+        <v>2.025</v>
+      </c>
+      <c r="S98">
+        <v>1.775</v>
+      </c>
+      <c r="T98">
+        <v>2</v>
+      </c>
+      <c r="U98">
+        <v>2</v>
+      </c>
+      <c r="V98">
+        <v>1.8</v>
+      </c>
+      <c r="W98">
+        <v>-1</v>
+      </c>
+      <c r="X98">
+        <v>-1</v>
+      </c>
+      <c r="Y98">
+        <v>2.4</v>
+      </c>
+      <c r="Z98">
+        <v>-1</v>
+      </c>
+      <c r="AA98">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB98">
         <v>1</v>
-      </c>
-      <c r="J98" t="s">
-        <v>51</v>
-      </c>
-      <c r="K98">
-        <v>2.5</v>
-      </c>
-      <c r="L98">
-        <v>2.875</v>
-      </c>
-      <c r="M98">
-        <v>2.8</v>
-      </c>
-      <c r="N98">
-        <v>2.7</v>
-      </c>
-      <c r="O98">
-        <v>2.625</v>
-      </c>
-      <c r="P98">
-        <v>2.8</v>
-      </c>
-      <c r="Q98">
-        <v>0</v>
-      </c>
-      <c r="R98">
-        <v>1.85</v>
-      </c>
-      <c r="S98">
-        <v>1.95</v>
-      </c>
-      <c r="T98">
-        <v>1.75</v>
-      </c>
-      <c r="U98">
-        <v>1.75</v>
-      </c>
-      <c r="V98">
-        <v>2.05</v>
-      </c>
-      <c r="W98">
-        <v>1.7</v>
-      </c>
-      <c r="X98">
-        <v>-1</v>
-      </c>
-      <c r="Y98">
-        <v>-1</v>
-      </c>
-      <c r="Z98">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA98">
-        <v>-1</v>
-      </c>
-      <c r="AB98">
-        <v>0.75</v>
       </c>
       <c r="AC98">
         <v>-1</v>
@@ -9264,7 +9264,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6441121</v>
+        <v>6436239</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9276,73 +9276,73 @@
         <v>45015.67708333334</v>
       </c>
       <c r="F99" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G99" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H99">
+        <v>2</v>
+      </c>
+      <c r="I99">
         <v>1</v>
       </c>
-      <c r="I99">
-        <v>3</v>
-      </c>
       <c r="J99" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K99">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="L99">
+        <v>2.875</v>
+      </c>
+      <c r="M99">
+        <v>2.8</v>
+      </c>
+      <c r="N99">
+        <v>2.7</v>
+      </c>
+      <c r="O99">
         <v>2.625</v>
       </c>
-      <c r="M99">
-        <v>3.5</v>
-      </c>
-      <c r="N99">
-        <v>2.25</v>
-      </c>
-      <c r="O99">
-        <v>2.75</v>
-      </c>
       <c r="P99">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="Q99">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R99">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S99">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T99">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U99">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V99">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="W99">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA99">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AC99">
         <v>-1</v>
@@ -9635,7 +9635,7 @@
         <v>35</v>
       </c>
       <c r="G103" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9798,7 +9798,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6467349</v>
+        <v>6445815</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9810,19 +9810,19 @@
         <v>45020.67708333334</v>
       </c>
       <c r="F105" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G105" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K105">
         <v>2.7</v>
@@ -9831,25 +9831,25 @@
         <v>2.75</v>
       </c>
       <c r="M105">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="N105">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="O105">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="P105">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="Q105">
         <v>0</v>
       </c>
       <c r="R105">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="S105">
-        <v>2.075</v>
+        <v>2</v>
       </c>
       <c r="T105">
         <v>2</v>
@@ -9861,25 +9861,25 @@
         <v>1.95</v>
       </c>
       <c r="W105">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X105">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y105">
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA105">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC105">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9887,7 +9887,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6445815</v>
+        <v>6467349</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9899,19 +9899,19 @@
         <v>45020.67708333334</v>
       </c>
       <c r="F106" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G106" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H106">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K106">
         <v>2.7</v>
@@ -9920,25 +9920,25 @@
         <v>2.75</v>
       </c>
       <c r="M106">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="N106">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="O106">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="P106">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="Q106">
         <v>0</v>
       </c>
       <c r="R106">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="S106">
-        <v>2</v>
+        <v>2.075</v>
       </c>
       <c r="T106">
         <v>2</v>
@@ -9950,25 +9950,25 @@
         <v>1.95</v>
       </c>
       <c r="W106">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X106">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA106">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB106">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC106">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9976,7 +9976,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6471794</v>
+        <v>6451733</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9988,76 +9988,76 @@
         <v>45021.67708333334</v>
       </c>
       <c r="F107" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G107" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107" t="s">
+        <v>52</v>
+      </c>
+      <c r="K107">
+        <v>4.2</v>
+      </c>
+      <c r="L107">
         <v>3</v>
       </c>
-      <c r="I107">
-        <v>0</v>
-      </c>
-      <c r="J107" t="s">
-        <v>51</v>
-      </c>
-      <c r="K107">
-        <v>1.222</v>
-      </c>
-      <c r="L107">
-        <v>5.25</v>
-      </c>
       <c r="M107">
-        <v>10</v>
+        <v>1.85</v>
       </c>
       <c r="N107">
-        <v>1.222</v>
+        <v>3.4</v>
       </c>
       <c r="O107">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="P107">
-        <v>10</v>
+        <v>2.15</v>
       </c>
       <c r="Q107">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R107">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S107">
+        <v>1.925</v>
+      </c>
+      <c r="T107">
+        <v>2</v>
+      </c>
+      <c r="U107">
+        <v>1.875</v>
+      </c>
+      <c r="V107">
+        <v>1.925</v>
+      </c>
+      <c r="W107">
+        <v>-1</v>
+      </c>
+      <c r="X107">
         <v>1.8</v>
       </c>
-      <c r="T107">
-        <v>2.75</v>
-      </c>
-      <c r="U107">
-        <v>1.975</v>
-      </c>
-      <c r="V107">
-        <v>1.825</v>
-      </c>
-      <c r="W107">
-        <v>0.222</v>
-      </c>
-      <c r="X107">
-        <v>-1</v>
-      </c>
       <c r="Y107">
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA107">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB107">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC107">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10065,7 +10065,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6451733</v>
+        <v>6471794</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10077,76 +10077,76 @@
         <v>45021.67708333334</v>
       </c>
       <c r="F108" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G108" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I108">
         <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K108">
-        <v>4.2</v>
+        <v>1.222</v>
       </c>
       <c r="L108">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="M108">
-        <v>1.85</v>
+        <v>10</v>
       </c>
       <c r="N108">
-        <v>3.4</v>
+        <v>1.222</v>
       </c>
       <c r="O108">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="P108">
-        <v>2.15</v>
+        <v>10</v>
       </c>
       <c r="Q108">
-        <v>0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R108">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S108">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T108">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U108">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V108">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W108">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X108">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y108">
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>0.4375</v>
+        <v>1</v>
       </c>
       <c r="AA108">
+        <v>-1</v>
+      </c>
+      <c r="AB108">
+        <v>0.4875</v>
+      </c>
+      <c r="AC108">
         <v>-0.5</v>
-      </c>
-      <c r="AB108">
-        <v>-1</v>
-      </c>
-      <c r="AC108">
-        <v>0.925</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10243,7 +10243,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6484231</v>
+        <v>6493897</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10255,76 +10255,76 @@
         <v>45023.67708333334</v>
       </c>
       <c r="F110" t="s">
+        <v>30</v>
+      </c>
+      <c r="G110" t="s">
         <v>41</v>
-      </c>
-      <c r="G110" t="s">
-        <v>43</v>
       </c>
       <c r="H110">
         <v>1</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K110">
-        <v>1.727</v>
+        <v>3.5</v>
       </c>
       <c r="L110">
         <v>3.25</v>
       </c>
       <c r="M110">
-        <v>4.333</v>
+        <v>1.909</v>
       </c>
       <c r="N110">
-        <v>1.533</v>
+        <v>2.7</v>
       </c>
       <c r="O110">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P110">
-        <v>5.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q110">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R110">
+        <v>1.8</v>
+      </c>
+      <c r="S110">
+        <v>2</v>
+      </c>
+      <c r="T110">
+        <v>2</v>
+      </c>
+      <c r="U110">
         <v>1.75</v>
       </c>
-      <c r="S110">
+      <c r="V110">
         <v>2.05</v>
       </c>
-      <c r="T110">
+      <c r="W110">
+        <v>-1</v>
+      </c>
+      <c r="X110">
         <v>2.25</v>
       </c>
-      <c r="U110">
-        <v>2.025</v>
-      </c>
-      <c r="V110">
-        <v>1.775</v>
-      </c>
-      <c r="W110">
-        <v>0.5329999999999999</v>
-      </c>
-      <c r="X110">
-        <v>-1</v>
-      </c>
       <c r="Y110">
         <v>-1</v>
       </c>
       <c r="Z110">
-        <v>0.375</v>
+        <v>0.4</v>
       </c>
       <c r="AA110">
         <v>-0.5</v>
       </c>
       <c r="AB110">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC110">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10332,7 +10332,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6493897</v>
+        <v>6484231</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10344,76 +10344,76 @@
         <v>45023.67708333334</v>
       </c>
       <c r="F111" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G111" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H111">
         <v>1</v>
       </c>
       <c r="I111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K111">
-        <v>3.5</v>
+        <v>1.727</v>
       </c>
       <c r="L111">
         <v>3.25</v>
       </c>
       <c r="M111">
-        <v>1.909</v>
+        <v>4.333</v>
       </c>
       <c r="N111">
-        <v>2.7</v>
+        <v>1.533</v>
       </c>
       <c r="O111">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P111">
-        <v>2.3</v>
+        <v>5.5</v>
       </c>
       <c r="Q111">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R111">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S111">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T111">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U111">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="V111">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="W111">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X111">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y111">
         <v>-1</v>
       </c>
       <c r="Z111">
-        <v>0.4</v>
+        <v>0.375</v>
       </c>
       <c r="AA111">
         <v>-0.5</v>
       </c>
       <c r="AB111">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC111">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10421,7 +10421,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6471698</v>
+        <v>6488022</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10433,25 +10433,25 @@
         <v>45025.67708333334</v>
       </c>
       <c r="F112" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G112" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I112">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J112" t="s">
         <v>51</v>
       </c>
       <c r="K112">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="L112">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M112">
         <v>4</v>
@@ -10460,28 +10460,28 @@
         <v>2.2</v>
       </c>
       <c r="O112">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P112">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="Q112">
         <v>-0.25</v>
       </c>
       <c r="R112">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S112">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T112">
         <v>2</v>
       </c>
       <c r="U112">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V112">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W112">
         <v>1.2</v>
@@ -10493,16 +10493,16 @@
         <v>-1</v>
       </c>
       <c r="Z112">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA112">
         <v>-1</v>
       </c>
       <c r="AB112">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC112">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10510,7 +10510,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6484232</v>
+        <v>6471698</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10522,58 +10522,58 @@
         <v>45025.67708333334</v>
       </c>
       <c r="F113" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G113" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="s">
         <v>51</v>
       </c>
       <c r="K113">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="L113">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="M113">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="N113">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="O113">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="P113">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="Q113">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R113">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S113">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T113">
         <v>2</v>
       </c>
       <c r="U113">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V113">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W113">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="X113">
         <v>-1</v>
@@ -10582,16 +10582,16 @@
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA113">
         <v>-1</v>
       </c>
       <c r="AB113">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC113">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10599,7 +10599,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6488022</v>
+        <v>6484232</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10611,46 +10611,46 @@
         <v>45025.67708333334</v>
       </c>
       <c r="F114" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G114" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H114">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I114">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J114" t="s">
         <v>51</v>
       </c>
       <c r="K114">
-        <v>1.95</v>
+        <v>3</v>
       </c>
       <c r="L114">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M114">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="N114">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="O114">
         <v>2.875</v>
       </c>
       <c r="P114">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="Q114">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R114">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S114">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T114">
         <v>2</v>
@@ -10662,7 +10662,7 @@
         <v>1.9</v>
       </c>
       <c r="W114">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="X114">
         <v>-1</v>
@@ -10671,7 +10671,7 @@
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA114">
         <v>-1</v>
@@ -10777,7 +10777,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6484222</v>
+        <v>6471800</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10789,76 +10789,76 @@
         <v>45028.67708333334</v>
       </c>
       <c r="F116" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G116" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H116">
         <v>0</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K116">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="L116">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M116">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="N116">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="O116">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="P116">
-        <v>1.95</v>
+        <v>1.6</v>
       </c>
       <c r="Q116">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R116">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S116">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T116">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U116">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V116">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W116">
         <v>-1</v>
       </c>
       <c r="X116">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y116">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z116">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA116">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB116">
         <v>-1</v>
       </c>
       <c r="AC116">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10866,7 +10866,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6471800</v>
+        <v>6484222</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10878,76 +10878,76 @@
         <v>45028.67708333334</v>
       </c>
       <c r="F117" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G117" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H117">
         <v>0</v>
       </c>
       <c r="I117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K117">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="L117">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M117">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="N117">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="O117">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="P117">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="Q117">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R117">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S117">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T117">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U117">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V117">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y117">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA117">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB117">
         <v>-1</v>
       </c>
       <c r="AC117">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -11148,7 +11148,7 @@
         <v>33</v>
       </c>
       <c r="G120" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H120">
         <v>0</v>
@@ -11237,7 +11237,7 @@
         <v>31</v>
       </c>
       <c r="G121" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H121">
         <v>3</v>
@@ -11504,7 +11504,7 @@
         <v>44</v>
       </c>
       <c r="G124" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H124">
         <v>2</v>
@@ -11578,7 +11578,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6488032</v>
+        <v>6488028</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11590,49 +11590,49 @@
         <v>45033.67708333334</v>
       </c>
       <c r="F125" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G125" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125">
         <v>2</v>
       </c>
       <c r="J125" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K125">
-        <v>6.5</v>
+        <v>1.8</v>
       </c>
       <c r="L125">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M125">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="N125">
-        <v>6.5</v>
+        <v>2.25</v>
       </c>
       <c r="O125">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="P125">
-        <v>1.45</v>
+        <v>3.1</v>
       </c>
       <c r="Q125">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R125">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S125">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T125">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U125">
         <v>1.875</v>
@@ -11644,22 +11644,22 @@
         <v>-1</v>
       </c>
       <c r="X125">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y125">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z125">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA125">
-        <v>0.825</v>
+        <v>0.375</v>
       </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC125">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11667,7 +11667,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6488028</v>
+        <v>6488032</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11679,49 +11679,49 @@
         <v>45033.67708333334</v>
       </c>
       <c r="F126" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G126" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126">
         <v>2</v>
       </c>
       <c r="J126" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K126">
-        <v>1.8</v>
+        <v>6.5</v>
       </c>
       <c r="L126">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M126">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="N126">
-        <v>2.25</v>
+        <v>6.5</v>
       </c>
       <c r="O126">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="P126">
-        <v>3.1</v>
+        <v>1.45</v>
       </c>
       <c r="Q126">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R126">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S126">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T126">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U126">
         <v>1.875</v>
@@ -11733,22 +11733,22 @@
         <v>-1</v>
       </c>
       <c r="X126">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y126">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z126">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA126">
-        <v>0.375</v>
+        <v>0.825</v>
       </c>
       <c r="AB126">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC126">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11756,7 +11756,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6488029</v>
+        <v>6488033</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11768,10 +11768,10 @@
         <v>45034.67708333334</v>
       </c>
       <c r="F127" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G127" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H127">
         <v>2</v>
@@ -11783,43 +11783,43 @@
         <v>51</v>
       </c>
       <c r="K127">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="L127">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M127">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N127">
-        <v>1.444</v>
+        <v>2.25</v>
       </c>
       <c r="O127">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="P127">
-        <v>7</v>
+        <v>3.1</v>
       </c>
       <c r="Q127">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R127">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="S127">
-        <v>2</v>
+        <v>2.075</v>
       </c>
       <c r="T127">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U127">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V127">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W127">
-        <v>0.444</v>
+        <v>1.25</v>
       </c>
       <c r="X127">
         <v>-1</v>
@@ -11828,16 +11828,16 @@
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>0.8</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA127">
         <v>-1</v>
       </c>
       <c r="AB127">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC127">
-        <v>0.4625</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11845,7 +11845,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6488033</v>
+        <v>6488029</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11857,10 +11857,10 @@
         <v>45034.67708333334</v>
       </c>
       <c r="F128" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G128" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H128">
         <v>2</v>
@@ -11872,43 +11872,43 @@
         <v>51</v>
       </c>
       <c r="K128">
+        <v>1.4</v>
+      </c>
+      <c r="L128">
+        <v>4</v>
+      </c>
+      <c r="M128">
+        <v>7</v>
+      </c>
+      <c r="N128">
+        <v>1.444</v>
+      </c>
+      <c r="O128">
+        <v>3.75</v>
+      </c>
+      <c r="P128">
+        <v>7</v>
+      </c>
+      <c r="Q128">
+        <v>-1</v>
+      </c>
+      <c r="R128">
+        <v>1.8</v>
+      </c>
+      <c r="S128">
+        <v>2</v>
+      </c>
+      <c r="T128">
         <v>2.25</v>
       </c>
-      <c r="L128">
-        <v>3</v>
-      </c>
-      <c r="M128">
-        <v>3</v>
-      </c>
-      <c r="N128">
-        <v>2.25</v>
-      </c>
-      <c r="O128">
-        <v>2.875</v>
-      </c>
-      <c r="P128">
-        <v>3.1</v>
-      </c>
-      <c r="Q128">
-        <v>0</v>
-      </c>
-      <c r="R128">
-        <v>1.725</v>
-      </c>
-      <c r="S128">
-        <v>2.075</v>
-      </c>
-      <c r="T128">
-        <v>2</v>
-      </c>
       <c r="U128">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V128">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W128">
-        <v>1.25</v>
+        <v>0.444</v>
       </c>
       <c r="X128">
         <v>-1</v>
@@ -11917,16 +11917,16 @@
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>0.7250000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA128">
         <v>-1</v>
       </c>
       <c r="AB128">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC128">
-        <v>-0</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11934,7 +11934,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6495713</v>
+        <v>6488030</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11946,76 +11946,76 @@
         <v>45035.67708333334</v>
       </c>
       <c r="F129" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G129" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K129">
-        <v>3.9</v>
+        <v>2</v>
       </c>
       <c r="L129">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="M129">
+        <v>4</v>
+      </c>
+      <c r="N129">
         <v>2.05</v>
       </c>
-      <c r="N129">
-        <v>4.2</v>
-      </c>
       <c r="O129">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="P129">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="Q129">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R129">
+        <v>1.775</v>
+      </c>
+      <c r="S129">
         <v>2.025</v>
       </c>
-      <c r="S129">
-        <v>1.775</v>
-      </c>
       <c r="T129">
         <v>2</v>
       </c>
       <c r="U129">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V129">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W129">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X129">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y129">
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0.5125</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA129">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB129">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC129">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12023,7 +12023,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6499805</v>
+        <v>6495713</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12035,76 +12035,76 @@
         <v>45035.67708333334</v>
       </c>
       <c r="F130" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G130" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130">
         <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K130">
-        <v>2.1</v>
+        <v>3.9</v>
       </c>
       <c r="L130">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="M130">
-        <v>3.3</v>
+        <v>2.05</v>
       </c>
       <c r="N130">
-        <v>1.727</v>
+        <v>4.2</v>
       </c>
       <c r="O130">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="P130">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="Q130">
+        <v>0.25</v>
+      </c>
+      <c r="R130">
+        <v>2.025</v>
+      </c>
+      <c r="S130">
+        <v>1.775</v>
+      </c>
+      <c r="T130">
+        <v>2</v>
+      </c>
+      <c r="U130">
+        <v>1.95</v>
+      </c>
+      <c r="V130">
+        <v>1.85</v>
+      </c>
+      <c r="W130">
+        <v>-1</v>
+      </c>
+      <c r="X130">
+        <v>1.75</v>
+      </c>
+      <c r="Y130">
+        <v>-1</v>
+      </c>
+      <c r="Z130">
+        <v>0.5125</v>
+      </c>
+      <c r="AA130">
         <v>-0.5</v>
       </c>
-      <c r="R130">
-        <v>1.775</v>
-      </c>
-      <c r="S130">
-        <v>2.025</v>
-      </c>
-      <c r="T130">
-        <v>2</v>
-      </c>
-      <c r="U130">
-        <v>1.9</v>
-      </c>
-      <c r="V130">
-        <v>1.9</v>
-      </c>
-      <c r="W130">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="X130">
-        <v>-1</v>
-      </c>
-      <c r="Y130">
-        <v>-1</v>
-      </c>
-      <c r="Z130">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AA130">
-        <v>-1</v>
-      </c>
       <c r="AB130">
         <v>-1</v>
       </c>
       <c r="AC130">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12112,7 +12112,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6488030</v>
+        <v>6499805</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12124,40 +12124,40 @@
         <v>45035.67708333334</v>
       </c>
       <c r="F131" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G131" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H131">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J131" t="s">
         <v>51</v>
       </c>
       <c r="K131">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L131">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="M131">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="N131">
-        <v>2.05</v>
+        <v>1.727</v>
       </c>
       <c r="O131">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="P131">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="Q131">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R131">
         <v>1.775</v>
@@ -12169,13 +12169,13 @@
         <v>2</v>
       </c>
       <c r="U131">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V131">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W131">
-        <v>1.05</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X131">
         <v>-1</v>
@@ -12190,10 +12190,10 @@
         <v>-1</v>
       </c>
       <c r="AB131">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC131">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12201,7 +12201,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6488031</v>
+        <v>6495714</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12216,73 +12216,73 @@
         <v>41</v>
       </c>
       <c r="G132" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K132">
         <v>2.3</v>
       </c>
       <c r="L132">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="M132">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N132">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O132">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="P132">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q132">
         <v>-0.25</v>
       </c>
       <c r="R132">
+        <v>1.9</v>
+      </c>
+      <c r="S132">
+        <v>1.9</v>
+      </c>
+      <c r="T132">
+        <v>2.25</v>
+      </c>
+      <c r="U132">
+        <v>1.95</v>
+      </c>
+      <c r="V132">
         <v>1.85</v>
       </c>
-      <c r="S132">
-        <v>1.95</v>
-      </c>
-      <c r="T132">
-        <v>2</v>
-      </c>
-      <c r="U132">
-        <v>2</v>
-      </c>
-      <c r="V132">
+      <c r="W132">
+        <v>-1</v>
+      </c>
+      <c r="X132">
         <v>1.8</v>
       </c>
-      <c r="W132">
-        <v>-1</v>
-      </c>
-      <c r="X132">
-        <v>-1</v>
-      </c>
       <c r="Y132">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA132">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="AB132">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC132">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12290,7 +12290,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6495714</v>
+        <v>6488031</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12305,73 +12305,73 @@
         <v>42</v>
       </c>
       <c r="G133" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J133" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K133">
         <v>2.3</v>
       </c>
       <c r="L133">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="M133">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N133">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O133">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="P133">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q133">
         <v>-0.25</v>
       </c>
       <c r="R133">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S133">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T133">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U133">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V133">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W133">
         <v>-1</v>
       </c>
       <c r="X133">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y133">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z133">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA133">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
       <c r="AB133">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC133">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12394,7 +12394,7 @@
         <v>44</v>
       </c>
       <c r="G134" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -12569,7 +12569,7 @@
         <v>45042.5</v>
       </c>
       <c r="F136" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G136" t="s">
         <v>34</v>
@@ -12661,7 +12661,7 @@
         <v>39</v>
       </c>
       <c r="G137" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H137">
         <v>1</v>
@@ -12750,7 +12750,7 @@
         <v>34</v>
       </c>
       <c r="G138" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H138">
         <v>0</v>
@@ -12928,7 +12928,7 @@
         <v>30</v>
       </c>
       <c r="G140" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H140">
         <v>3</v>
@@ -13002,7 +13002,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6574064</v>
+        <v>6576763</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13014,76 +13014,76 @@
         <v>45050.54166666666</v>
       </c>
       <c r="F141" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G141" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I141">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K141">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="L141">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="M141">
-        <v>2.2</v>
+        <v>4.25</v>
       </c>
       <c r="N141">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="O141">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="P141">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q141">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R141">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S141">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T141">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U141">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V141">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W141">
         <v>-1</v>
       </c>
       <c r="X141">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Y141">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA141">
-        <v>0.8</v>
+        <v>0.3875</v>
       </c>
       <c r="AB141">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC141">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13091,7 +13091,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6576763</v>
+        <v>6574064</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13103,76 +13103,76 @@
         <v>45050.54166666666</v>
       </c>
       <c r="F142" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G142" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I142">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J142" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K142">
+        <v>3.4</v>
+      </c>
+      <c r="L142">
+        <v>2.75</v>
+      </c>
+      <c r="M142">
+        <v>2.2</v>
+      </c>
+      <c r="N142">
+        <v>4</v>
+      </c>
+      <c r="O142">
+        <v>2.7</v>
+      </c>
+      <c r="P142">
         <v>2.1</v>
       </c>
-      <c r="L142">
-        <v>2.5</v>
-      </c>
-      <c r="M142">
-        <v>4.25</v>
-      </c>
-      <c r="N142">
-        <v>2.3</v>
-      </c>
-      <c r="O142">
-        <v>2.55</v>
-      </c>
-      <c r="P142">
-        <v>3.5</v>
-      </c>
       <c r="Q142">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R142">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S142">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T142">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U142">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V142">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W142">
         <v>-1</v>
       </c>
       <c r="X142">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z142">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>0.3875</v>
+        <v>0.8</v>
       </c>
       <c r="AB142">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC142">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13459,7 +13459,7 @@
         <v>45060.58333333334</v>
       </c>
       <c r="F146" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G146" t="s">
         <v>34</v>
@@ -13548,7 +13548,7 @@
         <v>45061.54166666666</v>
       </c>
       <c r="F147" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G147" t="s">
         <v>29</v>
@@ -13815,7 +13815,7 @@
         <v>45062.54166666666</v>
       </c>
       <c r="F150" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G150" t="s">
         <v>36</v>
@@ -13904,7 +13904,7 @@
         <v>45062.64583333334</v>
       </c>
       <c r="F151" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G151" t="s">
         <v>37</v>
@@ -14352,7 +14352,7 @@
         <v>31</v>
       </c>
       <c r="G156" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H156">
         <v>1</v>
@@ -14426,7 +14426,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6574889</v>
+        <v>6678437</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14438,76 +14438,76 @@
         <v>45068.64583333334</v>
       </c>
       <c r="F157" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G157" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J157" t="s">
         <v>52</v>
       </c>
       <c r="K157">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="L157">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M157">
-        <v>1.8</v>
+        <v>3.75</v>
       </c>
       <c r="N157">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="O157">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="P157">
-        <v>1.909</v>
+        <v>3.4</v>
       </c>
       <c r="Q157">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R157">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S157">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T157">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U157">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V157">
+        <v>2.025</v>
+      </c>
+      <c r="W157">
+        <v>-1</v>
+      </c>
+      <c r="X157">
         <v>1.875</v>
       </c>
-      <c r="W157">
-        <v>-1</v>
-      </c>
-      <c r="X157">
-        <v>2.25</v>
-      </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA157">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB157">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC157">
-        <v>0.4375</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14515,7 +14515,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6678437</v>
+        <v>6574889</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14527,76 +14527,76 @@
         <v>45068.64583333334</v>
       </c>
       <c r="F158" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G158" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J158" t="s">
         <v>52</v>
       </c>
       <c r="K158">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="L158">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M158">
-        <v>3.75</v>
+        <v>1.8</v>
       </c>
       <c r="N158">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="O158">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="P158">
-        <v>3.4</v>
+        <v>1.909</v>
       </c>
       <c r="Q158">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R158">
+        <v>1.825</v>
+      </c>
+      <c r="S158">
+        <v>1.975</v>
+      </c>
+      <c r="T158">
+        <v>2.25</v>
+      </c>
+      <c r="U158">
         <v>1.925</v>
       </c>
-      <c r="S158">
+      <c r="V158">
         <v>1.875</v>
       </c>
-      <c r="T158">
-        <v>1.75</v>
-      </c>
-      <c r="U158">
-        <v>1.775</v>
-      </c>
-      <c r="V158">
-        <v>2.025</v>
-      </c>
       <c r="W158">
         <v>-1</v>
       </c>
       <c r="X158">
-        <v>1.875</v>
+        <v>2.25</v>
       </c>
       <c r="Y158">
         <v>-1</v>
       </c>
       <c r="Z158">
+        <v>0.825</v>
+      </c>
+      <c r="AA158">
+        <v>-1</v>
+      </c>
+      <c r="AB158">
         <v>-0.5</v>
       </c>
-      <c r="AA158">
+      <c r="AC158">
         <v>0.4375</v>
-      </c>
-      <c r="AB158">
-        <v>-1</v>
-      </c>
-      <c r="AC158">
-        <v>1.025</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14797,7 +14797,7 @@
         <v>37</v>
       </c>
       <c r="G161" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H161">
         <v>1</v>
@@ -14871,7 +14871,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6686652</v>
+        <v>6576691</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14883,10 +14883,10 @@
         <v>45070.64583333334</v>
       </c>
       <c r="F162" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G162" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H162">
         <v>1</v>
@@ -14898,43 +14898,43 @@
         <v>51</v>
       </c>
       <c r="K162">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="L162">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="M162">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="N162">
-        <v>2.2</v>
+        <v>1.363</v>
       </c>
       <c r="O162">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="P162">
-        <v>3.25</v>
+        <v>8</v>
       </c>
       <c r="Q162">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R162">
+        <v>1.85</v>
+      </c>
+      <c r="S162">
         <v>1.95</v>
       </c>
-      <c r="S162">
-        <v>1.85</v>
-      </c>
       <c r="T162">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U162">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V162">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W162">
-        <v>1.2</v>
+        <v>0.363</v>
       </c>
       <c r="X162">
         <v>-1</v>
@@ -14943,16 +14943,16 @@
         <v>-1</v>
       </c>
       <c r="Z162">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA162">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB162">
         <v>-1</v>
       </c>
       <c r="AC162">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -14960,7 +14960,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6576691</v>
+        <v>6686652</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14972,10 +14972,10 @@
         <v>45070.64583333334</v>
       </c>
       <c r="F163" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G163" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H163">
         <v>1</v>
@@ -14987,43 +14987,43 @@
         <v>51</v>
       </c>
       <c r="K163">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="L163">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="M163">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="N163">
-        <v>1.363</v>
+        <v>2.2</v>
       </c>
       <c r="O163">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="P163">
-        <v>8</v>
+        <v>3.25</v>
       </c>
       <c r="Q163">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R163">
+        <v>1.95</v>
+      </c>
+      <c r="S163">
         <v>1.85</v>
       </c>
-      <c r="S163">
-        <v>1.95</v>
-      </c>
       <c r="T163">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U163">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V163">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W163">
-        <v>0.363</v>
+        <v>1.2</v>
       </c>
       <c r="X163">
         <v>-1</v>
@@ -15032,16 +15032,16 @@
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA163">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB163">
         <v>-1</v>
       </c>
       <c r="AC163">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15061,7 +15061,7 @@
         <v>45072.58333333334</v>
       </c>
       <c r="F164" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G164" t="s">
         <v>32</v>
@@ -15242,7 +15242,7 @@
         <v>32</v>
       </c>
       <c r="G166" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H166">
         <v>1</v>
@@ -15331,7 +15331,7 @@
         <v>39</v>
       </c>
       <c r="G167" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H167">
         <v>2</v>
@@ -15773,7 +15773,7 @@
         <v>45079.54166666666</v>
       </c>
       <c r="F172" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G172" t="s">
         <v>37</v>
@@ -15951,10 +15951,10 @@
         <v>45080.58333333334</v>
       </c>
       <c r="F174" t="s">
+        <v>45</v>
+      </c>
+      <c r="G174" t="s">
         <v>46</v>
-      </c>
-      <c r="G174" t="s">
-        <v>45</v>
       </c>
       <c r="H174">
         <v>2</v>
@@ -16117,7 +16117,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6682709</v>
+        <v>6682708</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16129,76 +16129,76 @@
         <v>45083.54166666666</v>
       </c>
       <c r="F176" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G176" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I176">
         <v>1</v>
       </c>
       <c r="J176" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K176">
+        <v>2</v>
+      </c>
+      <c r="L176">
+        <v>2.875</v>
+      </c>
+      <c r="M176">
+        <v>3.75</v>
+      </c>
+      <c r="N176">
+        <v>1.833</v>
+      </c>
+      <c r="O176">
+        <v>3</v>
+      </c>
+      <c r="P176">
         <v>4.333</v>
       </c>
-      <c r="L176">
-        <v>3.25</v>
-      </c>
-      <c r="M176">
-        <v>1.727</v>
-      </c>
-      <c r="N176">
-        <v>3.4</v>
-      </c>
-      <c r="O176">
-        <v>3.5</v>
-      </c>
-      <c r="P176">
+      <c r="Q176">
+        <v>-0.5</v>
+      </c>
+      <c r="R176">
         <v>1.85</v>
       </c>
-      <c r="Q176">
-        <v>0.5</v>
-      </c>
-      <c r="R176">
-        <v>1.875</v>
-      </c>
       <c r="S176">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T176">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U176">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V176">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W176">
         <v>-1</v>
       </c>
       <c r="X176">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y176">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z176">
         <v>-1</v>
       </c>
       <c r="AA176">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB176">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC176">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16206,7 +16206,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6682708</v>
+        <v>6682709</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16218,76 +16218,76 @@
         <v>45083.54166666666</v>
       </c>
       <c r="F177" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G177" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177">
         <v>1</v>
       </c>
       <c r="J177" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K177">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="L177">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="M177">
-        <v>3.75</v>
+        <v>1.727</v>
       </c>
       <c r="N177">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="O177">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P177">
-        <v>4.333</v>
+        <v>1.85</v>
       </c>
       <c r="Q177">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R177">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S177">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T177">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U177">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V177">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W177">
         <v>-1</v>
       </c>
       <c r="X177">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y177">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z177">
         <v>-1</v>
       </c>
       <c r="AA177">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AB177">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC177">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16396,7 +16396,7 @@
         <v>45084.54166666666</v>
       </c>
       <c r="F179" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G179" t="s">
         <v>34</v>
@@ -16485,10 +16485,10 @@
         <v>45084.64583333334</v>
       </c>
       <c r="F180" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G180" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H180">
         <v>2</v>
@@ -16577,7 +16577,7 @@
         <v>35</v>
       </c>
       <c r="G181" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H181">
         <v>0</v>
@@ -17019,7 +17019,7 @@
         <v>45105.54166666666</v>
       </c>
       <c r="F186" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G186" t="s">
         <v>36</v>
@@ -17111,7 +17111,7 @@
         <v>40</v>
       </c>
       <c r="G187" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H187">
         <v>5</v>
@@ -17452,7 +17452,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6682721</v>
+        <v>6682722</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17464,76 +17464,76 @@
         <v>45107.64583333334</v>
       </c>
       <c r="F191" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G191" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H191">
         <v>0</v>
       </c>
       <c r="I191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J191" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K191">
+        <v>2.5</v>
+      </c>
+      <c r="L191">
+        <v>2.7</v>
+      </c>
+      <c r="M191">
+        <v>2.9</v>
+      </c>
+      <c r="N191">
+        <v>3.1</v>
+      </c>
+      <c r="O191">
+        <v>2.6</v>
+      </c>
+      <c r="P191">
+        <v>2.5</v>
+      </c>
+      <c r="Q191">
+        <v>0.25</v>
+      </c>
+      <c r="R191">
+        <v>1.7</v>
+      </c>
+      <c r="S191">
+        <v>2.1</v>
+      </c>
+      <c r="T191">
+        <v>1.75</v>
+      </c>
+      <c r="U191">
+        <v>1.75</v>
+      </c>
+      <c r="V191">
         <v>2.05</v>
       </c>
-      <c r="L191">
-        <v>2.9</v>
-      </c>
-      <c r="M191">
-        <v>3.5</v>
-      </c>
-      <c r="N191">
-        <v>2.3</v>
-      </c>
-      <c r="O191">
-        <v>2.8</v>
-      </c>
-      <c r="P191">
-        <v>3.1</v>
-      </c>
-      <c r="Q191">
-        <v>-0.25</v>
-      </c>
-      <c r="R191">
-        <v>1.975</v>
-      </c>
-      <c r="S191">
-        <v>1.825</v>
-      </c>
-      <c r="T191">
-        <v>2.25</v>
-      </c>
-      <c r="U191">
-        <v>2</v>
-      </c>
-      <c r="V191">
-        <v>1.8</v>
-      </c>
       <c r="W191">
         <v>-1</v>
       </c>
       <c r="X191">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Y191">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z191">
-        <v>-1</v>
+        <v>0.35</v>
       </c>
       <c r="AA191">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB191">
         <v>-1</v>
       </c>
       <c r="AC191">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17541,7 +17541,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6682722</v>
+        <v>6682721</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17553,76 +17553,76 @@
         <v>45107.64583333334</v>
       </c>
       <c r="F192" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G192" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H192">
         <v>0</v>
       </c>
       <c r="I192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J192" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K192">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="L192">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="M192">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="N192">
+        <v>2.3</v>
+      </c>
+      <c r="O192">
+        <v>2.8</v>
+      </c>
+      <c r="P192">
         <v>3.1</v>
       </c>
-      <c r="O192">
-        <v>2.6</v>
-      </c>
-      <c r="P192">
-        <v>2.5</v>
-      </c>
       <c r="Q192">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R192">
-        <v>1.7</v>
+        <v>1.975</v>
       </c>
       <c r="S192">
+        <v>1.825</v>
+      </c>
+      <c r="T192">
+        <v>2.25</v>
+      </c>
+      <c r="U192">
+        <v>2</v>
+      </c>
+      <c r="V192">
+        <v>1.8</v>
+      </c>
+      <c r="W192">
+        <v>-1</v>
+      </c>
+      <c r="X192">
+        <v>-1</v>
+      </c>
+      <c r="Y192">
         <v>2.1</v>
       </c>
-      <c r="T192">
-        <v>1.75</v>
-      </c>
-      <c r="U192">
-        <v>1.75</v>
-      </c>
-      <c r="V192">
-        <v>2.05</v>
-      </c>
-      <c r="W192">
-        <v>-1</v>
-      </c>
-      <c r="X192">
-        <v>1.6</v>
-      </c>
-      <c r="Y192">
-        <v>-1</v>
-      </c>
       <c r="Z192">
-        <v>0.35</v>
+        <v>-1</v>
       </c>
       <c r="AA192">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB192">
         <v>-1</v>
       </c>
       <c r="AC192">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -18090,7 +18090,7 @@
         <v>37</v>
       </c>
       <c r="G198" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H198">
         <v>0</v>
@@ -18164,7 +18164,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6853140</v>
+        <v>6853128</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18176,76 +18176,76 @@
         <v>45117.60416666666</v>
       </c>
       <c r="F199" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G199" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I199">
         <v>0</v>
       </c>
       <c r="J199" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K199">
-        <v>2.05</v>
+        <v>2.875</v>
       </c>
       <c r="L199">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="M199">
-        <v>3.75</v>
+        <v>2.45</v>
       </c>
       <c r="N199">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="O199">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="P199">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="Q199">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R199">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S199">
+        <v>2.025</v>
+      </c>
+      <c r="T199">
+        <v>2.25</v>
+      </c>
+      <c r="U199">
+        <v>1.9</v>
+      </c>
+      <c r="V199">
+        <v>1.9</v>
+      </c>
+      <c r="W199">
+        <v>-1</v>
+      </c>
+      <c r="X199">
         <v>1.75</v>
       </c>
-      <c r="T199">
-        <v>2</v>
-      </c>
-      <c r="U199">
-        <v>2</v>
-      </c>
-      <c r="V199">
-        <v>1.8</v>
-      </c>
-      <c r="W199">
-        <v>1</v>
-      </c>
-      <c r="X199">
-        <v>-1</v>
-      </c>
       <c r="Y199">
         <v>-1</v>
       </c>
       <c r="Z199">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AA199">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB199">
         <v>-1</v>
       </c>
       <c r="AC199">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18253,7 +18253,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>6853139</v>
+        <v>6853140</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18265,76 +18265,76 @@
         <v>45117.60416666666</v>
       </c>
       <c r="F200" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G200" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I200">
+        <v>0</v>
+      </c>
+      <c r="J200" t="s">
+        <v>51</v>
+      </c>
+      <c r="K200">
+        <v>2.05</v>
+      </c>
+      <c r="L200">
+        <v>2.8</v>
+      </c>
+      <c r="M200">
+        <v>3.75</v>
+      </c>
+      <c r="N200">
+        <v>2</v>
+      </c>
+      <c r="O200">
+        <v>2.8</v>
+      </c>
+      <c r="P200">
+        <v>4</v>
+      </c>
+      <c r="Q200">
+        <v>-0.5</v>
+      </c>
+      <c r="R200">
+        <v>2.05</v>
+      </c>
+      <c r="S200">
+        <v>1.75</v>
+      </c>
+      <c r="T200">
+        <v>2</v>
+      </c>
+      <c r="U200">
+        <v>2</v>
+      </c>
+      <c r="V200">
+        <v>1.8</v>
+      </c>
+      <c r="W200">
         <v>1</v>
       </c>
-      <c r="J200" t="s">
-        <v>50</v>
-      </c>
-      <c r="K200">
-        <v>2.7</v>
-      </c>
-      <c r="L200">
-        <v>2.7</v>
-      </c>
-      <c r="M200">
-        <v>2.7</v>
-      </c>
-      <c r="N200">
-        <v>2.8</v>
-      </c>
-      <c r="O200">
-        <v>2.75</v>
-      </c>
-      <c r="P200">
-        <v>2.55</v>
-      </c>
-      <c r="Q200">
-        <v>0</v>
-      </c>
-      <c r="R200">
-        <v>1.975</v>
-      </c>
-      <c r="S200">
-        <v>1.825</v>
-      </c>
-      <c r="T200">
-        <v>2</v>
-      </c>
-      <c r="U200">
-        <v>1.775</v>
-      </c>
-      <c r="V200">
-        <v>2.025</v>
-      </c>
-      <c r="W200">
-        <v>-1</v>
-      </c>
       <c r="X200">
         <v>-1</v>
       </c>
       <c r="Y200">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z200">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA200">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB200">
         <v>-1</v>
       </c>
       <c r="AC200">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18342,7 +18342,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6853129</v>
+        <v>6853139</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18354,76 +18354,76 @@
         <v>45117.60416666666</v>
       </c>
       <c r="F201" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G201" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201">
         <v>1</v>
       </c>
       <c r="J201" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K201">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="L201">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="M201">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="N201">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="O201">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="P201">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="Q201">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R201">
+        <v>1.975</v>
+      </c>
+      <c r="S201">
+        <v>1.825</v>
+      </c>
+      <c r="T201">
+        <v>2</v>
+      </c>
+      <c r="U201">
         <v>1.775</v>
       </c>
-      <c r="S201">
+      <c r="V201">
         <v>2.025</v>
       </c>
-      <c r="T201">
-        <v>2.25</v>
-      </c>
-      <c r="U201">
-        <v>2.025</v>
-      </c>
-      <c r="V201">
-        <v>1.775</v>
-      </c>
       <c r="W201">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X201">
         <v>-1</v>
       </c>
       <c r="Y201">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z201">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA201">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB201">
+        <v>-1</v>
+      </c>
+      <c r="AC201">
         <v>1.025</v>
-      </c>
-      <c r="AC201">
-        <v>-1</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18431,7 +18431,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6853128</v>
+        <v>6853129</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18443,40 +18443,40 @@
         <v>45117.60416666666</v>
       </c>
       <c r="F202" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G202" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J202" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K202">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="L202">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="M202">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="N202">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="O202">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="P202">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="Q202">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R202">
         <v>1.775</v>
@@ -18488,31 +18488,31 @@
         <v>2.25</v>
       </c>
       <c r="U202">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V202">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W202">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X202">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y202">
         <v>-1</v>
       </c>
       <c r="Z202">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA202">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB202">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC202">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18532,7 +18532,7 @@
         <v>45118.60416666666</v>
       </c>
       <c r="F203" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G203" t="s">
         <v>38</v>
@@ -18787,7 +18787,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6853141</v>
+        <v>6853143</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18799,46 +18799,46 @@
         <v>45121.60416666666</v>
       </c>
       <c r="F206" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G206" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I206">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J206" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K206">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="L206">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="M206">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="N206">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O206">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="P206">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Q206">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R206">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="S206">
-        <v>1.8</v>
+        <v>2.075</v>
       </c>
       <c r="T206">
         <v>2.25</v>
@@ -18850,25 +18850,25 @@
         <v>1.9</v>
       </c>
       <c r="W206">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X206">
         <v>-1</v>
       </c>
       <c r="Y206">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z206">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA206">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB206">
+        <v>-1</v>
+      </c>
+      <c r="AC206">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC206">
-        <v>-1</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18891,7 +18891,7 @@
         <v>40</v>
       </c>
       <c r="G207" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H207">
         <v>4</v>
@@ -18965,7 +18965,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6853132</v>
+        <v>6853141</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18977,73 +18977,73 @@
         <v>45121.60416666666</v>
       </c>
       <c r="F208" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G208" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H208">
         <v>2</v>
       </c>
       <c r="I208">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J208" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K208">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="L208">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="M208">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="N208">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="O208">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="P208">
-        <v>1.666</v>
+        <v>3</v>
       </c>
       <c r="Q208">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R208">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S208">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T208">
         <v>2.25</v>
       </c>
       <c r="U208">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V208">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W208">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X208">
         <v>-1</v>
       </c>
       <c r="Y208">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z208">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA208">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB208">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC208">
         <v>-1</v>
@@ -19054,7 +19054,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6853143</v>
+        <v>6853132</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19066,58 +19066,58 @@
         <v>45121.60416666666</v>
       </c>
       <c r="F209" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G209" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H209">
+        <v>2</v>
+      </c>
+      <c r="I209">
         <v>1</v>
-      </c>
-      <c r="I209">
-        <v>0</v>
       </c>
       <c r="J209" t="s">
         <v>51</v>
       </c>
       <c r="K209">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
       <c r="L209">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="M209">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="N209">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="O209">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="P209">
-        <v>2.9</v>
+        <v>1.666</v>
       </c>
       <c r="Q209">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R209">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="S209">
-        <v>2.075</v>
+        <v>1.975</v>
       </c>
       <c r="T209">
         <v>2.25</v>
       </c>
       <c r="U209">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V209">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W209">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="X209">
         <v>-1</v>
@@ -19126,16 +19126,16 @@
         <v>-1</v>
       </c>
       <c r="Z209">
-        <v>0.7250000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA209">
         <v>-1</v>
       </c>
       <c r="AB209">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC209">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19158,7 +19158,7 @@
         <v>38</v>
       </c>
       <c r="G210" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H210">
         <v>1</v>
@@ -19244,10 +19244,10 @@
         <v>45122.54166666666</v>
       </c>
       <c r="F211" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G211" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H211">
         <v>0</v>
@@ -19778,7 +19778,7 @@
         <v>45133.60416666666</v>
       </c>
       <c r="F217" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G217" t="s">
         <v>32</v>
@@ -19867,7 +19867,7 @@
         <v>45187.54166666666</v>
       </c>
       <c r="F218" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G218" t="s">
         <v>44</v>
@@ -20045,7 +20045,7 @@
         <v>45188.54166666666</v>
       </c>
       <c r="F220" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G220" t="s">
         <v>32</v>
@@ -20211,7 +20211,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>7208758</v>
+        <v>7210310</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20223,76 +20223,76 @@
         <v>45189.54166666666</v>
       </c>
       <c r="F222" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G222" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I222">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J222" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K222">
         <v>2.5</v>
       </c>
       <c r="L222">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="M222">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="N222">
+        <v>2.25</v>
+      </c>
+      <c r="O222">
+        <v>2.7</v>
+      </c>
+      <c r="P222">
+        <v>3.5</v>
+      </c>
+      <c r="Q222">
+        <v>-0.25</v>
+      </c>
+      <c r="R222">
+        <v>1.925</v>
+      </c>
+      <c r="S222">
+        <v>1.875</v>
+      </c>
+      <c r="T222">
+        <v>1.75</v>
+      </c>
+      <c r="U222">
+        <v>1.925</v>
+      </c>
+      <c r="V222">
+        <v>1.875</v>
+      </c>
+      <c r="W222">
+        <v>-1</v>
+      </c>
+      <c r="X222">
+        <v>-1</v>
+      </c>
+      <c r="Y222">
         <v>2.5</v>
       </c>
-      <c r="O222">
-        <v>2.625</v>
-      </c>
-      <c r="P222">
-        <v>3</v>
-      </c>
-      <c r="Q222">
-        <v>0</v>
-      </c>
-      <c r="R222">
-        <v>1.725</v>
-      </c>
-      <c r="S222">
-        <v>2.075</v>
-      </c>
-      <c r="T222">
-        <v>2</v>
-      </c>
-      <c r="U222">
-        <v>1.775</v>
-      </c>
-      <c r="V222">
-        <v>2.025</v>
-      </c>
-      <c r="W222">
-        <v>-1</v>
-      </c>
-      <c r="X222">
-        <v>1.625</v>
-      </c>
-      <c r="Y222">
-        <v>-1</v>
-      </c>
       <c r="Z222">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA222">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB222">
-        <v>0</v>
+        <v>0.4625</v>
       </c>
       <c r="AC222">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20300,7 +20300,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>7210310</v>
+        <v>7208758</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20312,76 +20312,76 @@
         <v>45189.54166666666</v>
       </c>
       <c r="F223" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G223" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I223">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J223" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K223">
         <v>2.5</v>
       </c>
       <c r="L223">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="M223">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="N223">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="O223">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="P223">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Q223">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R223">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="S223">
-        <v>1.875</v>
+        <v>2.075</v>
       </c>
       <c r="T223">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U223">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V223">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W223">
         <v>-1</v>
       </c>
       <c r="X223">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Y223">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z223">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA223">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB223">
-        <v>0.4625</v>
+        <v>0</v>
       </c>
       <c r="AC223">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20582,7 +20582,7 @@
         <v>31</v>
       </c>
       <c r="G226" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H226">
         <v>1</v>
@@ -20849,7 +20849,7 @@
         <v>48</v>
       </c>
       <c r="G229" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H229">
         <v>0</v>
@@ -21027,7 +21027,7 @@
         <v>38</v>
       </c>
       <c r="G231" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H231">
         <v>0</v>
@@ -21202,7 +21202,7 @@
         <v>45197.41666666666</v>
       </c>
       <c r="F233" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G233" t="s">
         <v>37</v>
@@ -21469,7 +21469,7 @@
         <v>45204.54166666666</v>
       </c>
       <c r="F236" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G236" t="s">
         <v>33</v>
@@ -21650,7 +21650,7 @@
         <v>37</v>
       </c>
       <c r="G238" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H238">
         <v>2</v>
@@ -21736,7 +21736,7 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F239" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G239" t="s">
         <v>29</v>
@@ -21813,7 +21813,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>7217623</v>
+        <v>7217622</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21825,13 +21825,13 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F240" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G240" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I240">
         <v>2</v>
@@ -21840,40 +21840,40 @@
         <v>50</v>
       </c>
       <c r="K240">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L240">
         <v>3</v>
       </c>
       <c r="M240">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="N240">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="O240">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P240">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="Q240">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R240">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S240">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T240">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U240">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V240">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W240">
         <v>-1</v>
@@ -21882,19 +21882,19 @@
         <v>-1</v>
       </c>
       <c r="Y240">
-        <v>1.15</v>
+        <v>1.4</v>
       </c>
       <c r="Z240">
         <v>-1</v>
       </c>
       <c r="AA240">
-        <v>0.825</v>
+        <v>0.75</v>
       </c>
       <c r="AB240">
-        <v>0.8999999999999999</v>
+        <v>0.3875</v>
       </c>
       <c r="AC240">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="241" spans="1:29">
@@ -21902,7 +21902,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>7217622</v>
+        <v>7217623</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21914,13 +21914,13 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F241" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G241" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I241">
         <v>2</v>
@@ -21929,40 +21929,40 @@
         <v>50</v>
       </c>
       <c r="K241">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L241">
         <v>3</v>
       </c>
       <c r="M241">
+        <v>1.909</v>
+      </c>
+      <c r="N241">
+        <v>3.4</v>
+      </c>
+      <c r="O241">
+        <v>3</v>
+      </c>
+      <c r="P241">
+        <v>2.15</v>
+      </c>
+      <c r="Q241">
+        <v>0.25</v>
+      </c>
+      <c r="R241">
+        <v>1.975</v>
+      </c>
+      <c r="S241">
+        <v>1.825</v>
+      </c>
+      <c r="T241">
         <v>2.25</v>
       </c>
-      <c r="N241">
-        <v>2.875</v>
-      </c>
-      <c r="O241">
-        <v>3.1</v>
-      </c>
-      <c r="P241">
-        <v>2.4</v>
-      </c>
-      <c r="Q241">
-        <v>0</v>
-      </c>
-      <c r="R241">
-        <v>2.05</v>
-      </c>
-      <c r="S241">
-        <v>1.75</v>
-      </c>
-      <c r="T241">
-        <v>1.75</v>
-      </c>
       <c r="U241">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V241">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W241">
         <v>-1</v>
@@ -21971,19 +21971,19 @@
         <v>-1</v>
       </c>
       <c r="Y241">
-        <v>1.4</v>
+        <v>1.15</v>
       </c>
       <c r="Z241">
         <v>-1</v>
       </c>
       <c r="AA241">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="AB241">
-        <v>0.3875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC241">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="242" spans="1:29">
@@ -22181,10 +22181,10 @@
         <v>45219.41666666666</v>
       </c>
       <c r="F244" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G244" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H244">
         <v>1</v>
@@ -22270,7 +22270,7 @@
         <v>45219.58333333334</v>
       </c>
       <c r="F245" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G245" t="s">
         <v>29</v>
@@ -22436,7 +22436,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>7217629</v>
+        <v>7217630</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22448,13 +22448,13 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F247" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G247" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H247">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I247">
         <v>1</v>
@@ -22463,43 +22463,43 @@
         <v>51</v>
       </c>
       <c r="K247">
-        <v>2.4</v>
+        <v>1.65</v>
       </c>
       <c r="L247">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="M247">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="N247">
+        <v>1.909</v>
+      </c>
+      <c r="O247">
+        <v>3.25</v>
+      </c>
+      <c r="P247">
+        <v>3.6</v>
+      </c>
+      <c r="Q247">
+        <v>-0.5</v>
+      </c>
+      <c r="R247">
+        <v>1.925</v>
+      </c>
+      <c r="S247">
+        <v>1.875</v>
+      </c>
+      <c r="T247">
         <v>2.5</v>
       </c>
-      <c r="O247">
-        <v>2.8</v>
-      </c>
-      <c r="P247">
-        <v>2.9</v>
-      </c>
-      <c r="Q247">
-        <v>0</v>
-      </c>
-      <c r="R247">
-        <v>1.8</v>
-      </c>
-      <c r="S247">
-        <v>2</v>
-      </c>
-      <c r="T247">
-        <v>2</v>
-      </c>
       <c r="U247">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V247">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W247">
-        <v>1.5</v>
+        <v>0.909</v>
       </c>
       <c r="X247">
         <v>-1</v>
@@ -22508,13 +22508,13 @@
         <v>-1</v>
       </c>
       <c r="Z247">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA247">
         <v>-1</v>
       </c>
       <c r="AB247">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC247">
         <v>-1</v>
@@ -22525,7 +22525,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>7217630</v>
+        <v>7217629</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22537,13 +22537,13 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F248" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G248" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H248">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I248">
         <v>1</v>
@@ -22552,43 +22552,43 @@
         <v>51</v>
       </c>
       <c r="K248">
-        <v>1.65</v>
+        <v>2.4</v>
       </c>
       <c r="L248">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="M248">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="N248">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="O248">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="P248">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="Q248">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R248">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S248">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T248">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U248">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V248">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W248">
-        <v>0.909</v>
+        <v>1.5</v>
       </c>
       <c r="X248">
         <v>-1</v>
@@ -22597,13 +22597,13 @@
         <v>-1</v>
       </c>
       <c r="Z248">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA248">
         <v>-1</v>
       </c>
       <c r="AB248">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC248">
         <v>-1</v>
@@ -22703,7 +22703,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>7217634</v>
+        <v>7217633</v>
       </c>
       <c r="C250" t="s">
         <v>28</v>
@@ -22715,10 +22715,10 @@
         <v>45221.54166666666</v>
       </c>
       <c r="F250" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G250" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H250">
         <v>0</v>
@@ -22730,40 +22730,40 @@
         <v>50</v>
       </c>
       <c r="K250">
+        <v>2.5</v>
+      </c>
+      <c r="L250">
+        <v>2.875</v>
+      </c>
+      <c r="M250">
+        <v>2.9</v>
+      </c>
+      <c r="N250">
+        <v>1.95</v>
+      </c>
+      <c r="O250">
+        <v>3.1</v>
+      </c>
+      <c r="P250">
         <v>3.8</v>
       </c>
-      <c r="L250">
-        <v>2.9</v>
-      </c>
-      <c r="M250">
-        <v>2.05</v>
-      </c>
-      <c r="N250">
-        <v>5.25</v>
-      </c>
-      <c r="O250">
-        <v>3.2</v>
-      </c>
-      <c r="P250">
-        <v>1.727</v>
-      </c>
       <c r="Q250">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R250">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S250">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T250">
         <v>2.25</v>
       </c>
       <c r="U250">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V250">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W250">
         <v>-1</v>
@@ -22772,19 +22772,19 @@
         <v>-1</v>
       </c>
       <c r="Y250">
-        <v>0.7270000000000001</v>
+        <v>2.8</v>
       </c>
       <c r="Z250">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA250">
-        <v>0.4875</v>
+        <v>0.8</v>
       </c>
       <c r="AB250">
         <v>-1</v>
       </c>
       <c r="AC250">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="251" spans="1:29">
@@ -22792,7 +22792,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>7217633</v>
+        <v>7217634</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22804,10 +22804,10 @@
         <v>45221.54166666666</v>
       </c>
       <c r="F251" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G251" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H251">
         <v>0</v>
@@ -22819,40 +22819,40 @@
         <v>50</v>
       </c>
       <c r="K251">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="L251">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M251">
-        <v>2.9</v>
+        <v>2.05</v>
       </c>
       <c r="N251">
-        <v>1.95</v>
+        <v>5.25</v>
       </c>
       <c r="O251">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P251">
-        <v>3.8</v>
+        <v>1.727</v>
       </c>
       <c r="Q251">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R251">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S251">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T251">
         <v>2.25</v>
       </c>
       <c r="U251">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V251">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W251">
         <v>-1</v>
@@ -22861,19 +22861,19 @@
         <v>-1</v>
       </c>
       <c r="Y251">
-        <v>2.8</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z251">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA251">
-        <v>0.8</v>
+        <v>0.4875</v>
       </c>
       <c r="AB251">
         <v>-1</v>
       </c>
       <c r="AC251">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="252" spans="1:29">
@@ -22893,7 +22893,7 @@
         <v>45226.45833333334</v>
       </c>
       <c r="F252" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G252" t="s">
         <v>40</v>
@@ -23148,7 +23148,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>7217639</v>
+        <v>7217638</v>
       </c>
       <c r="C255" t="s">
         <v>28</v>
@@ -23160,76 +23160,76 @@
         <v>45227.58333333334</v>
       </c>
       <c r="F255" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G255" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H255">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I255">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J255" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K255">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L255">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M255">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N255">
-        <v>1.833</v>
+        <v>2.45</v>
       </c>
       <c r="O255">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="P255">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="Q255">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R255">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="S255">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="T255">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U255">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V255">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W255">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X255">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y255">
         <v>-1</v>
       </c>
       <c r="Z255">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA255">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB255">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC255">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="256" spans="1:29">
@@ -23237,7 +23237,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>7217638</v>
+        <v>7217639</v>
       </c>
       <c r="C256" t="s">
         <v>28</v>
@@ -23249,76 +23249,76 @@
         <v>45227.58333333334</v>
       </c>
       <c r="F256" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G256" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H256">
+        <v>1</v>
+      </c>
+      <c r="I256">
+        <v>1</v>
+      </c>
+      <c r="J256" t="s">
+        <v>52</v>
+      </c>
+      <c r="K256">
+        <v>2.1</v>
+      </c>
+      <c r="L256">
         <v>3</v>
       </c>
-      <c r="I256">
-        <v>2</v>
-      </c>
-      <c r="J256" t="s">
-        <v>51</v>
-      </c>
-      <c r="K256">
+      <c r="M256">
+        <v>3.25</v>
+      </c>
+      <c r="N256">
+        <v>1.833</v>
+      </c>
+      <c r="O256">
+        <v>3.2</v>
+      </c>
+      <c r="P256">
+        <v>4</v>
+      </c>
+      <c r="Q256">
+        <v>-0.5</v>
+      </c>
+      <c r="R256">
+        <v>1.9</v>
+      </c>
+      <c r="S256">
+        <v>1.9</v>
+      </c>
+      <c r="T256">
         <v>2.25</v>
       </c>
-      <c r="L256">
-        <v>2.9</v>
-      </c>
-      <c r="M256">
-        <v>3.1</v>
-      </c>
-      <c r="N256">
-        <v>2.45</v>
-      </c>
-      <c r="O256">
-        <v>2.875</v>
-      </c>
-      <c r="P256">
-        <v>2.875</v>
-      </c>
-      <c r="Q256">
-        <v>0</v>
-      </c>
-      <c r="R256">
-        <v>1.725</v>
-      </c>
-      <c r="S256">
-        <v>2.075</v>
-      </c>
-      <c r="T256">
-        <v>2</v>
-      </c>
       <c r="U256">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V256">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W256">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X256">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y256">
         <v>-1</v>
       </c>
       <c r="Z256">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA256">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB256">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC256">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="257" spans="1:29">
@@ -23338,10 +23338,10 @@
         <v>45228.58333333334</v>
       </c>
       <c r="F257" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G257" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H257">
         <v>1</v>
@@ -23605,7 +23605,7 @@
         <v>45233.45833333334</v>
       </c>
       <c r="F260" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G260" t="s">
         <v>31</v>
@@ -23682,7 +23682,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>7217646</v>
+        <v>7217647</v>
       </c>
       <c r="C261" t="s">
         <v>28</v>
@@ -23694,46 +23694,46 @@
         <v>45233.58333333334</v>
       </c>
       <c r="F261" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G261" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H261">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I261">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J261" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K261">
-        <v>1.909</v>
+        <v>4.75</v>
       </c>
       <c r="L261">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M261">
-        <v>3.5</v>
+        <v>1.666</v>
       </c>
       <c r="N261">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O261">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P261">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="Q261">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R261">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S261">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T261">
         <v>2.5</v>
@@ -23745,25 +23745,25 @@
         <v>1.825</v>
       </c>
       <c r="W261">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X261">
         <v>-1</v>
       </c>
       <c r="Y261">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z261">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA261">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB261">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC261">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="262" spans="1:29">
@@ -23771,7 +23771,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>7217647</v>
+        <v>7217646</v>
       </c>
       <c r="C262" t="s">
         <v>28</v>
@@ -23783,46 +23783,46 @@
         <v>45233.58333333334</v>
       </c>
       <c r="F262" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G262" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I262">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J262" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K262">
-        <v>4.75</v>
+        <v>1.909</v>
       </c>
       <c r="L262">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M262">
-        <v>1.666</v>
+        <v>3.5</v>
       </c>
       <c r="N262">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O262">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P262">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q262">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R262">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S262">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T262">
         <v>2.5</v>
@@ -23834,25 +23834,25 @@
         <v>1.825</v>
       </c>
       <c r="W262">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X262">
         <v>-1</v>
       </c>
       <c r="Y262">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z262">
+        <v>-1</v>
+      </c>
+      <c r="AA262">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB262">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA262">
-        <v>-1</v>
-      </c>
-      <c r="AB262">
-        <v>-1</v>
-      </c>
       <c r="AC262">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="263" spans="1:29">
@@ -23949,7 +23949,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>7217649</v>
+        <v>7217650</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -23961,73 +23961,73 @@
         <v>45234.58333333334</v>
       </c>
       <c r="F264" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="G264" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H264">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I264">
         <v>2</v>
       </c>
       <c r="J264" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K264">
-        <v>7.5</v>
+        <v>2.55</v>
       </c>
       <c r="L264">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M264">
-        <v>1.363</v>
+        <v>2.6</v>
       </c>
       <c r="N264">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="O264">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="P264">
-        <v>1.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q264">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R264">
+        <v>1.925</v>
+      </c>
+      <c r="S264">
         <v>1.875</v>
       </c>
-      <c r="S264">
+      <c r="T264">
+        <v>2</v>
+      </c>
+      <c r="U264">
         <v>1.925</v>
       </c>
-      <c r="T264">
-        <v>2.25</v>
-      </c>
-      <c r="U264">
+      <c r="V264">
         <v>1.875</v>
       </c>
-      <c r="V264">
-        <v>1.925</v>
-      </c>
       <c r="W264">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X264">
         <v>-1</v>
       </c>
       <c r="Y264">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z264">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA264">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB264">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC264">
         <v>-1</v>
@@ -24038,7 +24038,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>7217650</v>
+        <v>7217649</v>
       </c>
       <c r="C265" t="s">
         <v>28</v>
@@ -24050,73 +24050,73 @@
         <v>45234.58333333334</v>
       </c>
       <c r="F265" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="G265" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H265">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I265">
         <v>2</v>
       </c>
       <c r="J265" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K265">
-        <v>2.55</v>
+        <v>7.5</v>
       </c>
       <c r="L265">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M265">
-        <v>2.6</v>
+        <v>1.363</v>
       </c>
       <c r="N265">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="O265">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="P265">
-        <v>2.625</v>
+        <v>1.5</v>
       </c>
       <c r="Q265">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R265">
+        <v>1.875</v>
+      </c>
+      <c r="S265">
         <v>1.925</v>
       </c>
-      <c r="S265">
+      <c r="T265">
+        <v>2.25</v>
+      </c>
+      <c r="U265">
         <v>1.875</v>
       </c>
-      <c r="T265">
-        <v>2</v>
-      </c>
-      <c r="U265">
+      <c r="V265">
         <v>1.925</v>
       </c>
-      <c r="V265">
-        <v>1.875</v>
-      </c>
       <c r="W265">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X265">
         <v>-1</v>
       </c>
       <c r="Y265">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z265">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA265">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB265">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC265">
         <v>-1</v>
@@ -24127,7 +24127,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>7217652</v>
+        <v>7217651</v>
       </c>
       <c r="C266" t="s">
         <v>28</v>
@@ -24139,55 +24139,55 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F266" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G266" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J266" t="s">
         <v>50</v>
       </c>
       <c r="K266">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L266">
         <v>2.9</v>
       </c>
       <c r="M266">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N266">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="O266">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="P266">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="Q266">
         <v>-0.25</v>
       </c>
       <c r="R266">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S266">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="T266">
         <v>2</v>
       </c>
       <c r="U266">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V266">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W266">
         <v>-1</v>
@@ -24196,19 +24196,19 @@
         <v>-1</v>
       </c>
       <c r="Y266">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="Z266">
         <v>-1</v>
       </c>
       <c r="AA266">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="AB266">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC266">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="267" spans="1:29">
@@ -24216,7 +24216,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>7217651</v>
+        <v>7217652</v>
       </c>
       <c r="C267" t="s">
         <v>28</v>
@@ -24228,55 +24228,55 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F267" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G267" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J267" t="s">
         <v>50</v>
       </c>
       <c r="K267">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L267">
         <v>2.9</v>
       </c>
       <c r="M267">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N267">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="O267">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="P267">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Q267">
         <v>-0.25</v>
       </c>
       <c r="R267">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S267">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="T267">
         <v>2</v>
       </c>
       <c r="U267">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V267">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W267">
         <v>-1</v>
@@ -24285,19 +24285,19 @@
         <v>-1</v>
       </c>
       <c r="Y267">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="Z267">
         <v>-1</v>
       </c>
       <c r="AA267">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="AB267">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC267">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="268" spans="1:29">
@@ -24317,7 +24317,7 @@
         <v>45235.58333333334</v>
       </c>
       <c r="F268" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G268" t="s">
         <v>44</v>
@@ -24406,7 +24406,7 @@
         <v>45238.45833333334</v>
       </c>
       <c r="F269" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G269" t="s">
         <v>32</v>
@@ -24676,7 +24676,7 @@
         <v>32</v>
       </c>
       <c r="G272" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H272">
         <v>0</v>
@@ -25029,7 +25029,7 @@
         <v>45260.58333333334</v>
       </c>
       <c r="F276" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G276" t="s">
         <v>49</v>
@@ -25106,7 +25106,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>7217660</v>
+        <v>7217661</v>
       </c>
       <c r="C277" t="s">
         <v>28</v>
@@ -25118,34 +25118,34 @@
         <v>45261.45833333334</v>
       </c>
       <c r="F277" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G277" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J277" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K277">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="L277">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M277">
         <v>2.5</v>
       </c>
       <c r="N277">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="O277">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="P277">
         <v>2.6</v>
@@ -25154,10 +25154,10 @@
         <v>0</v>
       </c>
       <c r="R277">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S277">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T277">
         <v>2.25</v>
@@ -25169,25 +25169,25 @@
         <v>1.775</v>
       </c>
       <c r="W277">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X277">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y277">
         <v>-1</v>
       </c>
       <c r="Z277">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA277">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB277">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC277">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="278" spans="1:29">
@@ -25195,7 +25195,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>7217661</v>
+        <v>7217660</v>
       </c>
       <c r="C278" t="s">
         <v>28</v>
@@ -25207,34 +25207,34 @@
         <v>45261.45833333334</v>
       </c>
       <c r="F278" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G278" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J278" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K278">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="L278">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M278">
         <v>2.5</v>
       </c>
       <c r="N278">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="O278">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P278">
         <v>2.6</v>
@@ -25243,10 +25243,10 @@
         <v>0</v>
       </c>
       <c r="R278">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S278">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T278">
         <v>2.25</v>
@@ -25258,25 +25258,25 @@
         <v>1.775</v>
       </c>
       <c r="W278">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X278">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y278">
         <v>-1</v>
       </c>
       <c r="Z278">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA278">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB278">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC278">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="279" spans="1:29">
@@ -25299,7 +25299,7 @@
         <v>44</v>
       </c>
       <c r="G279" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H279">
         <v>0</v>
@@ -25385,7 +25385,7 @@
         <v>45264.58333333334</v>
       </c>
       <c r="F280" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G280" t="s">
         <v>37</v>
@@ -25477,7 +25477,7 @@
         <v>48</v>
       </c>
       <c r="G281" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H281">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>7217665</v>
+        <v>7217666</v>
       </c>
       <c r="C282" t="s">
         <v>28</v>
@@ -25563,58 +25563,58 @@
         <v>45265.58333333334</v>
       </c>
       <c r="F282" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G282" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I282">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J282" t="s">
         <v>51</v>
       </c>
       <c r="K282">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="L282">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M282">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="N282">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="O282">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="P282">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="Q282">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R282">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S282">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T282">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U282">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="V282">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W282">
-        <v>1.375</v>
+        <v>0.909</v>
       </c>
       <c r="X282">
         <v>-1</v>
@@ -25623,13 +25623,13 @@
         <v>-1</v>
       </c>
       <c r="Z282">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AA282">
         <v>-1</v>
       </c>
       <c r="AB282">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AC282">
         <v>-1</v>
@@ -25640,7 +25640,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>7217666</v>
+        <v>7217665</v>
       </c>
       <c r="C283" t="s">
         <v>28</v>
@@ -25652,58 +25652,58 @@
         <v>45265.58333333334</v>
       </c>
       <c r="F283" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G283" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H283">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I283">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J283" t="s">
         <v>51</v>
       </c>
       <c r="K283">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="L283">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M283">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="N283">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O283">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="P283">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="Q283">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R283">
+        <v>2.025</v>
+      </c>
+      <c r="S283">
+        <v>1.775</v>
+      </c>
+      <c r="T283">
+        <v>2.25</v>
+      </c>
+      <c r="U283">
         <v>1.95</v>
       </c>
-      <c r="S283">
+      <c r="V283">
         <v>1.85</v>
       </c>
-      <c r="T283">
-        <v>2</v>
-      </c>
-      <c r="U283">
-        <v>1.75</v>
-      </c>
-      <c r="V283">
-        <v>2.05</v>
-      </c>
       <c r="W283">
-        <v>0.909</v>
+        <v>1.375</v>
       </c>
       <c r="X283">
         <v>-1</v>
@@ -25712,13 +25712,13 @@
         <v>-1</v>
       </c>
       <c r="Z283">
+        <v>1.025</v>
+      </c>
+      <c r="AA283">
+        <v>-1</v>
+      </c>
+      <c r="AB283">
         <v>0.95</v>
-      </c>
-      <c r="AA283">
-        <v>-1</v>
-      </c>
-      <c r="AB283">
-        <v>0.75</v>
       </c>
       <c r="AC283">
         <v>-1</v>
@@ -25818,7 +25818,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>7217675</v>
+        <v>7217678</v>
       </c>
       <c r="C285" t="s">
         <v>28</v>
@@ -25830,76 +25830,76 @@
         <v>45274.45833333334</v>
       </c>
       <c r="F285" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G285" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I285">
+        <v>1</v>
+      </c>
+      <c r="J285" t="s">
+        <v>52</v>
+      </c>
+      <c r="K285">
+        <v>2.875</v>
+      </c>
+      <c r="L285">
         <v>3</v>
       </c>
-      <c r="J285" t="s">
-        <v>50</v>
-      </c>
-      <c r="K285">
-        <v>2.5</v>
-      </c>
-      <c r="L285">
-        <v>2.8</v>
-      </c>
       <c r="M285">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="N285">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="O285">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P285">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="Q285">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R285">
+        <v>1.75</v>
+      </c>
+      <c r="S285">
         <v>2.05</v>
       </c>
-      <c r="S285">
-        <v>1.75</v>
-      </c>
       <c r="T285">
         <v>2</v>
       </c>
       <c r="U285">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V285">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W285">
         <v>-1</v>
       </c>
       <c r="X285">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y285">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z285">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AA285">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AB285">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC285">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="286" spans="1:29">
@@ -25907,7 +25907,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>7217678</v>
+        <v>7217675</v>
       </c>
       <c r="C286" t="s">
         <v>28</v>
@@ -25919,76 +25919,76 @@
         <v>45274.45833333334</v>
       </c>
       <c r="F286" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G286" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H286">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I286">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J286" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K286">
+        <v>2.5</v>
+      </c>
+      <c r="L286">
+        <v>2.8</v>
+      </c>
+      <c r="M286">
+        <v>2.8</v>
+      </c>
+      <c r="N286">
+        <v>2.4</v>
+      </c>
+      <c r="O286">
         <v>2.875</v>
       </c>
-      <c r="L286">
+      <c r="P286">
         <v>3</v>
       </c>
-      <c r="M286">
-        <v>2.4</v>
-      </c>
-      <c r="N286">
-        <v>3</v>
-      </c>
-      <c r="O286">
-        <v>3</v>
-      </c>
-      <c r="P286">
-        <v>2.25</v>
-      </c>
       <c r="Q286">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R286">
+        <v>2.05</v>
+      </c>
+      <c r="S286">
         <v>1.75</v>
       </c>
-      <c r="S286">
-        <v>2.05</v>
-      </c>
       <c r="T286">
         <v>2</v>
       </c>
       <c r="U286">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V286">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W286">
         <v>-1</v>
       </c>
       <c r="X286">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y286">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z286">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AA286">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AB286">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC286">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="287" spans="1:29">
@@ -26097,7 +26097,7 @@
         <v>45274.58333333334</v>
       </c>
       <c r="F288" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G288" t="s">
         <v>39</v>
@@ -26189,7 +26189,7 @@
         <v>29</v>
       </c>
       <c r="G289" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H289">
         <v>0</v>
@@ -26364,7 +26364,7 @@
         <v>45275.54166666666</v>
       </c>
       <c r="F291" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G291" t="s">
         <v>33</v>
@@ -26898,10 +26898,10 @@
         <v>45287.58333333334</v>
       </c>
       <c r="F297" t="s">
+        <v>46</v>
+      </c>
+      <c r="G297" t="s">
         <v>45</v>
-      </c>
-      <c r="G297" t="s">
-        <v>46</v>
       </c>
       <c r="H297">
         <v>1</v>
@@ -27064,7 +27064,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>7217691</v>
+        <v>7217692</v>
       </c>
       <c r="C299" t="s">
         <v>28</v>
@@ -27076,13 +27076,13 @@
         <v>45290.58333333334</v>
       </c>
       <c r="F299" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G299" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H299">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I299">
         <v>0</v>
@@ -27091,43 +27091,43 @@
         <v>51</v>
       </c>
       <c r="K299">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="L299">
+        <v>2.9</v>
+      </c>
+      <c r="M299">
+        <v>2.4</v>
+      </c>
+      <c r="N299">
         <v>2.8</v>
       </c>
-      <c r="M299">
-        <v>3.6</v>
-      </c>
-      <c r="N299">
-        <v>1.85</v>
-      </c>
       <c r="O299">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P299">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="Q299">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R299">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S299">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T299">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U299">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V299">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W299">
-        <v>0.8500000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="X299">
         <v>-1</v>
@@ -27136,16 +27136,16 @@
         <v>-1</v>
       </c>
       <c r="Z299">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA299">
         <v>-1</v>
       </c>
       <c r="AB299">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC299">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="300" spans="1:29">
@@ -27153,7 +27153,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>7217692</v>
+        <v>7217691</v>
       </c>
       <c r="C300" t="s">
         <v>28</v>
@@ -27165,13 +27165,13 @@
         <v>45290.58333333334</v>
       </c>
       <c r="F300" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G300" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H300">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I300">
         <v>0</v>
@@ -27180,43 +27180,43 @@
         <v>51</v>
       </c>
       <c r="K300">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="L300">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="M300">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="N300">
-        <v>2.8</v>
+        <v>1.85</v>
       </c>
       <c r="O300">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P300">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q300">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R300">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S300">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T300">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U300">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V300">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W300">
-        <v>1.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X300">
         <v>-1</v>
@@ -27225,16 +27225,16 @@
         <v>-1</v>
       </c>
       <c r="Z300">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA300">
         <v>-1</v>
       </c>
       <c r="AB300">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC300">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="301" spans="1:29">
@@ -27343,7 +27343,7 @@
         <v>45292.58333333334</v>
       </c>
       <c r="F302" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G302" t="s">
         <v>35</v>
@@ -27432,7 +27432,7 @@
         <v>45335.45833333334</v>
       </c>
       <c r="F303" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G303" t="s">
         <v>49</v>
@@ -27521,7 +27521,7 @@
         <v>45335.58333333334</v>
       </c>
       <c r="F304" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G304" t="s">
         <v>44</v>
@@ -27598,7 +27598,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>7217702</v>
+        <v>7217701</v>
       </c>
       <c r="C305" t="s">
         <v>28</v>
@@ -27610,76 +27610,76 @@
         <v>45336.45833333334</v>
       </c>
       <c r="F305" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G305" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J305" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K305">
+        <v>2.375</v>
+      </c>
+      <c r="L305">
         <v>2.9</v>
       </c>
-      <c r="L305">
+      <c r="M305">
         <v>3</v>
       </c>
-      <c r="M305">
-        <v>2.375</v>
-      </c>
       <c r="N305">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="O305">
+        <v>3</v>
+      </c>
+      <c r="P305">
         <v>2.8</v>
       </c>
-      <c r="P305">
-        <v>2.5</v>
-      </c>
       <c r="Q305">
         <v>0</v>
       </c>
       <c r="R305">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S305">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T305">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U305">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V305">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W305">
         <v>-1</v>
       </c>
       <c r="X305">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y305">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z305">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA305">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB305">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC305">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="306" spans="1:29">
@@ -27687,7 +27687,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>7217701</v>
+        <v>7217702</v>
       </c>
       <c r="C306" t="s">
         <v>28</v>
@@ -27699,76 +27699,76 @@
         <v>45336.45833333334</v>
       </c>
       <c r="F306" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G306" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J306" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K306">
+        <v>2.9</v>
+      </c>
+      <c r="L306">
+        <v>3</v>
+      </c>
+      <c r="M306">
         <v>2.375</v>
       </c>
-      <c r="L306">
-        <v>2.9</v>
-      </c>
-      <c r="M306">
-        <v>3</v>
-      </c>
       <c r="N306">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="O306">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P306">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="Q306">
         <v>0</v>
       </c>
       <c r="R306">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S306">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T306">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U306">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V306">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W306">
         <v>-1</v>
       </c>
       <c r="X306">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y306">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z306">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA306">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB306">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC306">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="307" spans="1:29">
@@ -27969,7 +27969,7 @@
         <v>35</v>
       </c>
       <c r="G309" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H309">
         <v>2</v>
@@ -28043,7 +28043,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>7217709</v>
+        <v>7217708</v>
       </c>
       <c r="C310" t="s">
         <v>28</v>
@@ -28055,61 +28055,76 @@
         <v>45340.45833333334</v>
       </c>
       <c r="F310" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G310" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="H310">
+        <v>0</v>
+      </c>
+      <c r="I310">
+        <v>0</v>
+      </c>
+      <c r="J310" t="s">
+        <v>52</v>
       </c>
       <c r="K310">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="L310">
         <v>3</v>
       </c>
       <c r="M310">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="N310">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="O310">
+        <v>2.875</v>
+      </c>
+      <c r="P310">
         <v>3</v>
       </c>
-      <c r="P310">
-        <v>2.6</v>
-      </c>
       <c r="Q310">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R310">
-        <v>1.95</v>
+        <v>2.075</v>
       </c>
       <c r="S310">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="T310">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U310">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V310">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W310">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X310">
-        <v>0</v>
+        <v>1.875</v>
       </c>
       <c r="Y310">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z310">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA310">
-        <v>0</v>
+        <v>0.3625</v>
+      </c>
+      <c r="AB310">
+        <v>-1</v>
+      </c>
+      <c r="AC310">
+        <v>0.925</v>
       </c>
     </row>
     <row r="311" spans="1:29">
@@ -28117,7 +28132,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>7217708</v>
+        <v>7217709</v>
       </c>
       <c r="C311" t="s">
         <v>28</v>
@@ -28129,61 +28144,76 @@
         <v>45340.45833333334</v>
       </c>
       <c r="F311" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G311" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="H311">
+        <v>1</v>
+      </c>
+      <c r="I311">
+        <v>1</v>
+      </c>
+      <c r="J311" t="s">
+        <v>52</v>
       </c>
       <c r="K311">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="L311">
         <v>3</v>
       </c>
       <c r="M311">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="N311">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="O311">
         <v>2.9</v>
       </c>
       <c r="P311">
-        <v>3.4</v>
+        <v>2.45</v>
       </c>
       <c r="Q311">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R311">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S311">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T311">
         <v>2</v>
       </c>
       <c r="U311">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V311">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W311">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X311">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="Y311">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z311">
         <v>0</v>
       </c>
       <c r="AA311">
-        <v>0</v>
+        <v>-0</v>
+      </c>
+      <c r="AB311">
+        <v>0</v>
+      </c>
+      <c r="AC311">
+        <v>-0</v>
       </c>
     </row>
     <row r="312" spans="1:29">
@@ -28208,6 +28238,15 @@
       <c r="G312" t="s">
         <v>31</v>
       </c>
+      <c r="H312">
+        <v>1</v>
+      </c>
+      <c r="I312">
+        <v>0</v>
+      </c>
+      <c r="J312" t="s">
+        <v>51</v>
+      </c>
       <c r="K312">
         <v>1.444</v>
       </c>
@@ -28218,46 +28257,52 @@
         <v>6</v>
       </c>
       <c r="N312">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="O312">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P312">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q312">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R312">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S312">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T312">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U312">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V312">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W312">
-        <v>0</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X312">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y312">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z312">
-        <v>0</v>
+        <v>0.3875</v>
       </c>
       <c r="AA312">
-        <v>0</v>
+        <v>-0.5</v>
+      </c>
+      <c r="AB312">
+        <v>-1</v>
+      </c>
+      <c r="AC312">
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:29">
@@ -28304,10 +28349,10 @@
         <v>-0.25</v>
       </c>
       <c r="R313">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="S313">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T313">
         <v>1.75</v>
@@ -28425,7 +28470,7 @@
         <v>45342.45833333334</v>
       </c>
       <c r="F315" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G315" t="s">
         <v>49</v>
@@ -28452,19 +28497,19 @@
         <v>-0.5</v>
       </c>
       <c r="R315">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S315">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T315">
         <v>2.25</v>
       </c>
       <c r="U315">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V315">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W315">
         <v>0</v>
@@ -28517,7 +28562,7 @@
         <v>3</v>
       </c>
       <c r="O316">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="P316">
         <v>2.5</v>
@@ -28532,13 +28577,13 @@
         <v>1.725</v>
       </c>
       <c r="T316">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U316">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="V316">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="W316">
         <v>0</v>
@@ -28573,7 +28618,7 @@
         <v>45342.58333333334</v>
       </c>
       <c r="F317" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G317" t="s">
         <v>48</v>
@@ -28600,19 +28645,19 @@
         <v>-0.75</v>
       </c>
       <c r="R317">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S317">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T317">
         <v>2.25</v>
       </c>
       <c r="U317">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V317">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W317">
         <v>0</v>

--- a/Egypt Division 1/Egypt Division 1.xlsx
+++ b/Egypt Division 1/Egypt Division 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1603" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1605" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -103,10 +103,10 @@
     <t>Egypt Division 1</t>
   </si>
   <si>
-    <t>El Daklyeh</t>
+    <t>Aswan FC</t>
   </si>
   <si>
-    <t>Aswan FC</t>
+    <t>El Daklyeh</t>
   </si>
   <si>
     <t>Al Ittihad Al Sakandary</t>
@@ -151,10 +151,10 @@
     <t>National Bank</t>
   </si>
   <si>
-    <t>Talaea El Geish</t>
+    <t>Smouha</t>
   </si>
   <si>
-    <t>Smouha</t>
+    <t>Talaea El Geish</t>
   </si>
   <si>
     <t>ZED FC</t>
@@ -166,10 +166,10 @@
     <t>El Gounah</t>
   </si>
   <si>
-    <t>A</t>
+    <t>H</t>
   </si>
   <si>
-    <t>H</t>
+    <t>A</t>
   </si>
   <si>
     <t>D</t>
@@ -631,7 +631,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5774048</v>
+        <v>5774677</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -646,10 +646,10 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -658,25 +658,25 @@
         <v>50</v>
       </c>
       <c r="K2">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="L2">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M2">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="N2">
         <v>4.5</v>
       </c>
       <c r="O2">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="P2">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="Q2">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R2">
         <v>1.85</v>
@@ -685,34 +685,34 @@
         <v>1.95</v>
       </c>
       <c r="T2">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U2">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V2">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W2">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="X2">
         <v>-1</v>
       </c>
       <c r="Y2">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z2">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA2">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB2">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC2">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -720,7 +720,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5774677</v>
+        <v>5774048</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -735,10 +735,10 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -747,25 +747,25 @@
         <v>51</v>
       </c>
       <c r="K3">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="L3">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M3">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="N3">
         <v>4.5</v>
       </c>
       <c r="O3">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="P3">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="Q3">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R3">
         <v>1.85</v>
@@ -774,34 +774,34 @@
         <v>1.95</v>
       </c>
       <c r="T3">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U3">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V3">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W3">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X3">
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z3">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB3">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -833,7 +833,7 @@
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K4">
         <v>1.833</v>
@@ -922,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -1011,7 +1011,7 @@
         <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K6">
         <v>1.727</v>
@@ -1100,7 +1100,7 @@
         <v>3</v>
       </c>
       <c r="J7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K7">
         <v>2.625</v>
@@ -1269,7 +1269,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1358,7 +1358,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1456,7 +1456,7 @@
         <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K11">
         <v>7.5</v>
@@ -1536,7 +1536,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1634,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K13">
         <v>1.4</v>
@@ -1723,7 +1723,7 @@
         <v>3</v>
       </c>
       <c r="J14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K14">
         <v>2.9</v>
@@ -1812,7 +1812,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K15">
         <v>2.15</v>
@@ -1901,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K16">
         <v>3.4</v>
@@ -1981,7 +1981,7 @@
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5774057</v>
+        <v>5774684</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2070,52 +2070,52 @@
         <v>45</v>
       </c>
       <c r="G18" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K18">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L18">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="M18">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="N18">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="O18">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="P18">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R18">
+        <v>1.775</v>
+      </c>
+      <c r="S18">
+        <v>2.025</v>
+      </c>
+      <c r="T18">
         <v>1.75</v>
       </c>
-      <c r="S18">
-        <v>2.05</v>
-      </c>
-      <c r="T18">
-        <v>2</v>
-      </c>
       <c r="U18">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V18">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W18">
         <v>-1</v>
@@ -2124,19 +2124,19 @@
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="Z18">
         <v>-1</v>
       </c>
       <c r="AA18">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AB18">
-        <v>0.925</v>
+        <v>0.3875</v>
       </c>
       <c r="AC18">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2144,7 +2144,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5774684</v>
+        <v>5774057</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2159,52 +2159,52 @@
         <v>46</v>
       </c>
       <c r="G19" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19">
         <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K19">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L19">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="M19">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="N19">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="O19">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="P19">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="Q19">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R19">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S19">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T19">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U19">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V19">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W19">
         <v>-1</v>
@@ -2213,19 +2213,19 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>3</v>
+        <v>1.9</v>
       </c>
       <c r="Z19">
         <v>-1</v>
       </c>
       <c r="AA19">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AB19">
-        <v>0.3875</v>
+        <v>0.925</v>
       </c>
       <c r="AC19">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2245,10 +2245,10 @@
         <v>44937.40625</v>
       </c>
       <c r="F20" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" t="s">
         <v>46</v>
-      </c>
-      <c r="G20" t="s">
-        <v>45</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -2257,7 +2257,7 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K20">
         <v>2.375</v>
@@ -2334,7 +2334,7 @@
         <v>44937.40625</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G21" t="s">
         <v>44</v>
@@ -2411,7 +2411,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6117225</v>
+        <v>5774686</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2423,76 +2423,76 @@
         <v>44937.58333333334</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
         <v>52</v>
       </c>
       <c r="K22">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="L22">
+        <v>3.2</v>
+      </c>
+      <c r="M22">
+        <v>1.95</v>
+      </c>
+      <c r="N22">
+        <v>3.4</v>
+      </c>
+      <c r="O22">
         <v>3</v>
       </c>
-      <c r="M22">
-        <v>1.909</v>
-      </c>
-      <c r="N22">
-        <v>3.8</v>
-      </c>
-      <c r="O22">
-        <v>2.875</v>
-      </c>
       <c r="P22">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="Q22">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R22">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S22">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T22">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U22">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V22">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="Y22">
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>0.75</v>
+        <v>0.45</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2500,7 +2500,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5774686</v>
+        <v>6117225</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2512,76 +2512,76 @@
         <v>44937.58333333334</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
         <v>52</v>
       </c>
       <c r="K23">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="L23">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M23">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="N23">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="O23">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P23">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="Q23">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R23">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S23">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T23">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U23">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V23">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="Y23">
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0.45</v>
+        <v>0.75</v>
       </c>
       <c r="AA23">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC23">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2613,7 +2613,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K24">
         <v>2.75</v>
@@ -2779,7 +2779,7 @@
         <v>44939.40625</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G26" t="s">
         <v>43</v>
@@ -2969,7 +2969,7 @@
         <v>3</v>
       </c>
       <c r="J28" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K28">
         <v>2.7</v>
@@ -3049,7 +3049,7 @@
         <v>43</v>
       </c>
       <c r="G29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3058,7 +3058,7 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K29">
         <v>2.5</v>
@@ -3135,7 +3135,7 @@
         <v>44944.5</v>
       </c>
       <c r="F30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G30" t="s">
         <v>35</v>
@@ -3236,7 +3236,7 @@
         <v>3</v>
       </c>
       <c r="J31" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K31">
         <v>4</v>
@@ -3316,7 +3316,7 @@
         <v>33</v>
       </c>
       <c r="G32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -3325,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -3414,7 +3414,7 @@
         <v>3</v>
       </c>
       <c r="J33" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K33">
         <v>2.25</v>
@@ -3503,7 +3503,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K34">
         <v>1.333</v>
@@ -3672,7 +3672,7 @@
         <v>41</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K36">
         <v>2</v>
@@ -3770,7 +3770,7 @@
         <v>3</v>
       </c>
       <c r="J37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K37">
         <v>4</v>
@@ -3847,7 +3847,7 @@
         <v>44948.5</v>
       </c>
       <c r="F38" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G38" t="s">
         <v>33</v>
@@ -3859,7 +3859,7 @@
         <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K38">
         <v>3.6</v>
@@ -3924,7 +3924,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>5774068</v>
+        <v>5774694</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3936,76 +3936,76 @@
         <v>44949.40625</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G39" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H39">
         <v>0</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K39">
+        <v>2.75</v>
+      </c>
+      <c r="L39">
+        <v>2.8</v>
+      </c>
+      <c r="M39">
+        <v>2.625</v>
+      </c>
+      <c r="N39">
+        <v>3.1</v>
+      </c>
+      <c r="O39">
         <v>2.7</v>
       </c>
-      <c r="L39">
-        <v>2.75</v>
-      </c>
-      <c r="M39">
-        <v>2.75</v>
-      </c>
-      <c r="N39">
-        <v>2.4</v>
-      </c>
-      <c r="O39">
-        <v>2.75</v>
-      </c>
       <c r="P39">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="Q39">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R39">
-        <v>2.025</v>
+        <v>1.7</v>
       </c>
       <c r="S39">
-        <v>1.775</v>
+        <v>2.1</v>
       </c>
       <c r="T39">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U39">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V39">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W39">
         <v>-1</v>
       </c>
       <c r="X39">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z39">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>0.3875</v>
+        <v>1.1</v>
       </c>
       <c r="AB39">
         <v>-1</v>
       </c>
       <c r="AC39">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4013,7 +4013,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>5774694</v>
+        <v>5774068</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4025,76 +4025,76 @@
         <v>44949.40625</v>
       </c>
       <c r="F40" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G40" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H40">
         <v>0</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K40">
+        <v>2.7</v>
+      </c>
+      <c r="L40">
         <v>2.75</v>
       </c>
-      <c r="L40">
-        <v>2.8</v>
-      </c>
       <c r="M40">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="N40">
+        <v>2.4</v>
+      </c>
+      <c r="O40">
+        <v>2.75</v>
+      </c>
+      <c r="P40">
         <v>3.1</v>
       </c>
-      <c r="O40">
-        <v>2.7</v>
-      </c>
-      <c r="P40">
-        <v>2.5</v>
-      </c>
       <c r="Q40">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R40">
-        <v>1.7</v>
+        <v>2.025</v>
       </c>
       <c r="S40">
-        <v>2.1</v>
+        <v>1.775</v>
       </c>
       <c r="T40">
+        <v>2</v>
+      </c>
+      <c r="U40">
+        <v>1.925</v>
+      </c>
+      <c r="V40">
+        <v>1.875</v>
+      </c>
+      <c r="W40">
+        <v>-1</v>
+      </c>
+      <c r="X40">
         <v>1.75</v>
       </c>
-      <c r="U40">
-        <v>1.825</v>
-      </c>
-      <c r="V40">
-        <v>1.975</v>
-      </c>
-      <c r="W40">
-        <v>-1</v>
-      </c>
-      <c r="X40">
-        <v>-1</v>
-      </c>
       <c r="Y40">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA40">
-        <v>1.1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB40">
         <v>-1</v>
       </c>
       <c r="AC40">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K41">
         <v>1.727</v>
@@ -4206,7 +4206,7 @@
         <v>41</v>
       </c>
       <c r="G42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -4393,7 +4393,7 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K44">
         <v>4.5</v>
@@ -4482,7 +4482,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K45">
         <v>1.4</v>
@@ -4559,7 +4559,7 @@
         <v>44950.58333333334</v>
       </c>
       <c r="F46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G46" t="s">
         <v>40</v>
@@ -4571,7 +4571,7 @@
         <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K46">
         <v>5.75</v>
@@ -4648,10 +4648,10 @@
         <v>44953.40625</v>
       </c>
       <c r="F47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H47">
         <v>2</v>
@@ -4740,7 +4740,7 @@
         <v>35</v>
       </c>
       <c r="G48" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H48">
         <v>3</v>
@@ -4749,7 +4749,7 @@
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K48">
         <v>2</v>
@@ -4927,7 +4927,7 @@
         <v>2</v>
       </c>
       <c r="J50" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K50">
         <v>1.7</v>
@@ -5007,7 +5007,7 @@
         <v>38</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -5016,7 +5016,7 @@
         <v>2</v>
       </c>
       <c r="J51" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K51">
         <v>2.75</v>
@@ -5194,7 +5194,7 @@
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K53">
         <v>2.05</v>
@@ -5348,7 +5348,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>5774077</v>
+        <v>5774076</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5360,10 +5360,10 @@
         <v>44962.40625</v>
       </c>
       <c r="F55" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G55" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -5372,44 +5372,44 @@
         <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K55">
-        <v>1.615</v>
+        <v>2.6</v>
       </c>
       <c r="L55">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="M55">
-        <v>5.25</v>
+        <v>2.7</v>
       </c>
       <c r="N55">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="O55">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="P55">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="Q55">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R55">
+        <v>2.05</v>
+      </c>
+      <c r="S55">
+        <v>1.75</v>
+      </c>
+      <c r="T55">
+        <v>2</v>
+      </c>
+      <c r="U55">
+        <v>1.875</v>
+      </c>
+      <c r="V55">
         <v>1.925</v>
       </c>
-      <c r="S55">
-        <v>1.875</v>
-      </c>
-      <c r="T55">
-        <v>2</v>
-      </c>
-      <c r="U55">
-        <v>2.025</v>
-      </c>
-      <c r="V55">
-        <v>1.775</v>
-      </c>
       <c r="W55">
         <v>-1</v>
       </c>
@@ -5417,16 +5417,16 @@
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="Z55">
         <v>-1</v>
       </c>
       <c r="AA55">
+        <v>0.75</v>
+      </c>
+      <c r="AB55">
         <v>0.875</v>
-      </c>
-      <c r="AB55">
-        <v>1.025</v>
       </c>
       <c r="AC55">
         <v>-1</v>
@@ -5437,7 +5437,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>5774076</v>
+        <v>5774077</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5449,10 +5449,10 @@
         <v>44962.40625</v>
       </c>
       <c r="F56" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G56" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5461,43 +5461,43 @@
         <v>2</v>
       </c>
       <c r="J56" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K56">
-        <v>2.6</v>
+        <v>1.615</v>
       </c>
       <c r="L56">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="M56">
-        <v>2.7</v>
+        <v>5.25</v>
       </c>
       <c r="N56">
+        <v>2.2</v>
+      </c>
+      <c r="O56">
         <v>2.9</v>
       </c>
-      <c r="O56">
-        <v>2.8</v>
-      </c>
       <c r="P56">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q56">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R56">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S56">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T56">
         <v>2</v>
       </c>
       <c r="U56">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V56">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W56">
         <v>-1</v>
@@ -5506,16 +5506,16 @@
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="Z56">
         <v>-1</v>
       </c>
       <c r="AA56">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="AB56">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AC56">
         <v>-1</v>
@@ -5550,7 +5550,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K57">
         <v>1.833</v>
@@ -5728,7 +5728,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K59">
         <v>4.333</v>
@@ -5805,7 +5805,7 @@
         <v>44964.40625</v>
       </c>
       <c r="F60" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G60" t="s">
         <v>42</v>
@@ -5894,7 +5894,7 @@
         <v>44964.5</v>
       </c>
       <c r="F61" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G61" t="s">
         <v>40</v>
@@ -5906,7 +5906,7 @@
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K61">
         <v>5.25</v>
@@ -5995,7 +5995,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K62">
         <v>1.95</v>
@@ -6075,7 +6075,7 @@
         <v>31</v>
       </c>
       <c r="G63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H63">
         <v>2</v>
@@ -6084,7 +6084,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K63">
         <v>2</v>
@@ -6173,7 +6173,7 @@
         <v>3</v>
       </c>
       <c r="J64" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K64">
         <v>3.1</v>
@@ -6262,7 +6262,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K65">
         <v>2.25</v>
@@ -6339,10 +6339,10 @@
         <v>44968.58333333334</v>
       </c>
       <c r="F66" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G66" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -6351,7 +6351,7 @@
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K66">
         <v>1.909</v>
@@ -6440,7 +6440,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K67">
         <v>2.2</v>
@@ -6517,7 +6517,7 @@
         <v>44970.58333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G68" t="s">
         <v>39</v>
@@ -6529,7 +6529,7 @@
         <v>3</v>
       </c>
       <c r="J68" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K68">
         <v>3.1</v>
@@ -6618,7 +6618,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K69">
         <v>1.5</v>
@@ -6707,7 +6707,7 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K70">
         <v>1.666</v>
@@ -6787,7 +6787,7 @@
         <v>44</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H71">
         <v>2</v>
@@ -6873,7 +6873,7 @@
         <v>44977.5</v>
       </c>
       <c r="F72" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G72" t="s">
         <v>31</v>
@@ -6885,7 +6885,7 @@
         <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K72">
         <v>3.5</v>
@@ -6965,7 +6965,7 @@
         <v>38</v>
       </c>
       <c r="G73" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -7051,7 +7051,7 @@
         <v>44978.40625</v>
       </c>
       <c r="F74" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G74" t="s">
         <v>32</v>
@@ -7063,7 +7063,7 @@
         <v>3</v>
       </c>
       <c r="J74" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K74">
         <v>7</v>
@@ -7496,7 +7496,7 @@
         <v>44983.5</v>
       </c>
       <c r="F79" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G79" t="s">
         <v>43</v>
@@ -7508,7 +7508,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K79">
         <v>1.85</v>
@@ -7588,7 +7588,7 @@
         <v>34</v>
       </c>
       <c r="G80" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -7597,7 +7597,7 @@
         <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K80">
         <v>2.75</v>
@@ -7674,7 +7674,7 @@
         <v>44984.58333333334</v>
       </c>
       <c r="F81" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G81" t="s">
         <v>31</v>
@@ -7686,7 +7686,7 @@
         <v>4</v>
       </c>
       <c r="J81" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K81">
         <v>2.625</v>
@@ -7775,7 +7775,7 @@
         <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K82">
         <v>1.95</v>
@@ -7864,7 +7864,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K83">
         <v>2.25</v>
@@ -7944,7 +7944,7 @@
         <v>32</v>
       </c>
       <c r="G84" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H84">
         <v>1</v>
@@ -8042,7 +8042,7 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K85">
         <v>3.5</v>
@@ -8386,7 +8386,7 @@
         <v>44991.41666666666</v>
       </c>
       <c r="F89" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G89" t="s">
         <v>34</v>
@@ -8398,7 +8398,7 @@
         <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K89">
         <v>2.4</v>
@@ -8478,7 +8478,7 @@
         <v>42</v>
       </c>
       <c r="G90" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -8487,7 +8487,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K90">
         <v>2.5</v>
@@ -8576,7 +8576,7 @@
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K91">
         <v>1.45</v>
@@ -8745,7 +8745,7 @@
         <v>33</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -8754,7 +8754,7 @@
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K93">
         <v>2.15</v>
@@ -8831,7 +8831,7 @@
         <v>44997.41666666666</v>
       </c>
       <c r="F94" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G94" t="s">
         <v>36</v>
@@ -8843,7 +8843,7 @@
         <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K94">
         <v>3.4</v>
@@ -8932,7 +8932,7 @@
         <v>2</v>
       </c>
       <c r="J95" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K95">
         <v>1.444</v>
@@ -9021,7 +9021,7 @@
         <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K96">
         <v>4</v>
@@ -9086,7 +9086,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6441342</v>
+        <v>6441121</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9098,76 +9098,76 @@
         <v>45015.67708333334</v>
       </c>
       <c r="F97" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G97" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J97" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K97">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="L97">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="M97">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="N97">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="O97">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="P97">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="Q97">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R97">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S97">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T97">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U97">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V97">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W97">
         <v>-1</v>
       </c>
       <c r="X97">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y97">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z97">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA97">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB97">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC97">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9175,7 +9175,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6441121</v>
+        <v>6441342</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9187,76 +9187,76 @@
         <v>45015.67708333334</v>
       </c>
       <c r="F98" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G98" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K98">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="L98">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="M98">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="N98">
+        <v>2.6</v>
+      </c>
+      <c r="O98">
+        <v>2.7</v>
+      </c>
+      <c r="P98">
+        <v>2.875</v>
+      </c>
+      <c r="Q98">
+        <v>0</v>
+      </c>
+      <c r="R98">
+        <v>1.85</v>
+      </c>
+      <c r="S98">
+        <v>1.95</v>
+      </c>
+      <c r="T98">
         <v>2.25</v>
       </c>
-      <c r="O98">
-        <v>2.75</v>
-      </c>
-      <c r="P98">
-        <v>3.4</v>
-      </c>
-      <c r="Q98">
-        <v>-0.25</v>
-      </c>
-      <c r="R98">
+      <c r="U98">
         <v>2.025</v>
       </c>
-      <c r="S98">
+      <c r="V98">
         <v>1.775</v>
       </c>
-      <c r="T98">
-        <v>2</v>
-      </c>
-      <c r="U98">
-        <v>2</v>
-      </c>
-      <c r="V98">
-        <v>1.8</v>
-      </c>
       <c r="W98">
         <v>-1</v>
       </c>
       <c r="X98">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y98">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA98">
+        <v>-0</v>
+      </c>
+      <c r="AB98">
+        <v>-1</v>
+      </c>
+      <c r="AC98">
         <v>0.7749999999999999</v>
-      </c>
-      <c r="AB98">
-        <v>1</v>
-      </c>
-      <c r="AC98">
-        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9288,7 +9288,7 @@
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K99">
         <v>2.5</v>
@@ -9377,7 +9377,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K100">
         <v>3.1</v>
@@ -9457,7 +9457,7 @@
         <v>37</v>
       </c>
       <c r="G101" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -9531,7 +9531,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6451732</v>
+        <v>6467348</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9543,76 +9543,76 @@
         <v>45019.67708333334</v>
       </c>
       <c r="F102" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G102" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102">
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K102">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="L102">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="M102">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="N102">
+        <v>3.2</v>
+      </c>
+      <c r="O102">
         <v>2.9</v>
       </c>
-      <c r="O102">
-        <v>2.75</v>
-      </c>
       <c r="P102">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="Q102">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R102">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S102">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T102">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U102">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V102">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W102">
         <v>-1</v>
       </c>
       <c r="X102">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y102">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA102">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC102">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9620,7 +9620,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6467348</v>
+        <v>6451732</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9632,76 +9632,76 @@
         <v>45019.67708333334</v>
       </c>
       <c r="F103" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G103" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103">
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K103">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="L103">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="M103">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="N103">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="O103">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="P103">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="Q103">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R103">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S103">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T103">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U103">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V103">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W103">
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y103">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z103">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AB103">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9709,7 +9709,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6471793</v>
+        <v>6445815</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9721,76 +9721,76 @@
         <v>45020.67708333334</v>
       </c>
       <c r="F104" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G104" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K104">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="L104">
+        <v>2.75</v>
+      </c>
+      <c r="M104">
         <v>2.625</v>
       </c>
-      <c r="M104">
-        <v>3</v>
-      </c>
       <c r="N104">
+        <v>2.6</v>
+      </c>
+      <c r="O104">
+        <v>2.8</v>
+      </c>
+      <c r="P104">
         <v>2.875</v>
       </c>
-      <c r="O104">
-        <v>2.625</v>
-      </c>
-      <c r="P104">
-        <v>2.625</v>
-      </c>
       <c r="Q104">
         <v>0</v>
       </c>
       <c r="R104">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S104">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T104">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U104">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V104">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W104">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X104">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA104">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC104">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9798,7 +9798,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6445815</v>
+        <v>6467349</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9810,19 +9810,19 @@
         <v>45020.67708333334</v>
       </c>
       <c r="F105" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G105" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H105">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K105">
         <v>2.7</v>
@@ -9831,25 +9831,25 @@
         <v>2.75</v>
       </c>
       <c r="M105">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="N105">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="O105">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="P105">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="Q105">
         <v>0</v>
       </c>
       <c r="R105">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="S105">
-        <v>2</v>
+        <v>2.075</v>
       </c>
       <c r="T105">
         <v>2</v>
@@ -9861,25 +9861,25 @@
         <v>1.95</v>
       </c>
       <c r="W105">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X105">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Y105">
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB105">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC105">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9887,7 +9887,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6467349</v>
+        <v>6471793</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9902,58 +9902,58 @@
         <v>30</v>
       </c>
       <c r="G106" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="s">
         <v>52</v>
       </c>
       <c r="K106">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="L106">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="M106">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="N106">
-        <v>2.5</v>
+        <v>2.875</v>
       </c>
       <c r="O106">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="P106">
-        <v>2.9</v>
+        <v>2.625</v>
       </c>
       <c r="Q106">
         <v>0</v>
       </c>
       <c r="R106">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="S106">
-        <v>2.075</v>
+        <v>1.775</v>
       </c>
       <c r="T106">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U106">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V106">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W106">
         <v>-1</v>
       </c>
       <c r="X106">
-        <v>1.75</v>
+        <v>1.625</v>
       </c>
       <c r="Y106">
         <v>-1</v>
@@ -9965,10 +9965,10 @@
         <v>-0</v>
       </c>
       <c r="AB106">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC106">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9976,7 +9976,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6451733</v>
+        <v>6471794</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9988,76 +9988,76 @@
         <v>45021.67708333334</v>
       </c>
       <c r="F107" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G107" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I107">
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K107">
-        <v>4.2</v>
+        <v>1.222</v>
       </c>
       <c r="L107">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="M107">
-        <v>1.85</v>
+        <v>10</v>
       </c>
       <c r="N107">
-        <v>3.4</v>
+        <v>1.222</v>
       </c>
       <c r="O107">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="P107">
-        <v>2.15</v>
+        <v>10</v>
       </c>
       <c r="Q107">
-        <v>0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R107">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S107">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T107">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U107">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V107">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W107">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X107">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y107">
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0.4375</v>
+        <v>1</v>
       </c>
       <c r="AA107">
+        <v>-1</v>
+      </c>
+      <c r="AB107">
+        <v>0.4875</v>
+      </c>
+      <c r="AC107">
         <v>-0.5</v>
-      </c>
-      <c r="AB107">
-        <v>-1</v>
-      </c>
-      <c r="AC107">
-        <v>0.925</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10065,7 +10065,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6471794</v>
+        <v>6451733</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10077,76 +10077,76 @@
         <v>45021.67708333334</v>
       </c>
       <c r="F108" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G108" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108" t="s">
+        <v>52</v>
+      </c>
+      <c r="K108">
+        <v>4.2</v>
+      </c>
+      <c r="L108">
         <v>3</v>
       </c>
-      <c r="I108">
-        <v>0</v>
-      </c>
-      <c r="J108" t="s">
-        <v>51</v>
-      </c>
-      <c r="K108">
-        <v>1.222</v>
-      </c>
-      <c r="L108">
-        <v>5.25</v>
-      </c>
       <c r="M108">
-        <v>10</v>
+        <v>1.85</v>
       </c>
       <c r="N108">
-        <v>1.222</v>
+        <v>3.4</v>
       </c>
       <c r="O108">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="P108">
-        <v>10</v>
+        <v>2.15</v>
       </c>
       <c r="Q108">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R108">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S108">
+        <v>1.925</v>
+      </c>
+      <c r="T108">
+        <v>2</v>
+      </c>
+      <c r="U108">
+        <v>1.875</v>
+      </c>
+      <c r="V108">
+        <v>1.925</v>
+      </c>
+      <c r="W108">
+        <v>-1</v>
+      </c>
+      <c r="X108">
         <v>1.8</v>
       </c>
-      <c r="T108">
-        <v>2.75</v>
-      </c>
-      <c r="U108">
-        <v>1.975</v>
-      </c>
-      <c r="V108">
-        <v>1.825</v>
-      </c>
-      <c r="W108">
-        <v>0.222</v>
-      </c>
-      <c r="X108">
-        <v>-1</v>
-      </c>
       <c r="Y108">
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA108">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB108">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC108">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10178,7 +10178,7 @@
         <v>1</v>
       </c>
       <c r="J109" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K109">
         <v>2.875</v>
@@ -10255,7 +10255,7 @@
         <v>45023.67708333334</v>
       </c>
       <c r="F110" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G110" t="s">
         <v>41</v>
@@ -10356,7 +10356,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K111">
         <v>1.727</v>
@@ -10433,10 +10433,10 @@
         <v>45025.67708333334</v>
       </c>
       <c r="F112" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G112" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H112">
         <v>4</v>
@@ -10445,7 +10445,7 @@
         <v>3</v>
       </c>
       <c r="J112" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K112">
         <v>1.95</v>
@@ -10534,7 +10534,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K113">
         <v>1.8</v>
@@ -10623,7 +10623,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K114">
         <v>3</v>
@@ -10712,7 +10712,7 @@
         <v>2</v>
       </c>
       <c r="J115" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K115">
         <v>3.1</v>
@@ -10777,7 +10777,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6471800</v>
+        <v>6484222</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10789,76 +10789,76 @@
         <v>45028.67708333334</v>
       </c>
       <c r="F116" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G116" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H116">
         <v>0</v>
       </c>
       <c r="I116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K116">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="L116">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M116">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="N116">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="O116">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="P116">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="Q116">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R116">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S116">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T116">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U116">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V116">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W116">
         <v>-1</v>
       </c>
       <c r="X116">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y116">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z116">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA116">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB116">
         <v>-1</v>
       </c>
       <c r="AC116">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10866,7 +10866,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6484222</v>
+        <v>6471800</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10878,76 +10878,76 @@
         <v>45028.67708333334</v>
       </c>
       <c r="F117" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G117" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H117">
         <v>0</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K117">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="L117">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M117">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="N117">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="O117">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="P117">
-        <v>1.95</v>
+        <v>1.6</v>
       </c>
       <c r="Q117">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R117">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S117">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T117">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U117">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V117">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y117">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z117">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA117">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB117">
         <v>-1</v>
       </c>
       <c r="AC117">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10955,7 +10955,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6484223</v>
+        <v>6471699</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10967,73 +10967,73 @@
         <v>45029.67708333334</v>
       </c>
       <c r="F118" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G118" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
         <v>3</v>
-      </c>
-      <c r="I118">
-        <v>1</v>
       </c>
       <c r="J118" t="s">
         <v>51</v>
       </c>
       <c r="K118">
-        <v>2.875</v>
+        <v>4.2</v>
       </c>
       <c r="L118">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="M118">
-        <v>2.5</v>
+        <v>1.833</v>
       </c>
       <c r="N118">
-        <v>2.375</v>
+        <v>5</v>
       </c>
       <c r="O118">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="P118">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="Q118">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R118">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S118">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T118">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U118">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V118">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W118">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X118">
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z118">
+        <v>-1</v>
+      </c>
+      <c r="AA118">
         <v>1</v>
       </c>
-      <c r="AA118">
-        <v>-1</v>
-      </c>
       <c r="AB118">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="AC118">
         <v>-1</v>
@@ -11044,7 +11044,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6471699</v>
+        <v>6484223</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11056,73 +11056,73 @@
         <v>45029.67708333334</v>
       </c>
       <c r="F119" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G119" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I119">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J119" t="s">
         <v>50</v>
       </c>
       <c r="K119">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="L119">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="M119">
-        <v>1.833</v>
+        <v>2.5</v>
       </c>
       <c r="N119">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="O119">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="P119">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="Q119">
+        <v>-0.25</v>
+      </c>
+      <c r="R119">
+        <v>2</v>
+      </c>
+      <c r="S119">
+        <v>1.8</v>
+      </c>
+      <c r="T119">
+        <v>1.75</v>
+      </c>
+      <c r="U119">
+        <v>1.75</v>
+      </c>
+      <c r="V119">
+        <v>2.05</v>
+      </c>
+      <c r="W119">
+        <v>1.375</v>
+      </c>
+      <c r="X119">
+        <v>-1</v>
+      </c>
+      <c r="Y119">
+        <v>-1</v>
+      </c>
+      <c r="Z119">
+        <v>1</v>
+      </c>
+      <c r="AA119">
+        <v>-1</v>
+      </c>
+      <c r="AB119">
         <v>0.75</v>
-      </c>
-      <c r="R119">
-        <v>1.8</v>
-      </c>
-      <c r="S119">
-        <v>2</v>
-      </c>
-      <c r="T119">
-        <v>2</v>
-      </c>
-      <c r="U119">
-        <v>1.825</v>
-      </c>
-      <c r="V119">
-        <v>1.975</v>
-      </c>
-      <c r="W119">
-        <v>-1</v>
-      </c>
-      <c r="X119">
-        <v>-1</v>
-      </c>
-      <c r="Y119">
-        <v>0.7</v>
-      </c>
-      <c r="Z119">
-        <v>-1</v>
-      </c>
-      <c r="AA119">
-        <v>1</v>
-      </c>
-      <c r="AB119">
-        <v>0.825</v>
       </c>
       <c r="AC119">
         <v>-1</v>
@@ -11237,7 +11237,7 @@
         <v>31</v>
       </c>
       <c r="G121" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H121">
         <v>3</v>
@@ -11246,7 +11246,7 @@
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K121">
         <v>2.3</v>
@@ -11335,7 +11335,7 @@
         <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K122">
         <v>1.333</v>
@@ -11412,7 +11412,7 @@
         <v>45030.67708333334</v>
       </c>
       <c r="F123" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G123" t="s">
         <v>40</v>
@@ -11424,7 +11424,7 @@
         <v>3</v>
       </c>
       <c r="J123" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K123">
         <v>5.5</v>
@@ -11504,7 +11504,7 @@
         <v>44</v>
       </c>
       <c r="G124" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H124">
         <v>2</v>
@@ -11513,7 +11513,7 @@
         <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K124">
         <v>2.5</v>
@@ -11578,7 +11578,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6488028</v>
+        <v>6488032</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11590,49 +11590,49 @@
         <v>45033.67708333334</v>
       </c>
       <c r="F125" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G125" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125">
         <v>2</v>
       </c>
       <c r="J125" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K125">
-        <v>1.8</v>
+        <v>6.5</v>
       </c>
       <c r="L125">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M125">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="N125">
-        <v>2.25</v>
+        <v>6.5</v>
       </c>
       <c r="O125">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="P125">
-        <v>3.1</v>
+        <v>1.45</v>
       </c>
       <c r="Q125">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R125">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S125">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T125">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U125">
         <v>1.875</v>
@@ -11644,22 +11644,22 @@
         <v>-1</v>
       </c>
       <c r="X125">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z125">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA125">
-        <v>0.375</v>
+        <v>0.825</v>
       </c>
       <c r="AB125">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC125">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11667,7 +11667,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6488032</v>
+        <v>6488028</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11679,49 +11679,49 @@
         <v>45033.67708333334</v>
       </c>
       <c r="F126" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G126" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126">
         <v>2</v>
       </c>
       <c r="J126" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K126">
-        <v>6.5</v>
+        <v>1.8</v>
       </c>
       <c r="L126">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M126">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="N126">
-        <v>6.5</v>
+        <v>2.25</v>
       </c>
       <c r="O126">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="P126">
-        <v>1.45</v>
+        <v>3.1</v>
       </c>
       <c r="Q126">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R126">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S126">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T126">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U126">
         <v>1.875</v>
@@ -11733,22 +11733,22 @@
         <v>-1</v>
       </c>
       <c r="X126">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y126">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z126">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA126">
-        <v>0.825</v>
+        <v>0.375</v>
       </c>
       <c r="AB126">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC126">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11756,7 +11756,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6488033</v>
+        <v>6488029</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11768,7 +11768,7 @@
         <v>45034.67708333334</v>
       </c>
       <c r="F127" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G127" t="s">
         <v>30</v>
@@ -11780,46 +11780,46 @@
         <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K127">
+        <v>1.4</v>
+      </c>
+      <c r="L127">
+        <v>4</v>
+      </c>
+      <c r="M127">
+        <v>7</v>
+      </c>
+      <c r="N127">
+        <v>1.444</v>
+      </c>
+      <c r="O127">
+        <v>3.75</v>
+      </c>
+      <c r="P127">
+        <v>7</v>
+      </c>
+      <c r="Q127">
+        <v>-1</v>
+      </c>
+      <c r="R127">
+        <v>1.8</v>
+      </c>
+      <c r="S127">
+        <v>2</v>
+      </c>
+      <c r="T127">
         <v>2.25</v>
       </c>
-      <c r="L127">
-        <v>3</v>
-      </c>
-      <c r="M127">
-        <v>3</v>
-      </c>
-      <c r="N127">
-        <v>2.25</v>
-      </c>
-      <c r="O127">
-        <v>2.875</v>
-      </c>
-      <c r="P127">
-        <v>3.1</v>
-      </c>
-      <c r="Q127">
-        <v>0</v>
-      </c>
-      <c r="R127">
-        <v>1.725</v>
-      </c>
-      <c r="S127">
-        <v>2.075</v>
-      </c>
-      <c r="T127">
-        <v>2</v>
-      </c>
       <c r="U127">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V127">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W127">
-        <v>1.25</v>
+        <v>0.444</v>
       </c>
       <c r="X127">
         <v>-1</v>
@@ -11828,16 +11828,16 @@
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>0.7250000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA127">
         <v>-1</v>
       </c>
       <c r="AB127">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC127">
-        <v>-0</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11845,7 +11845,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6488029</v>
+        <v>6488033</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11857,7 +11857,7 @@
         <v>45034.67708333334</v>
       </c>
       <c r="F128" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G128" t="s">
         <v>29</v>
@@ -11869,46 +11869,46 @@
         <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K128">
-        <v>1.4</v>
+        <v>2.25</v>
       </c>
       <c r="L128">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M128">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N128">
-        <v>1.444</v>
+        <v>2.25</v>
       </c>
       <c r="O128">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="P128">
-        <v>7</v>
+        <v>3.1</v>
       </c>
       <c r="Q128">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R128">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="S128">
-        <v>2</v>
+        <v>2.075</v>
       </c>
       <c r="T128">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U128">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V128">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W128">
-        <v>0.444</v>
+        <v>1.25</v>
       </c>
       <c r="X128">
         <v>-1</v>
@@ -11917,16 +11917,16 @@
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>0.8</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA128">
         <v>-1</v>
       </c>
       <c r="AB128">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC128">
-        <v>0.4625</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11958,7 +11958,7 @@
         <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K129">
         <v>2</v>
@@ -12035,7 +12035,7 @@
         <v>45035.67708333334</v>
       </c>
       <c r="F130" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G130" t="s">
         <v>36</v>
@@ -12136,7 +12136,7 @@
         <v>0</v>
       </c>
       <c r="J131" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K131">
         <v>2.1</v>
@@ -12201,7 +12201,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6495714</v>
+        <v>6488031</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12213,76 +12213,76 @@
         <v>45036.67708333334</v>
       </c>
       <c r="F132" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G132" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J132" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K132">
         <v>2.3</v>
       </c>
       <c r="L132">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="M132">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N132">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O132">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="P132">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q132">
         <v>-0.25</v>
       </c>
       <c r="R132">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S132">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T132">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U132">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V132">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W132">
         <v>-1</v>
       </c>
       <c r="X132">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y132">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z132">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA132">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
       <c r="AB132">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC132">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12290,7 +12290,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6488031</v>
+        <v>6495714</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12302,76 +12302,76 @@
         <v>45036.67708333334</v>
       </c>
       <c r="F133" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G133" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K133">
         <v>2.3</v>
       </c>
       <c r="L133">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="M133">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N133">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O133">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="P133">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q133">
         <v>-0.25</v>
       </c>
       <c r="R133">
+        <v>1.9</v>
+      </c>
+      <c r="S133">
+        <v>1.9</v>
+      </c>
+      <c r="T133">
+        <v>2.25</v>
+      </c>
+      <c r="U133">
+        <v>1.95</v>
+      </c>
+      <c r="V133">
         <v>1.85</v>
       </c>
-      <c r="S133">
-        <v>1.95</v>
-      </c>
-      <c r="T133">
-        <v>2</v>
-      </c>
-      <c r="U133">
-        <v>2</v>
-      </c>
-      <c r="V133">
+      <c r="W133">
+        <v>-1</v>
+      </c>
+      <c r="X133">
         <v>1.8</v>
       </c>
-      <c r="W133">
-        <v>-1</v>
-      </c>
-      <c r="X133">
-        <v>-1</v>
-      </c>
       <c r="Y133">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z133">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA133">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="AB133">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC133">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12483,7 +12483,7 @@
         <v>36</v>
       </c>
       <c r="G135" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H135">
         <v>0</v>
@@ -12492,7 +12492,7 @@
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K135">
         <v>1.571</v>
@@ -12569,7 +12569,7 @@
         <v>45042.5</v>
       </c>
       <c r="F136" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G136" t="s">
         <v>34</v>
@@ -12581,7 +12581,7 @@
         <v>0</v>
       </c>
       <c r="J136" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K136">
         <v>1.909</v>
@@ -12670,7 +12670,7 @@
         <v>0</v>
       </c>
       <c r="J137" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K137">
         <v>2.1</v>
@@ -12750,7 +12750,7 @@
         <v>34</v>
       </c>
       <c r="G138" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H138">
         <v>0</v>
@@ -12759,7 +12759,7 @@
         <v>2</v>
       </c>
       <c r="J138" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K138">
         <v>3.3</v>
@@ -12836,7 +12836,7 @@
         <v>45048.64583333334</v>
       </c>
       <c r="F139" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G139" t="s">
         <v>38</v>
@@ -12925,7 +12925,7 @@
         <v>45049.58333333334</v>
       </c>
       <c r="F140" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G140" t="s">
         <v>42</v>
@@ -12937,7 +12937,7 @@
         <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K140">
         <v>2.75</v>
@@ -13106,7 +13106,7 @@
         <v>43</v>
       </c>
       <c r="G142" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H142">
         <v>2</v>
@@ -13115,7 +13115,7 @@
         <v>3</v>
       </c>
       <c r="J142" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K142">
         <v>3.4</v>
@@ -13293,7 +13293,7 @@
         <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K144">
         <v>1.8</v>
@@ -13382,7 +13382,7 @@
         <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K145">
         <v>4.5</v>
@@ -13551,7 +13551,7 @@
         <v>42</v>
       </c>
       <c r="G147" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H147">
         <v>1</v>
@@ -13649,7 +13649,7 @@
         <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K148">
         <v>2.5</v>
@@ -13738,7 +13738,7 @@
         <v>2</v>
       </c>
       <c r="J149" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K149">
         <v>4.333</v>
@@ -13815,7 +13815,7 @@
         <v>45062.54166666666</v>
       </c>
       <c r="F150" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G150" t="s">
         <v>36</v>
@@ -13904,7 +13904,7 @@
         <v>45062.64583333334</v>
       </c>
       <c r="F151" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G151" t="s">
         <v>37</v>
@@ -14005,7 +14005,7 @@
         <v>0</v>
       </c>
       <c r="J152" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K152">
         <v>2.4</v>
@@ -14085,7 +14085,7 @@
         <v>39</v>
       </c>
       <c r="G153" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H153">
         <v>1</v>
@@ -14094,7 +14094,7 @@
         <v>0</v>
       </c>
       <c r="J153" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K153">
         <v>1.909</v>
@@ -14183,7 +14183,7 @@
         <v>0</v>
       </c>
       <c r="J154" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K154">
         <v>1.727</v>
@@ -14272,7 +14272,7 @@
         <v>2</v>
       </c>
       <c r="J155" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K155">
         <v>6</v>
@@ -14361,7 +14361,7 @@
         <v>2</v>
       </c>
       <c r="J156" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K156">
         <v>2.7</v>
@@ -14441,7 +14441,7 @@
         <v>33</v>
       </c>
       <c r="G157" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H157">
         <v>0</v>
@@ -14527,7 +14527,7 @@
         <v>45068.64583333334</v>
       </c>
       <c r="F158" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G158" t="s">
         <v>39</v>
@@ -14616,7 +14616,7 @@
         <v>45069.54166666666</v>
       </c>
       <c r="F159" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G159" t="s">
         <v>44</v>
@@ -14628,7 +14628,7 @@
         <v>2</v>
       </c>
       <c r="J159" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K159">
         <v>2.7</v>
@@ -14717,7 +14717,7 @@
         <v>0</v>
       </c>
       <c r="J160" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K160">
         <v>1.333</v>
@@ -14797,7 +14797,7 @@
         <v>37</v>
       </c>
       <c r="G161" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H161">
         <v>1</v>
@@ -14806,7 +14806,7 @@
         <v>0</v>
       </c>
       <c r="J161" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K161">
         <v>2.45</v>
@@ -14871,7 +14871,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6576691</v>
+        <v>6686652</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14883,10 +14883,10 @@
         <v>45070.64583333334</v>
       </c>
       <c r="F162" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G162" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H162">
         <v>1</v>
@@ -14895,46 +14895,46 @@
         <v>0</v>
       </c>
       <c r="J162" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K162">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="L162">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="M162">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="N162">
-        <v>1.363</v>
+        <v>2.2</v>
       </c>
       <c r="O162">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="P162">
-        <v>8</v>
+        <v>3.25</v>
       </c>
       <c r="Q162">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R162">
+        <v>1.95</v>
+      </c>
+      <c r="S162">
         <v>1.85</v>
       </c>
-      <c r="S162">
-        <v>1.95</v>
-      </c>
       <c r="T162">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U162">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V162">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W162">
-        <v>0.363</v>
+        <v>1.2</v>
       </c>
       <c r="X162">
         <v>-1</v>
@@ -14943,16 +14943,16 @@
         <v>-1</v>
       </c>
       <c r="Z162">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA162">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB162">
         <v>-1</v>
       </c>
       <c r="AC162">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -14960,7 +14960,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6686652</v>
+        <v>6576691</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14972,10 +14972,10 @@
         <v>45070.64583333334</v>
       </c>
       <c r="F163" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G163" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H163">
         <v>1</v>
@@ -14984,46 +14984,46 @@
         <v>0</v>
       </c>
       <c r="J163" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K163">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="L163">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="M163">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="N163">
-        <v>2.2</v>
+        <v>1.363</v>
       </c>
       <c r="O163">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="P163">
-        <v>3.25</v>
+        <v>8</v>
       </c>
       <c r="Q163">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R163">
+        <v>1.85</v>
+      </c>
+      <c r="S163">
         <v>1.95</v>
       </c>
-      <c r="S163">
-        <v>1.85</v>
-      </c>
       <c r="T163">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U163">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V163">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W163">
-        <v>1.2</v>
+        <v>0.363</v>
       </c>
       <c r="X163">
         <v>-1</v>
@@ -15032,16 +15032,16 @@
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA163">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB163">
         <v>-1</v>
       </c>
       <c r="AC163">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15061,7 +15061,7 @@
         <v>45072.58333333334</v>
       </c>
       <c r="F164" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G164" t="s">
         <v>32</v>
@@ -15073,7 +15073,7 @@
         <v>2</v>
       </c>
       <c r="J164" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K164">
         <v>6.5</v>
@@ -15162,7 +15162,7 @@
         <v>2</v>
       </c>
       <c r="J165" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K165">
         <v>3.75</v>
@@ -15251,7 +15251,7 @@
         <v>0</v>
       </c>
       <c r="J166" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K166">
         <v>1.571</v>
@@ -15331,7 +15331,7 @@
         <v>39</v>
       </c>
       <c r="G167" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H167">
         <v>2</v>
@@ -15340,7 +15340,7 @@
         <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K167">
         <v>2</v>
@@ -15420,7 +15420,7 @@
         <v>44</v>
       </c>
       <c r="G168" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H168">
         <v>3</v>
@@ -15429,7 +15429,7 @@
         <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K168">
         <v>1.909</v>
@@ -15598,7 +15598,7 @@
         <v>43</v>
       </c>
       <c r="G170" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H170">
         <v>1</v>
@@ -15607,7 +15607,7 @@
         <v>0</v>
       </c>
       <c r="J170" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K170">
         <v>3.1</v>
@@ -15696,7 +15696,7 @@
         <v>0</v>
       </c>
       <c r="J171" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K171">
         <v>2.05</v>
@@ -15874,7 +15874,7 @@
         <v>0</v>
       </c>
       <c r="J173" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K173">
         <v>2</v>
@@ -15951,11 +15951,11 @@
         <v>45080.58333333334</v>
       </c>
       <c r="F174" t="s">
+        <v>46</v>
+      </c>
+      <c r="G174" t="s">
         <v>45</v>
       </c>
-      <c r="G174" t="s">
-        <v>46</v>
-      </c>
       <c r="H174">
         <v>2</v>
       </c>
@@ -15963,7 +15963,7 @@
         <v>0</v>
       </c>
       <c r="J174" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K174">
         <v>2.05</v>
@@ -16052,7 +16052,7 @@
         <v>1</v>
       </c>
       <c r="J175" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K175">
         <v>1.85</v>
@@ -16129,7 +16129,7 @@
         <v>45083.54166666666</v>
       </c>
       <c r="F176" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G176" t="s">
         <v>43</v>
@@ -16230,7 +16230,7 @@
         <v>1</v>
       </c>
       <c r="J177" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K177">
         <v>4.333</v>
@@ -16319,7 +16319,7 @@
         <v>0</v>
       </c>
       <c r="J178" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K178">
         <v>1.666</v>
@@ -16485,7 +16485,7 @@
         <v>45084.64583333334</v>
       </c>
       <c r="F180" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G180" t="s">
         <v>41</v>
@@ -16577,7 +16577,7 @@
         <v>35</v>
       </c>
       <c r="G181" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H181">
         <v>0</v>
@@ -16586,7 +16586,7 @@
         <v>1</v>
       </c>
       <c r="J181" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K181">
         <v>2.5</v>
@@ -16663,7 +16663,7 @@
         <v>45085.64583333334</v>
       </c>
       <c r="F182" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G182" t="s">
         <v>33</v>
@@ -16853,7 +16853,7 @@
         <v>3</v>
       </c>
       <c r="J184" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K184">
         <v>9</v>
@@ -16942,7 +16942,7 @@
         <v>0</v>
       </c>
       <c r="J185" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K185">
         <v>1.5</v>
@@ -17031,7 +17031,7 @@
         <v>0</v>
       </c>
       <c r="J186" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K186">
         <v>2.9</v>
@@ -17111,7 +17111,7 @@
         <v>40</v>
       </c>
       <c r="G187" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H187">
         <v>5</v>
@@ -17120,7 +17120,7 @@
         <v>2</v>
       </c>
       <c r="J187" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K187">
         <v>1.4</v>
@@ -17200,7 +17200,7 @@
         <v>35</v>
       </c>
       <c r="G188" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H188">
         <v>1</v>
@@ -17298,7 +17298,7 @@
         <v>3</v>
       </c>
       <c r="J189" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K189">
         <v>6</v>
@@ -17387,7 +17387,7 @@
         <v>1</v>
       </c>
       <c r="J190" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K190">
         <v>2.5</v>
@@ -17464,7 +17464,7 @@
         <v>45107.64583333334</v>
       </c>
       <c r="F191" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G191" t="s">
         <v>41</v>
@@ -17556,7 +17556,7 @@
         <v>33</v>
       </c>
       <c r="G192" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H192">
         <v>0</v>
@@ -17565,7 +17565,7 @@
         <v>1</v>
       </c>
       <c r="J192" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K192">
         <v>2.05</v>
@@ -17832,7 +17832,7 @@
         <v>0</v>
       </c>
       <c r="J195" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K195">
         <v>1.333</v>
@@ -17921,7 +17921,7 @@
         <v>2</v>
       </c>
       <c r="J196" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K196">
         <v>6.5</v>
@@ -18010,7 +18010,7 @@
         <v>3</v>
       </c>
       <c r="J197" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K197">
         <v>2.75</v>
@@ -18099,7 +18099,7 @@
         <v>3</v>
       </c>
       <c r="J198" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K198">
         <v>2.875</v>
@@ -18253,7 +18253,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>6853140</v>
+        <v>6853129</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18265,58 +18265,58 @@
         <v>45117.60416666666</v>
       </c>
       <c r="F200" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G200" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H200">
+        <v>2</v>
+      </c>
+      <c r="I200">
         <v>1</v>
       </c>
-      <c r="I200">
-        <v>0</v>
-      </c>
       <c r="J200" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K200">
-        <v>2.05</v>
+        <v>3.4</v>
       </c>
       <c r="L200">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="M200">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="N200">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O200">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="P200">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="Q200">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R200">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S200">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T200">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U200">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V200">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W200">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X200">
         <v>-1</v>
@@ -18325,16 +18325,16 @@
         <v>-1</v>
       </c>
       <c r="Z200">
-        <v>1.05</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA200">
         <v>-1</v>
       </c>
       <c r="AB200">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC200">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18354,7 +18354,7 @@
         <v>45117.60416666666</v>
       </c>
       <c r="F201" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G201" t="s">
         <v>35</v>
@@ -18366,7 +18366,7 @@
         <v>1</v>
       </c>
       <c r="J201" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K201">
         <v>2.7</v>
@@ -18431,7 +18431,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6853129</v>
+        <v>6853140</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18443,59 +18443,59 @@
         <v>45117.60416666666</v>
       </c>
       <c r="F202" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G202" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I202">
+        <v>0</v>
+      </c>
+      <c r="J202" t="s">
+        <v>50</v>
+      </c>
+      <c r="K202">
+        <v>2.05</v>
+      </c>
+      <c r="L202">
+        <v>2.8</v>
+      </c>
+      <c r="M202">
+        <v>3.75</v>
+      </c>
+      <c r="N202">
+        <v>2</v>
+      </c>
+      <c r="O202">
+        <v>2.8</v>
+      </c>
+      <c r="P202">
+        <v>4</v>
+      </c>
+      <c r="Q202">
+        <v>-0.5</v>
+      </c>
+      <c r="R202">
+        <v>2.05</v>
+      </c>
+      <c r="S202">
+        <v>1.75</v>
+      </c>
+      <c r="T202">
+        <v>2</v>
+      </c>
+      <c r="U202">
+        <v>2</v>
+      </c>
+      <c r="V202">
+        <v>1.8</v>
+      </c>
+      <c r="W202">
         <v>1</v>
       </c>
-      <c r="J202" t="s">
-        <v>51</v>
-      </c>
-      <c r="K202">
-        <v>3.4</v>
-      </c>
-      <c r="L202">
-        <v>2.9</v>
-      </c>
-      <c r="M202">
-        <v>2.1</v>
-      </c>
-      <c r="N202">
-        <v>3</v>
-      </c>
-      <c r="O202">
-        <v>3.1</v>
-      </c>
-      <c r="P202">
-        <v>2.3</v>
-      </c>
-      <c r="Q202">
-        <v>0.25</v>
-      </c>
-      <c r="R202">
-        <v>1.775</v>
-      </c>
-      <c r="S202">
-        <v>2.025</v>
-      </c>
-      <c r="T202">
-        <v>2.25</v>
-      </c>
-      <c r="U202">
-        <v>2.025</v>
-      </c>
-      <c r="V202">
-        <v>1.775</v>
-      </c>
-      <c r="W202">
-        <v>2</v>
-      </c>
       <c r="X202">
         <v>-1</v>
       </c>
@@ -18503,16 +18503,16 @@
         <v>-1</v>
       </c>
       <c r="Z202">
-        <v>0.7749999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AA202">
         <v>-1</v>
       </c>
       <c r="AB202">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC202">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18532,7 +18532,7 @@
         <v>45118.60416666666</v>
       </c>
       <c r="F203" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G203" t="s">
         <v>38</v>
@@ -18544,7 +18544,7 @@
         <v>1</v>
       </c>
       <c r="J203" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K203">
         <v>2.3</v>
@@ -18722,7 +18722,7 @@
         <v>1</v>
       </c>
       <c r="J205" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K205">
         <v>1.615</v>
@@ -18787,7 +18787,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6853143</v>
+        <v>6853132</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18799,58 +18799,58 @@
         <v>45121.60416666666</v>
       </c>
       <c r="F206" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G206" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H206">
+        <v>2</v>
+      </c>
+      <c r="I206">
         <v>1</v>
       </c>
-      <c r="I206">
-        <v>0</v>
-      </c>
       <c r="J206" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K206">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
       <c r="L206">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="M206">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="N206">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="O206">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="P206">
-        <v>2.9</v>
+        <v>1.666</v>
       </c>
       <c r="Q206">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R206">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="S206">
-        <v>2.075</v>
+        <v>1.975</v>
       </c>
       <c r="T206">
         <v>2.25</v>
       </c>
       <c r="U206">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V206">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W206">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="X206">
         <v>-1</v>
@@ -18859,16 +18859,16 @@
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>0.7250000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA206">
         <v>-1</v>
       </c>
       <c r="AB206">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC206">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18891,7 +18891,7 @@
         <v>40</v>
       </c>
       <c r="G207" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H207">
         <v>4</v>
@@ -18900,7 +18900,7 @@
         <v>2</v>
       </c>
       <c r="J207" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K207">
         <v>1.727</v>
@@ -18965,7 +18965,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6853141</v>
+        <v>6853143</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18977,46 +18977,46 @@
         <v>45121.60416666666</v>
       </c>
       <c r="F208" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G208" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I208">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J208" t="s">
         <v>50</v>
       </c>
       <c r="K208">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="L208">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="M208">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="N208">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O208">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="P208">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Q208">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R208">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="S208">
-        <v>1.8</v>
+        <v>2.075</v>
       </c>
       <c r="T208">
         <v>2.25</v>
@@ -19028,25 +19028,25 @@
         <v>1.9</v>
       </c>
       <c r="W208">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X208">
         <v>-1</v>
       </c>
       <c r="Y208">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z208">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA208">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB208">
+        <v>-1</v>
+      </c>
+      <c r="AC208">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC208">
-        <v>-1</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19054,7 +19054,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6853132</v>
+        <v>6853141</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19066,73 +19066,73 @@
         <v>45121.60416666666</v>
       </c>
       <c r="F209" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G209" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H209">
         <v>2</v>
       </c>
       <c r="I209">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J209" t="s">
         <v>51</v>
       </c>
       <c r="K209">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="L209">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="M209">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="N209">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="O209">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="P209">
-        <v>1.666</v>
+        <v>3</v>
       </c>
       <c r="Q209">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R209">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S209">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T209">
         <v>2.25</v>
       </c>
       <c r="U209">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V209">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W209">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X209">
         <v>-1</v>
       </c>
       <c r="Y209">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z209">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA209">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB209">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC209">
         <v>-1</v>
@@ -19143,7 +19143,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6853142</v>
+        <v>6853144</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19155,76 +19155,76 @@
         <v>45122.54166666666</v>
       </c>
       <c r="F210" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G210" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H210">
+        <v>0</v>
+      </c>
+      <c r="I210">
         <v>1</v>
-      </c>
-      <c r="I210">
-        <v>0</v>
       </c>
       <c r="J210" t="s">
         <v>51</v>
       </c>
       <c r="K210">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="L210">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="M210">
+        <v>3.6</v>
+      </c>
+      <c r="N210">
+        <v>1.85</v>
+      </c>
+      <c r="O210">
+        <v>3.1</v>
+      </c>
+      <c r="P210">
+        <v>4.2</v>
+      </c>
+      <c r="Q210">
+        <v>-0.5</v>
+      </c>
+      <c r="R210">
+        <v>1.95</v>
+      </c>
+      <c r="S210">
+        <v>1.85</v>
+      </c>
+      <c r="T210">
         <v>2.5</v>
       </c>
-      <c r="N210">
-        <v>3.75</v>
-      </c>
-      <c r="O210">
-        <v>2.625</v>
-      </c>
-      <c r="P210">
-        <v>2.2</v>
-      </c>
-      <c r="Q210">
-        <v>0.25</v>
-      </c>
-      <c r="R210">
-        <v>1.85</v>
-      </c>
-      <c r="S210">
-        <v>1.95</v>
-      </c>
-      <c r="T210">
-        <v>1.75</v>
-      </c>
       <c r="U210">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V210">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W210">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X210">
         <v>-1</v>
       </c>
       <c r="Y210">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z210">
+        <v>-1</v>
+      </c>
+      <c r="AA210">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA210">
-        <v>-1</v>
-      </c>
       <c r="AB210">
         <v>-1</v>
       </c>
       <c r="AC210">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19232,7 +19232,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>6853144</v>
+        <v>6853142</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19244,76 +19244,76 @@
         <v>45122.54166666666</v>
       </c>
       <c r="F211" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G211" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J211" t="s">
         <v>50</v>
       </c>
       <c r="K211">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="L211">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="M211">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="N211">
+        <v>3.75</v>
+      </c>
+      <c r="O211">
+        <v>2.625</v>
+      </c>
+      <c r="P211">
+        <v>2.2</v>
+      </c>
+      <c r="Q211">
+        <v>0.25</v>
+      </c>
+      <c r="R211">
         <v>1.85</v>
       </c>
-      <c r="O211">
-        <v>3.1</v>
-      </c>
-      <c r="P211">
-        <v>4.2</v>
-      </c>
-      <c r="Q211">
-        <v>-0.5</v>
-      </c>
-      <c r="R211">
+      <c r="S211">
         <v>1.95</v>
       </c>
-      <c r="S211">
+      <c r="T211">
+        <v>1.75</v>
+      </c>
+      <c r="U211">
         <v>1.85</v>
       </c>
-      <c r="T211">
-        <v>2.5</v>
-      </c>
-      <c r="U211">
-        <v>1.975</v>
-      </c>
       <c r="V211">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W211">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X211">
         <v>-1</v>
       </c>
       <c r="Y211">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z211">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA211">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB211">
         <v>-1</v>
       </c>
       <c r="AC211">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19345,7 +19345,7 @@
         <v>1</v>
       </c>
       <c r="J212" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K212">
         <v>2.1</v>
@@ -19434,7 +19434,7 @@
         <v>4</v>
       </c>
       <c r="J213" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K213">
         <v>6</v>
@@ -19701,7 +19701,7 @@
         <v>0</v>
       </c>
       <c r="J216" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K216">
         <v>3.25</v>
@@ -19867,7 +19867,7 @@
         <v>45187.54166666666</v>
       </c>
       <c r="F218" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G218" t="s">
         <v>44</v>
@@ -19879,7 +19879,7 @@
         <v>0</v>
       </c>
       <c r="J218" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K218">
         <v>2.375</v>
@@ -19968,7 +19968,7 @@
         <v>0</v>
       </c>
       <c r="J219" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K219">
         <v>2.7</v>
@@ -20057,7 +20057,7 @@
         <v>4</v>
       </c>
       <c r="J220" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K220">
         <v>6</v>
@@ -20134,7 +20134,7 @@
         <v>45189.41666666666</v>
       </c>
       <c r="F221" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G221" t="s">
         <v>38</v>
@@ -20146,7 +20146,7 @@
         <v>0</v>
       </c>
       <c r="J221" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K221">
         <v>2.45</v>
@@ -20235,7 +20235,7 @@
         <v>2</v>
       </c>
       <c r="J222" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K222">
         <v>2.5</v>
@@ -20312,7 +20312,7 @@
         <v>45189.54166666666</v>
       </c>
       <c r="F223" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G223" t="s">
         <v>49</v>
@@ -20413,7 +20413,7 @@
         <v>2</v>
       </c>
       <c r="J224" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K224">
         <v>2.9</v>
@@ -20478,7 +20478,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>7208367</v>
+        <v>7208756</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20490,76 +20490,76 @@
         <v>45190.54166666666</v>
       </c>
       <c r="F225" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G225" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I225">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J225" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K225">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="L225">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M225">
-        <v>3.8</v>
+        <v>2.55</v>
       </c>
       <c r="N225">
-        <v>2.05</v>
+        <v>2.8</v>
       </c>
       <c r="O225">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P225">
-        <v>3.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q225">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R225">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S225">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T225">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U225">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V225">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W225">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X225">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y225">
         <v>-1</v>
       </c>
       <c r="Z225">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA225">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB225">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC225">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="226" spans="1:29">
@@ -20567,7 +20567,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>7208756</v>
+        <v>7208367</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20579,76 +20579,76 @@
         <v>45190.54166666666</v>
       </c>
       <c r="F226" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G226" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I226">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J226" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K226">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="L226">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M226">
-        <v>2.55</v>
+        <v>3.8</v>
       </c>
       <c r="N226">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="O226">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P226">
-        <v>2.55</v>
+        <v>3.5</v>
       </c>
       <c r="Q226">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R226">
+        <v>2.025</v>
+      </c>
+      <c r="S226">
+        <v>1.775</v>
+      </c>
+      <c r="T226">
+        <v>2.5</v>
+      </c>
+      <c r="U226">
         <v>1.975</v>
       </c>
-      <c r="S226">
+      <c r="V226">
         <v>1.825</v>
       </c>
-      <c r="T226">
-        <v>2.25</v>
-      </c>
-      <c r="U226">
-        <v>2</v>
-      </c>
-      <c r="V226">
-        <v>1.8</v>
-      </c>
       <c r="W226">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X226">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y226">
         <v>-1</v>
       </c>
       <c r="Z226">
+        <v>-1</v>
+      </c>
+      <c r="AA226">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB226">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA226">
-        <v>-1</v>
-      </c>
-      <c r="AB226">
-        <v>-1</v>
-      </c>
       <c r="AC226">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -20680,7 +20680,7 @@
         <v>1</v>
       </c>
       <c r="J227" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K227">
         <v>5</v>
@@ -20849,7 +20849,7 @@
         <v>48</v>
       </c>
       <c r="G229" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H229">
         <v>0</v>
@@ -20858,7 +20858,7 @@
         <v>2</v>
       </c>
       <c r="J229" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K229">
         <v>2.25</v>
@@ -20938,7 +20938,7 @@
         <v>36</v>
       </c>
       <c r="G230" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H230">
         <v>2</v>
@@ -20947,7 +20947,7 @@
         <v>1</v>
       </c>
       <c r="J230" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K230">
         <v>1.666</v>
@@ -21027,7 +21027,7 @@
         <v>38</v>
       </c>
       <c r="G231" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H231">
         <v>0</v>
@@ -21125,7 +21125,7 @@
         <v>1</v>
       </c>
       <c r="J232" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K232">
         <v>2.4</v>
@@ -21214,7 +21214,7 @@
         <v>0</v>
       </c>
       <c r="J233" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K233">
         <v>1.95</v>
@@ -21303,7 +21303,7 @@
         <v>1</v>
       </c>
       <c r="J234" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K234">
         <v>2.35</v>
@@ -21469,7 +21469,7 @@
         <v>45204.54166666666</v>
       </c>
       <c r="F236" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G236" t="s">
         <v>33</v>
@@ -21481,7 +21481,7 @@
         <v>1</v>
       </c>
       <c r="J236" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K236">
         <v>2.5</v>
@@ -21739,7 +21739,7 @@
         <v>42</v>
       </c>
       <c r="G239" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H239">
         <v>3</v>
@@ -21748,7 +21748,7 @@
         <v>1</v>
       </c>
       <c r="J239" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K239">
         <v>1.909</v>
@@ -21825,7 +21825,7 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F240" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G240" t="s">
         <v>36</v>
@@ -21837,7 +21837,7 @@
         <v>2</v>
       </c>
       <c r="J240" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K240">
         <v>3</v>
@@ -21926,7 +21926,7 @@
         <v>2</v>
       </c>
       <c r="J241" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K241">
         <v>4</v>
@@ -21991,7 +21991,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>7217624</v>
+        <v>7217625</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
@@ -22003,58 +22003,58 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F242" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G242" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H242">
+        <v>3</v>
+      </c>
+      <c r="I242">
         <v>1</v>
       </c>
-      <c r="I242">
-        <v>0</v>
-      </c>
       <c r="J242" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K242">
-        <v>1.444</v>
+        <v>1.25</v>
       </c>
       <c r="L242">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M242">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="N242">
-        <v>1.5</v>
+        <v>1.333</v>
       </c>
       <c r="O242">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P242">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q242">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R242">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S242">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T242">
         <v>2.5</v>
       </c>
       <c r="U242">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V242">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W242">
-        <v>0.5</v>
+        <v>0.333</v>
       </c>
       <c r="X242">
         <v>-1</v>
@@ -22063,16 +22063,16 @@
         <v>-1</v>
       </c>
       <c r="Z242">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA242">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB242">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC242">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="243" spans="1:29">
@@ -22080,7 +22080,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>7217625</v>
+        <v>7217624</v>
       </c>
       <c r="C243" t="s">
         <v>28</v>
@@ -22092,58 +22092,58 @@
         <v>45207.54166666666</v>
       </c>
       <c r="F243" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G243" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H243">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J243" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K243">
-        <v>1.25</v>
+        <v>1.444</v>
       </c>
       <c r="L243">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M243">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="N243">
-        <v>1.333</v>
+        <v>1.5</v>
       </c>
       <c r="O243">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P243">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q243">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R243">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S243">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T243">
         <v>2.5</v>
       </c>
       <c r="U243">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V243">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W243">
-        <v>0.333</v>
+        <v>0.5</v>
       </c>
       <c r="X243">
         <v>-1</v>
@@ -22152,16 +22152,16 @@
         <v>-1</v>
       </c>
       <c r="Z243">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA243">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB243">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC243">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="244" spans="1:29">
@@ -22184,7 +22184,7 @@
         <v>42</v>
       </c>
       <c r="G244" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H244">
         <v>1</v>
@@ -22193,7 +22193,7 @@
         <v>0</v>
       </c>
       <c r="J244" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K244">
         <v>2.1</v>
@@ -22273,7 +22273,7 @@
         <v>41</v>
       </c>
       <c r="G245" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H245">
         <v>4</v>
@@ -22282,7 +22282,7 @@
         <v>0</v>
       </c>
       <c r="J245" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K245">
         <v>1.65</v>
@@ -22436,7 +22436,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>7217630</v>
+        <v>7217629</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22448,58 +22448,58 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F247" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G247" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H247">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I247">
         <v>1</v>
       </c>
       <c r="J247" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K247">
-        <v>1.65</v>
+        <v>2.4</v>
       </c>
       <c r="L247">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="M247">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="N247">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="O247">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="P247">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="Q247">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R247">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S247">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T247">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U247">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V247">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W247">
-        <v>0.909</v>
+        <v>1.5</v>
       </c>
       <c r="X247">
         <v>-1</v>
@@ -22508,13 +22508,13 @@
         <v>-1</v>
       </c>
       <c r="Z247">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA247">
         <v>-1</v>
       </c>
       <c r="AB247">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC247">
         <v>-1</v>
@@ -22525,7 +22525,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>7217629</v>
+        <v>7217630</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22537,58 +22537,58 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F248" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G248" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H248">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I248">
         <v>1</v>
       </c>
       <c r="J248" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K248">
-        <v>2.4</v>
+        <v>1.65</v>
       </c>
       <c r="L248">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="M248">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="N248">
+        <v>1.909</v>
+      </c>
+      <c r="O248">
+        <v>3.25</v>
+      </c>
+      <c r="P248">
+        <v>3.6</v>
+      </c>
+      <c r="Q248">
+        <v>-0.5</v>
+      </c>
+      <c r="R248">
+        <v>1.925</v>
+      </c>
+      <c r="S248">
+        <v>1.875</v>
+      </c>
+      <c r="T248">
         <v>2.5</v>
       </c>
-      <c r="O248">
-        <v>2.8</v>
-      </c>
-      <c r="P248">
-        <v>2.9</v>
-      </c>
-      <c r="Q248">
-        <v>0</v>
-      </c>
-      <c r="R248">
-        <v>1.8</v>
-      </c>
-      <c r="S248">
-        <v>2</v>
-      </c>
-      <c r="T248">
-        <v>2</v>
-      </c>
       <c r="U248">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V248">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W248">
-        <v>1.5</v>
+        <v>0.909</v>
       </c>
       <c r="X248">
         <v>-1</v>
@@ -22597,13 +22597,13 @@
         <v>-1</v>
       </c>
       <c r="Z248">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA248">
         <v>-1</v>
       </c>
       <c r="AB248">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC248">
         <v>-1</v>
@@ -22703,7 +22703,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>7217633</v>
+        <v>7217634</v>
       </c>
       <c r="C250" t="s">
         <v>28</v>
@@ -22715,10 +22715,10 @@
         <v>45221.54166666666</v>
       </c>
       <c r="F250" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G250" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H250">
         <v>0</v>
@@ -22727,43 +22727,43 @@
         <v>1</v>
       </c>
       <c r="J250" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K250">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="L250">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M250">
-        <v>2.9</v>
+        <v>2.05</v>
       </c>
       <c r="N250">
-        <v>1.95</v>
+        <v>5.25</v>
       </c>
       <c r="O250">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P250">
-        <v>3.8</v>
+        <v>1.727</v>
       </c>
       <c r="Q250">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R250">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S250">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T250">
         <v>2.25</v>
       </c>
       <c r="U250">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V250">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W250">
         <v>-1</v>
@@ -22772,19 +22772,19 @@
         <v>-1</v>
       </c>
       <c r="Y250">
-        <v>2.8</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z250">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA250">
-        <v>0.8</v>
+        <v>0.4875</v>
       </c>
       <c r="AB250">
         <v>-1</v>
       </c>
       <c r="AC250">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="251" spans="1:29">
@@ -22792,7 +22792,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>7217634</v>
+        <v>7217633</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22804,10 +22804,10 @@
         <v>45221.54166666666</v>
       </c>
       <c r="F251" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G251" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H251">
         <v>0</v>
@@ -22816,43 +22816,43 @@
         <v>1</v>
       </c>
       <c r="J251" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K251">
+        <v>2.5</v>
+      </c>
+      <c r="L251">
+        <v>2.875</v>
+      </c>
+      <c r="M251">
+        <v>2.9</v>
+      </c>
+      <c r="N251">
+        <v>1.95</v>
+      </c>
+      <c r="O251">
+        <v>3.1</v>
+      </c>
+      <c r="P251">
         <v>3.8</v>
       </c>
-      <c r="L251">
-        <v>2.9</v>
-      </c>
-      <c r="M251">
-        <v>2.05</v>
-      </c>
-      <c r="N251">
-        <v>5.25</v>
-      </c>
-      <c r="O251">
-        <v>3.2</v>
-      </c>
-      <c r="P251">
-        <v>1.727</v>
-      </c>
       <c r="Q251">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R251">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S251">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T251">
         <v>2.25</v>
       </c>
       <c r="U251">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V251">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W251">
         <v>-1</v>
@@ -22861,19 +22861,19 @@
         <v>-1</v>
       </c>
       <c r="Y251">
-        <v>0.7270000000000001</v>
+        <v>2.8</v>
       </c>
       <c r="Z251">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA251">
-        <v>0.4875</v>
+        <v>0.8</v>
       </c>
       <c r="AB251">
         <v>-1</v>
       </c>
       <c r="AC251">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="252" spans="1:29">
@@ -22905,7 +22905,7 @@
         <v>3</v>
       </c>
       <c r="J252" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K252">
         <v>1.65</v>
@@ -22994,7 +22994,7 @@
         <v>1</v>
       </c>
       <c r="J253" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K253">
         <v>3.6</v>
@@ -23083,7 +23083,7 @@
         <v>1</v>
       </c>
       <c r="J254" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K254">
         <v>2.2</v>
@@ -23172,7 +23172,7 @@
         <v>2</v>
       </c>
       <c r="J255" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K255">
         <v>2.25</v>
@@ -23252,7 +23252,7 @@
         <v>47</v>
       </c>
       <c r="G256" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H256">
         <v>1</v>
@@ -23338,7 +23338,7 @@
         <v>45228.58333333334</v>
       </c>
       <c r="F257" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G257" t="s">
         <v>41</v>
@@ -23350,7 +23350,7 @@
         <v>0</v>
       </c>
       <c r="J257" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K257">
         <v>3</v>
@@ -23427,7 +23427,7 @@
         <v>45229.45833333334</v>
       </c>
       <c r="F258" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G258" t="s">
         <v>35</v>
@@ -23528,7 +23528,7 @@
         <v>2</v>
       </c>
       <c r="J259" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K259">
         <v>2.9</v>
@@ -23605,7 +23605,7 @@
         <v>45233.45833333334</v>
       </c>
       <c r="F260" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G260" t="s">
         <v>31</v>
@@ -23617,7 +23617,7 @@
         <v>1</v>
       </c>
       <c r="J260" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K260">
         <v>2.3</v>
@@ -23682,7 +23682,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>7217647</v>
+        <v>7217646</v>
       </c>
       <c r="C261" t="s">
         <v>28</v>
@@ -23694,46 +23694,46 @@
         <v>45233.58333333334</v>
       </c>
       <c r="F261" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G261" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I261">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J261" t="s">
         <v>51</v>
       </c>
       <c r="K261">
-        <v>4.75</v>
+        <v>1.909</v>
       </c>
       <c r="L261">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M261">
-        <v>1.666</v>
+        <v>3.5</v>
       </c>
       <c r="N261">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O261">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P261">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q261">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R261">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S261">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T261">
         <v>2.5</v>
@@ -23745,25 +23745,25 @@
         <v>1.825</v>
       </c>
       <c r="W261">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X261">
         <v>-1</v>
       </c>
       <c r="Y261">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z261">
+        <v>-1</v>
+      </c>
+      <c r="AA261">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB261">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA261">
-        <v>-1</v>
-      </c>
-      <c r="AB261">
-        <v>-1</v>
-      </c>
       <c r="AC261">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="262" spans="1:29">
@@ -23771,7 +23771,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>7217646</v>
+        <v>7217647</v>
       </c>
       <c r="C262" t="s">
         <v>28</v>
@@ -23783,46 +23783,46 @@
         <v>45233.58333333334</v>
       </c>
       <c r="F262" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G262" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H262">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I262">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J262" t="s">
         <v>50</v>
       </c>
       <c r="K262">
-        <v>1.909</v>
+        <v>4.75</v>
       </c>
       <c r="L262">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M262">
-        <v>3.5</v>
+        <v>1.666</v>
       </c>
       <c r="N262">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O262">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P262">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="Q262">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R262">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S262">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T262">
         <v>2.5</v>
@@ -23834,25 +23834,25 @@
         <v>1.825</v>
       </c>
       <c r="W262">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X262">
         <v>-1</v>
       </c>
       <c r="Y262">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z262">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA262">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB262">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC262">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="263" spans="1:29">
@@ -23875,7 +23875,7 @@
         <v>49</v>
       </c>
       <c r="G263" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H263">
         <v>2</v>
@@ -23884,7 +23884,7 @@
         <v>0</v>
       </c>
       <c r="J263" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K263">
         <v>1.909</v>
@@ -23949,7 +23949,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>7217650</v>
+        <v>7217649</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -23961,13 +23961,13 @@
         <v>45234.58333333334</v>
       </c>
       <c r="F264" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="G264" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H264">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I264">
         <v>2</v>
@@ -23976,58 +23976,58 @@
         <v>51</v>
       </c>
       <c r="K264">
-        <v>2.55</v>
+        <v>7.5</v>
       </c>
       <c r="L264">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M264">
-        <v>2.6</v>
+        <v>1.363</v>
       </c>
       <c r="N264">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="O264">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="P264">
-        <v>2.625</v>
+        <v>1.5</v>
       </c>
       <c r="Q264">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R264">
+        <v>1.875</v>
+      </c>
+      <c r="S264">
         <v>1.925</v>
       </c>
-      <c r="S264">
+      <c r="T264">
+        <v>2.25</v>
+      </c>
+      <c r="U264">
         <v>1.875</v>
       </c>
-      <c r="T264">
-        <v>2</v>
-      </c>
-      <c r="U264">
+      <c r="V264">
         <v>1.925</v>
       </c>
-      <c r="V264">
-        <v>1.875</v>
-      </c>
       <c r="W264">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X264">
         <v>-1</v>
       </c>
       <c r="Y264">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z264">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA264">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB264">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC264">
         <v>-1</v>
@@ -24038,7 +24038,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>7217649</v>
+        <v>7217650</v>
       </c>
       <c r="C265" t="s">
         <v>28</v>
@@ -24050,13 +24050,13 @@
         <v>45234.58333333334</v>
       </c>
       <c r="F265" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="G265" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H265">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I265">
         <v>2</v>
@@ -24065,58 +24065,58 @@
         <v>50</v>
       </c>
       <c r="K265">
-        <v>7.5</v>
+        <v>2.55</v>
       </c>
       <c r="L265">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M265">
-        <v>1.363</v>
+        <v>2.6</v>
       </c>
       <c r="N265">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="O265">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="P265">
-        <v>1.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q265">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R265">
+        <v>1.925</v>
+      </c>
+      <c r="S265">
         <v>1.875</v>
       </c>
-      <c r="S265">
+      <c r="T265">
+        <v>2</v>
+      </c>
+      <c r="U265">
         <v>1.925</v>
       </c>
-      <c r="T265">
-        <v>2.25</v>
-      </c>
-      <c r="U265">
+      <c r="V265">
         <v>1.875</v>
       </c>
-      <c r="V265">
-        <v>1.925</v>
-      </c>
       <c r="W265">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X265">
         <v>-1</v>
       </c>
       <c r="Y265">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z265">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA265">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB265">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC265">
         <v>-1</v>
@@ -24127,7 +24127,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>7217651</v>
+        <v>7217652</v>
       </c>
       <c r="C266" t="s">
         <v>28</v>
@@ -24139,55 +24139,55 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F266" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G266" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J266" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K266">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L266">
         <v>2.9</v>
       </c>
       <c r="M266">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N266">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="O266">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="P266">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Q266">
         <v>-0.25</v>
       </c>
       <c r="R266">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S266">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="T266">
         <v>2</v>
       </c>
       <c r="U266">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V266">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W266">
         <v>-1</v>
@@ -24196,19 +24196,19 @@
         <v>-1</v>
       </c>
       <c r="Y266">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="Z266">
         <v>-1</v>
       </c>
       <c r="AA266">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="AB266">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC266">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="267" spans="1:29">
@@ -24216,7 +24216,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>7217652</v>
+        <v>7217651</v>
       </c>
       <c r="C267" t="s">
         <v>28</v>
@@ -24228,55 +24228,55 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F267" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G267" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J267" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K267">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L267">
         <v>2.9</v>
       </c>
       <c r="M267">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N267">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="O267">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="P267">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="Q267">
         <v>-0.25</v>
       </c>
       <c r="R267">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S267">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="T267">
         <v>2</v>
       </c>
       <c r="U267">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V267">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W267">
         <v>-1</v>
@@ -24285,19 +24285,19 @@
         <v>-1</v>
       </c>
       <c r="Y267">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="Z267">
         <v>-1</v>
       </c>
       <c r="AA267">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="AB267">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC267">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="268" spans="1:29">
@@ -24329,7 +24329,7 @@
         <v>4</v>
       </c>
       <c r="J268" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K268">
         <v>1.95</v>
@@ -24418,7 +24418,7 @@
         <v>2</v>
       </c>
       <c r="J269" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K269">
         <v>5.5</v>
@@ -24596,7 +24596,7 @@
         <v>1</v>
       </c>
       <c r="J271" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K271">
         <v>1.4</v>
@@ -24676,7 +24676,7 @@
         <v>32</v>
       </c>
       <c r="G272" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H272">
         <v>0</v>
@@ -24774,7 +24774,7 @@
         <v>2</v>
       </c>
       <c r="J273" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K273">
         <v>2.9</v>
@@ -25029,7 +25029,7 @@
         <v>45260.58333333334</v>
       </c>
       <c r="F276" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G276" t="s">
         <v>49</v>
@@ -25106,7 +25106,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>7217661</v>
+        <v>7217660</v>
       </c>
       <c r="C277" t="s">
         <v>28</v>
@@ -25118,34 +25118,34 @@
         <v>45261.45833333334</v>
       </c>
       <c r="F277" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G277" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J277" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K277">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="L277">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M277">
         <v>2.5</v>
       </c>
       <c r="N277">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="O277">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P277">
         <v>2.6</v>
@@ -25154,10 +25154,10 @@
         <v>0</v>
       </c>
       <c r="R277">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S277">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T277">
         <v>2.25</v>
@@ -25169,25 +25169,25 @@
         <v>1.775</v>
       </c>
       <c r="W277">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X277">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y277">
         <v>-1</v>
       </c>
       <c r="Z277">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA277">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB277">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC277">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="278" spans="1:29">
@@ -25195,7 +25195,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>7217660</v>
+        <v>7217661</v>
       </c>
       <c r="C278" t="s">
         <v>28</v>
@@ -25207,34 +25207,34 @@
         <v>45261.45833333334</v>
       </c>
       <c r="F278" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G278" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J278" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K278">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="L278">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M278">
         <v>2.5</v>
       </c>
       <c r="N278">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="O278">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="P278">
         <v>2.6</v>
@@ -25243,10 +25243,10 @@
         <v>0</v>
       </c>
       <c r="R278">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S278">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T278">
         <v>2.25</v>
@@ -25258,25 +25258,25 @@
         <v>1.775</v>
       </c>
       <c r="W278">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X278">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y278">
         <v>-1</v>
       </c>
       <c r="Z278">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA278">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB278">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC278">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="279" spans="1:29">
@@ -25308,7 +25308,7 @@
         <v>1</v>
       </c>
       <c r="J279" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K279">
         <v>2.75</v>
@@ -25385,7 +25385,7 @@
         <v>45264.58333333334</v>
       </c>
       <c r="F280" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G280" t="s">
         <v>37</v>
@@ -25397,7 +25397,7 @@
         <v>1</v>
       </c>
       <c r="J280" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K280">
         <v>2.25</v>
@@ -25477,7 +25477,7 @@
         <v>48</v>
       </c>
       <c r="G281" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H281">
         <v>0</v>
@@ -25486,7 +25486,7 @@
         <v>2</v>
       </c>
       <c r="J281" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K281">
         <v>2.6</v>
@@ -25575,7 +25575,7 @@
         <v>2</v>
       </c>
       <c r="J282" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K282">
         <v>2.15</v>
@@ -25664,7 +25664,7 @@
         <v>1</v>
       </c>
       <c r="J283" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K283">
         <v>2.3</v>
@@ -25744,7 +25744,7 @@
         <v>33</v>
       </c>
       <c r="G284" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H284">
         <v>0</v>
@@ -25931,7 +25931,7 @@
         <v>3</v>
       </c>
       <c r="J286" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K286">
         <v>2.5</v>
@@ -26109,7 +26109,7 @@
         <v>0</v>
       </c>
       <c r="J288" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K288">
         <v>2.3</v>
@@ -26186,10 +26186,10 @@
         <v>45275.45833333334</v>
       </c>
       <c r="F289" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G289" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H289">
         <v>0</v>
@@ -26263,7 +26263,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>7549591</v>
+        <v>7549592</v>
       </c>
       <c r="C290" t="s">
         <v>28</v>
@@ -26275,10 +26275,10 @@
         <v>45275.54166666666</v>
       </c>
       <c r="F290" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G290" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="H290">
         <v>1</v>
@@ -26287,43 +26287,43 @@
         <v>2</v>
       </c>
       <c r="J290" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K290">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="L290">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="M290">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="N290">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="O290">
         <v>2.75</v>
       </c>
       <c r="P290">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="Q290">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R290">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="S290">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="T290">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U290">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V290">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W290">
         <v>-1</v>
@@ -26332,16 +26332,16 @@
         <v>-1</v>
       </c>
       <c r="Y290">
-        <v>1.45</v>
+        <v>2.5</v>
       </c>
       <c r="Z290">
         <v>-1</v>
       </c>
       <c r="AA290">
-        <v>0.7250000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB290">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC290">
         <v>-1</v>
@@ -26352,7 +26352,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>7549592</v>
+        <v>7549591</v>
       </c>
       <c r="C291" t="s">
         <v>28</v>
@@ -26364,10 +26364,10 @@
         <v>45275.54166666666</v>
       </c>
       <c r="F291" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G291" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H291">
         <v>1</v>
@@ -26376,43 +26376,43 @@
         <v>2</v>
       </c>
       <c r="J291" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K291">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="L291">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="M291">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="N291">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="O291">
         <v>2.75</v>
       </c>
       <c r="P291">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q291">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R291">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="S291">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="T291">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U291">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V291">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W291">
         <v>-1</v>
@@ -26421,16 +26421,16 @@
         <v>-1</v>
       </c>
       <c r="Y291">
-        <v>2.5</v>
+        <v>1.45</v>
       </c>
       <c r="Z291">
         <v>-1</v>
       </c>
       <c r="AA291">
-        <v>0.8999999999999999</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB291">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC291">
         <v>-1</v>
@@ -26465,7 +26465,7 @@
         <v>0</v>
       </c>
       <c r="J292" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K292">
         <v>2.45</v>
@@ -26554,7 +26554,7 @@
         <v>2</v>
       </c>
       <c r="J293" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K293">
         <v>2.1</v>
@@ -26643,7 +26643,7 @@
         <v>2</v>
       </c>
       <c r="J294" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K294">
         <v>1.909</v>
@@ -26732,7 +26732,7 @@
         <v>1</v>
       </c>
       <c r="J295" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K295">
         <v>1.95</v>
@@ -26812,7 +26812,7 @@
         <v>47</v>
       </c>
       <c r="G296" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H296">
         <v>3</v>
@@ -26821,7 +26821,7 @@
         <v>1</v>
       </c>
       <c r="J296" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K296">
         <v>1.571</v>
@@ -26898,10 +26898,10 @@
         <v>45287.58333333334</v>
       </c>
       <c r="F297" t="s">
+        <v>45</v>
+      </c>
+      <c r="G297" t="s">
         <v>46</v>
-      </c>
-      <c r="G297" t="s">
-        <v>45</v>
       </c>
       <c r="H297">
         <v>1</v>
@@ -26910,7 +26910,7 @@
         <v>0</v>
       </c>
       <c r="J297" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K297">
         <v>2.6</v>
@@ -26999,7 +26999,7 @@
         <v>1</v>
       </c>
       <c r="J298" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K298">
         <v>2.4</v>
@@ -27064,7 +27064,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>7217692</v>
+        <v>7217691</v>
       </c>
       <c r="C299" t="s">
         <v>28</v>
@@ -27076,58 +27076,58 @@
         <v>45290.58333333334</v>
       </c>
       <c r="F299" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G299" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H299">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I299">
         <v>0</v>
       </c>
       <c r="J299" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K299">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="L299">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="M299">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="N299">
-        <v>2.8</v>
+        <v>1.85</v>
       </c>
       <c r="O299">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P299">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q299">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R299">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S299">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T299">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U299">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V299">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W299">
-        <v>1.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X299">
         <v>-1</v>
@@ -27136,16 +27136,16 @@
         <v>-1</v>
       </c>
       <c r="Z299">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA299">
         <v>-1</v>
       </c>
       <c r="AB299">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC299">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="300" spans="1:29">
@@ -27153,7 +27153,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>7217691</v>
+        <v>7217692</v>
       </c>
       <c r="C300" t="s">
         <v>28</v>
@@ -27165,58 +27165,58 @@
         <v>45290.58333333334</v>
       </c>
       <c r="F300" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G300" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H300">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I300">
         <v>0</v>
       </c>
       <c r="J300" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K300">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="L300">
+        <v>2.9</v>
+      </c>
+      <c r="M300">
+        <v>2.4</v>
+      </c>
+      <c r="N300">
         <v>2.8</v>
       </c>
-      <c r="M300">
-        <v>3.6</v>
-      </c>
-      <c r="N300">
-        <v>1.85</v>
-      </c>
       <c r="O300">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P300">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="Q300">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R300">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S300">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T300">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U300">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V300">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W300">
-        <v>0.8500000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="X300">
         <v>-1</v>
@@ -27225,16 +27225,16 @@
         <v>-1</v>
       </c>
       <c r="Z300">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA300">
         <v>-1</v>
       </c>
       <c r="AB300">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC300">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="301" spans="1:29">
@@ -27254,7 +27254,7 @@
         <v>45292.45833333334</v>
       </c>
       <c r="F301" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G301" t="s">
         <v>31</v>
@@ -27266,7 +27266,7 @@
         <v>1</v>
       </c>
       <c r="J301" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K301">
         <v>3.25</v>
@@ -27521,7 +27521,7 @@
         <v>45335.58333333334</v>
       </c>
       <c r="F304" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G304" t="s">
         <v>44</v>
@@ -27598,7 +27598,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>7217701</v>
+        <v>7217702</v>
       </c>
       <c r="C305" t="s">
         <v>28</v>
@@ -27610,76 +27610,76 @@
         <v>45336.45833333334</v>
       </c>
       <c r="F305" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G305" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J305" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K305">
+        <v>2.9</v>
+      </c>
+      <c r="L305">
+        <v>3</v>
+      </c>
+      <c r="M305">
         <v>2.375</v>
       </c>
-      <c r="L305">
-        <v>2.9</v>
-      </c>
-      <c r="M305">
-        <v>3</v>
-      </c>
       <c r="N305">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="O305">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P305">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="Q305">
         <v>0</v>
       </c>
       <c r="R305">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S305">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T305">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U305">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V305">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W305">
         <v>-1</v>
       </c>
       <c r="X305">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y305">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z305">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA305">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB305">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC305">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="306" spans="1:29">
@@ -27687,7 +27687,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>7217702</v>
+        <v>7217701</v>
       </c>
       <c r="C306" t="s">
         <v>28</v>
@@ -27699,76 +27699,76 @@
         <v>45336.45833333334</v>
       </c>
       <c r="F306" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G306" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J306" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K306">
+        <v>2.375</v>
+      </c>
+      <c r="L306">
         <v>2.9</v>
       </c>
-      <c r="L306">
+      <c r="M306">
         <v>3</v>
       </c>
-      <c r="M306">
-        <v>2.375</v>
-      </c>
       <c r="N306">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="O306">
+        <v>3</v>
+      </c>
+      <c r="P306">
         <v>2.8</v>
       </c>
-      <c r="P306">
-        <v>2.5</v>
-      </c>
       <c r="Q306">
         <v>0</v>
       </c>
       <c r="R306">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S306">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T306">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U306">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V306">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W306">
         <v>-1</v>
       </c>
       <c r="X306">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y306">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z306">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA306">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB306">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC306">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="307" spans="1:29">
@@ -27889,7 +27889,7 @@
         <v>0</v>
       </c>
       <c r="J308" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K308">
         <v>4.75</v>
@@ -27978,7 +27978,7 @@
         <v>1</v>
       </c>
       <c r="J309" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K309">
         <v>3</v>
@@ -28043,7 +28043,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>7217708</v>
+        <v>7217709</v>
       </c>
       <c r="C310" t="s">
         <v>28</v>
@@ -28055,76 +28055,76 @@
         <v>45340.45833333334</v>
       </c>
       <c r="F310" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G310" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I310">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J310" t="s">
         <v>52</v>
       </c>
       <c r="K310">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="L310">
         <v>3</v>
       </c>
       <c r="M310">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="N310">
+        <v>3</v>
+      </c>
+      <c r="O310">
+        <v>2.9</v>
+      </c>
+      <c r="P310">
         <v>2.45</v>
       </c>
-      <c r="O310">
-        <v>2.875</v>
-      </c>
-      <c r="P310">
-        <v>3</v>
-      </c>
       <c r="Q310">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R310">
-        <v>2.075</v>
+        <v>2.025</v>
       </c>
       <c r="S310">
-        <v>1.725</v>
+        <v>1.775</v>
       </c>
       <c r="T310">
         <v>2</v>
       </c>
       <c r="U310">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V310">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W310">
         <v>-1</v>
       </c>
       <c r="X310">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="Y310">
         <v>-1</v>
       </c>
       <c r="Z310">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA310">
-        <v>0.3625</v>
+        <v>-0</v>
       </c>
       <c r="AB310">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC310">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="311" spans="1:29">
@@ -28132,7 +28132,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>7217709</v>
+        <v>7217708</v>
       </c>
       <c r="C311" t="s">
         <v>28</v>
@@ -28144,76 +28144,76 @@
         <v>45340.45833333334</v>
       </c>
       <c r="F311" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G311" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H311">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I311">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J311" t="s">
         <v>52</v>
       </c>
       <c r="K311">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="L311">
         <v>3</v>
       </c>
       <c r="M311">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="N311">
+        <v>2.45</v>
+      </c>
+      <c r="O311">
+        <v>2.875</v>
+      </c>
+      <c r="P311">
         <v>3</v>
       </c>
-      <c r="O311">
-        <v>2.9</v>
-      </c>
-      <c r="P311">
-        <v>2.45</v>
-      </c>
       <c r="Q311">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R311">
-        <v>2.025</v>
+        <v>2.075</v>
       </c>
       <c r="S311">
-        <v>1.775</v>
+        <v>1.725</v>
       </c>
       <c r="T311">
         <v>2</v>
       </c>
       <c r="U311">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V311">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W311">
         <v>-1</v>
       </c>
       <c r="X311">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="Y311">
         <v>-1</v>
       </c>
       <c r="Z311">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA311">
-        <v>-0</v>
+        <v>0.3625</v>
       </c>
       <c r="AB311">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC311">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="312" spans="1:29">
@@ -28245,7 +28245,7 @@
         <v>0</v>
       </c>
       <c r="J312" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K312">
         <v>1.444</v>
@@ -28327,6 +28327,15 @@
       <c r="G313" t="s">
         <v>33</v>
       </c>
+      <c r="H313">
+        <v>2</v>
+      </c>
+      <c r="I313">
+        <v>2</v>
+      </c>
+      <c r="J313" t="s">
+        <v>52</v>
+      </c>
       <c r="K313">
         <v>2.1</v>
       </c>
@@ -28337,46 +28346,52 @@
         <v>4</v>
       </c>
       <c r="N313">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O313">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="P313">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q313">
         <v>-0.25</v>
       </c>
       <c r="R313">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S313">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T313">
         <v>1.75</v>
       </c>
       <c r="U313">
+        <v>1.975</v>
+      </c>
+      <c r="V313">
         <v>1.825</v>
       </c>
-      <c r="V313">
-        <v>1.975</v>
-      </c>
       <c r="W313">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X313">
-        <v>0</v>
+        <v>1.625</v>
       </c>
       <c r="Y313">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z313">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA313">
-        <v>0</v>
+        <v>0.4625</v>
+      </c>
+      <c r="AB313">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC313">
+        <v>-1</v>
       </c>
     </row>
     <row r="314" spans="1:29">
@@ -28401,6 +28416,15 @@
       <c r="G314" t="s">
         <v>39</v>
       </c>
+      <c r="H314">
+        <v>0</v>
+      </c>
+      <c r="I314">
+        <v>0</v>
+      </c>
+      <c r="J314" t="s">
+        <v>52</v>
+      </c>
       <c r="K314">
         <v>3.75</v>
       </c>
@@ -28411,46 +28435,52 @@
         <v>1.909</v>
       </c>
       <c r="N314">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="O314">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P314">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="Q314">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R314">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S314">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T314">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U314">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V314">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W314">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X314">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="Y314">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z314">
-        <v>0</v>
+        <v>0.4875</v>
       </c>
       <c r="AA314">
-        <v>0</v>
+        <v>-0.5</v>
+      </c>
+      <c r="AB314">
+        <v>-1</v>
+      </c>
+      <c r="AC314">
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="315" spans="1:29">
@@ -28532,7 +28562,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>7217715</v>
+        <v>7217716</v>
       </c>
       <c r="C316" t="s">
         <v>28</v>
@@ -28544,46 +28574,46 @@
         <v>45342.58333333334</v>
       </c>
       <c r="F316" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G316" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K316">
-        <v>3</v>
+        <v>1.615</v>
       </c>
       <c r="L316">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="M316">
-        <v>2.5</v>
+        <v>5.75</v>
       </c>
       <c r="N316">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="O316">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="P316">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="Q316">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R316">
-        <v>2.075</v>
+        <v>1.8</v>
       </c>
       <c r="S316">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="T316">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U316">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V316">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W316">
         <v>0</v>
@@ -28606,7 +28636,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>7217716</v>
+        <v>7217715</v>
       </c>
       <c r="C317" t="s">
         <v>28</v>
@@ -28618,46 +28648,46 @@
         <v>45342.58333333334</v>
       </c>
       <c r="F317" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G317" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K317">
-        <v>1.615</v>
+        <v>3</v>
       </c>
       <c r="L317">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="M317">
-        <v>5.75</v>
+        <v>2.5</v>
       </c>
       <c r="N317">
-        <v>1.615</v>
+        <v>3</v>
       </c>
       <c r="O317">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="P317">
-        <v>5.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q317">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R317">
-        <v>1.775</v>
+        <v>2.075</v>
       </c>
       <c r="S317">
-        <v>2.025</v>
+        <v>1.725</v>
       </c>
       <c r="T317">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U317">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V317">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="W317">
         <v>0</v>

--- a/Egypt Division 1/Egypt Division 1.xlsx
+++ b/Egypt Division 1/Egypt Division 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1605" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1608" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -103,10 +103,10 @@
     <t>Egypt Division 1</t>
   </si>
   <si>
-    <t>Aswan FC</t>
+    <t>El Daklyeh</t>
   </si>
   <si>
-    <t>El Daklyeh</t>
+    <t>Aswan FC</t>
   </si>
   <si>
     <t>Al Ittihad Al Sakandary</t>
@@ -115,10 +115,10 @@
     <t>Al Ahly Cairo</t>
   </si>
   <si>
-    <t>Al Moqawloon Al Arab</t>
+    <t>Ghazl El Mahallah</t>
   </si>
   <si>
-    <t>Ghazl El Mahallah</t>
+    <t>Al Moqawloon Al Arab</t>
   </si>
   <si>
     <t>Ismaily SC</t>
@@ -145,10 +145,10 @@
     <t>El Masry</t>
   </si>
   <si>
-    <t>Haras El Hedoud</t>
+    <t>National Bank</t>
   </si>
   <si>
-    <t>National Bank</t>
+    <t>Haras El Hedoud</t>
   </si>
   <si>
     <t>Smouha</t>
@@ -166,10 +166,10 @@
     <t>El Gounah</t>
   </si>
   <si>
-    <t>H</t>
+    <t>A</t>
   </si>
   <si>
-    <t>A</t>
+    <t>H</t>
   </si>
   <si>
     <t>D</t>
@@ -631,7 +631,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5774677</v>
+        <v>5774048</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -646,10 +646,10 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -658,25 +658,25 @@
         <v>50</v>
       </c>
       <c r="K2">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="L2">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M2">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="N2">
         <v>4.5</v>
       </c>
       <c r="O2">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="P2">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="Q2">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R2">
         <v>1.85</v>
@@ -685,34 +685,34 @@
         <v>1.95</v>
       </c>
       <c r="T2">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U2">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V2">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W2">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X2">
         <v>-1</v>
       </c>
       <c r="Y2">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z2">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA2">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB2">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC2">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -720,7 +720,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5774048</v>
+        <v>5774677</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -735,10 +735,10 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -747,25 +747,25 @@
         <v>51</v>
       </c>
       <c r="K3">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="L3">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M3">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="N3">
         <v>4.5</v>
       </c>
       <c r="O3">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="P3">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="Q3">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R3">
         <v>1.85</v>
@@ -774,34 +774,34 @@
         <v>1.95</v>
       </c>
       <c r="T3">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U3">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V3">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W3">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="X3">
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA3">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC3">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -833,7 +833,7 @@
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K4">
         <v>1.833</v>
@@ -922,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -987,7 +987,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5774051</v>
+        <v>5774679</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1002,70 +1002,70 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
         <v>3</v>
-      </c>
-      <c r="I6">
-        <v>2</v>
       </c>
       <c r="J6" t="s">
         <v>50</v>
       </c>
       <c r="K6">
-        <v>1.727</v>
+        <v>2.625</v>
       </c>
       <c r="L6">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M6">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="N6">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="O6">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P6">
-        <v>5.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q6">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R6">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S6">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T6">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U6">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V6">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W6">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z6">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB6">
-        <v>0.7749999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC6">
         <v>-1</v>
@@ -1076,7 +1076,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5774679</v>
+        <v>5774051</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1091,70 +1091,70 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J7" t="s">
         <v>51</v>
       </c>
       <c r="K7">
-        <v>2.625</v>
+        <v>1.727</v>
       </c>
       <c r="L7">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M7">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="N7">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="O7">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P7">
-        <v>2.1</v>
+        <v>5.25</v>
       </c>
       <c r="Q7">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R7">
+        <v>1.8</v>
+      </c>
+      <c r="S7">
+        <v>2</v>
+      </c>
+      <c r="T7">
+        <v>1.75</v>
+      </c>
+      <c r="U7">
         <v>1.775</v>
       </c>
-      <c r="S7">
+      <c r="V7">
         <v>2.025</v>
       </c>
-      <c r="T7">
-        <v>2.25</v>
-      </c>
-      <c r="U7">
-        <v>1.825</v>
-      </c>
-      <c r="V7">
-        <v>1.975</v>
-      </c>
       <c r="W7">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA7">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC7">
         <v>-1</v>
@@ -1180,7 +1180,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1456,7 +1456,7 @@
         <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K11">
         <v>7.5</v>
@@ -1536,7 +1536,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1625,7 +1625,7 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H13">
         <v>4</v>
@@ -1634,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K13">
         <v>1.4</v>
@@ -1723,7 +1723,7 @@
         <v>3</v>
       </c>
       <c r="J14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K14">
         <v>2.9</v>
@@ -1812,7 +1812,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K15">
         <v>2.15</v>
@@ -1877,7 +1877,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5774055</v>
+        <v>5774056</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1892,73 +1892,73 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K16">
-        <v>3.4</v>
+        <v>1.833</v>
       </c>
       <c r="L16">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M16">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="N16">
-        <v>3.8</v>
+        <v>1.833</v>
       </c>
       <c r="O16">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P16">
-        <v>2.05</v>
+        <v>4.2</v>
       </c>
       <c r="Q16">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R16">
+        <v>1.875</v>
+      </c>
+      <c r="S16">
+        <v>1.925</v>
+      </c>
+      <c r="T16">
+        <v>2.25</v>
+      </c>
+      <c r="U16">
         <v>2.025</v>
       </c>
-      <c r="S16">
+      <c r="V16">
         <v>1.775</v>
       </c>
-      <c r="T16">
-        <v>1.75</v>
-      </c>
-      <c r="U16">
-        <v>1.8</v>
-      </c>
-      <c r="V16">
-        <v>2</v>
-      </c>
       <c r="W16">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X16">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA16">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB16">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC16">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1966,7 +1966,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5774056</v>
+        <v>5774055</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1981,73 +1981,73 @@
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K17">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="L17">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M17">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="N17">
-        <v>1.833</v>
+        <v>3.8</v>
       </c>
       <c r="O17">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P17">
-        <v>4.2</v>
+        <v>2.05</v>
       </c>
       <c r="Q17">
+        <v>0.25</v>
+      </c>
+      <c r="R17">
+        <v>2.025</v>
+      </c>
+      <c r="S17">
+        <v>1.775</v>
+      </c>
+      <c r="T17">
+        <v>1.75</v>
+      </c>
+      <c r="U17">
+        <v>1.8</v>
+      </c>
+      <c r="V17">
+        <v>2</v>
+      </c>
+      <c r="W17">
+        <v>2.8</v>
+      </c>
+      <c r="X17">
+        <v>-1</v>
+      </c>
+      <c r="Y17">
+        <v>-1</v>
+      </c>
+      <c r="Z17">
+        <v>1.025</v>
+      </c>
+      <c r="AA17">
+        <v>-1</v>
+      </c>
+      <c r="AB17">
+        <v>0.4</v>
+      </c>
+      <c r="AC17">
         <v>-0.5</v>
-      </c>
-      <c r="R17">
-        <v>1.875</v>
-      </c>
-      <c r="S17">
-        <v>1.925</v>
-      </c>
-      <c r="T17">
-        <v>2.25</v>
-      </c>
-      <c r="U17">
-        <v>2.025</v>
-      </c>
-      <c r="V17">
-        <v>1.775</v>
-      </c>
-      <c r="W17">
-        <v>-1</v>
-      </c>
-      <c r="X17">
-        <v>2.1</v>
-      </c>
-      <c r="Y17">
-        <v>-1</v>
-      </c>
-      <c r="Z17">
-        <v>-1</v>
-      </c>
-      <c r="AA17">
-        <v>0.925</v>
-      </c>
-      <c r="AB17">
-        <v>-1</v>
-      </c>
-      <c r="AC17">
-        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2079,7 +2079,7 @@
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K18">
         <v>2.1</v>
@@ -2159,7 +2159,7 @@
         <v>46</v>
       </c>
       <c r="G19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -2168,7 +2168,7 @@
         <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K19">
         <v>2.25</v>
@@ -2233,7 +2233,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5774059</v>
+        <v>5774058</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2245,73 +2245,73 @@
         <v>44937.40625</v>
       </c>
       <c r="F20" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J20" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K20">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="L20">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="M20">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="N20">
-        <v>2.55</v>
+        <v>4.2</v>
       </c>
       <c r="O20">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="P20">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R20">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="S20">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T20">
         <v>2</v>
       </c>
       <c r="U20">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V20">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="W20">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X20">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y20">
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="AA20">
         <v>-1</v>
       </c>
       <c r="AB20">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AC20">
         <v>-1</v>
@@ -2322,7 +2322,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5774058</v>
+        <v>5774059</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2334,73 +2334,73 @@
         <v>44937.40625</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G21" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21" t="s">
+        <v>51</v>
+      </c>
+      <c r="K21">
+        <v>2.375</v>
+      </c>
+      <c r="L21">
+        <v>2.625</v>
+      </c>
+      <c r="M21">
+        <v>3.2</v>
+      </c>
+      <c r="N21">
+        <v>2.55</v>
+      </c>
+      <c r="O21">
+        <v>2.55</v>
+      </c>
+      <c r="P21">
         <v>3</v>
       </c>
-      <c r="I21">
-        <v>3</v>
-      </c>
-      <c r="J21" t="s">
-        <v>52</v>
-      </c>
-      <c r="K21">
-        <v>4</v>
-      </c>
-      <c r="L21">
-        <v>2.8</v>
-      </c>
-      <c r="M21">
-        <v>2</v>
-      </c>
-      <c r="N21">
-        <v>4.2</v>
-      </c>
-      <c r="O21">
-        <v>2.8</v>
-      </c>
-      <c r="P21">
-        <v>1.909</v>
-      </c>
       <c r="Q21">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R21">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="S21">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T21">
         <v>2</v>
       </c>
       <c r="U21">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V21">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="W21">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X21">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="AA21">
         <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
       <c r="AC21">
         <v>-1</v>
@@ -2601,7 +2601,7 @@
         <v>44938.5</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G24" t="s">
         <v>38</v>
@@ -2613,7 +2613,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K24">
         <v>2.75</v>
@@ -2779,10 +2779,10 @@
         <v>44939.40625</v>
       </c>
       <c r="F26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -2960,7 +2960,7 @@
         <v>35</v>
       </c>
       <c r="G28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -2969,7 +2969,7 @@
         <v>3</v>
       </c>
       <c r="J28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K28">
         <v>2.7</v>
@@ -3046,10 +3046,10 @@
         <v>44944.40625</v>
       </c>
       <c r="F29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3058,7 +3058,7 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K29">
         <v>2.5</v>
@@ -3236,7 +3236,7 @@
         <v>3</v>
       </c>
       <c r="J31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K31">
         <v>4</v>
@@ -3313,10 +3313,10 @@
         <v>44945.40625</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -3325,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -3402,7 +3402,7 @@
         <v>44945.48958333334</v>
       </c>
       <c r="F33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G33" t="s">
         <v>31</v>
@@ -3414,7 +3414,7 @@
         <v>3</v>
       </c>
       <c r="J33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K33">
         <v>2.25</v>
@@ -3503,7 +3503,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K34">
         <v>1.333</v>
@@ -3583,7 +3583,7 @@
         <v>42</v>
       </c>
       <c r="G35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -3681,7 +3681,7 @@
         <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K36">
         <v>2</v>
@@ -3770,7 +3770,7 @@
         <v>3</v>
       </c>
       <c r="J37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K37">
         <v>4</v>
@@ -3847,10 +3847,10 @@
         <v>44948.5</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G38" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -3859,7 +3859,7 @@
         <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K38">
         <v>3.6</v>
@@ -3924,7 +3924,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>5774694</v>
+        <v>5774068</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3936,76 +3936,76 @@
         <v>44949.40625</v>
       </c>
       <c r="F39" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G39" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H39">
         <v>0</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K39">
+        <v>2.7</v>
+      </c>
+      <c r="L39">
         <v>2.75</v>
       </c>
-      <c r="L39">
-        <v>2.8</v>
-      </c>
       <c r="M39">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="N39">
+        <v>2.4</v>
+      </c>
+      <c r="O39">
+        <v>2.75</v>
+      </c>
+      <c r="P39">
         <v>3.1</v>
       </c>
-      <c r="O39">
-        <v>2.7</v>
-      </c>
-      <c r="P39">
-        <v>2.5</v>
-      </c>
       <c r="Q39">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R39">
-        <v>1.7</v>
+        <v>2.025</v>
       </c>
       <c r="S39">
-        <v>2.1</v>
+        <v>1.775</v>
       </c>
       <c r="T39">
+        <v>2</v>
+      </c>
+      <c r="U39">
+        <v>1.925</v>
+      </c>
+      <c r="V39">
+        <v>1.875</v>
+      </c>
+      <c r="W39">
+        <v>-1</v>
+      </c>
+      <c r="X39">
         <v>1.75</v>
       </c>
-      <c r="U39">
-        <v>1.825</v>
-      </c>
-      <c r="V39">
-        <v>1.975</v>
-      </c>
-      <c r="W39">
-        <v>-1</v>
-      </c>
-      <c r="X39">
-        <v>-1</v>
-      </c>
       <c r="Y39">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA39">
-        <v>1.1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB39">
         <v>-1</v>
       </c>
       <c r="AC39">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4013,7 +4013,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>5774068</v>
+        <v>5774694</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4025,76 +4025,76 @@
         <v>44949.40625</v>
       </c>
       <c r="F40" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G40" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H40">
         <v>0</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K40">
+        <v>2.75</v>
+      </c>
+      <c r="L40">
+        <v>2.8</v>
+      </c>
+      <c r="M40">
+        <v>2.625</v>
+      </c>
+      <c r="N40">
+        <v>3.1</v>
+      </c>
+      <c r="O40">
         <v>2.7</v>
       </c>
-      <c r="L40">
-        <v>2.75</v>
-      </c>
-      <c r="M40">
-        <v>2.75</v>
-      </c>
-      <c r="N40">
-        <v>2.4</v>
-      </c>
-      <c r="O40">
-        <v>2.75</v>
-      </c>
       <c r="P40">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="Q40">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R40">
-        <v>2.025</v>
+        <v>1.7</v>
       </c>
       <c r="S40">
-        <v>1.775</v>
+        <v>2.1</v>
       </c>
       <c r="T40">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U40">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V40">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W40">
         <v>-1</v>
       </c>
       <c r="X40">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y40">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z40">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA40">
-        <v>0.3875</v>
+        <v>1.1</v>
       </c>
       <c r="AB40">
         <v>-1</v>
       </c>
       <c r="AC40">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4117,7 +4117,7 @@
         <v>31</v>
       </c>
       <c r="G41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K41">
         <v>1.727</v>
@@ -4381,7 +4381,7 @@
         <v>44950.5</v>
       </c>
       <c r="F44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G44" t="s">
         <v>39</v>
@@ -4393,7 +4393,7 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K44">
         <v>4.5</v>
@@ -4473,7 +4473,7 @@
         <v>32</v>
       </c>
       <c r="G45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -4482,7 +4482,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K45">
         <v>1.4</v>
@@ -4571,7 +4571,7 @@
         <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K46">
         <v>5.75</v>
@@ -4648,7 +4648,7 @@
         <v>44953.40625</v>
       </c>
       <c r="F47" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -4740,7 +4740,7 @@
         <v>35</v>
       </c>
       <c r="G48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H48">
         <v>3</v>
@@ -4749,7 +4749,7 @@
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K48">
         <v>2</v>
@@ -4826,7 +4826,7 @@
         <v>44953.58333333334</v>
       </c>
       <c r="F49" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G49" t="s">
         <v>31</v>
@@ -4927,7 +4927,7 @@
         <v>2</v>
       </c>
       <c r="J50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K50">
         <v>1.7</v>
@@ -5016,7 +5016,7 @@
         <v>2</v>
       </c>
       <c r="J51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K51">
         <v>2.75</v>
@@ -5194,7 +5194,7 @@
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K53">
         <v>2.05</v>
@@ -5271,10 +5271,10 @@
         <v>44956.5</v>
       </c>
       <c r="F54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G54" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H54">
         <v>2</v>
@@ -5360,10 +5360,10 @@
         <v>44962.40625</v>
       </c>
       <c r="F55" t="s">
+        <v>29</v>
+      </c>
+      <c r="G55" t="s">
         <v>30</v>
-      </c>
-      <c r="G55" t="s">
-        <v>29</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -5372,7 +5372,7 @@
         <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K55">
         <v>2.6</v>
@@ -5449,10 +5449,10 @@
         <v>44962.40625</v>
       </c>
       <c r="F56" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G56" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5461,7 +5461,7 @@
         <v>2</v>
       </c>
       <c r="J56" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K56">
         <v>1.615</v>
@@ -5550,7 +5550,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K57">
         <v>1.833</v>
@@ -5728,7 +5728,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K59">
         <v>4.333</v>
@@ -5906,7 +5906,7 @@
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K61">
         <v>5.25</v>
@@ -5986,7 +5986,7 @@
         <v>36</v>
       </c>
       <c r="G62" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H62">
         <v>3</v>
@@ -5995,7 +5995,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K62">
         <v>1.95</v>
@@ -6075,7 +6075,7 @@
         <v>31</v>
       </c>
       <c r="G63" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H63">
         <v>2</v>
@@ -6084,7 +6084,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K63">
         <v>2</v>
@@ -6161,10 +6161,10 @@
         <v>44967.54166666666</v>
       </c>
       <c r="F64" t="s">
+        <v>33</v>
+      </c>
+      <c r="G64" t="s">
         <v>34</v>
-      </c>
-      <c r="G64" t="s">
-        <v>33</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6173,7 +6173,7 @@
         <v>3</v>
       </c>
       <c r="J64" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K64">
         <v>3.1</v>
@@ -6253,7 +6253,7 @@
         <v>37</v>
       </c>
       <c r="G65" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -6262,7 +6262,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K65">
         <v>2.25</v>
@@ -6342,7 +6342,7 @@
         <v>46</v>
       </c>
       <c r="G66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -6351,7 +6351,7 @@
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K66">
         <v>1.909</v>
@@ -6440,7 +6440,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K67">
         <v>2.2</v>
@@ -6529,7 +6529,7 @@
         <v>3</v>
       </c>
       <c r="J68" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K68">
         <v>3.1</v>
@@ -6609,7 +6609,7 @@
         <v>36</v>
       </c>
       <c r="G69" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6618,7 +6618,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K69">
         <v>1.5</v>
@@ -6707,7 +6707,7 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K70">
         <v>1.666</v>
@@ -6784,7 +6784,7 @@
         <v>44976.5</v>
       </c>
       <c r="F71" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G71" t="s">
         <v>45</v>
@@ -6873,7 +6873,7 @@
         <v>44977.5</v>
       </c>
       <c r="F72" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G72" t="s">
         <v>31</v>
@@ -6885,7 +6885,7 @@
         <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K72">
         <v>3.5</v>
@@ -7051,7 +7051,7 @@
         <v>44978.40625</v>
       </c>
       <c r="F74" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G74" t="s">
         <v>32</v>
@@ -7063,7 +7063,7 @@
         <v>3</v>
       </c>
       <c r="J74" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K74">
         <v>7</v>
@@ -7143,7 +7143,7 @@
         <v>35</v>
       </c>
       <c r="G75" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7229,7 +7229,7 @@
         <v>44978.58333333334</v>
       </c>
       <c r="F76" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G76" t="s">
         <v>37</v>
@@ -7318,7 +7318,7 @@
         <v>44979.5</v>
       </c>
       <c r="F77" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G77" t="s">
         <v>36</v>
@@ -7499,7 +7499,7 @@
         <v>45</v>
       </c>
       <c r="G79" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H79">
         <v>3</v>
@@ -7508,7 +7508,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K79">
         <v>1.85</v>
@@ -7585,10 +7585,10 @@
         <v>44984.41666666666</v>
       </c>
       <c r="F80" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G80" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -7597,7 +7597,7 @@
         <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K80">
         <v>2.75</v>
@@ -7686,7 +7686,7 @@
         <v>4</v>
       </c>
       <c r="J81" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K81">
         <v>2.625</v>
@@ -7775,7 +7775,7 @@
         <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K82">
         <v>1.95</v>
@@ -7855,7 +7855,7 @@
         <v>41</v>
       </c>
       <c r="G83" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -7864,7 +7864,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K83">
         <v>2.25</v>
@@ -7944,7 +7944,7 @@
         <v>32</v>
       </c>
       <c r="G84" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H84">
         <v>1</v>
@@ -8033,7 +8033,7 @@
         <v>37</v>
       </c>
       <c r="G85" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H85">
         <v>2</v>
@@ -8042,7 +8042,7 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K85">
         <v>3.5</v>
@@ -8297,7 +8297,7 @@
         <v>44990.54166666666</v>
       </c>
       <c r="F88" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G88" t="s">
         <v>41</v>
@@ -8386,10 +8386,10 @@
         <v>44991.41666666666</v>
       </c>
       <c r="F89" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G89" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H89">
         <v>2</v>
@@ -8398,7 +8398,7 @@
         <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K89">
         <v>2.4</v>
@@ -8487,7 +8487,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K90">
         <v>2.5</v>
@@ -8567,7 +8567,7 @@
         <v>32</v>
       </c>
       <c r="G91" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H91">
         <v>2</v>
@@ -8576,7 +8576,7 @@
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K91">
         <v>1.45</v>
@@ -8742,7 +8742,7 @@
         <v>44996.58333333334</v>
       </c>
       <c r="F93" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G93" t="s">
         <v>45</v>
@@ -8754,7 +8754,7 @@
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K93">
         <v>2.15</v>
@@ -8831,7 +8831,7 @@
         <v>44997.41666666666</v>
       </c>
       <c r="F94" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G94" t="s">
         <v>36</v>
@@ -8843,7 +8843,7 @@
         <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K94">
         <v>3.4</v>
@@ -8932,7 +8932,7 @@
         <v>2</v>
       </c>
       <c r="J95" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K95">
         <v>1.444</v>
@@ -9009,7 +9009,7 @@
         <v>44998.54166666666</v>
       </c>
       <c r="F96" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G96" t="s">
         <v>40</v>
@@ -9021,7 +9021,7 @@
         <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K96">
         <v>4</v>
@@ -9086,7 +9086,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6441121</v>
+        <v>6441342</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9098,76 +9098,76 @@
         <v>45015.67708333334</v>
       </c>
       <c r="F97" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G97" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K97">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="L97">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="M97">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="N97">
+        <v>2.6</v>
+      </c>
+      <c r="O97">
+        <v>2.7</v>
+      </c>
+      <c r="P97">
+        <v>2.875</v>
+      </c>
+      <c r="Q97">
+        <v>0</v>
+      </c>
+      <c r="R97">
+        <v>1.85</v>
+      </c>
+      <c r="S97">
+        <v>1.95</v>
+      </c>
+      <c r="T97">
         <v>2.25</v>
       </c>
-      <c r="O97">
-        <v>2.75</v>
-      </c>
-      <c r="P97">
-        <v>3.4</v>
-      </c>
-      <c r="Q97">
-        <v>-0.25</v>
-      </c>
-      <c r="R97">
+      <c r="U97">
         <v>2.025</v>
       </c>
-      <c r="S97">
+      <c r="V97">
         <v>1.775</v>
       </c>
-      <c r="T97">
-        <v>2</v>
-      </c>
-      <c r="U97">
-        <v>2</v>
-      </c>
-      <c r="V97">
-        <v>1.8</v>
-      </c>
       <c r="W97">
         <v>-1</v>
       </c>
       <c r="X97">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y97">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA97">
+        <v>-0</v>
+      </c>
+      <c r="AB97">
+        <v>-1</v>
+      </c>
+      <c r="AC97">
         <v>0.7749999999999999</v>
-      </c>
-      <c r="AB97">
-        <v>1</v>
-      </c>
-      <c r="AC97">
-        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9175,7 +9175,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6441342</v>
+        <v>6441121</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9187,76 +9187,76 @@
         <v>45015.67708333334</v>
       </c>
       <c r="F98" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G98" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J98" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K98">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="L98">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="M98">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="N98">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="O98">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="P98">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="Q98">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R98">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S98">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T98">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U98">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V98">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W98">
         <v>-1</v>
       </c>
       <c r="X98">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z98">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB98">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC98">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9279,7 +9279,7 @@
         <v>38</v>
       </c>
       <c r="G99" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H99">
         <v>2</v>
@@ -9288,7 +9288,7 @@
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K99">
         <v>2.5</v>
@@ -9365,7 +9365,7 @@
         <v>45016.67708333334</v>
       </c>
       <c r="F100" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G100" t="s">
         <v>31</v>
@@ -9377,7 +9377,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K100">
         <v>3.1</v>
@@ -9457,7 +9457,7 @@
         <v>37</v>
       </c>
       <c r="G101" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -9632,7 +9632,7 @@
         <v>45019.67708333334</v>
       </c>
       <c r="F103" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G103" t="s">
         <v>38</v>
@@ -9644,7 +9644,7 @@
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K103">
         <v>2.5</v>
@@ -9733,7 +9733,7 @@
         <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K104">
         <v>2.7</v>
@@ -9810,7 +9810,7 @@
         <v>45020.67708333334</v>
       </c>
       <c r="F105" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G105" t="s">
         <v>45</v>
@@ -9899,7 +9899,7 @@
         <v>45020.67708333334</v>
       </c>
       <c r="F106" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G106" t="s">
         <v>37</v>
@@ -9976,7 +9976,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6471794</v>
+        <v>6451733</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9988,76 +9988,76 @@
         <v>45021.67708333334</v>
       </c>
       <c r="F107" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G107" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107" t="s">
+        <v>52</v>
+      </c>
+      <c r="K107">
+        <v>4.2</v>
+      </c>
+      <c r="L107">
         <v>3</v>
       </c>
-      <c r="I107">
-        <v>0</v>
-      </c>
-      <c r="J107" t="s">
-        <v>50</v>
-      </c>
-      <c r="K107">
-        <v>1.222</v>
-      </c>
-      <c r="L107">
-        <v>5.25</v>
-      </c>
       <c r="M107">
-        <v>10</v>
+        <v>1.85</v>
       </c>
       <c r="N107">
-        <v>1.222</v>
+        <v>3.4</v>
       </c>
       <c r="O107">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="P107">
-        <v>10</v>
+        <v>2.15</v>
       </c>
       <c r="Q107">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R107">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S107">
+        <v>1.925</v>
+      </c>
+      <c r="T107">
+        <v>2</v>
+      </c>
+      <c r="U107">
+        <v>1.875</v>
+      </c>
+      <c r="V107">
+        <v>1.925</v>
+      </c>
+      <c r="W107">
+        <v>-1</v>
+      </c>
+      <c r="X107">
         <v>1.8</v>
       </c>
-      <c r="T107">
-        <v>2.75</v>
-      </c>
-      <c r="U107">
-        <v>1.975</v>
-      </c>
-      <c r="V107">
-        <v>1.825</v>
-      </c>
-      <c r="W107">
-        <v>0.222</v>
-      </c>
-      <c r="X107">
-        <v>-1</v>
-      </c>
       <c r="Y107">
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA107">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB107">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC107">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10065,7 +10065,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6451733</v>
+        <v>6471794</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10077,76 +10077,76 @@
         <v>45021.67708333334</v>
       </c>
       <c r="F108" t="s">
+        <v>32</v>
+      </c>
+      <c r="G108" t="s">
         <v>33</v>
       </c>
-      <c r="G108" t="s">
-        <v>40</v>
-      </c>
       <c r="H108">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I108">
         <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K108">
-        <v>4.2</v>
+        <v>1.222</v>
       </c>
       <c r="L108">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="M108">
-        <v>1.85</v>
+        <v>10</v>
       </c>
       <c r="N108">
-        <v>3.4</v>
+        <v>1.222</v>
       </c>
       <c r="O108">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="P108">
-        <v>2.15</v>
+        <v>10</v>
       </c>
       <c r="Q108">
-        <v>0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R108">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S108">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T108">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U108">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V108">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W108">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X108">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y108">
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>0.4375</v>
+        <v>1</v>
       </c>
       <c r="AA108">
+        <v>-1</v>
+      </c>
+      <c r="AB108">
+        <v>0.4875</v>
+      </c>
+      <c r="AC108">
         <v>-0.5</v>
-      </c>
-      <c r="AB108">
-        <v>-1</v>
-      </c>
-      <c r="AC108">
-        <v>0.925</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10178,7 +10178,7 @@
         <v>1</v>
       </c>
       <c r="J109" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K109">
         <v>2.875</v>
@@ -10243,7 +10243,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6493897</v>
+        <v>6484231</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10255,76 +10255,76 @@
         <v>45023.67708333334</v>
       </c>
       <c r="F110" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G110" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H110">
         <v>1</v>
       </c>
       <c r="I110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K110">
-        <v>3.5</v>
+        <v>1.727</v>
       </c>
       <c r="L110">
         <v>3.25</v>
       </c>
       <c r="M110">
-        <v>1.909</v>
+        <v>4.333</v>
       </c>
       <c r="N110">
-        <v>2.7</v>
+        <v>1.533</v>
       </c>
       <c r="O110">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P110">
-        <v>2.3</v>
+        <v>5.5</v>
       </c>
       <c r="Q110">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R110">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S110">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T110">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U110">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="V110">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="W110">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X110">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y110">
         <v>-1</v>
       </c>
       <c r="Z110">
-        <v>0.4</v>
+        <v>0.375</v>
       </c>
       <c r="AA110">
         <v>-0.5</v>
       </c>
       <c r="AB110">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC110">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10332,7 +10332,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6484231</v>
+        <v>6493897</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10344,76 +10344,76 @@
         <v>45023.67708333334</v>
       </c>
       <c r="F111" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G111" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H111">
         <v>1</v>
       </c>
       <c r="I111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K111">
-        <v>1.727</v>
+        <v>3.5</v>
       </c>
       <c r="L111">
         <v>3.25</v>
       </c>
       <c r="M111">
-        <v>4.333</v>
+        <v>1.909</v>
       </c>
       <c r="N111">
-        <v>1.533</v>
+        <v>2.7</v>
       </c>
       <c r="O111">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P111">
-        <v>5.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q111">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R111">
+        <v>1.8</v>
+      </c>
+      <c r="S111">
+        <v>2</v>
+      </c>
+      <c r="T111">
+        <v>2</v>
+      </c>
+      <c r="U111">
         <v>1.75</v>
       </c>
-      <c r="S111">
+      <c r="V111">
         <v>2.05</v>
       </c>
-      <c r="T111">
+      <c r="W111">
+        <v>-1</v>
+      </c>
+      <c r="X111">
         <v>2.25</v>
       </c>
-      <c r="U111">
-        <v>2.025</v>
-      </c>
-      <c r="V111">
-        <v>1.775</v>
-      </c>
-      <c r="W111">
-        <v>0.5329999999999999</v>
-      </c>
-      <c r="X111">
-        <v>-1</v>
-      </c>
       <c r="Y111">
         <v>-1</v>
       </c>
       <c r="Z111">
-        <v>0.375</v>
+        <v>0.4</v>
       </c>
       <c r="AA111">
         <v>-0.5</v>
       </c>
       <c r="AB111">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC111">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10421,7 +10421,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6488022</v>
+        <v>6471698</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10433,25 +10433,25 @@
         <v>45025.67708333334</v>
       </c>
       <c r="F112" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G112" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H112">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I112">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K112">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="L112">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M112">
         <v>4</v>
@@ -10460,28 +10460,28 @@
         <v>2.2</v>
       </c>
       <c r="O112">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="P112">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="Q112">
         <v>-0.25</v>
       </c>
       <c r="R112">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S112">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T112">
         <v>2</v>
       </c>
       <c r="U112">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V112">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W112">
         <v>1.2</v>
@@ -10493,16 +10493,16 @@
         <v>-1</v>
       </c>
       <c r="Z112">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA112">
         <v>-1</v>
       </c>
       <c r="AB112">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC112">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10510,7 +10510,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6471698</v>
+        <v>6488022</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10522,25 +10522,25 @@
         <v>45025.67708333334</v>
       </c>
       <c r="F113" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G113" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I113">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J113" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K113">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="L113">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M113">
         <v>4</v>
@@ -10549,28 +10549,28 @@
         <v>2.2</v>
       </c>
       <c r="O113">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P113">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="Q113">
         <v>-0.25</v>
       </c>
       <c r="R113">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S113">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T113">
         <v>2</v>
       </c>
       <c r="U113">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V113">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W113">
         <v>1.2</v>
@@ -10582,16 +10582,16 @@
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA113">
         <v>-1</v>
       </c>
       <c r="AB113">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC113">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10614,7 +10614,7 @@
         <v>38</v>
       </c>
       <c r="G114" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H114">
         <v>2</v>
@@ -10623,7 +10623,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K114">
         <v>3</v>
@@ -10712,7 +10712,7 @@
         <v>2</v>
       </c>
       <c r="J115" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K115">
         <v>3.1</v>
@@ -10789,7 +10789,7 @@
         <v>45028.67708333334</v>
       </c>
       <c r="F116" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G116" t="s">
         <v>41</v>
@@ -10878,7 +10878,7 @@
         <v>45028.67708333334</v>
       </c>
       <c r="F117" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G117" t="s">
         <v>36</v>
@@ -10890,7 +10890,7 @@
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K117">
         <v>5.5</v>
@@ -10955,7 +10955,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6471699</v>
+        <v>6488023</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10967,76 +10967,76 @@
         <v>45029.67708333334</v>
       </c>
       <c r="F118" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G118" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H118">
         <v>0</v>
       </c>
       <c r="I118">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J118" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K118">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="L118">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="M118">
-        <v>1.833</v>
+        <v>3.25</v>
       </c>
       <c r="N118">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="O118">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P118">
-        <v>1.7</v>
+        <v>2.55</v>
       </c>
       <c r="Q118">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R118">
+        <v>1.9</v>
+      </c>
+      <c r="S118">
+        <v>1.9</v>
+      </c>
+      <c r="T118">
+        <v>2</v>
+      </c>
+      <c r="U118">
         <v>1.8</v>
       </c>
-      <c r="S118">
-        <v>2</v>
-      </c>
-      <c r="T118">
-        <v>2</v>
-      </c>
-      <c r="U118">
-        <v>1.825</v>
-      </c>
       <c r="V118">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W118">
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y118">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z118">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA118">
+        <v>-0</v>
+      </c>
+      <c r="AB118">
+        <v>-1</v>
+      </c>
+      <c r="AC118">
         <v>1</v>
-      </c>
-      <c r="AB118">
-        <v>0.825</v>
-      </c>
-      <c r="AC118">
-        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11044,7 +11044,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6484223</v>
+        <v>6471699</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11056,73 +11056,73 @@
         <v>45029.67708333334</v>
       </c>
       <c r="F119" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G119" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119">
         <v>3</v>
-      </c>
-      <c r="I119">
-        <v>1</v>
       </c>
       <c r="J119" t="s">
         <v>50</v>
       </c>
       <c r="K119">
-        <v>2.875</v>
+        <v>4.2</v>
       </c>
       <c r="L119">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="M119">
-        <v>2.5</v>
+        <v>1.833</v>
       </c>
       <c r="N119">
-        <v>2.375</v>
+        <v>5</v>
       </c>
       <c r="O119">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="P119">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="Q119">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R119">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S119">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T119">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U119">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V119">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W119">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X119">
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z119">
+        <v>-1</v>
+      </c>
+      <c r="AA119">
         <v>1</v>
       </c>
-      <c r="AA119">
-        <v>-1</v>
-      </c>
       <c r="AB119">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="AC119">
         <v>-1</v>
@@ -11133,7 +11133,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6488023</v>
+        <v>6484223</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11145,76 +11145,76 @@
         <v>45029.67708333334</v>
       </c>
       <c r="F120" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G120" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K120">
-        <v>2.25</v>
+        <v>2.875</v>
       </c>
       <c r="L120">
         <v>2.75</v>
       </c>
       <c r="M120">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="N120">
-        <v>2.6</v>
+        <v>2.375</v>
       </c>
       <c r="O120">
-        <v>2.875</v>
+        <v>2.7</v>
       </c>
       <c r="P120">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="Q120">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R120">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S120">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T120">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U120">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V120">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W120">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X120">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA120">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB120">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC120">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11222,7 +11222,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6471802</v>
+        <v>6471801</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11234,58 +11234,58 @@
         <v>45030.67708333334</v>
       </c>
       <c r="F121" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G121" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H121">
         <v>3</v>
       </c>
       <c r="I121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K121">
-        <v>2.3</v>
+        <v>1.333</v>
       </c>
       <c r="L121">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="M121">
-        <v>3</v>
+        <v>9.5</v>
       </c>
       <c r="N121">
-        <v>2.7</v>
+        <v>1.333</v>
       </c>
       <c r="O121">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="P121">
-        <v>2.6</v>
+        <v>8</v>
       </c>
       <c r="Q121">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R121">
+        <v>1.825</v>
+      </c>
+      <c r="S121">
+        <v>1.975</v>
+      </c>
+      <c r="T121">
+        <v>2.5</v>
+      </c>
+      <c r="U121">
         <v>1.925</v>
       </c>
-      <c r="S121">
+      <c r="V121">
         <v>1.875</v>
       </c>
-      <c r="T121">
-        <v>2.25</v>
-      </c>
-      <c r="U121">
-        <v>2</v>
-      </c>
-      <c r="V121">
-        <v>1.8</v>
-      </c>
       <c r="W121">
-        <v>1.7</v>
+        <v>0.333</v>
       </c>
       <c r="X121">
         <v>-1</v>
@@ -11294,13 +11294,13 @@
         <v>-1</v>
       </c>
       <c r="Z121">
+        <v>0.825</v>
+      </c>
+      <c r="AA121">
+        <v>-1</v>
+      </c>
+      <c r="AB121">
         <v>0.925</v>
-      </c>
-      <c r="AA121">
-        <v>-1</v>
-      </c>
-      <c r="AB121">
-        <v>1</v>
       </c>
       <c r="AC121">
         <v>-1</v>
@@ -11311,7 +11311,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6471801</v>
+        <v>6471802</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11323,58 +11323,58 @@
         <v>45030.67708333334</v>
       </c>
       <c r="F122" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G122" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H122">
         <v>3</v>
       </c>
       <c r="I122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K122">
-        <v>1.333</v>
+        <v>2.3</v>
       </c>
       <c r="L122">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="M122">
-        <v>9.5</v>
+        <v>3</v>
       </c>
       <c r="N122">
-        <v>1.333</v>
+        <v>2.7</v>
       </c>
       <c r="O122">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="P122">
-        <v>8</v>
+        <v>2.6</v>
       </c>
       <c r="Q122">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R122">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S122">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T122">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U122">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V122">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W122">
-        <v>0.333</v>
+        <v>1.7</v>
       </c>
       <c r="X122">
         <v>-1</v>
@@ -11383,13 +11383,13 @@
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA122">
         <v>-1</v>
       </c>
       <c r="AB122">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC122">
         <v>-1</v>
@@ -11412,7 +11412,7 @@
         <v>45030.67708333334</v>
       </c>
       <c r="F123" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G123" t="s">
         <v>40</v>
@@ -11424,7 +11424,7 @@
         <v>3</v>
       </c>
       <c r="J123" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K123">
         <v>5.5</v>
@@ -11501,7 +11501,7 @@
         <v>45031.67708333334</v>
       </c>
       <c r="F124" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G124" t="s">
         <v>46</v>
@@ -11513,7 +11513,7 @@
         <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K124">
         <v>2.5</v>
@@ -11602,7 +11602,7 @@
         <v>2</v>
       </c>
       <c r="J125" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K125">
         <v>6.5</v>
@@ -11682,7 +11682,7 @@
         <v>39</v>
       </c>
       <c r="G126" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H126">
         <v>2</v>
@@ -11771,7 +11771,7 @@
         <v>40</v>
       </c>
       <c r="G127" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H127">
         <v>2</v>
@@ -11780,7 +11780,7 @@
         <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K127">
         <v>1.4</v>
@@ -11860,7 +11860,7 @@
         <v>38</v>
       </c>
       <c r="G128" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H128">
         <v>2</v>
@@ -11869,7 +11869,7 @@
         <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K128">
         <v>2.25</v>
@@ -11934,7 +11934,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6488030</v>
+        <v>6499805</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11946,40 +11946,40 @@
         <v>45035.67708333334</v>
       </c>
       <c r="F129" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G129" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H129">
+        <v>1</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129" t="s">
+        <v>51</v>
+      </c>
+      <c r="K129">
+        <v>2.1</v>
+      </c>
+      <c r="L129">
         <v>3</v>
       </c>
-      <c r="I129">
-        <v>1</v>
-      </c>
-      <c r="J129" t="s">
-        <v>50</v>
-      </c>
-      <c r="K129">
-        <v>2</v>
-      </c>
-      <c r="L129">
-        <v>2.75</v>
-      </c>
       <c r="M129">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="N129">
-        <v>2.05</v>
+        <v>1.727</v>
       </c>
       <c r="O129">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="P129">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="Q129">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R129">
         <v>1.775</v>
@@ -11991,13 +11991,13 @@
         <v>2</v>
       </c>
       <c r="U129">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V129">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W129">
-        <v>1.05</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X129">
         <v>-1</v>
@@ -12012,10 +12012,10 @@
         <v>-1</v>
       </c>
       <c r="AB129">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC129">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12112,7 +12112,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6499805</v>
+        <v>6488030</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12124,40 +12124,40 @@
         <v>45035.67708333334</v>
       </c>
       <c r="F131" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G131" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H131">
+        <v>3</v>
+      </c>
+      <c r="I131">
         <v>1</v>
       </c>
-      <c r="I131">
-        <v>0</v>
-      </c>
       <c r="J131" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K131">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L131">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="M131">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="N131">
-        <v>1.727</v>
+        <v>2.05</v>
       </c>
       <c r="O131">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P131">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="Q131">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R131">
         <v>1.775</v>
@@ -12169,13 +12169,13 @@
         <v>2</v>
       </c>
       <c r="U131">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V131">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W131">
-        <v>0.7270000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="X131">
         <v>-1</v>
@@ -12190,10 +12190,10 @@
         <v>-1</v>
       </c>
       <c r="AB131">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC131">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12201,7 +12201,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6488031</v>
+        <v>6495714</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12213,76 +12213,76 @@
         <v>45036.67708333334</v>
       </c>
       <c r="F132" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G132" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K132">
         <v>2.3</v>
       </c>
       <c r="L132">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="M132">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N132">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O132">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="P132">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q132">
         <v>-0.25</v>
       </c>
       <c r="R132">
+        <v>1.9</v>
+      </c>
+      <c r="S132">
+        <v>1.9</v>
+      </c>
+      <c r="T132">
+        <v>2.25</v>
+      </c>
+      <c r="U132">
+        <v>1.95</v>
+      </c>
+      <c r="V132">
         <v>1.85</v>
       </c>
-      <c r="S132">
-        <v>1.95</v>
-      </c>
-      <c r="T132">
-        <v>2</v>
-      </c>
-      <c r="U132">
-        <v>2</v>
-      </c>
-      <c r="V132">
+      <c r="W132">
+        <v>-1</v>
+      </c>
+      <c r="X132">
         <v>1.8</v>
       </c>
-      <c r="W132">
-        <v>-1</v>
-      </c>
-      <c r="X132">
-        <v>-1</v>
-      </c>
       <c r="Y132">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA132">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="AB132">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC132">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12290,7 +12290,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6495714</v>
+        <v>6488031</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12302,76 +12302,76 @@
         <v>45036.67708333334</v>
       </c>
       <c r="F133" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G133" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J133" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K133">
         <v>2.3</v>
       </c>
       <c r="L133">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="M133">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N133">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O133">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="P133">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q133">
         <v>-0.25</v>
       </c>
       <c r="R133">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S133">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T133">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U133">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V133">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W133">
         <v>-1</v>
       </c>
       <c r="X133">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y133">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z133">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA133">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
       <c r="AB133">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC133">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12391,7 +12391,7 @@
         <v>45041.54166666666</v>
       </c>
       <c r="F134" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G134" t="s">
         <v>42</v>
@@ -12483,7 +12483,7 @@
         <v>36</v>
       </c>
       <c r="G135" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H135">
         <v>0</v>
@@ -12492,7 +12492,7 @@
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K135">
         <v>1.571</v>
@@ -12572,7 +12572,7 @@
         <v>46</v>
       </c>
       <c r="G136" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H136">
         <v>1</v>
@@ -12581,7 +12581,7 @@
         <v>0</v>
       </c>
       <c r="J136" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K136">
         <v>1.909</v>
@@ -12670,7 +12670,7 @@
         <v>0</v>
       </c>
       <c r="J137" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K137">
         <v>2.1</v>
@@ -12747,7 +12747,7 @@
         <v>45048.54166666666</v>
       </c>
       <c r="F138" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G138" t="s">
         <v>45</v>
@@ -12759,7 +12759,7 @@
         <v>2</v>
       </c>
       <c r="J138" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K138">
         <v>3.3</v>
@@ -12836,7 +12836,7 @@
         <v>45048.64583333334</v>
       </c>
       <c r="F139" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G139" t="s">
         <v>38</v>
@@ -12925,7 +12925,7 @@
         <v>45049.58333333334</v>
       </c>
       <c r="F140" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G140" t="s">
         <v>42</v>
@@ -12937,7 +12937,7 @@
         <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K140">
         <v>2.75</v>
@@ -13014,10 +13014,10 @@
         <v>45050.54166666666</v>
       </c>
       <c r="F141" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G141" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H141">
         <v>1</v>
@@ -13103,7 +13103,7 @@
         <v>45050.54166666666</v>
       </c>
       <c r="F142" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G142" t="s">
         <v>46</v>
@@ -13115,7 +13115,7 @@
         <v>3</v>
       </c>
       <c r="J142" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K142">
         <v>3.4</v>
@@ -13293,7 +13293,7 @@
         <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K144">
         <v>1.8</v>
@@ -13382,7 +13382,7 @@
         <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K145">
         <v>4.5</v>
@@ -13462,7 +13462,7 @@
         <v>41</v>
       </c>
       <c r="G146" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H146">
         <v>0</v>
@@ -13551,7 +13551,7 @@
         <v>42</v>
       </c>
       <c r="G147" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H147">
         <v>1</v>
@@ -13649,7 +13649,7 @@
         <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K148">
         <v>2.5</v>
@@ -13726,10 +13726,10 @@
         <v>45062.45833333334</v>
       </c>
       <c r="F149" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G149" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H149">
         <v>0</v>
@@ -13738,7 +13738,7 @@
         <v>2</v>
       </c>
       <c r="J149" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K149">
         <v>4.333</v>
@@ -13993,7 +13993,7 @@
         <v>45063.58333333334</v>
       </c>
       <c r="F152" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G152" t="s">
         <v>35</v>
@@ -14005,7 +14005,7 @@
         <v>0</v>
       </c>
       <c r="J152" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K152">
         <v>2.4</v>
@@ -14085,7 +14085,7 @@
         <v>39</v>
       </c>
       <c r="G153" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H153">
         <v>1</v>
@@ -14094,7 +14094,7 @@
         <v>0</v>
       </c>
       <c r="J153" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K153">
         <v>1.909</v>
@@ -14174,7 +14174,7 @@
         <v>35</v>
       </c>
       <c r="G154" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H154">
         <v>1</v>
@@ -14183,7 +14183,7 @@
         <v>0</v>
       </c>
       <c r="J154" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K154">
         <v>1.727</v>
@@ -14260,7 +14260,7 @@
         <v>45067.64583333334</v>
       </c>
       <c r="F155" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G155" t="s">
         <v>40</v>
@@ -14272,7 +14272,7 @@
         <v>2</v>
       </c>
       <c r="J155" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K155">
         <v>6</v>
@@ -14361,7 +14361,7 @@
         <v>2</v>
       </c>
       <c r="J156" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K156">
         <v>2.7</v>
@@ -14426,7 +14426,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6678437</v>
+        <v>6574889</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14438,76 +14438,76 @@
         <v>45068.64583333334</v>
       </c>
       <c r="F157" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G157" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J157" t="s">
         <v>52</v>
       </c>
       <c r="K157">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="L157">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M157">
-        <v>3.75</v>
+        <v>1.8</v>
       </c>
       <c r="N157">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="O157">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="P157">
-        <v>3.4</v>
+        <v>1.909</v>
       </c>
       <c r="Q157">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R157">
+        <v>1.825</v>
+      </c>
+      <c r="S157">
+        <v>1.975</v>
+      </c>
+      <c r="T157">
+        <v>2.25</v>
+      </c>
+      <c r="U157">
         <v>1.925</v>
       </c>
-      <c r="S157">
+      <c r="V157">
         <v>1.875</v>
       </c>
-      <c r="T157">
-        <v>1.75</v>
-      </c>
-      <c r="U157">
-        <v>1.775</v>
-      </c>
-      <c r="V157">
-        <v>2.025</v>
-      </c>
       <c r="W157">
         <v>-1</v>
       </c>
       <c r="X157">
-        <v>1.875</v>
+        <v>2.25</v>
       </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
+        <v>0.825</v>
+      </c>
+      <c r="AA157">
+        <v>-1</v>
+      </c>
+      <c r="AB157">
         <v>-0.5</v>
       </c>
-      <c r="AA157">
+      <c r="AC157">
         <v>0.4375</v>
-      </c>
-      <c r="AB157">
-        <v>-1</v>
-      </c>
-      <c r="AC157">
-        <v>1.025</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14515,7 +14515,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6574889</v>
+        <v>6678437</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14527,76 +14527,76 @@
         <v>45068.64583333334</v>
       </c>
       <c r="F158" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G158" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J158" t="s">
         <v>52</v>
       </c>
       <c r="K158">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="L158">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M158">
-        <v>1.8</v>
+        <v>3.75</v>
       </c>
       <c r="N158">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="O158">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="P158">
-        <v>1.909</v>
+        <v>3.4</v>
       </c>
       <c r="Q158">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R158">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S158">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T158">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U158">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V158">
+        <v>2.025</v>
+      </c>
+      <c r="W158">
+        <v>-1</v>
+      </c>
+      <c r="X158">
         <v>1.875</v>
       </c>
-      <c r="W158">
-        <v>-1</v>
-      </c>
-      <c r="X158">
-        <v>2.25</v>
-      </c>
       <c r="Y158">
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA158">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB158">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC158">
-        <v>0.4375</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14616,10 +14616,10 @@
         <v>45069.54166666666</v>
       </c>
       <c r="F159" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G159" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H159">
         <v>1</v>
@@ -14628,7 +14628,7 @@
         <v>2</v>
       </c>
       <c r="J159" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K159">
         <v>2.7</v>
@@ -14717,7 +14717,7 @@
         <v>0</v>
       </c>
       <c r="J160" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K160">
         <v>1.333</v>
@@ -14806,7 +14806,7 @@
         <v>0</v>
       </c>
       <c r="J161" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K161">
         <v>2.45</v>
@@ -14871,7 +14871,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6686652</v>
+        <v>6576691</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14883,10 +14883,10 @@
         <v>45070.64583333334</v>
       </c>
       <c r="F162" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G162" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H162">
         <v>1</v>
@@ -14895,46 +14895,46 @@
         <v>0</v>
       </c>
       <c r="J162" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K162">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="L162">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="M162">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="N162">
-        <v>2.2</v>
+        <v>1.363</v>
       </c>
       <c r="O162">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="P162">
-        <v>3.25</v>
+        <v>8</v>
       </c>
       <c r="Q162">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R162">
+        <v>1.85</v>
+      </c>
+      <c r="S162">
         <v>1.95</v>
       </c>
-      <c r="S162">
-        <v>1.85</v>
-      </c>
       <c r="T162">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U162">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V162">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W162">
-        <v>1.2</v>
+        <v>0.363</v>
       </c>
       <c r="X162">
         <v>-1</v>
@@ -14943,16 +14943,16 @@
         <v>-1</v>
       </c>
       <c r="Z162">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA162">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB162">
         <v>-1</v>
       </c>
       <c r="AC162">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -14960,7 +14960,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6576691</v>
+        <v>6686652</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14972,10 +14972,10 @@
         <v>45070.64583333334</v>
       </c>
       <c r="F163" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G163" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H163">
         <v>1</v>
@@ -14984,46 +14984,46 @@
         <v>0</v>
       </c>
       <c r="J163" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K163">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="L163">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="M163">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="N163">
-        <v>1.363</v>
+        <v>2.2</v>
       </c>
       <c r="O163">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="P163">
-        <v>8</v>
+        <v>3.25</v>
       </c>
       <c r="Q163">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R163">
+        <v>1.95</v>
+      </c>
+      <c r="S163">
         <v>1.85</v>
       </c>
-      <c r="S163">
-        <v>1.95</v>
-      </c>
       <c r="T163">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U163">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V163">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W163">
-        <v>0.363</v>
+        <v>1.2</v>
       </c>
       <c r="X163">
         <v>-1</v>
@@ -15032,16 +15032,16 @@
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA163">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB163">
         <v>-1</v>
       </c>
       <c r="AC163">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15073,7 +15073,7 @@
         <v>2</v>
       </c>
       <c r="J164" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K164">
         <v>6.5</v>
@@ -15162,7 +15162,7 @@
         <v>2</v>
       </c>
       <c r="J165" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K165">
         <v>3.75</v>
@@ -15251,7 +15251,7 @@
         <v>0</v>
       </c>
       <c r="J166" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K166">
         <v>1.571</v>
@@ -15340,7 +15340,7 @@
         <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K167">
         <v>2</v>
@@ -15417,10 +15417,10 @@
         <v>45077.54166666666</v>
       </c>
       <c r="F168" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G168" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H168">
         <v>3</v>
@@ -15429,7 +15429,7 @@
         <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K168">
         <v>1.909</v>
@@ -15506,7 +15506,7 @@
         <v>45077.64583333334</v>
       </c>
       <c r="F169" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G169" t="s">
         <v>35</v>
@@ -15595,10 +15595,10 @@
         <v>45078.54166666666</v>
       </c>
       <c r="F170" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G170" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H170">
         <v>1</v>
@@ -15607,7 +15607,7 @@
         <v>0</v>
       </c>
       <c r="J170" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K170">
         <v>3.1</v>
@@ -15687,7 +15687,7 @@
         <v>38</v>
       </c>
       <c r="G171" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H171">
         <v>1</v>
@@ -15696,7 +15696,7 @@
         <v>0</v>
       </c>
       <c r="J171" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K171">
         <v>2.05</v>
@@ -15874,7 +15874,7 @@
         <v>0</v>
       </c>
       <c r="J173" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K173">
         <v>2</v>
@@ -15963,7 +15963,7 @@
         <v>0</v>
       </c>
       <c r="J174" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K174">
         <v>2.05</v>
@@ -16052,7 +16052,7 @@
         <v>1</v>
       </c>
       <c r="J175" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K175">
         <v>1.85</v>
@@ -16129,10 +16129,10 @@
         <v>45083.54166666666</v>
       </c>
       <c r="F176" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G176" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -16230,7 +16230,7 @@
         <v>1</v>
       </c>
       <c r="J177" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K177">
         <v>4.333</v>
@@ -16319,7 +16319,7 @@
         <v>0</v>
       </c>
       <c r="J178" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K178">
         <v>1.666</v>
@@ -16399,7 +16399,7 @@
         <v>42</v>
       </c>
       <c r="G179" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H179">
         <v>1</v>
@@ -16586,7 +16586,7 @@
         <v>1</v>
       </c>
       <c r="J181" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K181">
         <v>2.5</v>
@@ -16663,10 +16663,10 @@
         <v>45085.64583333334</v>
       </c>
       <c r="F182" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G182" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H182">
         <v>1</v>
@@ -16755,7 +16755,7 @@
         <v>31</v>
       </c>
       <c r="G183" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H183">
         <v>0</v>
@@ -16841,7 +16841,7 @@
         <v>45099.64583333334</v>
       </c>
       <c r="F184" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G184" t="s">
         <v>32</v>
@@ -16853,7 +16853,7 @@
         <v>3</v>
       </c>
       <c r="J184" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K184">
         <v>9</v>
@@ -16933,7 +16933,7 @@
         <v>39</v>
       </c>
       <c r="G185" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H185">
         <v>2</v>
@@ -16942,7 +16942,7 @@
         <v>0</v>
       </c>
       <c r="J185" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K185">
         <v>1.5</v>
@@ -17031,7 +17031,7 @@
         <v>0</v>
       </c>
       <c r="J186" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K186">
         <v>2.9</v>
@@ -17120,7 +17120,7 @@
         <v>2</v>
       </c>
       <c r="J187" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K187">
         <v>1.4</v>
@@ -17200,7 +17200,7 @@
         <v>35</v>
       </c>
       <c r="G188" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H188">
         <v>1</v>
@@ -17286,7 +17286,7 @@
         <v>45106.64583333334</v>
       </c>
       <c r="F189" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G189" t="s">
         <v>32</v>
@@ -17298,7 +17298,7 @@
         <v>3</v>
       </c>
       <c r="J189" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K189">
         <v>6</v>
@@ -17387,7 +17387,7 @@
         <v>1</v>
       </c>
       <c r="J190" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K190">
         <v>2.5</v>
@@ -17553,10 +17553,10 @@
         <v>45107.64583333334</v>
       </c>
       <c r="F192" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G192" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H192">
         <v>0</v>
@@ -17565,7 +17565,7 @@
         <v>1</v>
       </c>
       <c r="J192" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K192">
         <v>2.05</v>
@@ -17642,7 +17642,7 @@
         <v>45108.60416666666</v>
       </c>
       <c r="F193" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G193" t="s">
         <v>31</v>
@@ -17832,7 +17832,7 @@
         <v>0</v>
       </c>
       <c r="J195" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K195">
         <v>1.333</v>
@@ -17921,7 +17921,7 @@
         <v>2</v>
       </c>
       <c r="J196" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K196">
         <v>6.5</v>
@@ -18010,7 +18010,7 @@
         <v>3</v>
       </c>
       <c r="J197" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K197">
         <v>2.75</v>
@@ -18099,7 +18099,7 @@
         <v>3</v>
       </c>
       <c r="J198" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K198">
         <v>2.875</v>
@@ -18176,10 +18176,10 @@
         <v>45117.60416666666</v>
       </c>
       <c r="F199" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G199" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H199">
         <v>0</v>
@@ -18277,7 +18277,7 @@
         <v>1</v>
       </c>
       <c r="J200" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K200">
         <v>3.4</v>
@@ -18354,7 +18354,7 @@
         <v>45117.60416666666</v>
       </c>
       <c r="F201" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G201" t="s">
         <v>35</v>
@@ -18366,7 +18366,7 @@
         <v>1</v>
       </c>
       <c r="J201" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K201">
         <v>2.7</v>
@@ -18446,7 +18446,7 @@
         <v>46</v>
       </c>
       <c r="G202" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H202">
         <v>1</v>
@@ -18455,7 +18455,7 @@
         <v>0</v>
       </c>
       <c r="J202" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K202">
         <v>2.05</v>
@@ -18544,7 +18544,7 @@
         <v>1</v>
       </c>
       <c r="J203" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K203">
         <v>2.3</v>
@@ -18624,7 +18624,7 @@
         <v>31</v>
       </c>
       <c r="G204" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H204">
         <v>0</v>
@@ -18722,7 +18722,7 @@
         <v>1</v>
       </c>
       <c r="J205" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K205">
         <v>1.615</v>
@@ -18787,7 +18787,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6853132</v>
+        <v>6853133</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18799,58 +18799,58 @@
         <v>45121.60416666666</v>
       </c>
       <c r="F206" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G206" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I206">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J206" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K206">
-        <v>5.5</v>
+        <v>1.727</v>
       </c>
       <c r="L206">
         <v>3.25</v>
       </c>
       <c r="M206">
+        <v>4.5</v>
+      </c>
+      <c r="N206">
         <v>1.6</v>
       </c>
-      <c r="N206">
-        <v>4.5</v>
-      </c>
       <c r="O206">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P206">
-        <v>1.666</v>
+        <v>5.5</v>
       </c>
       <c r="Q206">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R206">
+        <v>1.975</v>
+      </c>
+      <c r="S206">
         <v>1.825</v>
       </c>
-      <c r="S206">
-        <v>1.975</v>
-      </c>
       <c r="T206">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U206">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V206">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W206">
-        <v>3.5</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X206">
         <v>-1</v>
@@ -18859,13 +18859,13 @@
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA206">
         <v>-1</v>
       </c>
       <c r="AB206">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC206">
         <v>-1</v>
@@ -18876,7 +18876,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6853133</v>
+        <v>6853141</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18888,49 +18888,49 @@
         <v>45121.60416666666</v>
       </c>
       <c r="F207" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G207" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="H207">
+        <v>2</v>
+      </c>
+      <c r="I207">
         <v>4</v>
-      </c>
-      <c r="I207">
-        <v>2</v>
       </c>
       <c r="J207" t="s">
         <v>50</v>
       </c>
       <c r="K207">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L207">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="M207">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N207">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="O207">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="P207">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="Q207">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R207">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S207">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T207">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U207">
         <v>1.9</v>
@@ -18939,19 +18939,19 @@
         <v>1.9</v>
       </c>
       <c r="W207">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X207">
         <v>-1</v>
       </c>
       <c r="Y207">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z207">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA207">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB207">
         <v>0.8999999999999999</v>
@@ -18965,7 +18965,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6853143</v>
+        <v>6853132</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18980,55 +18980,55 @@
         <v>44</v>
       </c>
       <c r="G208" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H208">
+        <v>2</v>
+      </c>
+      <c r="I208">
         <v>1</v>
       </c>
-      <c r="I208">
-        <v>0</v>
-      </c>
       <c r="J208" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K208">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
       <c r="L208">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="M208">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="N208">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="O208">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="P208">
-        <v>2.9</v>
+        <v>1.666</v>
       </c>
       <c r="Q208">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R208">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="S208">
-        <v>2.075</v>
+        <v>1.975</v>
       </c>
       <c r="T208">
         <v>2.25</v>
       </c>
       <c r="U208">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V208">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W208">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="X208">
         <v>-1</v>
@@ -19037,16 +19037,16 @@
         <v>-1</v>
       </c>
       <c r="Z208">
-        <v>0.7250000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA208">
         <v>-1</v>
       </c>
       <c r="AB208">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC208">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19054,7 +19054,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6853141</v>
+        <v>6853143</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19066,46 +19066,46 @@
         <v>45121.60416666666</v>
       </c>
       <c r="F209" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G209" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I209">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J209" t="s">
         <v>51</v>
       </c>
       <c r="K209">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="L209">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="M209">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="N209">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O209">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="P209">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Q209">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R209">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="S209">
-        <v>1.8</v>
+        <v>2.075</v>
       </c>
       <c r="T209">
         <v>2.25</v>
@@ -19117,25 +19117,25 @@
         <v>1.9</v>
       </c>
       <c r="W209">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X209">
         <v>-1</v>
       </c>
       <c r="Y209">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z209">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA209">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB209">
+        <v>-1</v>
+      </c>
+      <c r="AC209">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC209">
-        <v>-1</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19167,7 +19167,7 @@
         <v>1</v>
       </c>
       <c r="J210" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K210">
         <v>2</v>
@@ -19256,7 +19256,7 @@
         <v>0</v>
       </c>
       <c r="J211" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K211">
         <v>2.9</v>
@@ -19345,7 +19345,7 @@
         <v>1</v>
       </c>
       <c r="J212" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K212">
         <v>2.1</v>
@@ -19422,7 +19422,7 @@
         <v>45123.54166666666</v>
       </c>
       <c r="F213" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G213" t="s">
         <v>32</v>
@@ -19434,7 +19434,7 @@
         <v>4</v>
       </c>
       <c r="J213" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K213">
         <v>6</v>
@@ -19603,7 +19603,7 @@
         <v>32</v>
       </c>
       <c r="G215" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H215">
         <v>1</v>
@@ -19701,7 +19701,7 @@
         <v>0</v>
       </c>
       <c r="J216" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K216">
         <v>3.25</v>
@@ -19870,7 +19870,7 @@
         <v>46</v>
       </c>
       <c r="G218" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H218">
         <v>2</v>
@@ -19879,7 +19879,7 @@
         <v>0</v>
       </c>
       <c r="J218" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K218">
         <v>2.375</v>
@@ -19968,7 +19968,7 @@
         <v>0</v>
       </c>
       <c r="J219" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K219">
         <v>2.7</v>
@@ -20057,7 +20057,7 @@
         <v>4</v>
       </c>
       <c r="J220" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K220">
         <v>6</v>
@@ -20134,7 +20134,7 @@
         <v>45189.41666666666</v>
       </c>
       <c r="F221" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G221" t="s">
         <v>38</v>
@@ -20146,7 +20146,7 @@
         <v>0</v>
       </c>
       <c r="J221" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K221">
         <v>2.45</v>
@@ -20223,7 +20223,7 @@
         <v>45189.54166666666</v>
       </c>
       <c r="F222" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G222" t="s">
         <v>48</v>
@@ -20235,7 +20235,7 @@
         <v>2</v>
       </c>
       <c r="J222" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K222">
         <v>2.5</v>
@@ -20413,7 +20413,7 @@
         <v>2</v>
       </c>
       <c r="J224" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K224">
         <v>2.9</v>
@@ -20502,7 +20502,7 @@
         <v>0</v>
       </c>
       <c r="J225" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K225">
         <v>2.8</v>
@@ -20668,7 +20668,7 @@
         <v>45194.41666666666</v>
       </c>
       <c r="F227" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G227" t="s">
         <v>40</v>
@@ -20680,7 +20680,7 @@
         <v>1</v>
       </c>
       <c r="J227" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K227">
         <v>5</v>
@@ -20760,7 +20760,7 @@
         <v>39</v>
       </c>
       <c r="G228" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H228">
         <v>1</v>
@@ -20858,7 +20858,7 @@
         <v>2</v>
       </c>
       <c r="J229" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K229">
         <v>2.25</v>
@@ -20938,7 +20938,7 @@
         <v>36</v>
       </c>
       <c r="G230" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H230">
         <v>2</v>
@@ -20947,7 +20947,7 @@
         <v>1</v>
       </c>
       <c r="J230" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K230">
         <v>1.666</v>
@@ -21125,7 +21125,7 @@
         <v>1</v>
       </c>
       <c r="J232" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K232">
         <v>2.4</v>
@@ -21214,7 +21214,7 @@
         <v>0</v>
       </c>
       <c r="J233" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K233">
         <v>1.95</v>
@@ -21303,7 +21303,7 @@
         <v>1</v>
       </c>
       <c r="J234" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K234">
         <v>2.35</v>
@@ -21472,7 +21472,7 @@
         <v>45</v>
       </c>
       <c r="G236" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H236">
         <v>2</v>
@@ -21481,7 +21481,7 @@
         <v>1</v>
       </c>
       <c r="J236" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K236">
         <v>2.5</v>
@@ -21739,7 +21739,7 @@
         <v>42</v>
       </c>
       <c r="G239" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H239">
         <v>3</v>
@@ -21748,7 +21748,7 @@
         <v>1</v>
       </c>
       <c r="J239" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K239">
         <v>1.909</v>
@@ -21837,7 +21837,7 @@
         <v>2</v>
       </c>
       <c r="J240" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K240">
         <v>3</v>
@@ -21914,7 +21914,7 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F241" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G241" t="s">
         <v>39</v>
@@ -21926,7 +21926,7 @@
         <v>2</v>
       </c>
       <c r="J241" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K241">
         <v>4</v>
@@ -22015,7 +22015,7 @@
         <v>1</v>
       </c>
       <c r="J242" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K242">
         <v>1.25</v>
@@ -22104,7 +22104,7 @@
         <v>0</v>
       </c>
       <c r="J243" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K243">
         <v>1.444</v>
@@ -22193,7 +22193,7 @@
         <v>0</v>
       </c>
       <c r="J244" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K244">
         <v>2.1</v>
@@ -22273,7 +22273,7 @@
         <v>41</v>
       </c>
       <c r="G245" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H245">
         <v>4</v>
@@ -22282,7 +22282,7 @@
         <v>0</v>
       </c>
       <c r="J245" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K245">
         <v>1.65</v>
@@ -22436,7 +22436,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>7217629</v>
+        <v>7217630</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22448,58 +22448,58 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F247" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G247" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H247">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I247">
         <v>1</v>
       </c>
       <c r="J247" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K247">
-        <v>2.4</v>
+        <v>1.65</v>
       </c>
       <c r="L247">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="M247">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="N247">
+        <v>1.909</v>
+      </c>
+      <c r="O247">
+        <v>3.25</v>
+      </c>
+      <c r="P247">
+        <v>3.6</v>
+      </c>
+      <c r="Q247">
+        <v>-0.5</v>
+      </c>
+      <c r="R247">
+        <v>1.925</v>
+      </c>
+      <c r="S247">
+        <v>1.875</v>
+      </c>
+      <c r="T247">
         <v>2.5</v>
       </c>
-      <c r="O247">
-        <v>2.8</v>
-      </c>
-      <c r="P247">
-        <v>2.9</v>
-      </c>
-      <c r="Q247">
-        <v>0</v>
-      </c>
-      <c r="R247">
-        <v>1.8</v>
-      </c>
-      <c r="S247">
-        <v>2</v>
-      </c>
-      <c r="T247">
-        <v>2</v>
-      </c>
       <c r="U247">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V247">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W247">
-        <v>1.5</v>
+        <v>0.909</v>
       </c>
       <c r="X247">
         <v>-1</v>
@@ -22508,13 +22508,13 @@
         <v>-1</v>
       </c>
       <c r="Z247">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA247">
         <v>-1</v>
       </c>
       <c r="AB247">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC247">
         <v>-1</v>
@@ -22525,7 +22525,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>7217630</v>
+        <v>7217629</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22537,58 +22537,58 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F248" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G248" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H248">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I248">
         <v>1</v>
       </c>
       <c r="J248" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K248">
-        <v>1.65</v>
+        <v>2.4</v>
       </c>
       <c r="L248">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="M248">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="N248">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="O248">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="P248">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="Q248">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R248">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S248">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T248">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U248">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V248">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W248">
-        <v>0.909</v>
+        <v>1.5</v>
       </c>
       <c r="X248">
         <v>-1</v>
@@ -22597,13 +22597,13 @@
         <v>-1</v>
       </c>
       <c r="Z248">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA248">
         <v>-1</v>
       </c>
       <c r="AB248">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC248">
         <v>-1</v>
@@ -22626,7 +22626,7 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F249" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G249" t="s">
         <v>47</v>
@@ -22727,7 +22727,7 @@
         <v>1</v>
       </c>
       <c r="J250" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K250">
         <v>3.8</v>
@@ -22816,7 +22816,7 @@
         <v>1</v>
       </c>
       <c r="J251" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K251">
         <v>2.5</v>
@@ -22905,7 +22905,7 @@
         <v>3</v>
       </c>
       <c r="J252" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K252">
         <v>1.65</v>
@@ -22994,7 +22994,7 @@
         <v>1</v>
       </c>
       <c r="J253" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K253">
         <v>3.6</v>
@@ -23083,7 +23083,7 @@
         <v>1</v>
       </c>
       <c r="J254" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K254">
         <v>2.2</v>
@@ -23148,7 +23148,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>7217638</v>
+        <v>7217639</v>
       </c>
       <c r="C255" t="s">
         <v>28</v>
@@ -23160,76 +23160,76 @@
         <v>45227.58333333334</v>
       </c>
       <c r="F255" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G255" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H255">
+        <v>1</v>
+      </c>
+      <c r="I255">
+        <v>1</v>
+      </c>
+      <c r="J255" t="s">
+        <v>52</v>
+      </c>
+      <c r="K255">
+        <v>2.1</v>
+      </c>
+      <c r="L255">
         <v>3</v>
       </c>
-      <c r="I255">
-        <v>2</v>
-      </c>
-      <c r="J255" t="s">
-        <v>50</v>
-      </c>
-      <c r="K255">
+      <c r="M255">
+        <v>3.25</v>
+      </c>
+      <c r="N255">
+        <v>1.833</v>
+      </c>
+      <c r="O255">
+        <v>3.2</v>
+      </c>
+      <c r="P255">
+        <v>4</v>
+      </c>
+      <c r="Q255">
+        <v>-0.5</v>
+      </c>
+      <c r="R255">
+        <v>1.9</v>
+      </c>
+      <c r="S255">
+        <v>1.9</v>
+      </c>
+      <c r="T255">
         <v>2.25</v>
       </c>
-      <c r="L255">
-        <v>2.9</v>
-      </c>
-      <c r="M255">
-        <v>3.1</v>
-      </c>
-      <c r="N255">
-        <v>2.45</v>
-      </c>
-      <c r="O255">
-        <v>2.875</v>
-      </c>
-      <c r="P255">
-        <v>2.875</v>
-      </c>
-      <c r="Q255">
-        <v>0</v>
-      </c>
-      <c r="R255">
-        <v>1.725</v>
-      </c>
-      <c r="S255">
-        <v>2.075</v>
-      </c>
-      <c r="T255">
-        <v>2</v>
-      </c>
       <c r="U255">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V255">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W255">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X255">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y255">
         <v>-1</v>
       </c>
       <c r="Z255">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA255">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB255">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC255">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="256" spans="1:29">
@@ -23237,7 +23237,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>7217639</v>
+        <v>7217638</v>
       </c>
       <c r="C256" t="s">
         <v>28</v>
@@ -23249,76 +23249,76 @@
         <v>45227.58333333334</v>
       </c>
       <c r="F256" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G256" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H256">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I256">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J256" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K256">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L256">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M256">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N256">
-        <v>1.833</v>
+        <v>2.45</v>
       </c>
       <c r="O256">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="P256">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="Q256">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R256">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="S256">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="T256">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U256">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V256">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W256">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X256">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y256">
         <v>-1</v>
       </c>
       <c r="Z256">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA256">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB256">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC256">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="257" spans="1:29">
@@ -23350,7 +23350,7 @@
         <v>0</v>
       </c>
       <c r="J257" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K257">
         <v>3</v>
@@ -23427,7 +23427,7 @@
         <v>45229.45833333334</v>
       </c>
       <c r="F258" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G258" t="s">
         <v>35</v>
@@ -23516,7 +23516,7 @@
         <v>45229.58333333334</v>
       </c>
       <c r="F259" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G259" t="s">
         <v>36</v>
@@ -23528,7 +23528,7 @@
         <v>2</v>
       </c>
       <c r="J259" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K259">
         <v>2.9</v>
@@ -23617,7 +23617,7 @@
         <v>1</v>
       </c>
       <c r="J260" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K260">
         <v>2.3</v>
@@ -23682,7 +23682,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>7217646</v>
+        <v>7217647</v>
       </c>
       <c r="C261" t="s">
         <v>28</v>
@@ -23694,46 +23694,46 @@
         <v>45233.58333333334</v>
       </c>
       <c r="F261" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G261" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="H261">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I261">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J261" t="s">
         <v>51</v>
       </c>
       <c r="K261">
-        <v>1.909</v>
+        <v>4.75</v>
       </c>
       <c r="L261">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M261">
-        <v>3.5</v>
+        <v>1.666</v>
       </c>
       <c r="N261">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O261">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P261">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="Q261">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R261">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S261">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T261">
         <v>2.5</v>
@@ -23745,25 +23745,25 @@
         <v>1.825</v>
       </c>
       <c r="W261">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X261">
         <v>-1</v>
       </c>
       <c r="Y261">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z261">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA261">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB261">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC261">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="262" spans="1:29">
@@ -23771,7 +23771,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>7217647</v>
+        <v>7217646</v>
       </c>
       <c r="C262" t="s">
         <v>28</v>
@@ -23783,46 +23783,46 @@
         <v>45233.58333333334</v>
       </c>
       <c r="F262" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G262" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I262">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J262" t="s">
         <v>50</v>
       </c>
       <c r="K262">
-        <v>4.75</v>
+        <v>1.909</v>
       </c>
       <c r="L262">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M262">
-        <v>1.666</v>
+        <v>3.5</v>
       </c>
       <c r="N262">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O262">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P262">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q262">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R262">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S262">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T262">
         <v>2.5</v>
@@ -23834,25 +23834,25 @@
         <v>1.825</v>
       </c>
       <c r="W262">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X262">
         <v>-1</v>
       </c>
       <c r="Y262">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z262">
+        <v>-1</v>
+      </c>
+      <c r="AA262">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB262">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA262">
-        <v>-1</v>
-      </c>
-      <c r="AB262">
-        <v>-1</v>
-      </c>
       <c r="AC262">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="263" spans="1:29">
@@ -23875,7 +23875,7 @@
         <v>49</v>
       </c>
       <c r="G263" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H263">
         <v>2</v>
@@ -23884,7 +23884,7 @@
         <v>0</v>
       </c>
       <c r="J263" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K263">
         <v>1.909</v>
@@ -23949,7 +23949,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>7217649</v>
+        <v>7217650</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -23961,13 +23961,13 @@
         <v>45234.58333333334</v>
       </c>
       <c r="F264" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="G264" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H264">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I264">
         <v>2</v>
@@ -23976,58 +23976,58 @@
         <v>51</v>
       </c>
       <c r="K264">
-        <v>7.5</v>
+        <v>2.55</v>
       </c>
       <c r="L264">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M264">
-        <v>1.363</v>
+        <v>2.6</v>
       </c>
       <c r="N264">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="O264">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="P264">
-        <v>1.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q264">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R264">
+        <v>1.925</v>
+      </c>
+      <c r="S264">
         <v>1.875</v>
       </c>
-      <c r="S264">
+      <c r="T264">
+        <v>2</v>
+      </c>
+      <c r="U264">
         <v>1.925</v>
       </c>
-      <c r="T264">
-        <v>2.25</v>
-      </c>
-      <c r="U264">
+      <c r="V264">
         <v>1.875</v>
       </c>
-      <c r="V264">
-        <v>1.925</v>
-      </c>
       <c r="W264">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X264">
         <v>-1</v>
       </c>
       <c r="Y264">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z264">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA264">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB264">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC264">
         <v>-1</v>
@@ -24038,7 +24038,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>7217650</v>
+        <v>7217649</v>
       </c>
       <c r="C265" t="s">
         <v>28</v>
@@ -24050,13 +24050,13 @@
         <v>45234.58333333334</v>
       </c>
       <c r="F265" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="G265" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H265">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I265">
         <v>2</v>
@@ -24065,58 +24065,58 @@
         <v>50</v>
       </c>
       <c r="K265">
-        <v>2.55</v>
+        <v>7.5</v>
       </c>
       <c r="L265">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M265">
-        <v>2.6</v>
+        <v>1.363</v>
       </c>
       <c r="N265">
-        <v>2.7</v>
+        <v>6</v>
       </c>
       <c r="O265">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="P265">
-        <v>2.625</v>
+        <v>1.5</v>
       </c>
       <c r="Q265">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R265">
+        <v>1.875</v>
+      </c>
+      <c r="S265">
         <v>1.925</v>
       </c>
-      <c r="S265">
+      <c r="T265">
+        <v>2.25</v>
+      </c>
+      <c r="U265">
         <v>1.875</v>
       </c>
-      <c r="T265">
-        <v>2</v>
-      </c>
-      <c r="U265">
+      <c r="V265">
         <v>1.925</v>
       </c>
-      <c r="V265">
-        <v>1.875</v>
-      </c>
       <c r="W265">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X265">
         <v>-1</v>
       </c>
       <c r="Y265">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z265">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA265">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB265">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC265">
         <v>-1</v>
@@ -24127,7 +24127,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>7217652</v>
+        <v>7217651</v>
       </c>
       <c r="C266" t="s">
         <v>28</v>
@@ -24139,55 +24139,55 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F266" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G266" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J266" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K266">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L266">
         <v>2.9</v>
       </c>
       <c r="M266">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="N266">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="O266">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="P266">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="Q266">
         <v>-0.25</v>
       </c>
       <c r="R266">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S266">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="T266">
         <v>2</v>
       </c>
       <c r="U266">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V266">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W266">
         <v>-1</v>
@@ -24196,19 +24196,19 @@
         <v>-1</v>
       </c>
       <c r="Y266">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="Z266">
         <v>-1</v>
       </c>
       <c r="AA266">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="AB266">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC266">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="267" spans="1:29">
@@ -24216,7 +24216,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>7217651</v>
+        <v>7217652</v>
       </c>
       <c r="C267" t="s">
         <v>28</v>
@@ -24228,55 +24228,55 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F267" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G267" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J267" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K267">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L267">
         <v>2.9</v>
       </c>
       <c r="M267">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N267">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="O267">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="P267">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Q267">
         <v>-0.25</v>
       </c>
       <c r="R267">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S267">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="T267">
         <v>2</v>
       </c>
       <c r="U267">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V267">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W267">
         <v>-1</v>
@@ -24285,19 +24285,19 @@
         <v>-1</v>
       </c>
       <c r="Y267">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="Z267">
         <v>-1</v>
       </c>
       <c r="AA267">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="AB267">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC267">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="268" spans="1:29">
@@ -24320,7 +24320,7 @@
         <v>42</v>
       </c>
       <c r="G268" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H268">
         <v>0</v>
@@ -24329,7 +24329,7 @@
         <v>4</v>
       </c>
       <c r="J268" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K268">
         <v>1.95</v>
@@ -24418,7 +24418,7 @@
         <v>2</v>
       </c>
       <c r="J269" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K269">
         <v>5.5</v>
@@ -24596,7 +24596,7 @@
         <v>1</v>
       </c>
       <c r="J271" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K271">
         <v>1.4</v>
@@ -24774,7 +24774,7 @@
         <v>2</v>
       </c>
       <c r="J273" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K273">
         <v>2.9</v>
@@ -24928,7 +24928,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>7217659</v>
+        <v>7217658</v>
       </c>
       <c r="C275" t="s">
         <v>28</v>
@@ -24940,10 +24940,10 @@
         <v>45260.58333333334</v>
       </c>
       <c r="F275" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G275" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="H275">
         <v>1</v>
@@ -24955,55 +24955,55 @@
         <v>52</v>
       </c>
       <c r="K275">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L275">
+        <v>2.875</v>
+      </c>
+      <c r="M275">
+        <v>3.5</v>
+      </c>
+      <c r="N275">
+        <v>2.15</v>
+      </c>
+      <c r="O275">
         <v>2.8</v>
       </c>
-      <c r="M275">
-        <v>2.8</v>
-      </c>
-      <c r="N275">
-        <v>2.6</v>
-      </c>
-      <c r="O275">
-        <v>2.7</v>
-      </c>
       <c r="P275">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q275">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R275">
+        <v>1.85</v>
+      </c>
+      <c r="S275">
+        <v>1.95</v>
+      </c>
+      <c r="T275">
+        <v>2</v>
+      </c>
+      <c r="U275">
         <v>1.825</v>
       </c>
-      <c r="S275">
+      <c r="V275">
         <v>1.975</v>
       </c>
-      <c r="T275">
-        <v>2</v>
-      </c>
-      <c r="U275">
-        <v>2</v>
-      </c>
-      <c r="V275">
+      <c r="W275">
+        <v>-1</v>
+      </c>
+      <c r="X275">
         <v>1.8</v>
       </c>
-      <c r="W275">
-        <v>-1</v>
-      </c>
-      <c r="X275">
-        <v>1.7</v>
-      </c>
       <c r="Y275">
         <v>-1</v>
       </c>
       <c r="Z275">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA275">
-        <v>-0</v>
+        <v>0.475</v>
       </c>
       <c r="AB275">
         <v>0</v>
@@ -25017,7 +25017,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>7217658</v>
+        <v>7217659</v>
       </c>
       <c r="C276" t="s">
         <v>28</v>
@@ -25029,10 +25029,10 @@
         <v>45260.58333333334</v>
       </c>
       <c r="F276" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G276" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="H276">
         <v>1</v>
@@ -25044,55 +25044,55 @@
         <v>52</v>
       </c>
       <c r="K276">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L276">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="M276">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="N276">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="O276">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="P276">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q276">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R276">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S276">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T276">
         <v>2</v>
       </c>
       <c r="U276">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V276">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W276">
         <v>-1</v>
       </c>
       <c r="X276">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="Y276">
         <v>-1</v>
       </c>
       <c r="Z276">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA276">
-        <v>0.475</v>
+        <v>-0</v>
       </c>
       <c r="AB276">
         <v>0</v>
@@ -25118,7 +25118,7 @@
         <v>45261.45833333334</v>
       </c>
       <c r="F277" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G277" t="s">
         <v>48</v>
@@ -25219,7 +25219,7 @@
         <v>1</v>
       </c>
       <c r="J278" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K278">
         <v>2.625</v>
@@ -25296,7 +25296,7 @@
         <v>45261.58333333334</v>
       </c>
       <c r="F279" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G279" t="s">
         <v>41</v>
@@ -25308,7 +25308,7 @@
         <v>1</v>
       </c>
       <c r="J279" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K279">
         <v>2.75</v>
@@ -25397,7 +25397,7 @@
         <v>1</v>
       </c>
       <c r="J280" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K280">
         <v>2.25</v>
@@ -25486,7 +25486,7 @@
         <v>2</v>
       </c>
       <c r="J281" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K281">
         <v>2.6</v>
@@ -25551,7 +25551,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>7217666</v>
+        <v>7217665</v>
       </c>
       <c r="C282" t="s">
         <v>28</v>
@@ -25563,58 +25563,58 @@
         <v>45265.58333333334</v>
       </c>
       <c r="F282" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G282" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H282">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I282">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J282" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K282">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="L282">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M282">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="N282">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O282">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="P282">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="Q282">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R282">
+        <v>2.025</v>
+      </c>
+      <c r="S282">
+        <v>1.775</v>
+      </c>
+      <c r="T282">
+        <v>2.25</v>
+      </c>
+      <c r="U282">
         <v>1.95</v>
       </c>
-      <c r="S282">
+      <c r="V282">
         <v>1.85</v>
       </c>
-      <c r="T282">
-        <v>2</v>
-      </c>
-      <c r="U282">
-        <v>1.75</v>
-      </c>
-      <c r="V282">
-        <v>2.05</v>
-      </c>
       <c r="W282">
-        <v>0.909</v>
+        <v>1.375</v>
       </c>
       <c r="X282">
         <v>-1</v>
@@ -25623,13 +25623,13 @@
         <v>-1</v>
       </c>
       <c r="Z282">
+        <v>1.025</v>
+      </c>
+      <c r="AA282">
+        <v>-1</v>
+      </c>
+      <c r="AB282">
         <v>0.95</v>
-      </c>
-      <c r="AA282">
-        <v>-1</v>
-      </c>
-      <c r="AB282">
-        <v>0.75</v>
       </c>
       <c r="AC282">
         <v>-1</v>
@@ -25640,7 +25640,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>7217665</v>
+        <v>7217666</v>
       </c>
       <c r="C283" t="s">
         <v>28</v>
@@ -25652,58 +25652,58 @@
         <v>45265.58333333334</v>
       </c>
       <c r="F283" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G283" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I283">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J283" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K283">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="L283">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M283">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="N283">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="O283">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="P283">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="Q283">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R283">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S283">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T283">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U283">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="V283">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W283">
-        <v>1.375</v>
+        <v>0.909</v>
       </c>
       <c r="X283">
         <v>-1</v>
@@ -25712,13 +25712,13 @@
         <v>-1</v>
       </c>
       <c r="Z283">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AA283">
         <v>-1</v>
       </c>
       <c r="AB283">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AC283">
         <v>-1</v>
@@ -25741,10 +25741,10 @@
         <v>45266.58333333334</v>
       </c>
       <c r="F284" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G284" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H284">
         <v>0</v>
@@ -25818,7 +25818,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>7217678</v>
+        <v>7217675</v>
       </c>
       <c r="C285" t="s">
         <v>28</v>
@@ -25830,76 +25830,76 @@
         <v>45274.45833333334</v>
       </c>
       <c r="F285" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G285" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H285">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I285">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J285" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K285">
+        <v>2.5</v>
+      </c>
+      <c r="L285">
+        <v>2.8</v>
+      </c>
+      <c r="M285">
+        <v>2.8</v>
+      </c>
+      <c r="N285">
+        <v>2.4</v>
+      </c>
+      <c r="O285">
         <v>2.875</v>
       </c>
-      <c r="L285">
+      <c r="P285">
         <v>3</v>
       </c>
-      <c r="M285">
-        <v>2.4</v>
-      </c>
-      <c r="N285">
-        <v>3</v>
-      </c>
-      <c r="O285">
-        <v>3</v>
-      </c>
-      <c r="P285">
-        <v>2.25</v>
-      </c>
       <c r="Q285">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R285">
+        <v>2.05</v>
+      </c>
+      <c r="S285">
         <v>1.75</v>
       </c>
-      <c r="S285">
-        <v>2.05</v>
-      </c>
       <c r="T285">
         <v>2</v>
       </c>
       <c r="U285">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V285">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W285">
         <v>-1</v>
       </c>
       <c r="X285">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y285">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z285">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AA285">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AB285">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC285">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="286" spans="1:29">
@@ -25907,7 +25907,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>7217675</v>
+        <v>7217678</v>
       </c>
       <c r="C286" t="s">
         <v>28</v>
@@ -25919,76 +25919,76 @@
         <v>45274.45833333334</v>
       </c>
       <c r="F286" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G286" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I286">
+        <v>1</v>
+      </c>
+      <c r="J286" t="s">
+        <v>52</v>
+      </c>
+      <c r="K286">
+        <v>2.875</v>
+      </c>
+      <c r="L286">
         <v>3</v>
       </c>
-      <c r="J286" t="s">
-        <v>51</v>
-      </c>
-      <c r="K286">
-        <v>2.5</v>
-      </c>
-      <c r="L286">
-        <v>2.8</v>
-      </c>
       <c r="M286">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="N286">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="O286">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P286">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="Q286">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R286">
+        <v>1.75</v>
+      </c>
+      <c r="S286">
         <v>2.05</v>
       </c>
-      <c r="S286">
-        <v>1.75</v>
-      </c>
       <c r="T286">
         <v>2</v>
       </c>
       <c r="U286">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V286">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W286">
         <v>-1</v>
       </c>
       <c r="X286">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y286">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z286">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AA286">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AB286">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC286">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="287" spans="1:29">
@@ -26109,7 +26109,7 @@
         <v>0</v>
       </c>
       <c r="J288" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K288">
         <v>2.3</v>
@@ -26186,7 +26186,7 @@
         <v>45275.45833333334</v>
       </c>
       <c r="F289" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G289" t="s">
         <v>45</v>
@@ -26263,7 +26263,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>7549592</v>
+        <v>7549591</v>
       </c>
       <c r="C290" t="s">
         <v>28</v>
@@ -26275,10 +26275,10 @@
         <v>45275.54166666666</v>
       </c>
       <c r="F290" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G290" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H290">
         <v>1</v>
@@ -26287,43 +26287,43 @@
         <v>2</v>
       </c>
       <c r="J290" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K290">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="L290">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="M290">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="N290">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="O290">
         <v>2.75</v>
       </c>
       <c r="P290">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q290">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R290">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="S290">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="T290">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U290">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V290">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W290">
         <v>-1</v>
@@ -26332,16 +26332,16 @@
         <v>-1</v>
       </c>
       <c r="Y290">
-        <v>2.5</v>
+        <v>1.45</v>
       </c>
       <c r="Z290">
         <v>-1</v>
       </c>
       <c r="AA290">
-        <v>0.8999999999999999</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AB290">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC290">
         <v>-1</v>
@@ -26352,7 +26352,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>7549591</v>
+        <v>7549592</v>
       </c>
       <c r="C291" t="s">
         <v>28</v>
@@ -26364,10 +26364,10 @@
         <v>45275.54166666666</v>
       </c>
       <c r="F291" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G291" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="H291">
         <v>1</v>
@@ -26376,43 +26376,43 @@
         <v>2</v>
       </c>
       <c r="J291" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K291">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="L291">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="M291">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="N291">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="O291">
         <v>2.75</v>
       </c>
       <c r="P291">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="Q291">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R291">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="S291">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="T291">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U291">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V291">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W291">
         <v>-1</v>
@@ -26421,16 +26421,16 @@
         <v>-1</v>
       </c>
       <c r="Y291">
-        <v>1.45</v>
+        <v>2.5</v>
       </c>
       <c r="Z291">
         <v>-1</v>
       </c>
       <c r="AA291">
-        <v>0.7250000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB291">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC291">
         <v>-1</v>
@@ -26465,7 +26465,7 @@
         <v>0</v>
       </c>
       <c r="J292" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K292">
         <v>2.45</v>
@@ -26554,7 +26554,7 @@
         <v>2</v>
       </c>
       <c r="J293" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K293">
         <v>2.1</v>
@@ -26634,7 +26634,7 @@
         <v>48</v>
       </c>
       <c r="G294" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H294">
         <v>0</v>
@@ -26643,7 +26643,7 @@
         <v>2</v>
       </c>
       <c r="J294" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K294">
         <v>1.909</v>
@@ -26732,7 +26732,7 @@
         <v>1</v>
       </c>
       <c r="J295" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K295">
         <v>1.95</v>
@@ -26812,7 +26812,7 @@
         <v>47</v>
       </c>
       <c r="G296" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H296">
         <v>3</v>
@@ -26821,7 +26821,7 @@
         <v>1</v>
       </c>
       <c r="J296" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K296">
         <v>1.571</v>
@@ -26910,7 +26910,7 @@
         <v>0</v>
       </c>
       <c r="J297" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K297">
         <v>2.6</v>
@@ -26987,10 +26987,10 @@
         <v>45290.45833333334</v>
       </c>
       <c r="F298" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G298" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H298">
         <v>3</v>
@@ -26999,7 +26999,7 @@
         <v>1</v>
       </c>
       <c r="J298" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K298">
         <v>2.4</v>
@@ -27088,7 +27088,7 @@
         <v>0</v>
       </c>
       <c r="J299" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K299">
         <v>2.1</v>
@@ -27177,7 +27177,7 @@
         <v>0</v>
       </c>
       <c r="J300" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K300">
         <v>2.9</v>
@@ -27254,7 +27254,7 @@
         <v>45292.45833333334</v>
       </c>
       <c r="F301" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G301" t="s">
         <v>31</v>
@@ -27266,7 +27266,7 @@
         <v>1</v>
       </c>
       <c r="J301" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K301">
         <v>3.25</v>
@@ -27524,7 +27524,7 @@
         <v>45</v>
       </c>
       <c r="G304" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H304">
         <v>1</v>
@@ -27598,7 +27598,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>7217702</v>
+        <v>7217701</v>
       </c>
       <c r="C305" t="s">
         <v>28</v>
@@ -27610,76 +27610,76 @@
         <v>45336.45833333334</v>
       </c>
       <c r="F305" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G305" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J305" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K305">
+        <v>2.375</v>
+      </c>
+      <c r="L305">
         <v>2.9</v>
       </c>
-      <c r="L305">
+      <c r="M305">
         <v>3</v>
       </c>
-      <c r="M305">
-        <v>2.375</v>
-      </c>
       <c r="N305">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="O305">
+        <v>3</v>
+      </c>
+      <c r="P305">
         <v>2.8</v>
       </c>
-      <c r="P305">
-        <v>2.5</v>
-      </c>
       <c r="Q305">
         <v>0</v>
       </c>
       <c r="R305">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S305">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T305">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U305">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V305">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W305">
         <v>-1</v>
       </c>
       <c r="X305">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y305">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z305">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA305">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB305">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC305">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="306" spans="1:29">
@@ -27687,7 +27687,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>7217701</v>
+        <v>7217702</v>
       </c>
       <c r="C306" t="s">
         <v>28</v>
@@ -27699,76 +27699,76 @@
         <v>45336.45833333334</v>
       </c>
       <c r="F306" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G306" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J306" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K306">
+        <v>2.9</v>
+      </c>
+      <c r="L306">
+        <v>3</v>
+      </c>
+      <c r="M306">
         <v>2.375</v>
       </c>
-      <c r="L306">
-        <v>2.9</v>
-      </c>
-      <c r="M306">
-        <v>3</v>
-      </c>
       <c r="N306">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="O306">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P306">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="Q306">
         <v>0</v>
       </c>
       <c r="R306">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S306">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T306">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U306">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V306">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W306">
         <v>-1</v>
       </c>
       <c r="X306">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y306">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z306">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA306">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB306">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC306">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="307" spans="1:29">
@@ -27889,7 +27889,7 @@
         <v>0</v>
       </c>
       <c r="J308" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K308">
         <v>4.75</v>
@@ -27978,7 +27978,7 @@
         <v>1</v>
       </c>
       <c r="J309" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K309">
         <v>3</v>
@@ -28055,7 +28055,7 @@
         <v>45340.45833333334</v>
       </c>
       <c r="F310" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G310" t="s">
         <v>47</v>
@@ -28245,7 +28245,7 @@
         <v>0</v>
       </c>
       <c r="J312" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K312">
         <v>1.444</v>
@@ -28325,7 +28325,7 @@
         <v>36</v>
       </c>
       <c r="G313" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H313">
         <v>2</v>
@@ -28505,6 +28505,15 @@
       <c r="G315" t="s">
         <v>49</v>
       </c>
+      <c r="H315">
+        <v>1</v>
+      </c>
+      <c r="I315">
+        <v>1</v>
+      </c>
+      <c r="J315" t="s">
+        <v>52</v>
+      </c>
       <c r="K315">
         <v>1.833</v>
       </c>
@@ -28515,46 +28524,52 @@
         <v>4.5</v>
       </c>
       <c r="N315">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="O315">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P315">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q315">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R315">
+        <v>2</v>
+      </c>
+      <c r="S315">
         <v>1.8</v>
       </c>
-      <c r="S315">
-        <v>2</v>
-      </c>
       <c r="T315">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U315">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V315">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W315">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X315">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="Y315">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z315">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA315">
-        <v>0</v>
+        <v>0.8</v>
+      </c>
+      <c r="AB315">
+        <v>-1</v>
+      </c>
+      <c r="AC315">
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:29">
@@ -28579,6 +28594,15 @@
       <c r="G316" t="s">
         <v>48</v>
       </c>
+      <c r="H316">
+        <v>3</v>
+      </c>
+      <c r="I316">
+        <v>0</v>
+      </c>
+      <c r="J316" t="s">
+        <v>51</v>
+      </c>
       <c r="K316">
         <v>1.615</v>
       </c>
@@ -28589,46 +28613,52 @@
         <v>5.75</v>
       </c>
       <c r="N316">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="O316">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P316">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="Q316">
         <v>-0.75</v>
       </c>
       <c r="R316">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S316">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T316">
         <v>2.25</v>
       </c>
       <c r="U316">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V316">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W316">
-        <v>0</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X316">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y316">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z316">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA316">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB316">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC316">
+        <v>-1</v>
       </c>
     </row>
     <row r="317" spans="1:29">
@@ -28648,11 +28678,20 @@
         <v>45342.58333333334</v>
       </c>
       <c r="F317" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G317" t="s">
         <v>37</v>
       </c>
+      <c r="H317">
+        <v>1</v>
+      </c>
+      <c r="I317">
+        <v>1</v>
+      </c>
+      <c r="J317" t="s">
+        <v>52</v>
+      </c>
       <c r="K317">
         <v>3</v>
       </c>
@@ -28663,46 +28702,52 @@
         <v>2.5</v>
       </c>
       <c r="N317">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O317">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="P317">
         <v>2.5</v>
       </c>
       <c r="Q317">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R317">
-        <v>2.075</v>
+        <v>1.75</v>
       </c>
       <c r="S317">
-        <v>1.725</v>
+        <v>2.05</v>
       </c>
       <c r="T317">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U317">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V317">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="W317">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X317">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="Y317">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z317">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="AA317">
-        <v>0</v>
+        <v>-0.5</v>
+      </c>
+      <c r="AB317">
+        <v>0.4625</v>
+      </c>
+      <c r="AC317">
+        <v>-0.5</v>
       </c>
     </row>
   </sheetData>

--- a/Egypt Division 1/Egypt Division 1.xlsx
+++ b/Egypt Division 1/Egypt Division 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1616" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1621" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -103,10 +103,10 @@
     <t>Egypt Division 1</t>
   </si>
   <si>
-    <t>El Daklyeh</t>
+    <t>Aswan FC</t>
   </si>
   <si>
-    <t>Aswan FC</t>
+    <t>El Daklyeh</t>
   </si>
   <si>
     <t>Al Ittihad Al Sakandary</t>
@@ -166,10 +166,10 @@
     <t>El Gounah</t>
   </si>
   <si>
-    <t>A</t>
+    <t>H</t>
   </si>
   <si>
-    <t>H</t>
+    <t>A</t>
   </si>
   <si>
     <t>D</t>
@@ -534,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC319"/>
+  <dimension ref="A1:AC320"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -631,7 +631,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5774048</v>
+        <v>5774677</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -646,10 +646,10 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -658,25 +658,25 @@
         <v>50</v>
       </c>
       <c r="K2">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="L2">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M2">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="N2">
         <v>4.5</v>
       </c>
       <c r="O2">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="P2">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="Q2">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R2">
         <v>1.85</v>
@@ -685,34 +685,34 @@
         <v>1.95</v>
       </c>
       <c r="T2">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U2">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V2">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W2">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="X2">
         <v>-1</v>
       </c>
       <c r="Y2">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z2">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA2">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB2">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC2">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -720,7 +720,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5774677</v>
+        <v>5774048</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -735,10 +735,10 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -747,25 +747,25 @@
         <v>51</v>
       </c>
       <c r="K3">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="L3">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M3">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="N3">
         <v>4.5</v>
       </c>
       <c r="O3">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="P3">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="Q3">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R3">
         <v>1.85</v>
@@ -774,34 +774,34 @@
         <v>1.95</v>
       </c>
       <c r="T3">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U3">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V3">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W3">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X3">
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z3">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB3">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -833,7 +833,7 @@
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K4">
         <v>1.833</v>
@@ -922,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -1011,7 +1011,7 @@
         <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K6">
         <v>2.625</v>
@@ -1100,7 +1100,7 @@
         <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K7">
         <v>1.727</v>
@@ -1456,7 +1456,7 @@
         <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K11">
         <v>7.5</v>
@@ -1536,7 +1536,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1634,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K13">
         <v>1.4</v>
@@ -1723,7 +1723,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K14">
         <v>2.15</v>
@@ -1812,7 +1812,7 @@
         <v>3</v>
       </c>
       <c r="J15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K15">
         <v>2.9</v>
@@ -1892,7 +1892,7 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1990,7 +1990,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K17">
         <v>3.4</v>
@@ -2079,7 +2079,7 @@
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K18">
         <v>2.1</v>
@@ -2168,7 +2168,7 @@
         <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K19">
         <v>2.25</v>
@@ -2245,7 +2245,7 @@
         <v>44937.40625</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G20" t="s">
         <v>43</v>
@@ -2346,7 +2346,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K21">
         <v>2.375</v>
@@ -2613,7 +2613,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K24">
         <v>2.75</v>
@@ -2779,7 +2779,7 @@
         <v>44939.40625</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G26" t="s">
         <v>44</v>
@@ -2969,7 +2969,7 @@
         <v>3</v>
       </c>
       <c r="J28" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K28">
         <v>2.7</v>
@@ -3049,7 +3049,7 @@
         <v>44</v>
       </c>
       <c r="G29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3058,7 +3058,7 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K29">
         <v>2.5</v>
@@ -3236,7 +3236,7 @@
         <v>3</v>
       </c>
       <c r="J31" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K31">
         <v>4</v>
@@ -3316,7 +3316,7 @@
         <v>34</v>
       </c>
       <c r="G32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -3325,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -3414,7 +3414,7 @@
         <v>3</v>
       </c>
       <c r="J33" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K33">
         <v>2.25</v>
@@ -3503,7 +3503,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K34">
         <v>1.333</v>
@@ -3681,7 +3681,7 @@
         <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K36">
         <v>2</v>
@@ -3770,7 +3770,7 @@
         <v>3</v>
       </c>
       <c r="J37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K37">
         <v>4</v>
@@ -3847,7 +3847,7 @@
         <v>44948.5</v>
       </c>
       <c r="F38" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G38" t="s">
         <v>34</v>
@@ -3859,7 +3859,7 @@
         <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K38">
         <v>3.6</v>
@@ -3924,7 +3924,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>5774068</v>
+        <v>5774694</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3936,76 +3936,76 @@
         <v>44949.40625</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G39" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H39">
         <v>0</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K39">
+        <v>2.75</v>
+      </c>
+      <c r="L39">
+        <v>2.8</v>
+      </c>
+      <c r="M39">
+        <v>2.625</v>
+      </c>
+      <c r="N39">
+        <v>3.1</v>
+      </c>
+      <c r="O39">
         <v>2.7</v>
       </c>
-      <c r="L39">
-        <v>2.75</v>
-      </c>
-      <c r="M39">
-        <v>2.75</v>
-      </c>
-      <c r="N39">
-        <v>2.4</v>
-      </c>
-      <c r="O39">
-        <v>2.75</v>
-      </c>
       <c r="P39">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="Q39">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R39">
-        <v>2.025</v>
+        <v>1.7</v>
       </c>
       <c r="S39">
-        <v>1.775</v>
+        <v>2.1</v>
       </c>
       <c r="T39">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U39">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V39">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W39">
         <v>-1</v>
       </c>
       <c r="X39">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z39">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>0.3875</v>
+        <v>1.1</v>
       </c>
       <c r="AB39">
         <v>-1</v>
       </c>
       <c r="AC39">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4013,7 +4013,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>5774694</v>
+        <v>5774068</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4025,76 +4025,76 @@
         <v>44949.40625</v>
       </c>
       <c r="F40" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G40" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H40">
         <v>0</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K40">
+        <v>2.7</v>
+      </c>
+      <c r="L40">
         <v>2.75</v>
       </c>
-      <c r="L40">
-        <v>2.8</v>
-      </c>
       <c r="M40">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="N40">
+        <v>2.4</v>
+      </c>
+      <c r="O40">
+        <v>2.75</v>
+      </c>
+      <c r="P40">
         <v>3.1</v>
       </c>
-      <c r="O40">
-        <v>2.7</v>
-      </c>
-      <c r="P40">
-        <v>2.5</v>
-      </c>
       <c r="Q40">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R40">
-        <v>1.7</v>
+        <v>2.025</v>
       </c>
       <c r="S40">
-        <v>2.1</v>
+        <v>1.775</v>
       </c>
       <c r="T40">
+        <v>2</v>
+      </c>
+      <c r="U40">
+        <v>1.925</v>
+      </c>
+      <c r="V40">
+        <v>1.875</v>
+      </c>
+      <c r="W40">
+        <v>-1</v>
+      </c>
+      <c r="X40">
         <v>1.75</v>
       </c>
-      <c r="U40">
-        <v>1.825</v>
-      </c>
-      <c r="V40">
-        <v>1.975</v>
-      </c>
-      <c r="W40">
-        <v>-1</v>
-      </c>
-      <c r="X40">
-        <v>-1</v>
-      </c>
       <c r="Y40">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA40">
-        <v>1.1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB40">
         <v>-1</v>
       </c>
       <c r="AC40">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K41">
         <v>1.727</v>
@@ -4393,7 +4393,7 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K44">
         <v>4.5</v>
@@ -4458,7 +4458,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>5774071</v>
+        <v>5774697</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4470,76 +4470,76 @@
         <v>44950.58333333334</v>
       </c>
       <c r="F45" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G45" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J45" t="s">
         <v>51</v>
       </c>
       <c r="K45">
+        <v>5.75</v>
+      </c>
+      <c r="L45">
+        <v>3.2</v>
+      </c>
+      <c r="M45">
+        <v>1.6</v>
+      </c>
+      <c r="N45">
+        <v>8</v>
+      </c>
+      <c r="O45">
+        <v>3.5</v>
+      </c>
+      <c r="P45">
         <v>1.4</v>
       </c>
-      <c r="L45">
-        <v>4.2</v>
-      </c>
-      <c r="M45">
-        <v>6.5</v>
-      </c>
-      <c r="N45">
-        <v>1.4</v>
-      </c>
-      <c r="O45">
-        <v>4.2</v>
-      </c>
-      <c r="P45">
-        <v>5.75</v>
-      </c>
       <c r="Q45">
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="R45">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S45">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T45">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U45">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V45">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W45">
+        <v>-1</v>
+      </c>
+      <c r="X45">
+        <v>-1</v>
+      </c>
+      <c r="Y45">
         <v>0.3999999999999999</v>
       </c>
-      <c r="X45">
-        <v>-1</v>
-      </c>
-      <c r="Y45">
-        <v>-1</v>
-      </c>
       <c r="Z45">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA45">
-        <v>0.3875</v>
+        <v>-0</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC45">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4547,7 +4547,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>5774697</v>
+        <v>5774071</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4559,76 +4559,76 @@
         <v>44950.58333333334</v>
       </c>
       <c r="F46" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G46" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J46" t="s">
         <v>50</v>
       </c>
       <c r="K46">
+        <v>1.4</v>
+      </c>
+      <c r="L46">
+        <v>4.2</v>
+      </c>
+      <c r="M46">
+        <v>6.5</v>
+      </c>
+      <c r="N46">
+        <v>1.4</v>
+      </c>
+      <c r="O46">
+        <v>4.2</v>
+      </c>
+      <c r="P46">
         <v>5.75</v>
       </c>
-      <c r="L46">
-        <v>3.2</v>
-      </c>
-      <c r="M46">
-        <v>1.6</v>
-      </c>
-      <c r="N46">
-        <v>8</v>
-      </c>
-      <c r="O46">
-        <v>3.5</v>
-      </c>
-      <c r="P46">
-        <v>1.4</v>
-      </c>
       <c r="Q46">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="R46">
+        <v>2.025</v>
+      </c>
+      <c r="S46">
+        <v>1.775</v>
+      </c>
+      <c r="T46">
+        <v>2.5</v>
+      </c>
+      <c r="U46">
         <v>1.975</v>
       </c>
-      <c r="S46">
+      <c r="V46">
         <v>1.825</v>
       </c>
-      <c r="T46">
-        <v>2</v>
-      </c>
-      <c r="U46">
-        <v>1.75</v>
-      </c>
-      <c r="V46">
-        <v>2.05</v>
-      </c>
       <c r="W46">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA46">
-        <v>-0</v>
+        <v>0.3875</v>
       </c>
       <c r="AB46">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC46">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4648,7 +4648,7 @@
         <v>44953.40625</v>
       </c>
       <c r="F47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -4740,7 +4740,7 @@
         <v>35</v>
       </c>
       <c r="G48" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H48">
         <v>3</v>
@@ -4749,7 +4749,7 @@
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K48">
         <v>2</v>
@@ -4927,7 +4927,7 @@
         <v>2</v>
       </c>
       <c r="J50" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K50">
         <v>1.7</v>
@@ -5016,7 +5016,7 @@
         <v>2</v>
       </c>
       <c r="J51" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K51">
         <v>2.75</v>
@@ -5081,7 +5081,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>5774702</v>
+        <v>5774701</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5093,73 +5093,73 @@
         <v>44955.58333333334</v>
       </c>
       <c r="F52" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G52" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H52">
         <v>2</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J52" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K52">
+        <v>1.55</v>
+      </c>
+      <c r="L52">
+        <v>3.8</v>
+      </c>
+      <c r="M52">
+        <v>5.25</v>
+      </c>
+      <c r="N52">
+        <v>1.6</v>
+      </c>
+      <c r="O52">
+        <v>3.8</v>
+      </c>
+      <c r="P52">
+        <v>4.75</v>
+      </c>
+      <c r="Q52">
+        <v>-1</v>
+      </c>
+      <c r="R52">
         <v>2.05</v>
       </c>
-      <c r="L52">
-        <v>3.1</v>
-      </c>
-      <c r="M52">
-        <v>3.4</v>
-      </c>
-      <c r="N52">
-        <v>2.4</v>
-      </c>
-      <c r="O52">
-        <v>2.875</v>
-      </c>
-      <c r="P52">
+      <c r="S52">
+        <v>1.75</v>
+      </c>
+      <c r="T52">
+        <v>2.5</v>
+      </c>
+      <c r="U52">
+        <v>1.925</v>
+      </c>
+      <c r="V52">
+        <v>1.875</v>
+      </c>
+      <c r="W52">
+        <v>-1</v>
+      </c>
+      <c r="X52">
         <v>2.8</v>
       </c>
-      <c r="Q52">
-        <v>0</v>
-      </c>
-      <c r="R52">
-        <v>1.8</v>
-      </c>
-      <c r="S52">
-        <v>2</v>
-      </c>
-      <c r="T52">
-        <v>2</v>
-      </c>
-      <c r="U52">
-        <v>1.75</v>
-      </c>
-      <c r="V52">
-        <v>2.05</v>
-      </c>
-      <c r="W52">
-        <v>1.4</v>
-      </c>
-      <c r="X52">
-        <v>-1</v>
-      </c>
       <c r="Y52">
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB52">
-        <v>0.75</v>
+        <v>0.925</v>
       </c>
       <c r="AC52">
         <v>-1</v>
@@ -5170,7 +5170,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>5774701</v>
+        <v>5774702</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5182,73 +5182,73 @@
         <v>44955.58333333334</v>
       </c>
       <c r="F53" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G53" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H53">
         <v>2</v>
       </c>
       <c r="I53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K53">
-        <v>1.55</v>
+        <v>2.05</v>
       </c>
       <c r="L53">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="M53">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="N53">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="O53">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="P53">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q53">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R53">
+        <v>1.8</v>
+      </c>
+      <c r="S53">
+        <v>2</v>
+      </c>
+      <c r="T53">
+        <v>2</v>
+      </c>
+      <c r="U53">
+        <v>1.75</v>
+      </c>
+      <c r="V53">
         <v>2.05</v>
       </c>
-      <c r="S53">
-        <v>1.75</v>
-      </c>
-      <c r="T53">
-        <v>2.5</v>
-      </c>
-      <c r="U53">
-        <v>1.925</v>
-      </c>
-      <c r="V53">
-        <v>1.875</v>
-      </c>
       <c r="W53">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X53">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y53">
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA53">
+        <v>-1</v>
+      </c>
+      <c r="AB53">
         <v>0.75</v>
-      </c>
-      <c r="AB53">
-        <v>0.925</v>
       </c>
       <c r="AC53">
         <v>-1</v>
@@ -5372,7 +5372,7 @@
         <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K55">
         <v>1.615</v>
@@ -5449,10 +5449,10 @@
         <v>44962.40625</v>
       </c>
       <c r="F56" t="s">
+        <v>30</v>
+      </c>
+      <c r="G56" t="s">
         <v>29</v>
-      </c>
-      <c r="G56" t="s">
-        <v>30</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5461,7 +5461,7 @@
         <v>2</v>
       </c>
       <c r="J56" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K56">
         <v>2.6</v>
@@ -5550,7 +5550,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K57">
         <v>1.833</v>
@@ -5728,7 +5728,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K59">
         <v>4.333</v>
@@ -5906,7 +5906,7 @@
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K61">
         <v>5.25</v>
@@ -5995,7 +5995,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K62">
         <v>1.95</v>
@@ -6075,7 +6075,7 @@
         <v>31</v>
       </c>
       <c r="G63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H63">
         <v>2</v>
@@ -6084,7 +6084,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K63">
         <v>2</v>
@@ -6173,7 +6173,7 @@
         <v>3</v>
       </c>
       <c r="J64" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K64">
         <v>3.1</v>
@@ -6262,7 +6262,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K65">
         <v>2.25</v>
@@ -6342,7 +6342,7 @@
         <v>46</v>
       </c>
       <c r="G66" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -6351,7 +6351,7 @@
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K66">
         <v>1.909</v>
@@ -6440,7 +6440,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K67">
         <v>2.2</v>
@@ -6529,7 +6529,7 @@
         <v>3</v>
       </c>
       <c r="J68" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K68">
         <v>3.1</v>
@@ -6618,7 +6618,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K69">
         <v>1.5</v>
@@ -6707,7 +6707,7 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K70">
         <v>1.666</v>
@@ -6873,7 +6873,7 @@
         <v>44977.5</v>
       </c>
       <c r="F72" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G72" t="s">
         <v>31</v>
@@ -6885,7 +6885,7 @@
         <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K72">
         <v>3.5</v>
@@ -7051,7 +7051,7 @@
         <v>44978.40625</v>
       </c>
       <c r="F74" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G74" t="s">
         <v>32</v>
@@ -7063,7 +7063,7 @@
         <v>3</v>
       </c>
       <c r="J74" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K74">
         <v>7</v>
@@ -7508,7 +7508,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K79">
         <v>1.85</v>
@@ -7588,7 +7588,7 @@
         <v>33</v>
       </c>
       <c r="G80" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -7597,7 +7597,7 @@
         <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K80">
         <v>2.75</v>
@@ -7686,7 +7686,7 @@
         <v>4</v>
       </c>
       <c r="J81" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K81">
         <v>2.625</v>
@@ -7775,7 +7775,7 @@
         <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K82">
         <v>2.25</v>
@@ -7864,7 +7864,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K83">
         <v>1.95</v>
@@ -7944,7 +7944,7 @@
         <v>32</v>
       </c>
       <c r="G84" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H84">
         <v>1</v>
@@ -8042,7 +8042,7 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K85">
         <v>3.5</v>
@@ -8386,7 +8386,7 @@
         <v>44991.41666666666</v>
       </c>
       <c r="F89" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G89" t="s">
         <v>33</v>
@@ -8398,7 +8398,7 @@
         <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K89">
         <v>2.4</v>
@@ -8487,7 +8487,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K90">
         <v>2.5</v>
@@ -8576,7 +8576,7 @@
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K91">
         <v>1.45</v>
@@ -8754,7 +8754,7 @@
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K93">
         <v>2.15</v>
@@ -8831,7 +8831,7 @@
         <v>44997.41666666666</v>
       </c>
       <c r="F94" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G94" t="s">
         <v>36</v>
@@ -8843,7 +8843,7 @@
         <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K94">
         <v>3.4</v>
@@ -8932,7 +8932,7 @@
         <v>2</v>
       